--- a/ConfigData/Xlsx/Monster.xlsx
+++ b/ConfigData/Xlsx/Monster.xlsx
@@ -6006,102 +6006,6 @@
   <dxfs count="73">
     <dxf>
       <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -6947,6 +6851,90 @@
     </dxf>
     <dxf>
       <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -7767,6 +7755,18 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -8059,11 +8059,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-545541744"/>
-        <c:axId val="-545546096"/>
+        <c:axId val="-480399776"/>
+        <c:axId val="-480399232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-545541744"/>
+        <c:axId val="-480399776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8106,7 +8106,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-545546096"/>
+        <c:crossAx val="-480399232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8114,7 +8114,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-545546096"/>
+        <c:axId val="-480399232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8165,7 +8165,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-545541744"/>
+        <c:crossAx val="-480399776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17858,93 +17858,93 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AC311" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71" tableBorderDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AC311" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70" tableBorderDxfId="69">
   <autoFilter ref="A3:AC311"/>
   <sortState ref="A4:AD311">
     <sortCondition ref="A3:A311"/>
   </sortState>
   <tableColumns count="29">
-    <tableColumn id="1" name="Id" dataDxfId="69"/>
-    <tableColumn id="2" name="Name" dataDxfId="68"/>
-    <tableColumn id="22" name="Ename" dataDxfId="67"/>
-    <tableColumn id="23" name="EnameShort" dataDxfId="66"/>
-    <tableColumn id="3" name="Star" dataDxfId="65"/>
-    <tableColumn id="4" name="Type" dataDxfId="64"/>
-    <tableColumn id="5" name="Attr" dataDxfId="63"/>
-    <tableColumn id="12" name="Cost" dataDxfId="62"/>
-    <tableColumn id="6" name="AtkP" dataDxfId="61"/>
-    <tableColumn id="7" name="DefP" dataDxfId="60"/>
-    <tableColumn id="8" name="MagP" dataDxfId="59"/>
-    <tableColumn id="27" name="LukP" dataDxfId="58"/>
-    <tableColumn id="11" name="SpdP" dataDxfId="57"/>
-    <tableColumn id="24" name="VitP" dataDxfId="56"/>
-    <tableColumn id="26" name="Sum" dataDxfId="55">
+    <tableColumn id="1" name="Id" dataDxfId="68"/>
+    <tableColumn id="2" name="Name" dataDxfId="67"/>
+    <tableColumn id="22" name="Ename" dataDxfId="66"/>
+    <tableColumn id="23" name="EnameShort" dataDxfId="65"/>
+    <tableColumn id="3" name="Star" dataDxfId="64"/>
+    <tableColumn id="4" name="Type" dataDxfId="63"/>
+    <tableColumn id="5" name="Attr" dataDxfId="62"/>
+    <tableColumn id="12" name="Cost" dataDxfId="61"/>
+    <tableColumn id="6" name="AtkP" dataDxfId="60"/>
+    <tableColumn id="7" name="DefP" dataDxfId="59"/>
+    <tableColumn id="8" name="MagP" dataDxfId="58"/>
+    <tableColumn id="27" name="LukP" dataDxfId="57"/>
+    <tableColumn id="11" name="SpdP" dataDxfId="56"/>
+    <tableColumn id="24" name="VitP" dataDxfId="55"/>
+    <tableColumn id="26" name="Sum" dataDxfId="54">
       <calculatedColumnFormula>SUM(I4:N4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="Modify" dataDxfId="54"/>
-    <tableColumn id="13" name="Range" dataDxfId="53"/>
-    <tableColumn id="14" name="Mov" dataDxfId="52"/>
-    <tableColumn id="16" name="Arrow" dataDxfId="51"/>
-    <tableColumn id="17" name="Cover" dataDxfId="50"/>
-    <tableColumn id="18" name="Skills" dataDxfId="49"/>
-    <tableColumn id="30" name="AttrAtk" dataDxfId="48"/>
-    <tableColumn id="31" name="AttrDef" dataDxfId="47"/>
-    <tableColumn id="20" name="Res" dataDxfId="46"/>
-    <tableColumn id="21" name="Icon" dataDxfId="45"/>
-    <tableColumn id="15" name="IsSpecial" dataDxfId="44"/>
-    <tableColumn id="28" name="IsNew" dataDxfId="43"/>
-    <tableColumn id="19" name="VsMark" dataDxfId="42"/>
-    <tableColumn id="29" name="Remark" dataDxfId="41"/>
+    <tableColumn id="25" name="Modify" dataDxfId="53"/>
+    <tableColumn id="13" name="Range" dataDxfId="52"/>
+    <tableColumn id="14" name="Mov" dataDxfId="51"/>
+    <tableColumn id="16" name="Arrow" dataDxfId="50"/>
+    <tableColumn id="17" name="Cover" dataDxfId="49"/>
+    <tableColumn id="18" name="Skills" dataDxfId="48"/>
+    <tableColumn id="30" name="AttrAtk" dataDxfId="47"/>
+    <tableColumn id="31" name="AttrDef" dataDxfId="46"/>
+    <tableColumn id="20" name="Res" dataDxfId="45"/>
+    <tableColumn id="21" name="Icon" dataDxfId="44"/>
+    <tableColumn id="15" name="IsSpecial" dataDxfId="43"/>
+    <tableColumn id="28" name="IsNew" dataDxfId="42"/>
+    <tableColumn id="19" name="VsMark" dataDxfId="41"/>
+    <tableColumn id="29" name="Remark" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_4" displayName="表1_4" ref="A3:AC9" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39" tableBorderDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_4" displayName="表1_4" ref="A3:AC9" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31" tableBorderDxfId="30">
   <autoFilter ref="A3:AC9"/>
   <sortState ref="A4:AC9">
     <sortCondition ref="A3:A9"/>
   </sortState>
   <tableColumns count="29">
-    <tableColumn id="1" name="Id" dataDxfId="37"/>
-    <tableColumn id="2" name="Name" dataDxfId="36"/>
-    <tableColumn id="22" name="Ename" dataDxfId="35"/>
-    <tableColumn id="23" name="EnameShort" dataDxfId="34"/>
-    <tableColumn id="3" name="Star" dataDxfId="33"/>
-    <tableColumn id="4" name="Type" dataDxfId="32"/>
-    <tableColumn id="5" name="Attr" dataDxfId="31"/>
-    <tableColumn id="12" name="Cost" dataDxfId="30"/>
-    <tableColumn id="6" name="AtkP" dataDxfId="29"/>
-    <tableColumn id="7" name="DefP" dataDxfId="28"/>
-    <tableColumn id="8" name="MagP" dataDxfId="27"/>
-    <tableColumn id="27" name="LukP" dataDxfId="26"/>
-    <tableColumn id="11" name="SpdP" dataDxfId="25"/>
-    <tableColumn id="24" name="VitP" dataDxfId="24"/>
-    <tableColumn id="26" name="Sum" dataDxfId="23">
+    <tableColumn id="1" name="Id" dataDxfId="29"/>
+    <tableColumn id="2" name="Name" dataDxfId="28"/>
+    <tableColumn id="22" name="Ename" dataDxfId="27"/>
+    <tableColumn id="23" name="EnameShort" dataDxfId="26"/>
+    <tableColumn id="3" name="Star" dataDxfId="25"/>
+    <tableColumn id="4" name="Type" dataDxfId="24"/>
+    <tableColumn id="5" name="Attr" dataDxfId="23"/>
+    <tableColumn id="12" name="Cost" dataDxfId="22"/>
+    <tableColumn id="6" name="AtkP" dataDxfId="21"/>
+    <tableColumn id="7" name="DefP" dataDxfId="20"/>
+    <tableColumn id="8" name="MagP" dataDxfId="19"/>
+    <tableColumn id="27" name="LukP" dataDxfId="18"/>
+    <tableColumn id="11" name="SpdP" dataDxfId="17"/>
+    <tableColumn id="24" name="VitP" dataDxfId="16"/>
+    <tableColumn id="26" name="Sum" dataDxfId="15">
       <calculatedColumnFormula>SUM(I4:N4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="Modify" dataDxfId="22"/>
-    <tableColumn id="13" name="Range" dataDxfId="21"/>
-    <tableColumn id="14" name="Mov" dataDxfId="20"/>
-    <tableColumn id="16" name="Arrow" dataDxfId="19"/>
-    <tableColumn id="17" name="Cover" dataDxfId="18"/>
-    <tableColumn id="18" name="Skills" dataDxfId="17"/>
-    <tableColumn id="30" name="AttrAtk" dataDxfId="16"/>
-    <tableColumn id="31" name="AttrDef" dataDxfId="15"/>
-    <tableColumn id="20" name="Res" dataDxfId="14"/>
-    <tableColumn id="21" name="Icon" dataDxfId="13"/>
-    <tableColumn id="15" name="IsSpecial" dataDxfId="12"/>
-    <tableColumn id="28" name="IsNew" dataDxfId="11"/>
-    <tableColumn id="19" name="VsMark" dataDxfId="10"/>
-    <tableColumn id="29" name="Remark" dataDxfId="9"/>
+    <tableColumn id="25" name="Modify" dataDxfId="14"/>
+    <tableColumn id="13" name="Range" dataDxfId="13"/>
+    <tableColumn id="14" name="Mov" dataDxfId="12"/>
+    <tableColumn id="16" name="Arrow" dataDxfId="11"/>
+    <tableColumn id="17" name="Cover" dataDxfId="10"/>
+    <tableColumn id="18" name="Skills" dataDxfId="9"/>
+    <tableColumn id="30" name="AttrAtk" dataDxfId="8"/>
+    <tableColumn id="31" name="AttrDef" dataDxfId="7"/>
+    <tableColumn id="20" name="Res" dataDxfId="6"/>
+    <tableColumn id="21" name="Icon" dataDxfId="5"/>
+    <tableColumn id="15" name="IsSpecial" dataDxfId="4"/>
+    <tableColumn id="28" name="IsNew" dataDxfId="3"/>
+    <tableColumn id="19" name="VsMark" dataDxfId="2"/>
+    <tableColumn id="29" name="Remark" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:I15" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:I15" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A1:I15"/>
   <tableColumns count="9">
     <tableColumn id="1" name="星级"/>
@@ -18254,7 +18254,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q1" sqref="Q1:R3"/>
+      <selection pane="bottomRight" activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -18593,10 +18593,10 @@
         <v>-5</v>
       </c>
       <c r="Q4" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R4" s="4">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="S4" s="4" t="s">
         <v>2</v>
@@ -18681,10 +18681,10 @@
         <v>-5</v>
       </c>
       <c r="Q5" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R5" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S5" s="4" t="s">
         <v>4</v>
@@ -18767,10 +18767,10 @@
         <v>-3</v>
       </c>
       <c r="Q6" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R6" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S6" s="4" t="s">
         <v>6</v>
@@ -18853,10 +18853,10 @@
         <v>-2</v>
       </c>
       <c r="Q7" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R7" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S7" s="4" t="s">
         <v>0</v>
@@ -18939,10 +18939,10 @@
         <v>-1</v>
       </c>
       <c r="Q8" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R8" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S8" s="4" t="s">
         <v>9</v>
@@ -19027,10 +19027,10 @@
         <v>-1</v>
       </c>
       <c r="Q9" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R9" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S9" s="4" t="s">
         <v>11</v>
@@ -19113,10 +19113,10 @@
         <v>-3</v>
       </c>
       <c r="Q10" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R10" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S10" s="4" t="s">
         <v>12</v>
@@ -19199,10 +19199,10 @@
         <v>-3</v>
       </c>
       <c r="Q11" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R11" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S11" s="4" t="s">
         <v>14</v>
@@ -19285,10 +19285,10 @@
         <v>-3</v>
       </c>
       <c r="Q12" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R12" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S12" s="4" t="s">
         <v>16</v>
@@ -19371,10 +19371,10 @@
         <v>-3</v>
       </c>
       <c r="Q13" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R13" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S13" s="4" t="s">
         <v>16</v>
@@ -19457,10 +19457,10 @@
         <v>-5</v>
       </c>
       <c r="Q14" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R14" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S14" s="4" t="s">
         <v>6</v>
@@ -19543,10 +19543,10 @@
         <v>-3</v>
       </c>
       <c r="Q15" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R15" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S15" s="4" t="s">
         <v>19</v>
@@ -19631,10 +19631,10 @@
         <v>-4</v>
       </c>
       <c r="Q16" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R16" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S16" s="4" t="s">
         <v>16</v>
@@ -19719,10 +19719,10 @@
         <v>-3</v>
       </c>
       <c r="Q17" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R17" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S17" s="4" t="s">
         <v>22</v>
@@ -19807,10 +19807,10 @@
         <v>-3</v>
       </c>
       <c r="Q18" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R18" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S18" s="4" t="s">
         <v>16</v>
@@ -19893,10 +19893,10 @@
         <v>-3</v>
       </c>
       <c r="Q19" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R19" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S19" s="4" t="s">
         <v>24</v>
@@ -19979,10 +19979,10 @@
         <v>-3</v>
       </c>
       <c r="Q20" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R20" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S20" s="4" t="s">
         <v>22</v>
@@ -20065,10 +20065,10 @@
         <v>-3</v>
       </c>
       <c r="Q21" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R21" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S21" s="4" t="s">
         <v>12</v>
@@ -20153,10 +20153,10 @@
         <v>-3</v>
       </c>
       <c r="Q22" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R22" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S22" s="4" t="s">
         <v>19</v>
@@ -20239,10 +20239,10 @@
         <v>-5</v>
       </c>
       <c r="Q23" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R23" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S23" s="4" t="s">
         <v>2</v>
@@ -20327,10 +20327,10 @@
         <v>-2</v>
       </c>
       <c r="Q24" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R24" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S24" s="4" t="s">
         <v>0</v>
@@ -20413,10 +20413,10 @@
         <v>-3</v>
       </c>
       <c r="Q25" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R25" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S25" s="4" t="s">
         <v>31</v>
@@ -20499,10 +20499,10 @@
         <v>-3</v>
       </c>
       <c r="Q26" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R26" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S26" s="4" t="s">
         <v>2</v>
@@ -20587,10 +20587,10 @@
         <v>-5</v>
       </c>
       <c r="Q27" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R27" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S27" s="4" t="s">
         <v>16</v>
@@ -20673,10 +20673,10 @@
         <v>-3</v>
       </c>
       <c r="Q28" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R28" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S28" s="4" t="s">
         <v>6</v>
@@ -20759,10 +20759,10 @@
         <v>-3</v>
       </c>
       <c r="Q29" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R29" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S29" s="4" t="s">
         <v>9</v>
@@ -20845,10 +20845,10 @@
         <v>-2</v>
       </c>
       <c r="Q30" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R30" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S30" s="4" t="s">
         <v>12</v>
@@ -20931,10 +20931,10 @@
         <v>-2</v>
       </c>
       <c r="Q31" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R31" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S31" s="4" t="s">
         <v>38</v>
@@ -21017,10 +21017,10 @@
         <v>-3</v>
       </c>
       <c r="Q32" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R32" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S32" s="4" t="s">
         <v>40</v>
@@ -21103,10 +21103,10 @@
         <v>5</v>
       </c>
       <c r="Q33" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R33" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S33" s="4" t="s">
         <v>9</v>
@@ -21189,10 +21189,10 @@
         <v>-9</v>
       </c>
       <c r="Q34" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R34" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S34" s="4" t="s">
         <v>16</v>
@@ -21275,10 +21275,10 @@
         <v>0</v>
       </c>
       <c r="Q35" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R35" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S35" s="4" t="s">
         <v>9</v>
@@ -21361,10 +21361,10 @@
         <v>-2</v>
       </c>
       <c r="Q36" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R36" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S36" s="4" t="s">
         <v>45</v>
@@ -21447,10 +21447,10 @@
         <v>-2</v>
       </c>
       <c r="Q37" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R37" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S37" s="4" t="s">
         <v>38</v>
@@ -21533,10 +21533,10 @@
         <v>-2</v>
       </c>
       <c r="Q38" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R38" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S38" s="4" t="s">
         <v>12</v>
@@ -21621,10 +21621,10 @@
         <v>1</v>
       </c>
       <c r="Q39" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R39" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S39" s="4" t="s">
         <v>12</v>
@@ -21705,10 +21705,10 @@
         <v>0</v>
       </c>
       <c r="Q40" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R40" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S40" s="4" t="s">
         <v>6</v>
@@ -21791,10 +21791,10 @@
         <v>-2</v>
       </c>
       <c r="Q41" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R41" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S41" s="4" t="s">
         <v>51</v>
@@ -21877,10 +21877,10 @@
         <v>1</v>
       </c>
       <c r="Q42" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R42" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S42" s="4" t="s">
         <v>53</v>
@@ -21963,10 +21963,10 @@
         <v>-3</v>
       </c>
       <c r="Q43" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R43" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S43" s="4" t="s">
         <v>4</v>
@@ -22049,10 +22049,10 @@
         <v>-1</v>
       </c>
       <c r="Q44" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R44" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S44" s="4" t="s">
         <v>16</v>
@@ -22135,10 +22135,10 @@
         <v>-3</v>
       </c>
       <c r="Q45" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R45" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S45" s="4" t="s">
         <v>4</v>
@@ -22221,10 +22221,10 @@
         <v>-2</v>
       </c>
       <c r="Q46" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R46" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S46" s="4" t="s">
         <v>2</v>
@@ -22307,10 +22307,10 @@
         <v>-5</v>
       </c>
       <c r="Q47" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R47" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S47" s="4" t="s">
         <v>16</v>
@@ -22393,10 +22393,10 @@
         <v>-3</v>
       </c>
       <c r="Q48" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R48" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S48" s="4" t="s">
         <v>16</v>
@@ -22479,10 +22479,10 @@
         <v>-3</v>
       </c>
       <c r="Q49" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R49" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S49" s="4" t="s">
         <v>19</v>
@@ -22565,10 +22565,10 @@
         <v>-3</v>
       </c>
       <c r="Q50" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R50" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S50" s="4" t="s">
         <v>2</v>
@@ -22651,10 +22651,10 @@
         <v>-3</v>
       </c>
       <c r="Q51" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R51" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S51" s="4" t="s">
         <v>9</v>
@@ -22737,10 +22737,10 @@
         <v>-2</v>
       </c>
       <c r="Q52" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R52" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S52" s="4" t="s">
         <v>9</v>
@@ -22823,10 +22823,10 @@
         <v>-5</v>
       </c>
       <c r="Q53" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R53" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S53" s="4" t="s">
         <v>16</v>
@@ -22909,10 +22909,10 @@
         <v>-2</v>
       </c>
       <c r="Q54" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R54" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S54" s="4" t="s">
         <v>64</v>
@@ -22995,10 +22995,10 @@
         <v>-3</v>
       </c>
       <c r="Q55" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R55" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S55" s="4" t="s">
         <v>65</v>
@@ -23081,10 +23081,10 @@
         <v>-3</v>
       </c>
       <c r="Q56" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R56" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S56" s="4" t="s">
         <v>4</v>
@@ -23167,10 +23167,10 @@
         <v>-3</v>
       </c>
       <c r="Q57" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R57" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S57" s="4" t="s">
         <v>4</v>
@@ -23253,10 +23253,10 @@
         <v>-3</v>
       </c>
       <c r="Q58" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R58" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S58" s="4" t="s">
         <v>4</v>
@@ -23339,10 +23339,10 @@
         <v>3</v>
       </c>
       <c r="Q59" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R59" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S59" s="4" t="s">
         <v>69</v>
@@ -23425,10 +23425,10 @@
         <v>-2</v>
       </c>
       <c r="Q60" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R60" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S60" s="4" t="s">
         <v>9</v>
@@ -23511,10 +23511,10 @@
         <v>-3</v>
       </c>
       <c r="Q61" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R61" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S61" s="4" t="s">
         <v>24</v>
@@ -23597,10 +23597,10 @@
         <v>-4</v>
       </c>
       <c r="Q62" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R62" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S62" s="4" t="s">
         <v>65</v>
@@ -23683,10 +23683,10 @@
         <v>-1</v>
       </c>
       <c r="Q63" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R63" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S63" s="4" t="s">
         <v>38</v>
@@ -23769,10 +23769,10 @@
         <v>-3</v>
       </c>
       <c r="Q64" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R64" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S64" s="4" t="s">
         <v>24</v>
@@ -23853,10 +23853,10 @@
         <v>-2</v>
       </c>
       <c r="Q65" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R65" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S65" s="4" t="s">
         <v>6</v>
@@ -23941,10 +23941,10 @@
         <v>-3</v>
       </c>
       <c r="Q66" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R66" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S66" s="4" t="s">
         <v>2</v>
@@ -24029,10 +24029,10 @@
         <v>0</v>
       </c>
       <c r="Q67" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R67" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S67" s="4" t="s">
         <v>78</v>
@@ -24115,10 +24115,10 @@
         <v>1</v>
       </c>
       <c r="Q68" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R68" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S68" s="4" t="s">
         <v>78</v>
@@ -24203,10 +24203,10 @@
         <v>-2</v>
       </c>
       <c r="Q69" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R69" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S69" s="4" t="s">
         <v>40</v>
@@ -24289,10 +24289,10 @@
         <v>2</v>
       </c>
       <c r="Q70" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R70" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S70" s="4" t="s">
         <v>16</v>
@@ -24375,10 +24375,10 @@
         <v>2</v>
       </c>
       <c r="Q71" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R71" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S71" s="4" t="s">
         <v>2</v>
@@ -24461,10 +24461,10 @@
         <v>3</v>
       </c>
       <c r="Q72" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R72" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S72" s="4" t="s">
         <v>2</v>
@@ -24547,10 +24547,10 @@
         <v>0</v>
       </c>
       <c r="Q73" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R73" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S73" s="4" t="s">
         <v>86</v>
@@ -24633,10 +24633,10 @@
         <v>-7</v>
       </c>
       <c r="Q74" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R74" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S74" s="4" t="s">
         <v>6</v>
@@ -24719,10 +24719,10 @@
         <v>-3</v>
       </c>
       <c r="Q75" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R75" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S75" s="4" t="s">
         <v>89</v>
@@ -24805,10 +24805,10 @@
         <v>2</v>
       </c>
       <c r="Q76" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R76" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S76" s="4" t="s">
         <v>12</v>
@@ -24891,10 +24891,10 @@
         <v>-3</v>
       </c>
       <c r="Q77" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R77" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S77" s="4" t="s">
         <v>92</v>
@@ -24977,10 +24977,10 @@
         <v>0</v>
       </c>
       <c r="Q78" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R78" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S78" s="4" t="s">
         <v>94</v>
@@ -25063,10 +25063,10 @@
         <v>-3</v>
       </c>
       <c r="Q79" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R79" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S79" s="4" t="s">
         <v>4</v>
@@ -25151,10 +25151,10 @@
         <v>-3</v>
       </c>
       <c r="Q80" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R80" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S80" s="4" t="s">
         <v>4</v>
@@ -25239,10 +25239,10 @@
         <v>-3</v>
       </c>
       <c r="Q81" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R81" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S81" s="4" t="s">
         <v>2</v>
@@ -25325,10 +25325,10 @@
         <v>-5</v>
       </c>
       <c r="Q82" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R82" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S82" s="4" t="s">
         <v>2</v>
@@ -25411,10 +25411,10 @@
         <v>-3</v>
       </c>
       <c r="Q83" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R83" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S83" s="4" t="s">
         <v>38</v>
@@ -25497,10 +25497,10 @@
         <v>0</v>
       </c>
       <c r="Q84" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R84" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S84" s="4" t="s">
         <v>100</v>
@@ -25583,10 +25583,10 @@
         <v>-5</v>
       </c>
       <c r="Q85" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R85" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S85" s="4" t="s">
         <v>2</v>
@@ -25669,10 +25669,10 @@
         <v>-2</v>
       </c>
       <c r="Q86" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R86" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S86" s="4" t="s">
         <v>6</v>
@@ -25755,10 +25755,10 @@
         <v>0</v>
       </c>
       <c r="Q87" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R87" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S87" s="4" t="s">
         <v>86</v>
@@ -25841,10 +25841,10 @@
         <v>-3</v>
       </c>
       <c r="Q88" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R88" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S88" s="4" t="s">
         <v>0</v>
@@ -25927,10 +25927,10 @@
         <v>-2</v>
       </c>
       <c r="Q89" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R89" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S89" s="4" t="s">
         <v>105</v>
@@ -26013,10 +26013,10 @@
         <v>-2</v>
       </c>
       <c r="Q90" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R90" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S90" s="4" t="s">
         <v>107</v>
@@ -26099,10 +26099,10 @@
         <v>-2</v>
       </c>
       <c r="Q91" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R91" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S91" s="4" t="s">
         <v>105</v>
@@ -26185,10 +26185,10 @@
         <v>-6</v>
       </c>
       <c r="Q92" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R92" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S92" s="4" t="s">
         <v>16</v>
@@ -26271,10 +26271,10 @@
         <v>-1</v>
       </c>
       <c r="Q93" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R93" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S93" s="4" t="s">
         <v>111</v>
@@ -26357,10 +26357,10 @@
         <v>-3</v>
       </c>
       <c r="Q94" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R94" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S94" s="4" t="s">
         <v>78</v>
@@ -26443,10 +26443,10 @@
         <v>-3</v>
       </c>
       <c r="Q95" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R95" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S95" s="4" t="s">
         <v>107</v>
@@ -26529,10 +26529,10 @@
         <v>-7</v>
       </c>
       <c r="Q96" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R96" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S96" s="4" t="s">
         <v>2</v>
@@ -26615,10 +26615,10 @@
         <v>3</v>
       </c>
       <c r="Q97" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R97" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S97" s="4" t="s">
         <v>22</v>
@@ -26701,10 +26701,10 @@
         <v>-1</v>
       </c>
       <c r="Q98" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R98" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S98" s="4" t="s">
         <v>94</v>
@@ -26787,10 +26787,10 @@
         <v>-3</v>
       </c>
       <c r="Q99" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R99" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S99" s="4" t="s">
         <v>118</v>
@@ -26873,10 +26873,10 @@
         <v>1</v>
       </c>
       <c r="Q100" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R100" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S100" s="4" t="s">
         <v>78</v>
@@ -26961,10 +26961,10 @@
         <v>-3</v>
       </c>
       <c r="Q101" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R101" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S101" s="4" t="s">
         <v>4</v>
@@ -27047,10 +27047,10 @@
         <v>0</v>
       </c>
       <c r="Q102" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R102" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S102" s="4" t="s">
         <v>16</v>
@@ -27133,10 +27133,10 @@
         <v>-3</v>
       </c>
       <c r="Q103" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R103" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S103" s="4" t="s">
         <v>9</v>
@@ -27219,10 +27219,10 @@
         <v>-5</v>
       </c>
       <c r="Q104" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R104" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S104" s="4" t="s">
         <v>4</v>
@@ -27305,10 +27305,10 @@
         <v>-2</v>
       </c>
       <c r="Q105" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R105" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S105" s="4" t="s">
         <v>107</v>
@@ -27391,10 +27391,10 @@
         <v>0</v>
       </c>
       <c r="Q106" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R106" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S106" s="4" t="s">
         <v>9</v>
@@ -27477,10 +27477,10 @@
         <v>-2</v>
       </c>
       <c r="Q107" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R107" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S107" s="4" t="s">
         <v>9</v>
@@ -27563,10 +27563,10 @@
         <v>-3</v>
       </c>
       <c r="Q108" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R108" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S108" s="4" t="s">
         <v>2</v>
@@ -27649,10 +27649,10 @@
         <v>-1</v>
       </c>
       <c r="Q109" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R109" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S109" s="4" t="s">
         <v>128</v>
@@ -27735,10 +27735,10 @@
         <v>-1</v>
       </c>
       <c r="Q110" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R110" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S110" s="4" t="s">
         <v>130</v>
@@ -27821,10 +27821,10 @@
         <v>-3</v>
       </c>
       <c r="Q111" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R111" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S111" s="4" t="s">
         <v>132</v>
@@ -27907,10 +27907,10 @@
         <v>-1</v>
       </c>
       <c r="Q112" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R112" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S112" s="4" t="s">
         <v>118</v>
@@ -27993,10 +27993,10 @@
         <v>-1</v>
       </c>
       <c r="Q113" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R113" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S113" s="4" t="s">
         <v>135</v>
@@ -28079,10 +28079,10 @@
         <v>1</v>
       </c>
       <c r="Q114" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R114" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S114" s="4" t="s">
         <v>89</v>
@@ -28167,10 +28167,10 @@
         <v>1</v>
       </c>
       <c r="Q115" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R115" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S115" s="4" t="s">
         <v>94</v>
@@ -28255,10 +28255,10 @@
         <v>1</v>
       </c>
       <c r="Q116" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R116" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S116" s="4" t="s">
         <v>31</v>
@@ -28343,10 +28343,10 @@
         <v>-2</v>
       </c>
       <c r="Q117" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R117" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S117" s="4" t="s">
         <v>4</v>
@@ -28429,10 +28429,10 @@
         <v>1</v>
       </c>
       <c r="Q118" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R118" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S118" s="4" t="s">
         <v>40</v>
@@ -28517,10 +28517,10 @@
         <v>1</v>
       </c>
       <c r="Q119" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R119" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S119" s="4" t="s">
         <v>100</v>
@@ -28605,10 +28605,10 @@
         <v>1</v>
       </c>
       <c r="Q120" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R120" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S120" s="4" t="s">
         <v>51</v>
@@ -28693,10 +28693,10 @@
         <v>1</v>
       </c>
       <c r="Q121" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R121" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S121" s="4" t="s">
         <v>22</v>
@@ -28781,10 +28781,10 @@
         <v>-3</v>
       </c>
       <c r="Q122" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R122" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S122" s="4" t="s">
         <v>4</v>
@@ -28867,10 +28867,10 @@
         <v>-1</v>
       </c>
       <c r="Q123" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R123" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S123" s="4" t="s">
         <v>4</v>
@@ -28953,10 +28953,10 @@
         <v>-3</v>
       </c>
       <c r="Q124" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R124" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S124" s="4" t="s">
         <v>2</v>
@@ -29039,10 +29039,10 @@
         <v>0</v>
       </c>
       <c r="Q125" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R125" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S125" s="4" t="s">
         <v>2</v>
@@ -29125,10 +29125,10 @@
         <v>-3</v>
       </c>
       <c r="Q126" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R126" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S126" s="4" t="s">
         <v>24</v>
@@ -29211,10 +29211,10 @@
         <v>-1</v>
       </c>
       <c r="Q127" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R127" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S127" s="4" t="s">
         <v>4</v>
@@ -29297,10 +29297,10 @@
         <v>-3</v>
       </c>
       <c r="Q128" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R128" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S128" s="4" t="s">
         <v>4</v>
@@ -29383,10 +29383,10 @@
         <v>-7</v>
       </c>
       <c r="Q129" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R129" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S129" s="4" t="s">
         <v>2</v>
@@ -29469,10 +29469,10 @@
         <v>-2</v>
       </c>
       <c r="Q130" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R130" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S130" s="4" t="s">
         <v>107</v>
@@ -29555,10 +29555,10 @@
         <v>-4</v>
       </c>
       <c r="Q131" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R131" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S131" s="4" t="s">
         <v>6</v>
@@ -29641,10 +29641,10 @@
         <v>-2</v>
       </c>
       <c r="Q132" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R132" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S132" s="4" t="s">
         <v>4</v>
@@ -29727,10 +29727,10 @@
         <v>0</v>
       </c>
       <c r="Q133" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R133" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S133" s="4" t="s">
         <v>107</v>
@@ -29813,10 +29813,10 @@
         <v>-2</v>
       </c>
       <c r="Q134" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R134" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S134" s="4" t="s">
         <v>2</v>
@@ -29899,10 +29899,10 @@
         <v>-3</v>
       </c>
       <c r="Q135" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R135" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S135" s="4" t="s">
         <v>78</v>
@@ -29985,10 +29985,10 @@
         <v>-3</v>
       </c>
       <c r="Q136" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R136" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S136" s="4" t="s">
         <v>107</v>
@@ -30071,10 +30071,10 @@
         <v>-1</v>
       </c>
       <c r="Q137" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R137" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S137" s="4" t="s">
         <v>2</v>
@@ -30157,10 +30157,10 @@
         <v>-1</v>
       </c>
       <c r="Q138" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R138" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S138" s="4" t="s">
         <v>6</v>
@@ -30243,10 +30243,10 @@
         <v>-2</v>
       </c>
       <c r="Q139" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R139" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S139" s="4" t="s">
         <v>107</v>
@@ -30329,10 +30329,10 @@
         <v>-3</v>
       </c>
       <c r="Q140" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R140" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S140" s="4" t="s">
         <v>38</v>
@@ -30415,10 +30415,10 @@
         <v>-2</v>
       </c>
       <c r="Q141" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R141" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S141" s="4" t="s">
         <v>12</v>
@@ -30501,10 +30501,10 @@
         <v>-5</v>
       </c>
       <c r="Q142" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R142" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S142" s="4" t="s">
         <v>40</v>
@@ -30587,10 +30587,10 @@
         <v>-1</v>
       </c>
       <c r="Q143" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R143" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S143" s="4" t="s">
         <v>4</v>
@@ -30673,10 +30673,10 @@
         <v>-3</v>
       </c>
       <c r="Q144" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R144" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S144" s="4" t="s">
         <v>16</v>
@@ -30761,10 +30761,10 @@
         <v>-5</v>
       </c>
       <c r="Q145" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R145" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S145" s="4" t="s">
         <v>0</v>
@@ -30849,10 +30849,10 @@
         <v>-6</v>
       </c>
       <c r="Q146" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R146" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S146" s="4" t="s">
         <v>107</v>
@@ -30935,10 +30935,10 @@
         <v>-3</v>
       </c>
       <c r="Q147" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R147" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S147" s="4" t="s">
         <v>19</v>
@@ -31021,10 +31021,10 @@
         <v>-3</v>
       </c>
       <c r="Q148" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R148" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S148" s="4" t="s">
         <v>166</v>
@@ -31107,10 +31107,10 @@
         <v>-2</v>
       </c>
       <c r="Q149" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R149" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S149" s="4" t="s">
         <v>166</v>
@@ -31193,10 +31193,10 @@
         <v>1</v>
       </c>
       <c r="Q150" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R150" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S150" s="4" t="s">
         <v>4</v>
@@ -31279,10 +31279,10 @@
         <v>-2</v>
       </c>
       <c r="Q151" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R151" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S151" s="4" t="s">
         <v>16</v>
@@ -31365,10 +31365,10 @@
         <v>-4</v>
       </c>
       <c r="Q152" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R152" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S152" s="4" t="s">
         <v>6</v>
@@ -31453,10 +31453,10 @@
         <v>-3</v>
       </c>
       <c r="Q153" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R153" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S153" s="4" t="s">
         <v>2</v>
@@ -31539,10 +31539,10 @@
         <v>-2</v>
       </c>
       <c r="Q154" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R154" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S154" s="4" t="s">
         <v>172</v>
@@ -31625,10 +31625,10 @@
         <v>-2</v>
       </c>
       <c r="Q155" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R155" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S155" s="4" t="s">
         <v>174</v>
@@ -31711,10 +31711,10 @@
         <v>-2</v>
       </c>
       <c r="Q156" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R156" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S156" s="4" t="s">
         <v>4</v>
@@ -31797,10 +31797,10 @@
         <v>-3</v>
       </c>
       <c r="Q157" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R157" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S157" s="4" t="s">
         <v>4</v>
@@ -31885,10 +31885,10 @@
         <v>-5</v>
       </c>
       <c r="Q158" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R158" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S158" s="4" t="s">
         <v>2</v>
@@ -31971,10 +31971,10 @@
         <v>-1</v>
       </c>
       <c r="Q159" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R159" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S159" s="4" t="s">
         <v>2</v>
@@ -32057,10 +32057,10 @@
         <v>-1</v>
       </c>
       <c r="Q160" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R160" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S160" s="4" t="s">
         <v>180</v>
@@ -32143,10 +32143,10 @@
         <v>-4</v>
       </c>
       <c r="Q161" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R161" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S161" s="4" t="s">
         <v>24</v>
@@ -32231,10 +32231,10 @@
         <v>-2</v>
       </c>
       <c r="Q162" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R162" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S162" s="4" t="s">
         <v>107</v>
@@ -32317,10 +32317,10 @@
         <v>-3</v>
       </c>
       <c r="Q163" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R163" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S163" s="4" t="s">
         <v>107</v>
@@ -32403,10 +32403,10 @@
         <v>-3</v>
       </c>
       <c r="Q164" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R164" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S164" s="4" t="s">
         <v>16</v>
@@ -32489,10 +32489,10 @@
         <v>-1</v>
       </c>
       <c r="Q165" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R165" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S165" s="4" t="s">
         <v>38</v>
@@ -32575,10 +32575,10 @@
         <v>-3</v>
       </c>
       <c r="Q166" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R166" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S166" s="4" t="s">
         <v>100</v>
@@ -32661,10 +32661,10 @@
         <v>-2</v>
       </c>
       <c r="Q167" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R167" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S167" s="4" t="s">
         <v>24</v>
@@ -32747,10 +32747,10 @@
         <v>-2</v>
       </c>
       <c r="Q168" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R168" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S168" s="4" t="s">
         <v>16</v>
@@ -32833,10 +32833,10 @@
         <v>0</v>
       </c>
       <c r="Q169" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R169" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S169" s="4" t="s">
         <v>9</v>
@@ -32919,10 +32919,10 @@
         <v>0</v>
       </c>
       <c r="Q170" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R170" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S170" s="4" t="s">
         <v>9</v>
@@ -33005,10 +33005,10 @@
         <v>-2</v>
       </c>
       <c r="Q171" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R171" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S171" s="4" t="s">
         <v>4</v>
@@ -33091,10 +33091,10 @@
         <v>-1</v>
       </c>
       <c r="Q172" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R172" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S172" s="4" t="s">
         <v>4</v>
@@ -33179,10 +33179,10 @@
         <v>-3</v>
       </c>
       <c r="Q173" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R173" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S173" s="4" t="s">
         <v>191</v>
@@ -33265,10 +33265,10 @@
         <v>-2</v>
       </c>
       <c r="Q174" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R174" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S174" s="4" t="s">
         <v>69</v>
@@ -33351,10 +33351,10 @@
         <v>-3</v>
       </c>
       <c r="Q175" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R175" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S175" s="4" t="s">
         <v>2</v>
@@ -33437,10 +33437,10 @@
         <v>-1</v>
       </c>
       <c r="Q176" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R176" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S176" s="4" t="s">
         <v>12</v>
@@ -33523,10 +33523,10 @@
         <v>-3</v>
       </c>
       <c r="Q177" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R177" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S177" s="4" t="s">
         <v>4</v>
@@ -33609,10 +33609,10 @@
         <v>-3</v>
       </c>
       <c r="Q178" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R178" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S178" s="4" t="s">
         <v>4</v>
@@ -33695,10 +33695,10 @@
         <v>-15</v>
       </c>
       <c r="Q179" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R179" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S179" s="4" t="s">
         <v>2</v>
@@ -33781,10 +33781,10 @@
         <v>0</v>
       </c>
       <c r="Q180" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R180" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S180" s="4" t="s">
         <v>65</v>
@@ -33867,10 +33867,10 @@
         <v>-8</v>
       </c>
       <c r="Q181" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R181" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S181" s="7" t="s">
         <v>984</v>
@@ -33955,10 +33955,10 @@
         <v>-3</v>
       </c>
       <c r="Q182" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R182" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S182" s="4" t="s">
         <v>4</v>
@@ -34041,10 +34041,10 @@
         <v>-2</v>
       </c>
       <c r="Q183" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R183" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S183" s="4" t="s">
         <v>16</v>
@@ -34127,10 +34127,10 @@
         <v>-2</v>
       </c>
       <c r="Q184" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R184" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S184" s="4" t="s">
         <v>78</v>
@@ -34213,10 +34213,10 @@
         <v>2</v>
       </c>
       <c r="Q185" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R185" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S185" s="4" t="s">
         <v>12</v>
@@ -34299,10 +34299,10 @@
         <v>0</v>
       </c>
       <c r="Q186" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R186" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S186" s="4" t="s">
         <v>78</v>
@@ -34385,10 +34385,10 @@
         <v>-3</v>
       </c>
       <c r="Q187" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R187" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S187" s="4" t="s">
         <v>6</v>
@@ -34471,10 +34471,10 @@
         <v>-3</v>
       </c>
       <c r="Q188" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R188" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S188" s="4" t="s">
         <v>2</v>
@@ -34557,10 +34557,10 @@
         <v>-2</v>
       </c>
       <c r="Q189" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R189" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S189" s="4" t="s">
         <v>4</v>
@@ -34645,10 +34645,10 @@
         <v>-3</v>
       </c>
       <c r="Q190" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R190" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S190" s="4" t="s">
         <v>2</v>
@@ -34733,10 +34733,10 @@
         <v>-2</v>
       </c>
       <c r="Q191" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R191" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S191" s="4" t="s">
         <v>24</v>
@@ -34819,10 +34819,10 @@
         <v>-1</v>
       </c>
       <c r="Q192" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R192" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S192" s="4" t="s">
         <v>208</v>
@@ -34907,10 +34907,10 @@
         <v>-1</v>
       </c>
       <c r="Q193" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R193" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S193" s="4" t="s">
         <v>2</v>
@@ -34993,10 +34993,10 @@
         <v>-1</v>
       </c>
       <c r="Q194" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R194" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S194" s="4" t="s">
         <v>16</v>
@@ -35079,10 +35079,10 @@
         <v>-1</v>
       </c>
       <c r="Q195" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R195" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S195" s="4" t="s">
         <v>211</v>
@@ -35165,10 +35165,10 @@
         <v>-2</v>
       </c>
       <c r="Q196" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R196" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S196" s="4" t="s">
         <v>4</v>
@@ -35251,10 +35251,10 @@
         <v>-1</v>
       </c>
       <c r="Q197" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R197" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S197" s="4" t="s">
         <v>4</v>
@@ -35337,10 +35337,10 @@
         <v>-3</v>
       </c>
       <c r="Q198" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R198" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S198" s="4" t="s">
         <v>22</v>
@@ -35425,10 +35425,10 @@
         <v>-1</v>
       </c>
       <c r="Q199" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R199" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S199" s="4" t="s">
         <v>2</v>
@@ -35511,10 +35511,10 @@
         <v>-1</v>
       </c>
       <c r="Q200" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R200" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S200" s="4" t="s">
         <v>4</v>
@@ -35597,10 +35597,10 @@
         <v>-1</v>
       </c>
       <c r="Q201" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R201" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S201" s="4" t="s">
         <v>12</v>
@@ -35683,10 +35683,10 @@
         <v>-3</v>
       </c>
       <c r="Q202" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R202" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S202" s="4" t="s">
         <v>219</v>
@@ -35769,10 +35769,10 @@
         <v>-6</v>
       </c>
       <c r="Q203" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R203" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S203" s="4" t="s">
         <v>16</v>
@@ -35855,10 +35855,10 @@
         <v>-2</v>
       </c>
       <c r="Q204" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R204" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S204" s="4" t="s">
         <v>2</v>
@@ -35941,10 +35941,10 @@
         <v>-3</v>
       </c>
       <c r="Q205" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R205" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S205" s="4" t="s">
         <v>223</v>
@@ -36027,10 +36027,10 @@
         <v>-1</v>
       </c>
       <c r="Q206" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R206" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S206" s="4" t="s">
         <v>94</v>
@@ -36113,10 +36113,10 @@
         <v>-2</v>
       </c>
       <c r="Q207" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R207" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S207" s="4" t="s">
         <v>172</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="Q208" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R208" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S208" s="4" t="s">
         <v>6</v>
@@ -36285,10 +36285,10 @@
         <v>-2</v>
       </c>
       <c r="Q209" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R209" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S209" s="4" t="s">
         <v>2</v>
@@ -36371,10 +36371,10 @@
         <v>-2</v>
       </c>
       <c r="Q210" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R210" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S210" s="4" t="s">
         <v>172</v>
@@ -36457,10 +36457,10 @@
         <v>-1</v>
       </c>
       <c r="Q211" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R211" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S211" s="4" t="s">
         <v>69</v>
@@ -36543,10 +36543,10 @@
         <v>-1</v>
       </c>
       <c r="Q212" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R212" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S212" s="4" t="s">
         <v>132</v>
@@ -36629,10 +36629,10 @@
         <v>0</v>
       </c>
       <c r="Q213" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R213" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S213" s="4" t="s">
         <v>231</v>
@@ -36715,10 +36715,10 @@
         <v>-3</v>
       </c>
       <c r="Q214" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R214" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S214" s="4" t="s">
         <v>2</v>
@@ -36801,10 +36801,10 @@
         <v>-2</v>
       </c>
       <c r="Q215" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R215" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S215" s="4" t="s">
         <v>191</v>
@@ -36889,10 +36889,10 @@
         <v>-1</v>
       </c>
       <c r="Q216" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R216" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S216" s="4" t="s">
         <v>6</v>
@@ -36975,10 +36975,10 @@
         <v>-2</v>
       </c>
       <c r="Q217" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R217" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S217" s="4" t="s">
         <v>4</v>
@@ -37061,10 +37061,10 @@
         <v>-3</v>
       </c>
       <c r="Q218" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R218" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S218" s="4" t="s">
         <v>4</v>
@@ -37147,10 +37147,10 @@
         <v>-3</v>
       </c>
       <c r="Q219" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R219" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S219" s="4" t="s">
         <v>238</v>
@@ -37235,10 +37235,10 @@
         <v>-1</v>
       </c>
       <c r="Q220" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R220" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S220" s="4" t="s">
         <v>65</v>
@@ -37321,10 +37321,10 @@
         <v>0</v>
       </c>
       <c r="Q221" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R221" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S221" s="4" t="s">
         <v>241</v>
@@ -37407,10 +37407,10 @@
         <v>0</v>
       </c>
       <c r="Q222" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R222" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S222" s="4" t="s">
         <v>6</v>
@@ -37493,10 +37493,10 @@
         <v>3</v>
       </c>
       <c r="Q223" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R223" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S223" s="4" t="s">
         <v>9</v>
@@ -37579,10 +37579,10 @@
         <v>-1</v>
       </c>
       <c r="Q224" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R224" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S224" s="4" t="s">
         <v>107</v>
@@ -37665,10 +37665,10 @@
         <v>-2</v>
       </c>
       <c r="Q225" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R225" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S225" s="4" t="s">
         <v>16</v>
@@ -37751,10 +37751,10 @@
         <v>-1</v>
       </c>
       <c r="Q226" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R226" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S226" s="4" t="s">
         <v>9</v>
@@ -37837,10 +37837,10 @@
         <v>1</v>
       </c>
       <c r="Q227" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R227" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S227" s="4" t="s">
         <v>172</v>
@@ -37923,10 +37923,10 @@
         <v>-2</v>
       </c>
       <c r="Q228" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R228" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S228" s="4" t="s">
         <v>249</v>
@@ -38009,10 +38009,10 @@
         <v>-3</v>
       </c>
       <c r="Q229" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R229" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S229" s="4" t="s">
         <v>24</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="Q230" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R230" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S230" s="4" t="s">
         <v>9</v>
@@ -38181,10 +38181,10 @@
         <v>1</v>
       </c>
       <c r="Q231" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R231" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S231" s="4" t="s">
         <v>9</v>
@@ -38267,10 +38267,10 @@
         <v>-2</v>
       </c>
       <c r="Q232" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R232" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S232" s="4" t="s">
         <v>9</v>
@@ -38355,10 +38355,10 @@
         <v>-1</v>
       </c>
       <c r="Q233" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R233" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S233" s="4" t="s">
         <v>255</v>
@@ -38441,10 +38441,10 @@
         <v>-2</v>
       </c>
       <c r="Q234" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R234" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S234" s="4" t="s">
         <v>22</v>
@@ -38527,10 +38527,10 @@
         <v>-2</v>
       </c>
       <c r="Q235" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R235" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S235" s="4" t="s">
         <v>6</v>
@@ -38613,10 +38613,10 @@
         <v>-1</v>
       </c>
       <c r="Q236" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R236" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S236" s="4" t="s">
         <v>12</v>
@@ -38699,10 +38699,10 @@
         <v>3</v>
       </c>
       <c r="Q237" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R237" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S237" s="4" t="s">
         <v>2</v>
@@ -38785,10 +38785,10 @@
         <v>-7</v>
       </c>
       <c r="Q238" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R238" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S238" s="4" t="s">
         <v>4</v>
@@ -38871,10 +38871,10 @@
         <v>-3</v>
       </c>
       <c r="Q239" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R239" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S239" s="4" t="s">
         <v>4</v>
@@ -38957,10 +38957,10 @@
         <v>1</v>
       </c>
       <c r="Q240" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R240" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S240" s="4" t="s">
         <v>2</v>
@@ -39043,10 +39043,10 @@
         <v>-11</v>
       </c>
       <c r="Q241" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R241" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S241" s="4" t="s">
         <v>16</v>
@@ -39129,10 +39129,10 @@
         <v>-1</v>
       </c>
       <c r="Q242" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R242" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S242" s="4" t="s">
         <v>4</v>
@@ -39215,10 +39215,10 @@
         <v>-3</v>
       </c>
       <c r="Q243" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R243" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S243" s="4" t="s">
         <v>223</v>
@@ -39301,10 +39301,10 @@
         <v>-2</v>
       </c>
       <c r="Q244" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R244" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S244" s="4" t="s">
         <v>2</v>
@@ -39387,10 +39387,10 @@
         <v>-2</v>
       </c>
       <c r="Q245" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R245" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S245" s="4" t="s">
         <v>69</v>
@@ -39473,10 +39473,10 @@
         <v>-7</v>
       </c>
       <c r="Q246" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R246" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S246" s="4" t="s">
         <v>255</v>
@@ -39559,10 +39559,10 @@
         <v>1</v>
       </c>
       <c r="Q247" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R247" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S247" s="4" t="s">
         <v>2</v>
@@ -39645,10 +39645,10 @@
         <v>-1</v>
       </c>
       <c r="Q248" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R248" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S248" s="4" t="s">
         <v>19</v>
@@ -39731,10 +39731,10 @@
         <v>1</v>
       </c>
       <c r="Q249" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R249" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S249" s="4" t="s">
         <v>16</v>
@@ -39817,10 +39817,10 @@
         <v>0</v>
       </c>
       <c r="Q250" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R250" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S250" s="4" t="s">
         <v>2</v>
@@ -39903,10 +39903,10 @@
         <v>-3</v>
       </c>
       <c r="Q251" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R251" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S251" s="4" t="s">
         <v>4</v>
@@ -39989,10 +39989,10 @@
         <v>-5</v>
       </c>
       <c r="Q252" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R252" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S252" s="4" t="s">
         <v>135</v>
@@ -40075,10 +40075,10 @@
         <v>2</v>
       </c>
       <c r="Q253" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R253" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S253" s="4" t="s">
         <v>19</v>
@@ -40161,10 +40161,10 @@
         <v>-3</v>
       </c>
       <c r="Q254" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R254" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S254" s="4" t="s">
         <v>211</v>
@@ -40247,10 +40247,10 @@
         <v>1</v>
       </c>
       <c r="Q255" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R255" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S255" s="4" t="s">
         <v>0</v>
@@ -40335,10 +40335,10 @@
         <v>-3</v>
       </c>
       <c r="Q256" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R256" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S256" s="4" t="s">
         <v>4</v>
@@ -40421,10 +40421,10 @@
         <v>-2</v>
       </c>
       <c r="Q257" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R257" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S257" s="4" t="s">
         <v>2</v>
@@ -40507,10 +40507,10 @@
         <v>-3</v>
       </c>
       <c r="Q258" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R258" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S258" s="4" t="s">
         <v>255</v>
@@ -40593,10 +40593,10 @@
         <v>-1</v>
       </c>
       <c r="Q259" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R259" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S259" s="4" t="s">
         <v>4</v>
@@ -40679,10 +40679,10 @@
         <v>-1</v>
       </c>
       <c r="Q260" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R260" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S260" s="4" t="s">
         <v>6</v>
@@ -40765,10 +40765,10 @@
         <v>-2</v>
       </c>
       <c r="Q261" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R261" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S261" s="4" t="s">
         <v>16</v>
@@ -40851,10 +40851,10 @@
         <v>-3</v>
       </c>
       <c r="Q262" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R262" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S262" s="4" t="s">
         <v>4</v>
@@ -40937,10 +40937,10 @@
         <v>-3</v>
       </c>
       <c r="Q263" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R263" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S263" s="4" t="s">
         <v>2</v>
@@ -41025,10 +41025,10 @@
         <v>-3</v>
       </c>
       <c r="Q264" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R264" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S264" s="4" t="s">
         <v>4</v>
@@ -41111,10 +41111,10 @@
         <v>-2</v>
       </c>
       <c r="Q265" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R265" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S265" s="4" t="s">
         <v>2</v>
@@ -41197,10 +41197,10 @@
         <v>-1</v>
       </c>
       <c r="Q266" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R266" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S266" s="4" t="s">
         <v>24</v>
@@ -41283,10 +41283,10 @@
         <v>-3</v>
       </c>
       <c r="Q267" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R267" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S267" s="4" t="s">
         <v>94</v>
@@ -41369,10 +41369,10 @@
         <v>0</v>
       </c>
       <c r="Q268" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R268" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S268" s="4" t="s">
         <v>16</v>
@@ -41455,10 +41455,10 @@
         <v>2</v>
       </c>
       <c r="Q269" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R269" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S269" s="4" t="s">
         <v>9</v>
@@ -41541,10 +41541,10 @@
         <v>-3</v>
       </c>
       <c r="Q270" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R270" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S270" s="4" t="s">
         <v>16</v>
@@ -41627,10 +41627,10 @@
         <v>-3</v>
       </c>
       <c r="Q271" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R271" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S271" s="4" t="s">
         <v>40</v>
@@ -41713,10 +41713,10 @@
         <v>-3</v>
       </c>
       <c r="Q272" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R272" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S272" s="4" t="s">
         <v>31</v>
@@ -41799,10 +41799,10 @@
         <v>-3</v>
       </c>
       <c r="Q273" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R273" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S273" s="4" t="s">
         <v>89</v>
@@ -41885,10 +41885,10 @@
         <v>-3</v>
       </c>
       <c r="Q274" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R274" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S274" s="4" t="s">
         <v>0</v>
@@ -41971,10 +41971,10 @@
         <v>-1</v>
       </c>
       <c r="Q275" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R275" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S275" s="4" t="s">
         <v>281</v>
@@ -42057,10 +42057,10 @@
         <v>-5</v>
       </c>
       <c r="Q276" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R276" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S276" s="4" t="s">
         <v>22</v>
@@ -42143,10 +42143,10 @@
         <v>-2</v>
       </c>
       <c r="Q277" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R277" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S277" s="4" t="s">
         <v>78</v>
@@ -42229,10 +42229,10 @@
         <v>-1</v>
       </c>
       <c r="Q278" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R278" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S278" s="4" t="s">
         <v>4</v>
@@ -42315,10 +42315,10 @@
         <v>-1</v>
       </c>
       <c r="Q279" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R279" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S279" s="4" t="s">
         <v>4</v>
@@ -42401,10 +42401,10 @@
         <v>-3</v>
       </c>
       <c r="Q280" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R280" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S280" s="4" t="s">
         <v>16</v>
@@ -42487,10 +42487,10 @@
         <v>-3</v>
       </c>
       <c r="Q281" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R281" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S281" s="4" t="s">
         <v>9</v>
@@ -42573,10 +42573,10 @@
         <v>-3</v>
       </c>
       <c r="Q282" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R282" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S282" s="4" t="s">
         <v>6</v>
@@ -42659,10 +42659,10 @@
         <v>-3</v>
       </c>
       <c r="Q283" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R283" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S283" s="4" t="s">
         <v>16</v>
@@ -42745,10 +42745,10 @@
         <v>0</v>
       </c>
       <c r="Q284" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R284" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S284" s="4" t="s">
         <v>6</v>
@@ -42831,10 +42831,10 @@
         <v>0</v>
       </c>
       <c r="Q285" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R285" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S285" s="4" t="s">
         <v>16</v>
@@ -42917,10 +42917,10 @@
         <v>-3</v>
       </c>
       <c r="Q286" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R286" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S286" s="4" t="s">
         <v>19</v>
@@ -43005,10 +43005,10 @@
         <v>-2</v>
       </c>
       <c r="Q287" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R287" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S287" s="4" t="s">
         <v>16</v>
@@ -43091,10 +43091,10 @@
         <v>1</v>
       </c>
       <c r="Q288" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R288" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S288" s="4" t="s">
         <v>9</v>
@@ -43177,10 +43177,10 @@
         <v>-2</v>
       </c>
       <c r="Q289" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R289" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S289" s="4" t="s">
         <v>100</v>
@@ -43263,10 +43263,10 @@
         <v>-5</v>
       </c>
       <c r="Q290" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R290" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S290" s="4" t="s">
         <v>16</v>
@@ -43349,10 +43349,10 @@
         <v>1</v>
       </c>
       <c r="Q291" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R291" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S291" s="4" t="s">
         <v>78</v>
@@ -43435,10 +43435,10 @@
         <v>-1</v>
       </c>
       <c r="Q292" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R292" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S292" s="4" t="s">
         <v>22</v>
@@ -43521,10 +43521,10 @@
         <v>-1</v>
       </c>
       <c r="Q293" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R293" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S293" s="4" t="s">
         <v>9</v>
@@ -43607,10 +43607,10 @@
         <v>-2</v>
       </c>
       <c r="Q294" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R294" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S294" s="4" t="s">
         <v>16</v>
@@ -43693,10 +43693,10 @@
         <v>-1</v>
       </c>
       <c r="Q295" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R295" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S295" s="4" t="s">
         <v>1010</v>
@@ -43779,10 +43779,10 @@
         <v>-1</v>
       </c>
       <c r="Q296" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R296" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S296" s="4" t="s">
         <v>2</v>
@@ -43865,10 +43865,10 @@
         <v>-2</v>
       </c>
       <c r="Q297" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R297" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S297" s="4" t="s">
         <v>45</v>
@@ -43951,10 +43951,10 @@
         <v>-2</v>
       </c>
       <c r="Q298" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R298" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S298" s="4" t="s">
         <v>2</v>
@@ -44037,10 +44037,10 @@
         <v>-6</v>
       </c>
       <c r="Q299" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R299" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S299" s="4" t="s">
         <v>22</v>
@@ -44123,10 +44123,10 @@
         <v>-6</v>
       </c>
       <c r="Q300" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R300" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S300" s="4" t="s">
         <v>22</v>
@@ -44209,10 +44209,10 @@
         <v>-2</v>
       </c>
       <c r="Q301" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R301" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S301" s="4" t="s">
         <v>111</v>
@@ -44295,10 +44295,10 @@
         <v>-3</v>
       </c>
       <c r="Q302" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R302" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S302" s="4" t="s">
         <v>211</v>
@@ -44381,10 +44381,10 @@
         <v>-3</v>
       </c>
       <c r="Q303" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R303" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S303" s="4" t="s">
         <v>78</v>
@@ -44467,10 +44467,10 @@
         <v>-9</v>
       </c>
       <c r="Q304" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R304" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S304" s="11" t="s">
         <v>6</v>
@@ -44553,10 +44553,10 @@
         <v>-7</v>
       </c>
       <c r="Q305" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R305" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S305" s="11" t="s">
         <v>6</v>
@@ -44639,10 +44639,10 @@
         <v>-10</v>
       </c>
       <c r="Q306" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R306" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S306" s="11" t="s">
         <v>78</v>
@@ -44725,10 +44725,10 @@
         <v>-2</v>
       </c>
       <c r="Q307" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R307" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S307" s="11" t="s">
         <v>0</v>
@@ -44811,10 +44811,10 @@
         <v>-3</v>
       </c>
       <c r="Q308" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R308" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S308" s="11" t="s">
         <v>6</v>
@@ -44897,10 +44897,10 @@
         <v>-3</v>
       </c>
       <c r="Q309" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R309" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S309" s="11" t="s">
         <v>1035</v>
@@ -44983,10 +44983,10 @@
         <v>-3</v>
       </c>
       <c r="Q310" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R310" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S310" s="11" t="s">
         <v>1040</v>
@@ -45069,10 +45069,10 @@
         <v>-3</v>
       </c>
       <c r="Q311" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R311" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S311" s="11" t="s">
         <v>6</v>
@@ -45119,7 +45119,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:N311">
-    <cfRule type="cellIs" dxfId="7" priority="23" operator="between">
+    <cfRule type="cellIs" dxfId="72" priority="23" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
@@ -45213,7 +45213,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M1" sqref="M1"/>
+      <selection pane="bottomRight" activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -45552,10 +45552,10 @@
         <v>-1</v>
       </c>
       <c r="Q4" s="11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R4" s="11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S4" s="11" t="s">
         <v>9</v>
@@ -45638,10 +45638,10 @@
         <v>0</v>
       </c>
       <c r="Q5" s="11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R5" s="11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S5" s="11" t="s">
         <v>6</v>
@@ -45724,10 +45724,10 @@
         <v>-3</v>
       </c>
       <c r="Q6" s="11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R6" s="11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S6" s="4" t="s">
         <v>2</v>
@@ -45808,10 +45808,10 @@
         <v>0</v>
       </c>
       <c r="Q7" s="11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R7" s="11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S7" s="11" t="s">
         <v>6</v>
@@ -45894,10 +45894,10 @@
         <v>0</v>
       </c>
       <c r="Q8" s="11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R8" s="11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S8" s="38" t="s">
         <v>211</v>
@@ -45980,10 +45980,10 @@
         <v>0</v>
       </c>
       <c r="Q9" s="11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R9" s="11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S9" s="11" t="s">
         <v>6</v>
@@ -46030,7 +46030,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:K4 L4:N5 J6:N9">
-    <cfRule type="cellIs" dxfId="6" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="39" priority="12" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
@@ -46048,25 +46048,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="cellIs" dxfId="5" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="38" priority="10" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="4" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="37" priority="9" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="36" priority="8" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:I7">
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="35" priority="7" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
@@ -46084,7 +46084,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="34" priority="4" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
@@ -46102,7 +46102,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="33" priority="1" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>

--- a/ConfigData/Xlsx/Monster.xlsx
+++ b/ConfigData/Xlsx/Monster.xlsx
@@ -646,7 +646,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2457" uniqueCount="1388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2456" uniqueCount="1388">
   <si>
     <t>arrow</t>
   </si>
@@ -4943,10 +4943,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>55000046;80|55010028;100</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>英雄</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -5060,6 +5056,10 @@
   </si>
   <si>
     <t>Dhit</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrow</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -6050,73 +6050,24 @@
   <dxfs count="77">
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
-        <color rgb="FF006100"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6132,9 +6083,36 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <name val="宋体"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -6324,245 +6302,6 @@
         <color theme="1"/>
         <name val="宋体"/>
         <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -7234,6 +6973,255 @@
           <bgColor theme="4"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -7949,6 +7937,18 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -8241,11 +8241,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-925128960"/>
-        <c:axId val="-925126240"/>
+        <c:axId val="1320121568"/>
+        <c:axId val="1320130272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-925128960"/>
+        <c:axId val="1320121568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8288,7 +8288,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-925126240"/>
+        <c:crossAx val="1320130272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8296,7 +8296,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-925126240"/>
+        <c:axId val="1320130272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8347,7 +8347,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-925128960"/>
+        <c:crossAx val="1320121568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18040,99 +18040,99 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AF311" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75" tableBorderDxfId="74">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AF311" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74" tableBorderDxfId="73">
   <autoFilter ref="A3:AF311"/>
   <sortState ref="A4:AD311">
     <sortCondition ref="A3:A311"/>
   </sortState>
   <tableColumns count="32">
-    <tableColumn id="1" name="Id" dataDxfId="73"/>
-    <tableColumn id="2" name="Name" dataDxfId="72"/>
-    <tableColumn id="22" name="Ename" dataDxfId="71"/>
-    <tableColumn id="23" name="EnameShort" dataDxfId="70"/>
-    <tableColumn id="3" name="Star" dataDxfId="69"/>
-    <tableColumn id="4" name="Type" dataDxfId="68"/>
-    <tableColumn id="5" name="Attr" dataDxfId="67"/>
-    <tableColumn id="12" name="Cost" dataDxfId="66"/>
-    <tableColumn id="6" name="AtkP" dataDxfId="65"/>
-    <tableColumn id="24" name="VitP" dataDxfId="64"/>
-    <tableColumn id="26" name="Sum" dataDxfId="63">
+    <tableColumn id="1" name="Id" dataDxfId="72"/>
+    <tableColumn id="2" name="Name" dataDxfId="71"/>
+    <tableColumn id="22" name="Ename" dataDxfId="70"/>
+    <tableColumn id="23" name="EnameShort" dataDxfId="69"/>
+    <tableColumn id="3" name="Star" dataDxfId="68"/>
+    <tableColumn id="4" name="Type" dataDxfId="67"/>
+    <tableColumn id="5" name="Attr" dataDxfId="66"/>
+    <tableColumn id="12" name="Cost" dataDxfId="65"/>
+    <tableColumn id="6" name="AtkP" dataDxfId="64"/>
+    <tableColumn id="24" name="VitP" dataDxfId="63"/>
+    <tableColumn id="26" name="Sum" dataDxfId="62">
       <calculatedColumnFormula>SUM(I4:J4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="Modify" dataDxfId="62"/>
-    <tableColumn id="9" name="Def" dataDxfId="19"/>
-    <tableColumn id="10" name="Mag" dataDxfId="18"/>
-    <tableColumn id="32" name="Spd" dataDxfId="17"/>
-    <tableColumn id="35" name="Hit" dataDxfId="16"/>
-    <tableColumn id="36" name="Dhit" dataDxfId="15"/>
-    <tableColumn id="34" name="Crt" dataDxfId="14"/>
-    <tableColumn id="33" name="Luk" dataDxfId="13"/>
-    <tableColumn id="13" name="Range" dataDxfId="61"/>
-    <tableColumn id="14" name="Mov" dataDxfId="60"/>
-    <tableColumn id="16" name="Arrow" dataDxfId="59"/>
-    <tableColumn id="17" name="Cover" dataDxfId="58"/>
-    <tableColumn id="18" name="Skills" dataDxfId="57"/>
-    <tableColumn id="30" name="AttrAtk" dataDxfId="56"/>
-    <tableColumn id="31" name="AttrDef" dataDxfId="55"/>
-    <tableColumn id="20" name="Res" dataDxfId="54"/>
-    <tableColumn id="21" name="Icon" dataDxfId="53"/>
-    <tableColumn id="15" name="IsSpecial" dataDxfId="52"/>
-    <tableColumn id="28" name="IsNew" dataDxfId="51"/>
-    <tableColumn id="19" name="VsMark" dataDxfId="50"/>
-    <tableColumn id="29" name="Remark" dataDxfId="49"/>
+    <tableColumn id="25" name="Modify" dataDxfId="61"/>
+    <tableColumn id="9" name="Def" dataDxfId="60"/>
+    <tableColumn id="10" name="Mag" dataDxfId="59"/>
+    <tableColumn id="32" name="Spd" dataDxfId="58"/>
+    <tableColumn id="35" name="Hit" dataDxfId="57"/>
+    <tableColumn id="36" name="Dhit" dataDxfId="56"/>
+    <tableColumn id="34" name="Crt" dataDxfId="55"/>
+    <tableColumn id="33" name="Luk" dataDxfId="54"/>
+    <tableColumn id="13" name="Range" dataDxfId="53"/>
+    <tableColumn id="14" name="Mov" dataDxfId="52"/>
+    <tableColumn id="16" name="Arrow" dataDxfId="51"/>
+    <tableColumn id="17" name="Cover" dataDxfId="50"/>
+    <tableColumn id="18" name="Skills" dataDxfId="49"/>
+    <tableColumn id="30" name="AttrAtk" dataDxfId="48"/>
+    <tableColumn id="31" name="AttrDef" dataDxfId="47"/>
+    <tableColumn id="20" name="Res" dataDxfId="46"/>
+    <tableColumn id="21" name="Icon" dataDxfId="45"/>
+    <tableColumn id="15" name="IsSpecial" dataDxfId="44"/>
+    <tableColumn id="28" name="IsNew" dataDxfId="43"/>
+    <tableColumn id="19" name="VsMark" dataDxfId="42"/>
+    <tableColumn id="29" name="Remark" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_4" displayName="表1_4" ref="A3:AF9" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47" tableBorderDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_4" displayName="表1_4" ref="A3:AF9" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34" tableBorderDxfId="33">
   <autoFilter ref="A3:AF9"/>
   <sortState ref="A4:AC9">
     <sortCondition ref="A3:A9"/>
   </sortState>
   <tableColumns count="32">
-    <tableColumn id="1" name="Id" dataDxfId="45"/>
-    <tableColumn id="2" name="Name" dataDxfId="44"/>
-    <tableColumn id="22" name="Ename" dataDxfId="43"/>
-    <tableColumn id="23" name="EnameShort" dataDxfId="42"/>
-    <tableColumn id="3" name="Star" dataDxfId="41"/>
-    <tableColumn id="4" name="Type" dataDxfId="40"/>
-    <tableColumn id="5" name="Attr" dataDxfId="39"/>
-    <tableColumn id="12" name="Cost" dataDxfId="38"/>
-    <tableColumn id="6" name="AtkP" dataDxfId="37"/>
-    <tableColumn id="24" name="VitP" dataDxfId="36"/>
-    <tableColumn id="26" name="Sum" dataDxfId="35">
+    <tableColumn id="1" name="Id" dataDxfId="32"/>
+    <tableColumn id="2" name="Name" dataDxfId="31"/>
+    <tableColumn id="22" name="Ename" dataDxfId="30"/>
+    <tableColumn id="23" name="EnameShort" dataDxfId="29"/>
+    <tableColumn id="3" name="Star" dataDxfId="28"/>
+    <tableColumn id="4" name="Type" dataDxfId="27"/>
+    <tableColumn id="5" name="Attr" dataDxfId="26"/>
+    <tableColumn id="12" name="Cost" dataDxfId="25"/>
+    <tableColumn id="6" name="AtkP" dataDxfId="24"/>
+    <tableColumn id="24" name="VitP" dataDxfId="23"/>
+    <tableColumn id="26" name="Sum" dataDxfId="22">
       <calculatedColumnFormula>SUM(I4:J4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="Modify" dataDxfId="34"/>
-    <tableColumn id="10" name="Def" dataDxfId="11"/>
-    <tableColumn id="32" name="Mag" dataDxfId="10"/>
-    <tableColumn id="34" name="Spd" dataDxfId="8"/>
-    <tableColumn id="36" name="Hit" dataDxfId="6"/>
-    <tableColumn id="35" name="Dhit" dataDxfId="7"/>
-    <tableColumn id="33" name="Crt" dataDxfId="9"/>
-    <tableColumn id="9" name="Luk" dataDxfId="12"/>
-    <tableColumn id="13" name="Range" dataDxfId="33"/>
-    <tableColumn id="14" name="Mov" dataDxfId="32"/>
-    <tableColumn id="16" name="Arrow" dataDxfId="31"/>
-    <tableColumn id="17" name="Cover" dataDxfId="30"/>
-    <tableColumn id="18" name="Skills" dataDxfId="29"/>
-    <tableColumn id="30" name="AttrAtk" dataDxfId="28"/>
-    <tableColumn id="31" name="AttrDef" dataDxfId="27"/>
-    <tableColumn id="20" name="Res" dataDxfId="26"/>
-    <tableColumn id="21" name="Icon" dataDxfId="25"/>
-    <tableColumn id="15" name="IsSpecial" dataDxfId="24"/>
-    <tableColumn id="28" name="IsNew" dataDxfId="23"/>
-    <tableColumn id="19" name="VsMark" dataDxfId="22"/>
-    <tableColumn id="29" name="Remark" dataDxfId="21"/>
+    <tableColumn id="25" name="Modify" dataDxfId="21"/>
+    <tableColumn id="10" name="Def" dataDxfId="20"/>
+    <tableColumn id="32" name="Mag" dataDxfId="19"/>
+    <tableColumn id="34" name="Spd" dataDxfId="18"/>
+    <tableColumn id="36" name="Hit" dataDxfId="17"/>
+    <tableColumn id="35" name="Dhit" dataDxfId="16"/>
+    <tableColumn id="33" name="Crt" dataDxfId="15"/>
+    <tableColumn id="9" name="Luk" dataDxfId="14"/>
+    <tableColumn id="13" name="Range" dataDxfId="13"/>
+    <tableColumn id="14" name="Mov" dataDxfId="12"/>
+    <tableColumn id="16" name="Arrow" dataDxfId="11"/>
+    <tableColumn id="17" name="Cover" dataDxfId="10"/>
+    <tableColumn id="18" name="Skills" dataDxfId="9"/>
+    <tableColumn id="30" name="AttrAtk" dataDxfId="8"/>
+    <tableColumn id="31" name="AttrDef" dataDxfId="7"/>
+    <tableColumn id="20" name="Res" dataDxfId="6"/>
+    <tableColumn id="21" name="Icon" dataDxfId="5"/>
+    <tableColumn id="15" name="IsSpecial" dataDxfId="4"/>
+    <tableColumn id="28" name="IsNew" dataDxfId="3"/>
+    <tableColumn id="19" name="VsMark" dataDxfId="2"/>
+    <tableColumn id="29" name="Remark" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:I15" totalsRowShown="0" headerRowDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:I15" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A1:I15"/>
   <tableColumns count="9">
     <tableColumn id="1" name="星级"/>
@@ -18439,10 +18439,10 @@
   <dimension ref="A1:AF311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B79" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N1" sqref="N1"/>
+      <selection pane="bottomRight" activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -18501,31 +18501,31 @@
         <v>976</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="N1" s="17" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="O1" s="17" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="Q1" s="17" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="R1" s="17" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="S1" s="17" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="T1" s="17" t="s">
+        <v>1363</v>
+      </c>
+      <c r="U1" s="17" t="s">
         <v>1364</v>
-      </c>
-      <c r="U1" s="17" t="s">
-        <v>1365</v>
       </c>
       <c r="V1" s="17" t="s">
         <v>327</v>
@@ -18599,31 +18599,31 @@
         <v>969</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="V2" s="2" t="s">
         <v>300</v>
@@ -18697,31 +18697,31 @@
         <v>977</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="T3" s="6" t="s">
+        <v>1366</v>
+      </c>
+      <c r="U3" s="6" t="s">
         <v>1367</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>1368</v>
       </c>
       <c r="V3" s="6" t="s">
         <v>310</v>
@@ -18789,7 +18789,7 @@
         <v>-25</v>
       </c>
       <c r="K4" s="15">
-        <f>SUM(I4:J4)</f>
+        <f t="shared" ref="K4:K67" si="0">SUM(I4:J4)</f>
         <v>-20</v>
       </c>
       <c r="L4" s="9">
@@ -18886,7 +18886,7 @@
         <v>13</v>
       </c>
       <c r="K5" s="15">
-        <f>SUM(I5:J5)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="L5" s="9">
@@ -18981,7 +18981,7 @@
         <v>14</v>
       </c>
       <c r="K6" s="15">
-        <f>SUM(I6:J6)</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="L6" s="4">
@@ -19076,7 +19076,7 @@
         <v>7</v>
       </c>
       <c r="K7" s="15">
-        <f>SUM(I7:J7)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="L7" s="4">
@@ -19171,7 +19171,7 @@
         <v>30</v>
       </c>
       <c r="K8" s="15">
-        <f>SUM(I8:J8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L8" s="4">
@@ -19268,7 +19268,7 @@
         <v>11</v>
       </c>
       <c r="K9" s="15">
-        <f>SUM(I9:J9)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L9" s="4">
@@ -19363,7 +19363,7 @@
         <v>-5</v>
       </c>
       <c r="K10" s="15">
-        <f>SUM(I10:J10)</f>
+        <f t="shared" si="0"/>
         <v>-14</v>
       </c>
       <c r="L10" s="4">
@@ -19458,7 +19458,7 @@
         <v>2</v>
       </c>
       <c r="K11" s="15">
-        <f>SUM(I11:J11)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="L11" s="4">
@@ -19553,7 +19553,7 @@
         <v>6</v>
       </c>
       <c r="K12" s="15">
-        <f>SUM(I12:J12)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="L12" s="4">
@@ -19648,7 +19648,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="15">
-        <f>SUM(I13:J13)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="L13" s="37">
@@ -19743,7 +19743,7 @@
         <v>-15</v>
       </c>
       <c r="K14" s="15">
-        <f>SUM(I14:J14)</f>
+        <f t="shared" si="0"/>
         <v>-12</v>
       </c>
       <c r="L14" s="9">
@@ -19838,7 +19838,7 @@
         <v>24</v>
       </c>
       <c r="K15" s="15">
-        <f>SUM(I15:J15)</f>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="L15" s="37">
@@ -19935,7 +19935,7 @@
         <v>9</v>
       </c>
       <c r="K16" s="15">
-        <f>SUM(I16:J16)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="L16" s="9">
@@ -20032,7 +20032,7 @@
         <v>12</v>
       </c>
       <c r="K17" s="15">
-        <f>SUM(I17:J17)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="L17" s="4">
@@ -20129,7 +20129,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="15">
-        <f>SUM(I18:J18)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="L18" s="4">
@@ -20224,7 +20224,7 @@
         <v>9</v>
       </c>
       <c r="K19" s="15">
-        <f>SUM(I19:J19)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="L19" s="4">
@@ -20319,7 +20319,7 @@
         <v>5</v>
       </c>
       <c r="K20" s="15">
-        <f>SUM(I20:J20)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="L20" s="4">
@@ -20414,7 +20414,7 @@
         <v>13</v>
       </c>
       <c r="K21" s="15">
-        <f>SUM(I21:J21)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="L21" s="4">
@@ -20511,7 +20511,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="15">
-        <f>SUM(I22:J22)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="L22" s="4">
@@ -20606,7 +20606,7 @@
         <v>-11</v>
       </c>
       <c r="K23" s="15">
-        <f>SUM(I23:J23)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="L23" s="9">
@@ -20703,7 +20703,7 @@
         <v>14</v>
       </c>
       <c r="K24" s="15">
-        <f>SUM(I24:J24)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="L24" s="4">
@@ -20798,7 +20798,7 @@
         <v>-10</v>
       </c>
       <c r="K25" s="15">
-        <f>SUM(I25:J25)</f>
+        <f t="shared" si="0"/>
         <v>-14</v>
       </c>
       <c r="L25" s="4">
@@ -20893,7 +20893,7 @@
         <v>-8</v>
       </c>
       <c r="K26" s="15">
-        <f>SUM(I26:J26)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="L26" s="4">
@@ -20990,7 +20990,7 @@
         <v>19</v>
       </c>
       <c r="K27" s="15">
-        <f>SUM(I27:J27)</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="L27" s="9">
@@ -21085,7 +21085,7 @@
         <v>-17</v>
       </c>
       <c r="K28" s="15">
-        <f>SUM(I28:J28)</f>
+        <f t="shared" si="0"/>
         <v>-21</v>
       </c>
       <c r="L28" s="4">
@@ -21180,7 +21180,7 @@
         <v>19</v>
       </c>
       <c r="K29" s="15">
-        <f>SUM(I29:J29)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="L29" s="4">
@@ -21275,7 +21275,7 @@
         <v>13</v>
       </c>
       <c r="K30" s="15">
-        <f>SUM(I30:J30)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="L30" s="4">
@@ -21370,7 +21370,7 @@
         <v>-15</v>
       </c>
       <c r="K31" s="15">
-        <f>SUM(I31:J31)</f>
+        <f t="shared" si="0"/>
         <v>-15</v>
       </c>
       <c r="L31" s="4">
@@ -21465,7 +21465,7 @@
         <v>-20</v>
       </c>
       <c r="K32" s="15">
-        <f>SUM(I32:J32)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="L32" s="4">
@@ -21560,7 +21560,7 @@
         <v>15</v>
       </c>
       <c r="K33" s="15">
-        <f>SUM(I33:J33)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L33" s="9">
@@ -21655,7 +21655,7 @@
         <v>-13</v>
       </c>
       <c r="K34" s="15">
-        <f>SUM(I34:J34)</f>
+        <f t="shared" si="0"/>
         <v>-19</v>
       </c>
       <c r="L34" s="9">
@@ -21750,7 +21750,7 @@
         <v>25</v>
       </c>
       <c r="K35" s="15">
-        <f>SUM(I35:J35)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="L35" s="4">
@@ -21845,7 +21845,7 @@
         <v>3</v>
       </c>
       <c r="K36" s="15">
-        <f>SUM(I36:J36)</f>
+        <f t="shared" si="0"/>
         <v>-7</v>
       </c>
       <c r="L36" s="4">
@@ -21940,7 +21940,7 @@
         <v>17</v>
       </c>
       <c r="K37" s="15">
-        <f>SUM(I37:J37)</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="L37" s="4">
@@ -22035,7 +22035,7 @@
         <v>24</v>
       </c>
       <c r="K38" s="15">
-        <f>SUM(I38:J38)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="L38" s="4">
@@ -22132,7 +22132,7 @@
         <v>10</v>
       </c>
       <c r="K39" s="15">
-        <f>SUM(I39:J39)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="L39" s="4">
@@ -22225,7 +22225,7 @@
         <v>9</v>
       </c>
       <c r="K40" s="15">
-        <f>SUM(I40:J40)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="L40" s="4">
@@ -22320,7 +22320,7 @@
         <v>-10</v>
       </c>
       <c r="K41" s="15">
-        <f>SUM(I41:J41)</f>
+        <f t="shared" si="0"/>
         <v>-20</v>
       </c>
       <c r="L41" s="4">
@@ -22415,7 +22415,7 @@
         <v>8</v>
       </c>
       <c r="K42" s="15">
-        <f>SUM(I42:J42)</f>
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
       <c r="L42" s="4">
@@ -22510,7 +22510,7 @@
         <v>15</v>
       </c>
       <c r="K43" s="15">
-        <f>SUM(I43:J43)</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="L43" s="4">
@@ -22605,7 +22605,7 @@
         <v>-14</v>
       </c>
       <c r="K44" s="15">
-        <f>SUM(I44:J44)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="L44" s="4">
@@ -22700,7 +22700,7 @@
         <v>-12</v>
       </c>
       <c r="K45" s="15">
-        <f>SUM(I45:J45)</f>
+        <f t="shared" si="0"/>
         <v>-8</v>
       </c>
       <c r="L45" s="4">
@@ -22795,7 +22795,7 @@
         <v>-10</v>
       </c>
       <c r="K46" s="15">
-        <f>SUM(I46:J46)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="L46" s="4">
@@ -22890,7 +22890,7 @@
         <v>10</v>
       </c>
       <c r="K47" s="15">
-        <f>SUM(I47:J47)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="L47" s="9">
@@ -22985,7 +22985,7 @@
         <v>20</v>
       </c>
       <c r="K48" s="15">
-        <f>SUM(I48:J48)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="L48" s="4">
@@ -23080,7 +23080,7 @@
         <v>8</v>
       </c>
       <c r="K49" s="15">
-        <f>SUM(I49:J49)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="L49" s="4">
@@ -23175,7 +23175,7 @@
         <v>3</v>
       </c>
       <c r="K50" s="15">
-        <f>SUM(I50:J50)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="L50" s="4">
@@ -23270,7 +23270,7 @@
         <v>17</v>
       </c>
       <c r="K51" s="15">
-        <f>SUM(I51:J51)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L51" s="4">
@@ -23365,7 +23365,7 @@
         <v>15</v>
       </c>
       <c r="K52" s="15">
-        <f>SUM(I52:J52)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="L52" s="4">
@@ -23460,7 +23460,7 @@
         <v>7</v>
       </c>
       <c r="K53" s="15">
-        <f>SUM(I53:J53)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="L53" s="9">
@@ -23555,7 +23555,7 @@
         <v>17</v>
       </c>
       <c r="K54" s="15">
-        <f>SUM(I54:J54)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="L54" s="4">
@@ -23650,7 +23650,7 @@
         <v>13</v>
       </c>
       <c r="K55" s="15">
-        <f>SUM(I55:J55)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="L55" s="4">
@@ -23745,7 +23745,7 @@
         <v>-8</v>
       </c>
       <c r="K56" s="15">
-        <f>SUM(I56:J56)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="L56" s="4">
@@ -23840,7 +23840,7 @@
         <v>-3</v>
       </c>
       <c r="K57" s="15">
-        <f>SUM(I57:J57)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L57" s="4">
@@ -23935,7 +23935,7 @@
         <v>-10</v>
       </c>
       <c r="K58" s="15">
-        <f>SUM(I58:J58)</f>
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
       <c r="L58" s="4">
@@ -24030,7 +24030,7 @@
         <v>-5</v>
       </c>
       <c r="K59" s="15">
-        <f>SUM(I59:J59)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="L59" s="4">
@@ -24125,7 +24125,7 @@
         <v>0</v>
       </c>
       <c r="K60" s="15">
-        <f>SUM(I60:J60)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="L60" s="4">
@@ -24220,7 +24220,7 @@
         <v>10</v>
       </c>
       <c r="K61" s="15">
-        <f>SUM(I61:J61)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="L61" s="4">
@@ -24315,7 +24315,7 @@
         <v>17</v>
       </c>
       <c r="K62" s="15">
-        <f>SUM(I62:J62)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="L62" s="4">
@@ -24410,7 +24410,7 @@
         <v>12</v>
       </c>
       <c r="K63" s="15">
-        <f>SUM(I63:J63)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="L63" s="4">
@@ -24505,7 +24505,7 @@
         <v>16</v>
       </c>
       <c r="K64" s="15">
-        <f>SUM(I64:J64)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L64" s="4">
@@ -24598,7 +24598,7 @@
         <v>-1</v>
       </c>
       <c r="K65" s="15">
-        <f>SUM(I65:J65)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="L65" s="4">
@@ -24695,7 +24695,7 @@
         <v>5</v>
       </c>
       <c r="K66" s="15">
-        <f>SUM(I66:J66)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="L66" s="4">
@@ -24792,7 +24792,7 @@
         <v>14</v>
       </c>
       <c r="K67" s="15">
-        <f>SUM(I67:J67)</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="L67" s="4">
@@ -24887,7 +24887,7 @@
         <v>9</v>
       </c>
       <c r="K68" s="15">
-        <f>SUM(I68:J68)</f>
+        <f t="shared" ref="K68:K131" si="1">SUM(I68:J68)</f>
         <v>21</v>
       </c>
       <c r="L68" s="4">
@@ -24984,7 +24984,7 @@
         <v>-10</v>
       </c>
       <c r="K69" s="15">
-        <f>SUM(I69:J69)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="L69" s="4">
@@ -25079,7 +25079,7 @@
         <v>18</v>
       </c>
       <c r="K70" s="15">
-        <f>SUM(I70:J70)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="L70" s="4">
@@ -25174,7 +25174,7 @@
         <v>-15</v>
       </c>
       <c r="K71" s="15">
-        <f>SUM(I71:J71)</f>
+        <f t="shared" si="1"/>
         <v>-22</v>
       </c>
       <c r="L71" s="4">
@@ -25269,7 +25269,7 @@
         <v>-10</v>
       </c>
       <c r="K72" s="15">
-        <f>SUM(I72:J72)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="L72" s="4">
@@ -25364,7 +25364,7 @@
         <v>18</v>
       </c>
       <c r="K73" s="15">
-        <f>SUM(I73:J73)</f>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="L73" s="4">
@@ -25459,7 +25459,7 @@
         <v>20</v>
       </c>
       <c r="K74" s="15">
-        <f>SUM(I74:J74)</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="L74" s="9">
@@ -25554,7 +25554,7 @@
         <v>11</v>
       </c>
       <c r="K75" s="15">
-        <f>SUM(I75:J75)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L75" s="4">
@@ -25649,7 +25649,7 @@
         <v>26</v>
       </c>
       <c r="K76" s="15">
-        <f>SUM(I76:J76)</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="L76" s="4">
@@ -25744,7 +25744,7 @@
         <v>0</v>
       </c>
       <c r="K77" s="15">
-        <f>SUM(I77:J77)</f>
+        <f t="shared" si="1"/>
         <v>-5</v>
       </c>
       <c r="L77" s="4">
@@ -25839,7 +25839,7 @@
         <v>20</v>
       </c>
       <c r="K78" s="15">
-        <f>SUM(I78:J78)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="L78" s="4">
@@ -25934,7 +25934,7 @@
         <v>-3</v>
       </c>
       <c r="K79" s="15">
-        <f>SUM(I79:J79)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="L79" s="4">
@@ -26031,7 +26031,7 @@
         <v>0</v>
       </c>
       <c r="K80" s="15">
-        <f>SUM(I80:J80)</f>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
       <c r="L80" s="4">
@@ -26128,7 +26128,7 @@
         <v>14</v>
       </c>
       <c r="K81" s="15">
-        <f>SUM(I81:J81)</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="L81" s="4">
@@ -26223,7 +26223,7 @@
         <v>14</v>
       </c>
       <c r="K82" s="15">
-        <f>SUM(I82:J82)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="L82" s="9">
@@ -26318,7 +26318,7 @@
         <v>13</v>
       </c>
       <c r="K83" s="15">
-        <f>SUM(I83:J83)</f>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="L83" s="4">
@@ -26413,7 +26413,7 @@
         <v>-13</v>
       </c>
       <c r="K84" s="15">
-        <f>SUM(I84:J84)</f>
+        <f t="shared" si="1"/>
         <v>-23</v>
       </c>
       <c r="L84" s="4">
@@ -26508,7 +26508,7 @@
         <v>20</v>
       </c>
       <c r="K85" s="15">
-        <f>SUM(I85:J85)</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="L85" s="9">
@@ -26603,7 +26603,7 @@
         <v>-19</v>
       </c>
       <c r="K86" s="15">
-        <f>SUM(I86:J86)</f>
+        <f t="shared" si="1"/>
         <v>-6</v>
       </c>
       <c r="L86" s="4">
@@ -26698,7 +26698,7 @@
         <v>7</v>
       </c>
       <c r="K87" s="15">
-        <f>SUM(I87:J87)</f>
+        <f t="shared" si="1"/>
         <v>-3</v>
       </c>
       <c r="L87" s="4">
@@ -26793,7 +26793,7 @@
         <v>5</v>
       </c>
       <c r="K88" s="15">
-        <f>SUM(I88:J88)</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="L88" s="4">
@@ -26888,7 +26888,7 @@
         <v>18</v>
       </c>
       <c r="K89" s="15">
-        <f>SUM(I89:J89)</f>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="L89" s="4">
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="T89" s="4">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="U89" s="4">
         <v>10</v>
@@ -26983,7 +26983,7 @@
         <v>-15</v>
       </c>
       <c r="K90" s="15">
-        <f>SUM(I90:J90)</f>
+        <f t="shared" si="1"/>
         <v>-6</v>
       </c>
       <c r="L90" s="4">
@@ -27078,7 +27078,7 @@
         <v>-19</v>
       </c>
       <c r="K91" s="15">
-        <f>SUM(I91:J91)</f>
+        <f t="shared" si="1"/>
         <v>-11</v>
       </c>
       <c r="L91" s="4">
@@ -27173,7 +27173,7 @@
         <v>-15</v>
       </c>
       <c r="K92" s="15">
-        <f>SUM(I92:J92)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="L92" s="9">
@@ -27268,7 +27268,7 @@
         <v>-4</v>
       </c>
       <c r="K93" s="15">
-        <f>SUM(I93:J93)</f>
+        <f t="shared" si="1"/>
         <v>-5</v>
       </c>
       <c r="L93" s="4">
@@ -27363,7 +27363,7 @@
         <v>14</v>
       </c>
       <c r="K94" s="15">
-        <f>SUM(I94:J94)</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="L94" s="4">
@@ -27458,7 +27458,7 @@
         <v>8</v>
       </c>
       <c r="K95" s="15">
-        <f>SUM(I95:J95)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="L95" s="4">
@@ -27553,7 +27553,7 @@
         <v>-10</v>
       </c>
       <c r="K96" s="15">
-        <f>SUM(I96:J96)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="L96" s="4">
@@ -27648,7 +27648,7 @@
         <v>30</v>
       </c>
       <c r="K97" s="15">
-        <f>SUM(I97:J97)</f>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="L97" s="4">
@@ -27743,7 +27743,7 @@
         <v>10</v>
       </c>
       <c r="K98" s="15">
-        <f>SUM(I98:J98)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="L98" s="4">
@@ -27838,7 +27838,7 @@
         <v>0</v>
       </c>
       <c r="K99" s="15">
-        <f>SUM(I99:J99)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="L99" s="4">
@@ -27933,7 +27933,7 @@
         <v>5</v>
       </c>
       <c r="K100" s="15">
-        <f>SUM(I100:J100)</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="L100" s="7">
@@ -28030,7 +28030,7 @@
         <v>7</v>
       </c>
       <c r="K101" s="15">
-        <f>SUM(I101:J101)</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="L101" s="4">
@@ -28125,7 +28125,7 @@
         <v>5</v>
       </c>
       <c r="K102" s="15">
-        <f>SUM(I102:J102)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L102" s="4">
@@ -28220,7 +28220,7 @@
         <v>25</v>
       </c>
       <c r="K103" s="15">
-        <f>SUM(I103:J103)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="L103" s="4">
@@ -28315,7 +28315,7 @@
         <v>22</v>
       </c>
       <c r="K104" s="15">
-        <f>SUM(I104:J104)</f>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="L104" s="9">
@@ -28410,7 +28410,7 @@
         <v>-29</v>
       </c>
       <c r="K105" s="15">
-        <f>SUM(I105:J105)</f>
+        <f t="shared" si="1"/>
         <v>-23</v>
       </c>
       <c r="L105" s="4">
@@ -28505,7 +28505,7 @@
         <v>15</v>
       </c>
       <c r="K106" s="15">
-        <f>SUM(I106:J106)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="L106" s="4">
@@ -28600,7 +28600,7 @@
         <v>21</v>
       </c>
       <c r="K107" s="15">
-        <f>SUM(I107:J107)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="L107" s="4">
@@ -28695,7 +28695,7 @@
         <v>10</v>
       </c>
       <c r="K108" s="15">
-        <f>SUM(I108:J108)</f>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="L108" s="4">
@@ -28790,7 +28790,7 @@
         <v>0</v>
       </c>
       <c r="K109" s="15">
-        <f>SUM(I109:J109)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="L109" s="4">
@@ -28885,7 +28885,7 @@
         <v>0</v>
       </c>
       <c r="K110" s="15">
-        <f>SUM(I110:J110)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="L110" s="4">
@@ -28980,7 +28980,7 @@
         <v>-9</v>
       </c>
       <c r="K111" s="15">
-        <f>SUM(I111:J111)</f>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
       <c r="L111" s="4">
@@ -29075,7 +29075,7 @@
         <v>-10</v>
       </c>
       <c r="K112" s="15">
-        <f>SUM(I112:J112)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="L112" s="4">
@@ -29170,7 +29170,7 @@
         <v>5</v>
       </c>
       <c r="K113" s="15">
-        <f>SUM(I113:J113)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="L113" s="4">
@@ -29265,7 +29265,7 @@
         <v>18</v>
       </c>
       <c r="K114" s="15">
-        <f>SUM(I114:J114)</f>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="L114" s="7">
@@ -29362,7 +29362,7 @@
         <v>9</v>
       </c>
       <c r="K115" s="15">
-        <f>SUM(I115:J115)</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="L115" s="7">
@@ -29459,7 +29459,7 @@
         <v>-8</v>
       </c>
       <c r="K116" s="15">
-        <f>SUM(I116:J116)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="L116" s="7">
@@ -29556,7 +29556,7 @@
         <v>13</v>
       </c>
       <c r="K117" s="15">
-        <f>SUM(I117:J117)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="L117" s="4">
@@ -29651,7 +29651,7 @@
         <v>5</v>
       </c>
       <c r="K118" s="15">
-        <f>SUM(I118:J118)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="L118" s="7">
@@ -29748,7 +29748,7 @@
         <v>14</v>
       </c>
       <c r="K119" s="15">
-        <f>SUM(I119:J119)</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="L119" s="7">
@@ -29845,7 +29845,7 @@
         <v>0</v>
       </c>
       <c r="K120" s="15">
-        <f>SUM(I120:J120)</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="L120" s="7">
@@ -29942,7 +29942,7 @@
         <v>11</v>
       </c>
       <c r="K121" s="15">
-        <f>SUM(I121:J121)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="L121" s="7">
@@ -30039,7 +30039,7 @@
         <v>-7</v>
       </c>
       <c r="K122" s="15">
-        <f>SUM(I122:J122)</f>
+        <f t="shared" si="1"/>
         <v>-4</v>
       </c>
       <c r="L122" s="4">
@@ -30134,7 +30134,7 @@
         <v>-19</v>
       </c>
       <c r="K123" s="15">
-        <f>SUM(I123:J123)</f>
+        <f t="shared" si="1"/>
         <v>-6</v>
       </c>
       <c r="L123" s="4">
@@ -30229,7 +30229,7 @@
         <v>-9</v>
       </c>
       <c r="K124" s="15">
-        <f>SUM(I124:J124)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="L124" s="4">
@@ -30324,7 +30324,7 @@
         <v>-5</v>
       </c>
       <c r="K125" s="15">
-        <f>SUM(I125:J125)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="L125" s="4">
@@ -30419,7 +30419,7 @@
         <v>-25</v>
       </c>
       <c r="K126" s="15">
-        <f>SUM(I126:J126)</f>
+        <f t="shared" si="1"/>
         <v>-38</v>
       </c>
       <c r="L126" s="4">
@@ -30514,7 +30514,7 @@
         <v>19</v>
       </c>
       <c r="K127" s="15">
-        <f>SUM(I127:J127)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="L127" s="4">
@@ -30609,7 +30609,7 @@
         <v>23</v>
       </c>
       <c r="K128" s="15">
-        <f>SUM(I128:J128)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="L128" s="4">
@@ -30704,7 +30704,7 @@
         <v>10</v>
       </c>
       <c r="K129" s="15">
-        <f>SUM(I129:J129)</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="L129" s="9">
@@ -30799,7 +30799,7 @@
         <v>-15</v>
       </c>
       <c r="K130" s="15">
-        <f>SUM(I130:J130)</f>
+        <f t="shared" si="1"/>
         <v>-11</v>
       </c>
       <c r="L130" s="4">
@@ -30894,7 +30894,7 @@
         <v>4</v>
       </c>
       <c r="K131" s="15">
-        <f>SUM(I131:J131)</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="L131" s="4">
@@ -30989,7 +30989,7 @@
         <v>7</v>
       </c>
       <c r="K132" s="15">
-        <f>SUM(I132:J132)</f>
+        <f t="shared" ref="K132:K195" si="2">SUM(I132:J132)</f>
         <v>23</v>
       </c>
       <c r="L132" s="4">
@@ -31084,7 +31084,7 @@
         <v>15</v>
       </c>
       <c r="K133" s="15">
-        <f>SUM(I133:J133)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="L133" s="4">
@@ -31179,7 +31179,7 @@
         <v>0</v>
       </c>
       <c r="K134" s="15">
-        <f>SUM(I134:J134)</f>
+        <f t="shared" si="2"/>
         <v>-6</v>
       </c>
       <c r="L134" s="4">
@@ -31274,7 +31274,7 @@
         <v>9</v>
       </c>
       <c r="K135" s="15">
-        <f>SUM(I135:J135)</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="L135" s="4">
@@ -31369,7 +31369,7 @@
         <v>-8</v>
       </c>
       <c r="K136" s="15">
-        <f>SUM(I136:J136)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="L136" s="4">
@@ -31464,7 +31464,7 @@
         <v>-12</v>
       </c>
       <c r="K137" s="15">
-        <f>SUM(I137:J137)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L137" s="4">
@@ -31559,7 +31559,7 @@
         <v>23</v>
       </c>
       <c r="K138" s="15">
-        <f>SUM(I138:J138)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="L138" s="4">
@@ -31654,7 +31654,7 @@
         <v>28</v>
       </c>
       <c r="K139" s="15">
-        <f>SUM(I139:J139)</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="L139" s="4">
@@ -31749,7 +31749,7 @@
         <v>9</v>
       </c>
       <c r="K140" s="15">
-        <f>SUM(I140:J140)</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="L140" s="4">
@@ -31844,7 +31844,7 @@
         <v>-8</v>
       </c>
       <c r="K141" s="15">
-        <f>SUM(I141:J141)</f>
+        <f t="shared" si="2"/>
         <v>-17</v>
       </c>
       <c r="L141" s="4">
@@ -31939,7 +31939,7 @@
         <v>17</v>
       </c>
       <c r="K142" s="15">
-        <f>SUM(I142:J142)</f>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="L142" s="9">
@@ -32034,7 +32034,7 @@
         <v>2</v>
       </c>
       <c r="K143" s="15">
-        <f>SUM(I143:J143)</f>
+        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
       <c r="L143" s="4">
@@ -32129,7 +32129,7 @@
         <v>10</v>
       </c>
       <c r="K144" s="15">
-        <f>SUM(I144:J144)</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="L144" s="4">
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="K145" s="15">
-        <f>SUM(I145:J145)</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="L145" s="9">
@@ -32323,7 +32323,7 @@
         <v>10</v>
       </c>
       <c r="K146" s="15">
-        <f>SUM(I146:J146)</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="L146" s="9">
@@ -32418,7 +32418,7 @@
         <v>7</v>
       </c>
       <c r="K147" s="15">
-        <f>SUM(I147:J147)</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="L147" s="4">
@@ -32513,7 +32513,7 @@
         <v>-9</v>
       </c>
       <c r="K148" s="15">
-        <f>SUM(I148:J148)</f>
+        <f t="shared" si="2"/>
         <v>-4</v>
       </c>
       <c r="L148" s="4">
@@ -32608,7 +32608,7 @@
         <v>0</v>
       </c>
       <c r="K149" s="15">
-        <f>SUM(I149:J149)</f>
+        <f t="shared" si="2"/>
         <v>-10</v>
       </c>
       <c r="L149" s="4">
@@ -32703,7 +32703,7 @@
         <v>-17</v>
       </c>
       <c r="K150" s="15">
-        <f>SUM(I150:J150)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="L150" s="4">
@@ -32798,7 +32798,7 @@
         <v>-23</v>
       </c>
       <c r="K151" s="15">
-        <f>SUM(I151:J151)</f>
+        <f t="shared" si="2"/>
         <v>-4</v>
       </c>
       <c r="L151" s="4">
@@ -32893,7 +32893,7 @@
         <v>11</v>
       </c>
       <c r="K152" s="15">
-        <f>SUM(I152:J152)</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="L152" s="9">
@@ -32990,7 +32990,7 @@
         <v>-9</v>
       </c>
       <c r="K153" s="15">
-        <f>SUM(I153:J153)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="L153" s="4">
@@ -33085,7 +33085,7 @@
         <v>17</v>
       </c>
       <c r="K154" s="15">
-        <f>SUM(I154:J154)</f>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="L154" s="4">
@@ -33180,7 +33180,7 @@
         <v>-10</v>
       </c>
       <c r="K155" s="15">
-        <f>SUM(I155:J155)</f>
+        <f t="shared" si="2"/>
         <v>-7</v>
       </c>
       <c r="L155" s="4">
@@ -33275,7 +33275,7 @@
         <v>10</v>
       </c>
       <c r="K156" s="15">
-        <f>SUM(I156:J156)</f>
+        <f t="shared" si="2"/>
         <v>-4</v>
       </c>
       <c r="L156" s="4">
@@ -33370,7 +33370,7 @@
         <v>2</v>
       </c>
       <c r="K157" s="15">
-        <f>SUM(I157:J157)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="L157" s="4">
@@ -33467,7 +33467,7 @@
         <v>-9</v>
       </c>
       <c r="K158" s="15">
-        <f>SUM(I158:J158)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="L158" s="9">
@@ -33562,7 +33562,7 @@
         <v>0</v>
       </c>
       <c r="K159" s="15">
-        <f>SUM(I159:J159)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="L159" s="4">
@@ -33657,7 +33657,7 @@
         <v>5</v>
       </c>
       <c r="K160" s="15">
-        <f>SUM(I160:J160)</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="L160" s="4">
@@ -33752,7 +33752,7 @@
         <v>-11</v>
       </c>
       <c r="K161" s="15">
-        <f>SUM(I161:J161)</f>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="L161" s="4">
@@ -33849,7 +33849,7 @@
         <v>-13</v>
       </c>
       <c r="K162" s="15">
-        <f>SUM(I162:J162)</f>
+        <f t="shared" si="2"/>
         <v>-7</v>
       </c>
       <c r="L162" s="4">
@@ -33944,7 +33944,7 @@
         <v>0</v>
       </c>
       <c r="K163" s="15">
-        <f>SUM(I163:J163)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="L163" s="4">
@@ -34039,7 +34039,7 @@
         <v>19</v>
       </c>
       <c r="K164" s="15">
-        <f>SUM(I164:J164)</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="L164" s="4">
@@ -34134,7 +34134,7 @@
         <v>10</v>
       </c>
       <c r="K165" s="15">
-        <f>SUM(I165:J165)</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="L165" s="4">
@@ -34229,7 +34229,7 @@
         <v>9</v>
       </c>
       <c r="K166" s="15">
-        <f>SUM(I166:J166)</f>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="L166" s="4">
@@ -34324,7 +34324,7 @@
         <v>15</v>
       </c>
       <c r="K167" s="15">
-        <f>SUM(I167:J167)</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="L167" s="4">
@@ -34419,7 +34419,7 @@
         <v>-24</v>
       </c>
       <c r="K168" s="15">
-        <f>SUM(I168:J168)</f>
+        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
       <c r="L168" s="4">
@@ -34514,7 +34514,7 @@
         <v>18</v>
       </c>
       <c r="K169" s="15">
-        <f>SUM(I169:J169)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="L169" s="4">
@@ -34609,7 +34609,7 @@
         <v>13</v>
       </c>
       <c r="K170" s="15">
-        <f>SUM(I170:J170)</f>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="L170" s="4">
@@ -34704,7 +34704,7 @@
         <v>4</v>
       </c>
       <c r="K171" s="15">
-        <f>SUM(I171:J171)</f>
+        <f t="shared" si="2"/>
         <v>-5</v>
       </c>
       <c r="L171" s="4">
@@ -34799,7 +34799,7 @@
         <v>-5</v>
       </c>
       <c r="K172" s="15">
-        <f>SUM(I172:J172)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="L172" s="4">
@@ -34896,7 +34896,7 @@
         <v>2</v>
       </c>
       <c r="K173" s="15">
-        <f>SUM(I173:J173)</f>
+        <f t="shared" si="2"/>
         <v>-8</v>
       </c>
       <c r="L173" s="4">
@@ -34991,7 +34991,7 @@
         <v>12</v>
       </c>
       <c r="K174" s="15">
-        <f>SUM(I174:J174)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="L174" s="4">
@@ -35086,7 +35086,7 @@
         <v>15</v>
       </c>
       <c r="K175" s="15">
-        <f>SUM(I175:J175)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="L175" s="4">
@@ -35181,7 +35181,7 @@
         <v>18</v>
       </c>
       <c r="K176" s="15">
-        <f>SUM(I176:J176)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="L176" s="4">
@@ -35276,7 +35276,7 @@
         <v>-6</v>
       </c>
       <c r="K177" s="15">
-        <f>SUM(I177:J177)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="L177" s="4">
@@ -35371,7 +35371,7 @@
         <v>-10</v>
       </c>
       <c r="K178" s="15">
-        <f>SUM(I178:J178)</f>
+        <f t="shared" si="2"/>
         <v>-16</v>
       </c>
       <c r="L178" s="4">
@@ -35466,7 +35466,7 @@
         <v>11</v>
       </c>
       <c r="K179" s="15">
-        <f>SUM(I179:J179)</f>
+        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
       <c r="L179" s="9">
@@ -35561,7 +35561,7 @@
         <v>26</v>
       </c>
       <c r="K180" s="15">
-        <f>SUM(I180:J180)</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="L180" s="4">
@@ -35656,7 +35656,7 @@
         <v>28</v>
       </c>
       <c r="K181" s="15">
-        <f>SUM(I181:J181)</f>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="L181" s="9">
@@ -35753,7 +35753,7 @@
         <v>15</v>
       </c>
       <c r="K182" s="15">
-        <f>SUM(I182:J182)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="L182" s="4">
@@ -35848,7 +35848,7 @@
         <v>-6</v>
       </c>
       <c r="K183" s="15">
-        <f>SUM(I183:J183)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="L183" s="4">
@@ -35943,7 +35943,7 @@
         <v>0</v>
       </c>
       <c r="K184" s="15">
-        <f>SUM(I184:J184)</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="L184" s="4">
@@ -36038,7 +36038,7 @@
         <v>30</v>
       </c>
       <c r="K185" s="15">
-        <f>SUM(I185:J185)</f>
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="L185" s="4">
@@ -36133,7 +36133,7 @@
         <v>4</v>
       </c>
       <c r="K186" s="15">
-        <f>SUM(I186:J186)</f>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="L186" s="4">
@@ -36228,7 +36228,7 @@
         <v>21</v>
       </c>
       <c r="K187" s="15">
-        <f>SUM(I187:J187)</f>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="L187" s="4">
@@ -36323,7 +36323,7 @@
         <v>-18</v>
       </c>
       <c r="K188" s="15">
-        <f>SUM(I188:J188)</f>
+        <f t="shared" si="2"/>
         <v>-30</v>
       </c>
       <c r="L188" s="4">
@@ -36418,7 +36418,7 @@
         <v>21</v>
       </c>
       <c r="K189" s="15">
-        <f>SUM(I189:J189)</f>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="L189" s="4">
@@ -36515,7 +36515,7 @@
         <v>18</v>
       </c>
       <c r="K190" s="15">
-        <f>SUM(I190:J190)</f>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="L190" s="4">
@@ -36612,7 +36612,7 @@
         <v>20</v>
       </c>
       <c r="K191" s="15">
-        <f>SUM(I191:J191)</f>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="L191" s="4">
@@ -36707,7 +36707,7 @@
         <v>-8</v>
       </c>
       <c r="K192" s="15">
-        <f>SUM(I192:J192)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="L192" s="4">
@@ -36804,7 +36804,7 @@
         <v>21</v>
       </c>
       <c r="K193" s="15">
-        <f>SUM(I193:J193)</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="L193" s="4">
@@ -36899,7 +36899,7 @@
         <v>-10</v>
       </c>
       <c r="K194" s="15">
-        <f>SUM(I194:J194)</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="L194" s="4">
@@ -36994,7 +36994,7 @@
         <v>-6</v>
       </c>
       <c r="K195" s="15">
-        <f>SUM(I195:J195)</f>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
       <c r="L195" s="4">
@@ -37089,7 +37089,7 @@
         <v>-9</v>
       </c>
       <c r="K196" s="15">
-        <f>SUM(I196:J196)</f>
+        <f t="shared" ref="K196:K259" si="3">SUM(I196:J196)</f>
         <v>-9</v>
       </c>
       <c r="L196" s="4">
@@ -37184,7 +37184,7 @@
         <v>9</v>
       </c>
       <c r="K197" s="15">
-        <f>SUM(I197:J197)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="L197" s="4">
@@ -37279,7 +37279,7 @@
         <v>27</v>
       </c>
       <c r="K198" s="15">
-        <f>SUM(I198:J198)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="L198" s="4">
@@ -37376,7 +37376,7 @@
         <v>-8</v>
       </c>
       <c r="K199" s="15">
-        <f>SUM(I199:J199)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="L199" s="4">
@@ -37471,7 +37471,7 @@
         <v>-20</v>
       </c>
       <c r="K200" s="15">
-        <f>SUM(I200:J200)</f>
+        <f t="shared" si="3"/>
         <v>-27</v>
       </c>
       <c r="L200" s="4">
@@ -37566,7 +37566,7 @@
         <v>14</v>
       </c>
       <c r="K201" s="15">
-        <f>SUM(I201:J201)</f>
+        <f t="shared" si="3"/>
         <v>-9</v>
       </c>
       <c r="L201" s="4">
@@ -37661,7 +37661,7 @@
         <v>19</v>
       </c>
       <c r="K202" s="15">
-        <f>SUM(I202:J202)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="L202" s="4">
@@ -37756,7 +37756,7 @@
         <v>-8</v>
       </c>
       <c r="K203" s="15">
-        <f>SUM(I203:J203)</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="L203" s="9">
@@ -37851,7 +37851,7 @@
         <v>20</v>
       </c>
       <c r="K204" s="15">
-        <f>SUM(I204:J204)</f>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="L204" s="4">
@@ -37946,7 +37946,7 @@
         <v>-5</v>
       </c>
       <c r="K205" s="15">
-        <f>SUM(I205:J205)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="L205" s="4">
@@ -38041,7 +38041,7 @@
         <v>19</v>
       </c>
       <c r="K206" s="15">
-        <f>SUM(I206:J206)</f>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="L206" s="4">
@@ -38136,7 +38136,7 @@
         <v>-9</v>
       </c>
       <c r="K207" s="15">
-        <f>SUM(I207:J207)</f>
+        <f t="shared" si="3"/>
         <v>-6</v>
       </c>
       <c r="L207" s="4">
@@ -38231,7 +38231,7 @@
         <v>16</v>
       </c>
       <c r="K208" s="15">
-        <f>SUM(I208:J208)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="L208" s="4">
@@ -38326,7 +38326,7 @@
         <v>9</v>
       </c>
       <c r="K209" s="15">
-        <f>SUM(I209:J209)</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="L209" s="4">
@@ -38421,7 +38421,7 @@
         <v>-5</v>
       </c>
       <c r="K210" s="15">
-        <f>SUM(I210:J210)</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="L210" s="4">
@@ -38516,7 +38516,7 @@
         <v>9</v>
       </c>
       <c r="K211" s="15">
-        <f>SUM(I211:J211)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="L211" s="4">
@@ -38611,7 +38611,7 @@
         <v>-13</v>
       </c>
       <c r="K212" s="15">
-        <f>SUM(I212:J212)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L212" s="4">
@@ -38706,7 +38706,7 @@
         <v>-5</v>
       </c>
       <c r="K213" s="15">
-        <f>SUM(I213:J213)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="L213" s="4">
@@ -38801,7 +38801,7 @@
         <v>16</v>
       </c>
       <c r="K214" s="15">
-        <f>SUM(I214:J214)</f>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="L214" s="4">
@@ -38896,7 +38896,7 @@
         <v>5</v>
       </c>
       <c r="K215" s="15">
-        <f>SUM(I215:J215)</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="L215" s="4">
@@ -38993,7 +38993,7 @@
         <v>-14</v>
       </c>
       <c r="K216" s="15">
-        <f>SUM(I216:J216)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="L216" s="4">
@@ -39088,7 +39088,7 @@
         <v>14</v>
       </c>
       <c r="K217" s="15">
-        <f>SUM(I217:J217)</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="L217" s="4">
@@ -39183,7 +39183,7 @@
         <v>-5</v>
       </c>
       <c r="K218" s="15">
-        <f>SUM(I218:J218)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L218" s="4">
@@ -39278,7 +39278,7 @@
         <v>0</v>
       </c>
       <c r="K219" s="15">
-        <f>SUM(I219:J219)</f>
+        <f t="shared" si="3"/>
         <v>-10</v>
       </c>
       <c r="L219" s="4">
@@ -39375,7 +39375,7 @@
         <v>25</v>
       </c>
       <c r="K220" s="15">
-        <f>SUM(I220:J220)</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="L220" s="4">
@@ -39470,7 +39470,7 @@
         <v>-8</v>
       </c>
       <c r="K221" s="15">
-        <f>SUM(I221:J221)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="L221" s="4">
@@ -39565,7 +39565,7 @@
         <v>21</v>
       </c>
       <c r="K222" s="15">
-        <f>SUM(I222:J222)</f>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="L222" s="4">
@@ -39660,7 +39660,7 @@
         <v>10</v>
       </c>
       <c r="K223" s="15">
-        <f>SUM(I223:J223)</f>
+        <f t="shared" si="3"/>
         <v>-20</v>
       </c>
       <c r="L223" s="4">
@@ -39755,7 +39755,7 @@
         <v>9</v>
       </c>
       <c r="K224" s="15">
-        <f>SUM(I224:J224)</f>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="L224" s="4">
@@ -39850,7 +39850,7 @@
         <v>13</v>
       </c>
       <c r="K225" s="15">
-        <f>SUM(I225:J225)</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="L225" s="4">
@@ -39945,7 +39945,7 @@
         <v>-30</v>
       </c>
       <c r="K226" s="15">
-        <f>SUM(I226:J226)</f>
+        <f t="shared" si="3"/>
         <v>-26</v>
       </c>
       <c r="L226" s="4">
@@ -40040,7 +40040,7 @@
         <v>-13</v>
       </c>
       <c r="K227" s="15">
-        <f>SUM(I227:J227)</f>
+        <f t="shared" si="3"/>
         <v>-3</v>
       </c>
       <c r="L227" s="4">
@@ -40135,7 +40135,7 @@
         <v>19</v>
       </c>
       <c r="K228" s="15">
-        <f>SUM(I228:J228)</f>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="L228" s="4">
@@ -40230,7 +40230,7 @@
         <v>-13</v>
       </c>
       <c r="K229" s="15">
-        <f>SUM(I229:J229)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L229" s="4">
@@ -40325,7 +40325,7 @@
         <v>10</v>
       </c>
       <c r="K230" s="15">
-        <f>SUM(I230:J230)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="L230" s="4">
@@ -40420,7 +40420,7 @@
         <v>9</v>
       </c>
       <c r="K231" s="15">
-        <f>SUM(I231:J231)</f>
+        <f t="shared" si="3"/>
         <v>-6</v>
       </c>
       <c r="L231" s="4">
@@ -40515,7 +40515,7 @@
         <v>18</v>
       </c>
       <c r="K232" s="15">
-        <f>SUM(I232:J232)</f>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="L232" s="4">
@@ -40612,7 +40612,7 @@
         <v>16</v>
       </c>
       <c r="K233" s="15">
-        <f>SUM(I233:J233)</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="L233" s="4">
@@ -40707,7 +40707,7 @@
         <v>14</v>
       </c>
       <c r="K234" s="15">
-        <f>SUM(I234:J234)</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="L234" s="4">
@@ -40802,7 +40802,7 @@
         <v>13</v>
       </c>
       <c r="K235" s="15">
-        <f>SUM(I235:J235)</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="L235" s="4">
@@ -40897,7 +40897,7 @@
         <v>3</v>
       </c>
       <c r="K236" s="15">
-        <f>SUM(I236:J236)</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="L236" s="4">
@@ -40992,7 +40992,7 @@
         <v>18</v>
       </c>
       <c r="K237" s="15">
-        <f>SUM(I237:J237)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="L237" s="4">
@@ -41087,7 +41087,7 @@
         <v>4</v>
       </c>
       <c r="K238" s="15">
-        <f>SUM(I238:J238)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="L238" s="9">
@@ -41182,7 +41182,7 @@
         <v>0</v>
       </c>
       <c r="K239" s="15">
-        <f>SUM(I239:J239)</f>
+        <f t="shared" si="3"/>
         <v>-7</v>
       </c>
       <c r="L239" s="4">
@@ -41277,7 +41277,7 @@
         <v>7</v>
       </c>
       <c r="K240" s="15">
-        <f>SUM(I240:J240)</f>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="L240" s="4">
@@ -41372,7 +41372,7 @@
         <v>-10</v>
       </c>
       <c r="K241" s="15">
-        <f>SUM(I241:J241)</f>
+        <f t="shared" si="3"/>
         <v>-13</v>
       </c>
       <c r="L241" s="9">
@@ -41467,7 +41467,7 @@
         <v>-7</v>
       </c>
       <c r="K242" s="15">
-        <f>SUM(I242:J242)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L242" s="4">
@@ -41562,7 +41562,7 @@
         <v>9</v>
       </c>
       <c r="K243" s="15">
-        <f>SUM(I243:J243)</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="L243" s="4">
@@ -41657,7 +41657,7 @@
         <v>6</v>
       </c>
       <c r="K244" s="15">
-        <f>SUM(I244:J244)</f>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="L244" s="4">
@@ -41752,7 +41752,7 @@
         <v>0</v>
       </c>
       <c r="K245" s="15">
-        <f>SUM(I245:J245)</f>
+        <f t="shared" si="3"/>
         <v>-8</v>
       </c>
       <c r="L245" s="4">
@@ -41847,7 +41847,7 @@
         <v>15</v>
       </c>
       <c r="K246" s="15">
-        <f>SUM(I246:J246)</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="L246" s="4">
@@ -41942,7 +41942,7 @@
         <v>10</v>
       </c>
       <c r="K247" s="15">
-        <f>SUM(I247:J247)</f>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="L247" s="4">
@@ -42037,7 +42037,7 @@
         <v>5</v>
       </c>
       <c r="K248" s="15">
-        <f>SUM(I248:J248)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="L248" s="4">
@@ -42132,7 +42132,7 @@
         <v>7</v>
       </c>
       <c r="K249" s="15">
-        <f>SUM(I249:J249)</f>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="L249" s="4">
@@ -42227,7 +42227,7 @@
         <v>6</v>
       </c>
       <c r="K250" s="15">
-        <f>SUM(I250:J250)</f>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="L250" s="4">
@@ -42322,7 +42322,7 @@
         <v>6</v>
       </c>
       <c r="K251" s="15">
-        <f>SUM(I251:J251)</f>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="L251" s="4">
@@ -42417,7 +42417,7 @@
         <v>18</v>
       </c>
       <c r="K252" s="15">
-        <f>SUM(I252:J252)</f>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="L252" s="9">
@@ -42512,7 +42512,7 @@
         <v>-9</v>
       </c>
       <c r="K253" s="15">
-        <f>SUM(I253:J253)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L253" s="4">
@@ -42607,7 +42607,7 @@
         <v>7</v>
       </c>
       <c r="K254" s="15">
-        <f>SUM(I254:J254)</f>
+        <f t="shared" si="3"/>
         <v>-3</v>
       </c>
       <c r="L254" s="4">
@@ -42702,7 +42702,7 @@
         <v>-9</v>
       </c>
       <c r="K255" s="15">
-        <f>SUM(I255:J255)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="L255" s="4">
@@ -42799,7 +42799,7 @@
         <v>-20</v>
       </c>
       <c r="K256" s="15">
-        <f>SUM(I256:J256)</f>
+        <f t="shared" si="3"/>
         <v>-9</v>
       </c>
       <c r="L256" s="4">
@@ -42894,7 +42894,7 @@
         <v>10</v>
       </c>
       <c r="K257" s="15">
-        <f>SUM(I257:J257)</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="L257" s="4">
@@ -42989,7 +42989,7 @@
         <v>20</v>
       </c>
       <c r="K258" s="15">
-        <f>SUM(I258:J258)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="L258" s="4">
@@ -43084,7 +43084,7 @@
         <v>16</v>
       </c>
       <c r="K259" s="15">
-        <f>SUM(I259:J259)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="L259" s="4">
@@ -43179,7 +43179,7 @@
         <v>9</v>
       </c>
       <c r="K260" s="15">
-        <f t="shared" ref="K260:K311" si="0">SUM(I260:J260)</f>
+        <f t="shared" ref="K260:K311" si="4">SUM(I260:J260)</f>
         <v>7</v>
       </c>
       <c r="L260" s="4">
@@ -43274,7 +43274,7 @@
         <v>9</v>
       </c>
       <c r="K261" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="L261" s="4">
@@ -43369,7 +43369,7 @@
         <v>-11</v>
       </c>
       <c r="K262" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L262" s="4">
@@ -43464,7 +43464,7 @@
         <v>-7</v>
       </c>
       <c r="K263" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="L263" s="4">
@@ -43561,7 +43561,7 @@
         <v>30</v>
       </c>
       <c r="K264" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="L264" s="4">
@@ -43656,7 +43656,7 @@
         <v>14</v>
       </c>
       <c r="K265" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="L265" s="4">
@@ -43751,7 +43751,7 @@
         <v>-25</v>
       </c>
       <c r="K266" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="L266" s="4">
@@ -43846,7 +43846,7 @@
         <v>16</v>
       </c>
       <c r="K267" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="L267" s="4">
@@ -43941,7 +43941,7 @@
         <v>-10</v>
       </c>
       <c r="K268" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="L268" s="4">
@@ -44036,7 +44036,7 @@
         <v>18</v>
       </c>
       <c r="K269" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="L269" s="4">
@@ -44131,7 +44131,7 @@
         <v>14</v>
       </c>
       <c r="K270" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="L270" s="4">
@@ -44226,7 +44226,7 @@
         <v>-4</v>
       </c>
       <c r="K271" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="L271" s="4">
@@ -44321,7 +44321,7 @@
         <v>-19</v>
       </c>
       <c r="K272" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-11</v>
       </c>
       <c r="L272" s="4">
@@ -44416,7 +44416,7 @@
         <v>13</v>
       </c>
       <c r="K273" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="L273" s="4">
@@ -44511,7 +44511,7 @@
         <v>3</v>
       </c>
       <c r="K274" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="L274" s="4">
@@ -44606,7 +44606,7 @@
         <v>2</v>
       </c>
       <c r="K275" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="L275" s="4">
@@ -44701,7 +44701,7 @@
         <v>22</v>
       </c>
       <c r="K276" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="L276" s="4">
@@ -44796,7 +44796,7 @@
         <v>-4</v>
       </c>
       <c r="K277" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="L277" s="4">
@@ -44891,7 +44891,7 @@
         <v>-17</v>
       </c>
       <c r="K278" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-7</v>
       </c>
       <c r="L278" s="4">
@@ -44986,7 +44986,7 @@
         <v>12</v>
       </c>
       <c r="K279" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="L279" s="4">
@@ -45081,7 +45081,7 @@
         <v>14</v>
       </c>
       <c r="K280" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="L280" s="4">
@@ -45176,7 +45176,7 @@
         <v>16</v>
       </c>
       <c r="K281" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-10</v>
       </c>
       <c r="L281" s="4">
@@ -45271,7 +45271,7 @@
         <v>23</v>
       </c>
       <c r="K282" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="L282" s="4">
@@ -45366,7 +45366,7 @@
         <v>-8</v>
       </c>
       <c r="K283" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="L283" s="4">
@@ -45461,7 +45461,7 @@
         <v>-10</v>
       </c>
       <c r="K284" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="L284" s="4">
@@ -45556,7 +45556,7 @@
         <v>9</v>
       </c>
       <c r="K285" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="L285" s="4">
@@ -45651,7 +45651,7 @@
         <v>15</v>
       </c>
       <c r="K286" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="L286" s="4">
@@ -45748,7 +45748,7 @@
         <v>0</v>
       </c>
       <c r="K287" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L287" s="4">
@@ -45843,7 +45843,7 @@
         <v>10</v>
       </c>
       <c r="K288" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-5</v>
       </c>
       <c r="L288" s="4">
@@ -45938,7 +45938,7 @@
         <v>27</v>
       </c>
       <c r="K289" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="L289" s="4">
@@ -46033,7 +46033,7 @@
         <v>-10</v>
       </c>
       <c r="K290" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="L290" s="4">
@@ -46128,7 +46128,7 @@
         <v>13</v>
       </c>
       <c r="K291" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="L291" s="4">
@@ -46223,7 +46223,7 @@
         <v>9</v>
       </c>
       <c r="K292" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="L292" s="4">
@@ -46318,7 +46318,7 @@
         <v>15</v>
       </c>
       <c r="K293" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="L293" s="4">
@@ -46413,7 +46413,7 @@
         <v>-8</v>
       </c>
       <c r="K294" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-14</v>
       </c>
       <c r="L294" s="4">
@@ -46508,7 +46508,7 @@
         <v>13</v>
       </c>
       <c r="K295" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="L295" s="4">
@@ -46603,7 +46603,7 @@
         <v>6</v>
       </c>
       <c r="K296" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="L296" s="4">
@@ -46698,7 +46698,7 @@
         <v>-9</v>
       </c>
       <c r="K297" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-19</v>
       </c>
       <c r="L297" s="4">
@@ -46793,7 +46793,7 @@
         <v>0</v>
       </c>
       <c r="K298" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="L298" s="4">
@@ -46888,7 +46888,7 @@
         <v>24</v>
       </c>
       <c r="K299" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="L299" s="9">
@@ -46983,7 +46983,7 @@
         <v>16</v>
       </c>
       <c r="K300" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="L300" s="9">
@@ -47078,7 +47078,7 @@
         <v>23</v>
       </c>
       <c r="K301" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="L301" s="4">
@@ -47173,7 +47173,7 @@
         <v>10</v>
       </c>
       <c r="K302" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L302" s="4">
@@ -47268,7 +47268,7 @@
         <v>0</v>
       </c>
       <c r="K303" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-10</v>
       </c>
       <c r="L303" s="11">
@@ -47363,7 +47363,7 @@
         <v>-15</v>
       </c>
       <c r="K304" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-15</v>
       </c>
       <c r="L304" s="10">
@@ -47458,7 +47458,7 @@
         <v>10</v>
       </c>
       <c r="K305" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-5</v>
       </c>
       <c r="L305" s="10">
@@ -47553,7 +47553,7 @@
         <v>-5</v>
       </c>
       <c r="K306" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-15</v>
       </c>
       <c r="L306" s="10">
@@ -47648,7 +47648,7 @@
         <v>14</v>
       </c>
       <c r="K307" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="L307" s="11">
@@ -47743,7 +47743,7 @@
         <v>6</v>
       </c>
       <c r="K308" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="L308" s="11">
@@ -47838,7 +47838,7 @@
         <v>-5</v>
       </c>
       <c r="K309" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="L309" s="11">
@@ -47933,7 +47933,7 @@
         <v>-1</v>
       </c>
       <c r="K310" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="L310" s="11">
@@ -48028,7 +48028,7 @@
         <v>7</v>
       </c>
       <c r="K311" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="L311" s="11">
@@ -48106,7 +48106,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:J311">
-    <cfRule type="cellIs" dxfId="5" priority="23" operator="between">
+    <cfRule type="cellIs" dxfId="76" priority="23" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
@@ -48200,7 +48200,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P6" sqref="P6"/>
+      <selection pane="bottomRight" activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -48259,31 +48259,31 @@
         <v>976</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="N1" s="17" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="O1" s="17" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="Q1" s="17" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="R1" s="17" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="S1" s="17" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="T1" s="17" t="s">
+        <v>1363</v>
+      </c>
+      <c r="U1" s="17" t="s">
         <v>1364</v>
-      </c>
-      <c r="U1" s="17" t="s">
-        <v>1365</v>
       </c>
       <c r="V1" s="17" t="s">
         <v>327</v>
@@ -48357,31 +48357,31 @@
         <v>969</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="V2" s="2" t="s">
         <v>300</v>
@@ -48455,34 +48455,34 @@
         <v>977</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="T3" s="6" t="s">
+        <v>1366</v>
+      </c>
+      <c r="U3" s="6" t="s">
         <v>1367</v>
       </c>
-      <c r="U3" s="6" t="s">
+      <c r="V3" s="6" t="s">
         <v>1368</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>1369</v>
       </c>
       <c r="W3" s="6" t="s">
         <v>311</v>
@@ -48803,13 +48803,13 @@
         <v>51018001</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="C7" s="11" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D7" s="27" t="s">
         <v>1361</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>1362</v>
       </c>
       <c r="E7" s="11">
         <v>1</v>
@@ -48907,7 +48907,7 @@
         <v>871</v>
       </c>
       <c r="E8" s="38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8" s="38">
         <v>8</v>
@@ -48916,7 +48916,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I8" s="38">
         <v>0</v>
@@ -48953,18 +48953,16 @@
         <v>0</v>
       </c>
       <c r="T8" s="11">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="U8" s="11">
-        <v>10</v>
-      </c>
-      <c r="V8" s="38" t="s">
-        <v>211</v>
+        <v>15</v>
+      </c>
+      <c r="V8" s="11" t="s">
+        <v>1387</v>
       </c>
       <c r="W8" s="38"/>
-      <c r="X8" s="11" t="s">
-        <v>1358</v>
-      </c>
+      <c r="X8" s="11"/>
       <c r="Y8" s="38" t="s">
         <v>1045</v>
       </c>
@@ -48990,10 +48988,10 @@
     </row>
     <row r="9" spans="1:32" ht="14.25">
       <c r="A9" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>1060</v>
@@ -49098,7 +49096,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J9">
-    <cfRule type="cellIs" dxfId="4" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="40" priority="12" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
@@ -49116,13 +49114,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="39" priority="8" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:I7">
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="38" priority="7" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
@@ -49140,7 +49138,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="37" priority="4" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
@@ -49158,7 +49156,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="36" priority="1" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>

--- a/ConfigData/Xlsx/Monster.xlsx
+++ b/ConfigData/Xlsx/Monster.xlsx
@@ -48200,7 +48200,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N7" sqref="N7"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/ConfigData/Xlsx/Monster.xlsx
+++ b/ConfigData/Xlsx/Monster.xlsx
@@ -646,7 +646,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2456" uniqueCount="1388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2456" uniqueCount="1387">
   <si>
     <t>arrow</t>
   </si>
@@ -5056,10 +5056,6 @@
   </si>
   <si>
     <t>Dhit</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>arrow</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -8241,11 +8237,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1320121568"/>
-        <c:axId val="1320130272"/>
+        <c:axId val="450582064"/>
+        <c:axId val="450585872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1320121568"/>
+        <c:axId val="450582064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8288,7 +8284,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1320130272"/>
+        <c:crossAx val="450585872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8296,7 +8292,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1320130272"/>
+        <c:axId val="450585872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8347,7 +8343,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1320121568"/>
+        <c:crossAx val="450582064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -48200,7 +48196,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -48959,7 +48955,7 @@
         <v>15</v>
       </c>
       <c r="V8" s="11" t="s">
-        <v>1387</v>
+        <v>64</v>
       </c>
       <c r="W8" s="38"/>
       <c r="X8" s="11"/>

--- a/ConfigData/Xlsx/Monster.xlsx
+++ b/ConfigData/Xlsx/Monster.xlsx
@@ -649,7 +649,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2240" uniqueCount="1415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2227" uniqueCount="1409">
   <si>
     <t>arrow</t>
   </si>
@@ -3981,15 +3981,9 @@
     <t>55000002;100|55000037;30|55000043;15</t>
   </si>
   <si>
-    <t>55010001;100</t>
-  </si>
-  <si>
     <t>55000006;100|55010028;100</t>
   </si>
   <si>
-    <t>55010015;100</t>
-  </si>
-  <si>
     <t>55000050;100</t>
   </si>
   <si>
@@ -4056,9 +4050,6 @@
     <t>55000094;12</t>
   </si>
   <si>
-    <t>55010024;100</t>
-  </si>
-  <si>
     <t>55000095;40|55000096;50|55010007;100</t>
   </si>
   <si>
@@ -4239,15 +4230,9 @@
     <t>55000165;20|55010028;100</t>
   </si>
   <si>
-    <t>55010004;100</t>
-  </si>
-  <si>
     <t>55000170;100|55010008;100</t>
   </si>
   <si>
-    <t>55010013;100</t>
-  </si>
-  <si>
     <t>55000269;100|55010005;100</t>
   </si>
   <si>
@@ -4365,9 +4350,6 @@
     <t>55000093;40|55000224;100|55010015;100</t>
   </si>
   <si>
-    <t>55010016;100</t>
-  </si>
-  <si>
     <t>55000002;100|55000235;100</t>
   </si>
   <si>
@@ -4447,9 +4429,6 @@
   </si>
   <si>
     <t>55000289;100|55000290;40</t>
-  </si>
-  <si>
-    <t>55010029;100</t>
   </si>
   <si>
     <t>55000284;25</t>
@@ -4697,12 +4676,6 @@
     <t>55000260;30;100</t>
   </si>
   <si>
-    <t>55010018;100</t>
-  </si>
-  <si>
-    <t>55010003;100</t>
-  </si>
-  <si>
     <t>55000002;100|55000048;100|55000275;100</t>
   </si>
   <si>
@@ -4871,9 +4844,6 @@
     <t>55000293;100|55010028;100</t>
   </si>
   <si>
-    <t>55010002;100</t>
-  </si>
-  <si>
     <t>55000060;100|55000061;100</t>
   </si>
   <si>
@@ -4971,10 +4941,6 @@
   </si>
   <si>
     <t>55000088;30|55000089;70|55010029;100</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>55010002;100|55010028;100</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -5296,6 +5262,26 @@
   </si>
   <si>
     <t>Quality</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>55010018;100</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -6360,6 +6346,62 @@
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="132">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -7490,34 +7532,6 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -8967,34 +8981,6 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -9533,11 +9519,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="360664320"/>
-        <c:axId val="360657248"/>
+        <c:axId val="915929408"/>
+        <c:axId val="915935392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="360664320"/>
+        <c:axId val="915929408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9580,7 +9566,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="360657248"/>
+        <c:crossAx val="915935392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9588,7 +9574,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="360657248"/>
+        <c:axId val="915935392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9639,7 +9625,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="360664320"/>
+        <c:crossAx val="915929408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21783,162 +21769,162 @@
     <tableColumn id="3" name="Star" dataDxfId="120"/>
     <tableColumn id="4" name="Type" dataDxfId="119"/>
     <tableColumn id="5" name="Attr" dataDxfId="118"/>
-    <tableColumn id="58" name="Quality" dataDxfId="117">
-      <calculatedColumnFormula>IF(T4&gt;10,5,IF(T4&gt;4,4,IF(T4&gt;2,3,IF(T4&gt;0,2,IF(T4&gt;-2.5,1,IF(T4&gt;-10,0,6))))))</calculatedColumnFormula>
+    <tableColumn id="58" name="Quality" dataDxfId="1">
+      <calculatedColumnFormula>IF(T4&gt;10,5,IF(T4&gt;5,4,IF(T4&gt;2.5,3,IF(T4&gt;0,2,IF(T4&gt;-2.5,1,IF(T4&gt;-10,0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Cost" dataDxfId="116"/>
-    <tableColumn id="6" name="AtkP" dataDxfId="115"/>
-    <tableColumn id="24" name="VitP" dataDxfId="114"/>
-    <tableColumn id="25" name="Modify" dataDxfId="113"/>
-    <tableColumn id="9" name="Def" dataDxfId="112"/>
-    <tableColumn id="10" name="Mag" dataDxfId="111"/>
-    <tableColumn id="32" name="Spd" dataDxfId="110"/>
-    <tableColumn id="35" name="Hit" dataDxfId="109"/>
-    <tableColumn id="36" name="Dhit" dataDxfId="108"/>
-    <tableColumn id="34" name="Crt" dataDxfId="107"/>
-    <tableColumn id="33" name="Luk" dataDxfId="106"/>
-    <tableColumn id="7" name="Sum" dataDxfId="105">
+    <tableColumn id="12" name="Cost" dataDxfId="117"/>
+    <tableColumn id="6" name="AtkP" dataDxfId="116"/>
+    <tableColumn id="24" name="VitP" dataDxfId="115"/>
+    <tableColumn id="25" name="Modify" dataDxfId="114"/>
+    <tableColumn id="9" name="Def" dataDxfId="113"/>
+    <tableColumn id="10" name="Mag" dataDxfId="112"/>
+    <tableColumn id="32" name="Spd" dataDxfId="111"/>
+    <tableColumn id="35" name="Hit" dataDxfId="110"/>
+    <tableColumn id="36" name="Dhit" dataDxfId="109"/>
+    <tableColumn id="34" name="Crt" dataDxfId="108"/>
+    <tableColumn id="33" name="Luk" dataDxfId="107"/>
+    <tableColumn id="7" name="Sum" dataDxfId="106">
       <calculatedColumnFormula>SUM(J4:K4)+SUM(M4:S4)*5+4.4*SUM(AP4:AX4)+2.5*SUM(AJ4:AN4)+AI4/100+L4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Range" dataDxfId="104"/>
-    <tableColumn id="14" name="Mov" dataDxfId="103"/>
-    <tableColumn id="16" name="Arrow" dataDxfId="102"/>
-    <tableColumn id="18" name="Skills" dataDxfId="101"/>
-    <tableColumn id="42" name="~Skill1" dataDxfId="100"/>
-    <tableColumn id="43" name="~SkillRate1" dataDxfId="99"/>
-    <tableColumn id="44" name="~Skill2" dataDxfId="98"/>
-    <tableColumn id="45" name="~SkillRate2" dataDxfId="97"/>
-    <tableColumn id="46" name="~Skill3" dataDxfId="96"/>
-    <tableColumn id="47" name="~SkillRate3" dataDxfId="95"/>
-    <tableColumn id="48" name="~Skill4" dataDxfId="94"/>
-    <tableColumn id="49" name="~SkillRate4" dataDxfId="93"/>
-    <tableColumn id="50" name="~Skill5" dataDxfId="92"/>
-    <tableColumn id="51" name="~SkillRate5" dataDxfId="91"/>
-    <tableColumn id="54" name="~SkillMark" dataDxfId="90">
+    <tableColumn id="13" name="Range" dataDxfId="105"/>
+    <tableColumn id="14" name="Mov" dataDxfId="104"/>
+    <tableColumn id="16" name="Arrow" dataDxfId="103"/>
+    <tableColumn id="18" name="Skills" dataDxfId="102"/>
+    <tableColumn id="42" name="~Skill1" dataDxfId="101"/>
+    <tableColumn id="43" name="~SkillRate1" dataDxfId="100"/>
+    <tableColumn id="44" name="~Skill2" dataDxfId="99"/>
+    <tableColumn id="45" name="~SkillRate2" dataDxfId="98"/>
+    <tableColumn id="46" name="~Skill3" dataDxfId="97"/>
+    <tableColumn id="47" name="~SkillRate3" dataDxfId="96"/>
+    <tableColumn id="48" name="~Skill4" dataDxfId="95"/>
+    <tableColumn id="49" name="~SkillRate4" dataDxfId="94"/>
+    <tableColumn id="50" name="~Skill5" dataDxfId="93"/>
+    <tableColumn id="51" name="~SkillRate5" dataDxfId="92"/>
+    <tableColumn id="54" name="~SkillMark" dataDxfId="91">
       <calculatedColumnFormula>IF(ISBLANK($Y4),0, LOOKUP($Y4,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$Z4/100)+
 IF(ISBLANK($AA4),0, LOOKUP($AA4,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AB4/100)+
 IF(ISBLANK($AC4),0, LOOKUP($AC4,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AD4/100)+
 IF(ISBLANK($AE4),0, LOOKUP($AE4,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AF4/100)+
 IF(ISBLANK($AG4),0, LOOKUP($AG4,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AH4/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="52" name="~AntiLife" dataDxfId="89"/>
-    <tableColumn id="57" name="~AntiMental" dataDxfId="88"/>
-    <tableColumn id="56" name="~AntiPhysical" dataDxfId="87"/>
-    <tableColumn id="55" name="~AntiElement" dataDxfId="86"/>
-    <tableColumn id="53" name="~AntiHelp" dataDxfId="85"/>
-    <tableColumn id="30" name="BuffImmune" dataDxfId="84">
+    <tableColumn id="52" name="~AntiLife" dataDxfId="90"/>
+    <tableColumn id="57" name="~AntiMental" dataDxfId="89"/>
+    <tableColumn id="56" name="~AntiPhysical" dataDxfId="88"/>
+    <tableColumn id="55" name="~AntiElement" dataDxfId="87"/>
+    <tableColumn id="53" name="~AntiHelp" dataDxfId="86"/>
+    <tableColumn id="30" name="BuffImmune" dataDxfId="85">
       <calculatedColumnFormula>CONCATENATE(AJ4,";",AK4,";",AL4,";",AM4,";",AN4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="~AntiNull" dataDxfId="83"/>
-    <tableColumn id="11" name="~AntiWater" dataDxfId="82"/>
-    <tableColumn id="26" name="~AntiWind" dataDxfId="81"/>
-    <tableColumn id="27" name="~AntiFire" dataDxfId="80"/>
-    <tableColumn id="37" name="~AntiEarth" dataDxfId="79"/>
-    <tableColumn id="38" name="~AntiIce" dataDxfId="78"/>
-    <tableColumn id="39" name="~AntiThunder" dataDxfId="77"/>
-    <tableColumn id="40" name="~AntiLight" dataDxfId="76"/>
-    <tableColumn id="41" name="~AntiDark" dataDxfId="75"/>
-    <tableColumn id="31" name="AttrDef" dataDxfId="74">
+    <tableColumn id="8" name="~AntiNull" dataDxfId="84"/>
+    <tableColumn id="11" name="~AntiWater" dataDxfId="83"/>
+    <tableColumn id="26" name="~AntiWind" dataDxfId="82"/>
+    <tableColumn id="27" name="~AntiFire" dataDxfId="81"/>
+    <tableColumn id="37" name="~AntiEarth" dataDxfId="80"/>
+    <tableColumn id="38" name="~AntiIce" dataDxfId="79"/>
+    <tableColumn id="39" name="~AntiThunder" dataDxfId="78"/>
+    <tableColumn id="40" name="~AntiLight" dataDxfId="77"/>
+    <tableColumn id="41" name="~AntiDark" dataDxfId="76"/>
+    <tableColumn id="31" name="AttrDef" dataDxfId="75">
       <calculatedColumnFormula>CONCATENATE(AP4,";",AQ4,";",AR4,";",AS4,";",AT4,";",AU4,";",AV4,";",AW4,";",AX4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Res" dataDxfId="73"/>
-    <tableColumn id="21" name="Icon" dataDxfId="72"/>
-    <tableColumn id="17" name="Cover" dataDxfId="71"/>
-    <tableColumn id="15" name="IsSpecial" dataDxfId="70"/>
-    <tableColumn id="28" name="IsNew" dataDxfId="69"/>
-    <tableColumn id="19" name="VsMark" dataDxfId="68"/>
-    <tableColumn id="29" name="Remark" dataDxfId="67"/>
+    <tableColumn id="20" name="Res" dataDxfId="74"/>
+    <tableColumn id="21" name="Icon" dataDxfId="73"/>
+    <tableColumn id="17" name="Cover" dataDxfId="72"/>
+    <tableColumn id="15" name="IsSpecial" dataDxfId="71"/>
+    <tableColumn id="28" name="IsNew" dataDxfId="70"/>
+    <tableColumn id="19" name="VsMark" dataDxfId="69"/>
+    <tableColumn id="29" name="Remark" dataDxfId="68"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表1_5" displayName="表1_5" ref="A3:BF9" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60" tableBorderDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表1_5" displayName="表1_5" ref="A3:BF9" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61" tableBorderDxfId="60">
   <autoFilter ref="A3:BF9"/>
   <sortState ref="A4:AF311">
     <sortCondition ref="A3:A311"/>
   </sortState>
   <tableColumns count="58">
-    <tableColumn id="1" name="Id" dataDxfId="58"/>
-    <tableColumn id="2" name="Name" dataDxfId="57"/>
-    <tableColumn id="22" name="Ename" dataDxfId="56"/>
-    <tableColumn id="23" name="EnameShort" dataDxfId="55"/>
-    <tableColumn id="3" name="Star" dataDxfId="54"/>
-    <tableColumn id="4" name="Type" dataDxfId="53"/>
-    <tableColumn id="5" name="Attr" dataDxfId="52"/>
-    <tableColumn id="58" name="Quality" dataDxfId="51">
-      <calculatedColumnFormula>IF(T4&gt;10,5,IF(T4&gt;4,4,IF(T4&gt;2,3,IF(T4&gt;0,2,IF(T4&gt;-2.5,1,IF(T4&gt;-10,0,6))))))</calculatedColumnFormula>
+    <tableColumn id="1" name="Id" dataDxfId="59"/>
+    <tableColumn id="2" name="Name" dataDxfId="58"/>
+    <tableColumn id="22" name="Ename" dataDxfId="57"/>
+    <tableColumn id="23" name="EnameShort" dataDxfId="56"/>
+    <tableColumn id="3" name="Star" dataDxfId="55"/>
+    <tableColumn id="4" name="Type" dataDxfId="54"/>
+    <tableColumn id="5" name="Attr" dataDxfId="53"/>
+    <tableColumn id="58" name="Quality" dataDxfId="0">
+      <calculatedColumnFormula>IF(T4&gt;10,5,IF(T4&gt;5,4,IF(T4&gt;2.5,3,IF(T4&gt;0,2,IF(T4&gt;-2.5,1,IF(T4&gt;-10,0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Cost" dataDxfId="50"/>
-    <tableColumn id="6" name="AtkP" dataDxfId="49"/>
-    <tableColumn id="24" name="VitP" dataDxfId="48"/>
-    <tableColumn id="25" name="Modify" dataDxfId="47"/>
-    <tableColumn id="9" name="Def" dataDxfId="46"/>
-    <tableColumn id="10" name="Mag" dataDxfId="45"/>
-    <tableColumn id="32" name="Spd" dataDxfId="44"/>
-    <tableColumn id="35" name="Hit" dataDxfId="43"/>
-    <tableColumn id="36" name="Dhit" dataDxfId="42"/>
-    <tableColumn id="34" name="Crt" dataDxfId="41"/>
-    <tableColumn id="33" name="Luk" dataDxfId="40"/>
-    <tableColumn id="7" name="Sum" dataDxfId="39">
+    <tableColumn id="12" name="Cost" dataDxfId="52"/>
+    <tableColumn id="6" name="AtkP" dataDxfId="51"/>
+    <tableColumn id="24" name="VitP" dataDxfId="50"/>
+    <tableColumn id="25" name="Modify" dataDxfId="49"/>
+    <tableColumn id="9" name="Def" dataDxfId="48"/>
+    <tableColumn id="10" name="Mag" dataDxfId="47"/>
+    <tableColumn id="32" name="Spd" dataDxfId="46"/>
+    <tableColumn id="35" name="Hit" dataDxfId="45"/>
+    <tableColumn id="36" name="Dhit" dataDxfId="44"/>
+    <tableColumn id="34" name="Crt" dataDxfId="43"/>
+    <tableColumn id="33" name="Luk" dataDxfId="42"/>
+    <tableColumn id="7" name="Sum" dataDxfId="41">
       <calculatedColumnFormula>SUM(J4:K4)+SUM(M4:S4)*5+4.4*SUM(AP4:AX4)+2.5*SUM(AJ4:AN4)+AI4/100+L4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Range" dataDxfId="38"/>
-    <tableColumn id="14" name="Mov" dataDxfId="37"/>
-    <tableColumn id="16" name="Arrow" dataDxfId="36"/>
-    <tableColumn id="18" name="Skills" dataDxfId="35"/>
-    <tableColumn id="42" name="~Skill1" dataDxfId="34"/>
-    <tableColumn id="43" name="~SkillRate1" dataDxfId="33"/>
-    <tableColumn id="44" name="~Skill2" dataDxfId="32"/>
-    <tableColumn id="45" name="~SkillRate2" dataDxfId="31"/>
-    <tableColumn id="46" name="~Skill3" dataDxfId="30"/>
-    <tableColumn id="47" name="~SkillRate3" dataDxfId="29"/>
-    <tableColumn id="48" name="~Skill4" dataDxfId="28"/>
-    <tableColumn id="49" name="~SkillRate4" dataDxfId="27"/>
-    <tableColumn id="50" name="~Skill5" dataDxfId="26"/>
-    <tableColumn id="51" name="~SkillRate5" dataDxfId="25"/>
-    <tableColumn id="54" name="~SkillMark" dataDxfId="24">
+    <tableColumn id="13" name="Range" dataDxfId="40"/>
+    <tableColumn id="14" name="Mov" dataDxfId="39"/>
+    <tableColumn id="16" name="Arrow" dataDxfId="38"/>
+    <tableColumn id="18" name="Skills" dataDxfId="37"/>
+    <tableColumn id="42" name="~Skill1" dataDxfId="36"/>
+    <tableColumn id="43" name="~SkillRate1" dataDxfId="35"/>
+    <tableColumn id="44" name="~Skill2" dataDxfId="34"/>
+    <tableColumn id="45" name="~SkillRate2" dataDxfId="33"/>
+    <tableColumn id="46" name="~Skill3" dataDxfId="32"/>
+    <tableColumn id="47" name="~SkillRate3" dataDxfId="31"/>
+    <tableColumn id="48" name="~Skill4" dataDxfId="30"/>
+    <tableColumn id="49" name="~SkillRate4" dataDxfId="29"/>
+    <tableColumn id="50" name="~Skill5" dataDxfId="28"/>
+    <tableColumn id="51" name="~SkillRate5" dataDxfId="27"/>
+    <tableColumn id="54" name="~SkillMark" dataDxfId="26">
       <calculatedColumnFormula>IF(ISBLANK($Y4),0, LOOKUP($Y4,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$Z4/100)+
 IF(ISBLANK($AA4),0, LOOKUP($AA4,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AB4/100)+
 IF(ISBLANK($AC4),0, LOOKUP($AC4,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AD4/100)+
 IF(ISBLANK($AE4),0, LOOKUP($AE4,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AF4/100)+
 IF(ISBLANK($AG4),0, LOOKUP($AG4,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AH4/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="52" name="~AntiLife" dataDxfId="23"/>
-    <tableColumn id="57" name="~AntiMental" dataDxfId="22"/>
-    <tableColumn id="56" name="~AntiPhysical" dataDxfId="21"/>
-    <tableColumn id="55" name="~AntiElement" dataDxfId="20"/>
-    <tableColumn id="53" name="~AntiHelp" dataDxfId="19"/>
-    <tableColumn id="30" name="BuffImmune" dataDxfId="18">
+    <tableColumn id="52" name="~AntiLife" dataDxfId="25"/>
+    <tableColumn id="57" name="~AntiMental" dataDxfId="24"/>
+    <tableColumn id="56" name="~AntiPhysical" dataDxfId="23"/>
+    <tableColumn id="55" name="~AntiElement" dataDxfId="22"/>
+    <tableColumn id="53" name="~AntiHelp" dataDxfId="21"/>
+    <tableColumn id="30" name="BuffImmune" dataDxfId="20">
       <calculatedColumnFormula>CONCATENATE(AJ4,";",AK4,";",AL4,";",AM4,";",AN4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="~AntiNull" dataDxfId="17"/>
-    <tableColumn id="11" name="~AntiWater" dataDxfId="16"/>
-    <tableColumn id="26" name="~AntiWind" dataDxfId="15"/>
-    <tableColumn id="27" name="~AntiFire" dataDxfId="14"/>
-    <tableColumn id="37" name="~AntiEarth" dataDxfId="13"/>
-    <tableColumn id="38" name="~AntiIce" dataDxfId="12"/>
-    <tableColumn id="39" name="~AntiThunder" dataDxfId="11"/>
-    <tableColumn id="40" name="~AntiLight" dataDxfId="10"/>
-    <tableColumn id="41" name="~AntiDark" dataDxfId="9"/>
-    <tableColumn id="31" name="AttrDef" dataDxfId="8">
+    <tableColumn id="8" name="~AntiNull" dataDxfId="19"/>
+    <tableColumn id="11" name="~AntiWater" dataDxfId="18"/>
+    <tableColumn id="26" name="~AntiWind" dataDxfId="17"/>
+    <tableColumn id="27" name="~AntiFire" dataDxfId="16"/>
+    <tableColumn id="37" name="~AntiEarth" dataDxfId="15"/>
+    <tableColumn id="38" name="~AntiIce" dataDxfId="14"/>
+    <tableColumn id="39" name="~AntiThunder" dataDxfId="13"/>
+    <tableColumn id="40" name="~AntiLight" dataDxfId="12"/>
+    <tableColumn id="41" name="~AntiDark" dataDxfId="11"/>
+    <tableColumn id="31" name="AttrDef" dataDxfId="10">
       <calculatedColumnFormula>CONCATENATE(AP4,";",AQ4,";",AR4,";",AS4,";",AT4,";",AU4,";",AV4,";",AW4,";",AX4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Res" dataDxfId="7"/>
-    <tableColumn id="21" name="Icon" dataDxfId="6"/>
-    <tableColumn id="17" name="Cover" dataDxfId="5"/>
-    <tableColumn id="15" name="IsSpecial" dataDxfId="4"/>
-    <tableColumn id="28" name="IsNew" dataDxfId="3"/>
-    <tableColumn id="19" name="VsMark" dataDxfId="2"/>
-    <tableColumn id="29" name="Remark" dataDxfId="1"/>
+    <tableColumn id="20" name="Res" dataDxfId="9"/>
+    <tableColumn id="21" name="Icon" dataDxfId="8"/>
+    <tableColumn id="17" name="Cover" dataDxfId="7"/>
+    <tableColumn id="15" name="IsSpecial" dataDxfId="6"/>
+    <tableColumn id="28" name="IsNew" dataDxfId="5"/>
+    <tableColumn id="19" name="VsMark" dataDxfId="4"/>
+    <tableColumn id="29" name="Remark" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:I15" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:I15" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:I15"/>
   <tableColumns count="9">
     <tableColumn id="1" name="星级"/>
@@ -22248,7 +22234,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="T4" sqref="T4"/>
+      <selection pane="bottomRight" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -22301,7 +22287,7 @@
         <v>315</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>1412</v>
+        <v>1401</v>
       </c>
       <c r="I1" s="17" t="s">
         <v>977</v>
@@ -22316,34 +22302,34 @@
         <v>972</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>1225</v>
+        <v>1218</v>
       </c>
       <c r="N1" s="17" t="s">
-        <v>1228</v>
+        <v>1221</v>
       </c>
       <c r="O1" s="17" t="s">
-        <v>1231</v>
+        <v>1224</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>1239</v>
+        <v>1232</v>
       </c>
       <c r="Q1" s="17" t="s">
-        <v>1241</v>
+        <v>1234</v>
       </c>
       <c r="R1" s="17" t="s">
-        <v>1236</v>
+        <v>1229</v>
       </c>
       <c r="S1" s="17" t="s">
-        <v>1234</v>
+        <v>1227</v>
       </c>
       <c r="T1" s="40" t="s">
         <v>974</v>
       </c>
       <c r="U1" s="17" t="s">
-        <v>1220</v>
+        <v>1213</v>
       </c>
       <c r="V1" s="17" t="s">
-        <v>1221</v>
+        <v>1214</v>
       </c>
       <c r="W1" s="17" t="s">
         <v>323</v>
@@ -22352,82 +22338,82 @@
         <v>325</v>
       </c>
       <c r="Y1" s="44" t="s">
+        <v>1369</v>
+      </c>
+      <c r="Z1" s="44" t="s">
+        <v>1372</v>
+      </c>
+      <c r="AA1" s="44" t="s">
+        <v>1373</v>
+      </c>
+      <c r="AB1" s="44" t="s">
+        <v>1374</v>
+      </c>
+      <c r="AC1" s="44" t="s">
+        <v>1375</v>
+      </c>
+      <c r="AD1" s="44" t="s">
+        <v>1376</v>
+      </c>
+      <c r="AE1" s="44" t="s">
+        <v>1377</v>
+      </c>
+      <c r="AF1" s="44" t="s">
+        <v>1378</v>
+      </c>
+      <c r="AG1" s="44" t="s">
+        <v>1379</v>
+      </c>
+      <c r="AH1" s="44" t="s">
         <v>1380</v>
       </c>
-      <c r="Z1" s="44" t="s">
-        <v>1383</v>
-      </c>
-      <c r="AA1" s="44" t="s">
-        <v>1384</v>
-      </c>
-      <c r="AB1" s="44" t="s">
-        <v>1385</v>
-      </c>
-      <c r="AC1" s="44" t="s">
-        <v>1386</v>
-      </c>
-      <c r="AD1" s="44" t="s">
-        <v>1387</v>
-      </c>
-      <c r="AE1" s="44" t="s">
-        <v>1388</v>
-      </c>
-      <c r="AF1" s="44" t="s">
-        <v>1389</v>
-      </c>
-      <c r="AG1" s="44" t="s">
+      <c r="AI1" s="44" t="s">
         <v>1390</v>
       </c>
-      <c r="AH1" s="44" t="s">
+      <c r="AJ1" s="17" t="s">
         <v>1391</v>
       </c>
-      <c r="AI1" s="44" t="s">
-        <v>1401</v>
-      </c>
-      <c r="AJ1" s="17" t="s">
-        <v>1402</v>
-      </c>
       <c r="AK1" s="17" t="s">
-        <v>1403</v>
+        <v>1392</v>
       </c>
       <c r="AL1" s="17" t="s">
-        <v>1404</v>
+        <v>1393</v>
       </c>
       <c r="AM1" s="17" t="s">
-        <v>1405</v>
+        <v>1394</v>
       </c>
       <c r="AN1" s="17" t="s">
-        <v>1406</v>
+        <v>1395</v>
       </c>
       <c r="AO1" s="17" t="s">
-        <v>1259</v>
+        <v>1252</v>
       </c>
       <c r="AP1" s="47" t="s">
+        <v>1350</v>
+      </c>
+      <c r="AQ1" s="47" t="s">
+        <v>1353</v>
+      </c>
+      <c r="AR1" s="47" t="s">
+        <v>1355</v>
+      </c>
+      <c r="AS1" s="47" t="s">
+        <v>1357</v>
+      </c>
+      <c r="AT1" s="47" t="s">
+        <v>1359</v>
+      </c>
+      <c r="AU1" s="47" t="s">
         <v>1361</v>
       </c>
-      <c r="AQ1" s="47" t="s">
-        <v>1364</v>
-      </c>
-      <c r="AR1" s="47" t="s">
-        <v>1366</v>
-      </c>
-      <c r="AS1" s="47" t="s">
-        <v>1368</v>
-      </c>
-      <c r="AT1" s="47" t="s">
-        <v>1370</v>
-      </c>
-      <c r="AU1" s="47" t="s">
-        <v>1372</v>
-      </c>
       <c r="AV1" s="47" t="s">
-        <v>1374</v>
+        <v>1363</v>
       </c>
       <c r="AW1" s="47" t="s">
-        <v>1376</v>
+        <v>1365</v>
       </c>
       <c r="AX1" s="47" t="s">
-        <v>1378</v>
+        <v>1367</v>
       </c>
       <c r="AY1" s="48" t="s">
         <v>1027</v>
@@ -22477,7 +22463,7 @@
         <v>295</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>1413</v>
+        <v>1402</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>978</v>
@@ -22492,34 +22478,34 @@
         <v>965</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>1226</v>
+        <v>1219</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1229</v>
+        <v>1222</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>1232</v>
+        <v>1225</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>1226</v>
+        <v>1219</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>1226</v>
+        <v>1219</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>1237</v>
+        <v>1230</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>1232</v>
+        <v>1225</v>
       </c>
       <c r="T2" s="41" t="s">
         <v>1009</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>1222</v>
+        <v>1215</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>1222</v>
+        <v>1215</v>
       </c>
       <c r="W2" s="2" t="s">
         <v>296</v>
@@ -22594,13 +22580,13 @@
         <v>1009</v>
       </c>
       <c r="AU2" s="49" t="s">
-        <v>1362</v>
+        <v>1351</v>
       </c>
       <c r="AV2" s="49" t="s">
         <v>1009</v>
       </c>
       <c r="AW2" s="49" t="s">
-        <v>1362</v>
+        <v>1351</v>
       </c>
       <c r="AX2" s="49" t="s">
         <v>1009</v>
@@ -22653,7 +22639,7 @@
         <v>1033</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>1414</v>
+        <v>1403</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>979</v>
@@ -22668,34 +22654,34 @@
         <v>973</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>1227</v>
+        <v>1220</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>1230</v>
+        <v>1223</v>
       </c>
       <c r="O3" s="6" t="s">
+        <v>1226</v>
+      </c>
+      <c r="P3" s="6" t="s">
         <v>1233</v>
       </c>
-      <c r="P3" s="6" t="s">
-        <v>1240</v>
-      </c>
       <c r="Q3" s="6" t="s">
-        <v>1242</v>
+        <v>1235</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>1238</v>
+        <v>1231</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>1235</v>
+        <v>1228</v>
       </c>
       <c r="T3" s="42" t="s">
         <v>975</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>1223</v>
+        <v>1216</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>1224</v>
+        <v>1217</v>
       </c>
       <c r="W3" s="6" t="s">
         <v>306</v>
@@ -22704,82 +22690,82 @@
         <v>308</v>
       </c>
       <c r="Y3" s="46" t="s">
+        <v>1370</v>
+      </c>
+      <c r="Z3" s="46" t="s">
+        <v>1371</v>
+      </c>
+      <c r="AA3" s="46" t="s">
         <v>1381</v>
       </c>
-      <c r="Z3" s="46" t="s">
+      <c r="AB3" s="46" t="s">
         <v>1382</v>
       </c>
-      <c r="AA3" s="46" t="s">
-        <v>1392</v>
-      </c>
-      <c r="AB3" s="46" t="s">
-        <v>1393</v>
-      </c>
       <c r="AC3" s="46" t="s">
-        <v>1394</v>
+        <v>1383</v>
       </c>
       <c r="AD3" s="46" t="s">
-        <v>1395</v>
+        <v>1384</v>
       </c>
       <c r="AE3" s="46" t="s">
+        <v>1385</v>
+      </c>
+      <c r="AF3" s="46" t="s">
+        <v>1386</v>
+      </c>
+      <c r="AG3" s="46" t="s">
+        <v>1387</v>
+      </c>
+      <c r="AH3" s="46" t="s">
+        <v>1388</v>
+      </c>
+      <c r="AI3" s="46" t="s">
+        <v>1389</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
         <v>1396</v>
       </c>
-      <c r="AF3" s="46" t="s">
+      <c r="AK3" s="6" t="s">
         <v>1397</v>
       </c>
-      <c r="AG3" s="46" t="s">
+      <c r="AL3" s="6" t="s">
         <v>1398</v>
       </c>
-      <c r="AH3" s="46" t="s">
+      <c r="AM3" s="6" t="s">
         <v>1399</v>
       </c>
-      <c r="AI3" s="46" t="s">
+      <c r="AN3" s="6" t="s">
         <v>1400</v>
       </c>
-      <c r="AJ3" s="6" t="s">
-        <v>1407</v>
-      </c>
-      <c r="AK3" s="6" t="s">
-        <v>1408</v>
-      </c>
-      <c r="AL3" s="6" t="s">
-        <v>1409</v>
-      </c>
-      <c r="AM3" s="6" t="s">
-        <v>1410</v>
-      </c>
-      <c r="AN3" s="6" t="s">
-        <v>1411</v>
-      </c>
       <c r="AO3" s="6" t="s">
-        <v>1258</v>
+        <v>1251</v>
       </c>
       <c r="AP3" s="51" t="s">
-        <v>1363</v>
+        <v>1352</v>
       </c>
       <c r="AQ3" s="52" t="s">
-        <v>1365</v>
+        <v>1354</v>
       </c>
       <c r="AR3" s="52" t="s">
-        <v>1367</v>
+        <v>1356</v>
       </c>
       <c r="AS3" s="52" t="s">
-        <v>1369</v>
+        <v>1358</v>
       </c>
       <c r="AT3" s="52" t="s">
-        <v>1371</v>
+        <v>1360</v>
       </c>
       <c r="AU3" s="52" t="s">
-        <v>1373</v>
+        <v>1362</v>
       </c>
       <c r="AV3" s="52" t="s">
-        <v>1375</v>
+        <v>1364</v>
       </c>
       <c r="AW3" s="52" t="s">
-        <v>1377</v>
+        <v>1366</v>
       </c>
       <c r="AX3" s="52" t="s">
-        <v>1379</v>
+        <v>1368</v>
       </c>
       <c r="AY3" s="42" t="s">
         <v>1028</v>
@@ -22829,7 +22815,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="4">
-        <f t="shared" ref="H4:H67" si="0">IF(T4&gt;10,5,IF(T4&gt;4,4,IF(T4&gt;2,3,IF(T4&gt;0,2,IF(T4&gt;-2.5,1,IF(T4&gt;-10,0,6))))))</f>
+        <f t="shared" ref="H4:H67" si="0">IF(T4&gt;10,5,IF(T4&gt;5,4,IF(T4&gt;2.5,3,IF(T4&gt;0,2,IF(T4&gt;-2.5,1,IF(T4&gt;-10,0,6))))))</f>
         <v>0</v>
       </c>
       <c r="I4" s="4">
@@ -22839,7 +22825,7 @@
         <v>10</v>
       </c>
       <c r="K4" s="4">
-        <v>-15</v>
+        <v>-19</v>
       </c>
       <c r="L4" s="9">
         <v>-5</v>
@@ -22867,7 +22853,7 @@
       </c>
       <c r="T4" s="15">
         <f t="shared" ref="T4:T67" si="1">SUM(J4:K4)+SUM(M4:S4)*5+4.4*SUM(AP4:AX4)+2.5*SUM(AJ4:AN4)+AI4/100+L4</f>
-        <v>-5</v>
+        <v>-9</v>
       </c>
       <c r="U4" s="4">
         <v>10</v>
@@ -22964,7 +22950,7 @@
         <v>0.104918</v>
       </c>
       <c r="BF4" s="22" t="s">
-        <v>1257</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="5" spans="1:58" ht="14.25">
@@ -23040,7 +23026,7 @@
         <v>4</v>
       </c>
       <c r="X5" s="4" t="s">
-        <v>1260</v>
+        <v>1253</v>
       </c>
       <c r="Y5" s="43">
         <v>55000001</v>
@@ -23135,7 +23121,7 @@
         <v>0.30327870000000001</v>
       </c>
       <c r="BF5" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="6" spans="1:58" ht="14.25">
@@ -23302,7 +23288,7 @@
         <v>0.52786889999999997</v>
       </c>
       <c r="BF6" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="7" spans="1:58" ht="14.25">
@@ -23473,7 +23459,7 @@
         <v>0.33934429999999999</v>
       </c>
       <c r="BF7" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="8" spans="1:58" ht="14.25">
@@ -23549,7 +23535,7 @@
         <v>9</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>1265</v>
+        <v>1404</v>
       </c>
       <c r="Y8" s="43">
         <v>55010018</v>
@@ -23640,7 +23626,7 @@
         <v>0.40819670000000002</v>
       </c>
       <c r="BF8" s="22" t="s">
-        <v>1256</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="9" spans="1:58" ht="14.25">
@@ -23815,7 +23801,7 @@
         <v>0.3180328</v>
       </c>
       <c r="BF9" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="10" spans="1:58" ht="14.25">
@@ -23986,7 +23972,7 @@
         <v>0.20163929999999999</v>
       </c>
       <c r="BF10" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="11" spans="1:58" ht="14.25">
@@ -24157,7 +24143,7 @@
         <v>0.2377049</v>
       </c>
       <c r="BF11" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="12" spans="1:58" ht="14.25">
@@ -24328,7 +24314,7 @@
         <v>0.81147539999999996</v>
       </c>
       <c r="BF12" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="13" spans="1:58" ht="14.25">
@@ -24355,19 +24341,19 @@
       </c>
       <c r="H13" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I13" s="4">
         <v>3</v>
       </c>
       <c r="J13" s="4">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K13" s="4">
         <v>0</v>
       </c>
       <c r="L13" s="35">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="M13" s="4">
         <v>0</v>
@@ -24392,7 +24378,7 @@
       </c>
       <c r="T13" s="15">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>-6</v>
       </c>
       <c r="U13" s="4">
         <v>10</v>
@@ -24489,7 +24475,7 @@
         <v>0.48688520000000002</v>
       </c>
       <c r="BF13" s="22" t="s">
-        <v>1256</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="14" spans="1:58" ht="14.25">
@@ -24664,7 +24650,7 @@
         <v>0.67213109999999998</v>
       </c>
       <c r="BF14" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="15" spans="1:58" ht="14.25">
@@ -24691,19 +24677,19 @@
       </c>
       <c r="H15" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I15" s="4">
         <v>6</v>
       </c>
       <c r="J15" s="4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K15" s="4">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="L15" s="35">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="M15" s="4">
         <v>0</v>
@@ -24715,7 +24701,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="4">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q15" s="4">
         <v>0</v>
@@ -24728,7 +24714,7 @@
       </c>
       <c r="T15" s="15">
         <f t="shared" si="1"/>
-        <v>57</v>
+        <v>-6</v>
       </c>
       <c r="U15" s="4">
         <v>10</v>
@@ -24739,15 +24725,9 @@
       <c r="W15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="X15" s="4" t="s">
-        <v>1066</v>
-      </c>
-      <c r="Y15" s="43">
-        <v>55010024</v>
-      </c>
-      <c r="Z15" s="21">
-        <v>100</v>
-      </c>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="43"/>
+      <c r="Z15" s="21"/>
       <c r="AA15" s="21"/>
       <c r="AB15" s="21"/>
       <c r="AC15" s="21"/>
@@ -24762,7 +24742,7 @@
 IF(ISBLANK($AC15),0, LOOKUP($AC15,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AD15/100)+
 IF(ISBLANK($AE15),0, LOOKUP($AE15,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AF15/100)+
 IF(ISBLANK($AG15),0, LOOKUP($AG15,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AH15/100)</f>
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="21">
         <v>0</v>
@@ -24831,7 +24811,7 @@
         <v>0.94918029999999998</v>
       </c>
       <c r="BF15" s="22" t="s">
-        <v>1256</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="16" spans="1:58" ht="14.25">
@@ -24858,7 +24838,7 @@
       </c>
       <c r="H16" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I16" s="4">
         <v>2</v>
@@ -24867,10 +24847,10 @@
         <v>3</v>
       </c>
       <c r="K16" s="4">
-        <v>9</v>
+        <v>-11</v>
       </c>
       <c r="L16" s="9">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="M16" s="4">
         <v>0</v>
@@ -24895,7 +24875,7 @@
       </c>
       <c r="T16" s="15">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>-8</v>
       </c>
       <c r="U16" s="4">
         <v>10</v>
@@ -24906,15 +24886,9 @@
       <c r="W16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="X16" s="4" t="s">
-        <v>1323</v>
-      </c>
-      <c r="Y16" s="43">
-        <v>55010002</v>
-      </c>
-      <c r="Z16" s="21">
-        <v>100</v>
-      </c>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="43"/>
+      <c r="Z16" s="21"/>
       <c r="AA16" s="21"/>
       <c r="AB16" s="21"/>
       <c r="AC16" s="21"/>
@@ -24929,7 +24903,7 @@
 IF(ISBLANK($AC16),0, LOOKUP($AC16,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AD16/100)+
 IF(ISBLANK($AE16),0, LOOKUP($AE16,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AF16/100)+
 IF(ISBLANK($AG16),0, LOOKUP($AG16,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AH16/100)</f>
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="21">
         <v>0</v>
@@ -24998,7 +24972,7 @@
         <v>0.26557380000000003</v>
       </c>
       <c r="BF16" s="22" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="17" spans="1:58" ht="14.25">
@@ -25025,19 +24999,19 @@
       </c>
       <c r="H17" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I17" s="4">
         <v>4</v>
       </c>
       <c r="J17" s="4">
-        <v>14</v>
+        <v>-10</v>
       </c>
       <c r="K17" s="4">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L17" s="4">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="M17" s="4">
         <v>0</v>
@@ -25062,7 +25036,7 @@
       </c>
       <c r="T17" s="15">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>-6</v>
       </c>
       <c r="U17" s="4">
         <v>10</v>
@@ -25073,15 +25047,9 @@
       <c r="W17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X17" s="4" t="s">
-        <v>1266</v>
-      </c>
-      <c r="Y17" s="43">
-        <v>55010003</v>
-      </c>
-      <c r="Z17" s="21">
-        <v>100</v>
-      </c>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="43"/>
+      <c r="Z17" s="21"/>
       <c r="AA17" s="21"/>
       <c r="AB17" s="21"/>
       <c r="AC17" s="21"/>
@@ -25096,7 +25064,7 @@
 IF(ISBLANK($AC17),0, LOOKUP($AC17,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AD17/100)+
 IF(ISBLANK($AE17),0, LOOKUP($AE17,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AF17/100)+
 IF(ISBLANK($AG17),0, LOOKUP($AG17,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AH17/100)</f>
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="21">
         <v>0</v>
@@ -25165,7 +25133,7 @@
         <v>0.65901639999999995</v>
       </c>
       <c r="BF17" s="22" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="18" spans="1:58" ht="14.25">
@@ -25192,19 +25160,19 @@
       </c>
       <c r="H18" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I18" s="4">
         <v>1</v>
       </c>
       <c r="J18" s="4">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="K18" s="4">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L18" s="4">
-        <v>-3</v>
+        <v>-9</v>
       </c>
       <c r="M18" s="4">
         <v>0</v>
@@ -25229,7 +25197,7 @@
       </c>
       <c r="T18" s="15">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>-9</v>
       </c>
       <c r="U18" s="4">
         <v>10</v>
@@ -25326,7 +25294,7 @@
         <v>0.13278690000000001</v>
       </c>
       <c r="BF18" s="22" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="19" spans="1:58" ht="14.25">
@@ -25353,19 +25321,19 @@
       </c>
       <c r="H19" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I19" s="4">
         <v>1</v>
       </c>
       <c r="J19" s="4">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="K19" s="4">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="L19" s="4">
-        <v>-3</v>
+        <v>-9</v>
       </c>
       <c r="M19" s="4">
         <v>0</v>
@@ -25390,7 +25358,7 @@
       </c>
       <c r="T19" s="15">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>-9</v>
       </c>
       <c r="U19" s="4">
         <v>10</v>
@@ -25487,7 +25455,7 @@
         <v>0.1213115</v>
       </c>
       <c r="BF19" s="22" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="20" spans="1:58" ht="14.25">
@@ -25514,19 +25482,19 @@
       </c>
       <c r="H20" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I20" s="4">
         <v>2</v>
       </c>
       <c r="J20" s="4">
-        <v>9</v>
+        <v>-5</v>
       </c>
       <c r="K20" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L20" s="4">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="M20" s="4">
         <v>0</v>
@@ -25551,7 +25519,7 @@
       </c>
       <c r="T20" s="15">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>-7</v>
       </c>
       <c r="U20" s="4">
         <v>10</v>
@@ -25648,7 +25616,7 @@
         <v>0.2770492</v>
       </c>
       <c r="BF20" s="22" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="21" spans="1:58" ht="14.25">
@@ -25675,19 +25643,19 @@
       </c>
       <c r="H21" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I21" s="4">
         <v>1</v>
       </c>
       <c r="J21" s="4">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K21" s="4">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L21" s="4">
-        <v>-3</v>
+        <v>-9</v>
       </c>
       <c r="M21" s="4">
         <v>0</v>
@@ -25712,7 +25680,7 @@
       </c>
       <c r="T21" s="15">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>-9</v>
       </c>
       <c r="U21" s="4">
         <v>10</v>
@@ -25723,15 +25691,9 @@
       <c r="W21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X21" s="4" t="s">
-        <v>1041</v>
-      </c>
-      <c r="Y21" s="43">
-        <v>55010001</v>
-      </c>
-      <c r="Z21" s="21">
-        <v>100</v>
-      </c>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="43"/>
+      <c r="Z21" s="21"/>
       <c r="AA21" s="21"/>
       <c r="AB21" s="21"/>
       <c r="AC21" s="21"/>
@@ -25746,7 +25708,7 @@
 IF(ISBLANK($AC21),0, LOOKUP($AC21,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AD21/100)+
 IF(ISBLANK($AE21),0, LOOKUP($AE21,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AF21/100)+
 IF(ISBLANK($AG21),0, LOOKUP($AG21,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AH21/100)</f>
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="21">
         <v>0</v>
@@ -25815,7 +25777,7 @@
         <v>0.14098359999999999</v>
       </c>
       <c r="BF21" s="22" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="22" spans="1:58" ht="14.25">
@@ -25842,19 +25804,19 @@
       </c>
       <c r="H22" s="4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I22" s="4">
         <v>1</v>
       </c>
       <c r="J22" s="4">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K22" s="4">
         <v>0</v>
       </c>
       <c r="L22" s="4">
-        <v>-3</v>
+        <v>-9</v>
       </c>
       <c r="M22" s="4">
         <v>0</v>
@@ -25879,7 +25841,7 @@
       </c>
       <c r="T22" s="15">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>-9</v>
       </c>
       <c r="U22" s="4">
         <v>10</v>
@@ -25976,7 +25938,7 @@
         <v>0.1131148</v>
       </c>
       <c r="BF22" s="22" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="23" spans="1:58" ht="14.25">
@@ -26003,16 +25965,16 @@
       </c>
       <c r="H23" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23" s="4">
         <v>2</v>
       </c>
       <c r="J23" s="4">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="K23" s="4">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="L23" s="9">
         <v>-5</v>
@@ -26040,7 +26002,7 @@
       </c>
       <c r="T23" s="15">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>-9</v>
       </c>
       <c r="U23" s="4">
         <v>10</v>
@@ -26051,15 +26013,9 @@
       <c r="W23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="X23" s="4" t="s">
-        <v>1127</v>
-      </c>
-      <c r="Y23" s="43">
-        <v>55010004</v>
-      </c>
-      <c r="Z23" s="21">
-        <v>100</v>
-      </c>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="43"/>
+      <c r="Z23" s="21"/>
       <c r="AA23" s="21"/>
       <c r="AB23" s="21"/>
       <c r="AC23" s="21"/>
@@ -26074,7 +26030,7 @@
 IF(ISBLANK($AC23),0, LOOKUP($AC23,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AD23/100)+
 IF(ISBLANK($AE23),0, LOOKUP($AE23,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AF23/100)+
 IF(ISBLANK($AG23),0, LOOKUP($AG23,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AH23/100)</f>
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="21">
         <v>0</v>
@@ -26143,7 +26099,7 @@
         <v>0.26885249999999999</v>
       </c>
       <c r="BF23" s="22" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="24" spans="1:58" ht="14.25">
@@ -26219,7 +26175,7 @@
         <v>0</v>
       </c>
       <c r="X24" s="4" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="Y24" s="43">
         <v>55000006</v>
@@ -26314,7 +26270,7 @@
         <v>0.34754099999999999</v>
       </c>
       <c r="BF24" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="25" spans="1:58" ht="14.25">
@@ -26390,7 +26346,7 @@
         <v>31</v>
       </c>
       <c r="X25" s="4" t="s">
-        <v>1267</v>
+        <v>1258</v>
       </c>
       <c r="Y25" s="43">
         <v>55000002</v>
@@ -26489,7 +26445,7 @@
         <v>0.46885250000000001</v>
       </c>
       <c r="BF25" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="26" spans="1:58" ht="14.25">
@@ -26516,16 +26472,16 @@
       </c>
       <c r="H26" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I26" s="4">
         <v>4</v>
       </c>
       <c r="J26" s="4">
-        <v>19</v>
+        <v>-13</v>
       </c>
       <c r="K26" s="4">
-        <v>-8</v>
+        <v>10</v>
       </c>
       <c r="L26" s="4">
         <v>-3</v>
@@ -26553,7 +26509,7 @@
       </c>
       <c r="T26" s="15">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>-6</v>
       </c>
       <c r="U26" s="4">
         <v>10</v>
@@ -26564,15 +26520,9 @@
       <c r="W26" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="X26" s="4" t="s">
-        <v>1043</v>
-      </c>
-      <c r="Y26" s="43">
-        <v>55010015</v>
-      </c>
-      <c r="Z26" s="21">
-        <v>100</v>
-      </c>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="43"/>
+      <c r="Z26" s="21"/>
       <c r="AA26" s="21"/>
       <c r="AB26" s="21"/>
       <c r="AC26" s="21"/>
@@ -26587,7 +26537,7 @@
 IF(ISBLANK($AC26),0, LOOKUP($AC26,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AD26/100)+
 IF(ISBLANK($AE26),0, LOOKUP($AE26,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AF26/100)+
 IF(ISBLANK($AG26),0, LOOKUP($AG26,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AH26/100)</f>
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="21">
         <v>0</v>
@@ -26656,7 +26606,7 @@
         <v>0.6426229</v>
       </c>
       <c r="BF26" s="22" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="27" spans="1:58" ht="14.25">
@@ -26732,7 +26682,7 @@
         <v>16</v>
       </c>
       <c r="X27" s="4" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="Y27" s="43">
         <v>55000050</v>
@@ -26823,7 +26773,7 @@
         <v>0.58032790000000001</v>
       </c>
       <c r="BF27" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="28" spans="1:58" ht="14.25">
@@ -26899,7 +26849,7 @@
         <v>6</v>
       </c>
       <c r="X28" s="4" t="s">
-        <v>1261</v>
+        <v>1254</v>
       </c>
       <c r="Y28" s="43">
         <v>55000051</v>
@@ -26990,7 +26940,7 @@
         <v>0.23278689999999999</v>
       </c>
       <c r="BF28" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="29" spans="1:58" ht="14.25">
@@ -27066,7 +27016,7 @@
         <v>9</v>
       </c>
       <c r="X29" s="4" t="s">
-        <v>1268</v>
+        <v>1259</v>
       </c>
       <c r="Y29" s="43">
         <v>55000030</v>
@@ -27161,7 +27111,7 @@
         <v>0.38524589999999997</v>
       </c>
       <c r="BF29" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="30" spans="1:58" ht="14.25">
@@ -27237,7 +27187,7 @@
         <v>12</v>
       </c>
       <c r="X30" s="4" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="Y30" s="43">
         <v>55010001</v>
@@ -27332,7 +27282,7 @@
         <v>0.58196720000000002</v>
       </c>
       <c r="BF30" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="31" spans="1:58" ht="14.25">
@@ -27408,7 +27358,7 @@
         <v>38</v>
       </c>
       <c r="X31" s="4" t="s">
-        <v>1324</v>
+        <v>1314</v>
       </c>
       <c r="Y31" s="43">
         <v>55000060</v>
@@ -27503,7 +27453,7 @@
         <v>0.50819669999999995</v>
       </c>
       <c r="BF31" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="32" spans="1:58" ht="14.25">
@@ -27579,7 +27529,7 @@
         <v>40</v>
       </c>
       <c r="X32" s="4" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="Y32" s="43">
         <v>55000060</v>
@@ -27678,7 +27628,7 @@
         <v>0.51475409999999999</v>
       </c>
       <c r="BF32" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="33" spans="1:58" ht="14.25">
@@ -27754,7 +27704,7 @@
         <v>9</v>
       </c>
       <c r="X33" s="4" t="s">
-        <v>1269</v>
+        <v>1260</v>
       </c>
       <c r="Y33" s="43">
         <v>55010017</v>
@@ -27849,7 +27799,7 @@
         <v>0.43278689999999997</v>
       </c>
       <c r="BF33" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="34" spans="1:58" ht="14.25">
@@ -27925,7 +27875,7 @@
         <v>16</v>
       </c>
       <c r="X34" s="4" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="Y34" s="43">
         <v>55000063</v>
@@ -28016,7 +27966,7 @@
         <v>0.20163929999999999</v>
       </c>
       <c r="BF34" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="35" spans="1:58" ht="14.25">
@@ -28092,7 +28042,7 @@
         <v>9</v>
       </c>
       <c r="X35" s="4" t="s">
-        <v>1270</v>
+        <v>1261</v>
       </c>
       <c r="Y35" s="43">
         <v>55000064</v>
@@ -28187,7 +28137,7 @@
         <v>5.0819669999999997E-2</v>
       </c>
       <c r="BF35" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="36" spans="1:58" ht="14.25">
@@ -28260,10 +28210,10 @@
         <v>15</v>
       </c>
       <c r="W36" s="4" t="s">
-        <v>1243</v>
+        <v>1236</v>
       </c>
       <c r="X36" s="4" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="Y36" s="43">
         <v>55000030</v>
@@ -28366,7 +28316,7 @@
         <v>0.36721310000000001</v>
       </c>
       <c r="BF36" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="37" spans="1:58" ht="14.25">
@@ -28442,7 +28392,7 @@
         <v>38</v>
       </c>
       <c r="X37" s="4" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="Y37" s="43">
         <v>55000073</v>
@@ -28537,7 +28487,7 @@
         <v>0.35245900000000002</v>
       </c>
       <c r="BF37" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="38" spans="1:58" ht="14.25">
@@ -28564,19 +28514,19 @@
       </c>
       <c r="H38" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I38" s="4">
         <v>2</v>
       </c>
       <c r="J38" s="4">
-        <v>-10</v>
+        <v>-25</v>
       </c>
       <c r="K38" s="4">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L38" s="4">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="M38" s="4">
         <v>0</v>
@@ -28601,7 +28551,7 @@
       </c>
       <c r="T38" s="15">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>-6</v>
       </c>
       <c r="U38" s="4">
         <v>10</v>
@@ -28698,7 +28648,7 @@
         <v>0.25901639999999998</v>
       </c>
       <c r="BF38" s="22" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="39" spans="1:58" ht="14.25">
@@ -28859,7 +28809,7 @@
         <v>0.76393440000000001</v>
       </c>
       <c r="BF39" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="40" spans="1:58" ht="14.25">
@@ -29020,7 +28970,7 @@
         <v>0.79836059999999998</v>
       </c>
       <c r="BF40" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="41" spans="1:58" ht="14.25">
@@ -29096,7 +29046,7 @@
         <v>51</v>
       </c>
       <c r="X41" s="4" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="Y41" s="43">
         <v>55000071</v>
@@ -29195,7 +29145,7 @@
         <v>0.2377049</v>
       </c>
       <c r="BF41" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="42" spans="1:58" ht="14.25">
@@ -29271,7 +29221,7 @@
         <v>53</v>
       </c>
       <c r="X42" s="4" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="Y42" s="43">
         <v>55000034</v>
@@ -29374,7 +29324,7 @@
         <v>0.57868850000000005</v>
       </c>
       <c r="BF42" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="43" spans="1:58" ht="14.25">
@@ -29450,7 +29400,7 @@
         <v>4</v>
       </c>
       <c r="X43" s="4" t="s">
-        <v>1325</v>
+        <v>1315</v>
       </c>
       <c r="Y43" s="43">
         <v>55000074</v>
@@ -29541,7 +29491,7 @@
         <v>0.13606560000000001</v>
       </c>
       <c r="BF43" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="44" spans="1:58" ht="14.25">
@@ -29617,7 +29567,7 @@
         <v>16</v>
       </c>
       <c r="X44" s="4" t="s">
-        <v>1326</v>
+        <v>1316</v>
       </c>
       <c r="Y44" s="43">
         <v>55000075</v>
@@ -29716,7 +29666,7 @@
         <v>0.7</v>
       </c>
       <c r="BF44" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="45" spans="1:58" ht="14.25">
@@ -29792,7 +29742,7 @@
         <v>4</v>
       </c>
       <c r="X45" s="4" t="s">
-        <v>1327</v>
+        <v>1317</v>
       </c>
       <c r="Y45" s="43">
         <v>55000077</v>
@@ -29891,7 +29841,7 @@
         <v>0.2</v>
       </c>
       <c r="BF45" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="46" spans="1:58" ht="14.25">
@@ -29967,7 +29917,7 @@
         <v>2</v>
       </c>
       <c r="X46" s="4" t="s">
-        <v>1328</v>
+        <v>1318</v>
       </c>
       <c r="Y46" s="43">
         <v>55000075</v>
@@ -30066,7 +30016,7 @@
         <v>0.38688529999999999</v>
       </c>
       <c r="BF46" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="47" spans="1:58" ht="14.25">
@@ -30142,7 +30092,7 @@
         <v>16</v>
       </c>
       <c r="X47" s="4" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="Y47" s="43">
         <v>55000020</v>
@@ -30233,7 +30183,7 @@
         <v>0.5557377</v>
       </c>
       <c r="BF47" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="48" spans="1:58" ht="14.25">
@@ -30309,7 +30259,7 @@
         <v>16</v>
       </c>
       <c r="X48" s="4" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="Y48" s="43">
         <v>55000080</v>
@@ -30400,7 +30350,7 @@
         <v>0.46721309999999999</v>
       </c>
       <c r="BF48" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="49" spans="1:58" ht="14.25">
@@ -30476,7 +30426,7 @@
         <v>19</v>
       </c>
       <c r="X49" s="4" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="Y49" s="43">
         <v>55000081</v>
@@ -30567,7 +30517,7 @@
         <v>0.3245902</v>
       </c>
       <c r="BF49" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="50" spans="1:58" ht="14.25">
@@ -30643,7 +30593,7 @@
         <v>2</v>
       </c>
       <c r="X50" s="4" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="Y50" s="43">
         <v>55000039</v>
@@ -30738,7 +30688,7 @@
         <v>0.8573771</v>
       </c>
       <c r="BF50" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="51" spans="1:58" ht="14.25">
@@ -30814,7 +30764,7 @@
         <v>9</v>
       </c>
       <c r="X51" s="4" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="Y51" s="43">
         <v>55000083</v>
@@ -30909,7 +30859,7 @@
         <v>0.33606560000000002</v>
       </c>
       <c r="BF51" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="52" spans="1:58" ht="14.25">
@@ -30985,7 +30935,7 @@
         <v>9</v>
       </c>
       <c r="X52" s="4" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="Y52" s="43">
         <v>55000084</v>
@@ -31076,7 +31026,7 @@
         <v>0.2377049</v>
       </c>
       <c r="BF52" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="53" spans="1:58" ht="14.25">
@@ -31152,7 +31102,7 @@
         <v>16</v>
       </c>
       <c r="X53" s="4" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="Y53" s="43">
         <v>55000085</v>
@@ -31243,7 +31193,7 @@
         <v>0.39836070000000001</v>
       </c>
       <c r="BF53" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="54" spans="1:58" ht="14.25">
@@ -31319,7 +31269,7 @@
         <v>64</v>
       </c>
       <c r="X54" s="4" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="Y54" s="43">
         <v>55000066</v>
@@ -31418,7 +31368,7 @@
         <v>0.53442619999999996</v>
       </c>
       <c r="BF54" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="55" spans="1:58" ht="14.25">
@@ -31494,7 +31444,7 @@
         <v>65</v>
       </c>
       <c r="X55" s="4" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="Y55" s="43">
         <v>55000086</v>
@@ -31585,7 +31535,7 @@
         <v>0.33770489999999997</v>
       </c>
       <c r="BF55" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="56" spans="1:58" ht="14.25">
@@ -31661,7 +31611,7 @@
         <v>4</v>
       </c>
       <c r="X56" s="4" t="s">
-        <v>1271</v>
+        <v>1262</v>
       </c>
       <c r="Y56" s="43">
         <v>55000087</v>
@@ -31756,7 +31706,7 @@
         <v>0.5557377</v>
       </c>
       <c r="BF56" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="57" spans="1:58" ht="14.25">
@@ -31832,7 +31782,7 @@
         <v>4</v>
       </c>
       <c r="X57" s="4" t="s">
-        <v>1356</v>
+        <v>1346</v>
       </c>
       <c r="Y57" s="43">
         <v>55000088</v>
@@ -31931,7 +31881,7 @@
         <v>0.24918029999999999</v>
       </c>
       <c r="BF57" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="58" spans="1:58" ht="14.25">
@@ -32007,7 +31957,7 @@
         <v>4</v>
       </c>
       <c r="X58" s="4" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="Y58" s="43">
         <v>55000090</v>
@@ -32098,7 +32048,7 @@
         <v>0.3967213</v>
       </c>
       <c r="BF58" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="59" spans="1:58" ht="14.25">
@@ -32174,7 +32124,7 @@
         <v>69</v>
       </c>
       <c r="X59" s="4" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="Y59" s="43">
         <v>55000091</v>
@@ -32269,7 +32219,7 @@
         <v>0.70163940000000002</v>
       </c>
       <c r="BF59" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="60" spans="1:58" ht="14.25">
@@ -32345,7 +32295,7 @@
         <v>9</v>
       </c>
       <c r="X60" s="4" t="s">
-        <v>1262</v>
+        <v>1255</v>
       </c>
       <c r="Y60" s="43">
         <v>55000092</v>
@@ -32436,7 +32386,7 @@
         <v>0.26065569999999999</v>
       </c>
       <c r="BF60" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="61" spans="1:58" ht="14.25">
@@ -32512,7 +32462,7 @@
         <v>24</v>
       </c>
       <c r="X61" s="4" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="Y61" s="43">
         <v>55000093</v>
@@ -32607,7 +32557,7 @@
         <v>0.17213120000000001</v>
       </c>
       <c r="BF61" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="62" spans="1:58" ht="14.25">
@@ -32683,7 +32633,7 @@
         <v>65</v>
       </c>
       <c r="X62" s="4" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="Y62" s="43">
         <v>55000062</v>
@@ -32774,7 +32724,7 @@
         <v>0.13278690000000001</v>
       </c>
       <c r="BF62" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="63" spans="1:58" ht="14.25">
@@ -32850,7 +32800,7 @@
         <v>38</v>
       </c>
       <c r="X63" s="4" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="Y63" s="43">
         <v>55000094</v>
@@ -32941,7 +32891,7 @@
         <v>0.75737699999999997</v>
       </c>
       <c r="BF63" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="64" spans="1:58" ht="14.25">
@@ -33102,7 +33052,7 @@
         <v>0.43442619999999998</v>
       </c>
       <c r="BF64" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="65" spans="1:58" ht="14.25">
@@ -33129,19 +33079,19 @@
       </c>
       <c r="H65" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I65" s="4">
         <v>1</v>
       </c>
       <c r="J65" s="4">
-        <v>20</v>
+        <v>-5</v>
       </c>
       <c r="K65" s="4">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="L65" s="4">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="M65" s="4">
         <v>0</v>
@@ -33159,14 +33109,14 @@
         <v>0</v>
       </c>
       <c r="R65" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S65" s="4">
         <v>0</v>
       </c>
       <c r="T65" s="15">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>-8</v>
       </c>
       <c r="U65" s="4">
         <v>10</v>
@@ -33177,15 +33127,9 @@
       <c r="W65" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="X65" s="4" t="s">
-        <v>1066</v>
-      </c>
-      <c r="Y65" s="43">
-        <v>55010024</v>
-      </c>
-      <c r="Z65" s="21">
-        <v>100</v>
-      </c>
+      <c r="X65" s="4"/>
+      <c r="Y65" s="43"/>
+      <c r="Z65" s="21"/>
       <c r="AA65" s="21"/>
       <c r="AB65" s="21"/>
       <c r="AC65" s="21"/>
@@ -33200,7 +33144,7 @@
 IF(ISBLANK($AC65),0, LOOKUP($AC65,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AD65/100)+
 IF(ISBLANK($AE65),0, LOOKUP($AE65,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AF65/100)+
 IF(ISBLANK($AG65),0, LOOKUP($AG65,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AH65/100)</f>
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="AJ65" s="21">
         <v>0</v>
@@ -33269,7 +33213,7 @@
         <v>0.14590159999999999</v>
       </c>
       <c r="BF65" s="22" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="66" spans="1:58" ht="14.25">
@@ -33296,19 +33240,19 @@
       </c>
       <c r="H66" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I66" s="4">
         <v>1</v>
       </c>
       <c r="J66" s="4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K66" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L66" s="4">
-        <v>-3</v>
+        <v>-9</v>
       </c>
       <c r="M66" s="4">
         <v>0</v>
@@ -33333,7 +33277,7 @@
       </c>
       <c r="T66" s="15">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>-9</v>
       </c>
       <c r="U66" s="4">
         <v>10</v>
@@ -33430,7 +33374,7 @@
         <v>0.15245900000000001</v>
       </c>
       <c r="BF66" s="22" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="67" spans="1:58" ht="14.25">
@@ -33506,7 +33450,7 @@
         <v>78</v>
       </c>
       <c r="X67" s="4" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="Y67" s="43">
         <v>55000095</v>
@@ -33605,7 +33549,7 @@
         <v>0.8180328</v>
       </c>
       <c r="BF67" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="68" spans="1:58" ht="14.25">
@@ -33631,7 +33575,7 @@
         <v>3</v>
       </c>
       <c r="H68" s="4">
-        <f t="shared" ref="H68:H131" si="4">IF(T68&gt;10,5,IF(T68&gt;4,4,IF(T68&gt;2,3,IF(T68&gt;0,2,IF(T68&gt;-2.5,1,IF(T68&gt;-10,0,6))))))</f>
+        <f t="shared" ref="H68:H131" si="4">IF(T68&gt;10,5,IF(T68&gt;5,4,IF(T68&gt;2.5,3,IF(T68&gt;0,2,IF(T68&gt;-2.5,1,IF(T68&gt;-10,0,6))))))</f>
         <v>5</v>
       </c>
       <c r="I68" s="4">
@@ -33681,7 +33625,7 @@
         <v>78</v>
       </c>
       <c r="X68" s="4" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="Y68" s="43">
         <v>55000036</v>
@@ -33790,7 +33734,7 @@
         <v>0.95081970000000005</v>
       </c>
       <c r="BF68" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="69" spans="1:58" ht="14.25">
@@ -33866,7 +33810,7 @@
         <v>40</v>
       </c>
       <c r="X69" s="4" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="Y69" s="43">
         <v>55000060</v>
@@ -33969,7 +33913,7 @@
         <v>0.84098360000000005</v>
       </c>
       <c r="BF69" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="70" spans="1:58" ht="14.25">
@@ -34045,7 +33989,7 @@
         <v>16</v>
       </c>
       <c r="X70" s="4" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="Y70" s="43">
         <v>55000041</v>
@@ -34144,7 +34088,7 @@
         <v>0.89508200000000004</v>
       </c>
       <c r="BF70" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="71" spans="1:58" ht="14.25">
@@ -34220,7 +34164,7 @@
         <v>2</v>
       </c>
       <c r="X71" s="4" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="Y71" s="43">
         <v>55000103</v>
@@ -34319,7 +34263,7 @@
         <v>0.36065570000000002</v>
       </c>
       <c r="BF71" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="72" spans="1:58" ht="14.25">
@@ -34395,7 +34339,7 @@
         <v>2</v>
       </c>
       <c r="X72" s="4" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="Y72" s="43">
         <v>55000103</v>
@@ -34494,7 +34438,7 @@
         <v>0.72786890000000004</v>
       </c>
       <c r="BF72" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="73" spans="1:58" ht="14.25">
@@ -34567,10 +34511,10 @@
         <v>0</v>
       </c>
       <c r="W73" s="4" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
       <c r="X73" s="4" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="Y73" s="43">
         <v>55000060</v>
@@ -34677,7 +34621,7 @@
         <v>0.63278690000000004</v>
       </c>
       <c r="BF73" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="74" spans="1:58" ht="14.25">
@@ -34753,7 +34697,7 @@
         <v>6</v>
       </c>
       <c r="X74" s="4" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="Y74" s="43">
         <v>55000088</v>
@@ -34848,7 +34792,7 @@
         <v>0.70491800000000004</v>
       </c>
       <c r="BF74" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="75" spans="1:58" ht="14.25">
@@ -34924,7 +34868,7 @@
         <v>89</v>
       </c>
       <c r="X75" s="4" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="Y75" s="43">
         <v>55000004</v>
@@ -35027,7 +34971,7 @@
         <v>0.31475409999999998</v>
       </c>
       <c r="BF75" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="76" spans="1:58" ht="14.25">
@@ -35103,7 +35047,7 @@
         <v>12</v>
       </c>
       <c r="X76" s="4" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="Y76" s="43">
         <v>55000101</v>
@@ -35202,7 +35146,7 @@
         <v>0.81147539999999996</v>
       </c>
       <c r="BF76" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="77" spans="1:58" ht="14.25">
@@ -35278,7 +35222,7 @@
         <v>92</v>
       </c>
       <c r="X77" s="4" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="Y77" s="43">
         <v>55000106</v>
@@ -35373,7 +35317,7 @@
         <v>0.36721310000000001</v>
       </c>
       <c r="BF77" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="78" spans="1:58" ht="14.25">
@@ -35449,7 +35393,7 @@
         <v>94</v>
       </c>
       <c r="X78" s="4" t="s">
-        <v>1272</v>
+        <v>1263</v>
       </c>
       <c r="Y78" s="43">
         <v>55000108</v>
@@ -35552,7 +35496,7 @@
         <v>0.68688519999999997</v>
       </c>
       <c r="BF78" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="79" spans="1:58" ht="14.25">
@@ -35579,25 +35523,25 @@
       </c>
       <c r="H79" s="4">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" s="4">
         <v>1</v>
       </c>
       <c r="J79" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K79" s="4">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="L79" s="4">
-        <v>-3</v>
+        <v>-9</v>
       </c>
       <c r="M79" s="4">
         <v>0</v>
       </c>
       <c r="N79" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O79" s="4">
         <v>0</v>
@@ -35616,7 +35560,7 @@
       </c>
       <c r="T79" s="15">
         <f t="shared" si="5"/>
-        <v>-1</v>
+        <v>-8</v>
       </c>
       <c r="U79" s="4">
         <v>10</v>
@@ -35713,7 +35657,7 @@
         <v>0.1393443</v>
       </c>
       <c r="BF79" s="22" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="80" spans="1:58" ht="14.25">
@@ -35746,19 +35690,19 @@
         <v>1</v>
       </c>
       <c r="J80" s="4">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="K80" s="4">
         <v>0</v>
       </c>
       <c r="L80" s="4">
-        <v>-3</v>
+        <v>-9</v>
       </c>
       <c r="M80" s="4">
         <v>0</v>
       </c>
       <c r="N80" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O80" s="4">
         <v>0</v>
@@ -35777,7 +35721,7 @@
       </c>
       <c r="T80" s="15">
         <f t="shared" si="5"/>
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="U80" s="4">
         <v>10</v>
@@ -35874,7 +35818,7 @@
         <v>0.1147541</v>
       </c>
       <c r="BF80" s="22" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="81" spans="1:58" ht="14.25">
@@ -35950,7 +35894,7 @@
         <v>2</v>
       </c>
       <c r="X81" s="4" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="Y81" s="43">
         <v>55000242</v>
@@ -36045,7 +35989,7 @@
         <v>0.48196719999999998</v>
       </c>
       <c r="BF81" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="82" spans="1:58" ht="14.25">
@@ -36121,7 +36065,7 @@
         <v>2</v>
       </c>
       <c r="X82" s="4" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="Y82" s="43">
         <v>55000110</v>
@@ -36216,7 +36160,7 @@
         <v>0.82622949999999995</v>
       </c>
       <c r="BF82" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="83" spans="1:58" ht="14.25">
@@ -36292,7 +36236,7 @@
         <v>38</v>
       </c>
       <c r="X83" s="4" t="s">
-        <v>1273</v>
+        <v>1264</v>
       </c>
       <c r="Y83" s="43">
         <v>55000111</v>
@@ -36387,7 +36331,7 @@
         <v>0.71147539999999998</v>
       </c>
       <c r="BF83" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="84" spans="1:58" ht="14.25">
@@ -36463,7 +36407,7 @@
         <v>100</v>
       </c>
       <c r="X84" s="4" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="Y84" s="43">
         <v>55000069</v>
@@ -36562,7 +36506,7 @@
         <v>0.3016393</v>
       </c>
       <c r="BF84" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="85" spans="1:58" ht="14.25">
@@ -36638,7 +36582,7 @@
         <v>2</v>
       </c>
       <c r="X85" s="4" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="Y85" s="43">
         <v>55000050</v>
@@ -36737,7 +36681,7 @@
         <v>0.8180328</v>
       </c>
       <c r="BF85" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="86" spans="1:58" ht="14.25">
@@ -36813,7 +36757,7 @@
         <v>6</v>
       </c>
       <c r="X86" s="4" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="Y86" s="43">
         <v>55000030</v>
@@ -36908,7 +36852,7 @@
         <v>0.28360659999999999</v>
       </c>
       <c r="BF86" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="87" spans="1:58" ht="14.25">
@@ -36984,7 +36928,7 @@
         <v>86</v>
       </c>
       <c r="X87" s="4" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="Y87" s="43">
         <v>55000068</v>
@@ -37087,7 +37031,7 @@
         <v>0.50819669999999995</v>
       </c>
       <c r="BF87" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="88" spans="1:58" ht="14.25">
@@ -37163,7 +37107,7 @@
         <v>0</v>
       </c>
       <c r="X88" s="4" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="Y88" s="43">
         <v>55000342</v>
@@ -37262,7 +37206,7 @@
         <v>0.33770489999999997</v>
       </c>
       <c r="BF88" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="89" spans="1:58" ht="14.25">
@@ -37338,7 +37282,7 @@
         <v>105</v>
       </c>
       <c r="X89" s="4" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="Y89" s="43">
         <v>55000115</v>
@@ -37441,7 +37385,7 @@
         <v>0.32131150000000003</v>
       </c>
       <c r="BF89" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="90" spans="1:58" ht="14.25">
@@ -37517,7 +37461,7 @@
         <v>107</v>
       </c>
       <c r="X90" s="4" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="Y90" s="43">
         <v>55000002</v>
@@ -37612,7 +37556,7 @@
         <v>0.67213109999999998</v>
       </c>
       <c r="BF90" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="91" spans="1:58" ht="14.25">
@@ -37688,7 +37632,7 @@
         <v>105</v>
       </c>
       <c r="X91" s="4" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="Y91" s="43">
         <v>55000118</v>
@@ -37787,7 +37731,7 @@
         <v>0.5</v>
       </c>
       <c r="BF91" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="92" spans="1:58" ht="14.25">
@@ -37863,7 +37807,7 @@
         <v>16</v>
       </c>
       <c r="X92" s="4" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="Y92" s="43">
         <v>55000005</v>
@@ -37958,7 +37902,7 @@
         <v>0.47868850000000002</v>
       </c>
       <c r="BF92" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="93" spans="1:58" ht="14.25">
@@ -38034,7 +37978,7 @@
         <v>111</v>
       </c>
       <c r="X93" s="4" t="s">
-        <v>1274</v>
+        <v>1265</v>
       </c>
       <c r="Y93" s="43">
         <v>55000115</v>
@@ -38133,7 +38077,7 @@
         <v>0.3327869</v>
       </c>
       <c r="BF93" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="94" spans="1:58" ht="14.25">
@@ -38209,7 +38153,7 @@
         <v>78</v>
       </c>
       <c r="X94" s="4" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="Y94" s="43">
         <v>55000005</v>
@@ -38308,7 +38252,7 @@
         <v>0.84262289999999995</v>
       </c>
       <c r="BF94" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="95" spans="1:58" ht="14.25">
@@ -38384,7 +38328,7 @@
         <v>107</v>
       </c>
       <c r="X95" s="4" t="s">
-        <v>1275</v>
+        <v>1266</v>
       </c>
       <c r="Y95" s="43">
         <v>55000114</v>
@@ -38483,7 +38427,7 @@
         <v>0.48688520000000002</v>
       </c>
       <c r="BF95" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="96" spans="1:58" ht="14.25">
@@ -38510,7 +38454,7 @@
       </c>
       <c r="H96" s="4">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I96" s="4">
         <v>4</v>
@@ -38559,7 +38503,7 @@
         <v>2</v>
       </c>
       <c r="X96" s="4" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="Y96" s="43">
         <v>55000002</v>
@@ -38658,7 +38602,7 @@
         <v>0.66557379999999999</v>
       </c>
       <c r="BF96" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="97" spans="1:58" ht="14.25">
@@ -38734,7 +38678,7 @@
         <v>22</v>
       </c>
       <c r="X97" s="4" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="Y97" s="43">
         <v>55000123</v>
@@ -38841,7 +38785,7 @@
         <v>0.93114750000000002</v>
       </c>
       <c r="BF97" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="98" spans="1:58" ht="14.25">
@@ -38917,7 +38861,7 @@
         <v>94</v>
       </c>
       <c r="X98" s="4" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="Y98" s="43">
         <v>55000245</v>
@@ -39016,7 +38960,7 @@
         <v>0.51803279999999996</v>
       </c>
       <c r="BF98" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="99" spans="1:58" ht="14.25">
@@ -39089,10 +39033,10 @@
         <v>0</v>
       </c>
       <c r="W99" s="4" t="s">
-        <v>1244</v>
+        <v>1237</v>
       </c>
       <c r="X99" s="4" t="s">
-        <v>1276</v>
+        <v>1267</v>
       </c>
       <c r="Y99" s="43">
         <v>55000246</v>
@@ -39187,7 +39131,7 @@
         <v>0.36393439999999999</v>
       </c>
       <c r="BF99" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="100" spans="1:58" ht="14.25">
@@ -39263,7 +39207,7 @@
         <v>78</v>
       </c>
       <c r="X100" s="4" t="s">
-        <v>1277</v>
+        <v>1268</v>
       </c>
       <c r="Y100" s="43">
         <v>55000040</v>
@@ -39372,7 +39316,7 @@
         <v>0.94918029999999998</v>
       </c>
       <c r="BF100" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="101" spans="1:58" ht="14.25">
@@ -39448,7 +39392,7 @@
         <v>4</v>
       </c>
       <c r="X101" s="4" t="s">
-        <v>1278</v>
+        <v>1269</v>
       </c>
       <c r="Y101" s="43">
         <v>55000126</v>
@@ -39543,7 +39487,7 @@
         <v>0.60327869999999995</v>
       </c>
       <c r="BF101" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="102" spans="1:58" ht="14.25">
@@ -39619,7 +39563,7 @@
         <v>16</v>
       </c>
       <c r="X102" s="4" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="Y102" s="43">
         <v>55000127</v>
@@ -39718,7 +39662,7 @@
         <v>0.75737699999999997</v>
       </c>
       <c r="BF102" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="103" spans="1:58" ht="14.25">
@@ -39794,7 +39738,7 @@
         <v>9</v>
       </c>
       <c r="X103" s="4" t="s">
-        <v>1279</v>
+        <v>1270</v>
       </c>
       <c r="Y103" s="43">
         <v>55000129</v>
@@ -39885,7 +39829,7 @@
         <v>0.1032787</v>
       </c>
       <c r="BF103" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="104" spans="1:58" ht="14.25">
@@ -39961,7 +39905,7 @@
         <v>4</v>
       </c>
       <c r="X104" s="4" t="s">
-        <v>1329</v>
+        <v>1319</v>
       </c>
       <c r="Y104" s="43">
         <v>55000130</v>
@@ -40056,7 +40000,7 @@
         <v>0.42622949999999998</v>
       </c>
       <c r="BF104" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="105" spans="1:58" ht="14.25">
@@ -40132,7 +40076,7 @@
         <v>107</v>
       </c>
       <c r="X105" s="4" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="Y105" s="43">
         <v>55000132</v>
@@ -40227,7 +40171,7 @@
         <v>0.2098361</v>
       </c>
       <c r="BF105" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="106" spans="1:58" ht="14.25">
@@ -40303,7 +40247,7 @@
         <v>9</v>
       </c>
       <c r="X106" s="4" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="Y106" s="43">
         <v>55000133</v>
@@ -40398,7 +40342,7 @@
         <v>4.262295E-2</v>
       </c>
       <c r="BF106" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="107" spans="1:58" ht="14.25">
@@ -40474,7 +40418,7 @@
         <v>9</v>
       </c>
       <c r="X107" s="4" t="s">
-        <v>1280</v>
+        <v>1271</v>
       </c>
       <c r="Y107" s="43">
         <v>55000134</v>
@@ -40569,7 +40513,7 @@
         <v>5.2459020000000002E-2</v>
       </c>
       <c r="BF107" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="108" spans="1:58" ht="14.25">
@@ -40645,7 +40589,7 @@
         <v>2</v>
       </c>
       <c r="X108" s="4" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="Y108" s="43">
         <v>55000017</v>
@@ -40748,7 +40692,7 @@
         <v>0.92622950000000004</v>
       </c>
       <c r="BF108" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="109" spans="1:58" ht="14.25">
@@ -40824,7 +40768,7 @@
         <v>128</v>
       </c>
       <c r="X109" s="4" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="Y109" s="43">
         <v>55000135</v>
@@ -40927,7 +40871,7 @@
         <v>6.8852460000000004E-2</v>
       </c>
       <c r="BF109" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="110" spans="1:58" ht="14.25">
@@ -41003,7 +40947,7 @@
         <v>130</v>
       </c>
       <c r="X110" s="4" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="Y110" s="43">
         <v>55000135</v>
@@ -41110,7 +41054,7 @@
         <v>0.24262300000000001</v>
       </c>
       <c r="BF110" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="111" spans="1:58" ht="14.25">
@@ -41186,7 +41130,7 @@
         <v>132</v>
       </c>
       <c r="X111" s="4" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="Y111" s="43">
         <v>55000038</v>
@@ -41293,7 +41237,7 @@
         <v>0.28360659999999999</v>
       </c>
       <c r="BF111" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="112" spans="1:58" ht="14.25">
@@ -41369,7 +41313,7 @@
         <v>118</v>
       </c>
       <c r="X112" s="4" t="s">
-        <v>1281</v>
+        <v>1272</v>
       </c>
       <c r="Y112" s="43">
         <v>55010003</v>
@@ -41468,7 +41412,7 @@
         <v>0.5</v>
       </c>
       <c r="BF112" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="113" spans="1:58" ht="14.25">
@@ -41544,7 +41488,7 @@
         <v>135</v>
       </c>
       <c r="X113" s="4" t="s">
-        <v>1282</v>
+        <v>1273</v>
       </c>
       <c r="Y113" s="43">
         <v>55000018</v>
@@ -41639,7 +41583,7 @@
         <v>0.51147540000000002</v>
       </c>
       <c r="BF113" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="114" spans="1:58" ht="14.25">
@@ -41715,7 +41659,7 @@
         <v>89</v>
       </c>
       <c r="X114" s="4" t="s">
-        <v>1283</v>
+        <v>1274</v>
       </c>
       <c r="Y114" s="43">
         <v>55000040</v>
@@ -41824,7 +41768,7 @@
         <v>0.9442623</v>
       </c>
       <c r="BF114" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="115" spans="1:58" ht="14.25">
@@ -41900,7 +41844,7 @@
         <v>94</v>
       </c>
       <c r="X115" s="4" t="s">
-        <v>1284</v>
+        <v>1275</v>
       </c>
       <c r="Y115" s="43">
         <v>55000040</v>
@@ -42009,7 +41953,7 @@
         <v>0.94262299999999999</v>
       </c>
       <c r="BF115" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="116" spans="1:58" ht="14.25">
@@ -42085,7 +42029,7 @@
         <v>31</v>
       </c>
       <c r="X116" s="4" t="s">
-        <v>1285</v>
+        <v>1276</v>
       </c>
       <c r="Y116" s="43">
         <v>55000040</v>
@@ -42194,7 +42138,7 @@
         <v>0.92786880000000005</v>
       </c>
       <c r="BF116" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="117" spans="1:58" ht="14.25">
@@ -42270,7 +42214,7 @@
         <v>4</v>
       </c>
       <c r="X117" s="7" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="Y117" s="43">
         <v>55000143</v>
@@ -42365,7 +42309,7 @@
         <v>0.38196720000000001</v>
       </c>
       <c r="BF117" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="118" spans="1:58" ht="14.25">
@@ -42441,7 +42385,7 @@
         <v>40</v>
       </c>
       <c r="X118" s="4" t="s">
-        <v>1286</v>
+        <v>1277</v>
       </c>
       <c r="Y118" s="43">
         <v>55000040</v>
@@ -42550,7 +42494,7 @@
         <v>0.9442623</v>
       </c>
       <c r="BF118" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="119" spans="1:58" ht="14.25">
@@ -42626,7 +42570,7 @@
         <v>100</v>
       </c>
       <c r="X119" s="4" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="Y119" s="43">
         <v>55000040</v>
@@ -42735,7 +42679,7 @@
         <v>0.95901639999999999</v>
       </c>
       <c r="BF119" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="120" spans="1:58" ht="14.25">
@@ -42811,7 +42755,7 @@
         <v>51</v>
       </c>
       <c r="X120" s="4" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="Y120" s="43">
         <v>55000040</v>
@@ -42920,7 +42864,7 @@
         <v>0.92786880000000005</v>
       </c>
       <c r="BF120" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="121" spans="1:58" ht="14.25">
@@ -42996,7 +42940,7 @@
         <v>22</v>
       </c>
       <c r="X121" s="4" t="s">
-        <v>1330</v>
+        <v>1320</v>
       </c>
       <c r="Y121" s="43">
         <v>55000040</v>
@@ -43105,7 +43049,7 @@
         <v>0.95409829999999995</v>
       </c>
       <c r="BF121" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="122" spans="1:58" ht="14.25">
@@ -43181,7 +43125,7 @@
         <v>4</v>
       </c>
       <c r="X122" s="4" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="Y122" s="43">
         <v>55000150</v>
@@ -43276,7 +43220,7 @@
         <v>0.24426229999999999</v>
       </c>
       <c r="BF122" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="123" spans="1:58" ht="14.25">
@@ -43352,7 +43296,7 @@
         <v>4</v>
       </c>
       <c r="X123" s="4" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="Y123" s="43">
         <v>55000227</v>
@@ -43451,7 +43395,7 @@
         <v>0.27213110000000001</v>
       </c>
       <c r="BF123" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="124" spans="1:58" ht="14.25">
@@ -43527,7 +43471,7 @@
         <v>2</v>
       </c>
       <c r="X124" s="4" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="Y124" s="43">
         <v>55000093</v>
@@ -43626,7 +43570,7 @@
         <v>0.49836069999999999</v>
       </c>
       <c r="BF124" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="125" spans="1:58" ht="14.25">
@@ -43702,7 +43646,7 @@
         <v>2</v>
       </c>
       <c r="X125" s="4" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="Y125" s="43">
         <v>55000008</v>
@@ -43801,7 +43745,7 @@
         <v>0.73114749999999995</v>
       </c>
       <c r="BF125" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="126" spans="1:58" ht="14.25">
@@ -43877,7 +43821,7 @@
         <v>24</v>
       </c>
       <c r="X126" s="4" t="s">
-        <v>1331</v>
+        <v>1321</v>
       </c>
       <c r="Y126" s="43">
         <v>55000151</v>
@@ -43968,7 +43912,7 @@
         <v>9.3442629999999999E-2</v>
       </c>
       <c r="BF126" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="127" spans="1:58" ht="14.25">
@@ -44044,7 +43988,7 @@
         <v>4</v>
       </c>
       <c r="X127" s="4" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="Y127" s="43">
         <v>55000248</v>
@@ -44135,7 +44079,7 @@
         <v>0.3</v>
       </c>
       <c r="BF127" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="128" spans="1:58" ht="14.25">
@@ -44211,7 +44155,7 @@
         <v>4</v>
       </c>
       <c r="X128" s="4" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="Y128" s="43">
         <v>55000152</v>
@@ -44306,7 +44250,7 @@
         <v>0.62131150000000002</v>
       </c>
       <c r="BF128" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="129" spans="1:58" ht="14.25">
@@ -44382,7 +44326,7 @@
         <v>2</v>
       </c>
       <c r="X129" s="4" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="Y129" s="43">
         <v>55000037</v>
@@ -44477,7 +44421,7 @@
         <v>0.85901640000000001</v>
       </c>
       <c r="BF129" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="130" spans="1:58" ht="14.25">
@@ -44553,7 +44497,7 @@
         <v>107</v>
       </c>
       <c r="X130" s="4" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="Y130" s="43">
         <v>55000153</v>
@@ -44644,7 +44588,7 @@
         <v>0.1114754</v>
       </c>
       <c r="BF130" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="131" spans="1:58" ht="14.25">
@@ -44720,7 +44664,7 @@
         <v>6</v>
       </c>
       <c r="X131" s="4" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="Y131" s="43">
         <v>55000002</v>
@@ -44811,7 +44755,7 @@
         <v>0.31639339999999999</v>
       </c>
       <c r="BF131" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="132" spans="1:58" ht="14.25">
@@ -44837,7 +44781,7 @@
         <v>3</v>
       </c>
       <c r="H132" s="4">
-        <f t="shared" ref="H132:H195" si="8">IF(T132&gt;10,5,IF(T132&gt;4,4,IF(T132&gt;2,3,IF(T132&gt;0,2,IF(T132&gt;-2.5,1,IF(T132&gt;-10,0,6))))))</f>
+        <f t="shared" ref="H132:H195" si="8">IF(T132&gt;10,5,IF(T132&gt;5,4,IF(T132&gt;2.5,3,IF(T132&gt;0,2,IF(T132&gt;-2.5,1,IF(T132&gt;-10,0,6))))))</f>
         <v>5</v>
       </c>
       <c r="I132" s="4">
@@ -44887,7 +44831,7 @@
         <v>4</v>
       </c>
       <c r="X132" s="4" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="Y132" s="43">
         <v>55000019</v>
@@ -44982,7 +44926,7 @@
         <v>0.76393440000000001</v>
       </c>
       <c r="BF132" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="133" spans="1:58" ht="14.25">
@@ -45058,7 +45002,7 @@
         <v>107</v>
       </c>
       <c r="X133" s="4" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="Y133" s="43">
         <v>55000011</v>
@@ -45153,7 +45097,7 @@
         <v>0.67213109999999998</v>
       </c>
       <c r="BF133" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="134" spans="1:58" ht="14.25">
@@ -45229,7 +45173,7 @@
         <v>2</v>
       </c>
       <c r="X134" s="4" t="s">
-        <v>1263</v>
+        <v>1256</v>
       </c>
       <c r="Y134" s="43">
         <v>55000035</v>
@@ -45324,7 +45268,7 @@
         <v>0.44098359999999998</v>
       </c>
       <c r="BF134" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="135" spans="1:58" ht="14.25">
@@ -45400,7 +45344,7 @@
         <v>78</v>
       </c>
       <c r="X135" s="7" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="Y135" s="43">
         <v>55000143</v>
@@ -45495,7 +45439,7 @@
         <v>0.43442619999999998</v>
       </c>
       <c r="BF135" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="136" spans="1:58" ht="14.25">
@@ -45571,7 +45515,7 @@
         <v>107</v>
       </c>
       <c r="X136" s="4" t="s">
-        <v>1287</v>
+        <v>1278</v>
       </c>
       <c r="Y136" s="43">
         <v>55000031</v>
@@ -45666,7 +45610,7 @@
         <v>0.50819669999999995</v>
       </c>
       <c r="BF136" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="137" spans="1:58" ht="14.25">
@@ -45742,7 +45686,7 @@
         <v>2</v>
       </c>
       <c r="X137" s="4" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="Y137" s="43">
         <v>55000012</v>
@@ -45845,7 +45789,7 @@
         <v>0.80983609999999995</v>
       </c>
       <c r="BF137" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="138" spans="1:58" ht="14.25">
@@ -45921,7 +45865,7 @@
         <v>6</v>
       </c>
       <c r="X138" s="4" t="s">
-        <v>1332</v>
+        <v>1322</v>
       </c>
       <c r="Y138" s="43">
         <v>55000157</v>
@@ -46016,7 +45960,7 @@
         <v>0.25245899999999999</v>
       </c>
       <c r="BF138" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="139" spans="1:58" ht="14.25">
@@ -46092,7 +46036,7 @@
         <v>107</v>
       </c>
       <c r="X139" s="4" t="s">
-        <v>1288</v>
+        <v>1279</v>
       </c>
       <c r="Y139" s="43">
         <v>55000119</v>
@@ -46191,7 +46135,7 @@
         <v>0.61311479999999996</v>
       </c>
       <c r="BF139" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="140" spans="1:58" ht="14.25">
@@ -46218,19 +46162,19 @@
       </c>
       <c r="H140" s="4">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I140" s="4">
         <v>2</v>
       </c>
       <c r="J140" s="4">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="K140" s="4">
-        <v>9</v>
+        <v>-4</v>
       </c>
       <c r="L140" s="4">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="M140" s="4">
         <v>0</v>
@@ -46255,7 +46199,7 @@
       </c>
       <c r="T140" s="15">
         <f t="shared" si="9"/>
-        <v>22</v>
+        <v>-7</v>
       </c>
       <c r="U140" s="4">
         <v>10</v>
@@ -46352,7 +46296,7 @@
         <v>0.36393439999999999</v>
       </c>
       <c r="BF140" s="22" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="141" spans="1:58" ht="14.25">
@@ -46428,7 +46372,7 @@
         <v>12</v>
       </c>
       <c r="X141" s="4" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="Y141" s="43">
         <v>55000088</v>
@@ -46527,7 +46471,7 @@
         <v>0.52295080000000005</v>
       </c>
       <c r="BF141" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="142" spans="1:58" ht="14.25">
@@ -46603,7 +46547,7 @@
         <v>40</v>
       </c>
       <c r="X142" s="4" t="s">
-        <v>1289</v>
+        <v>1280</v>
       </c>
       <c r="Y142" s="43">
         <v>55000018</v>
@@ -46702,7 +46646,7 @@
         <v>0.3491803</v>
       </c>
       <c r="BF142" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="143" spans="1:58" ht="14.25">
@@ -46778,7 +46722,7 @@
         <v>4</v>
       </c>
       <c r="X143" s="4" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="Y143" s="43">
         <v>55000001</v>
@@ -46877,7 +46821,7 @@
         <v>0.26065569999999999</v>
       </c>
       <c r="BF143" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="144" spans="1:58" ht="14.25">
@@ -46953,7 +46897,7 @@
         <v>16</v>
       </c>
       <c r="X144" s="4" t="s">
-        <v>1333</v>
+        <v>1323</v>
       </c>
       <c r="Y144" s="43">
         <v>55000044</v>
@@ -47048,7 +46992,7 @@
         <v>0.56393439999999995</v>
       </c>
       <c r="BF144" s="22" t="s">
-        <v>1254</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="145" spans="1:58" ht="14.25">
@@ -47075,19 +47019,19 @@
       </c>
       <c r="H145" s="4">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I145" s="4">
         <v>1</v>
       </c>
       <c r="J145" s="4">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="K145" s="4">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="L145" s="9">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="M145" s="4">
         <v>0</v>
@@ -47112,7 +47056,7 @@
       </c>
       <c r="T145" s="15">
         <f t="shared" si="9"/>
-        <v>24</v>
+        <v>-8</v>
       </c>
       <c r="U145" s="4">
         <v>30</v>
@@ -47123,21 +47067,11 @@
       <c r="W145" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="X145" s="4" t="s">
-        <v>1357</v>
-      </c>
-      <c r="Y145" s="43">
-        <v>55010002</v>
-      </c>
-      <c r="Z145" s="21">
-        <v>100</v>
-      </c>
-      <c r="AA145" s="21">
-        <v>55010028</v>
-      </c>
-      <c r="AB145" s="21">
-        <v>100</v>
-      </c>
+      <c r="X145" s="4"/>
+      <c r="Y145" s="43"/>
+      <c r="Z145" s="21"/>
+      <c r="AA145" s="21"/>
+      <c r="AB145" s="21"/>
       <c r="AC145" s="21"/>
       <c r="AD145" s="21"/>
       <c r="AE145" s="21"/>
@@ -47150,7 +47084,7 @@
 IF(ISBLANK($AC145),0, LOOKUP($AC145,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AD145/100)+
 IF(ISBLANK($AE145),0, LOOKUP($AE145,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AF145/100)+
 IF(ISBLANK($AG145),0, LOOKUP($AG145,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AH145/100)</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="AJ145" s="21">
         <v>0</v>
@@ -47219,7 +47153,7 @@
         <v>0.13770489999999999</v>
       </c>
       <c r="BF145" s="22" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="146" spans="1:58" ht="14.25">
@@ -47295,7 +47229,7 @@
         <v>107</v>
       </c>
       <c r="X146" s="4" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="Y146" s="43">
         <v>55000101</v>
@@ -47394,7 +47328,7 @@
         <v>0.75081969999999998</v>
       </c>
       <c r="BF146" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="147" spans="1:58" ht="14.25">
@@ -47470,7 +47404,7 @@
         <v>19</v>
       </c>
       <c r="X147" s="4" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="Y147" s="43">
         <v>55000010</v>
@@ -47565,7 +47499,7 @@
         <v>0.41639340000000002</v>
       </c>
       <c r="BF147" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="148" spans="1:58" ht="14.25">
@@ -47638,10 +47572,10 @@
         <v>15</v>
       </c>
       <c r="W148" s="4" t="s">
-        <v>1248</v>
+        <v>1241</v>
       </c>
       <c r="X148" s="4" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="Y148" s="43">
         <v>55000340</v>
@@ -47740,7 +47674,7 @@
         <v>0.1983607</v>
       </c>
       <c r="BF148" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="149" spans="1:58" ht="14.25">
@@ -47816,7 +47750,7 @@
         <v>166</v>
       </c>
       <c r="X149" s="4" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="Y149" s="43">
         <v>55000066</v>
@@ -47923,7 +47857,7 @@
         <v>0.52295080000000005</v>
       </c>
       <c r="BF149" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="150" spans="1:58" ht="14.25">
@@ -47999,7 +47933,7 @@
         <v>4</v>
       </c>
       <c r="X150" s="4" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="Y150" s="43">
         <v>55000017</v>
@@ -48098,7 +48032,7 @@
         <v>0.68852460000000004</v>
       </c>
       <c r="BF150" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="151" spans="1:58" ht="14.25">
@@ -48174,7 +48108,7 @@
         <v>16</v>
       </c>
       <c r="X151" s="4" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="Y151" s="43">
         <v>55000164</v>
@@ -48265,7 +48199,7 @@
         <v>0.47049180000000002</v>
       </c>
       <c r="BF151" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="152" spans="1:58" ht="14.25">
@@ -48292,19 +48226,19 @@
       </c>
       <c r="H152" s="4">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I152" s="4">
         <v>2</v>
       </c>
       <c r="J152" s="4">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K152" s="4">
-        <v>11</v>
+        <v>-10</v>
       </c>
       <c r="L152" s="9">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="M152" s="4">
         <v>0</v>
@@ -48329,7 +48263,7 @@
       </c>
       <c r="T152" s="15">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>-8</v>
       </c>
       <c r="U152" s="4">
         <v>10</v>
@@ -48426,7 +48360,7 @@
         <v>0.35409829999999998</v>
       </c>
       <c r="BF152" s="22" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="153" spans="1:58" ht="14.25">
@@ -48502,7 +48436,7 @@
         <v>2</v>
       </c>
       <c r="X153" s="4" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="Y153" s="43">
         <v>55000089</v>
@@ -48593,7 +48527,7 @@
         <v>0.32295079999999998</v>
       </c>
       <c r="BF153" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="154" spans="1:58" ht="14.25">
@@ -48669,7 +48603,7 @@
         <v>172</v>
       </c>
       <c r="X154" s="4" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="Y154" s="43">
         <v>55000079</v>
@@ -48760,7 +48694,7 @@
         <v>0.40819670000000002</v>
       </c>
       <c r="BF154" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="155" spans="1:58" ht="14.25">
@@ -48833,10 +48767,10 @@
         <v>15</v>
       </c>
       <c r="W155" s="4" t="s">
-        <v>1252</v>
+        <v>1245</v>
       </c>
       <c r="X155" s="4" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="Y155" s="43">
         <v>55000165</v>
@@ -48931,7 +48865,7 @@
         <v>0.58688530000000005</v>
       </c>
       <c r="BF155" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="156" spans="1:58" ht="14.25">
@@ -49007,7 +48941,7 @@
         <v>4</v>
       </c>
       <c r="X156" s="4" t="s">
-        <v>1334</v>
+        <v>1324</v>
       </c>
       <c r="Y156" s="43">
         <v>55000166</v>
@@ -49098,7 +49032,7 @@
         <v>0.28196719999999997</v>
       </c>
       <c r="BF156" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="157" spans="1:58" ht="14.25">
@@ -49125,19 +49059,19 @@
       </c>
       <c r="H157" s="4">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I157" s="4">
         <v>1</v>
       </c>
       <c r="J157" s="4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K157" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L157" s="4">
-        <v>-3</v>
+        <v>-9</v>
       </c>
       <c r="M157" s="4">
         <v>0</v>
@@ -49162,7 +49096,7 @@
       </c>
       <c r="T157" s="15">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>-9</v>
       </c>
       <c r="U157" s="4">
         <v>10</v>
@@ -49173,15 +49107,9 @@
       <c r="W157" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="X157" s="4" t="s">
-        <v>1127</v>
-      </c>
-      <c r="Y157" s="43">
-        <v>55010004</v>
-      </c>
-      <c r="Z157" s="21">
-        <v>100</v>
-      </c>
+      <c r="X157" s="4"/>
+      <c r="Y157" s="43"/>
+      <c r="Z157" s="21"/>
       <c r="AA157" s="21"/>
       <c r="AB157" s="21"/>
       <c r="AC157" s="21"/>
@@ -49196,7 +49124,7 @@
 IF(ISBLANK($AC157),0, LOOKUP($AC157,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AD157/100)+
 IF(ISBLANK($AE157),0, LOOKUP($AE157,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AF157/100)+
 IF(ISBLANK($AG157),0, LOOKUP($AG157,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AH157/100)</f>
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="AJ157" s="21">
         <v>0</v>
@@ -49265,7 +49193,7 @@
         <v>0.12950819999999999</v>
       </c>
       <c r="BF157" s="22" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="158" spans="1:58" ht="14.25">
@@ -49341,7 +49269,7 @@
         <v>2</v>
       </c>
       <c r="X158" s="4" t="s">
-        <v>1335</v>
+        <v>1325</v>
       </c>
       <c r="Y158" s="43">
         <v>55000049</v>
@@ -49432,7 +49360,7 @@
         <v>0.69016390000000005</v>
       </c>
       <c r="BF158" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="159" spans="1:58" ht="14.25">
@@ -49508,7 +49436,7 @@
         <v>2</v>
       </c>
       <c r="X159" s="4" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="Y159" s="43">
         <v>55000170</v>
@@ -49603,7 +49531,7 @@
         <v>0.52950819999999998</v>
       </c>
       <c r="BF159" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="160" spans="1:58" ht="14.25">
@@ -49679,7 +49607,7 @@
         <v>179</v>
       </c>
       <c r="X160" s="4" t="s">
-        <v>1336</v>
+        <v>1326</v>
       </c>
       <c r="Y160" s="43">
         <v>55000048</v>
@@ -49782,7 +49710,7 @@
         <v>0.94098360000000003</v>
       </c>
       <c r="BF160" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="161" spans="1:58" ht="14.25">
@@ -49809,16 +49737,16 @@
       </c>
       <c r="H161" s="4">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" s="4">
         <v>2</v>
       </c>
       <c r="J161" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K161" s="4">
-        <v>-11</v>
+        <v>-8</v>
       </c>
       <c r="L161" s="4">
         <v>-4</v>
@@ -49846,7 +49774,7 @@
       </c>
       <c r="T161" s="15">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>-7</v>
       </c>
       <c r="U161" s="4">
         <v>10</v>
@@ -49857,15 +49785,9 @@
       <c r="W161" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="X161" s="4" t="s">
-        <v>1129</v>
-      </c>
-      <c r="Y161" s="43">
-        <v>55010013</v>
-      </c>
-      <c r="Z161" s="21">
-        <v>100</v>
-      </c>
+      <c r="X161" s="4"/>
+      <c r="Y161" s="43"/>
+      <c r="Z161" s="21"/>
       <c r="AA161" s="21"/>
       <c r="AB161" s="21"/>
       <c r="AC161" s="21"/>
@@ -49880,7 +49802,7 @@
 IF(ISBLANK($AC161),0, LOOKUP($AC161,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AD161/100)+
 IF(ISBLANK($AE161),0, LOOKUP($AE161,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AF161/100)+
 IF(ISBLANK($AG161),0, LOOKUP($AG161,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AH161/100)</f>
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="AJ161" s="21">
         <v>0</v>
@@ -49949,7 +49871,7 @@
         <v>0.3098361</v>
       </c>
       <c r="BF161" s="22" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="162" spans="1:58" ht="14.25">
@@ -50025,7 +49947,7 @@
         <v>107</v>
       </c>
       <c r="X162" s="4" t="s">
-        <v>1290</v>
+        <v>1281</v>
       </c>
       <c r="Y162" s="43">
         <v>55000150</v>
@@ -50120,7 +50042,7 @@
         <v>0.44754100000000002</v>
       </c>
       <c r="BF162" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="163" spans="1:58" ht="14.25">
@@ -50196,7 +50118,7 @@
         <v>107</v>
       </c>
       <c r="X163" s="4" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="Y163" s="43">
         <v>55000269</v>
@@ -50291,7 +50213,7 @@
         <v>0.45409840000000001</v>
       </c>
       <c r="BF163" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="164" spans="1:58" ht="14.25">
@@ -50367,7 +50289,7 @@
         <v>16</v>
       </c>
       <c r="X164" s="4" t="s">
-        <v>1291</v>
+        <v>1282</v>
       </c>
       <c r="Y164" s="43">
         <v>55000167</v>
@@ -50466,7 +50388,7 @@
         <v>0.64098359999999999</v>
       </c>
       <c r="BF164" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="165" spans="1:58" ht="14.25">
@@ -50542,7 +50464,7 @@
         <v>38</v>
       </c>
       <c r="X165" s="4" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="Y165" s="43">
         <v>55000145</v>
@@ -50641,7 +50563,7 @@
         <v>0.73114749999999995</v>
       </c>
       <c r="BF165" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="166" spans="1:58" ht="14.25">
@@ -50717,7 +50639,7 @@
         <v>100</v>
       </c>
       <c r="X166" s="4" t="s">
-        <v>1292</v>
+        <v>1283</v>
       </c>
       <c r="Y166" s="43">
         <v>55000094</v>
@@ -50812,7 +50734,7 @@
         <v>0.59344260000000004</v>
       </c>
       <c r="BF166" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="167" spans="1:58" ht="14.25">
@@ -50888,7 +50810,7 @@
         <v>24</v>
       </c>
       <c r="X167" s="4" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="Y167" s="43">
         <v>55000174</v>
@@ -50983,7 +50905,7 @@
         <v>0.60327869999999995</v>
       </c>
       <c r="BF167" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="168" spans="1:58" ht="14.25">
@@ -51059,7 +50981,7 @@
         <v>16</v>
       </c>
       <c r="X168" s="4" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="Y168" s="43">
         <v>55000030</v>
@@ -51158,7 +51080,7 @@
         <v>0.85409840000000004</v>
       </c>
       <c r="BF168" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="169" spans="1:58" ht="14.25">
@@ -51234,7 +51156,7 @@
         <v>9</v>
       </c>
       <c r="X169" s="4" t="s">
-        <v>1293</v>
+        <v>1284</v>
       </c>
       <c r="Y169" s="43">
         <v>55000179</v>
@@ -51329,7 +51251,7 @@
         <v>5.7377049999999999E-2</v>
       </c>
       <c r="BF169" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="170" spans="1:58" ht="14.25">
@@ -51405,7 +51327,7 @@
         <v>9</v>
       </c>
       <c r="X170" s="4" t="s">
-        <v>1294</v>
+        <v>1285</v>
       </c>
       <c r="Y170" s="43">
         <v>55000178</v>
@@ -51500,7 +51422,7 @@
         <v>4.0983609999999997E-2</v>
       </c>
       <c r="BF170" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="171" spans="1:58" ht="14.25">
@@ -51576,7 +51498,7 @@
         <v>4</v>
       </c>
       <c r="X171" s="4" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
       <c r="Y171" s="43">
         <v>55000180</v>
@@ -51679,7 +51601,7 @@
         <v>4.590164E-2</v>
       </c>
       <c r="BF171" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="172" spans="1:58" ht="14.25">
@@ -51755,7 +51677,7 @@
         <v>4</v>
       </c>
       <c r="X172" s="4" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
       <c r="Y172" s="43">
         <v>55000181</v>
@@ -51854,7 +51776,7 @@
         <v>0.77540980000000004</v>
       </c>
       <c r="BF172" s="22" t="s">
-        <v>1254</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="173" spans="1:58" ht="14.25">
@@ -51927,10 +51849,10 @@
         <v>15</v>
       </c>
       <c r="W173" s="4" t="s">
-        <v>1246</v>
+        <v>1239</v>
       </c>
       <c r="X173" s="4" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="Y173" s="43">
         <v>55000015</v>
@@ -52029,7 +51951,7 @@
         <v>9.0163930000000003E-2</v>
       </c>
       <c r="BF173" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="174" spans="1:58" ht="14.25">
@@ -52105,7 +52027,7 @@
         <v>69</v>
       </c>
       <c r="X174" s="4" t="s">
-        <v>1358</v>
+        <v>1347</v>
       </c>
       <c r="Y174" s="43">
         <v>55000184</v>
@@ -52200,7 +52122,7 @@
         <v>0.56721310000000003</v>
       </c>
       <c r="BF174" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="175" spans="1:58" ht="14.25">
@@ -52276,7 +52198,7 @@
         <v>2</v>
       </c>
       <c r="X175" s="4" t="s">
-        <v>1337</v>
+        <v>1327</v>
       </c>
       <c r="Y175" s="43">
         <v>55000185</v>
@@ -52371,7 +52293,7 @@
         <v>0.104918</v>
       </c>
       <c r="BF175" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="176" spans="1:58" ht="14.25">
@@ -52447,7 +52369,7 @@
         <v>12</v>
       </c>
       <c r="X176" s="4" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="Y176" s="43">
         <v>55000186</v>
@@ -52546,7 +52468,7 @@
         <v>0.57213119999999995</v>
       </c>
       <c r="BF176" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="177" spans="1:58" ht="14.25">
@@ -52622,7 +52544,7 @@
         <v>4</v>
       </c>
       <c r="X177" s="4" t="s">
-        <v>1338</v>
+        <v>1328</v>
       </c>
       <c r="Y177" s="43">
         <v>55000188</v>
@@ -52721,7 +52643,7 @@
         <v>0.25737710000000003</v>
       </c>
       <c r="BF177" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="178" spans="1:58" ht="14.25">
@@ -52797,7 +52719,7 @@
         <v>4</v>
       </c>
       <c r="X178" s="4" t="s">
-        <v>1295</v>
+        <v>1286</v>
       </c>
       <c r="Y178" s="43">
         <v>55000087</v>
@@ -52892,7 +52814,7 @@
         <v>0.64590159999999996</v>
       </c>
       <c r="BF178" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="179" spans="1:58" ht="14.25">
@@ -52968,7 +52890,7 @@
         <v>2</v>
       </c>
       <c r="X179" s="4" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="Y179" s="43">
         <v>55000189</v>
@@ -53059,7 +52981,7 @@
         <v>0.49508200000000002</v>
       </c>
       <c r="BF179" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="180" spans="1:58" ht="14.25">
@@ -53135,7 +53057,7 @@
         <v>65</v>
       </c>
       <c r="X180" s="4" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="Y180" s="43">
         <v>55000061</v>
@@ -53242,7 +53164,7 @@
         <v>0.80819669999999999</v>
       </c>
       <c r="BF180" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="181" spans="1:58" ht="14.25">
@@ -53318,7 +53240,7 @@
         <v>976</v>
       </c>
       <c r="X181" s="4" t="s">
-        <v>1140</v>
+        <v>1135</v>
       </c>
       <c r="Y181" s="43">
         <v>55000044</v>
@@ -53421,7 +53343,7 @@
         <v>0.91639349999999997</v>
       </c>
       <c r="BF181" s="22" t="s">
-        <v>1254</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="182" spans="1:58" ht="14.25">
@@ -53497,7 +53419,7 @@
         <v>4</v>
       </c>
       <c r="X182" s="4" t="s">
-        <v>1141</v>
+        <v>1136</v>
       </c>
       <c r="Y182" s="43">
         <v>55000193</v>
@@ -53592,7 +53514,7 @@
         <v>0.27377050000000003</v>
       </c>
       <c r="BF182" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="183" spans="1:58" ht="14.25">
@@ -53668,7 +53590,7 @@
         <v>16</v>
       </c>
       <c r="X183" s="4" t="s">
-        <v>1296</v>
+        <v>1287</v>
       </c>
       <c r="Y183" s="43">
         <v>55000297</v>
@@ -53763,7 +53685,7 @@
         <v>0.89508200000000004</v>
       </c>
       <c r="BF183" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="184" spans="1:58" ht="14.25">
@@ -53839,7 +53761,7 @@
         <v>78</v>
       </c>
       <c r="X184" s="4" t="s">
-        <v>1142</v>
+        <v>1137</v>
       </c>
       <c r="Y184" s="43">
         <v>55000095</v>
@@ -53930,7 +53852,7 @@
         <v>0.65245900000000001</v>
       </c>
       <c r="BF184" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="185" spans="1:58" ht="14.25">
@@ -54006,7 +53928,7 @@
         <v>12</v>
       </c>
       <c r="X185" s="4" t="s">
-        <v>1143</v>
+        <v>1138</v>
       </c>
       <c r="Y185" s="43">
         <v>55000194</v>
@@ -54113,7 +54035,7 @@
         <v>0.91639349999999997</v>
       </c>
       <c r="BF185" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="186" spans="1:58" ht="14.25">
@@ -54189,7 +54111,7 @@
         <v>78</v>
       </c>
       <c r="X186" s="4" t="s">
-        <v>1144</v>
+        <v>1139</v>
       </c>
       <c r="Y186" s="43">
         <v>55000125</v>
@@ -54284,7 +54206,7 @@
         <v>0.73114749999999995</v>
       </c>
       <c r="BF186" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="187" spans="1:58" ht="14.25">
@@ -54360,7 +54282,7 @@
         <v>6</v>
       </c>
       <c r="X187" s="4" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
       <c r="Y187" s="43">
         <v>55000089</v>
@@ -54459,7 +54381,7 @@
         <v>0.37377050000000001</v>
       </c>
       <c r="BF187" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="188" spans="1:58" ht="14.25">
@@ -54535,7 +54457,7 @@
         <v>2</v>
       </c>
       <c r="X188" s="4" t="s">
-        <v>1297</v>
+        <v>1288</v>
       </c>
       <c r="Y188" s="43">
         <v>55000196</v>
@@ -54642,7 +54564,7 @@
         <v>0.9442623</v>
       </c>
       <c r="BF188" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="189" spans="1:58" ht="14.25">
@@ -54718,7 +54640,7 @@
         <v>4</v>
       </c>
       <c r="X189" s="4" t="s">
-        <v>1339</v>
+        <v>1329</v>
       </c>
       <c r="Y189" s="43">
         <v>55000044</v>
@@ -54809,7 +54731,7 @@
         <v>0.50655740000000005</v>
       </c>
       <c r="BF189" s="22" t="s">
-        <v>1254</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="190" spans="1:58" ht="14.25">
@@ -54836,19 +54758,19 @@
       </c>
       <c r="H190" s="4">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I190" s="4">
         <v>1</v>
       </c>
       <c r="J190" s="4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K190" s="4">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="L190" s="4">
-        <v>-3</v>
+        <v>-9</v>
       </c>
       <c r="M190" s="4">
         <v>0</v>
@@ -54873,7 +54795,7 @@
       </c>
       <c r="T190" s="15">
         <f t="shared" si="9"/>
-        <v>24</v>
+        <v>-9</v>
       </c>
       <c r="U190" s="4">
         <v>10</v>
@@ -54970,7 +54892,7 @@
         <v>0.1508197</v>
       </c>
       <c r="BF190" s="22" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="191" spans="1:58" ht="14.25">
@@ -55046,7 +54968,7 @@
         <v>24</v>
       </c>
       <c r="X191" s="4" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="Y191" s="43">
         <v>55000074</v>
@@ -55141,7 +55063,7 @@
         <v>0.85409840000000004</v>
       </c>
       <c r="BF191" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="192" spans="1:58" ht="14.25">
@@ -55214,10 +55136,10 @@
         <v>12</v>
       </c>
       <c r="W192" s="4" t="s">
-        <v>1247</v>
+        <v>1240</v>
       </c>
       <c r="X192" s="4" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="Y192" s="43">
         <v>55000001</v>
@@ -55320,7 +55242,7 @@
         <v>0.86229509999999998</v>
       </c>
       <c r="BF192" s="22" t="s">
-        <v>1254</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="193" spans="1:58" ht="14.25">
@@ -55396,7 +55318,7 @@
         <v>2</v>
       </c>
       <c r="X193" s="4" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
       <c r="Y193" s="43">
         <v>55000036</v>
@@ -55495,7 +55417,7 @@
         <v>0.8180328</v>
       </c>
       <c r="BF193" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="194" spans="1:58" ht="14.25">
@@ -55571,7 +55493,7 @@
         <v>16</v>
       </c>
       <c r="X194" s="4" t="s">
-        <v>1149</v>
+        <v>1144</v>
       </c>
       <c r="Y194" s="43">
         <v>55000002</v>
@@ -55670,7 +55592,7 @@
         <v>0.89672130000000005</v>
       </c>
       <c r="BF194" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="195" spans="1:58" ht="14.25">
@@ -55746,7 +55668,7 @@
         <v>209</v>
       </c>
       <c r="X195" s="4" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
       <c r="Y195" s="43">
         <v>55000016</v>
@@ -55853,7 +55775,7 @@
         <v>0.74262300000000003</v>
       </c>
       <c r="BF195" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="196" spans="1:58" ht="14.25">
@@ -55879,7 +55801,7 @@
         <v>6</v>
       </c>
       <c r="H196" s="4">
-        <f t="shared" ref="H196:H259" si="12">IF(T196&gt;10,5,IF(T196&gt;4,4,IF(T196&gt;2,3,IF(T196&gt;0,2,IF(T196&gt;-2.5,1,IF(T196&gt;-10,0,6))))))</f>
+        <f t="shared" ref="H196:H259" si="12">IF(T196&gt;10,5,IF(T196&gt;5,4,IF(T196&gt;2.5,3,IF(T196&gt;0,2,IF(T196&gt;-2.5,1,IF(T196&gt;-10,0,6))))))</f>
         <v>0</v>
       </c>
       <c r="I196" s="4">
@@ -55929,7 +55851,7 @@
         <v>4</v>
       </c>
       <c r="X196" s="4" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="Y196" s="43">
         <v>55000037</v>
@@ -56024,7 +55946,7 @@
         <v>0.79180329999999999</v>
       </c>
       <c r="BF196" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="197" spans="1:58" ht="14.25">
@@ -56100,7 +56022,7 @@
         <v>4</v>
       </c>
       <c r="X197" s="4" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="Y197" s="43">
         <v>55000020</v>
@@ -56199,7 +56121,7 @@
         <v>0.8327869</v>
       </c>
       <c r="BF197" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="198" spans="1:58" ht="14.25">
@@ -56275,7 +56197,7 @@
         <v>22</v>
       </c>
       <c r="X198" s="4" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="Y198" s="43">
         <v>55000036</v>
@@ -56374,7 +56296,7 @@
         <v>0.81967210000000001</v>
       </c>
       <c r="BF198" s="22" t="s">
-        <v>1254</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="199" spans="1:58" ht="14.25">
@@ -56450,7 +56372,7 @@
         <v>2</v>
       </c>
       <c r="X199" s="4" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="Y199" s="43">
         <v>55000110</v>
@@ -56549,7 +56471,7 @@
         <v>0.9606557</v>
       </c>
       <c r="BF199" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="200" spans="1:58" ht="14.25">
@@ -56625,7 +56547,7 @@
         <v>4</v>
       </c>
       <c r="X200" s="4" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="Y200" s="43">
         <v>55000002</v>
@@ -56724,7 +56646,7 @@
         <v>0.82459009999999999</v>
       </c>
       <c r="BF200" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="201" spans="1:58" ht="14.25">
@@ -56800,7 +56722,7 @@
         <v>12</v>
       </c>
       <c r="X201" s="4" t="s">
-        <v>1156</v>
+        <v>1151</v>
       </c>
       <c r="Y201" s="43">
         <v>55000036</v>
@@ -56895,7 +56817,7 @@
         <v>0.70327870000000003</v>
       </c>
       <c r="BF201" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="202" spans="1:58" ht="14.25">
@@ -56968,10 +56890,10 @@
         <v>0</v>
       </c>
       <c r="W202" s="4" t="s">
-        <v>1249</v>
+        <v>1242</v>
       </c>
       <c r="X202" s="4" t="s">
-        <v>1340</v>
+        <v>1330</v>
       </c>
       <c r="Y202" s="43">
         <v>55000203</v>
@@ -57066,7 +56988,7 @@
         <v>8.3606559999999996E-2</v>
       </c>
       <c r="BF202" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="203" spans="1:58" ht="14.25">
@@ -57142,7 +57064,7 @@
         <v>16</v>
       </c>
       <c r="X203" s="4" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="Y203" s="43">
         <v>55000192</v>
@@ -57237,7 +57159,7 @@
         <v>0.38196720000000001</v>
       </c>
       <c r="BF203" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="204" spans="1:58" ht="14.25">
@@ -57313,7 +57235,7 @@
         <v>2</v>
       </c>
       <c r="X204" s="4" t="s">
-        <v>1298</v>
+        <v>1289</v>
       </c>
       <c r="Y204" s="43">
         <v>55000150</v>
@@ -57408,7 +57330,7 @@
         <v>0.3885246</v>
       </c>
       <c r="BF204" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="205" spans="1:58" ht="14.25">
@@ -57481,10 +57403,10 @@
         <v>15</v>
       </c>
       <c r="W205" s="4" t="s">
-        <v>1251</v>
+        <v>1244</v>
       </c>
       <c r="X205" s="4" t="s">
-        <v>1158</v>
+        <v>1153</v>
       </c>
       <c r="Y205" s="43">
         <v>55000197</v>
@@ -57579,7 +57501,7 @@
         <v>0.3180328</v>
       </c>
       <c r="BF205" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="206" spans="1:58" ht="14.25">
@@ -57655,7 +57577,7 @@
         <v>94</v>
       </c>
       <c r="X206" s="4" t="s">
-        <v>1299</v>
+        <v>1290</v>
       </c>
       <c r="Y206" s="43">
         <v>55000003</v>
@@ -57758,7 +57680,7 @@
         <v>0.54754100000000006</v>
       </c>
       <c r="BF206" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="207" spans="1:58" ht="14.25">
@@ -57834,7 +57756,7 @@
         <v>172</v>
       </c>
       <c r="X207" s="4" t="s">
-        <v>1159</v>
+        <v>1154</v>
       </c>
       <c r="Y207" s="43">
         <v>55000206</v>
@@ -57925,7 +57847,7 @@
         <v>0.20491799999999999</v>
       </c>
       <c r="BF207" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="208" spans="1:58" ht="14.25">
@@ -57952,7 +57874,7 @@
       </c>
       <c r="H208" s="4">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I208" s="4">
         <v>2</v>
@@ -58001,7 +57923,7 @@
         <v>6</v>
       </c>
       <c r="X208" s="7" t="s">
-        <v>1300</v>
+        <v>1291</v>
       </c>
       <c r="Y208" s="43">
         <v>55000207</v>
@@ -58096,7 +58018,7 @@
         <v>0.53278689999999995</v>
       </c>
       <c r="BF208" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="209" spans="1:58" ht="14.25">
@@ -58172,7 +58094,7 @@
         <v>2</v>
       </c>
       <c r="X209" s="4" t="s">
-        <v>1301</v>
+        <v>1292</v>
       </c>
       <c r="Y209" s="43">
         <v>55000120</v>
@@ -58267,7 +58189,7 @@
         <v>0.1622951</v>
       </c>
       <c r="BF209" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="210" spans="1:58" ht="14.25">
@@ -58343,7 +58265,7 @@
         <v>172</v>
       </c>
       <c r="X210" s="4" t="s">
-        <v>1341</v>
+        <v>1331</v>
       </c>
       <c r="Y210" s="43">
         <v>55000001</v>
@@ -58438,7 +58360,7 @@
         <v>0.37704919999999997</v>
       </c>
       <c r="BF210" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="211" spans="1:58" ht="14.25">
@@ -58514,7 +58436,7 @@
         <v>69</v>
       </c>
       <c r="X211" s="4" t="s">
-        <v>1342</v>
+        <v>1332</v>
       </c>
       <c r="Y211" s="43">
         <v>55000208</v>
@@ -58613,7 +58535,7 @@
         <v>0.6426229</v>
       </c>
       <c r="BF211" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="212" spans="1:58" ht="14.25">
@@ -58689,7 +58611,7 @@
         <v>132</v>
       </c>
       <c r="X212" s="4" t="s">
-        <v>1302</v>
+        <v>1293</v>
       </c>
       <c r="Y212" s="43">
         <v>55000103</v>
@@ -58792,7 +58714,7 @@
         <v>0.67704920000000002</v>
       </c>
       <c r="BF212" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="213" spans="1:58" ht="14.25">
@@ -58868,7 +58790,7 @@
         <v>228</v>
       </c>
       <c r="X213" s="4" t="s">
-        <v>1303</v>
+        <v>1294</v>
       </c>
       <c r="Y213" s="43">
         <v>55000114</v>
@@ -58975,7 +58897,7 @@
         <v>0.79016390000000003</v>
       </c>
       <c r="BF213" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="214" spans="1:58" ht="14.25">
@@ -59051,7 +58973,7 @@
         <v>2</v>
       </c>
       <c r="X214" s="4" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
       <c r="Y214" s="43">
         <v>55000002</v>
@@ -59150,7 +59072,7 @@
         <v>0.3803279</v>
       </c>
       <c r="BF214" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="215" spans="1:58" ht="14.25">
@@ -59226,7 +59148,7 @@
         <v>190</v>
       </c>
       <c r="X215" s="4" t="s">
-        <v>1304</v>
+        <v>1295</v>
       </c>
       <c r="Y215" s="43">
         <v>55000102</v>
@@ -59333,7 +59255,7 @@
         <v>0.75901640000000004</v>
       </c>
       <c r="BF215" s="22" t="s">
-        <v>1254</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="216" spans="1:58" ht="14.25">
@@ -59409,7 +59331,7 @@
         <v>6</v>
       </c>
       <c r="X216" s="4" t="s">
-        <v>1161</v>
+        <v>1156</v>
       </c>
       <c r="Y216" s="43">
         <v>55000038</v>
@@ -59500,7 +59422,7 @@
         <v>0.75737699999999997</v>
       </c>
       <c r="BF216" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="217" spans="1:58" ht="14.25">
@@ -59576,7 +59498,7 @@
         <v>4</v>
       </c>
       <c r="X217" s="4" t="s">
-        <v>1343</v>
+        <v>1333</v>
       </c>
       <c r="Y217" s="43">
         <v>55000001</v>
@@ -59671,7 +59593,7 @@
         <v>0.37377050000000001</v>
       </c>
       <c r="BF217" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="218" spans="1:58" ht="14.25">
@@ -59747,7 +59669,7 @@
         <v>4</v>
       </c>
       <c r="X218" s="4" t="s">
-        <v>1162</v>
+        <v>1157</v>
       </c>
       <c r="Y218" s="43">
         <v>55000340</v>
@@ -59846,7 +59768,7 @@
         <v>0.24098359999999999</v>
       </c>
       <c r="BF218" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="219" spans="1:58" ht="14.25">
@@ -59919,10 +59841,10 @@
         <v>15</v>
       </c>
       <c r="W219" s="4" t="s">
-        <v>1250</v>
+        <v>1243</v>
       </c>
       <c r="X219" s="4" t="s">
-        <v>1359</v>
+        <v>1348</v>
       </c>
       <c r="Y219" s="43">
         <v>55000070</v>
@@ -60029,7 +59951,7 @@
         <v>0.48032789999999997</v>
       </c>
       <c r="BF219" s="22" t="s">
-        <v>1254</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="220" spans="1:58" ht="14.25">
@@ -60105,7 +60027,7 @@
         <v>65</v>
       </c>
       <c r="X220" s="4" t="s">
-        <v>1305</v>
+        <v>1296</v>
       </c>
       <c r="Y220" s="43">
         <v>55000101</v>
@@ -60200,7 +60122,7 @@
         <v>0.404918</v>
       </c>
       <c r="BF220" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="221" spans="1:58" ht="14.25">
@@ -60276,7 +60198,7 @@
         <v>237</v>
       </c>
       <c r="X221" s="4" t="s">
-        <v>1344</v>
+        <v>1334</v>
       </c>
       <c r="Y221" s="43">
         <v>55000215</v>
@@ -60375,7 +60297,7 @@
         <v>0.69672129999999999</v>
       </c>
       <c r="BF221" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="222" spans="1:58" ht="14.25">
@@ -60451,7 +60373,7 @@
         <v>6</v>
       </c>
       <c r="X222" s="4" t="s">
-        <v>1163</v>
+        <v>1158</v>
       </c>
       <c r="Y222" s="43">
         <v>55000217</v>
@@ -60546,7 +60468,7 @@
         <v>0.41639340000000002</v>
       </c>
       <c r="BF222" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="223" spans="1:58" ht="14.25">
@@ -60622,7 +60544,7 @@
         <v>9</v>
       </c>
       <c r="X223" s="4" t="s">
-        <v>1306</v>
+        <v>1297</v>
       </c>
       <c r="Y223" s="43">
         <v>55000218</v>
@@ -60717,7 +60639,7 @@
         <v>0.49508200000000002</v>
       </c>
       <c r="BF223" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="224" spans="1:58" ht="14.25">
@@ -60793,7 +60715,7 @@
         <v>107</v>
       </c>
       <c r="X224" s="7" t="s">
-        <v>1164</v>
+        <v>1159</v>
       </c>
       <c r="Y224" s="43">
         <v>55000143</v>
@@ -60888,7 +60810,7 @@
         <v>0.83934430000000004</v>
       </c>
       <c r="BF224" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="225" spans="1:58" ht="14.25">
@@ -60964,7 +60886,7 @@
         <v>16</v>
       </c>
       <c r="X225" s="4" t="s">
-        <v>1360</v>
+        <v>1349</v>
       </c>
       <c r="Y225" s="43">
         <v>55000009</v>
@@ -61063,7 +60985,7 @@
         <v>0.69016390000000005</v>
       </c>
       <c r="BF225" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="226" spans="1:58" ht="14.25">
@@ -61139,7 +61061,7 @@
         <v>9</v>
       </c>
       <c r="X226" s="4" t="s">
-        <v>1165</v>
+        <v>1160</v>
       </c>
       <c r="Y226" s="43">
         <v>55000221</v>
@@ -61238,7 +61160,7 @@
         <v>0.82786890000000002</v>
       </c>
       <c r="BF226" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="227" spans="1:58" ht="14.25">
@@ -61314,7 +61236,7 @@
         <v>172</v>
       </c>
       <c r="X227" s="4" t="s">
-        <v>1166</v>
+        <v>1161</v>
       </c>
       <c r="Y227" s="43">
         <v>55000222</v>
@@ -61413,7 +61335,7 @@
         <v>0.8</v>
       </c>
       <c r="BF227" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="228" spans="1:58" ht="14.25">
@@ -61489,7 +61411,7 @@
         <v>245</v>
       </c>
       <c r="X228" s="4" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="Y228" s="43">
         <v>55000160</v>
@@ -61592,7 +61514,7 @@
         <v>0.52295080000000005</v>
       </c>
       <c r="BF228" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="229" spans="1:58" ht="14.25">
@@ -61668,7 +61590,7 @@
         <v>24</v>
       </c>
       <c r="X229" s="4" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
       <c r="Y229" s="43">
         <v>55000093</v>
@@ -61767,7 +61689,7 @@
         <v>0.47540979999999999</v>
       </c>
       <c r="BF229" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="230" spans="1:58" ht="14.25">
@@ -61843,7 +61765,7 @@
         <v>9</v>
       </c>
       <c r="X230" s="4" t="s">
-        <v>1307</v>
+        <v>1298</v>
       </c>
       <c r="Y230" s="43">
         <v>55000225</v>
@@ -61938,7 +61860,7 @@
         <v>5.2459020000000002E-2</v>
       </c>
       <c r="BF230" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="231" spans="1:58" ht="14.25">
@@ -62014,7 +61936,7 @@
         <v>9</v>
       </c>
       <c r="X231" s="4" t="s">
-        <v>1308</v>
+        <v>1299</v>
       </c>
       <c r="Y231" s="43">
         <v>55000226</v>
@@ -62109,7 +62031,7 @@
         <v>5.4098359999999998E-2</v>
       </c>
       <c r="BF231" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="232" spans="1:58" ht="14.25">
@@ -62136,16 +62058,16 @@
       </c>
       <c r="H232" s="4">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I232" s="4">
         <v>1</v>
       </c>
       <c r="J232" s="4">
-        <v>6</v>
+        <v>-20</v>
       </c>
       <c r="K232" s="4">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L232" s="4">
         <v>-2</v>
@@ -62173,7 +62095,7 @@
       </c>
       <c r="T232" s="15">
         <f t="shared" si="13"/>
-        <v>28</v>
+        <v>-7</v>
       </c>
       <c r="U232" s="4">
         <v>10</v>
@@ -62184,15 +62106,9 @@
       <c r="W232" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="X232" s="4" t="s">
-        <v>1169</v>
-      </c>
-      <c r="Y232" s="43">
-        <v>55010016</v>
-      </c>
-      <c r="Z232" s="21">
-        <v>100</v>
-      </c>
+      <c r="X232" s="4"/>
+      <c r="Y232" s="43"/>
+      <c r="Z232" s="21"/>
       <c r="AA232" s="21"/>
       <c r="AB232" s="21"/>
       <c r="AC232" s="21"/>
@@ -62207,7 +62123,7 @@
 IF(ISBLANK($AC232),0, LOOKUP($AC232,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AD232/100)+
 IF(ISBLANK($AE232),0, LOOKUP($AE232,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AF232/100)+
 IF(ISBLANK($AG232),0, LOOKUP($AG232,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AH232/100)</f>
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="AJ232" s="21">
         <v>0</v>
@@ -62276,7 +62192,7 @@
         <v>3.9344259999999999E-2</v>
       </c>
       <c r="BF232" s="22" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="233" spans="1:58" ht="14.25">
@@ -62352,7 +62268,7 @@
         <v>251</v>
       </c>
       <c r="X233" s="4" t="s">
-        <v>1345</v>
+        <v>1335</v>
       </c>
       <c r="Y233" s="43">
         <v>55000120</v>
@@ -62447,7 +62363,7 @@
         <v>0.54426229999999998</v>
       </c>
       <c r="BF233" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="234" spans="1:58" ht="14.25">
@@ -62523,7 +62439,7 @@
         <v>22</v>
       </c>
       <c r="X234" s="4" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
       <c r="Y234" s="43">
         <v>55000002</v>
@@ -62618,7 +62534,7 @@
         <v>0.8573771</v>
       </c>
       <c r="BF234" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="235" spans="1:58" ht="14.25">
@@ -62694,7 +62610,7 @@
         <v>6</v>
       </c>
       <c r="X235" s="4" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="Y235" s="43">
         <v>55000087</v>
@@ -62793,7 +62709,7 @@
         <v>0.595082</v>
       </c>
       <c r="BF235" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="236" spans="1:58" ht="14.25">
@@ -62869,7 +62785,7 @@
         <v>12</v>
       </c>
       <c r="X236" s="4" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
       <c r="Y236" s="43">
         <v>55000237</v>
@@ -62964,7 +62880,7 @@
         <v>0.47704920000000001</v>
       </c>
       <c r="BF236" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="237" spans="1:58" ht="14.25">
@@ -63040,7 +62956,7 @@
         <v>2</v>
       </c>
       <c r="X237" s="4" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
       <c r="Y237" s="43">
         <v>55000003</v>
@@ -63143,7 +63059,7 @@
         <v>0.70327870000000003</v>
       </c>
       <c r="BF237" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="238" spans="1:58" ht="14.25">
@@ -63219,7 +63135,7 @@
         <v>4</v>
       </c>
       <c r="X238" s="7" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="Y238" s="43">
         <v>55000033</v>
@@ -63314,7 +63230,7 @@
         <v>9.3442629999999999E-2</v>
       </c>
       <c r="BF238" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="239" spans="1:58" ht="14.25">
@@ -63390,7 +63306,7 @@
         <v>4</v>
       </c>
       <c r="X239" s="4" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="Y239" s="43">
         <v>55000199</v>
@@ -63485,7 +63401,7 @@
         <v>0.77377050000000003</v>
       </c>
       <c r="BF239" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="240" spans="1:58" ht="14.25">
@@ -63561,7 +63477,7 @@
         <v>2</v>
       </c>
       <c r="X240" s="4" t="s">
-        <v>1346</v>
+        <v>1336</v>
       </c>
       <c r="Y240" s="43">
         <v>55000006</v>
@@ -63660,7 +63576,7 @@
         <v>0.63934429999999998</v>
       </c>
       <c r="BF240" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="241" spans="1:58" ht="14.25">
@@ -63736,7 +63652,7 @@
         <v>16</v>
       </c>
       <c r="X241" s="4" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="Y241" s="43">
         <v>55000216</v>
@@ -63839,7 +63755,7 @@
         <v>0.89016399999999996</v>
       </c>
       <c r="BF241" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="242" spans="1:58" ht="14.25">
@@ -63915,7 +63831,7 @@
         <v>4</v>
       </c>
       <c r="X242" s="4" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="Y242" s="43">
         <v>55000010</v>
@@ -64010,7 +63926,7 @@
         <v>0.51311479999999998</v>
       </c>
       <c r="BF242" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="243" spans="1:58" ht="14.25">
@@ -64086,7 +64002,7 @@
         <v>220</v>
       </c>
       <c r="X243" s="4" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="Y243" s="43">
         <v>55000037</v>
@@ -64193,7 +64109,7 @@
         <v>0.54590170000000005</v>
       </c>
       <c r="BF243" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="244" spans="1:58" ht="14.25">
@@ -64269,7 +64185,7 @@
         <v>2</v>
       </c>
       <c r="X244" s="4" t="s">
-        <v>1347</v>
+        <v>1337</v>
       </c>
       <c r="Y244" s="43">
         <v>55000131</v>
@@ -64368,7 +64284,7 @@
         <v>0.62131150000000002</v>
       </c>
       <c r="BF244" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="245" spans="1:58" ht="14.25">
@@ -64444,7 +64360,7 @@
         <v>69</v>
       </c>
       <c r="X245" s="4" t="s">
-        <v>1348</v>
+        <v>1338</v>
       </c>
       <c r="Y245" s="43">
         <v>55000131</v>
@@ -64547,7 +64463,7 @@
         <v>0.84590169999999998</v>
       </c>
       <c r="BF245" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="246" spans="1:58" ht="14.25">
@@ -64623,7 +64539,7 @@
         <v>251</v>
       </c>
       <c r="X246" s="4" t="s">
-        <v>1309</v>
+        <v>1300</v>
       </c>
       <c r="Y246" s="43">
         <v>55000216</v>
@@ -64714,7 +64630,7 @@
         <v>0.85245899999999997</v>
       </c>
       <c r="BF246" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="247" spans="1:58" ht="14.25">
@@ -64790,7 +64706,7 @@
         <v>2</v>
       </c>
       <c r="X247" s="4" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="Y247" s="43">
         <v>55000258</v>
@@ -64889,7 +64805,7 @@
         <v>0.90983610000000004</v>
       </c>
       <c r="BF247" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="248" spans="1:58" ht="14.25">
@@ -64965,7 +64881,7 @@
         <v>19</v>
       </c>
       <c r="X248" s="4" t="s">
-        <v>1264</v>
+        <v>1257</v>
       </c>
       <c r="Y248" s="43">
         <v>55000260</v>
@@ -65056,7 +64972,7 @@
         <v>5.0819669999999997E-2</v>
       </c>
       <c r="BF248" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="249" spans="1:58" ht="14.25">
@@ -65132,7 +65048,7 @@
         <v>16</v>
       </c>
       <c r="X249" s="4" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="Y249" s="43">
         <v>55000037</v>
@@ -65227,7 +65143,7 @@
         <v>0.59836069999999997</v>
       </c>
       <c r="BF249" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="250" spans="1:58" ht="14.25">
@@ -65303,7 +65219,7 @@
         <v>2</v>
       </c>
       <c r="X250" s="4" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="Y250" s="43">
         <v>55000209</v>
@@ -65402,7 +65318,7 @@
         <v>0.94262299999999999</v>
       </c>
       <c r="BF250" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="251" spans="1:58" ht="14.25">
@@ -65478,7 +65394,7 @@
         <v>4</v>
       </c>
       <c r="X251" s="4" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="Y251" s="43">
         <v>55000001</v>
@@ -65573,7 +65489,7 @@
         <v>0.35573769999999999</v>
       </c>
       <c r="BF251" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="252" spans="1:58" ht="14.25">
@@ -65649,7 +65565,7 @@
         <v>135</v>
       </c>
       <c r="X252" s="4" t="s">
-        <v>1349</v>
+        <v>1339</v>
       </c>
       <c r="Y252" s="43">
         <v>55000030</v>
@@ -65752,7 +65668,7 @@
         <v>0.90163930000000003</v>
       </c>
       <c r="BF252" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="253" spans="1:58" ht="14.25">
@@ -65828,7 +65744,7 @@
         <v>19</v>
       </c>
       <c r="X253" s="4" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="Y253" s="43">
         <v>55000265</v>
@@ -65927,7 +65843,7 @@
         <v>0.64918039999999999</v>
       </c>
       <c r="BF253" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="254" spans="1:58" ht="14.25">
@@ -66003,7 +65919,7 @@
         <v>209</v>
       </c>
       <c r="X254" s="4" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="Y254" s="43">
         <v>55000340</v>
@@ -66102,7 +66018,7 @@
         <v>0.49836069999999999</v>
       </c>
       <c r="BF254" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="255" spans="1:58" ht="14.25">
@@ -66178,7 +66094,7 @@
         <v>0</v>
       </c>
       <c r="X255" s="4" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="Y255" s="43">
         <v>55000181</v>
@@ -66281,7 +66197,7 @@
         <v>0.82786890000000002</v>
       </c>
       <c r="BF255" s="22" t="s">
-        <v>1254</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="256" spans="1:58" ht="14.25">
@@ -66357,7 +66273,7 @@
         <v>4</v>
       </c>
       <c r="X256" s="4" t="s">
-        <v>1310</v>
+        <v>1301</v>
       </c>
       <c r="Y256" s="43">
         <v>55000032</v>
@@ -66452,7 +66368,7 @@
         <v>0.63278690000000004</v>
       </c>
       <c r="BF256" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="257" spans="1:58" ht="14.25">
@@ -66528,7 +66444,7 @@
         <v>2</v>
       </c>
       <c r="X257" s="4" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="Y257" s="43">
         <v>55000129</v>
@@ -66623,7 +66539,7 @@
         <v>0.49344260000000001</v>
       </c>
       <c r="BF257" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="258" spans="1:58" ht="14.25">
@@ -66699,7 +66615,7 @@
         <v>251</v>
       </c>
       <c r="X258" s="4" t="s">
-        <v>1311</v>
+        <v>1302</v>
       </c>
       <c r="Y258" s="43">
         <v>55000088</v>
@@ -66794,7 +66710,7 @@
         <v>0.2147541</v>
       </c>
       <c r="BF258" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="259" spans="1:58" ht="14.25">
@@ -66870,7 +66786,7 @@
         <v>4</v>
       </c>
       <c r="X259" s="7" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="Y259" s="43">
         <v>55000340</v>
@@ -66965,7 +66881,7 @@
         <v>0.25245899999999999</v>
       </c>
       <c r="BF259" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="260" spans="1:58" ht="14.25">
@@ -66991,7 +66907,7 @@
         <v>1</v>
       </c>
       <c r="H260" s="4">
-        <f t="shared" ref="H260:H311" si="16">IF(T260&gt;10,5,IF(T260&gt;4,4,IF(T260&gt;2,3,IF(T260&gt;0,2,IF(T260&gt;-2.5,1,IF(T260&gt;-10,0,6))))))</f>
+        <f t="shared" ref="H260:H311" si="16">IF(T260&gt;10,5,IF(T260&gt;5,4,IF(T260&gt;2.5,3,IF(T260&gt;0,2,IF(T260&gt;-2.5,1,IF(T260&gt;-10,0,6))))))</f>
         <v>4</v>
       </c>
       <c r="I260" s="4">
@@ -67041,7 +66957,7 @@
         <v>6</v>
       </c>
       <c r="X260" s="4" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="Y260" s="43">
         <v>55000269</v>
@@ -67136,7 +67052,7 @@
         <v>0.28032790000000002</v>
       </c>
       <c r="BF260" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="261" spans="1:58" ht="14.25">
@@ -67212,7 +67128,7 @@
         <v>16</v>
       </c>
       <c r="X261" s="4" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="Y261" s="43">
         <v>55000079</v>
@@ -67307,7 +67223,7 @@
         <v>0.50327869999999997</v>
       </c>
       <c r="BF261" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="262" spans="1:58" ht="14.25">
@@ -67383,7 +67299,7 @@
         <v>4</v>
       </c>
       <c r="X262" s="4" t="s">
-        <v>1350</v>
+        <v>1340</v>
       </c>
       <c r="Y262" s="43">
         <v>55000199</v>
@@ -67474,7 +67390,7 @@
         <v>0.37704919999999997</v>
       </c>
       <c r="BF262" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="263" spans="1:58" ht="14.25">
@@ -67501,13 +67417,13 @@
       </c>
       <c r="H263" s="4">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I263" s="4">
         <v>1</v>
       </c>
       <c r="J263" s="4">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K263" s="4">
         <v>-7</v>
@@ -67538,7 +67454,7 @@
       </c>
       <c r="T263" s="15">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>-8</v>
       </c>
       <c r="U263" s="4">
         <v>10</v>
@@ -67549,15 +67465,9 @@
       <c r="W263" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="X263" s="4" t="s">
-        <v>1127</v>
-      </c>
-      <c r="Y263" s="43">
-        <v>55010004</v>
-      </c>
-      <c r="Z263" s="21">
-        <v>100</v>
-      </c>
+      <c r="X263" s="4"/>
+      <c r="Y263" s="43"/>
+      <c r="Z263" s="21"/>
       <c r="AA263" s="21"/>
       <c r="AB263" s="21"/>
       <c r="AC263" s="21"/>
@@ -67572,7 +67482,7 @@
 IF(ISBLANK($AC263),0, LOOKUP($AC263,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AD263/100)+
 IF(ISBLANK($AE263),0, LOOKUP($AE263,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AF263/100)+
 IF(ISBLANK($AG263),0, LOOKUP($AG263,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AH263/100)</f>
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="AJ263" s="21">
         <v>0</v>
@@ -67641,7 +67551,7 @@
         <v>0.1065574</v>
       </c>
       <c r="BF263" s="22" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="264" spans="1:58" ht="14.25">
@@ -67717,7 +67627,7 @@
         <v>4</v>
       </c>
       <c r="X264" s="4" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="Y264" s="43">
         <v>55000271</v>
@@ -67812,7 +67722,7 @@
         <v>0.4360656</v>
       </c>
       <c r="BF264" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="265" spans="1:58" ht="14.25">
@@ -67888,7 +67798,7 @@
         <v>2</v>
       </c>
       <c r="X265" s="4" t="s">
-        <v>1312</v>
+        <v>1303</v>
       </c>
       <c r="Y265" s="43">
         <v>55000123</v>
@@ -67987,7 +67897,7 @@
         <v>0.57704920000000004</v>
       </c>
       <c r="BF265" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="266" spans="1:58" ht="14.25">
@@ -68063,7 +67973,7 @@
         <v>24</v>
       </c>
       <c r="X266" s="4" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="Y266" s="43">
         <v>55000093</v>
@@ -68162,7 +68072,7 @@
         <v>0.64590159999999996</v>
       </c>
       <c r="BF266" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="267" spans="1:58" ht="14.25">
@@ -68238,7 +68148,7 @@
         <v>94</v>
       </c>
       <c r="X267" s="4" t="s">
-        <v>1351</v>
+        <v>1341</v>
       </c>
       <c r="Y267" s="43">
         <v>55000001</v>
@@ -68345,7 +68255,7 @@
         <v>0.8</v>
       </c>
       <c r="BF267" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="268" spans="1:58" ht="14.25">
@@ -68421,7 +68331,7 @@
         <v>16</v>
       </c>
       <c r="X268" s="4" t="s">
-        <v>1313</v>
+        <v>1304</v>
       </c>
       <c r="Y268" s="43">
         <v>55000279</v>
@@ -68516,7 +68426,7 @@
         <v>0.5557377</v>
       </c>
       <c r="BF268" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="269" spans="1:58" ht="14.25">
@@ -68592,7 +68502,7 @@
         <v>9</v>
       </c>
       <c r="X269" s="4" t="s">
-        <v>1314</v>
+        <v>1305</v>
       </c>
       <c r="Y269" s="43">
         <v>55000272</v>
@@ -68687,7 +68597,7 @@
         <v>0.4606557</v>
       </c>
       <c r="BF269" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="270" spans="1:58" ht="14.25">
@@ -68763,7 +68673,7 @@
         <v>16</v>
       </c>
       <c r="X270" s="4" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
       <c r="Y270" s="43">
         <v>55000030</v>
@@ -68858,7 +68768,7 @@
         <v>0.58688530000000005</v>
       </c>
       <c r="BF270" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="271" spans="1:58" ht="14.25">
@@ -68934,7 +68844,7 @@
         <v>40</v>
       </c>
       <c r="X271" s="4" t="s">
-        <v>1315</v>
+        <v>1306</v>
       </c>
       <c r="Y271" s="43">
         <v>55000019</v>
@@ -69037,7 +68947,7 @@
         <v>0.81147539999999996</v>
       </c>
       <c r="BF271" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="272" spans="1:58" ht="14.25">
@@ -69113,7 +69023,7 @@
         <v>31</v>
       </c>
       <c r="X272" s="4" t="s">
-        <v>1316</v>
+        <v>1307</v>
       </c>
       <c r="Y272" s="43">
         <v>55000275</v>
@@ -69216,7 +69126,7 @@
         <v>0.77213109999999996</v>
       </c>
       <c r="BF272" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="273" spans="1:58" ht="14.25">
@@ -69289,10 +69199,10 @@
         <v>12</v>
       </c>
       <c r="W273" s="4" t="s">
-        <v>1253</v>
+        <v>1246</v>
       </c>
       <c r="X273" s="4" t="s">
-        <v>1317</v>
+        <v>1308</v>
       </c>
       <c r="Y273" s="43">
         <v>55000136</v>
@@ -69395,7 +69305,7 @@
         <v>0.83442620000000001</v>
       </c>
       <c r="BF273" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="274" spans="1:58" ht="14.25">
@@ -69471,7 +69381,7 @@
         <v>0</v>
       </c>
       <c r="X274" s="4" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="Y274" s="43">
         <v>55000342</v>
@@ -69566,7 +69476,7 @@
         <v>0.12950819999999999</v>
       </c>
       <c r="BF274" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="275" spans="1:58" ht="14.25">
@@ -69642,7 +69552,7 @@
         <v>277</v>
       </c>
       <c r="X275" s="4" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="Y275" s="43">
         <v>55000278</v>
@@ -69741,7 +69651,7 @@
         <v>0.40655740000000001</v>
       </c>
       <c r="BF275" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="276" spans="1:58" ht="14.25">
@@ -69817,7 +69727,7 @@
         <v>22</v>
       </c>
       <c r="X276" s="4" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
       <c r="Y276" s="43">
         <v>55000038</v>
@@ -69912,7 +69822,7 @@
         <v>0.67049179999999997</v>
       </c>
       <c r="BF276" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="277" spans="1:58" ht="14.25">
@@ -69988,7 +69898,7 @@
         <v>78</v>
       </c>
       <c r="X277" s="4" t="s">
-        <v>1352</v>
+        <v>1342</v>
       </c>
       <c r="Y277" s="43">
         <v>55000150</v>
@@ -70083,7 +69993,7 @@
         <v>0.48196719999999998</v>
       </c>
       <c r="BF277" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="278" spans="1:58" ht="14.25">
@@ -70159,7 +70069,7 @@
         <v>4</v>
       </c>
       <c r="X278" s="4" t="s">
-        <v>1318</v>
+        <v>1309</v>
       </c>
       <c r="Y278" s="43">
         <v>55000136</v>
@@ -70254,7 +70164,7 @@
         <v>0.52295080000000005</v>
       </c>
       <c r="BF278" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="279" spans="1:58" ht="14.25">
@@ -70330,7 +70240,7 @@
         <v>4</v>
       </c>
       <c r="X279" s="7" t="s">
-        <v>1319</v>
+        <v>1310</v>
       </c>
       <c r="Y279" s="43">
         <v>55000282</v>
@@ -70425,7 +70335,7 @@
         <v>0.10983610000000001</v>
       </c>
       <c r="BF279" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="280" spans="1:58" ht="14.25">
@@ -70501,7 +70411,7 @@
         <v>16</v>
       </c>
       <c r="X280" s="4" t="s">
-        <v>1353</v>
+        <v>1343</v>
       </c>
       <c r="Y280" s="43">
         <v>55000120</v>
@@ -70596,7 +70506,7 @@
         <v>0.50655740000000005</v>
       </c>
       <c r="BF280" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="281" spans="1:58" ht="14.25">
@@ -70672,7 +70582,7 @@
         <v>9</v>
       </c>
       <c r="X281" s="4" t="s">
-        <v>1320</v>
+        <v>1311</v>
       </c>
       <c r="Y281" s="43">
         <v>55000285</v>
@@ -70767,7 +70677,7 @@
         <v>5.5737700000000001E-2</v>
       </c>
       <c r="BF281" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="282" spans="1:58" ht="14.25">
@@ -70843,7 +70753,7 @@
         <v>6</v>
       </c>
       <c r="X282" s="4" t="s">
-        <v>1320</v>
+        <v>1311</v>
       </c>
       <c r="Y282" s="43">
         <v>55000285</v>
@@ -70938,7 +70848,7 @@
         <v>0.14590159999999999</v>
       </c>
       <c r="BF282" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="283" spans="1:58" ht="14.25">
@@ -71014,7 +70924,7 @@
         <v>16</v>
       </c>
       <c r="X283" s="4" t="s">
-        <v>1320</v>
+        <v>1311</v>
       </c>
       <c r="Y283" s="43">
         <v>55000285</v>
@@ -71109,7 +71019,7 @@
         <v>0.1245902</v>
       </c>
       <c r="BF283" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="284" spans="1:58" ht="14.25">
@@ -71185,7 +71095,7 @@
         <v>6</v>
       </c>
       <c r="X284" s="4" t="s">
-        <v>1354</v>
+        <v>1344</v>
       </c>
       <c r="Y284" s="43">
         <v>55000287</v>
@@ -71280,7 +71190,7 @@
         <v>0.90163930000000003</v>
       </c>
       <c r="BF284" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="285" spans="1:58" ht="14.25">
@@ -71356,7 +71266,7 @@
         <v>16</v>
       </c>
       <c r="X285" s="4" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
       <c r="Y285" s="43">
         <v>55000289</v>
@@ -71451,7 +71361,7 @@
         <v>0.91311469999999995</v>
       </c>
       <c r="BF285" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="286" spans="1:58" ht="14.25">
@@ -71478,16 +71388,16 @@
       </c>
       <c r="H286" s="4">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I286" s="4">
         <v>1</v>
       </c>
       <c r="J286" s="4">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="K286" s="4">
-        <v>15</v>
+        <v>-5</v>
       </c>
       <c r="L286" s="4">
         <v>-3</v>
@@ -71515,7 +71425,7 @@
       </c>
       <c r="T286" s="15">
         <f t="shared" si="17"/>
-        <v>37</v>
+        <v>-8</v>
       </c>
       <c r="U286" s="4">
         <v>10</v>
@@ -71526,15 +71436,9 @@
       <c r="W286" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="X286" s="4" t="s">
-        <v>1197</v>
-      </c>
-      <c r="Y286" s="43">
-        <v>55010029</v>
-      </c>
-      <c r="Z286" s="21">
-        <v>100</v>
-      </c>
+      <c r="X286" s="4"/>
+      <c r="Y286" s="43"/>
+      <c r="Z286" s="21"/>
       <c r="AA286" s="21"/>
       <c r="AB286" s="21"/>
       <c r="AC286" s="21"/>
@@ -71549,7 +71453,7 @@
 IF(ISBLANK($AC286),0, LOOKUP($AC286,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AD286/100)+
 IF(ISBLANK($AE286),0, LOOKUP($AE286,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AF286/100)+
 IF(ISBLANK($AG286),0, LOOKUP($AG286,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AH286/100)</f>
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="AJ286" s="21">
         <v>0</v>
@@ -71618,7 +71522,7 @@
         <v>0.2262295</v>
       </c>
       <c r="BF286" s="22" t="s">
-        <v>1256</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="287" spans="1:58" ht="14.25">
@@ -71694,7 +71598,7 @@
         <v>16</v>
       </c>
       <c r="X287" s="4" t="s">
-        <v>1355</v>
+        <v>1345</v>
       </c>
       <c r="Y287" s="43">
         <v>55000286</v>
@@ -71789,7 +71693,7 @@
         <v>0.74754100000000001</v>
       </c>
       <c r="BF287" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="288" spans="1:58" ht="14.25">
@@ -71865,7 +71769,7 @@
         <v>9</v>
       </c>
       <c r="X288" s="4" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
       <c r="Y288" s="43">
         <v>55000292</v>
@@ -71960,7 +71864,7 @@
         <v>0.33934429999999999</v>
       </c>
       <c r="BF288" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="289" spans="1:58" ht="14.25">
@@ -72036,7 +71940,7 @@
         <v>100</v>
       </c>
       <c r="X289" s="4" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
       <c r="Y289" s="43">
         <v>55000293</v>
@@ -72131,7 +72035,7 @@
         <v>8.6885240000000002E-2</v>
       </c>
       <c r="BF289" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="290" spans="1:58" ht="14.25">
@@ -72207,7 +72111,7 @@
         <v>16</v>
       </c>
       <c r="X290" s="4" t="s">
-        <v>1198</v>
+        <v>1191</v>
       </c>
       <c r="Y290" s="43">
         <v>55000284</v>
@@ -72298,7 +72202,7 @@
         <v>0.3327869</v>
       </c>
       <c r="BF290" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="291" spans="1:58" ht="14.25">
@@ -72374,7 +72278,7 @@
         <v>78</v>
       </c>
       <c r="X291" s="4" t="s">
-        <v>1199</v>
+        <v>1192</v>
       </c>
       <c r="Y291" s="43">
         <v>55000246</v>
@@ -72469,7 +72373,7 @@
         <v>0.72786890000000004</v>
       </c>
       <c r="BF291" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="292" spans="1:58" ht="14.25">
@@ -72545,7 +72449,7 @@
         <v>22</v>
       </c>
       <c r="X292" s="4" t="s">
-        <v>1200</v>
+        <v>1193</v>
       </c>
       <c r="Y292" s="43">
         <v>55000037</v>
@@ -72640,7 +72544,7 @@
         <v>0.7</v>
       </c>
       <c r="BF292" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="293" spans="1:58" ht="14.25">
@@ -72716,7 +72620,7 @@
         <v>9</v>
       </c>
       <c r="X293" s="4" t="s">
-        <v>1201</v>
+        <v>1194</v>
       </c>
       <c r="Y293" s="43">
         <v>55000296</v>
@@ -72807,7 +72711,7 @@
         <v>8.1967209999999999E-2</v>
       </c>
       <c r="BF293" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="294" spans="1:58" ht="14.25">
@@ -72883,7 +72787,7 @@
         <v>16</v>
       </c>
       <c r="X294" s="4" t="s">
-        <v>1202</v>
+        <v>1195</v>
       </c>
       <c r="Y294" s="43">
         <v>55000015</v>
@@ -72986,7 +72890,7 @@
         <v>0.8180328</v>
       </c>
       <c r="BF294" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="295" spans="1:58" ht="14.25">
@@ -73062,7 +72966,7 @@
         <v>1002</v>
       </c>
       <c r="X295" s="4" t="s">
-        <v>1203</v>
+        <v>1196</v>
       </c>
       <c r="Y295" s="43">
         <v>55000332</v>
@@ -73153,7 +73057,7 @@
         <v>0.34426230000000002</v>
       </c>
       <c r="BF295" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="296" spans="1:58" ht="14.25">
@@ -73229,7 +73133,7 @@
         <v>2</v>
       </c>
       <c r="X296" s="4" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="Y296" s="43">
         <v>55000333</v>
@@ -73324,7 +73228,7 @@
         <v>0.29836059999999998</v>
       </c>
       <c r="BF296" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="297" spans="1:58" ht="14.25">
@@ -73400,7 +73304,7 @@
         <v>45</v>
       </c>
       <c r="X297" s="4" t="s">
-        <v>1205</v>
+        <v>1198</v>
       </c>
       <c r="Y297" s="43">
         <v>55000045</v>
@@ -73503,7 +73407,7 @@
         <v>0.50983610000000001</v>
       </c>
       <c r="BF297" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="298" spans="1:58" ht="14.25">
@@ -73579,7 +73483,7 @@
         <v>2</v>
       </c>
       <c r="X298" s="7" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="Y298" s="43">
         <v>55000046</v>
@@ -73674,7 +73578,7 @@
         <v>0.2377049</v>
       </c>
       <c r="BF298" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="299" spans="1:58" ht="14.25">
@@ -73750,7 +73654,7 @@
         <v>22</v>
       </c>
       <c r="X299" s="4" t="s">
-        <v>1207</v>
+        <v>1200</v>
       </c>
       <c r="Y299" s="43">
         <v>55000047</v>
@@ -73845,7 +73749,7 @@
         <v>0.80983609999999995</v>
       </c>
       <c r="BF299" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="300" spans="1:58" ht="14.25">
@@ -73921,7 +73825,7 @@
         <v>22</v>
       </c>
       <c r="X300" s="4" t="s">
-        <v>1208</v>
+        <v>1201</v>
       </c>
       <c r="Y300" s="43">
         <v>55000107</v>
@@ -74016,7 +73920,7 @@
         <v>0.81967210000000001</v>
       </c>
       <c r="BF300" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="301" spans="1:58" ht="14.25">
@@ -74092,7 +73996,7 @@
         <v>111</v>
       </c>
       <c r="X301" s="4" t="s">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="Y301" s="43">
         <v>55000013</v>
@@ -74199,7 +74103,7 @@
         <v>0.75409839999999995</v>
       </c>
       <c r="BF301" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="302" spans="1:58" ht="14.25">
@@ -74275,7 +74179,7 @@
         <v>209</v>
       </c>
       <c r="X302" s="4" t="s">
-        <v>1210</v>
+        <v>1203</v>
       </c>
       <c r="Y302" s="43">
         <v>55000335</v>
@@ -74374,7 +74278,7 @@
         <v>0.33442620000000001</v>
       </c>
       <c r="BF302" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="303" spans="1:58" ht="14.25">
@@ -74450,7 +74354,7 @@
         <v>78</v>
       </c>
       <c r="X303" s="11" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="Y303" s="43">
         <v>55000340</v>
@@ -74545,7 +74449,7 @@
         <v>0.1065574</v>
       </c>
       <c r="BF303" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="304" spans="1:58" ht="14.25">
@@ -74621,7 +74525,7 @@
         <v>6</v>
       </c>
       <c r="X304" s="11" t="s">
-        <v>1212</v>
+        <v>1205</v>
       </c>
       <c r="Y304" s="43">
         <v>55000341</v>
@@ -74712,7 +74616,7 @@
         <v>0.19508200000000001</v>
       </c>
       <c r="BF304" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="305" spans="1:58" ht="14.25">
@@ -74788,7 +74692,7 @@
         <v>6</v>
       </c>
       <c r="X305" s="11" t="s">
-        <v>1212</v>
+        <v>1205</v>
       </c>
       <c r="Y305" s="43">
         <v>55000341</v>
@@ -74879,7 +74783,7 @@
         <v>0.3885246</v>
       </c>
       <c r="BF305" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="306" spans="1:58" ht="14.25">
@@ -74955,7 +74859,7 @@
         <v>78</v>
       </c>
       <c r="X306" s="11" t="s">
-        <v>1213</v>
+        <v>1206</v>
       </c>
       <c r="Y306" s="43">
         <v>55000341</v>
@@ -75050,7 +74954,7 @@
         <v>0.51967220000000003</v>
       </c>
       <c r="BF306" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="307" spans="1:58" ht="14.25">
@@ -75126,7 +75030,7 @@
         <v>0</v>
       </c>
       <c r="X307" s="11" t="s">
-        <v>1214</v>
+        <v>1207</v>
       </c>
       <c r="Y307" s="43">
         <v>55000343</v>
@@ -75217,7 +75121,7 @@
         <v>0.49672129999999998</v>
       </c>
       <c r="BF307" s="22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="308" spans="1:58" ht="14.25">
@@ -75244,22 +75148,22 @@
       </c>
       <c r="H308" s="11">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I308" s="11">
         <v>6</v>
       </c>
       <c r="J308" s="11">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="K308" s="11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L308" s="11">
-        <v>-3</v>
+        <v>-9</v>
       </c>
       <c r="M308" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N308" s="4">
         <v>0</v>
@@ -75281,7 +75185,7 @@
       </c>
       <c r="T308" s="24">
         <f t="shared" si="17"/>
-        <v>13</v>
+        <v>-7</v>
       </c>
       <c r="U308" s="4">
         <v>10</v>
@@ -75378,7 +75282,7 @@
         <v>0.49672129999999998</v>
       </c>
       <c r="BF308" s="22" t="s">
-        <v>1256</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="309" spans="1:58" ht="14.25">
@@ -75405,19 +75309,19 @@
       </c>
       <c r="H309" s="11">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I309" s="11">
         <v>7</v>
       </c>
       <c r="J309" s="11">
-        <v>17</v>
+        <v>-4</v>
       </c>
       <c r="K309" s="11">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="L309" s="11">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="M309" s="4">
         <v>0</v>
@@ -75435,14 +75339,14 @@
         <v>0</v>
       </c>
       <c r="R309" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S309" s="4">
         <v>0</v>
       </c>
       <c r="T309" s="24">
         <f t="shared" si="17"/>
-        <v>9</v>
+        <v>-4</v>
       </c>
       <c r="U309" s="4">
         <v>10</v>
@@ -75539,7 +75443,7 @@
         <v>0.49672129999999998</v>
       </c>
       <c r="BF309" s="22" t="s">
-        <v>1256</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="310" spans="1:58" ht="14.25">
@@ -75566,16 +75470,16 @@
       </c>
       <c r="H310" s="11">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" s="11">
         <v>4</v>
       </c>
       <c r="J310" s="11">
-        <v>6</v>
+        <v>-4</v>
       </c>
       <c r="K310" s="11">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="L310" s="11">
         <v>-3</v>
@@ -75603,7 +75507,7 @@
       </c>
       <c r="T310" s="24">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>-5</v>
       </c>
       <c r="U310" s="4">
         <v>10</v>
@@ -75700,7 +75604,7 @@
         <v>0.49672129999999998</v>
       </c>
       <c r="BF310" s="22" t="s">
-        <v>1256</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="311" spans="1:58" ht="14.25">
@@ -75727,19 +75631,19 @@
       </c>
       <c r="H311" s="11">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I311" s="11">
         <v>6</v>
       </c>
       <c r="J311" s="11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K311" s="11">
-        <v>7</v>
+        <v>-3</v>
       </c>
       <c r="L311" s="11">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="M311" s="4">
         <v>0</v>
@@ -75764,7 +75668,7 @@
       </c>
       <c r="T311" s="24">
         <f t="shared" si="17"/>
-        <v>10</v>
+        <v>-6</v>
       </c>
       <c r="U311" s="4">
         <v>10</v>
@@ -75861,7 +75765,7 @@
         <v>0.49672129999999998</v>
       </c>
       <c r="BF311" s="22" t="s">
-        <v>1256</v>
+        <v>1407</v>
       </c>
     </row>
   </sheetData>
@@ -75906,10 +75810,10 @@
   <dimension ref="A1:BF9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="AG4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -75962,7 +75866,7 @@
         <v>315</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>1412</v>
+        <v>1401</v>
       </c>
       <c r="I1" s="17" t="s">
         <v>977</v>
@@ -75977,34 +75881,34 @@
         <v>972</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>1225</v>
+        <v>1218</v>
       </c>
       <c r="N1" s="17" t="s">
-        <v>1228</v>
+        <v>1221</v>
       </c>
       <c r="O1" s="17" t="s">
-        <v>1231</v>
+        <v>1224</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>1239</v>
+        <v>1232</v>
       </c>
       <c r="Q1" s="17" t="s">
-        <v>1241</v>
+        <v>1234</v>
       </c>
       <c r="R1" s="17" t="s">
-        <v>1236</v>
+        <v>1229</v>
       </c>
       <c r="S1" s="17" t="s">
-        <v>1234</v>
+        <v>1227</v>
       </c>
       <c r="T1" s="40" t="s">
         <v>974</v>
       </c>
       <c r="U1" s="17" t="s">
-        <v>1220</v>
+        <v>1213</v>
       </c>
       <c r="V1" s="17" t="s">
-        <v>1221</v>
+        <v>1214</v>
       </c>
       <c r="W1" s="17" t="s">
         <v>323</v>
@@ -76013,82 +75917,82 @@
         <v>325</v>
       </c>
       <c r="Y1" s="44" t="s">
+        <v>1369</v>
+      </c>
+      <c r="Z1" s="44" t="s">
+        <v>1372</v>
+      </c>
+      <c r="AA1" s="44" t="s">
+        <v>1373</v>
+      </c>
+      <c r="AB1" s="44" t="s">
+        <v>1374</v>
+      </c>
+      <c r="AC1" s="44" t="s">
+        <v>1375</v>
+      </c>
+      <c r="AD1" s="44" t="s">
+        <v>1376</v>
+      </c>
+      <c r="AE1" s="44" t="s">
+        <v>1377</v>
+      </c>
+      <c r="AF1" s="44" t="s">
+        <v>1378</v>
+      </c>
+      <c r="AG1" s="44" t="s">
+        <v>1379</v>
+      </c>
+      <c r="AH1" s="44" t="s">
         <v>1380</v>
       </c>
-      <c r="Z1" s="44" t="s">
-        <v>1383</v>
-      </c>
-      <c r="AA1" s="44" t="s">
-        <v>1384</v>
-      </c>
-      <c r="AB1" s="44" t="s">
-        <v>1385</v>
-      </c>
-      <c r="AC1" s="44" t="s">
-        <v>1386</v>
-      </c>
-      <c r="AD1" s="44" t="s">
-        <v>1387</v>
-      </c>
-      <c r="AE1" s="44" t="s">
-        <v>1388</v>
-      </c>
-      <c r="AF1" s="44" t="s">
-        <v>1389</v>
-      </c>
-      <c r="AG1" s="44" t="s">
+      <c r="AI1" s="44" t="s">
         <v>1390</v>
       </c>
-      <c r="AH1" s="44" t="s">
+      <c r="AJ1" s="17" t="s">
         <v>1391</v>
       </c>
-      <c r="AI1" s="44" t="s">
-        <v>1401</v>
-      </c>
-      <c r="AJ1" s="17" t="s">
-        <v>1402</v>
-      </c>
       <c r="AK1" s="17" t="s">
-        <v>1403</v>
+        <v>1392</v>
       </c>
       <c r="AL1" s="17" t="s">
-        <v>1404</v>
+        <v>1393</v>
       </c>
       <c r="AM1" s="17" t="s">
-        <v>1405</v>
+        <v>1394</v>
       </c>
       <c r="AN1" s="17" t="s">
-        <v>1406</v>
+        <v>1395</v>
       </c>
       <c r="AO1" s="17" t="s">
-        <v>1259</v>
+        <v>1252</v>
       </c>
       <c r="AP1" s="47" t="s">
+        <v>1350</v>
+      </c>
+      <c r="AQ1" s="47" t="s">
+        <v>1353</v>
+      </c>
+      <c r="AR1" s="47" t="s">
+        <v>1355</v>
+      </c>
+      <c r="AS1" s="47" t="s">
+        <v>1357</v>
+      </c>
+      <c r="AT1" s="47" t="s">
+        <v>1359</v>
+      </c>
+      <c r="AU1" s="47" t="s">
         <v>1361</v>
       </c>
-      <c r="AQ1" s="47" t="s">
-        <v>1364</v>
-      </c>
-      <c r="AR1" s="47" t="s">
-        <v>1366</v>
-      </c>
-      <c r="AS1" s="47" t="s">
-        <v>1368</v>
-      </c>
-      <c r="AT1" s="47" t="s">
-        <v>1370</v>
-      </c>
-      <c r="AU1" s="47" t="s">
-        <v>1372</v>
-      </c>
       <c r="AV1" s="47" t="s">
-        <v>1374</v>
+        <v>1363</v>
       </c>
       <c r="AW1" s="47" t="s">
-        <v>1376</v>
+        <v>1365</v>
       </c>
       <c r="AX1" s="47" t="s">
-        <v>1378</v>
+        <v>1367</v>
       </c>
       <c r="AY1" s="48" t="s">
         <v>1027</v>
@@ -76138,7 +76042,7 @@
         <v>295</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>1413</v>
+        <v>1402</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>295</v>
@@ -76156,7 +76060,7 @@
         <v>295</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1229</v>
+        <v>1222</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>295</v>
@@ -76314,7 +76218,7 @@
         <v>1033</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>1414</v>
+        <v>1403</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>979</v>
@@ -76329,34 +76233,34 @@
         <v>973</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>1227</v>
+        <v>1220</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>1230</v>
+        <v>1223</v>
       </c>
       <c r="O3" s="6" t="s">
+        <v>1226</v>
+      </c>
+      <c r="P3" s="6" t="s">
         <v>1233</v>
       </c>
-      <c r="P3" s="6" t="s">
-        <v>1240</v>
-      </c>
       <c r="Q3" s="6" t="s">
-        <v>1242</v>
+        <v>1235</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>1238</v>
+        <v>1231</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>1235</v>
+        <v>1228</v>
       </c>
       <c r="T3" s="42" t="s">
         <v>975</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>1223</v>
+        <v>1216</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>1224</v>
+        <v>1217</v>
       </c>
       <c r="W3" s="6" t="s">
         <v>306</v>
@@ -76365,82 +76269,82 @@
         <v>308</v>
       </c>
       <c r="Y3" s="46" t="s">
+        <v>1370</v>
+      </c>
+      <c r="Z3" s="46" t="s">
+        <v>1371</v>
+      </c>
+      <c r="AA3" s="46" t="s">
         <v>1381</v>
       </c>
-      <c r="Z3" s="46" t="s">
+      <c r="AB3" s="46" t="s">
         <v>1382</v>
       </c>
-      <c r="AA3" s="46" t="s">
-        <v>1392</v>
-      </c>
-      <c r="AB3" s="46" t="s">
-        <v>1393</v>
-      </c>
       <c r="AC3" s="46" t="s">
-        <v>1394</v>
+        <v>1383</v>
       </c>
       <c r="AD3" s="46" t="s">
-        <v>1395</v>
+        <v>1384</v>
       </c>
       <c r="AE3" s="46" t="s">
+        <v>1385</v>
+      </c>
+      <c r="AF3" s="46" t="s">
+        <v>1386</v>
+      </c>
+      <c r="AG3" s="46" t="s">
+        <v>1387</v>
+      </c>
+      <c r="AH3" s="46" t="s">
+        <v>1388</v>
+      </c>
+      <c r="AI3" s="46" t="s">
+        <v>1389</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
         <v>1396</v>
       </c>
-      <c r="AF3" s="46" t="s">
+      <c r="AK3" s="6" t="s">
         <v>1397</v>
       </c>
-      <c r="AG3" s="46" t="s">
+      <c r="AL3" s="6" t="s">
         <v>1398</v>
       </c>
-      <c r="AH3" s="46" t="s">
+      <c r="AM3" s="6" t="s">
         <v>1399</v>
       </c>
-      <c r="AI3" s="46" t="s">
+      <c r="AN3" s="6" t="s">
         <v>1400</v>
       </c>
-      <c r="AJ3" s="6" t="s">
-        <v>1407</v>
-      </c>
-      <c r="AK3" s="6" t="s">
-        <v>1408</v>
-      </c>
-      <c r="AL3" s="6" t="s">
-        <v>1409</v>
-      </c>
-      <c r="AM3" s="6" t="s">
-        <v>1410</v>
-      </c>
-      <c r="AN3" s="6" t="s">
-        <v>1411</v>
-      </c>
       <c r="AO3" s="6" t="s">
-        <v>1258</v>
+        <v>1251</v>
       </c>
       <c r="AP3" s="51" t="s">
-        <v>1363</v>
+        <v>1352</v>
       </c>
       <c r="AQ3" s="52" t="s">
-        <v>1365</v>
+        <v>1354</v>
       </c>
       <c r="AR3" s="52" t="s">
-        <v>1367</v>
+        <v>1356</v>
       </c>
       <c r="AS3" s="52" t="s">
-        <v>1369</v>
+        <v>1358</v>
       </c>
       <c r="AT3" s="52" t="s">
-        <v>1371</v>
+        <v>1360</v>
       </c>
       <c r="AU3" s="52" t="s">
-        <v>1373</v>
+        <v>1362</v>
       </c>
       <c r="AV3" s="52" t="s">
-        <v>1375</v>
+        <v>1364</v>
       </c>
       <c r="AW3" s="52" t="s">
-        <v>1377</v>
+        <v>1366</v>
       </c>
       <c r="AX3" s="52" t="s">
-        <v>1379</v>
+        <v>1368</v>
       </c>
       <c r="AY3" s="42" t="s">
         <v>1028</v>
@@ -76490,7 +76394,7 @@
         <v>7</v>
       </c>
       <c r="H4" s="4">
-        <f t="shared" ref="H4:H9" si="0">IF(T4&gt;10,5,IF(T4&gt;4,4,IF(T4&gt;2,3,IF(T4&gt;0,2,IF(T4&gt;-2.5,1,IF(T4&gt;-10,0,6))))))</f>
+        <f t="shared" ref="H4:H9" si="0">IF(T4&gt;10,5,IF(T4&gt;5,4,IF(T4&gt;2.5,3,IF(T4&gt;0,2,IF(T4&gt;-2.5,1,IF(T4&gt;-10,0,6))))))</f>
         <v>6</v>
       </c>
       <c r="I4" s="11">
@@ -76957,13 +76861,13 @@
         <v>51018001</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>1219</v>
+        <v>1212</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>1217</v>
+        <v>1210</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>1218</v>
+        <v>1211</v>
       </c>
       <c r="E7" s="11">
         <v>1</v>
@@ -77276,10 +77180,10 @@
     </row>
     <row r="9" spans="1:58" ht="14.25">
       <c r="A9" t="s">
-        <v>1216</v>
+        <v>1209</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>1215</v>
+        <v>1208</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>1030</v>
@@ -77440,31 +77344,31 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="K4:K9">
-    <cfRule type="cellIs" dxfId="66" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="67" priority="7" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="cellIs" dxfId="65" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="66" priority="6" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:J7">
-    <cfRule type="cellIs" dxfId="64" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="65" priority="5" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="cellIs" dxfId="63" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="64" priority="4" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="62" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="63" priority="3" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>

--- a/ConfigData/Xlsx/Monster.xlsx
+++ b/ConfigData/Xlsx/Monster.xlsx
@@ -649,7 +649,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2227" uniqueCount="1409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2226" uniqueCount="1407">
   <si>
     <t>arrow</t>
   </si>
@@ -4068,9 +4068,6 @@
     <t>55000103;100|55000240;15|55010025;100</t>
   </si>
   <si>
-    <t>55000060;100|55000093;25|55010005;100|55010019;100|55010028;100</t>
-  </si>
-  <si>
     <t>55000088;100|55000104;100</t>
   </si>
   <si>
@@ -4140,15 +4137,6 @@
     <t>55000017;100|55000039;12|55000082;40|55010007;100</t>
   </si>
   <si>
-    <t>55000135;100|55010005;100|55010019;100|55010028;100</t>
-  </si>
-  <si>
-    <t>55000135;100|55000136;60|55010005;100|55010019;100|55010028;100</t>
-  </si>
-  <si>
-    <t>55000038;30|55010005;100|55010019;100|55010025;100|55010028;100</t>
-  </si>
-  <si>
     <t>55000143;25|55010004;100</t>
   </si>
   <si>
@@ -4278,9 +4266,6 @@
     <t>55000125;100|55010009;100</t>
   </si>
   <si>
-    <t>55000089;70|55010005;100|55010019;100</t>
-  </si>
-  <si>
     <t>55000074;100|55000131;40</t>
   </si>
   <si>
@@ -4342,9 +4327,6 @@
   </si>
   <si>
     <t>55000222;100|55000254;40|55010030;100</t>
-  </si>
-  <si>
-    <t>55000160;15|55000245;15|55010019;100|55010028;100</t>
   </si>
   <si>
     <t>55000093;40|55000224;100|55010015;100</t>
@@ -4645,10 +4627,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>基本/未完成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>基本</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -4679,21 +4657,12 @@
     <t>55000002;100|55000048;100|55000275;100</t>
   </si>
   <si>
-    <t>55000030;100|55010018;100</t>
-  </si>
-  <si>
-    <t>55010017;100|55010018;100</t>
-  </si>
-  <si>
     <t>55000064;100|55010016;100</t>
   </si>
   <si>
     <t>55000087;30|55010012;100</t>
   </si>
   <si>
-    <t>55000108;100|55000109;100|55010019;100|55010028;100</t>
-  </si>
-  <si>
     <t>55000111;40|55010009;100</t>
   </si>
   <si>
@@ -4748,9 +4717,6 @@
     <t>55000150;100|55010013;100</t>
   </si>
   <si>
-    <t>55000167;40|55000279;40|55010019;100</t>
-  </si>
-  <si>
     <t>55000094;8|55000150;100</t>
   </si>
   <si>
@@ -4772,18 +4738,12 @@
     <t>55000150;100|55000204;100</t>
   </si>
   <si>
-    <t>55000003;100|55000205;100|55010019;100|55010028;100</t>
-  </si>
-  <si>
     <t>55000207;50|55000187;100</t>
   </si>
   <si>
     <t>55000120;30|55010012;100</t>
   </si>
   <si>
-    <t>55000103;100|55000210;10|55010019;100|55010028;100</t>
-  </si>
-  <si>
     <t>55000114;30|55000211;100|55000212;100|55000233;100|55010007;100|55010028;100</t>
   </si>
   <si>
@@ -4793,9 +4753,6 @@
     <t>55000101;100|55010013;100</t>
   </si>
   <si>
-    <t>55000218;100|55010018;100</t>
-  </si>
-  <si>
     <t>55000225;100|55010016;100</t>
   </si>
   <si>
@@ -4815,9 +4772,6 @@
   </si>
   <si>
     <t>55000279;25|55010003;100</t>
-  </si>
-  <si>
-    <t>55000272;25|55010018;100</t>
   </si>
   <si>
     <t>55000019;100|55000273;15|55000340;100|55010010;100</t>
@@ -5265,10 +5219,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>55010018;100</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>基本</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -5282,6 +5232,62 @@
   </si>
   <si>
     <t>基本</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>55010017;100</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>55000030;100</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>55000218;100</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>55000272;25</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>55000060;100|55000093;25|55010005;100|55010028;100</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>55000108;100|55000109;100|55010028;100</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>55000167;40|55000279;40</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>55000160;15|55000245;15|55010028;100</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>55000089;70|55010005;100</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>55000135;100|55010005;100|55010028;100</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>55000135;100|55000136;60|55010005;100|55010028;100</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>55000003;100|55000205;100|55010028;100</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>55000038;30|55010005;100|55010025;100|55010028;100</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>55000103;100|55000210;10|55010028;100</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -6348,59 +6354,91 @@
   <dxfs count="132">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
+        <color rgb="FF006100"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
+        <color rgb="FF006100"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -7559,6 +7597,34 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -7776,66 +7842,6 @@
         <patternFill patternType="solid">
           <fgColor theme="4"/>
           <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -8981,6 +8987,34 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -9193,34 +9227,6 @@
           <bgColor theme="4"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -9519,11 +9525,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="915929408"/>
-        <c:axId val="915935392"/>
+        <c:axId val="-1601500704"/>
+        <c:axId val="-1601500160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="915929408"/>
+        <c:axId val="-1601500704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9566,7 +9572,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="915935392"/>
+        <c:crossAx val="-1601500160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9574,7 +9580,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="915935392"/>
+        <c:axId val="-1601500160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9625,7 +9631,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="915929408"/>
+        <c:crossAx val="-1601500704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12723,10 +12729,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -21756,175 +21762,175 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:BF311" totalsRowShown="0" headerRowDxfId="127" dataDxfId="126" tableBorderDxfId="125">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:BF311" totalsRowShown="0" headerRowDxfId="131" dataDxfId="130" tableBorderDxfId="129">
   <autoFilter ref="A3:BF311"/>
   <sortState ref="A4:AF311">
     <sortCondition ref="A3:A311"/>
   </sortState>
   <tableColumns count="58">
-    <tableColumn id="1" name="Id" dataDxfId="124"/>
-    <tableColumn id="2" name="Name" dataDxfId="123"/>
-    <tableColumn id="22" name="Ename" dataDxfId="122"/>
-    <tableColumn id="23" name="EnameShort" dataDxfId="121"/>
-    <tableColumn id="3" name="Star" dataDxfId="120"/>
-    <tableColumn id="4" name="Type" dataDxfId="119"/>
-    <tableColumn id="5" name="Attr" dataDxfId="118"/>
-    <tableColumn id="58" name="Quality" dataDxfId="1">
+    <tableColumn id="1" name="Id" dataDxfId="128"/>
+    <tableColumn id="2" name="Name" dataDxfId="127"/>
+    <tableColumn id="22" name="Ename" dataDxfId="126"/>
+    <tableColumn id="23" name="EnameShort" dataDxfId="125"/>
+    <tableColumn id="3" name="Star" dataDxfId="124"/>
+    <tableColumn id="4" name="Type" dataDxfId="123"/>
+    <tableColumn id="5" name="Attr" dataDxfId="122"/>
+    <tableColumn id="58" name="Quality" dataDxfId="121">
       <calculatedColumnFormula>IF(T4&gt;10,5,IF(T4&gt;5,4,IF(T4&gt;2.5,3,IF(T4&gt;0,2,IF(T4&gt;-2.5,1,IF(T4&gt;-10,0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Cost" dataDxfId="117"/>
-    <tableColumn id="6" name="AtkP" dataDxfId="116"/>
-    <tableColumn id="24" name="VitP" dataDxfId="115"/>
-    <tableColumn id="25" name="Modify" dataDxfId="114"/>
-    <tableColumn id="9" name="Def" dataDxfId="113"/>
-    <tableColumn id="10" name="Mag" dataDxfId="112"/>
-    <tableColumn id="32" name="Spd" dataDxfId="111"/>
-    <tableColumn id="35" name="Hit" dataDxfId="110"/>
-    <tableColumn id="36" name="Dhit" dataDxfId="109"/>
-    <tableColumn id="34" name="Crt" dataDxfId="108"/>
-    <tableColumn id="33" name="Luk" dataDxfId="107"/>
-    <tableColumn id="7" name="Sum" dataDxfId="106">
+    <tableColumn id="12" name="Cost" dataDxfId="120"/>
+    <tableColumn id="6" name="AtkP" dataDxfId="119"/>
+    <tableColumn id="24" name="VitP" dataDxfId="118"/>
+    <tableColumn id="25" name="Modify" dataDxfId="117"/>
+    <tableColumn id="9" name="Def" dataDxfId="116"/>
+    <tableColumn id="10" name="Mag" dataDxfId="115"/>
+    <tableColumn id="32" name="Spd" dataDxfId="114"/>
+    <tableColumn id="35" name="Hit" dataDxfId="113"/>
+    <tableColumn id="36" name="Dhit" dataDxfId="112"/>
+    <tableColumn id="34" name="Crt" dataDxfId="111"/>
+    <tableColumn id="33" name="Luk" dataDxfId="110"/>
+    <tableColumn id="7" name="Sum" dataDxfId="109">
       <calculatedColumnFormula>SUM(J4:K4)+SUM(M4:S4)*5+4.4*SUM(AP4:AX4)+2.5*SUM(AJ4:AN4)+AI4/100+L4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Range" dataDxfId="105"/>
-    <tableColumn id="14" name="Mov" dataDxfId="104"/>
-    <tableColumn id="16" name="Arrow" dataDxfId="103"/>
-    <tableColumn id="18" name="Skills" dataDxfId="102"/>
-    <tableColumn id="42" name="~Skill1" dataDxfId="101"/>
-    <tableColumn id="43" name="~SkillRate1" dataDxfId="100"/>
-    <tableColumn id="44" name="~Skill2" dataDxfId="99"/>
-    <tableColumn id="45" name="~SkillRate2" dataDxfId="98"/>
-    <tableColumn id="46" name="~Skill3" dataDxfId="97"/>
-    <tableColumn id="47" name="~SkillRate3" dataDxfId="96"/>
-    <tableColumn id="48" name="~Skill4" dataDxfId="95"/>
-    <tableColumn id="49" name="~SkillRate4" dataDxfId="94"/>
-    <tableColumn id="50" name="~Skill5" dataDxfId="93"/>
-    <tableColumn id="51" name="~SkillRate5" dataDxfId="92"/>
-    <tableColumn id="54" name="~SkillMark" dataDxfId="91">
+    <tableColumn id="13" name="Range" dataDxfId="108"/>
+    <tableColumn id="14" name="Mov" dataDxfId="107"/>
+    <tableColumn id="16" name="Arrow" dataDxfId="106"/>
+    <tableColumn id="18" name="Skills" dataDxfId="105"/>
+    <tableColumn id="42" name="~Skill1" dataDxfId="104"/>
+    <tableColumn id="43" name="~SkillRate1" dataDxfId="103"/>
+    <tableColumn id="44" name="~Skill2" dataDxfId="102"/>
+    <tableColumn id="45" name="~SkillRate2" dataDxfId="101"/>
+    <tableColumn id="46" name="~Skill3" dataDxfId="100"/>
+    <tableColumn id="47" name="~SkillRate3" dataDxfId="99"/>
+    <tableColumn id="48" name="~Skill4" dataDxfId="98"/>
+    <tableColumn id="49" name="~SkillRate4" dataDxfId="97"/>
+    <tableColumn id="50" name="~Skill5" dataDxfId="96"/>
+    <tableColumn id="51" name="~SkillRate5" dataDxfId="95"/>
+    <tableColumn id="54" name="~SkillMark" dataDxfId="94">
       <calculatedColumnFormula>IF(ISBLANK($Y4),0, LOOKUP($Y4,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$Z4/100)+
 IF(ISBLANK($AA4),0, LOOKUP($AA4,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AB4/100)+
 IF(ISBLANK($AC4),0, LOOKUP($AC4,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AD4/100)+
 IF(ISBLANK($AE4),0, LOOKUP($AE4,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AF4/100)+
 IF(ISBLANK($AG4),0, LOOKUP($AG4,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AH4/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="52" name="~AntiLife" dataDxfId="90"/>
-    <tableColumn id="57" name="~AntiMental" dataDxfId="89"/>
-    <tableColumn id="56" name="~AntiPhysical" dataDxfId="88"/>
-    <tableColumn id="55" name="~AntiElement" dataDxfId="87"/>
-    <tableColumn id="53" name="~AntiHelp" dataDxfId="86"/>
-    <tableColumn id="30" name="BuffImmune" dataDxfId="85">
+    <tableColumn id="52" name="~AntiLife" dataDxfId="93"/>
+    <tableColumn id="57" name="~AntiMental" dataDxfId="92"/>
+    <tableColumn id="56" name="~AntiPhysical" dataDxfId="91"/>
+    <tableColumn id="55" name="~AntiElement" dataDxfId="90"/>
+    <tableColumn id="53" name="~AntiHelp" dataDxfId="89"/>
+    <tableColumn id="30" name="BuffImmune" dataDxfId="88">
       <calculatedColumnFormula>CONCATENATE(AJ4,";",AK4,";",AL4,";",AM4,";",AN4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="~AntiNull" dataDxfId="84"/>
-    <tableColumn id="11" name="~AntiWater" dataDxfId="83"/>
-    <tableColumn id="26" name="~AntiWind" dataDxfId="82"/>
-    <tableColumn id="27" name="~AntiFire" dataDxfId="81"/>
-    <tableColumn id="37" name="~AntiEarth" dataDxfId="80"/>
-    <tableColumn id="38" name="~AntiIce" dataDxfId="79"/>
-    <tableColumn id="39" name="~AntiThunder" dataDxfId="78"/>
-    <tableColumn id="40" name="~AntiLight" dataDxfId="77"/>
-    <tableColumn id="41" name="~AntiDark" dataDxfId="76"/>
-    <tableColumn id="31" name="AttrDef" dataDxfId="75">
+    <tableColumn id="8" name="~AntiNull" dataDxfId="87"/>
+    <tableColumn id="11" name="~AntiWater" dataDxfId="86"/>
+    <tableColumn id="26" name="~AntiWind" dataDxfId="85"/>
+    <tableColumn id="27" name="~AntiFire" dataDxfId="84"/>
+    <tableColumn id="37" name="~AntiEarth" dataDxfId="83"/>
+    <tableColumn id="38" name="~AntiIce" dataDxfId="82"/>
+    <tableColumn id="39" name="~AntiThunder" dataDxfId="81"/>
+    <tableColumn id="40" name="~AntiLight" dataDxfId="80"/>
+    <tableColumn id="41" name="~AntiDark" dataDxfId="79"/>
+    <tableColumn id="31" name="AttrDef" dataDxfId="78">
       <calculatedColumnFormula>CONCATENATE(AP4,";",AQ4,";",AR4,";",AS4,";",AT4,";",AU4,";",AV4,";",AW4,";",AX4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Res" dataDxfId="74"/>
-    <tableColumn id="21" name="Icon" dataDxfId="73"/>
-    <tableColumn id="17" name="Cover" dataDxfId="72"/>
-    <tableColumn id="15" name="IsSpecial" dataDxfId="71"/>
-    <tableColumn id="28" name="IsNew" dataDxfId="70"/>
-    <tableColumn id="19" name="VsMark" dataDxfId="69"/>
-    <tableColumn id="29" name="Remark" dataDxfId="68"/>
+    <tableColumn id="20" name="Res" dataDxfId="77"/>
+    <tableColumn id="21" name="Icon" dataDxfId="76"/>
+    <tableColumn id="17" name="Cover" dataDxfId="75"/>
+    <tableColumn id="15" name="IsSpecial" dataDxfId="74"/>
+    <tableColumn id="28" name="IsNew" dataDxfId="73"/>
+    <tableColumn id="19" name="VsMark" dataDxfId="72"/>
+    <tableColumn id="29" name="Remark" dataDxfId="71"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表1_5" displayName="表1_5" ref="A3:BF9" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61" tableBorderDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表1_5" displayName="表1_5" ref="A3:BF9" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69" tableBorderDxfId="68">
   <autoFilter ref="A3:BF9"/>
   <sortState ref="A4:AF311">
     <sortCondition ref="A3:A311"/>
   </sortState>
   <tableColumns count="58">
-    <tableColumn id="1" name="Id" dataDxfId="59"/>
-    <tableColumn id="2" name="Name" dataDxfId="58"/>
-    <tableColumn id="22" name="Ename" dataDxfId="57"/>
-    <tableColumn id="23" name="EnameShort" dataDxfId="56"/>
-    <tableColumn id="3" name="Star" dataDxfId="55"/>
-    <tableColumn id="4" name="Type" dataDxfId="54"/>
-    <tableColumn id="5" name="Attr" dataDxfId="53"/>
-    <tableColumn id="58" name="Quality" dataDxfId="0">
+    <tableColumn id="1" name="Id" dataDxfId="67"/>
+    <tableColumn id="2" name="Name" dataDxfId="66"/>
+    <tableColumn id="22" name="Ename" dataDxfId="65"/>
+    <tableColumn id="23" name="EnameShort" dataDxfId="64"/>
+    <tableColumn id="3" name="Star" dataDxfId="63"/>
+    <tableColumn id="4" name="Type" dataDxfId="62"/>
+    <tableColumn id="5" name="Attr" dataDxfId="61"/>
+    <tableColumn id="58" name="Quality" dataDxfId="60">
       <calculatedColumnFormula>IF(T4&gt;10,5,IF(T4&gt;5,4,IF(T4&gt;2.5,3,IF(T4&gt;0,2,IF(T4&gt;-2.5,1,IF(T4&gt;-10,0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Cost" dataDxfId="52"/>
-    <tableColumn id="6" name="AtkP" dataDxfId="51"/>
-    <tableColumn id="24" name="VitP" dataDxfId="50"/>
-    <tableColumn id="25" name="Modify" dataDxfId="49"/>
-    <tableColumn id="9" name="Def" dataDxfId="48"/>
-    <tableColumn id="10" name="Mag" dataDxfId="47"/>
-    <tableColumn id="32" name="Spd" dataDxfId="46"/>
-    <tableColumn id="35" name="Hit" dataDxfId="45"/>
-    <tableColumn id="36" name="Dhit" dataDxfId="44"/>
-    <tableColumn id="34" name="Crt" dataDxfId="43"/>
-    <tableColumn id="33" name="Luk" dataDxfId="42"/>
-    <tableColumn id="7" name="Sum" dataDxfId="41">
+    <tableColumn id="12" name="Cost" dataDxfId="59"/>
+    <tableColumn id="6" name="AtkP" dataDxfId="58"/>
+    <tableColumn id="24" name="VitP" dataDxfId="57"/>
+    <tableColumn id="25" name="Modify" dataDxfId="56"/>
+    <tableColumn id="9" name="Def" dataDxfId="55"/>
+    <tableColumn id="10" name="Mag" dataDxfId="54"/>
+    <tableColumn id="32" name="Spd" dataDxfId="53"/>
+    <tableColumn id="35" name="Hit" dataDxfId="52"/>
+    <tableColumn id="36" name="Dhit" dataDxfId="51"/>
+    <tableColumn id="34" name="Crt" dataDxfId="50"/>
+    <tableColumn id="33" name="Luk" dataDxfId="49"/>
+    <tableColumn id="7" name="Sum" dataDxfId="48">
       <calculatedColumnFormula>SUM(J4:K4)+SUM(M4:S4)*5+4.4*SUM(AP4:AX4)+2.5*SUM(AJ4:AN4)+AI4/100+L4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Range" dataDxfId="40"/>
-    <tableColumn id="14" name="Mov" dataDxfId="39"/>
-    <tableColumn id="16" name="Arrow" dataDxfId="38"/>
-    <tableColumn id="18" name="Skills" dataDxfId="37"/>
-    <tableColumn id="42" name="~Skill1" dataDxfId="36"/>
-    <tableColumn id="43" name="~SkillRate1" dataDxfId="35"/>
-    <tableColumn id="44" name="~Skill2" dataDxfId="34"/>
-    <tableColumn id="45" name="~SkillRate2" dataDxfId="33"/>
-    <tableColumn id="46" name="~Skill3" dataDxfId="32"/>
-    <tableColumn id="47" name="~SkillRate3" dataDxfId="31"/>
-    <tableColumn id="48" name="~Skill4" dataDxfId="30"/>
-    <tableColumn id="49" name="~SkillRate4" dataDxfId="29"/>
-    <tableColumn id="50" name="~Skill5" dataDxfId="28"/>
-    <tableColumn id="51" name="~SkillRate5" dataDxfId="27"/>
-    <tableColumn id="54" name="~SkillMark" dataDxfId="26">
+    <tableColumn id="13" name="Range" dataDxfId="47"/>
+    <tableColumn id="14" name="Mov" dataDxfId="46"/>
+    <tableColumn id="16" name="Arrow" dataDxfId="45"/>
+    <tableColumn id="18" name="Skills" dataDxfId="44"/>
+    <tableColumn id="42" name="~Skill1" dataDxfId="43"/>
+    <tableColumn id="43" name="~SkillRate1" dataDxfId="42"/>
+    <tableColumn id="44" name="~Skill2" dataDxfId="41"/>
+    <tableColumn id="45" name="~SkillRate2" dataDxfId="40"/>
+    <tableColumn id="46" name="~Skill3" dataDxfId="39"/>
+    <tableColumn id="47" name="~SkillRate3" dataDxfId="38"/>
+    <tableColumn id="48" name="~Skill4" dataDxfId="37"/>
+    <tableColumn id="49" name="~SkillRate4" dataDxfId="36"/>
+    <tableColumn id="50" name="~Skill5" dataDxfId="35"/>
+    <tableColumn id="51" name="~SkillRate5" dataDxfId="34"/>
+    <tableColumn id="54" name="~SkillMark" dataDxfId="33">
       <calculatedColumnFormula>IF(ISBLANK($Y4),0, LOOKUP($Y4,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$Z4/100)+
 IF(ISBLANK($AA4),0, LOOKUP($AA4,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AB4/100)+
 IF(ISBLANK($AC4),0, LOOKUP($AC4,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AD4/100)+
 IF(ISBLANK($AE4),0, LOOKUP($AE4,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AF4/100)+
 IF(ISBLANK($AG4),0, LOOKUP($AG4,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AH4/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="52" name="~AntiLife" dataDxfId="25"/>
-    <tableColumn id="57" name="~AntiMental" dataDxfId="24"/>
-    <tableColumn id="56" name="~AntiPhysical" dataDxfId="23"/>
-    <tableColumn id="55" name="~AntiElement" dataDxfId="22"/>
-    <tableColumn id="53" name="~AntiHelp" dataDxfId="21"/>
-    <tableColumn id="30" name="BuffImmune" dataDxfId="20">
+    <tableColumn id="52" name="~AntiLife" dataDxfId="32"/>
+    <tableColumn id="57" name="~AntiMental" dataDxfId="31"/>
+    <tableColumn id="56" name="~AntiPhysical" dataDxfId="30"/>
+    <tableColumn id="55" name="~AntiElement" dataDxfId="29"/>
+    <tableColumn id="53" name="~AntiHelp" dataDxfId="28"/>
+    <tableColumn id="30" name="BuffImmune" dataDxfId="27">
       <calculatedColumnFormula>CONCATENATE(AJ4,";",AK4,";",AL4,";",AM4,";",AN4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="~AntiNull" dataDxfId="19"/>
-    <tableColumn id="11" name="~AntiWater" dataDxfId="18"/>
-    <tableColumn id="26" name="~AntiWind" dataDxfId="17"/>
-    <tableColumn id="27" name="~AntiFire" dataDxfId="16"/>
-    <tableColumn id="37" name="~AntiEarth" dataDxfId="15"/>
-    <tableColumn id="38" name="~AntiIce" dataDxfId="14"/>
-    <tableColumn id="39" name="~AntiThunder" dataDxfId="13"/>
-    <tableColumn id="40" name="~AntiLight" dataDxfId="12"/>
-    <tableColumn id="41" name="~AntiDark" dataDxfId="11"/>
-    <tableColumn id="31" name="AttrDef" dataDxfId="10">
+    <tableColumn id="8" name="~AntiNull" dataDxfId="26"/>
+    <tableColumn id="11" name="~AntiWater" dataDxfId="25"/>
+    <tableColumn id="26" name="~AntiWind" dataDxfId="24"/>
+    <tableColumn id="27" name="~AntiFire" dataDxfId="23"/>
+    <tableColumn id="37" name="~AntiEarth" dataDxfId="22"/>
+    <tableColumn id="38" name="~AntiIce" dataDxfId="21"/>
+    <tableColumn id="39" name="~AntiThunder" dataDxfId="20"/>
+    <tableColumn id="40" name="~AntiLight" dataDxfId="19"/>
+    <tableColumn id="41" name="~AntiDark" dataDxfId="18"/>
+    <tableColumn id="31" name="AttrDef" dataDxfId="17">
       <calculatedColumnFormula>CONCATENATE(AP4,";",AQ4,";",AR4,";",AS4,";",AT4,";",AU4,";",AV4,";",AW4,";",AX4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Res" dataDxfId="9"/>
-    <tableColumn id="21" name="Icon" dataDxfId="8"/>
-    <tableColumn id="17" name="Cover" dataDxfId="7"/>
-    <tableColumn id="15" name="IsSpecial" dataDxfId="6"/>
-    <tableColumn id="28" name="IsNew" dataDxfId="5"/>
-    <tableColumn id="19" name="VsMark" dataDxfId="4"/>
-    <tableColumn id="29" name="Remark" dataDxfId="3"/>
+    <tableColumn id="20" name="Res" dataDxfId="16"/>
+    <tableColumn id="21" name="Icon" dataDxfId="15"/>
+    <tableColumn id="17" name="Cover" dataDxfId="14"/>
+    <tableColumn id="15" name="IsSpecial" dataDxfId="13"/>
+    <tableColumn id="28" name="IsNew" dataDxfId="12"/>
+    <tableColumn id="19" name="VsMark" dataDxfId="11"/>
+    <tableColumn id="29" name="Remark" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:I15" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:I15" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="A1:I15"/>
   <tableColumns count="9">
     <tableColumn id="1" name="星级"/>
@@ -22234,7 +22240,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M8" sqref="M8"/>
+      <selection pane="bottomRight" activeCell="AB8" sqref="AB8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -22287,7 +22293,7 @@
         <v>315</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>1401</v>
+        <v>1386</v>
       </c>
       <c r="I1" s="17" t="s">
         <v>977</v>
@@ -22302,34 +22308,34 @@
         <v>972</v>
       </c>
       <c r="M1" s="17" t="s">
+        <v>1212</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>1215</v>
+      </c>
+      <c r="O1" s="17" t="s">
         <v>1218</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="P1" s="17" t="s">
+        <v>1226</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>1228</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>1223</v>
+      </c>
+      <c r="S1" s="17" t="s">
         <v>1221</v>
-      </c>
-      <c r="O1" s="17" t="s">
-        <v>1224</v>
-      </c>
-      <c r="P1" s="17" t="s">
-        <v>1232</v>
-      </c>
-      <c r="Q1" s="17" t="s">
-        <v>1234</v>
-      </c>
-      <c r="R1" s="17" t="s">
-        <v>1229</v>
-      </c>
-      <c r="S1" s="17" t="s">
-        <v>1227</v>
       </c>
       <c r="T1" s="40" t="s">
         <v>974</v>
       </c>
       <c r="U1" s="17" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="V1" s="17" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
       <c r="W1" s="17" t="s">
         <v>323</v>
@@ -22338,82 +22344,82 @@
         <v>325</v>
       </c>
       <c r="Y1" s="44" t="s">
-        <v>1369</v>
+        <v>1354</v>
       </c>
       <c r="Z1" s="44" t="s">
-        <v>1372</v>
+        <v>1357</v>
       </c>
       <c r="AA1" s="44" t="s">
-        <v>1373</v>
+        <v>1358</v>
       </c>
       <c r="AB1" s="44" t="s">
-        <v>1374</v>
+        <v>1359</v>
       </c>
       <c r="AC1" s="44" t="s">
+        <v>1360</v>
+      </c>
+      <c r="AD1" s="44" t="s">
+        <v>1361</v>
+      </c>
+      <c r="AE1" s="44" t="s">
+        <v>1362</v>
+      </c>
+      <c r="AF1" s="44" t="s">
+        <v>1363</v>
+      </c>
+      <c r="AG1" s="44" t="s">
+        <v>1364</v>
+      </c>
+      <c r="AH1" s="44" t="s">
+        <v>1365</v>
+      </c>
+      <c r="AI1" s="44" t="s">
         <v>1375</v>
       </c>
-      <c r="AD1" s="44" t="s">
+      <c r="AJ1" s="17" t="s">
         <v>1376</v>
       </c>
-      <c r="AE1" s="44" t="s">
+      <c r="AK1" s="17" t="s">
         <v>1377</v>
       </c>
-      <c r="AF1" s="44" t="s">
+      <c r="AL1" s="17" t="s">
         <v>1378</v>
       </c>
-      <c r="AG1" s="44" t="s">
+      <c r="AM1" s="17" t="s">
         <v>1379</v>
       </c>
-      <c r="AH1" s="44" t="s">
+      <c r="AN1" s="17" t="s">
         <v>1380</v>
       </c>
-      <c r="AI1" s="44" t="s">
-        <v>1390</v>
-      </c>
-      <c r="AJ1" s="17" t="s">
-        <v>1391</v>
-      </c>
-      <c r="AK1" s="17" t="s">
-        <v>1392</v>
-      </c>
-      <c r="AL1" s="17" t="s">
-        <v>1393</v>
-      </c>
-      <c r="AM1" s="17" t="s">
-        <v>1394</v>
-      </c>
-      <c r="AN1" s="17" t="s">
-        <v>1395</v>
-      </c>
       <c r="AO1" s="17" t="s">
-        <v>1252</v>
+        <v>1245</v>
       </c>
       <c r="AP1" s="47" t="s">
+        <v>1335</v>
+      </c>
+      <c r="AQ1" s="47" t="s">
+        <v>1338</v>
+      </c>
+      <c r="AR1" s="47" t="s">
+        <v>1340</v>
+      </c>
+      <c r="AS1" s="47" t="s">
+        <v>1342</v>
+      </c>
+      <c r="AT1" s="47" t="s">
+        <v>1344</v>
+      </c>
+      <c r="AU1" s="47" t="s">
+        <v>1346</v>
+      </c>
+      <c r="AV1" s="47" t="s">
+        <v>1348</v>
+      </c>
+      <c r="AW1" s="47" t="s">
         <v>1350</v>
       </c>
-      <c r="AQ1" s="47" t="s">
-        <v>1353</v>
-      </c>
-      <c r="AR1" s="47" t="s">
-        <v>1355</v>
-      </c>
-      <c r="AS1" s="47" t="s">
-        <v>1357</v>
-      </c>
-      <c r="AT1" s="47" t="s">
-        <v>1359</v>
-      </c>
-      <c r="AU1" s="47" t="s">
-        <v>1361</v>
-      </c>
-      <c r="AV1" s="47" t="s">
-        <v>1363</v>
-      </c>
-      <c r="AW1" s="47" t="s">
-        <v>1365</v>
-      </c>
       <c r="AX1" s="47" t="s">
-        <v>1367</v>
+        <v>1352</v>
       </c>
       <c r="AY1" s="48" t="s">
         <v>1027</v>
@@ -22463,7 +22469,7 @@
         <v>295</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>1402</v>
+        <v>1387</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>978</v>
@@ -22478,34 +22484,34 @@
         <v>965</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>1216</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>1219</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>1222</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>1225</v>
-      </c>
       <c r="P2" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>1224</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>1219</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>1219</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>1230</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>1225</v>
       </c>
       <c r="T2" s="41" t="s">
         <v>1009</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="W2" s="2" t="s">
         <v>296</v>
@@ -22580,13 +22586,13 @@
         <v>1009</v>
       </c>
       <c r="AU2" s="49" t="s">
-        <v>1351</v>
+        <v>1336</v>
       </c>
       <c r="AV2" s="49" t="s">
         <v>1009</v>
       </c>
       <c r="AW2" s="49" t="s">
-        <v>1351</v>
+        <v>1336</v>
       </c>
       <c r="AX2" s="49" t="s">
         <v>1009</v>
@@ -22639,7 +22645,7 @@
         <v>1033</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>1403</v>
+        <v>1388</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>979</v>
@@ -22654,34 +22660,34 @@
         <v>973</v>
       </c>
       <c r="M3" s="6" t="s">
+        <v>1214</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>1217</v>
+      </c>
+      <c r="O3" s="6" t="s">
         <v>1220</v>
       </c>
-      <c r="N3" s="6" t="s">
-        <v>1223</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>1226</v>
-      </c>
       <c r="P3" s="6" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
       <c r="T3" s="42" t="s">
         <v>975</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="W3" s="6" t="s">
         <v>306</v>
@@ -22690,82 +22696,82 @@
         <v>308</v>
       </c>
       <c r="Y3" s="46" t="s">
+        <v>1355</v>
+      </c>
+      <c r="Z3" s="46" t="s">
+        <v>1356</v>
+      </c>
+      <c r="AA3" s="46" t="s">
+        <v>1366</v>
+      </c>
+      <c r="AB3" s="46" t="s">
+        <v>1367</v>
+      </c>
+      <c r="AC3" s="46" t="s">
+        <v>1368</v>
+      </c>
+      <c r="AD3" s="46" t="s">
+        <v>1369</v>
+      </c>
+      <c r="AE3" s="46" t="s">
         <v>1370</v>
       </c>
-      <c r="Z3" s="46" t="s">
+      <c r="AF3" s="46" t="s">
         <v>1371</v>
       </c>
-      <c r="AA3" s="46" t="s">
+      <c r="AG3" s="46" t="s">
+        <v>1372</v>
+      </c>
+      <c r="AH3" s="46" t="s">
+        <v>1373</v>
+      </c>
+      <c r="AI3" s="46" t="s">
+        <v>1374</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
         <v>1381</v>
       </c>
-      <c r="AB3" s="46" t="s">
+      <c r="AK3" s="6" t="s">
         <v>1382</v>
       </c>
-      <c r="AC3" s="46" t="s">
+      <c r="AL3" s="6" t="s">
         <v>1383</v>
       </c>
-      <c r="AD3" s="46" t="s">
+      <c r="AM3" s="6" t="s">
         <v>1384</v>
       </c>
-      <c r="AE3" s="46" t="s">
+      <c r="AN3" s="6" t="s">
         <v>1385</v>
       </c>
-      <c r="AF3" s="46" t="s">
-        <v>1386</v>
-      </c>
-      <c r="AG3" s="46" t="s">
-        <v>1387</v>
-      </c>
-      <c r="AH3" s="46" t="s">
-        <v>1388</v>
-      </c>
-      <c r="AI3" s="46" t="s">
-        <v>1389</v>
-      </c>
-      <c r="AJ3" s="6" t="s">
-        <v>1396</v>
-      </c>
-      <c r="AK3" s="6" t="s">
-        <v>1397</v>
-      </c>
-      <c r="AL3" s="6" t="s">
-        <v>1398</v>
-      </c>
-      <c r="AM3" s="6" t="s">
-        <v>1399</v>
-      </c>
-      <c r="AN3" s="6" t="s">
-        <v>1400</v>
-      </c>
       <c r="AO3" s="6" t="s">
-        <v>1251</v>
+        <v>1244</v>
       </c>
       <c r="AP3" s="51" t="s">
-        <v>1352</v>
+        <v>1337</v>
       </c>
       <c r="AQ3" s="52" t="s">
-        <v>1354</v>
+        <v>1339</v>
       </c>
       <c r="AR3" s="52" t="s">
-        <v>1356</v>
+        <v>1341</v>
       </c>
       <c r="AS3" s="52" t="s">
-        <v>1358</v>
+        <v>1343</v>
       </c>
       <c r="AT3" s="52" t="s">
-        <v>1360</v>
+        <v>1345</v>
       </c>
       <c r="AU3" s="52" t="s">
-        <v>1362</v>
+        <v>1347</v>
       </c>
       <c r="AV3" s="52" t="s">
-        <v>1364</v>
+        <v>1349</v>
       </c>
       <c r="AW3" s="52" t="s">
-        <v>1366</v>
+        <v>1351</v>
       </c>
       <c r="AX3" s="52" t="s">
-        <v>1368</v>
+        <v>1353</v>
       </c>
       <c r="AY3" s="42" t="s">
         <v>1028</v>
@@ -22950,7 +22956,7 @@
         <v>0.104918</v>
       </c>
       <c r="BF4" s="22" t="s">
-        <v>1250</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="5" spans="1:58" ht="14.25">
@@ -23026,7 +23032,7 @@
         <v>4</v>
       </c>
       <c r="X5" s="4" t="s">
-        <v>1253</v>
+        <v>1246</v>
       </c>
       <c r="Y5" s="43">
         <v>55000001</v>
@@ -23121,7 +23127,7 @@
         <v>0.30327870000000001</v>
       </c>
       <c r="BF5" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="6" spans="1:58" ht="14.25">
@@ -23288,7 +23294,7 @@
         <v>0.52786889999999997</v>
       </c>
       <c r="BF6" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="7" spans="1:58" ht="14.25">
@@ -23459,7 +23465,7 @@
         <v>0.33934429999999999</v>
       </c>
       <c r="BF7" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="8" spans="1:58" ht="14.25">
@@ -23486,13 +23492,13 @@
       </c>
       <c r="H8" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8" s="4">
         <v>3</v>
       </c>
       <c r="J8" s="4">
-        <v>-30</v>
+        <v>-35</v>
       </c>
       <c r="K8" s="4">
         <v>20</v>
@@ -23523,10 +23529,10 @@
       </c>
       <c r="T8" s="15">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>-7</v>
       </c>
       <c r="U8" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V8" s="4">
         <v>0</v>
@@ -23534,15 +23540,9 @@
       <c r="W8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="X8" s="4" t="s">
-        <v>1404</v>
-      </c>
-      <c r="Y8" s="43">
-        <v>55010018</v>
-      </c>
-      <c r="Z8" s="21">
-        <v>100</v>
-      </c>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="43"/>
+      <c r="Z8" s="21"/>
       <c r="AA8" s="21"/>
       <c r="AB8" s="21"/>
       <c r="AC8" s="21"/>
@@ -23557,7 +23557,7 @@
 IF(ISBLANK($AC8),0, LOOKUP($AC8,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AD8/100)+
 IF(ISBLANK($AE8),0, LOOKUP($AE8,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AF8/100)+
 IF(ISBLANK($AG8),0, LOOKUP($AG8,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AH8/100)</f>
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="21">
         <v>0</v>
@@ -23626,7 +23626,7 @@
         <v>0.40819670000000002</v>
       </c>
       <c r="BF8" s="22" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="9" spans="1:58" ht="14.25">
@@ -23801,7 +23801,7 @@
         <v>0.3180328</v>
       </c>
       <c r="BF9" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="10" spans="1:58" ht="14.25">
@@ -23972,7 +23972,7 @@
         <v>0.20163929999999999</v>
       </c>
       <c r="BF10" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="11" spans="1:58" ht="14.25">
@@ -24143,7 +24143,7 @@
         <v>0.2377049</v>
       </c>
       <c r="BF11" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="12" spans="1:58" ht="14.25">
@@ -24314,7 +24314,7 @@
         <v>0.81147539999999996</v>
       </c>
       <c r="BF12" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="13" spans="1:58" ht="14.25">
@@ -24475,7 +24475,7 @@
         <v>0.48688520000000002</v>
       </c>
       <c r="BF13" s="22" t="s">
-        <v>1405</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="14" spans="1:58" ht="14.25">
@@ -24650,7 +24650,7 @@
         <v>0.67213109999999998</v>
       </c>
       <c r="BF14" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="15" spans="1:58" ht="14.25">
@@ -24811,7 +24811,7 @@
         <v>0.94918029999999998</v>
       </c>
       <c r="BF15" s="22" t="s">
-        <v>1406</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="16" spans="1:58" ht="14.25">
@@ -24972,7 +24972,7 @@
         <v>0.26557380000000003</v>
       </c>
       <c r="BF16" s="22" t="s">
-        <v>1250</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="17" spans="1:58" ht="14.25">
@@ -25133,7 +25133,7 @@
         <v>0.65901639999999995</v>
       </c>
       <c r="BF17" s="22" t="s">
-        <v>1250</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="18" spans="1:58" ht="14.25">
@@ -25294,7 +25294,7 @@
         <v>0.13278690000000001</v>
       </c>
       <c r="BF18" s="22" t="s">
-        <v>1250</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="19" spans="1:58" ht="14.25">
@@ -25455,7 +25455,7 @@
         <v>0.1213115</v>
       </c>
       <c r="BF19" s="22" t="s">
-        <v>1250</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="20" spans="1:58" ht="14.25">
@@ -25616,7 +25616,7 @@
         <v>0.2770492</v>
       </c>
       <c r="BF20" s="22" t="s">
-        <v>1250</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="21" spans="1:58" ht="14.25">
@@ -25777,7 +25777,7 @@
         <v>0.14098359999999999</v>
       </c>
       <c r="BF21" s="22" t="s">
-        <v>1250</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="22" spans="1:58" ht="14.25">
@@ -25938,7 +25938,7 @@
         <v>0.1131148</v>
       </c>
       <c r="BF22" s="22" t="s">
-        <v>1250</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="23" spans="1:58" ht="14.25">
@@ -26099,7 +26099,7 @@
         <v>0.26885249999999999</v>
       </c>
       <c r="BF23" s="22" t="s">
-        <v>1250</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="24" spans="1:58" ht="14.25">
@@ -26270,7 +26270,7 @@
         <v>0.34754099999999999</v>
       </c>
       <c r="BF24" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="25" spans="1:58" ht="14.25">
@@ -26346,7 +26346,7 @@
         <v>31</v>
       </c>
       <c r="X25" s="4" t="s">
-        <v>1258</v>
+        <v>1251</v>
       </c>
       <c r="Y25" s="43">
         <v>55000002</v>
@@ -26445,7 +26445,7 @@
         <v>0.46885250000000001</v>
       </c>
       <c r="BF25" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="26" spans="1:58" ht="14.25">
@@ -26606,7 +26606,7 @@
         <v>0.6426229</v>
       </c>
       <c r="BF26" s="22" t="s">
-        <v>1250</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="27" spans="1:58" ht="14.25">
@@ -26773,7 +26773,7 @@
         <v>0.58032790000000001</v>
       </c>
       <c r="BF27" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="28" spans="1:58" ht="14.25">
@@ -26849,7 +26849,7 @@
         <v>6</v>
       </c>
       <c r="X28" s="4" t="s">
-        <v>1254</v>
+        <v>1247</v>
       </c>
       <c r="Y28" s="43">
         <v>55000051</v>
@@ -26940,7 +26940,7 @@
         <v>0.23278689999999999</v>
       </c>
       <c r="BF28" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="29" spans="1:58" ht="14.25">
@@ -27004,7 +27004,7 @@
       </c>
       <c r="T29" s="15">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="U29" s="4">
         <v>10</v>
@@ -27016,7 +27016,7 @@
         <v>9</v>
       </c>
       <c r="X29" s="4" t="s">
-        <v>1259</v>
+        <v>1394</v>
       </c>
       <c r="Y29" s="43">
         <v>55000030</v>
@@ -27024,12 +27024,8 @@
       <c r="Z29" s="21">
         <v>100</v>
       </c>
-      <c r="AA29" s="21">
-        <v>55010018</v>
-      </c>
-      <c r="AB29" s="21">
-        <v>100</v>
-      </c>
+      <c r="AA29" s="21"/>
+      <c r="AB29" s="21"/>
       <c r="AC29" s="21"/>
       <c r="AD29" s="21"/>
       <c r="AE29" s="21"/>
@@ -27042,7 +27038,7 @@
 IF(ISBLANK($AC29),0, LOOKUP($AC29,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AD29/100)+
 IF(ISBLANK($AE29),0, LOOKUP($AE29,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AF29/100)+
 IF(ISBLANK($AG29),0, LOOKUP($AG29,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AH29/100)</f>
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="AJ29" s="21">
         <v>0</v>
@@ -27111,7 +27107,7 @@
         <v>0.38524589999999997</v>
       </c>
       <c r="BF29" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="30" spans="1:58" ht="14.25">
@@ -27282,7 +27278,7 @@
         <v>0.58196720000000002</v>
       </c>
       <c r="BF30" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="31" spans="1:58" ht="14.25">
@@ -27358,7 +27354,7 @@
         <v>38</v>
       </c>
       <c r="X31" s="4" t="s">
-        <v>1314</v>
+        <v>1299</v>
       </c>
       <c r="Y31" s="43">
         <v>55000060</v>
@@ -27453,7 +27449,7 @@
         <v>0.50819669999999995</v>
       </c>
       <c r="BF31" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="32" spans="1:58" ht="14.25">
@@ -27628,7 +27624,7 @@
         <v>0.51475409999999999</v>
       </c>
       <c r="BF32" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="33" spans="1:58" ht="14.25">
@@ -27692,7 +27688,7 @@
       </c>
       <c r="T33" s="15">
         <f t="shared" si="1"/>
-        <v>22.28</v>
+        <v>16.28</v>
       </c>
       <c r="U33" s="4">
         <v>10</v>
@@ -27704,7 +27700,7 @@
         <v>9</v>
       </c>
       <c r="X33" s="4" t="s">
-        <v>1260</v>
+        <v>1393</v>
       </c>
       <c r="Y33" s="43">
         <v>55010017</v>
@@ -27712,12 +27708,8 @@
       <c r="Z33" s="21">
         <v>100</v>
       </c>
-      <c r="AA33" s="21">
-        <v>55010018</v>
-      </c>
-      <c r="AB33" s="21">
-        <v>100</v>
-      </c>
+      <c r="AA33" s="21"/>
+      <c r="AB33" s="21"/>
       <c r="AC33" s="21"/>
       <c r="AD33" s="21"/>
       <c r="AE33" s="21"/>
@@ -27730,7 +27722,7 @@
 IF(ISBLANK($AC33),0, LOOKUP($AC33,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AD33/100)+
 IF(ISBLANK($AE33),0, LOOKUP($AE33,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AF33/100)+
 IF(ISBLANK($AG33),0, LOOKUP($AG33,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AH33/100)</f>
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="AJ33" s="21">
         <v>0</v>
@@ -27799,7 +27791,7 @@
         <v>0.43278689999999997</v>
       </c>
       <c r="BF33" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="34" spans="1:58" ht="14.25">
@@ -27966,7 +27958,7 @@
         <v>0.20163929999999999</v>
       </c>
       <c r="BF34" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="35" spans="1:58" ht="14.25">
@@ -28042,7 +28034,7 @@
         <v>9</v>
       </c>
       <c r="X35" s="4" t="s">
-        <v>1261</v>
+        <v>1252</v>
       </c>
       <c r="Y35" s="43">
         <v>55000064</v>
@@ -28137,7 +28129,7 @@
         <v>5.0819669999999997E-2</v>
       </c>
       <c r="BF35" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="36" spans="1:58" ht="14.25">
@@ -28210,7 +28202,7 @@
         <v>15</v>
       </c>
       <c r="W36" s="4" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="X36" s="4" t="s">
         <v>1046</v>
@@ -28316,7 +28308,7 @@
         <v>0.36721310000000001</v>
       </c>
       <c r="BF36" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="37" spans="1:58" ht="14.25">
@@ -28487,7 +28479,7 @@
         <v>0.35245900000000002</v>
       </c>
       <c r="BF37" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="38" spans="1:58" ht="14.25">
@@ -28648,7 +28640,7 @@
         <v>0.25901639999999998</v>
       </c>
       <c r="BF38" s="22" t="s">
-        <v>1250</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="39" spans="1:58" ht="14.25">
@@ -28809,7 +28801,7 @@
         <v>0.76393440000000001</v>
       </c>
       <c r="BF39" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="40" spans="1:58" ht="14.25">
@@ -28970,7 +28962,7 @@
         <v>0.79836059999999998</v>
       </c>
       <c r="BF40" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="41" spans="1:58" ht="14.25">
@@ -29145,7 +29137,7 @@
         <v>0.2377049</v>
       </c>
       <c r="BF41" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="42" spans="1:58" ht="14.25">
@@ -29324,7 +29316,7 @@
         <v>0.57868850000000005</v>
       </c>
       <c r="BF42" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="43" spans="1:58" ht="14.25">
@@ -29400,7 +29392,7 @@
         <v>4</v>
       </c>
       <c r="X43" s="4" t="s">
-        <v>1315</v>
+        <v>1300</v>
       </c>
       <c r="Y43" s="43">
         <v>55000074</v>
@@ -29491,7 +29483,7 @@
         <v>0.13606560000000001</v>
       </c>
       <c r="BF43" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="44" spans="1:58" ht="14.25">
@@ -29567,7 +29559,7 @@
         <v>16</v>
       </c>
       <c r="X44" s="4" t="s">
-        <v>1316</v>
+        <v>1301</v>
       </c>
       <c r="Y44" s="43">
         <v>55000075</v>
@@ -29666,7 +29658,7 @@
         <v>0.7</v>
       </c>
       <c r="BF44" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="45" spans="1:58" ht="14.25">
@@ -29742,7 +29734,7 @@
         <v>4</v>
       </c>
       <c r="X45" s="4" t="s">
-        <v>1317</v>
+        <v>1302</v>
       </c>
       <c r="Y45" s="43">
         <v>55000077</v>
@@ -29841,7 +29833,7 @@
         <v>0.2</v>
       </c>
       <c r="BF45" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="46" spans="1:58" ht="14.25">
@@ -29917,7 +29909,7 @@
         <v>2</v>
       </c>
       <c r="X46" s="4" t="s">
-        <v>1318</v>
+        <v>1303</v>
       </c>
       <c r="Y46" s="43">
         <v>55000075</v>
@@ -30016,7 +30008,7 @@
         <v>0.38688529999999999</v>
       </c>
       <c r="BF46" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="47" spans="1:58" ht="14.25">
@@ -30183,7 +30175,7 @@
         <v>0.5557377</v>
       </c>
       <c r="BF47" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="48" spans="1:58" ht="14.25">
@@ -30350,7 +30342,7 @@
         <v>0.46721309999999999</v>
       </c>
       <c r="BF48" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="49" spans="1:58" ht="14.25">
@@ -30517,7 +30509,7 @@
         <v>0.3245902</v>
       </c>
       <c r="BF49" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="50" spans="1:58" ht="14.25">
@@ -30688,7 +30680,7 @@
         <v>0.8573771</v>
       </c>
       <c r="BF50" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="51" spans="1:58" ht="14.25">
@@ -30859,7 +30851,7 @@
         <v>0.33606560000000002</v>
       </c>
       <c r="BF51" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="52" spans="1:58" ht="14.25">
@@ -31026,7 +31018,7 @@
         <v>0.2377049</v>
       </c>
       <c r="BF52" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="53" spans="1:58" ht="14.25">
@@ -31193,7 +31185,7 @@
         <v>0.39836070000000001</v>
       </c>
       <c r="BF53" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="54" spans="1:58" ht="14.25">
@@ -31368,7 +31360,7 @@
         <v>0.53442619999999996</v>
       </c>
       <c r="BF54" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="55" spans="1:58" ht="14.25">
@@ -31535,7 +31527,7 @@
         <v>0.33770489999999997</v>
       </c>
       <c r="BF55" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="56" spans="1:58" ht="14.25">
@@ -31611,7 +31603,7 @@
         <v>4</v>
       </c>
       <c r="X56" s="4" t="s">
-        <v>1262</v>
+        <v>1253</v>
       </c>
       <c r="Y56" s="43">
         <v>55000087</v>
@@ -31706,7 +31698,7 @@
         <v>0.5557377</v>
       </c>
       <c r="BF56" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="57" spans="1:58" ht="14.25">
@@ -31782,7 +31774,7 @@
         <v>4</v>
       </c>
       <c r="X57" s="4" t="s">
-        <v>1346</v>
+        <v>1331</v>
       </c>
       <c r="Y57" s="43">
         <v>55000088</v>
@@ -31881,7 +31873,7 @@
         <v>0.24918029999999999</v>
       </c>
       <c r="BF57" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="58" spans="1:58" ht="14.25">
@@ -32048,7 +32040,7 @@
         <v>0.3967213</v>
       </c>
       <c r="BF58" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="59" spans="1:58" ht="14.25">
@@ -32219,7 +32211,7 @@
         <v>0.70163940000000002</v>
       </c>
       <c r="BF59" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="60" spans="1:58" ht="14.25">
@@ -32295,7 +32287,7 @@
         <v>9</v>
       </c>
       <c r="X60" s="4" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
       <c r="Y60" s="43">
         <v>55000092</v>
@@ -32386,7 +32378,7 @@
         <v>0.26065569999999999</v>
       </c>
       <c r="BF60" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="61" spans="1:58" ht="14.25">
@@ -32557,7 +32549,7 @@
         <v>0.17213120000000001</v>
       </c>
       <c r="BF61" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="62" spans="1:58" ht="14.25">
@@ -32724,7 +32716,7 @@
         <v>0.13278690000000001</v>
       </c>
       <c r="BF62" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="63" spans="1:58" ht="14.25">
@@ -32891,7 +32883,7 @@
         <v>0.75737699999999997</v>
       </c>
       <c r="BF63" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="64" spans="1:58" ht="14.25">
@@ -33052,7 +33044,7 @@
         <v>0.43442619999999998</v>
       </c>
       <c r="BF64" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="65" spans="1:58" ht="14.25">
@@ -33213,7 +33205,7 @@
         <v>0.14590159999999999</v>
       </c>
       <c r="BF65" s="22" t="s">
-        <v>1250</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="66" spans="1:58" ht="14.25">
@@ -33374,7 +33366,7 @@
         <v>0.15245900000000001</v>
       </c>
       <c r="BF66" s="22" t="s">
-        <v>1250</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="67" spans="1:58" ht="14.25">
@@ -33549,7 +33541,7 @@
         <v>0.8180328</v>
       </c>
       <c r="BF67" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="68" spans="1:58" ht="14.25">
@@ -33734,7 +33726,7 @@
         <v>0.95081970000000005</v>
       </c>
       <c r="BF68" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="69" spans="1:58" ht="14.25">
@@ -33913,7 +33905,7 @@
         <v>0.84098360000000005</v>
       </c>
       <c r="BF69" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="70" spans="1:58" ht="14.25">
@@ -34088,7 +34080,7 @@
         <v>0.89508200000000004</v>
       </c>
       <c r="BF70" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="71" spans="1:58" ht="14.25">
@@ -34263,7 +34255,7 @@
         <v>0.36065570000000002</v>
       </c>
       <c r="BF71" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="72" spans="1:58" ht="14.25">
@@ -34438,7 +34430,7 @@
         <v>0.72786890000000004</v>
       </c>
       <c r="BF72" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="73" spans="1:58" ht="14.25">
@@ -34502,7 +34494,7 @@
       </c>
       <c r="T73" s="15">
         <f t="shared" si="5"/>
-        <v>50.5</v>
+        <v>44.5</v>
       </c>
       <c r="U73" s="4">
         <v>40</v>
@@ -34511,10 +34503,10 @@
         <v>0</v>
       </c>
       <c r="W73" s="4" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="X73" s="4" t="s">
-        <v>1070</v>
+        <v>1397</v>
       </c>
       <c r="Y73" s="43">
         <v>55000060</v>
@@ -34535,24 +34527,20 @@
         <v>100</v>
       </c>
       <c r="AE73" s="21">
-        <v>55010019</v>
+        <v>55010028</v>
       </c>
       <c r="AF73" s="21">
         <v>100</v>
       </c>
-      <c r="AG73" s="21">
-        <v>55010028</v>
-      </c>
-      <c r="AH73" s="21">
-        <v>100</v>
-      </c>
+      <c r="AG73" s="53"/>
+      <c r="AH73" s="53"/>
       <c r="AI73" s="21">
         <f>IF(ISBLANK($Y73),0, LOOKUP($Y73,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$Z73/100)+
 IF(ISBLANK($AA73),0, LOOKUP($AA73,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AB73/100)+
 IF(ISBLANK($AC73),0, LOOKUP($AC73,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AD73/100)+
 IF(ISBLANK($AE73),0, LOOKUP($AE73,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AF73/100)+
 IF(ISBLANK($AG73),0, LOOKUP($AG73,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AH73/100)</f>
-        <v>2350</v>
+        <v>1750</v>
       </c>
       <c r="AJ73" s="21">
         <v>0</v>
@@ -34621,7 +34609,7 @@
         <v>0.63278690000000004</v>
       </c>
       <c r="BF73" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="74" spans="1:58" ht="14.25">
@@ -34697,7 +34685,7 @@
         <v>6</v>
       </c>
       <c r="X74" s="4" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="Y74" s="43">
         <v>55000088</v>
@@ -34792,7 +34780,7 @@
         <v>0.70491800000000004</v>
       </c>
       <c r="BF74" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="75" spans="1:58" ht="14.25">
@@ -34868,7 +34856,7 @@
         <v>89</v>
       </c>
       <c r="X75" s="4" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="Y75" s="43">
         <v>55000004</v>
@@ -34971,7 +34959,7 @@
         <v>0.31475409999999998</v>
       </c>
       <c r="BF75" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="76" spans="1:58" ht="14.25">
@@ -35047,7 +35035,7 @@
         <v>12</v>
       </c>
       <c r="X76" s="4" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="Y76" s="43">
         <v>55000101</v>
@@ -35146,7 +35134,7 @@
         <v>0.81147539999999996</v>
       </c>
       <c r="BF76" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="77" spans="1:58" ht="14.25">
@@ -35222,7 +35210,7 @@
         <v>92</v>
       </c>
       <c r="X77" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="Y77" s="43">
         <v>55000106</v>
@@ -35317,7 +35305,7 @@
         <v>0.36721310000000001</v>
       </c>
       <c r="BF77" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="78" spans="1:58" ht="14.25">
@@ -35381,7 +35369,7 @@
       </c>
       <c r="T78" s="15">
         <f t="shared" si="5"/>
-        <v>33.35</v>
+        <v>27.35</v>
       </c>
       <c r="U78" s="4">
         <v>10</v>
@@ -35393,7 +35381,7 @@
         <v>94</v>
       </c>
       <c r="X78" s="4" t="s">
-        <v>1263</v>
+        <v>1398</v>
       </c>
       <c r="Y78" s="43">
         <v>55000108</v>
@@ -35408,17 +35396,13 @@
         <v>100</v>
       </c>
       <c r="AC78" s="21">
-        <v>55010019</v>
+        <v>55010028</v>
       </c>
       <c r="AD78" s="21">
         <v>100</v>
       </c>
-      <c r="AE78" s="21">
-        <v>55010028</v>
-      </c>
-      <c r="AF78" s="21">
-        <v>100</v>
-      </c>
+      <c r="AE78" s="21"/>
+      <c r="AF78" s="21"/>
       <c r="AG78" s="21"/>
       <c r="AH78" s="21"/>
       <c r="AI78" s="21">
@@ -35427,7 +35411,7 @@
 IF(ISBLANK($AC78),0, LOOKUP($AC78,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AD78/100)+
 IF(ISBLANK($AE78),0, LOOKUP($AE78,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AF78/100)+
 IF(ISBLANK($AG78),0, LOOKUP($AG78,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AH78/100)</f>
-        <v>1335</v>
+        <v>735</v>
       </c>
       <c r="AJ78" s="21">
         <v>0</v>
@@ -35496,7 +35480,7 @@
         <v>0.68688519999999997</v>
       </c>
       <c r="BF78" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="79" spans="1:58" ht="14.25">
@@ -35657,7 +35641,7 @@
         <v>0.1393443</v>
       </c>
       <c r="BF79" s="22" t="s">
-        <v>1250</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="80" spans="1:58" ht="14.25">
@@ -35818,7 +35802,7 @@
         <v>0.1147541</v>
       </c>
       <c r="BF80" s="22" t="s">
-        <v>1250</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="81" spans="1:58" ht="14.25">
@@ -35894,7 +35878,7 @@
         <v>2</v>
       </c>
       <c r="X81" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="Y81" s="43">
         <v>55000242</v>
@@ -35989,7 +35973,7 @@
         <v>0.48196719999999998</v>
       </c>
       <c r="BF81" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="82" spans="1:58" ht="14.25">
@@ -36065,7 +36049,7 @@
         <v>2</v>
       </c>
       <c r="X82" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="Y82" s="43">
         <v>55000110</v>
@@ -36160,7 +36144,7 @@
         <v>0.82622949999999995</v>
       </c>
       <c r="BF82" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="83" spans="1:58" ht="14.25">
@@ -36236,7 +36220,7 @@
         <v>38</v>
       </c>
       <c r="X83" s="4" t="s">
-        <v>1264</v>
+        <v>1254</v>
       </c>
       <c r="Y83" s="43">
         <v>55000111</v>
@@ -36331,7 +36315,7 @@
         <v>0.71147539999999998</v>
       </c>
       <c r="BF83" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="84" spans="1:58" ht="14.25">
@@ -36407,7 +36391,7 @@
         <v>100</v>
       </c>
       <c r="X84" s="4" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="Y84" s="43">
         <v>55000069</v>
@@ -36506,7 +36490,7 @@
         <v>0.3016393</v>
       </c>
       <c r="BF84" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="85" spans="1:58" ht="14.25">
@@ -36582,7 +36566,7 @@
         <v>2</v>
       </c>
       <c r="X85" s="4" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="Y85" s="43">
         <v>55000050</v>
@@ -36681,7 +36665,7 @@
         <v>0.8180328</v>
       </c>
       <c r="BF85" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="86" spans="1:58" ht="14.25">
@@ -36757,7 +36741,7 @@
         <v>6</v>
       </c>
       <c r="X86" s="4" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="Y86" s="43">
         <v>55000030</v>
@@ -36852,7 +36836,7 @@
         <v>0.28360659999999999</v>
       </c>
       <c r="BF86" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="87" spans="1:58" ht="14.25">
@@ -36928,7 +36912,7 @@
         <v>86</v>
       </c>
       <c r="X87" s="4" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="Y87" s="43">
         <v>55000068</v>
@@ -37031,7 +37015,7 @@
         <v>0.50819669999999995</v>
       </c>
       <c r="BF87" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="88" spans="1:58" ht="14.25">
@@ -37107,7 +37091,7 @@
         <v>0</v>
       </c>
       <c r="X88" s="4" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="Y88" s="43">
         <v>55000342</v>
@@ -37206,7 +37190,7 @@
         <v>0.33770489999999997</v>
       </c>
       <c r="BF88" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="89" spans="1:58" ht="14.25">
@@ -37282,7 +37266,7 @@
         <v>105</v>
       </c>
       <c r="X89" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="Y89" s="43">
         <v>55000115</v>
@@ -37385,7 +37369,7 @@
         <v>0.32131150000000003</v>
       </c>
       <c r="BF89" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="90" spans="1:58" ht="14.25">
@@ -37461,7 +37445,7 @@
         <v>107</v>
       </c>
       <c r="X90" s="4" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="Y90" s="43">
         <v>55000002</v>
@@ -37556,7 +37540,7 @@
         <v>0.67213109999999998</v>
       </c>
       <c r="BF90" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="91" spans="1:58" ht="14.25">
@@ -37632,7 +37616,7 @@
         <v>105</v>
       </c>
       <c r="X91" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="Y91" s="43">
         <v>55000118</v>
@@ -37731,7 +37715,7 @@
         <v>0.5</v>
       </c>
       <c r="BF91" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="92" spans="1:58" ht="14.25">
@@ -37807,7 +37791,7 @@
         <v>16</v>
       </c>
       <c r="X92" s="4" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="Y92" s="43">
         <v>55000005</v>
@@ -37902,7 +37886,7 @@
         <v>0.47868850000000002</v>
       </c>
       <c r="BF92" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="93" spans="1:58" ht="14.25">
@@ -37978,7 +37962,7 @@
         <v>111</v>
       </c>
       <c r="X93" s="4" t="s">
-        <v>1265</v>
+        <v>1255</v>
       </c>
       <c r="Y93" s="43">
         <v>55000115</v>
@@ -38077,7 +38061,7 @@
         <v>0.3327869</v>
       </c>
       <c r="BF93" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="94" spans="1:58" ht="14.25">
@@ -38153,7 +38137,7 @@
         <v>78</v>
       </c>
       <c r="X94" s="4" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="Y94" s="43">
         <v>55000005</v>
@@ -38252,7 +38236,7 @@
         <v>0.84262289999999995</v>
       </c>
       <c r="BF94" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="95" spans="1:58" ht="14.25">
@@ -38328,7 +38312,7 @@
         <v>107</v>
       </c>
       <c r="X95" s="4" t="s">
-        <v>1266</v>
+        <v>1256</v>
       </c>
       <c r="Y95" s="43">
         <v>55000114</v>
@@ -38427,7 +38411,7 @@
         <v>0.48688520000000002</v>
       </c>
       <c r="BF95" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="96" spans="1:58" ht="14.25">
@@ -38503,7 +38487,7 @@
         <v>2</v>
       </c>
       <c r="X96" s="4" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="Y96" s="43">
         <v>55000002</v>
@@ -38602,7 +38586,7 @@
         <v>0.66557379999999999</v>
       </c>
       <c r="BF96" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="97" spans="1:58" ht="14.25">
@@ -38678,7 +38662,7 @@
         <v>22</v>
       </c>
       <c r="X97" s="4" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="Y97" s="43">
         <v>55000123</v>
@@ -38785,7 +38769,7 @@
         <v>0.93114750000000002</v>
       </c>
       <c r="BF97" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="98" spans="1:58" ht="14.25">
@@ -38861,7 +38845,7 @@
         <v>94</v>
       </c>
       <c r="X98" s="4" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="Y98" s="43">
         <v>55000245</v>
@@ -38960,7 +38944,7 @@
         <v>0.51803279999999996</v>
       </c>
       <c r="BF98" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="99" spans="1:58" ht="14.25">
@@ -39033,10 +39017,10 @@
         <v>0</v>
       </c>
       <c r="W99" s="4" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="X99" s="4" t="s">
-        <v>1267</v>
+        <v>1257</v>
       </c>
       <c r="Y99" s="43">
         <v>55000246</v>
@@ -39131,7 +39115,7 @@
         <v>0.36393439999999999</v>
       </c>
       <c r="BF99" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="100" spans="1:58" ht="14.25">
@@ -39207,7 +39191,7 @@
         <v>78</v>
       </c>
       <c r="X100" s="4" t="s">
-        <v>1268</v>
+        <v>1258</v>
       </c>
       <c r="Y100" s="43">
         <v>55000040</v>
@@ -39316,7 +39300,7 @@
         <v>0.94918029999999998</v>
       </c>
       <c r="BF100" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="101" spans="1:58" ht="14.25">
@@ -39392,7 +39376,7 @@
         <v>4</v>
       </c>
       <c r="X101" s="4" t="s">
-        <v>1269</v>
+        <v>1259</v>
       </c>
       <c r="Y101" s="43">
         <v>55000126</v>
@@ -39487,7 +39471,7 @@
         <v>0.60327869999999995</v>
       </c>
       <c r="BF101" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="102" spans="1:58" ht="14.25">
@@ -39563,7 +39547,7 @@
         <v>16</v>
       </c>
       <c r="X102" s="4" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="Y102" s="43">
         <v>55000127</v>
@@ -39662,7 +39646,7 @@
         <v>0.75737699999999997</v>
       </c>
       <c r="BF102" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="103" spans="1:58" ht="14.25">
@@ -39738,7 +39722,7 @@
         <v>9</v>
       </c>
       <c r="X103" s="4" t="s">
-        <v>1270</v>
+        <v>1260</v>
       </c>
       <c r="Y103" s="43">
         <v>55000129</v>
@@ -39829,7 +39813,7 @@
         <v>0.1032787</v>
       </c>
       <c r="BF103" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="104" spans="1:58" ht="14.25">
@@ -39905,7 +39889,7 @@
         <v>4</v>
       </c>
       <c r="X104" s="4" t="s">
-        <v>1319</v>
+        <v>1304</v>
       </c>
       <c r="Y104" s="43">
         <v>55000130</v>
@@ -40000,7 +39984,7 @@
         <v>0.42622949999999998</v>
       </c>
       <c r="BF104" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="105" spans="1:58" ht="14.25">
@@ -40076,7 +40060,7 @@
         <v>107</v>
       </c>
       <c r="X105" s="4" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="Y105" s="43">
         <v>55000132</v>
@@ -40171,7 +40155,7 @@
         <v>0.2098361</v>
       </c>
       <c r="BF105" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="106" spans="1:58" ht="14.25">
@@ -40247,7 +40231,7 @@
         <v>9</v>
       </c>
       <c r="X106" s="4" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="Y106" s="43">
         <v>55000133</v>
@@ -40342,7 +40326,7 @@
         <v>4.262295E-2</v>
       </c>
       <c r="BF106" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="107" spans="1:58" ht="14.25">
@@ -40418,7 +40402,7 @@
         <v>9</v>
       </c>
       <c r="X107" s="4" t="s">
-        <v>1271</v>
+        <v>1261</v>
       </c>
       <c r="Y107" s="43">
         <v>55000134</v>
@@ -40513,7 +40497,7 @@
         <v>5.2459020000000002E-2</v>
       </c>
       <c r="BF107" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="108" spans="1:58" ht="14.25">
@@ -40589,7 +40573,7 @@
         <v>2</v>
       </c>
       <c r="X108" s="4" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="Y108" s="43">
         <v>55000017</v>
@@ -40692,7 +40676,7 @@
         <v>0.92622950000000004</v>
       </c>
       <c r="BF108" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="109" spans="1:58" ht="14.25">
@@ -40756,7 +40740,7 @@
       </c>
       <c r="T109" s="15">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="U109" s="4">
         <v>70</v>
@@ -40768,7 +40752,7 @@
         <v>128</v>
       </c>
       <c r="X109" s="4" t="s">
-        <v>1094</v>
+        <v>1402</v>
       </c>
       <c r="Y109" s="43">
         <v>55000135</v>
@@ -40783,17 +40767,13 @@
         <v>100</v>
       </c>
       <c r="AC109" s="21">
-        <v>55010019</v>
+        <v>55010028</v>
       </c>
       <c r="AD109" s="21">
         <v>100</v>
       </c>
-      <c r="AE109" s="21">
-        <v>55010028</v>
-      </c>
-      <c r="AF109" s="21">
-        <v>100</v>
-      </c>
+      <c r="AE109" s="21"/>
+      <c r="AF109" s="21"/>
       <c r="AG109" s="21"/>
       <c r="AH109" s="21"/>
       <c r="AI109" s="21">
@@ -40802,7 +40782,7 @@
 IF(ISBLANK($AC109),0, LOOKUP($AC109,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AD109/100)+
 IF(ISBLANK($AE109),0, LOOKUP($AE109,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AF109/100)+
 IF(ISBLANK($AG109),0, LOOKUP($AG109,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AH109/100)</f>
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="AJ109" s="21">
         <v>0</v>
@@ -40871,7 +40851,7 @@
         <v>6.8852460000000004E-2</v>
       </c>
       <c r="BF109" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="110" spans="1:58" ht="14.25">
@@ -40935,7 +40915,7 @@
       </c>
       <c r="T110" s="15">
         <f t="shared" si="5"/>
-        <v>25.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="U110" s="4">
         <v>70</v>
@@ -40947,7 +40927,7 @@
         <v>130</v>
       </c>
       <c r="X110" s="4" t="s">
-        <v>1095</v>
+        <v>1403</v>
       </c>
       <c r="Y110" s="43">
         <v>55000135</v>
@@ -40968,24 +40948,20 @@
         <v>100</v>
       </c>
       <c r="AE110" s="21">
-        <v>55010019</v>
+        <v>55010028</v>
       </c>
       <c r="AF110" s="21">
         <v>100</v>
       </c>
-      <c r="AG110" s="21">
-        <v>55010028</v>
-      </c>
-      <c r="AH110" s="21">
-        <v>100</v>
-      </c>
+      <c r="AG110" s="21"/>
+      <c r="AH110" s="21"/>
       <c r="AI110" s="21">
         <f>IF(ISBLANK($Y110),0, LOOKUP($Y110,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$Z110/100)+
 IF(ISBLANK($AA110),0, LOOKUP($AA110,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AB110/100)+
 IF(ISBLANK($AC110),0, LOOKUP($AC110,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AD110/100)+
 IF(ISBLANK($AE110),0, LOOKUP($AE110,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AF110/100)+
 IF(ISBLANK($AG110),0, LOOKUP($AG110,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AH110/100)</f>
-        <v>1660</v>
+        <v>1060</v>
       </c>
       <c r="AJ110" s="21">
         <v>0</v>
@@ -41054,7 +41030,7 @@
         <v>0.24262300000000001</v>
       </c>
       <c r="BF110" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="111" spans="1:58" ht="14.25">
@@ -41118,7 +41094,7 @@
       </c>
       <c r="T111" s="15">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="U111" s="4">
         <v>40</v>
@@ -41130,7 +41106,7 @@
         <v>132</v>
       </c>
       <c r="X111" s="4" t="s">
-        <v>1096</v>
+        <v>1405</v>
       </c>
       <c r="Y111" s="43">
         <v>55000038</v>
@@ -41145,7 +41121,7 @@
         <v>100</v>
       </c>
       <c r="AC111" s="21">
-        <v>55010019</v>
+        <v>55010028</v>
       </c>
       <c r="AD111" s="21">
         <v>100</v>
@@ -41156,19 +41132,15 @@
       <c r="AF111" s="21">
         <v>100</v>
       </c>
-      <c r="AG111" s="21">
-        <v>55010028</v>
-      </c>
-      <c r="AH111" s="21">
-        <v>100</v>
-      </c>
+      <c r="AG111" s="21"/>
+      <c r="AH111" s="21"/>
       <c r="AI111" s="21">
         <f>IF(ISBLANK($Y111),0, LOOKUP($Y111,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$Z111/100)+
 IF(ISBLANK($AA111),0, LOOKUP($AA111,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AB111/100)+
 IF(ISBLANK($AC111),0, LOOKUP($AC111,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AD111/100)+
 IF(ISBLANK($AE111),0, LOOKUP($AE111,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AF111/100)+
 IF(ISBLANK($AG111),0, LOOKUP($AG111,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AH111/100)</f>
-        <v>2700</v>
+        <v>2100</v>
       </c>
       <c r="AJ111" s="21">
         <v>0</v>
@@ -41237,7 +41209,7 @@
         <v>0.28360659999999999</v>
       </c>
       <c r="BF111" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="112" spans="1:58" ht="14.25">
@@ -41313,7 +41285,7 @@
         <v>118</v>
       </c>
       <c r="X112" s="4" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="Y112" s="43">
         <v>55010003</v>
@@ -41412,7 +41384,7 @@
         <v>0.5</v>
       </c>
       <c r="BF112" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="113" spans="1:58" ht="14.25">
@@ -41488,7 +41460,7 @@
         <v>135</v>
       </c>
       <c r="X113" s="4" t="s">
-        <v>1273</v>
+        <v>1263</v>
       </c>
       <c r="Y113" s="43">
         <v>55000018</v>
@@ -41583,7 +41555,7 @@
         <v>0.51147540000000002</v>
       </c>
       <c r="BF113" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="114" spans="1:58" ht="14.25">
@@ -41659,7 +41631,7 @@
         <v>89</v>
       </c>
       <c r="X114" s="4" t="s">
-        <v>1274</v>
+        <v>1264</v>
       </c>
       <c r="Y114" s="43">
         <v>55000040</v>
@@ -41768,7 +41740,7 @@
         <v>0.9442623</v>
       </c>
       <c r="BF114" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="115" spans="1:58" ht="14.25">
@@ -41844,7 +41816,7 @@
         <v>94</v>
       </c>
       <c r="X115" s="4" t="s">
-        <v>1275</v>
+        <v>1265</v>
       </c>
       <c r="Y115" s="43">
         <v>55000040</v>
@@ -41953,7 +41925,7 @@
         <v>0.94262299999999999</v>
       </c>
       <c r="BF115" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="116" spans="1:58" ht="14.25">
@@ -42029,7 +42001,7 @@
         <v>31</v>
       </c>
       <c r="X116" s="4" t="s">
-        <v>1276</v>
+        <v>1266</v>
       </c>
       <c r="Y116" s="43">
         <v>55000040</v>
@@ -42138,7 +42110,7 @@
         <v>0.92786880000000005</v>
       </c>
       <c r="BF116" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="117" spans="1:58" ht="14.25">
@@ -42214,7 +42186,7 @@
         <v>4</v>
       </c>
       <c r="X117" s="7" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="Y117" s="43">
         <v>55000143</v>
@@ -42309,7 +42281,7 @@
         <v>0.38196720000000001</v>
       </c>
       <c r="BF117" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="118" spans="1:58" ht="14.25">
@@ -42385,7 +42357,7 @@
         <v>40</v>
       </c>
       <c r="X118" s="4" t="s">
-        <v>1277</v>
+        <v>1267</v>
       </c>
       <c r="Y118" s="43">
         <v>55000040</v>
@@ -42494,7 +42466,7 @@
         <v>0.9442623</v>
       </c>
       <c r="BF118" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="119" spans="1:58" ht="14.25">
@@ -42570,7 +42542,7 @@
         <v>100</v>
       </c>
       <c r="X119" s="4" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="Y119" s="43">
         <v>55000040</v>
@@ -42679,7 +42651,7 @@
         <v>0.95901639999999999</v>
       </c>
       <c r="BF119" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="120" spans="1:58" ht="14.25">
@@ -42755,7 +42727,7 @@
         <v>51</v>
       </c>
       <c r="X120" s="4" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="Y120" s="43">
         <v>55000040</v>
@@ -42864,7 +42836,7 @@
         <v>0.92786880000000005</v>
       </c>
       <c r="BF120" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="121" spans="1:58" ht="14.25">
@@ -42940,7 +42912,7 @@
         <v>22</v>
       </c>
       <c r="X121" s="4" t="s">
-        <v>1320</v>
+        <v>1305</v>
       </c>
       <c r="Y121" s="43">
         <v>55000040</v>
@@ -43049,7 +43021,7 @@
         <v>0.95409829999999995</v>
       </c>
       <c r="BF121" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="122" spans="1:58" ht="14.25">
@@ -43125,7 +43097,7 @@
         <v>4</v>
       </c>
       <c r="X122" s="4" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="Y122" s="43">
         <v>55000150</v>
@@ -43220,7 +43192,7 @@
         <v>0.24426229999999999</v>
       </c>
       <c r="BF122" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="123" spans="1:58" ht="14.25">
@@ -43296,7 +43268,7 @@
         <v>4</v>
       </c>
       <c r="X123" s="4" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="Y123" s="43">
         <v>55000227</v>
@@ -43395,7 +43367,7 @@
         <v>0.27213110000000001</v>
       </c>
       <c r="BF123" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="124" spans="1:58" ht="14.25">
@@ -43471,7 +43443,7 @@
         <v>2</v>
       </c>
       <c r="X124" s="4" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="Y124" s="43">
         <v>55000093</v>
@@ -43570,7 +43542,7 @@
         <v>0.49836069999999999</v>
       </c>
       <c r="BF124" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="125" spans="1:58" ht="14.25">
@@ -43646,7 +43618,7 @@
         <v>2</v>
       </c>
       <c r="X125" s="4" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="Y125" s="43">
         <v>55000008</v>
@@ -43745,7 +43717,7 @@
         <v>0.73114749999999995</v>
       </c>
       <c r="BF125" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="126" spans="1:58" ht="14.25">
@@ -43821,7 +43793,7 @@
         <v>24</v>
       </c>
       <c r="X126" s="4" t="s">
-        <v>1321</v>
+        <v>1306</v>
       </c>
       <c r="Y126" s="43">
         <v>55000151</v>
@@ -43912,7 +43884,7 @@
         <v>9.3442629999999999E-2</v>
       </c>
       <c r="BF126" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="127" spans="1:58" ht="14.25">
@@ -43988,7 +43960,7 @@
         <v>4</v>
       </c>
       <c r="X127" s="4" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="Y127" s="43">
         <v>55000248</v>
@@ -44079,7 +44051,7 @@
         <v>0.3</v>
       </c>
       <c r="BF127" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="128" spans="1:58" ht="14.25">
@@ -44155,7 +44127,7 @@
         <v>4</v>
       </c>
       <c r="X128" s="4" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="Y128" s="43">
         <v>55000152</v>
@@ -44250,7 +44222,7 @@
         <v>0.62131150000000002</v>
       </c>
       <c r="BF128" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="129" spans="1:58" ht="14.25">
@@ -44326,7 +44298,7 @@
         <v>2</v>
       </c>
       <c r="X129" s="4" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="Y129" s="43">
         <v>55000037</v>
@@ -44421,7 +44393,7 @@
         <v>0.85901640000000001</v>
       </c>
       <c r="BF129" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="130" spans="1:58" ht="14.25">
@@ -44497,7 +44469,7 @@
         <v>107</v>
       </c>
       <c r="X130" s="4" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="Y130" s="43">
         <v>55000153</v>
@@ -44588,7 +44560,7 @@
         <v>0.1114754</v>
       </c>
       <c r="BF130" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="131" spans="1:58" ht="14.25">
@@ -44664,7 +44636,7 @@
         <v>6</v>
       </c>
       <c r="X131" s="4" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="Y131" s="43">
         <v>55000002</v>
@@ -44755,7 +44727,7 @@
         <v>0.31639339999999999</v>
       </c>
       <c r="BF131" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="132" spans="1:58" ht="14.25">
@@ -44831,7 +44803,7 @@
         <v>4</v>
       </c>
       <c r="X132" s="4" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="Y132" s="43">
         <v>55000019</v>
@@ -44926,7 +44898,7 @@
         <v>0.76393440000000001</v>
       </c>
       <c r="BF132" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="133" spans="1:58" ht="14.25">
@@ -45002,7 +44974,7 @@
         <v>107</v>
       </c>
       <c r="X133" s="4" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="Y133" s="43">
         <v>55000011</v>
@@ -45097,7 +45069,7 @@
         <v>0.67213109999999998</v>
       </c>
       <c r="BF133" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="134" spans="1:58" ht="14.25">
@@ -45173,7 +45145,7 @@
         <v>2</v>
       </c>
       <c r="X134" s="4" t="s">
-        <v>1256</v>
+        <v>1249</v>
       </c>
       <c r="Y134" s="43">
         <v>55000035</v>
@@ -45268,7 +45240,7 @@
         <v>0.44098359999999998</v>
       </c>
       <c r="BF134" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="135" spans="1:58" ht="14.25">
@@ -45344,7 +45316,7 @@
         <v>78</v>
       </c>
       <c r="X135" s="7" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="Y135" s="43">
         <v>55000143</v>
@@ -45439,7 +45411,7 @@
         <v>0.43442619999999998</v>
       </c>
       <c r="BF135" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="136" spans="1:58" ht="14.25">
@@ -45515,7 +45487,7 @@
         <v>107</v>
       </c>
       <c r="X136" s="4" t="s">
-        <v>1278</v>
+        <v>1268</v>
       </c>
       <c r="Y136" s="43">
         <v>55000031</v>
@@ -45610,7 +45582,7 @@
         <v>0.50819669999999995</v>
       </c>
       <c r="BF136" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="137" spans="1:58" ht="14.25">
@@ -45686,7 +45658,7 @@
         <v>2</v>
       </c>
       <c r="X137" s="4" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="Y137" s="43">
         <v>55000012</v>
@@ -45789,7 +45761,7 @@
         <v>0.80983609999999995</v>
       </c>
       <c r="BF137" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="138" spans="1:58" ht="14.25">
@@ -45865,7 +45837,7 @@
         <v>6</v>
       </c>
       <c r="X138" s="4" t="s">
-        <v>1322</v>
+        <v>1307</v>
       </c>
       <c r="Y138" s="43">
         <v>55000157</v>
@@ -45960,7 +45932,7 @@
         <v>0.25245899999999999</v>
       </c>
       <c r="BF138" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="139" spans="1:58" ht="14.25">
@@ -46036,7 +46008,7 @@
         <v>107</v>
       </c>
       <c r="X139" s="4" t="s">
-        <v>1279</v>
+        <v>1269</v>
       </c>
       <c r="Y139" s="43">
         <v>55000119</v>
@@ -46135,7 +46107,7 @@
         <v>0.61311479999999996</v>
       </c>
       <c r="BF139" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="140" spans="1:58" ht="14.25">
@@ -46296,7 +46268,7 @@
         <v>0.36393439999999999</v>
       </c>
       <c r="BF140" s="22" t="s">
-        <v>1250</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="141" spans="1:58" ht="14.25">
@@ -46372,7 +46344,7 @@
         <v>12</v>
       </c>
       <c r="X141" s="4" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="Y141" s="43">
         <v>55000088</v>
@@ -46471,7 +46443,7 @@
         <v>0.52295080000000005</v>
       </c>
       <c r="BF141" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="142" spans="1:58" ht="14.25">
@@ -46547,7 +46519,7 @@
         <v>40</v>
       </c>
       <c r="X142" s="4" t="s">
-        <v>1280</v>
+        <v>1270</v>
       </c>
       <c r="Y142" s="43">
         <v>55000018</v>
@@ -46646,7 +46618,7 @@
         <v>0.3491803</v>
       </c>
       <c r="BF142" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="143" spans="1:58" ht="14.25">
@@ -46722,7 +46694,7 @@
         <v>4</v>
       </c>
       <c r="X143" s="4" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="Y143" s="43">
         <v>55000001</v>
@@ -46821,7 +46793,7 @@
         <v>0.26065569999999999</v>
       </c>
       <c r="BF143" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="144" spans="1:58" ht="14.25">
@@ -46897,7 +46869,7 @@
         <v>16</v>
       </c>
       <c r="X144" s="4" t="s">
-        <v>1323</v>
+        <v>1308</v>
       </c>
       <c r="Y144" s="43">
         <v>55000044</v>
@@ -46992,7 +46964,7 @@
         <v>0.56393439999999995</v>
       </c>
       <c r="BF144" s="22" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="145" spans="1:58" ht="14.25">
@@ -47153,7 +47125,7 @@
         <v>0.13770489999999999</v>
       </c>
       <c r="BF145" s="22" t="s">
-        <v>1250</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="146" spans="1:58" ht="14.25">
@@ -47229,7 +47201,7 @@
         <v>107</v>
       </c>
       <c r="X146" s="4" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="Y146" s="43">
         <v>55000101</v>
@@ -47328,7 +47300,7 @@
         <v>0.75081969999999998</v>
       </c>
       <c r="BF146" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="147" spans="1:58" ht="14.25">
@@ -47404,7 +47376,7 @@
         <v>19</v>
       </c>
       <c r="X147" s="4" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="Y147" s="43">
         <v>55000010</v>
@@ -47499,7 +47471,7 @@
         <v>0.41639340000000002</v>
       </c>
       <c r="BF147" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="148" spans="1:58" ht="14.25">
@@ -47572,10 +47544,10 @@
         <v>15</v>
       </c>
       <c r="W148" s="4" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="X148" s="4" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="Y148" s="43">
         <v>55000340</v>
@@ -47674,7 +47646,7 @@
         <v>0.1983607</v>
       </c>
       <c r="BF148" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="149" spans="1:58" ht="14.25">
@@ -47750,7 +47722,7 @@
         <v>166</v>
       </c>
       <c r="X149" s="4" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="Y149" s="43">
         <v>55000066</v>
@@ -47857,7 +47829,7 @@
         <v>0.52295080000000005</v>
       </c>
       <c r="BF149" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="150" spans="1:58" ht="14.25">
@@ -47933,7 +47905,7 @@
         <v>4</v>
       </c>
       <c r="X150" s="4" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="Y150" s="43">
         <v>55000017</v>
@@ -48032,7 +48004,7 @@
         <v>0.68852460000000004</v>
       </c>
       <c r="BF150" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="151" spans="1:58" ht="14.25">
@@ -48108,7 +48080,7 @@
         <v>16</v>
       </c>
       <c r="X151" s="4" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="Y151" s="43">
         <v>55000164</v>
@@ -48199,7 +48171,7 @@
         <v>0.47049180000000002</v>
       </c>
       <c r="BF151" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="152" spans="1:58" ht="14.25">
@@ -48360,7 +48332,7 @@
         <v>0.35409829999999998</v>
       </c>
       <c r="BF152" s="22" t="s">
-        <v>1250</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="153" spans="1:58" ht="14.25">
@@ -48436,7 +48408,7 @@
         <v>2</v>
       </c>
       <c r="X153" s="4" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="Y153" s="43">
         <v>55000089</v>
@@ -48527,7 +48499,7 @@
         <v>0.32295079999999998</v>
       </c>
       <c r="BF153" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="154" spans="1:58" ht="14.25">
@@ -48603,7 +48575,7 @@
         <v>172</v>
       </c>
       <c r="X154" s="4" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="Y154" s="43">
         <v>55000079</v>
@@ -48694,7 +48666,7 @@
         <v>0.40819670000000002</v>
       </c>
       <c r="BF154" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="155" spans="1:58" ht="14.25">
@@ -48767,10 +48739,10 @@
         <v>15</v>
       </c>
       <c r="W155" s="4" t="s">
-        <v>1245</v>
+        <v>1239</v>
       </c>
       <c r="X155" s="4" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="Y155" s="43">
         <v>55000165</v>
@@ -48865,7 +48837,7 @@
         <v>0.58688530000000005</v>
       </c>
       <c r="BF155" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="156" spans="1:58" ht="14.25">
@@ -48941,7 +48913,7 @@
         <v>4</v>
       </c>
       <c r="X156" s="4" t="s">
-        <v>1324</v>
+        <v>1309</v>
       </c>
       <c r="Y156" s="43">
         <v>55000166</v>
@@ -49032,7 +49004,7 @@
         <v>0.28196719999999997</v>
       </c>
       <c r="BF156" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="157" spans="1:58" ht="14.25">
@@ -49193,7 +49165,7 @@
         <v>0.12950819999999999</v>
       </c>
       <c r="BF157" s="22" t="s">
-        <v>1250</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="158" spans="1:58" ht="14.25">
@@ -49269,7 +49241,7 @@
         <v>2</v>
       </c>
       <c r="X158" s="4" t="s">
-        <v>1325</v>
+        <v>1310</v>
       </c>
       <c r="Y158" s="43">
         <v>55000049</v>
@@ -49360,7 +49332,7 @@
         <v>0.69016390000000005</v>
       </c>
       <c r="BF158" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="159" spans="1:58" ht="14.25">
@@ -49436,7 +49408,7 @@
         <v>2</v>
       </c>
       <c r="X159" s="4" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="Y159" s="43">
         <v>55000170</v>
@@ -49531,7 +49503,7 @@
         <v>0.52950819999999998</v>
       </c>
       <c r="BF159" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="160" spans="1:58" ht="14.25">
@@ -49607,7 +49579,7 @@
         <v>179</v>
       </c>
       <c r="X160" s="4" t="s">
-        <v>1326</v>
+        <v>1311</v>
       </c>
       <c r="Y160" s="43">
         <v>55000048</v>
@@ -49710,7 +49682,7 @@
         <v>0.94098360000000003</v>
       </c>
       <c r="BF160" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="161" spans="1:58" ht="14.25">
@@ -49871,7 +49843,7 @@
         <v>0.3098361</v>
       </c>
       <c r="BF161" s="22" t="s">
-        <v>1250</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="162" spans="1:58" ht="14.25">
@@ -49947,7 +49919,7 @@
         <v>107</v>
       </c>
       <c r="X162" s="4" t="s">
-        <v>1281</v>
+        <v>1271</v>
       </c>
       <c r="Y162" s="43">
         <v>55000150</v>
@@ -50042,7 +50014,7 @@
         <v>0.44754100000000002</v>
       </c>
       <c r="BF162" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="163" spans="1:58" ht="14.25">
@@ -50118,7 +50090,7 @@
         <v>107</v>
       </c>
       <c r="X163" s="4" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="Y163" s="43">
         <v>55000269</v>
@@ -50213,7 +50185,7 @@
         <v>0.45409840000000001</v>
       </c>
       <c r="BF163" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="164" spans="1:58" ht="14.25">
@@ -50277,7 +50249,7 @@
       </c>
       <c r="T164" s="15">
         <f t="shared" si="9"/>
-        <v>44.2</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="U164" s="4">
         <v>10</v>
@@ -50289,7 +50261,7 @@
         <v>16</v>
       </c>
       <c r="X164" s="4" t="s">
-        <v>1282</v>
+        <v>1399</v>
       </c>
       <c r="Y164" s="43">
         <v>55000167</v>
@@ -50303,12 +50275,8 @@
       <c r="AB164" s="21">
         <v>40</v>
       </c>
-      <c r="AC164" s="21">
-        <v>55010019</v>
-      </c>
-      <c r="AD164" s="21">
-        <v>100</v>
-      </c>
+      <c r="AC164" s="21"/>
+      <c r="AD164" s="21"/>
       <c r="AE164" s="21"/>
       <c r="AF164" s="21"/>
       <c r="AG164" s="21"/>
@@ -50319,7 +50287,7 @@
 IF(ISBLANK($AC164),0, LOOKUP($AC164,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AD164/100)+
 IF(ISBLANK($AE164),0, LOOKUP($AE164,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AF164/100)+
 IF(ISBLANK($AG164),0, LOOKUP($AG164,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AH164/100)</f>
-        <v>1320</v>
+        <v>720</v>
       </c>
       <c r="AJ164" s="21">
         <v>0</v>
@@ -50388,7 +50356,7 @@
         <v>0.64098359999999999</v>
       </c>
       <c r="BF164" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="165" spans="1:58" ht="14.25">
@@ -50464,7 +50432,7 @@
         <v>38</v>
       </c>
       <c r="X165" s="4" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="Y165" s="43">
         <v>55000145</v>
@@ -50563,7 +50531,7 @@
         <v>0.73114749999999995</v>
       </c>
       <c r="BF165" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="166" spans="1:58" ht="14.25">
@@ -50639,7 +50607,7 @@
         <v>100</v>
       </c>
       <c r="X166" s="4" t="s">
-        <v>1283</v>
+        <v>1272</v>
       </c>
       <c r="Y166" s="43">
         <v>55000094</v>
@@ -50734,7 +50702,7 @@
         <v>0.59344260000000004</v>
       </c>
       <c r="BF166" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="167" spans="1:58" ht="14.25">
@@ -50810,7 +50778,7 @@
         <v>24</v>
       </c>
       <c r="X167" s="4" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="Y167" s="43">
         <v>55000174</v>
@@ -50905,7 +50873,7 @@
         <v>0.60327869999999995</v>
       </c>
       <c r="BF167" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="168" spans="1:58" ht="14.25">
@@ -50981,7 +50949,7 @@
         <v>16</v>
       </c>
       <c r="X168" s="4" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="Y168" s="43">
         <v>55000030</v>
@@ -51080,7 +51048,7 @@
         <v>0.85409840000000004</v>
       </c>
       <c r="BF168" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="169" spans="1:58" ht="14.25">
@@ -51156,7 +51124,7 @@
         <v>9</v>
       </c>
       <c r="X169" s="4" t="s">
-        <v>1284</v>
+        <v>1273</v>
       </c>
       <c r="Y169" s="43">
         <v>55000179</v>
@@ -51251,7 +51219,7 @@
         <v>5.7377049999999999E-2</v>
       </c>
       <c r="BF169" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="170" spans="1:58" ht="14.25">
@@ -51327,7 +51295,7 @@
         <v>9</v>
       </c>
       <c r="X170" s="4" t="s">
-        <v>1285</v>
+        <v>1274</v>
       </c>
       <c r="Y170" s="43">
         <v>55000178</v>
@@ -51422,7 +51390,7 @@
         <v>4.0983609999999997E-2</v>
       </c>
       <c r="BF170" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="171" spans="1:58" ht="14.25">
@@ -51498,7 +51466,7 @@
         <v>4</v>
       </c>
       <c r="X171" s="4" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="Y171" s="43">
         <v>55000180</v>
@@ -51601,7 +51569,7 @@
         <v>4.590164E-2</v>
       </c>
       <c r="BF171" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="172" spans="1:58" ht="14.25">
@@ -51677,7 +51645,7 @@
         <v>4</v>
       </c>
       <c r="X172" s="4" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="Y172" s="43">
         <v>55000181</v>
@@ -51776,7 +51744,7 @@
         <v>0.77540980000000004</v>
       </c>
       <c r="BF172" s="22" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="173" spans="1:58" ht="14.25">
@@ -51849,10 +51817,10 @@
         <v>15</v>
       </c>
       <c r="W173" s="4" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="X173" s="4" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="Y173" s="43">
         <v>55000015</v>
@@ -51951,7 +51919,7 @@
         <v>9.0163930000000003E-2</v>
       </c>
       <c r="BF173" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="174" spans="1:58" ht="14.25">
@@ -52027,7 +51995,7 @@
         <v>69</v>
       </c>
       <c r="X174" s="4" t="s">
-        <v>1347</v>
+        <v>1332</v>
       </c>
       <c r="Y174" s="43">
         <v>55000184</v>
@@ -52122,7 +52090,7 @@
         <v>0.56721310000000003</v>
       </c>
       <c r="BF174" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="175" spans="1:58" ht="14.25">
@@ -52198,7 +52166,7 @@
         <v>2</v>
       </c>
       <c r="X175" s="4" t="s">
-        <v>1327</v>
+        <v>1312</v>
       </c>
       <c r="Y175" s="43">
         <v>55000185</v>
@@ -52293,7 +52261,7 @@
         <v>0.104918</v>
       </c>
       <c r="BF175" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="176" spans="1:58" ht="14.25">
@@ -52369,7 +52337,7 @@
         <v>12</v>
       </c>
       <c r="X176" s="4" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="Y176" s="43">
         <v>55000186</v>
@@ -52468,7 +52436,7 @@
         <v>0.57213119999999995</v>
       </c>
       <c r="BF176" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="177" spans="1:58" ht="14.25">
@@ -52544,7 +52512,7 @@
         <v>4</v>
       </c>
       <c r="X177" s="4" t="s">
-        <v>1328</v>
+        <v>1313</v>
       </c>
       <c r="Y177" s="43">
         <v>55000188</v>
@@ -52643,7 +52611,7 @@
         <v>0.25737710000000003</v>
       </c>
       <c r="BF177" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="178" spans="1:58" ht="14.25">
@@ -52719,7 +52687,7 @@
         <v>4</v>
       </c>
       <c r="X178" s="4" t="s">
-        <v>1286</v>
+        <v>1275</v>
       </c>
       <c r="Y178" s="43">
         <v>55000087</v>
@@ -52814,7 +52782,7 @@
         <v>0.64590159999999996</v>
       </c>
       <c r="BF178" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="179" spans="1:58" ht="14.25">
@@ -52890,7 +52858,7 @@
         <v>2</v>
       </c>
       <c r="X179" s="4" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="Y179" s="43">
         <v>55000189</v>
@@ -52981,7 +52949,7 @@
         <v>0.49508200000000002</v>
       </c>
       <c r="BF179" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="180" spans="1:58" ht="14.25">
@@ -53057,7 +53025,7 @@
         <v>65</v>
       </c>
       <c r="X180" s="4" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="Y180" s="43">
         <v>55000061</v>
@@ -53164,7 +53132,7 @@
         <v>0.80819669999999999</v>
       </c>
       <c r="BF180" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="181" spans="1:58" ht="14.25">
@@ -53240,7 +53208,7 @@
         <v>976</v>
       </c>
       <c r="X181" s="4" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="Y181" s="43">
         <v>55000044</v>
@@ -53343,7 +53311,7 @@
         <v>0.91639349999999997</v>
       </c>
       <c r="BF181" s="22" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="182" spans="1:58" ht="14.25">
@@ -53419,7 +53387,7 @@
         <v>4</v>
       </c>
       <c r="X182" s="4" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="Y182" s="43">
         <v>55000193</v>
@@ -53514,7 +53482,7 @@
         <v>0.27377050000000003</v>
       </c>
       <c r="BF182" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="183" spans="1:58" ht="14.25">
@@ -53590,7 +53558,7 @@
         <v>16</v>
       </c>
       <c r="X183" s="4" t="s">
-        <v>1287</v>
+        <v>1276</v>
       </c>
       <c r="Y183" s="43">
         <v>55000297</v>
@@ -53685,7 +53653,7 @@
         <v>0.89508200000000004</v>
       </c>
       <c r="BF183" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="184" spans="1:58" ht="14.25">
@@ -53761,7 +53729,7 @@
         <v>78</v>
       </c>
       <c r="X184" s="4" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="Y184" s="43">
         <v>55000095</v>
@@ -53852,7 +53820,7 @@
         <v>0.65245900000000001</v>
       </c>
       <c r="BF184" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="185" spans="1:58" ht="14.25">
@@ -53928,7 +53896,7 @@
         <v>12</v>
       </c>
       <c r="X185" s="4" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="Y185" s="43">
         <v>55000194</v>
@@ -54035,7 +54003,7 @@
         <v>0.91639349999999997</v>
       </c>
       <c r="BF185" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="186" spans="1:58" ht="14.25">
@@ -54111,7 +54079,7 @@
         <v>78</v>
       </c>
       <c r="X186" s="4" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="Y186" s="43">
         <v>55000125</v>
@@ -54206,7 +54174,7 @@
         <v>0.73114749999999995</v>
       </c>
       <c r="BF186" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="187" spans="1:58" ht="14.25">
@@ -54270,7 +54238,7 @@
       </c>
       <c r="T187" s="15">
         <f t="shared" si="9"/>
-        <v>39.200000000000003</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="U187" s="4">
         <v>10</v>
@@ -54282,7 +54250,7 @@
         <v>6</v>
       </c>
       <c r="X187" s="4" t="s">
-        <v>1140</v>
+        <v>1401</v>
       </c>
       <c r="Y187" s="43">
         <v>55000089</v>
@@ -54296,12 +54264,8 @@
       <c r="AB187" s="21">
         <v>100</v>
       </c>
-      <c r="AC187" s="21">
-        <v>55010019</v>
-      </c>
-      <c r="AD187" s="21">
-        <v>100</v>
-      </c>
+      <c r="AC187" s="21"/>
+      <c r="AD187" s="21"/>
       <c r="AE187" s="21"/>
       <c r="AF187" s="21"/>
       <c r="AG187" s="21"/>
@@ -54312,7 +54276,7 @@
 IF(ISBLANK($AC187),0, LOOKUP($AC187,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AD187/100)+
 IF(ISBLANK($AE187),0, LOOKUP($AE187,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AF187/100)+
 IF(ISBLANK($AG187),0, LOOKUP($AG187,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AH187/100)</f>
-        <v>1620</v>
+        <v>1020</v>
       </c>
       <c r="AJ187" s="21">
         <v>0</v>
@@ -54381,7 +54345,7 @@
         <v>0.37377050000000001</v>
       </c>
       <c r="BF187" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="188" spans="1:58" ht="14.25">
@@ -54457,7 +54421,7 @@
         <v>2</v>
       </c>
       <c r="X188" s="4" t="s">
-        <v>1288</v>
+        <v>1277</v>
       </c>
       <c r="Y188" s="43">
         <v>55000196</v>
@@ -54564,7 +54528,7 @@
         <v>0.9442623</v>
       </c>
       <c r="BF188" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="189" spans="1:58" ht="14.25">
@@ -54640,7 +54604,7 @@
         <v>4</v>
       </c>
       <c r="X189" s="4" t="s">
-        <v>1329</v>
+        <v>1314</v>
       </c>
       <c r="Y189" s="43">
         <v>55000044</v>
@@ -54731,7 +54695,7 @@
         <v>0.50655740000000005</v>
       </c>
       <c r="BF189" s="22" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="190" spans="1:58" ht="14.25">
@@ -54892,7 +54856,7 @@
         <v>0.1508197</v>
       </c>
       <c r="BF190" s="22" t="s">
-        <v>1250</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="191" spans="1:58" ht="14.25">
@@ -54968,7 +54932,7 @@
         <v>24</v>
       </c>
       <c r="X191" s="4" t="s">
-        <v>1141</v>
+        <v>1136</v>
       </c>
       <c r="Y191" s="43">
         <v>55000074</v>
@@ -55063,7 +55027,7 @@
         <v>0.85409840000000004</v>
       </c>
       <c r="BF191" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="192" spans="1:58" ht="14.25">
@@ -55136,10 +55100,10 @@
         <v>12</v>
       </c>
       <c r="W192" s="4" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="X192" s="4" t="s">
-        <v>1142</v>
+        <v>1137</v>
       </c>
       <c r="Y192" s="43">
         <v>55000001</v>
@@ -55242,7 +55206,7 @@
         <v>0.86229509999999998</v>
       </c>
       <c r="BF192" s="22" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="193" spans="1:58" ht="14.25">
@@ -55318,7 +55282,7 @@
         <v>2</v>
       </c>
       <c r="X193" s="4" t="s">
-        <v>1143</v>
+        <v>1138</v>
       </c>
       <c r="Y193" s="43">
         <v>55000036</v>
@@ -55417,7 +55381,7 @@
         <v>0.8180328</v>
       </c>
       <c r="BF193" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="194" spans="1:58" ht="14.25">
@@ -55493,7 +55457,7 @@
         <v>16</v>
       </c>
       <c r="X194" s="4" t="s">
-        <v>1144</v>
+        <v>1139</v>
       </c>
       <c r="Y194" s="43">
         <v>55000002</v>
@@ -55592,7 +55556,7 @@
         <v>0.89672130000000005</v>
       </c>
       <c r="BF194" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="195" spans="1:58" ht="14.25">
@@ -55668,7 +55632,7 @@
         <v>209</v>
       </c>
       <c r="X195" s="4" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
       <c r="Y195" s="43">
         <v>55000016</v>
@@ -55775,7 +55739,7 @@
         <v>0.74262300000000003</v>
       </c>
       <c r="BF195" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="196" spans="1:58" ht="14.25">
@@ -55851,7 +55815,7 @@
         <v>4</v>
       </c>
       <c r="X196" s="4" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="Y196" s="43">
         <v>55000037</v>
@@ -55946,7 +55910,7 @@
         <v>0.79180329999999999</v>
       </c>
       <c r="BF196" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="197" spans="1:58" ht="14.25">
@@ -56022,7 +55986,7 @@
         <v>4</v>
       </c>
       <c r="X197" s="4" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="Y197" s="43">
         <v>55000020</v>
@@ -56121,7 +56085,7 @@
         <v>0.8327869</v>
       </c>
       <c r="BF197" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="198" spans="1:58" ht="14.25">
@@ -56197,7 +56161,7 @@
         <v>22</v>
       </c>
       <c r="X198" s="4" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
       <c r="Y198" s="43">
         <v>55000036</v>
@@ -56296,7 +56260,7 @@
         <v>0.81967210000000001</v>
       </c>
       <c r="BF198" s="22" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="199" spans="1:58" ht="14.25">
@@ -56372,7 +56336,7 @@
         <v>2</v>
       </c>
       <c r="X199" s="4" t="s">
-        <v>1149</v>
+        <v>1144</v>
       </c>
       <c r="Y199" s="43">
         <v>55000110</v>
@@ -56471,7 +56435,7 @@
         <v>0.9606557</v>
       </c>
       <c r="BF199" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="200" spans="1:58" ht="14.25">
@@ -56547,7 +56511,7 @@
         <v>4</v>
       </c>
       <c r="X200" s="4" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
       <c r="Y200" s="43">
         <v>55000002</v>
@@ -56646,7 +56610,7 @@
         <v>0.82459009999999999</v>
       </c>
       <c r="BF200" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="201" spans="1:58" ht="14.25">
@@ -56722,7 +56686,7 @@
         <v>12</v>
       </c>
       <c r="X201" s="4" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="Y201" s="43">
         <v>55000036</v>
@@ -56817,7 +56781,7 @@
         <v>0.70327870000000003</v>
       </c>
       <c r="BF201" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="202" spans="1:58" ht="14.25">
@@ -56890,10 +56854,10 @@
         <v>0</v>
       </c>
       <c r="W202" s="4" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
       <c r="X202" s="4" t="s">
-        <v>1330</v>
+        <v>1315</v>
       </c>
       <c r="Y202" s="43">
         <v>55000203</v>
@@ -56988,7 +56952,7 @@
         <v>8.3606559999999996E-2</v>
       </c>
       <c r="BF202" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="203" spans="1:58" ht="14.25">
@@ -57064,7 +57028,7 @@
         <v>16</v>
       </c>
       <c r="X203" s="4" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="Y203" s="43">
         <v>55000192</v>
@@ -57159,7 +57123,7 @@
         <v>0.38196720000000001</v>
       </c>
       <c r="BF203" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="204" spans="1:58" ht="14.25">
@@ -57235,7 +57199,7 @@
         <v>2</v>
       </c>
       <c r="X204" s="4" t="s">
-        <v>1289</v>
+        <v>1278</v>
       </c>
       <c r="Y204" s="43">
         <v>55000150</v>
@@ -57330,7 +57294,7 @@
         <v>0.3885246</v>
       </c>
       <c r="BF204" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="205" spans="1:58" ht="14.25">
@@ -57403,10 +57367,10 @@
         <v>15</v>
       </c>
       <c r="W205" s="4" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
       <c r="X205" s="4" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="Y205" s="43">
         <v>55000197</v>
@@ -57501,7 +57465,7 @@
         <v>0.3180328</v>
       </c>
       <c r="BF205" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="206" spans="1:58" ht="14.25">
@@ -57565,7 +57529,7 @@
       </c>
       <c r="T206" s="15">
         <f t="shared" si="13"/>
-        <v>40.4</v>
+        <v>34.4</v>
       </c>
       <c r="U206" s="4">
         <v>10</v>
@@ -57577,7 +57541,7 @@
         <v>94</v>
       </c>
       <c r="X206" s="4" t="s">
-        <v>1290</v>
+        <v>1404</v>
       </c>
       <c r="Y206" s="43">
         <v>55000003</v>
@@ -57592,17 +57556,13 @@
         <v>100</v>
       </c>
       <c r="AC206" s="21">
-        <v>55010019</v>
+        <v>55010028</v>
       </c>
       <c r="AD206" s="21">
         <v>100</v>
       </c>
-      <c r="AE206" s="21">
-        <v>55010028</v>
-      </c>
-      <c r="AF206" s="21">
-        <v>100</v>
-      </c>
+      <c r="AE206" s="21"/>
+      <c r="AF206" s="21"/>
       <c r="AG206" s="21"/>
       <c r="AH206" s="21"/>
       <c r="AI206" s="21">
@@ -57611,7 +57571,7 @@
 IF(ISBLANK($AC206),0, LOOKUP($AC206,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AD206/100)+
 IF(ISBLANK($AE206),0, LOOKUP($AE206,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AF206/100)+
 IF(ISBLANK($AG206),0, LOOKUP($AG206,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AH206/100)</f>
-        <v>1440</v>
+        <v>840</v>
       </c>
       <c r="AJ206" s="21">
         <v>0</v>
@@ -57680,7 +57640,7 @@
         <v>0.54754100000000006</v>
       </c>
       <c r="BF206" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="207" spans="1:58" ht="14.25">
@@ -57756,7 +57716,7 @@
         <v>172</v>
       </c>
       <c r="X207" s="4" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="Y207" s="43">
         <v>55000206</v>
@@ -57847,7 +57807,7 @@
         <v>0.20491799999999999</v>
       </c>
       <c r="BF207" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="208" spans="1:58" ht="14.25">
@@ -57923,7 +57883,7 @@
         <v>6</v>
       </c>
       <c r="X208" s="7" t="s">
-        <v>1291</v>
+        <v>1279</v>
       </c>
       <c r="Y208" s="43">
         <v>55000207</v>
@@ -58018,7 +57978,7 @@
         <v>0.53278689999999995</v>
       </c>
       <c r="BF208" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="209" spans="1:58" ht="14.25">
@@ -58094,7 +58054,7 @@
         <v>2</v>
       </c>
       <c r="X209" s="4" t="s">
-        <v>1292</v>
+        <v>1280</v>
       </c>
       <c r="Y209" s="43">
         <v>55000120</v>
@@ -58189,7 +58149,7 @@
         <v>0.1622951</v>
       </c>
       <c r="BF209" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="210" spans="1:58" ht="14.25">
@@ -58265,7 +58225,7 @@
         <v>172</v>
       </c>
       <c r="X210" s="4" t="s">
-        <v>1331</v>
+        <v>1316</v>
       </c>
       <c r="Y210" s="43">
         <v>55000001</v>
@@ -58360,7 +58320,7 @@
         <v>0.37704919999999997</v>
       </c>
       <c r="BF210" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="211" spans="1:58" ht="14.25">
@@ -58436,7 +58396,7 @@
         <v>69</v>
       </c>
       <c r="X211" s="4" t="s">
-        <v>1332</v>
+        <v>1317</v>
       </c>
       <c r="Y211" s="43">
         <v>55000208</v>
@@ -58535,7 +58495,7 @@
         <v>0.6426229</v>
       </c>
       <c r="BF211" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="212" spans="1:58" ht="14.25">
@@ -58599,7 +58559,7 @@
       </c>
       <c r="T212" s="15">
         <f t="shared" si="13"/>
-        <v>21.666</v>
+        <v>15.666</v>
       </c>
       <c r="U212" s="4">
         <v>40</v>
@@ -58611,7 +58571,7 @@
         <v>132</v>
       </c>
       <c r="X212" s="4" t="s">
-        <v>1293</v>
+        <v>1406</v>
       </c>
       <c r="Y212" s="43">
         <v>55000103</v>
@@ -58626,17 +58586,13 @@
         <v>10</v>
       </c>
       <c r="AC212" s="21">
-        <v>55010019</v>
+        <v>55010028</v>
       </c>
       <c r="AD212" s="21">
         <v>100</v>
       </c>
-      <c r="AE212" s="21">
-        <v>55010028</v>
-      </c>
-      <c r="AF212" s="21">
-        <v>100</v>
-      </c>
+      <c r="AE212" s="21"/>
+      <c r="AF212" s="21"/>
       <c r="AG212" s="21"/>
       <c r="AH212" s="21"/>
       <c r="AI212" s="21">
@@ -58645,7 +58601,7 @@
 IF(ISBLANK($AC212),0, LOOKUP($AC212,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AD212/100)+
 IF(ISBLANK($AE212),0, LOOKUP($AE212,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AF212/100)+
 IF(ISBLANK($AG212),0, LOOKUP($AG212,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AH212/100)</f>
-        <v>2266.6</v>
+        <v>1666.6</v>
       </c>
       <c r="AJ212" s="21">
         <v>0</v>
@@ -58714,7 +58670,7 @@
         <v>0.67704920000000002</v>
       </c>
       <c r="BF212" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="213" spans="1:58" ht="14.25">
@@ -58790,7 +58746,7 @@
         <v>228</v>
       </c>
       <c r="X213" s="4" t="s">
-        <v>1294</v>
+        <v>1281</v>
       </c>
       <c r="Y213" s="43">
         <v>55000114</v>
@@ -58897,7 +58853,7 @@
         <v>0.79016390000000003</v>
       </c>
       <c r="BF213" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="214" spans="1:58" ht="14.25">
@@ -58973,7 +58929,7 @@
         <v>2</v>
       </c>
       <c r="X214" s="4" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="Y214" s="43">
         <v>55000002</v>
@@ -59072,7 +59028,7 @@
         <v>0.3803279</v>
       </c>
       <c r="BF214" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="215" spans="1:58" ht="14.25">
@@ -59148,7 +59104,7 @@
         <v>190</v>
       </c>
       <c r="X215" s="4" t="s">
-        <v>1295</v>
+        <v>1282</v>
       </c>
       <c r="Y215" s="43">
         <v>55000102</v>
@@ -59255,7 +59211,7 @@
         <v>0.75901640000000004</v>
       </c>
       <c r="BF215" s="22" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="216" spans="1:58" ht="14.25">
@@ -59331,7 +59287,7 @@
         <v>6</v>
       </c>
       <c r="X216" s="4" t="s">
-        <v>1156</v>
+        <v>1151</v>
       </c>
       <c r="Y216" s="43">
         <v>55000038</v>
@@ -59422,7 +59378,7 @@
         <v>0.75737699999999997</v>
       </c>
       <c r="BF216" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="217" spans="1:58" ht="14.25">
@@ -59498,7 +59454,7 @@
         <v>4</v>
       </c>
       <c r="X217" s="4" t="s">
-        <v>1333</v>
+        <v>1318</v>
       </c>
       <c r="Y217" s="43">
         <v>55000001</v>
@@ -59593,7 +59549,7 @@
         <v>0.37377050000000001</v>
       </c>
       <c r="BF217" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="218" spans="1:58" ht="14.25">
@@ -59669,7 +59625,7 @@
         <v>4</v>
       </c>
       <c r="X218" s="4" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="Y218" s="43">
         <v>55000340</v>
@@ -59768,7 +59724,7 @@
         <v>0.24098359999999999</v>
       </c>
       <c r="BF218" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="219" spans="1:58" ht="14.25">
@@ -59841,10 +59797,10 @@
         <v>15</v>
       </c>
       <c r="W219" s="4" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
       <c r="X219" s="4" t="s">
-        <v>1348</v>
+        <v>1333</v>
       </c>
       <c r="Y219" s="43">
         <v>55000070</v>
@@ -59951,7 +59907,7 @@
         <v>0.48032789999999997</v>
       </c>
       <c r="BF219" s="22" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="220" spans="1:58" ht="14.25">
@@ -60027,7 +59983,7 @@
         <v>65</v>
       </c>
       <c r="X220" s="4" t="s">
-        <v>1296</v>
+        <v>1283</v>
       </c>
       <c r="Y220" s="43">
         <v>55000101</v>
@@ -60122,7 +60078,7 @@
         <v>0.404918</v>
       </c>
       <c r="BF220" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="221" spans="1:58" ht="14.25">
@@ -60198,7 +60154,7 @@
         <v>237</v>
       </c>
       <c r="X221" s="4" t="s">
-        <v>1334</v>
+        <v>1319</v>
       </c>
       <c r="Y221" s="43">
         <v>55000215</v>
@@ -60297,7 +60253,7 @@
         <v>0.69672129999999999</v>
       </c>
       <c r="BF221" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="222" spans="1:58" ht="14.25">
@@ -60373,7 +60329,7 @@
         <v>6</v>
       </c>
       <c r="X222" s="4" t="s">
-        <v>1158</v>
+        <v>1153</v>
       </c>
       <c r="Y222" s="43">
         <v>55000217</v>
@@ -60468,7 +60424,7 @@
         <v>0.41639340000000002</v>
       </c>
       <c r="BF222" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="223" spans="1:58" ht="14.25">
@@ -60532,7 +60488,7 @@
       </c>
       <c r="T223" s="15">
         <f t="shared" si="13"/>
-        <v>-3</v>
+        <v>-9</v>
       </c>
       <c r="U223" s="4">
         <v>10</v>
@@ -60544,7 +60500,7 @@
         <v>9</v>
       </c>
       <c r="X223" s="4" t="s">
-        <v>1297</v>
+        <v>1395</v>
       </c>
       <c r="Y223" s="43">
         <v>55000218</v>
@@ -60552,12 +60508,8 @@
       <c r="Z223" s="21">
         <v>100</v>
       </c>
-      <c r="AA223" s="21">
-        <v>55010018</v>
-      </c>
-      <c r="AB223" s="21">
-        <v>100</v>
-      </c>
+      <c r="AA223" s="21"/>
+      <c r="AB223" s="21"/>
       <c r="AC223" s="21"/>
       <c r="AD223" s="21"/>
       <c r="AE223" s="21"/>
@@ -60570,7 +60522,7 @@
 IF(ISBLANK($AC223),0, LOOKUP($AC223,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AD223/100)+
 IF(ISBLANK($AE223),0, LOOKUP($AE223,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AF223/100)+
 IF(ISBLANK($AG223),0, LOOKUP($AG223,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AH223/100)</f>
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="AJ223" s="21">
         <v>0</v>
@@ -60639,7 +60591,7 @@
         <v>0.49508200000000002</v>
       </c>
       <c r="BF223" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="224" spans="1:58" ht="14.25">
@@ -60715,7 +60667,7 @@
         <v>107</v>
       </c>
       <c r="X224" s="7" t="s">
-        <v>1159</v>
+        <v>1154</v>
       </c>
       <c r="Y224" s="43">
         <v>55000143</v>
@@ -60810,7 +60762,7 @@
         <v>0.83934430000000004</v>
       </c>
       <c r="BF224" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="225" spans="1:58" ht="14.25">
@@ -60886,7 +60838,7 @@
         <v>16</v>
       </c>
       <c r="X225" s="4" t="s">
-        <v>1349</v>
+        <v>1334</v>
       </c>
       <c r="Y225" s="43">
         <v>55000009</v>
@@ -60985,7 +60937,7 @@
         <v>0.69016390000000005</v>
       </c>
       <c r="BF225" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="226" spans="1:58" ht="14.25">
@@ -61061,7 +61013,7 @@
         <v>9</v>
       </c>
       <c r="X226" s="4" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
       <c r="Y226" s="43">
         <v>55000221</v>
@@ -61160,7 +61112,7 @@
         <v>0.82786890000000002</v>
       </c>
       <c r="BF226" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="227" spans="1:58" ht="14.25">
@@ -61236,7 +61188,7 @@
         <v>172</v>
       </c>
       <c r="X227" s="4" t="s">
-        <v>1161</v>
+        <v>1156</v>
       </c>
       <c r="Y227" s="43">
         <v>55000222</v>
@@ -61335,7 +61287,7 @@
         <v>0.8</v>
       </c>
       <c r="BF227" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="228" spans="1:58" ht="14.25">
@@ -61399,7 +61351,7 @@
       </c>
       <c r="T228" s="15">
         <f t="shared" si="13"/>
-        <v>35.1</v>
+        <v>29.1</v>
       </c>
       <c r="U228" s="4">
         <v>10</v>
@@ -61411,7 +61363,7 @@
         <v>245</v>
       </c>
       <c r="X228" s="4" t="s">
-        <v>1162</v>
+        <v>1400</v>
       </c>
       <c r="Y228" s="43">
         <v>55000160</v>
@@ -61426,17 +61378,13 @@
         <v>15</v>
       </c>
       <c r="AC228" s="21">
-        <v>55010019</v>
+        <v>55010028</v>
       </c>
       <c r="AD228" s="21">
         <v>100</v>
       </c>
-      <c r="AE228" s="21">
-        <v>55010028</v>
-      </c>
-      <c r="AF228" s="21">
-        <v>100</v>
-      </c>
+      <c r="AE228" s="21"/>
+      <c r="AF228" s="21"/>
       <c r="AG228" s="21"/>
       <c r="AH228" s="21"/>
       <c r="AI228" s="21">
@@ -61445,7 +61393,7 @@
 IF(ISBLANK($AC228),0, LOOKUP($AC228,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AD228/100)+
 IF(ISBLANK($AE228),0, LOOKUP($AE228,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AF228/100)+
 IF(ISBLANK($AG228),0, LOOKUP($AG228,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AH228/100)</f>
-        <v>1410</v>
+        <v>810</v>
       </c>
       <c r="AJ228" s="21">
         <v>0</v>
@@ -61514,7 +61462,7 @@
         <v>0.52295080000000005</v>
       </c>
       <c r="BF228" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="229" spans="1:58" ht="14.25">
@@ -61590,7 +61538,7 @@
         <v>24</v>
       </c>
       <c r="X229" s="4" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="Y229" s="43">
         <v>55000093</v>
@@ -61689,7 +61637,7 @@
         <v>0.47540979999999999</v>
       </c>
       <c r="BF229" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="230" spans="1:58" ht="14.25">
@@ -61765,7 +61713,7 @@
         <v>9</v>
       </c>
       <c r="X230" s="4" t="s">
-        <v>1298</v>
+        <v>1284</v>
       </c>
       <c r="Y230" s="43">
         <v>55000225</v>
@@ -61860,7 +61808,7 @@
         <v>5.2459020000000002E-2</v>
       </c>
       <c r="BF230" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="231" spans="1:58" ht="14.25">
@@ -61936,7 +61884,7 @@
         <v>9</v>
       </c>
       <c r="X231" s="4" t="s">
-        <v>1299</v>
+        <v>1285</v>
       </c>
       <c r="Y231" s="43">
         <v>55000226</v>
@@ -62031,7 +61979,7 @@
         <v>5.4098359999999998E-2</v>
       </c>
       <c r="BF231" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="232" spans="1:58" ht="14.25">
@@ -62192,7 +62140,7 @@
         <v>3.9344259999999999E-2</v>
       </c>
       <c r="BF232" s="22" t="s">
-        <v>1250</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="233" spans="1:58" ht="14.25">
@@ -62268,7 +62216,7 @@
         <v>251</v>
       </c>
       <c r="X233" s="4" t="s">
-        <v>1335</v>
+        <v>1320</v>
       </c>
       <c r="Y233" s="43">
         <v>55000120</v>
@@ -62363,7 +62311,7 @@
         <v>0.54426229999999998</v>
       </c>
       <c r="BF233" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="234" spans="1:58" ht="14.25">
@@ -62439,7 +62387,7 @@
         <v>22</v>
       </c>
       <c r="X234" s="4" t="s">
-        <v>1164</v>
+        <v>1158</v>
       </c>
       <c r="Y234" s="43">
         <v>55000002</v>
@@ -62534,7 +62482,7 @@
         <v>0.8573771</v>
       </c>
       <c r="BF234" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="235" spans="1:58" ht="14.25">
@@ -62598,7 +62546,7 @@
       </c>
       <c r="T235" s="15">
         <f t="shared" si="13"/>
-        <v>18.8</v>
+        <v>12.8</v>
       </c>
       <c r="U235" s="4">
         <v>10</v>
@@ -62610,7 +62558,7 @@
         <v>6</v>
       </c>
       <c r="X235" s="4" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
       <c r="Y235" s="43">
         <v>55000087</v>
@@ -62624,12 +62572,8 @@
       <c r="AB235" s="21">
         <v>100</v>
       </c>
-      <c r="AC235" s="21">
-        <v>55010019</v>
-      </c>
-      <c r="AD235" s="21">
-        <v>100</v>
-      </c>
+      <c r="AC235" s="21"/>
+      <c r="AD235" s="21"/>
       <c r="AE235" s="21"/>
       <c r="AF235" s="21"/>
       <c r="AG235" s="21"/>
@@ -62640,7 +62584,7 @@
 IF(ISBLANK($AC235),0, LOOKUP($AC235,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AD235/100)+
 IF(ISBLANK($AE235),0, LOOKUP($AE235,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AF235/100)+
 IF(ISBLANK($AG235),0, LOOKUP($AG235,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AH235/100)</f>
-        <v>780</v>
+        <v>180</v>
       </c>
       <c r="AJ235" s="21">
         <v>0</v>
@@ -62709,7 +62653,7 @@
         <v>0.595082</v>
       </c>
       <c r="BF235" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="236" spans="1:58" ht="14.25">
@@ -62785,7 +62729,7 @@
         <v>12</v>
       </c>
       <c r="X236" s="4" t="s">
-        <v>1166</v>
+        <v>1160</v>
       </c>
       <c r="Y236" s="43">
         <v>55000237</v>
@@ -62880,7 +62824,7 @@
         <v>0.47704920000000001</v>
       </c>
       <c r="BF236" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="237" spans="1:58" ht="14.25">
@@ -62956,7 +62900,7 @@
         <v>2</v>
       </c>
       <c r="X237" s="4" t="s">
-        <v>1167</v>
+        <v>1161</v>
       </c>
       <c r="Y237" s="43">
         <v>55000003</v>
@@ -63059,7 +63003,7 @@
         <v>0.70327870000000003</v>
       </c>
       <c r="BF237" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="238" spans="1:58" ht="14.25">
@@ -63135,7 +63079,7 @@
         <v>4</v>
       </c>
       <c r="X238" s="7" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
       <c r="Y238" s="43">
         <v>55000033</v>
@@ -63230,7 +63174,7 @@
         <v>9.3442629999999999E-2</v>
       </c>
       <c r="BF238" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="239" spans="1:58" ht="14.25">
@@ -63306,7 +63250,7 @@
         <v>4</v>
       </c>
       <c r="X239" s="4" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="Y239" s="43">
         <v>55000199</v>
@@ -63401,7 +63345,7 @@
         <v>0.77377050000000003</v>
       </c>
       <c r="BF239" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="240" spans="1:58" ht="14.25">
@@ -63477,7 +63421,7 @@
         <v>2</v>
       </c>
       <c r="X240" s="4" t="s">
-        <v>1336</v>
+        <v>1321</v>
       </c>
       <c r="Y240" s="43">
         <v>55000006</v>
@@ -63576,7 +63520,7 @@
         <v>0.63934429999999998</v>
       </c>
       <c r="BF240" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="241" spans="1:58" ht="14.25">
@@ -63652,7 +63596,7 @@
         <v>16</v>
       </c>
       <c r="X241" s="4" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
       <c r="Y241" s="43">
         <v>55000216</v>
@@ -63755,7 +63699,7 @@
         <v>0.89016399999999996</v>
       </c>
       <c r="BF241" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="242" spans="1:58" ht="14.25">
@@ -63831,7 +63775,7 @@
         <v>4</v>
       </c>
       <c r="X242" s="4" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="Y242" s="43">
         <v>55000010</v>
@@ -63926,7 +63870,7 @@
         <v>0.51311479999999998</v>
       </c>
       <c r="BF242" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="243" spans="1:58" ht="14.25">
@@ -64002,7 +63946,7 @@
         <v>220</v>
       </c>
       <c r="X243" s="4" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
       <c r="Y243" s="43">
         <v>55000037</v>
@@ -64109,7 +64053,7 @@
         <v>0.54590170000000005</v>
       </c>
       <c r="BF243" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="244" spans="1:58" ht="14.25">
@@ -64185,7 +64129,7 @@
         <v>2</v>
       </c>
       <c r="X244" s="4" t="s">
-        <v>1337</v>
+        <v>1322</v>
       </c>
       <c r="Y244" s="43">
         <v>55000131</v>
@@ -64284,7 +64228,7 @@
         <v>0.62131150000000002</v>
       </c>
       <c r="BF244" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="245" spans="1:58" ht="14.25">
@@ -64360,7 +64304,7 @@
         <v>69</v>
       </c>
       <c r="X245" s="4" t="s">
-        <v>1338</v>
+        <v>1323</v>
       </c>
       <c r="Y245" s="43">
         <v>55000131</v>
@@ -64463,7 +64407,7 @@
         <v>0.84590169999999998</v>
       </c>
       <c r="BF245" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="246" spans="1:58" ht="14.25">
@@ -64539,7 +64483,7 @@
         <v>251</v>
       </c>
       <c r="X246" s="4" t="s">
-        <v>1300</v>
+        <v>1286</v>
       </c>
       <c r="Y246" s="43">
         <v>55000216</v>
@@ -64630,7 +64574,7 @@
         <v>0.85245899999999997</v>
       </c>
       <c r="BF246" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="247" spans="1:58" ht="14.25">
@@ -64706,7 +64650,7 @@
         <v>2</v>
       </c>
       <c r="X247" s="4" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
       <c r="Y247" s="43">
         <v>55000258</v>
@@ -64805,7 +64749,7 @@
         <v>0.90983610000000004</v>
       </c>
       <c r="BF247" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="248" spans="1:58" ht="14.25">
@@ -64881,7 +64825,7 @@
         <v>19</v>
       </c>
       <c r="X248" s="4" t="s">
-        <v>1257</v>
+        <v>1250</v>
       </c>
       <c r="Y248" s="43">
         <v>55000260</v>
@@ -64972,7 +64916,7 @@
         <v>5.0819669999999997E-2</v>
       </c>
       <c r="BF248" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="249" spans="1:58" ht="14.25">
@@ -65048,7 +64992,7 @@
         <v>16</v>
       </c>
       <c r="X249" s="4" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="Y249" s="43">
         <v>55000037</v>
@@ -65143,7 +65087,7 @@
         <v>0.59836069999999997</v>
       </c>
       <c r="BF249" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="250" spans="1:58" ht="14.25">
@@ -65219,7 +65163,7 @@
         <v>2</v>
       </c>
       <c r="X250" s="4" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="Y250" s="43">
         <v>55000209</v>
@@ -65318,7 +65262,7 @@
         <v>0.94262299999999999</v>
       </c>
       <c r="BF250" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="251" spans="1:58" ht="14.25">
@@ -65394,7 +65338,7 @@
         <v>4</v>
       </c>
       <c r="X251" s="4" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="Y251" s="43">
         <v>55000001</v>
@@ -65489,7 +65433,7 @@
         <v>0.35573769999999999</v>
       </c>
       <c r="BF251" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="252" spans="1:58" ht="14.25">
@@ -65565,7 +65509,7 @@
         <v>135</v>
       </c>
       <c r="X252" s="4" t="s">
-        <v>1339</v>
+        <v>1324</v>
       </c>
       <c r="Y252" s="43">
         <v>55000030</v>
@@ -65668,7 +65612,7 @@
         <v>0.90163930000000003</v>
       </c>
       <c r="BF252" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="253" spans="1:58" ht="14.25">
@@ -65744,7 +65688,7 @@
         <v>19</v>
       </c>
       <c r="X253" s="4" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="Y253" s="43">
         <v>55000265</v>
@@ -65843,7 +65787,7 @@
         <v>0.64918039999999999</v>
       </c>
       <c r="BF253" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="254" spans="1:58" ht="14.25">
@@ -65919,7 +65863,7 @@
         <v>209</v>
       </c>
       <c r="X254" s="4" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="Y254" s="43">
         <v>55000340</v>
@@ -66018,7 +65962,7 @@
         <v>0.49836069999999999</v>
       </c>
       <c r="BF254" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="255" spans="1:58" ht="14.25">
@@ -66094,7 +66038,7 @@
         <v>0</v>
       </c>
       <c r="X255" s="4" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="Y255" s="43">
         <v>55000181</v>
@@ -66197,7 +66141,7 @@
         <v>0.82786890000000002</v>
       </c>
       <c r="BF255" s="22" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="256" spans="1:58" ht="14.25">
@@ -66273,7 +66217,7 @@
         <v>4</v>
       </c>
       <c r="X256" s="4" t="s">
-        <v>1301</v>
+        <v>1287</v>
       </c>
       <c r="Y256" s="43">
         <v>55000032</v>
@@ -66368,7 +66312,7 @@
         <v>0.63278690000000004</v>
       </c>
       <c r="BF256" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="257" spans="1:58" ht="14.25">
@@ -66444,7 +66388,7 @@
         <v>2</v>
       </c>
       <c r="X257" s="4" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="Y257" s="43">
         <v>55000129</v>
@@ -66539,7 +66483,7 @@
         <v>0.49344260000000001</v>
       </c>
       <c r="BF257" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="258" spans="1:58" ht="14.25">
@@ -66615,7 +66559,7 @@
         <v>251</v>
       </c>
       <c r="X258" s="4" t="s">
-        <v>1302</v>
+        <v>1288</v>
       </c>
       <c r="Y258" s="43">
         <v>55000088</v>
@@ -66710,7 +66654,7 @@
         <v>0.2147541</v>
       </c>
       <c r="BF258" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="259" spans="1:58" ht="14.25">
@@ -66786,7 +66730,7 @@
         <v>4</v>
       </c>
       <c r="X259" s="7" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="Y259" s="43">
         <v>55000340</v>
@@ -66881,7 +66825,7 @@
         <v>0.25245899999999999</v>
       </c>
       <c r="BF259" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="260" spans="1:58" ht="14.25">
@@ -66957,7 +66901,7 @@
         <v>6</v>
       </c>
       <c r="X260" s="4" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="Y260" s="43">
         <v>55000269</v>
@@ -67052,7 +66996,7 @@
         <v>0.28032790000000002</v>
       </c>
       <c r="BF260" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="261" spans="1:58" ht="14.25">
@@ -67128,7 +67072,7 @@
         <v>16</v>
       </c>
       <c r="X261" s="4" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="Y261" s="43">
         <v>55000079</v>
@@ -67223,7 +67167,7 @@
         <v>0.50327869999999997</v>
       </c>
       <c r="BF261" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="262" spans="1:58" ht="14.25">
@@ -67299,7 +67243,7 @@
         <v>4</v>
       </c>
       <c r="X262" s="4" t="s">
-        <v>1340</v>
+        <v>1325</v>
       </c>
       <c r="Y262" s="43">
         <v>55000199</v>
@@ -67390,7 +67334,7 @@
         <v>0.37704919999999997</v>
       </c>
       <c r="BF262" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="263" spans="1:58" ht="14.25">
@@ -67551,7 +67495,7 @@
         <v>0.1065574</v>
       </c>
       <c r="BF263" s="22" t="s">
-        <v>1250</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="264" spans="1:58" ht="14.25">
@@ -67627,7 +67571,7 @@
         <v>4</v>
       </c>
       <c r="X264" s="4" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="Y264" s="43">
         <v>55000271</v>
@@ -67722,7 +67666,7 @@
         <v>0.4360656</v>
       </c>
       <c r="BF264" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="265" spans="1:58" ht="14.25">
@@ -67798,7 +67742,7 @@
         <v>2</v>
       </c>
       <c r="X265" s="4" t="s">
-        <v>1303</v>
+        <v>1289</v>
       </c>
       <c r="Y265" s="43">
         <v>55000123</v>
@@ -67897,7 +67841,7 @@
         <v>0.57704920000000004</v>
       </c>
       <c r="BF265" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="266" spans="1:58" ht="14.25">
@@ -67973,7 +67917,7 @@
         <v>24</v>
       </c>
       <c r="X266" s="4" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="Y266" s="43">
         <v>55000093</v>
@@ -68072,7 +68016,7 @@
         <v>0.64590159999999996</v>
       </c>
       <c r="BF266" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="267" spans="1:58" ht="14.25">
@@ -68148,7 +68092,7 @@
         <v>94</v>
       </c>
       <c r="X267" s="4" t="s">
-        <v>1341</v>
+        <v>1326</v>
       </c>
       <c r="Y267" s="43">
         <v>55000001</v>
@@ -68255,7 +68199,7 @@
         <v>0.8</v>
       </c>
       <c r="BF267" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="268" spans="1:58" ht="14.25">
@@ -68331,7 +68275,7 @@
         <v>16</v>
       </c>
       <c r="X268" s="4" t="s">
-        <v>1304</v>
+        <v>1290</v>
       </c>
       <c r="Y268" s="43">
         <v>55000279</v>
@@ -68426,7 +68370,7 @@
         <v>0.5557377</v>
       </c>
       <c r="BF268" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="269" spans="1:58" ht="14.25">
@@ -68490,7 +68434,7 @@
       </c>
       <c r="T269" s="15">
         <f t="shared" si="17"/>
-        <v>17.25</v>
+        <v>11.25</v>
       </c>
       <c r="U269" s="4">
         <v>10</v>
@@ -68502,7 +68446,7 @@
         <v>9</v>
       </c>
       <c r="X269" s="4" t="s">
-        <v>1305</v>
+        <v>1396</v>
       </c>
       <c r="Y269" s="43">
         <v>55000272</v>
@@ -68510,12 +68454,8 @@
       <c r="Z269" s="21">
         <v>25</v>
       </c>
-      <c r="AA269" s="21">
-        <v>55010018</v>
-      </c>
-      <c r="AB269" s="21">
-        <v>100</v>
-      </c>
+      <c r="AA269" s="21"/>
+      <c r="AB269" s="21"/>
       <c r="AC269" s="21"/>
       <c r="AD269" s="21"/>
       <c r="AE269" s="21"/>
@@ -68528,7 +68468,7 @@
 IF(ISBLANK($AC269),0, LOOKUP($AC269,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AD269/100)+
 IF(ISBLANK($AE269),0, LOOKUP($AE269,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AF269/100)+
 IF(ISBLANK($AG269),0, LOOKUP($AG269,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AH269/100)</f>
-        <v>1225</v>
+        <v>625</v>
       </c>
       <c r="AJ269" s="21">
         <v>0</v>
@@ -68597,7 +68537,7 @@
         <v>0.4606557</v>
       </c>
       <c r="BF269" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="270" spans="1:58" ht="14.25">
@@ -68673,7 +68613,7 @@
         <v>16</v>
       </c>
       <c r="X270" s="4" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="Y270" s="43">
         <v>55000030</v>
@@ -68768,7 +68708,7 @@
         <v>0.58688530000000005</v>
       </c>
       <c r="BF270" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="271" spans="1:58" ht="14.25">
@@ -68844,7 +68784,7 @@
         <v>40</v>
       </c>
       <c r="X271" s="4" t="s">
-        <v>1306</v>
+        <v>1291</v>
       </c>
       <c r="Y271" s="43">
         <v>55000019</v>
@@ -68947,7 +68887,7 @@
         <v>0.81147539999999996</v>
       </c>
       <c r="BF271" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="272" spans="1:58" ht="14.25">
@@ -69023,7 +68963,7 @@
         <v>31</v>
       </c>
       <c r="X272" s="4" t="s">
-        <v>1307</v>
+        <v>1292</v>
       </c>
       <c r="Y272" s="43">
         <v>55000275</v>
@@ -69126,7 +69066,7 @@
         <v>0.77213109999999996</v>
       </c>
       <c r="BF272" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="273" spans="1:58" ht="14.25">
@@ -69199,10 +69139,10 @@
         <v>12</v>
       </c>
       <c r="W273" s="4" t="s">
-        <v>1246</v>
+        <v>1240</v>
       </c>
       <c r="X273" s="4" t="s">
-        <v>1308</v>
+        <v>1293</v>
       </c>
       <c r="Y273" s="43">
         <v>55000136</v>
@@ -69305,7 +69245,7 @@
         <v>0.83442620000000001</v>
       </c>
       <c r="BF273" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="274" spans="1:58" ht="14.25">
@@ -69381,7 +69321,7 @@
         <v>0</v>
       </c>
       <c r="X274" s="4" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="Y274" s="43">
         <v>55000342</v>
@@ -69476,7 +69416,7 @@
         <v>0.12950819999999999</v>
       </c>
       <c r="BF274" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="275" spans="1:58" ht="14.25">
@@ -69552,7 +69492,7 @@
         <v>277</v>
       </c>
       <c r="X275" s="4" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="Y275" s="43">
         <v>55000278</v>
@@ -69651,7 +69591,7 @@
         <v>0.40655740000000001</v>
       </c>
       <c r="BF275" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="276" spans="1:58" ht="14.25">
@@ -69727,7 +69667,7 @@
         <v>22</v>
       </c>
       <c r="X276" s="4" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="Y276" s="43">
         <v>55000038</v>
@@ -69822,7 +69762,7 @@
         <v>0.67049179999999997</v>
       </c>
       <c r="BF276" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="277" spans="1:58" ht="14.25">
@@ -69898,7 +69838,7 @@
         <v>78</v>
       </c>
       <c r="X277" s="4" t="s">
-        <v>1342</v>
+        <v>1327</v>
       </c>
       <c r="Y277" s="43">
         <v>55000150</v>
@@ -69993,7 +69933,7 @@
         <v>0.48196719999999998</v>
       </c>
       <c r="BF277" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="278" spans="1:58" ht="14.25">
@@ -70069,7 +70009,7 @@
         <v>4</v>
       </c>
       <c r="X278" s="4" t="s">
-        <v>1309</v>
+        <v>1294</v>
       </c>
       <c r="Y278" s="43">
         <v>55000136</v>
@@ -70164,7 +70104,7 @@
         <v>0.52295080000000005</v>
       </c>
       <c r="BF278" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="279" spans="1:58" ht="14.25">
@@ -70240,7 +70180,7 @@
         <v>4</v>
       </c>
       <c r="X279" s="7" t="s">
-        <v>1310</v>
+        <v>1295</v>
       </c>
       <c r="Y279" s="43">
         <v>55000282</v>
@@ -70335,7 +70275,7 @@
         <v>0.10983610000000001</v>
       </c>
       <c r="BF279" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="280" spans="1:58" ht="14.25">
@@ -70411,7 +70351,7 @@
         <v>16</v>
       </c>
       <c r="X280" s="4" t="s">
-        <v>1343</v>
+        <v>1328</v>
       </c>
       <c r="Y280" s="43">
         <v>55000120</v>
@@ -70506,7 +70446,7 @@
         <v>0.50655740000000005</v>
       </c>
       <c r="BF280" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="281" spans="1:58" ht="14.25">
@@ -70582,7 +70522,7 @@
         <v>9</v>
       </c>
       <c r="X281" s="4" t="s">
-        <v>1311</v>
+        <v>1296</v>
       </c>
       <c r="Y281" s="43">
         <v>55000285</v>
@@ -70677,7 +70617,7 @@
         <v>5.5737700000000001E-2</v>
       </c>
       <c r="BF281" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="282" spans="1:58" ht="14.25">
@@ -70753,7 +70693,7 @@
         <v>6</v>
       </c>
       <c r="X282" s="4" t="s">
-        <v>1311</v>
+        <v>1296</v>
       </c>
       <c r="Y282" s="43">
         <v>55000285</v>
@@ -70848,7 +70788,7 @@
         <v>0.14590159999999999</v>
       </c>
       <c r="BF282" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="283" spans="1:58" ht="14.25">
@@ -70924,7 +70864,7 @@
         <v>16</v>
       </c>
       <c r="X283" s="4" t="s">
-        <v>1311</v>
+        <v>1296</v>
       </c>
       <c r="Y283" s="43">
         <v>55000285</v>
@@ -71019,7 +70959,7 @@
         <v>0.1245902</v>
       </c>
       <c r="BF283" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="284" spans="1:58" ht="14.25">
@@ -71095,7 +71035,7 @@
         <v>6</v>
       </c>
       <c r="X284" s="4" t="s">
-        <v>1344</v>
+        <v>1329</v>
       </c>
       <c r="Y284" s="43">
         <v>55000287</v>
@@ -71190,7 +71130,7 @@
         <v>0.90163930000000003</v>
       </c>
       <c r="BF284" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="285" spans="1:58" ht="14.25">
@@ -71266,7 +71206,7 @@
         <v>16</v>
       </c>
       <c r="X285" s="4" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="Y285" s="43">
         <v>55000289</v>
@@ -71361,7 +71301,7 @@
         <v>0.91311469999999995</v>
       </c>
       <c r="BF285" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="286" spans="1:58" ht="14.25">
@@ -71522,7 +71462,7 @@
         <v>0.2262295</v>
       </c>
       <c r="BF286" s="22" t="s">
-        <v>1406</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="287" spans="1:58" ht="14.25">
@@ -71598,7 +71538,7 @@
         <v>16</v>
       </c>
       <c r="X287" s="4" t="s">
-        <v>1345</v>
+        <v>1330</v>
       </c>
       <c r="Y287" s="43">
         <v>55000286</v>
@@ -71693,7 +71633,7 @@
         <v>0.74754100000000001</v>
       </c>
       <c r="BF287" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="288" spans="1:58" ht="14.25">
@@ -71769,7 +71709,7 @@
         <v>9</v>
       </c>
       <c r="X288" s="4" t="s">
-        <v>1312</v>
+        <v>1297</v>
       </c>
       <c r="Y288" s="43">
         <v>55000292</v>
@@ -71864,7 +71804,7 @@
         <v>0.33934429999999999</v>
       </c>
       <c r="BF288" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="289" spans="1:58" ht="14.25">
@@ -71940,7 +71880,7 @@
         <v>100</v>
       </c>
       <c r="X289" s="4" t="s">
-        <v>1313</v>
+        <v>1298</v>
       </c>
       <c r="Y289" s="43">
         <v>55000293</v>
@@ -72035,7 +71975,7 @@
         <v>8.6885240000000002E-2</v>
       </c>
       <c r="BF289" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="290" spans="1:58" ht="14.25">
@@ -72111,7 +72051,7 @@
         <v>16</v>
       </c>
       <c r="X290" s="4" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="Y290" s="43">
         <v>55000284</v>
@@ -72202,7 +72142,7 @@
         <v>0.3327869</v>
       </c>
       <c r="BF290" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="291" spans="1:58" ht="14.25">
@@ -72278,7 +72218,7 @@
         <v>78</v>
       </c>
       <c r="X291" s="4" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
       <c r="Y291" s="43">
         <v>55000246</v>
@@ -72373,7 +72313,7 @@
         <v>0.72786890000000004</v>
       </c>
       <c r="BF291" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="292" spans="1:58" ht="14.25">
@@ -72449,7 +72389,7 @@
         <v>22</v>
       </c>
       <c r="X292" s="4" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="Y292" s="43">
         <v>55000037</v>
@@ -72544,7 +72484,7 @@
         <v>0.7</v>
       </c>
       <c r="BF292" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="293" spans="1:58" ht="14.25">
@@ -72620,7 +72560,7 @@
         <v>9</v>
       </c>
       <c r="X293" s="4" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="Y293" s="43">
         <v>55000296</v>
@@ -72711,7 +72651,7 @@
         <v>8.1967209999999999E-2</v>
       </c>
       <c r="BF293" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="294" spans="1:58" ht="14.25">
@@ -72787,7 +72727,7 @@
         <v>16</v>
       </c>
       <c r="X294" s="4" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
       <c r="Y294" s="43">
         <v>55000015</v>
@@ -72890,7 +72830,7 @@
         <v>0.8180328</v>
       </c>
       <c r="BF294" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="295" spans="1:58" ht="14.25">
@@ -72966,7 +72906,7 @@
         <v>1002</v>
       </c>
       <c r="X295" s="4" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
       <c r="Y295" s="43">
         <v>55000332</v>
@@ -73057,7 +72997,7 @@
         <v>0.34426230000000002</v>
       </c>
       <c r="BF295" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="296" spans="1:58" ht="14.25">
@@ -73133,7 +73073,7 @@
         <v>2</v>
       </c>
       <c r="X296" s="4" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="Y296" s="43">
         <v>55000333</v>
@@ -73228,7 +73168,7 @@
         <v>0.29836059999999998</v>
       </c>
       <c r="BF296" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="297" spans="1:58" ht="14.25">
@@ -73304,7 +73244,7 @@
         <v>45</v>
       </c>
       <c r="X297" s="4" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="Y297" s="43">
         <v>55000045</v>
@@ -73407,7 +73347,7 @@
         <v>0.50983610000000001</v>
       </c>
       <c r="BF297" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="298" spans="1:58" ht="14.25">
@@ -73483,7 +73423,7 @@
         <v>2</v>
       </c>
       <c r="X298" s="7" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="Y298" s="43">
         <v>55000046</v>
@@ -73578,7 +73518,7 @@
         <v>0.2377049</v>
       </c>
       <c r="BF298" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="299" spans="1:58" ht="14.25">
@@ -73654,7 +73594,7 @@
         <v>22</v>
       </c>
       <c r="X299" s="4" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="Y299" s="43">
         <v>55000047</v>
@@ -73749,7 +73689,7 @@
         <v>0.80983609999999995</v>
       </c>
       <c r="BF299" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="300" spans="1:58" ht="14.25">
@@ -73825,7 +73765,7 @@
         <v>22</v>
       </c>
       <c r="X300" s="4" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="Y300" s="43">
         <v>55000107</v>
@@ -73920,7 +73860,7 @@
         <v>0.81967210000000001</v>
       </c>
       <c r="BF300" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="301" spans="1:58" ht="14.25">
@@ -73996,7 +73936,7 @@
         <v>111</v>
       </c>
       <c r="X301" s="4" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
       <c r="Y301" s="43">
         <v>55000013</v>
@@ -74103,7 +74043,7 @@
         <v>0.75409839999999995</v>
       </c>
       <c r="BF301" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="302" spans="1:58" ht="14.25">
@@ -74179,7 +74119,7 @@
         <v>209</v>
       </c>
       <c r="X302" s="4" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
       <c r="Y302" s="43">
         <v>55000335</v>
@@ -74278,7 +74218,7 @@
         <v>0.33442620000000001</v>
       </c>
       <c r="BF302" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="303" spans="1:58" ht="14.25">
@@ -74354,7 +74294,7 @@
         <v>78</v>
       </c>
       <c r="X303" s="11" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="Y303" s="43">
         <v>55000340</v>
@@ -74449,7 +74389,7 @@
         <v>0.1065574</v>
       </c>
       <c r="BF303" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="304" spans="1:58" ht="14.25">
@@ -74525,7 +74465,7 @@
         <v>6</v>
       </c>
       <c r="X304" s="11" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="Y304" s="43">
         <v>55000341</v>
@@ -74616,7 +74556,7 @@
         <v>0.19508200000000001</v>
       </c>
       <c r="BF304" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="305" spans="1:58" ht="14.25">
@@ -74692,7 +74632,7 @@
         <v>6</v>
       </c>
       <c r="X305" s="11" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="Y305" s="43">
         <v>55000341</v>
@@ -74783,7 +74723,7 @@
         <v>0.3885246</v>
       </c>
       <c r="BF305" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="306" spans="1:58" ht="14.25">
@@ -74859,7 +74799,7 @@
         <v>78</v>
       </c>
       <c r="X306" s="11" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
       <c r="Y306" s="43">
         <v>55000341</v>
@@ -74954,7 +74894,7 @@
         <v>0.51967220000000003</v>
       </c>
       <c r="BF306" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="307" spans="1:58" ht="14.25">
@@ -75030,7 +74970,7 @@
         <v>0</v>
       </c>
       <c r="X307" s="11" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
       <c r="Y307" s="43">
         <v>55000343</v>
@@ -75121,7 +75061,7 @@
         <v>0.49672129999999998</v>
       </c>
       <c r="BF307" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="308" spans="1:58" ht="14.25">
@@ -75282,7 +75222,7 @@
         <v>0.49672129999999998</v>
       </c>
       <c r="BF308" s="22" t="s">
-        <v>1408</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="309" spans="1:58" ht="14.25">
@@ -75443,7 +75383,7 @@
         <v>0.49672129999999998</v>
       </c>
       <c r="BF309" s="22" t="s">
-        <v>1407</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="310" spans="1:58" ht="14.25">
@@ -75604,7 +75544,7 @@
         <v>0.49672129999999998</v>
       </c>
       <c r="BF310" s="22" t="s">
-        <v>1406</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="311" spans="1:58" ht="14.25">
@@ -75765,7 +75705,7 @@
         <v>0.49672129999999998</v>
       </c>
       <c r="BF311" s="22" t="s">
-        <v>1407</v>
+        <v>1391</v>
       </c>
     </row>
   </sheetData>
@@ -75783,17 +75723,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H311">
-    <cfRule type="cellIs" dxfId="131" priority="4" operator="greaterThanOrEqual">
-      <formula>4</formula>
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+      <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="2" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="1" operator="equal">
-      <formula>1</formula>
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="greaterThanOrEqual">
+      <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -75866,7 +75806,7 @@
         <v>315</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>1401</v>
+        <v>1386</v>
       </c>
       <c r="I1" s="17" t="s">
         <v>977</v>
@@ -75881,34 +75821,34 @@
         <v>972</v>
       </c>
       <c r="M1" s="17" t="s">
+        <v>1212</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>1215</v>
+      </c>
+      <c r="O1" s="17" t="s">
         <v>1218</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="P1" s="17" t="s">
+        <v>1226</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>1228</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>1223</v>
+      </c>
+      <c r="S1" s="17" t="s">
         <v>1221</v>
-      </c>
-      <c r="O1" s="17" t="s">
-        <v>1224</v>
-      </c>
-      <c r="P1" s="17" t="s">
-        <v>1232</v>
-      </c>
-      <c r="Q1" s="17" t="s">
-        <v>1234</v>
-      </c>
-      <c r="R1" s="17" t="s">
-        <v>1229</v>
-      </c>
-      <c r="S1" s="17" t="s">
-        <v>1227</v>
       </c>
       <c r="T1" s="40" t="s">
         <v>974</v>
       </c>
       <c r="U1" s="17" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="V1" s="17" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
       <c r="W1" s="17" t="s">
         <v>323</v>
@@ -75917,82 +75857,82 @@
         <v>325</v>
       </c>
       <c r="Y1" s="44" t="s">
-        <v>1369</v>
+        <v>1354</v>
       </c>
       <c r="Z1" s="44" t="s">
-        <v>1372</v>
+        <v>1357</v>
       </c>
       <c r="AA1" s="44" t="s">
-        <v>1373</v>
+        <v>1358</v>
       </c>
       <c r="AB1" s="44" t="s">
-        <v>1374</v>
+        <v>1359</v>
       </c>
       <c r="AC1" s="44" t="s">
+        <v>1360</v>
+      </c>
+      <c r="AD1" s="44" t="s">
+        <v>1361</v>
+      </c>
+      <c r="AE1" s="44" t="s">
+        <v>1362</v>
+      </c>
+      <c r="AF1" s="44" t="s">
+        <v>1363</v>
+      </c>
+      <c r="AG1" s="44" t="s">
+        <v>1364</v>
+      </c>
+      <c r="AH1" s="44" t="s">
+        <v>1365</v>
+      </c>
+      <c r="AI1" s="44" t="s">
         <v>1375</v>
       </c>
-      <c r="AD1" s="44" t="s">
+      <c r="AJ1" s="17" t="s">
         <v>1376</v>
       </c>
-      <c r="AE1" s="44" t="s">
+      <c r="AK1" s="17" t="s">
         <v>1377</v>
       </c>
-      <c r="AF1" s="44" t="s">
+      <c r="AL1" s="17" t="s">
         <v>1378</v>
       </c>
-      <c r="AG1" s="44" t="s">
+      <c r="AM1" s="17" t="s">
         <v>1379</v>
       </c>
-      <c r="AH1" s="44" t="s">
+      <c r="AN1" s="17" t="s">
         <v>1380</v>
       </c>
-      <c r="AI1" s="44" t="s">
-        <v>1390</v>
-      </c>
-      <c r="AJ1" s="17" t="s">
-        <v>1391</v>
-      </c>
-      <c r="AK1" s="17" t="s">
-        <v>1392</v>
-      </c>
-      <c r="AL1" s="17" t="s">
-        <v>1393</v>
-      </c>
-      <c r="AM1" s="17" t="s">
-        <v>1394</v>
-      </c>
-      <c r="AN1" s="17" t="s">
-        <v>1395</v>
-      </c>
       <c r="AO1" s="17" t="s">
-        <v>1252</v>
+        <v>1245</v>
       </c>
       <c r="AP1" s="47" t="s">
+        <v>1335</v>
+      </c>
+      <c r="AQ1" s="47" t="s">
+        <v>1338</v>
+      </c>
+      <c r="AR1" s="47" t="s">
+        <v>1340</v>
+      </c>
+      <c r="AS1" s="47" t="s">
+        <v>1342</v>
+      </c>
+      <c r="AT1" s="47" t="s">
+        <v>1344</v>
+      </c>
+      <c r="AU1" s="47" t="s">
+        <v>1346</v>
+      </c>
+      <c r="AV1" s="47" t="s">
+        <v>1348</v>
+      </c>
+      <c r="AW1" s="47" t="s">
         <v>1350</v>
       </c>
-      <c r="AQ1" s="47" t="s">
-        <v>1353</v>
-      </c>
-      <c r="AR1" s="47" t="s">
-        <v>1355</v>
-      </c>
-      <c r="AS1" s="47" t="s">
-        <v>1357</v>
-      </c>
-      <c r="AT1" s="47" t="s">
-        <v>1359</v>
-      </c>
-      <c r="AU1" s="47" t="s">
-        <v>1361</v>
-      </c>
-      <c r="AV1" s="47" t="s">
-        <v>1363</v>
-      </c>
-      <c r="AW1" s="47" t="s">
-        <v>1365</v>
-      </c>
       <c r="AX1" s="47" t="s">
-        <v>1367</v>
+        <v>1352</v>
       </c>
       <c r="AY1" s="48" t="s">
         <v>1027</v>
@@ -76042,7 +75982,7 @@
         <v>295</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>1402</v>
+        <v>1387</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>295</v>
@@ -76060,7 +76000,7 @@
         <v>295</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>295</v>
@@ -76218,7 +76158,7 @@
         <v>1033</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>1403</v>
+        <v>1388</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>979</v>
@@ -76233,34 +76173,34 @@
         <v>973</v>
       </c>
       <c r="M3" s="6" t="s">
+        <v>1214</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>1217</v>
+      </c>
+      <c r="O3" s="6" t="s">
         <v>1220</v>
       </c>
-      <c r="N3" s="6" t="s">
-        <v>1223</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>1226</v>
-      </c>
       <c r="P3" s="6" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
       <c r="T3" s="42" t="s">
         <v>975</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="W3" s="6" t="s">
         <v>306</v>
@@ -76269,82 +76209,82 @@
         <v>308</v>
       </c>
       <c r="Y3" s="46" t="s">
+        <v>1355</v>
+      </c>
+      <c r="Z3" s="46" t="s">
+        <v>1356</v>
+      </c>
+      <c r="AA3" s="46" t="s">
+        <v>1366</v>
+      </c>
+      <c r="AB3" s="46" t="s">
+        <v>1367</v>
+      </c>
+      <c r="AC3" s="46" t="s">
+        <v>1368</v>
+      </c>
+      <c r="AD3" s="46" t="s">
+        <v>1369</v>
+      </c>
+      <c r="AE3" s="46" t="s">
         <v>1370</v>
       </c>
-      <c r="Z3" s="46" t="s">
+      <c r="AF3" s="46" t="s">
         <v>1371</v>
       </c>
-      <c r="AA3" s="46" t="s">
+      <c r="AG3" s="46" t="s">
+        <v>1372</v>
+      </c>
+      <c r="AH3" s="46" t="s">
+        <v>1373</v>
+      </c>
+      <c r="AI3" s="46" t="s">
+        <v>1374</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
         <v>1381</v>
       </c>
-      <c r="AB3" s="46" t="s">
+      <c r="AK3" s="6" t="s">
         <v>1382</v>
       </c>
-      <c r="AC3" s="46" t="s">
+      <c r="AL3" s="6" t="s">
         <v>1383</v>
       </c>
-      <c r="AD3" s="46" t="s">
+      <c r="AM3" s="6" t="s">
         <v>1384</v>
       </c>
-      <c r="AE3" s="46" t="s">
+      <c r="AN3" s="6" t="s">
         <v>1385</v>
       </c>
-      <c r="AF3" s="46" t="s">
-        <v>1386</v>
-      </c>
-      <c r="AG3" s="46" t="s">
-        <v>1387</v>
-      </c>
-      <c r="AH3" s="46" t="s">
-        <v>1388</v>
-      </c>
-      <c r="AI3" s="46" t="s">
-        <v>1389</v>
-      </c>
-      <c r="AJ3" s="6" t="s">
-        <v>1396</v>
-      </c>
-      <c r="AK3" s="6" t="s">
-        <v>1397</v>
-      </c>
-      <c r="AL3" s="6" t="s">
-        <v>1398</v>
-      </c>
-      <c r="AM3" s="6" t="s">
-        <v>1399</v>
-      </c>
-      <c r="AN3" s="6" t="s">
-        <v>1400</v>
-      </c>
       <c r="AO3" s="6" t="s">
-        <v>1251</v>
+        <v>1244</v>
       </c>
       <c r="AP3" s="51" t="s">
-        <v>1352</v>
+        <v>1337</v>
       </c>
       <c r="AQ3" s="52" t="s">
-        <v>1354</v>
+        <v>1339</v>
       </c>
       <c r="AR3" s="52" t="s">
-        <v>1356</v>
+        <v>1341</v>
       </c>
       <c r="AS3" s="52" t="s">
-        <v>1358</v>
+        <v>1343</v>
       </c>
       <c r="AT3" s="52" t="s">
-        <v>1360</v>
+        <v>1345</v>
       </c>
       <c r="AU3" s="52" t="s">
-        <v>1362</v>
+        <v>1347</v>
       </c>
       <c r="AV3" s="52" t="s">
-        <v>1364</v>
+        <v>1349</v>
       </c>
       <c r="AW3" s="52" t="s">
-        <v>1366</v>
+        <v>1351</v>
       </c>
       <c r="AX3" s="52" t="s">
-        <v>1368</v>
+        <v>1353</v>
       </c>
       <c r="AY3" s="42" t="s">
         <v>1028</v>
@@ -76861,13 +76801,13 @@
         <v>51018001</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
       <c r="E7" s="11">
         <v>1</v>
@@ -77180,10 +77120,10 @@
     </row>
     <row r="9" spans="1:58" ht="14.25">
       <c r="A9" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>1030</v>
@@ -77344,31 +77284,31 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="K4:K9">
-    <cfRule type="cellIs" dxfId="67" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="cellIs" dxfId="66" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:J7">
-    <cfRule type="cellIs" dxfId="65" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="cellIs" dxfId="64" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="63" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>

--- a/ConfigData/Xlsx/Monster.xlsx
+++ b/ConfigData/Xlsx/Monster.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11730"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11730" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="标准卡" sheetId="1" r:id="rId1"/>
@@ -649,7 +649,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2218" uniqueCount="1406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="1415">
   <si>
     <t>arrow</t>
   </si>
@@ -4267,10 +4267,6 @@
   </si>
   <si>
     <t>英雄</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>51019001|HeroCardId</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -5397,6 +5393,46 @@
   </si>
   <si>
     <t>55000070;100|55000214;15</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>王塔</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>箭塔</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>King Tower</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arrow Tower</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>KTW</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATW</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>51019001|HeroCardId</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>51018002|KingTowerId</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>51018003|ArrowTowerId</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrow</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -6460,7 +6496,7 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="130">
+  <dxfs count="134">
     <dxf>
       <font>
         <b/>
@@ -7863,6 +7899,54 @@
         <patternFill patternType="solid">
           <fgColor theme="4"/>
           <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -9598,11 +9682,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-188236096"/>
-        <c:axId val="-188241536"/>
+        <c:axId val="-1758014640"/>
+        <c:axId val="-1758028784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-188236096"/>
+        <c:axId val="-1758014640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9645,7 +9729,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-188241536"/>
+        <c:crossAx val="-1758028784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9653,7 +9737,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-188241536"/>
+        <c:axId val="-1758028784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9704,7 +9788,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-188236096"/>
+        <c:crossAx val="-1758014640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21835,89 +21919,89 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:BD311" totalsRowShown="0" headerRowDxfId="125" dataDxfId="124" tableBorderDxfId="123">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:BD311" totalsRowShown="0" headerRowDxfId="129" dataDxfId="128" tableBorderDxfId="127">
   <autoFilter ref="A3:BD311"/>
   <sortState ref="A4:AF311">
     <sortCondition ref="A3:A311"/>
   </sortState>
   <tableColumns count="56">
-    <tableColumn id="1" name="Id" dataDxfId="122"/>
-    <tableColumn id="2" name="Name" dataDxfId="121"/>
-    <tableColumn id="22" name="Ename" dataDxfId="120"/>
-    <tableColumn id="23" name="EnameShort" dataDxfId="119"/>
-    <tableColumn id="3" name="Star" dataDxfId="118"/>
-    <tableColumn id="4" name="Type" dataDxfId="117"/>
-    <tableColumn id="5" name="Attr" dataDxfId="116"/>
-    <tableColumn id="58" name="Quality" dataDxfId="115">
+    <tableColumn id="1" name="Id" dataDxfId="126"/>
+    <tableColumn id="2" name="Name" dataDxfId="125"/>
+    <tableColumn id="22" name="Ename" dataDxfId="124"/>
+    <tableColumn id="23" name="EnameShort" dataDxfId="123"/>
+    <tableColumn id="3" name="Star" dataDxfId="122"/>
+    <tableColumn id="4" name="Type" dataDxfId="121"/>
+    <tableColumn id="5" name="Attr" dataDxfId="120"/>
+    <tableColumn id="58" name="Quality" dataDxfId="119">
       <calculatedColumnFormula>IF(T4&gt;10,5,IF(T4&gt;5,4,IF(T4&gt;2.5,3,IF(T4&gt;0,2,IF(T4&gt;-2.5,1,IF(T4&gt;-10,0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Cost" dataDxfId="114"/>
-    <tableColumn id="6" name="AtkP" dataDxfId="113"/>
-    <tableColumn id="24" name="VitP" dataDxfId="112"/>
-    <tableColumn id="25" name="Modify" dataDxfId="111"/>
-    <tableColumn id="9" name="Def" dataDxfId="110"/>
-    <tableColumn id="10" name="Mag" dataDxfId="109"/>
-    <tableColumn id="32" name="Spd" dataDxfId="108"/>
-    <tableColumn id="35" name="Hit" dataDxfId="107"/>
-    <tableColumn id="36" name="Dhit" dataDxfId="106"/>
-    <tableColumn id="34" name="Crt" dataDxfId="105"/>
-    <tableColumn id="33" name="Luk" dataDxfId="104"/>
-    <tableColumn id="7" name="Sum" dataDxfId="103">
+    <tableColumn id="12" name="Cost" dataDxfId="118"/>
+    <tableColumn id="6" name="AtkP" dataDxfId="117"/>
+    <tableColumn id="24" name="VitP" dataDxfId="116"/>
+    <tableColumn id="25" name="Modify" dataDxfId="115"/>
+    <tableColumn id="9" name="Def" dataDxfId="114"/>
+    <tableColumn id="10" name="Mag" dataDxfId="113"/>
+    <tableColumn id="32" name="Spd" dataDxfId="112"/>
+    <tableColumn id="35" name="Hit" dataDxfId="111"/>
+    <tableColumn id="36" name="Dhit" dataDxfId="110"/>
+    <tableColumn id="34" name="Crt" dataDxfId="109"/>
+    <tableColumn id="33" name="Luk" dataDxfId="108"/>
+    <tableColumn id="7" name="Sum" dataDxfId="107">
       <calculatedColumnFormula>SUM(J4:K4)+SUM(M4:S4)*5+4.4*SUM(AN4:AV4)+2.5*SUM(AH4:AL4)+AG4/100+L4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Range" dataDxfId="102"/>
-    <tableColumn id="14" name="Mov" dataDxfId="101"/>
-    <tableColumn id="16" name="Arrow" dataDxfId="100"/>
-    <tableColumn id="18" name="Skills" dataDxfId="99"/>
-    <tableColumn id="42" name="~Skill1" dataDxfId="98"/>
-    <tableColumn id="43" name="~SkillRate1" dataDxfId="97"/>
-    <tableColumn id="44" name="~Skill2" dataDxfId="96"/>
-    <tableColumn id="45" name="~SkillRate2" dataDxfId="95"/>
-    <tableColumn id="46" name="~Skill3" dataDxfId="94"/>
-    <tableColumn id="47" name="~SkillRate3" dataDxfId="93"/>
-    <tableColumn id="48" name="~Skill4" dataDxfId="92"/>
-    <tableColumn id="49" name="~SkillRate4" dataDxfId="91"/>
-    <tableColumn id="54" name="~SkillMark" dataDxfId="90">
+    <tableColumn id="13" name="Range" dataDxfId="106"/>
+    <tableColumn id="14" name="Mov" dataDxfId="105"/>
+    <tableColumn id="16" name="Arrow" dataDxfId="104"/>
+    <tableColumn id="18" name="Skills" dataDxfId="103"/>
+    <tableColumn id="42" name="~Skill1" dataDxfId="102"/>
+    <tableColumn id="43" name="~SkillRate1" dataDxfId="101"/>
+    <tableColumn id="44" name="~Skill2" dataDxfId="100"/>
+    <tableColumn id="45" name="~SkillRate2" dataDxfId="99"/>
+    <tableColumn id="46" name="~Skill3" dataDxfId="98"/>
+    <tableColumn id="47" name="~SkillRate3" dataDxfId="97"/>
+    <tableColumn id="48" name="~Skill4" dataDxfId="96"/>
+    <tableColumn id="49" name="~SkillRate4" dataDxfId="95"/>
+    <tableColumn id="54" name="~SkillMark" dataDxfId="94">
       <calculatedColumnFormula>IF(ISBLANK($Y4),0, LOOKUP($Y4,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$Z4/100)+
 IF(ISBLANK($AA4),0, LOOKUP($AA4,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AB4/100)+
 IF(ISBLANK($AC4),0, LOOKUP($AC4,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AD4/100)+
 IF(ISBLANK($AE4),0, LOOKUP($AE4,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AF4/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="52" name="~AntiLife" dataDxfId="89"/>
-    <tableColumn id="57" name="~AntiMental" dataDxfId="88"/>
-    <tableColumn id="56" name="~AntiPhysical" dataDxfId="87"/>
-    <tableColumn id="55" name="~AntiElement" dataDxfId="86"/>
-    <tableColumn id="53" name="~AntiHelp" dataDxfId="85"/>
-    <tableColumn id="30" name="BuffImmune" dataDxfId="84">
+    <tableColumn id="52" name="~AntiLife" dataDxfId="93"/>
+    <tableColumn id="57" name="~AntiMental" dataDxfId="92"/>
+    <tableColumn id="56" name="~AntiPhysical" dataDxfId="91"/>
+    <tableColumn id="55" name="~AntiElement" dataDxfId="90"/>
+    <tableColumn id="53" name="~AntiHelp" dataDxfId="89"/>
+    <tableColumn id="30" name="BuffImmune" dataDxfId="88">
       <calculatedColumnFormula>CONCATENATE(AH4,";",AI4,";",AJ4,";",AK4,";",AL4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="~AntiNull" dataDxfId="83"/>
-    <tableColumn id="11" name="~AntiWater" dataDxfId="82"/>
-    <tableColumn id="26" name="~AntiWind" dataDxfId="81"/>
-    <tableColumn id="27" name="~AntiFire" dataDxfId="80"/>
-    <tableColumn id="37" name="~AntiEarth" dataDxfId="79"/>
-    <tableColumn id="38" name="~AntiIce" dataDxfId="78"/>
-    <tableColumn id="39" name="~AntiThunder" dataDxfId="77"/>
-    <tableColumn id="40" name="~AntiLight" dataDxfId="76"/>
-    <tableColumn id="41" name="~AntiDark" dataDxfId="75"/>
-    <tableColumn id="31" name="AttrDef" dataDxfId="74">
+    <tableColumn id="8" name="~AntiNull" dataDxfId="87"/>
+    <tableColumn id="11" name="~AntiWater" dataDxfId="86"/>
+    <tableColumn id="26" name="~AntiWind" dataDxfId="85"/>
+    <tableColumn id="27" name="~AntiFire" dataDxfId="84"/>
+    <tableColumn id="37" name="~AntiEarth" dataDxfId="83"/>
+    <tableColumn id="38" name="~AntiIce" dataDxfId="82"/>
+    <tableColumn id="39" name="~AntiThunder" dataDxfId="81"/>
+    <tableColumn id="40" name="~AntiLight" dataDxfId="80"/>
+    <tableColumn id="41" name="~AntiDark" dataDxfId="79"/>
+    <tableColumn id="31" name="AttrDef" dataDxfId="78">
       <calculatedColumnFormula>CONCATENATE(AN4,";",AO4,";",AP4,";",AQ4,";",AR4,";",AS4,";",AT4,";",AU4,";",AV4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Res" dataDxfId="73"/>
-    <tableColumn id="21" name="Icon" dataDxfId="72"/>
-    <tableColumn id="17" name="Cover" dataDxfId="71"/>
-    <tableColumn id="15" name="IsSpecial" dataDxfId="70"/>
-    <tableColumn id="28" name="IsNew" dataDxfId="69"/>
-    <tableColumn id="19" name="VsMark" dataDxfId="68"/>
-    <tableColumn id="29" name="Remark" dataDxfId="67"/>
+    <tableColumn id="20" name="Res" dataDxfId="77"/>
+    <tableColumn id="21" name="Icon" dataDxfId="76"/>
+    <tableColumn id="17" name="Cover" dataDxfId="75"/>
+    <tableColumn id="15" name="IsSpecial" dataDxfId="74"/>
+    <tableColumn id="28" name="IsNew" dataDxfId="73"/>
+    <tableColumn id="19" name="VsMark" dataDxfId="72"/>
+    <tableColumn id="29" name="Remark" dataDxfId="71"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表1_5" displayName="表1_5" ref="A3:BF9" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60" tableBorderDxfId="59">
-  <autoFilter ref="A3:BF9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表1_5" displayName="表1_5" ref="A3:BF11" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60" tableBorderDxfId="59">
+  <autoFilter ref="A3:BF11"/>
   <sortState ref="A4:AF311">
     <sortCondition ref="A3:A311"/>
   </sortState>
@@ -22306,7 +22390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD311"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="U204" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -22363,7 +22447,7 @@
         <v>315</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="I1" s="17" t="s">
         <v>977</v>
@@ -22378,34 +22462,34 @@
         <v>972</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="N1" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="O1" s="17" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="Q1" s="17" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="R1" s="17" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="S1" s="17" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="T1" s="40" t="s">
         <v>974</v>
       </c>
       <c r="U1" s="17" t="s">
+        <v>1140</v>
+      </c>
+      <c r="V1" s="17" t="s">
         <v>1141</v>
-      </c>
-      <c r="V1" s="17" t="s">
-        <v>1142</v>
       </c>
       <c r="W1" s="17" t="s">
         <v>323</v>
@@ -22414,76 +22498,76 @@
         <v>325</v>
       </c>
       <c r="Y1" s="44" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="Z1" s="44" t="s">
+        <v>1242</v>
+      </c>
+      <c r="AA1" s="44" t="s">
         <v>1243</v>
       </c>
-      <c r="AA1" s="44" t="s">
+      <c r="AB1" s="44" t="s">
         <v>1244</v>
       </c>
-      <c r="AB1" s="44" t="s">
+      <c r="AC1" s="44" t="s">
         <v>1245</v>
       </c>
-      <c r="AC1" s="44" t="s">
+      <c r="AD1" s="44" t="s">
         <v>1246</v>
       </c>
-      <c r="AD1" s="44" t="s">
+      <c r="AE1" s="44" t="s">
         <v>1247</v>
       </c>
-      <c r="AE1" s="44" t="s">
+      <c r="AF1" s="44" t="s">
         <v>1248</v>
       </c>
-      <c r="AF1" s="44" t="s">
-        <v>1249</v>
-      </c>
       <c r="AG1" s="44" t="s">
+        <v>1260</v>
+      </c>
+      <c r="AH1" s="17" t="s">
         <v>1261</v>
       </c>
-      <c r="AH1" s="17" t="s">
+      <c r="AI1" s="17" t="s">
         <v>1262</v>
       </c>
-      <c r="AI1" s="17" t="s">
+      <c r="AJ1" s="17" t="s">
         <v>1263</v>
       </c>
-      <c r="AJ1" s="17" t="s">
+      <c r="AK1" s="17" t="s">
         <v>1264</v>
       </c>
-      <c r="AK1" s="17" t="s">
+      <c r="AL1" s="17" t="s">
         <v>1265</v>
       </c>
-      <c r="AL1" s="17" t="s">
-        <v>1266</v>
-      </c>
       <c r="AM1" s="17" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="AN1" s="47" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="AO1" s="47" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="AP1" s="47" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AQ1" s="47" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="AR1" s="47" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="AS1" s="47" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="AT1" s="47" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="AU1" s="47" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="AV1" s="47" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="AW1" s="48" t="s">
         <v>1027</v>
@@ -22533,7 +22617,7 @@
         <v>295</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>978</v>
@@ -22548,34 +22632,34 @@
         <v>965</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T2" s="41" t="s">
         <v>1009</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="W2" s="2" t="s">
         <v>296</v>
@@ -22644,13 +22728,13 @@
         <v>1009</v>
       </c>
       <c r="AS2" s="49" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="AT2" s="49" t="s">
         <v>1009</v>
       </c>
       <c r="AU2" s="49" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="AV2" s="49" t="s">
         <v>1009</v>
@@ -22703,7 +22787,7 @@
         <v>1033</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>979</v>
@@ -22718,34 +22802,34 @@
         <v>973</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="T3" s="42" t="s">
         <v>975</v>
       </c>
       <c r="U3" s="6" t="s">
+        <v>1143</v>
+      </c>
+      <c r="V3" s="6" t="s">
         <v>1144</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>1145</v>
       </c>
       <c r="W3" s="6" t="s">
         <v>306</v>
@@ -22754,76 +22838,76 @@
         <v>308</v>
       </c>
       <c r="Y3" s="46" t="s">
+        <v>1240</v>
+      </c>
+      <c r="Z3" s="46" t="s">
         <v>1241</v>
       </c>
-      <c r="Z3" s="46" t="s">
-        <v>1242</v>
-      </c>
       <c r="AA3" s="46" t="s">
+        <v>1251</v>
+      </c>
+      <c r="AB3" s="46" t="s">
         <v>1252</v>
       </c>
-      <c r="AB3" s="46" t="s">
+      <c r="AC3" s="46" t="s">
         <v>1253</v>
       </c>
-      <c r="AC3" s="46" t="s">
+      <c r="AD3" s="46" t="s">
         <v>1254</v>
       </c>
-      <c r="AD3" s="46" t="s">
+      <c r="AE3" s="46" t="s">
         <v>1255</v>
       </c>
-      <c r="AE3" s="46" t="s">
+      <c r="AF3" s="46" t="s">
         <v>1256</v>
       </c>
-      <c r="AF3" s="46" t="s">
-        <v>1257</v>
-      </c>
       <c r="AG3" s="46" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="AH3" s="6" t="s">
+        <v>1266</v>
+      </c>
+      <c r="AI3" s="6" t="s">
         <v>1267</v>
       </c>
-      <c r="AI3" s="6" t="s">
+      <c r="AJ3" s="6" t="s">
         <v>1268</v>
       </c>
-      <c r="AJ3" s="6" t="s">
+      <c r="AK3" s="6" t="s">
         <v>1269</v>
       </c>
-      <c r="AK3" s="6" t="s">
+      <c r="AL3" s="6" t="s">
         <v>1270</v>
       </c>
-      <c r="AL3" s="6" t="s">
-        <v>1271</v>
-      </c>
       <c r="AM3" s="6" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="AN3" s="51" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="AO3" s="52" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="AP3" s="52" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="AQ3" s="52" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="AR3" s="52" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="AS3" s="52" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="AT3" s="52" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="AU3" s="52" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="AV3" s="52" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="AW3" s="42" t="s">
         <v>1028</v>
@@ -23005,7 +23089,7 @@
         <v>0.104918</v>
       </c>
       <c r="BD4" s="22" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="5" spans="1:56" ht="14.25">
@@ -23081,7 +23165,7 @@
         <v>4</v>
       </c>
       <c r="X5" s="4" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="Y5" s="43">
         <v>55000001</v>
@@ -23173,7 +23257,7 @@
         <v>0.30327870000000001</v>
       </c>
       <c r="BD5" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="6" spans="1:56" ht="14.25">
@@ -23337,7 +23421,7 @@
         <v>0.52786889999999997</v>
       </c>
       <c r="BD6" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="7" spans="1:56" ht="14.25">
@@ -23413,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="Y7" s="43">
         <v>55000029</v>
@@ -23501,7 +23585,7 @@
         <v>0.33934429999999999</v>
       </c>
       <c r="BD7" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="8" spans="1:56" ht="14.25">
@@ -23659,7 +23743,7 @@
         <v>0.40819670000000002</v>
       </c>
       <c r="BD8" s="22" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="9" spans="1:56" ht="14.25">
@@ -23735,7 +23819,7 @@
         <v>11</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="Y9" s="43">
         <v>55000067</v>
@@ -23823,7 +23907,7 @@
         <v>0.3180328</v>
       </c>
       <c r="BD9" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="10" spans="1:56" ht="14.25">
@@ -23899,7 +23983,7 @@
         <v>12</v>
       </c>
       <c r="X10" s="4" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="Y10" s="43">
         <v>55000035</v>
@@ -23987,7 +24071,7 @@
         <v>0.20163929999999999</v>
       </c>
       <c r="BD10" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="11" spans="1:56" ht="14.25">
@@ -24063,7 +24147,7 @@
         <v>14</v>
       </c>
       <c r="X11" s="4" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Y11" s="43">
         <v>55000016</v>
@@ -24151,7 +24235,7 @@
         <v>0.2377049</v>
       </c>
       <c r="BD11" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="12" spans="1:56" ht="14.25">
@@ -24319,7 +24403,7 @@
         <v>0.81147539999999996</v>
       </c>
       <c r="BD12" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="13" spans="1:56" ht="14.25">
@@ -24477,7 +24561,7 @@
         <v>0.48688520000000002</v>
       </c>
       <c r="BD13" s="22" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="14" spans="1:56" ht="14.25">
@@ -24649,7 +24733,7 @@
         <v>0.67213109999999998</v>
       </c>
       <c r="BD14" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="15" spans="1:56" ht="14.25">
@@ -24807,7 +24891,7 @@
         <v>0.94918029999999998</v>
       </c>
       <c r="BD15" s="22" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="16" spans="1:56" ht="14.25">
@@ -24965,7 +25049,7 @@
         <v>0.26557380000000003</v>
       </c>
       <c r="BD16" s="22" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="17" spans="1:56" ht="14.25">
@@ -25123,7 +25207,7 @@
         <v>0.65901639999999995</v>
       </c>
       <c r="BD17" s="22" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="18" spans="1:56" ht="14.25">
@@ -25281,7 +25365,7 @@
         <v>0.13278690000000001</v>
       </c>
       <c r="BD18" s="22" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="19" spans="1:56" ht="14.25">
@@ -25439,7 +25523,7 @@
         <v>0.1213115</v>
       </c>
       <c r="BD19" s="22" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="20" spans="1:56" ht="14.25">
@@ -25597,7 +25681,7 @@
         <v>0.2770492</v>
       </c>
       <c r="BD20" s="22" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="21" spans="1:56" ht="14.25">
@@ -25755,7 +25839,7 @@
         <v>0.14098359999999999</v>
       </c>
       <c r="BD21" s="22" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="22" spans="1:56" ht="14.25">
@@ -25913,7 +25997,7 @@
         <v>0.1131148</v>
       </c>
       <c r="BD22" s="22" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="23" spans="1:56" ht="14.25">
@@ -26071,7 +26155,7 @@
         <v>0.26885249999999999</v>
       </c>
       <c r="BD23" s="22" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="24" spans="1:56" ht="14.25">
@@ -26147,7 +26231,7 @@
         <v>0</v>
       </c>
       <c r="X24" s="4" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="Y24" s="43">
         <v>55000006</v>
@@ -26235,7 +26319,7 @@
         <v>0.34754099999999999</v>
       </c>
       <c r="BD24" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="25" spans="1:56" ht="14.25">
@@ -26311,7 +26395,7 @@
         <v>31</v>
       </c>
       <c r="X25" s="4" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="Y25" s="43">
         <v>55000002</v>
@@ -26407,7 +26491,7 @@
         <v>0.46885250000000001</v>
       </c>
       <c r="BD25" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="26" spans="1:56" ht="14.25">
@@ -26565,7 +26649,7 @@
         <v>0.6426229</v>
       </c>
       <c r="BD26" s="22" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="27" spans="1:56" ht="14.25">
@@ -26729,7 +26813,7 @@
         <v>0.58032790000000001</v>
       </c>
       <c r="BD27" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="28" spans="1:56" ht="14.25">
@@ -26805,7 +26889,7 @@
         <v>6</v>
       </c>
       <c r="X28" s="4" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="Y28" s="43">
         <v>55000051</v>
@@ -26893,7 +26977,7 @@
         <v>0.23278689999999999</v>
       </c>
       <c r="BD28" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="29" spans="1:56" ht="14.25">
@@ -26969,7 +27053,7 @@
         <v>9</v>
       </c>
       <c r="X29" s="4" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="Y29" s="43">
         <v>55000030</v>
@@ -27057,7 +27141,7 @@
         <v>0.38524589999999997</v>
       </c>
       <c r="BD29" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="30" spans="1:56" ht="14.25">
@@ -27215,7 +27299,7 @@
         <v>0.58196720000000002</v>
       </c>
       <c r="BD30" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="31" spans="1:56" ht="14.25">
@@ -27291,7 +27375,7 @@
         <v>38</v>
       </c>
       <c r="X31" s="4" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="Y31" s="43">
         <v>55000060</v>
@@ -27383,7 +27467,7 @@
         <v>0.50819669999999995</v>
       </c>
       <c r="BD31" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="32" spans="1:56" ht="14.25">
@@ -27555,7 +27639,7 @@
         <v>0.51475409999999999</v>
       </c>
       <c r="BD32" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="33" spans="1:56" ht="14.25">
@@ -27713,7 +27797,7 @@
         <v>0.43278689999999997</v>
       </c>
       <c r="BD33" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="34" spans="1:56" ht="14.25">
@@ -27877,7 +27961,7 @@
         <v>0.20163929999999999</v>
       </c>
       <c r="BD34" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="35" spans="1:56" ht="14.25">
@@ -27953,7 +28037,7 @@
         <v>9</v>
       </c>
       <c r="X35" s="4" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="Y35" s="43">
         <v>55000064</v>
@@ -28041,7 +28125,7 @@
         <v>5.0819669999999997E-2</v>
       </c>
       <c r="BD35" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="36" spans="1:56" ht="14.25">
@@ -28114,10 +28198,10 @@
         <v>15</v>
       </c>
       <c r="W36" s="4" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="X36" s="4" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="Y36" s="43">
         <v>55000030</v>
@@ -28209,7 +28293,7 @@
         <v>0.36721310000000001</v>
       </c>
       <c r="BD36" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="37" spans="1:56" ht="14.25">
@@ -28285,7 +28369,7 @@
         <v>38</v>
       </c>
       <c r="X37" s="4" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="Y37" s="43">
         <v>55000073</v>
@@ -28373,7 +28457,7 @@
         <v>0.35245900000000002</v>
       </c>
       <c r="BD37" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="38" spans="1:56" ht="14.25">
@@ -28531,7 +28615,7 @@
         <v>0.25901639999999998</v>
       </c>
       <c r="BD38" s="22" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="39" spans="1:56" ht="14.25">
@@ -28689,7 +28773,7 @@
         <v>0.76393440000000001</v>
       </c>
       <c r="BD39" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="40" spans="1:56" ht="14.25">
@@ -28847,7 +28931,7 @@
         <v>0.79836059999999998</v>
       </c>
       <c r="BD40" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="41" spans="1:56" ht="14.25">
@@ -28923,7 +29007,7 @@
         <v>51</v>
       </c>
       <c r="X41" s="4" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="Y41" s="43">
         <v>55000071</v>
@@ -29011,7 +29095,7 @@
         <v>0.2377049</v>
       </c>
       <c r="BD41" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="42" spans="1:56" ht="14.25">
@@ -29087,7 +29171,7 @@
         <v>53</v>
       </c>
       <c r="X42" s="4" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="Y42" s="43">
         <v>55000034</v>
@@ -29179,7 +29263,7 @@
         <v>0.57868850000000005</v>
       </c>
       <c r="BD42" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="43" spans="1:56" ht="14.25">
@@ -29255,7 +29339,7 @@
         <v>4</v>
       </c>
       <c r="X43" s="4" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="Y43" s="43">
         <v>55000074</v>
@@ -29343,7 +29427,7 @@
         <v>0.13606560000000001</v>
       </c>
       <c r="BD43" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="44" spans="1:56" ht="14.25">
@@ -29419,7 +29503,7 @@
         <v>16</v>
       </c>
       <c r="X44" s="4" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="Y44" s="43">
         <v>55000075</v>
@@ -29511,7 +29595,7 @@
         <v>0.7</v>
       </c>
       <c r="BD44" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="45" spans="1:56" ht="14.25">
@@ -29587,7 +29671,7 @@
         <v>4</v>
       </c>
       <c r="X45" s="4" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="Y45" s="43">
         <v>55000077</v>
@@ -29679,7 +29763,7 @@
         <v>0.2</v>
       </c>
       <c r="BD45" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="46" spans="1:56" ht="14.25">
@@ -29755,7 +29839,7 @@
         <v>2</v>
       </c>
       <c r="X46" s="4" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="Y46" s="43">
         <v>55000075</v>
@@ -29847,7 +29931,7 @@
         <v>0.38688529999999999</v>
       </c>
       <c r="BD46" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="47" spans="1:56" ht="14.25">
@@ -30011,7 +30095,7 @@
         <v>0.5557377</v>
       </c>
       <c r="BD47" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="48" spans="1:56" ht="14.25">
@@ -30175,7 +30259,7 @@
         <v>0.46721309999999999</v>
       </c>
       <c r="BD48" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="49" spans="1:56" ht="14.25">
@@ -30339,7 +30423,7 @@
         <v>0.3245902</v>
       </c>
       <c r="BD49" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="50" spans="1:56" ht="14.25">
@@ -30507,7 +30591,7 @@
         <v>0.8573771</v>
       </c>
       <c r="BD50" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="51" spans="1:56" ht="14.25">
@@ -30675,7 +30759,7 @@
         <v>0.33606560000000002</v>
       </c>
       <c r="BD51" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="52" spans="1:56" ht="14.25">
@@ -30839,7 +30923,7 @@
         <v>0.2377049</v>
       </c>
       <c r="BD52" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="53" spans="1:56" ht="14.25">
@@ -31003,7 +31087,7 @@
         <v>0.39836070000000001</v>
       </c>
       <c r="BD53" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="54" spans="1:56" ht="14.25">
@@ -31079,7 +31163,7 @@
         <v>64</v>
       </c>
       <c r="X54" s="4" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="Y54" s="43">
         <v>55000066</v>
@@ -31167,7 +31251,7 @@
         <v>0.53442619999999996</v>
       </c>
       <c r="BD54" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="55" spans="1:56" ht="14.25">
@@ -31331,7 +31415,7 @@
         <v>0.33770489999999997</v>
       </c>
       <c r="BD55" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="56" spans="1:56" ht="14.25">
@@ -31407,7 +31491,7 @@
         <v>4</v>
       </c>
       <c r="X56" s="4" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="Y56" s="43">
         <v>55000087</v>
@@ -31495,7 +31579,7 @@
         <v>0.5557377</v>
       </c>
       <c r="BD56" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="57" spans="1:56" ht="14.25">
@@ -31571,7 +31655,7 @@
         <v>4</v>
       </c>
       <c r="X57" s="4" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="Y57" s="43">
         <v>55000088</v>
@@ -31663,7 +31747,7 @@
         <v>0.24918029999999999</v>
       </c>
       <c r="BD57" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="58" spans="1:56" ht="14.25">
@@ -31827,7 +31911,7 @@
         <v>0.3967213</v>
       </c>
       <c r="BD58" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="59" spans="1:56" ht="14.25">
@@ -31903,7 +31987,7 @@
         <v>69</v>
       </c>
       <c r="X59" s="4" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="Y59" s="43">
         <v>55000091</v>
@@ -31991,7 +32075,7 @@
         <v>0.70163940000000002</v>
       </c>
       <c r="BD59" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="60" spans="1:56" ht="14.25">
@@ -32067,7 +32151,7 @@
         <v>9</v>
       </c>
       <c r="X60" s="4" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="Y60" s="43">
         <v>55000092</v>
@@ -32155,7 +32239,7 @@
         <v>0.26065569999999999</v>
       </c>
       <c r="BD60" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="61" spans="1:56" ht="14.25">
@@ -32231,7 +32315,7 @@
         <v>24</v>
       </c>
       <c r="X61" s="4" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="Y61" s="43">
         <v>55000093</v>
@@ -32319,7 +32403,7 @@
         <v>0.17213120000000001</v>
       </c>
       <c r="BD61" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="62" spans="1:56" ht="14.25">
@@ -32483,7 +32567,7 @@
         <v>0.13278690000000001</v>
       </c>
       <c r="BD62" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="63" spans="1:56" ht="14.25">
@@ -32647,7 +32731,7 @@
         <v>0.75737699999999997</v>
       </c>
       <c r="BD63" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="64" spans="1:56" ht="14.25">
@@ -32805,7 +32889,7 @@
         <v>0.43442619999999998</v>
       </c>
       <c r="BD64" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="65" spans="1:56" ht="14.25">
@@ -32963,7 +33047,7 @@
         <v>0.14590159999999999</v>
       </c>
       <c r="BD65" s="22" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="66" spans="1:56" ht="14.25">
@@ -33121,7 +33205,7 @@
         <v>0.15245900000000001</v>
       </c>
       <c r="BD66" s="22" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="67" spans="1:56" ht="14.25">
@@ -33197,7 +33281,7 @@
         <v>78</v>
       </c>
       <c r="X67" s="4" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="Y67" s="43">
         <v>55000095</v>
@@ -33289,7 +33373,7 @@
         <v>0.8180328</v>
       </c>
       <c r="BD67" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="68" spans="1:56" ht="14.25">
@@ -33365,7 +33449,7 @@
         <v>78</v>
       </c>
       <c r="X68" s="4" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="Y68" s="43">
         <v>55000036</v>
@@ -33467,7 +33551,7 @@
         <v>0.95081970000000005</v>
       </c>
       <c r="BD68" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="69" spans="1:56" ht="14.25">
@@ -33543,7 +33627,7 @@
         <v>40</v>
       </c>
       <c r="X69" s="4" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="Y69" s="43">
         <v>55000060</v>
@@ -33639,7 +33723,7 @@
         <v>0.84098360000000005</v>
       </c>
       <c r="BD69" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="70" spans="1:56" ht="14.25">
@@ -33811,7 +33895,7 @@
         <v>0.89508200000000004</v>
       </c>
       <c r="BD70" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="71" spans="1:56" ht="14.25">
@@ -33887,7 +33971,7 @@
         <v>2</v>
       </c>
       <c r="X71" s="4" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="Y71" s="43">
         <v>55000103</v>
@@ -33979,7 +34063,7 @@
         <v>0.36065570000000002</v>
       </c>
       <c r="BD71" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="72" spans="1:56" ht="14.25">
@@ -34055,7 +34139,7 @@
         <v>2</v>
       </c>
       <c r="X72" s="4" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="Y72" s="43">
         <v>55000103</v>
@@ -34147,7 +34231,7 @@
         <v>0.72786890000000004</v>
       </c>
       <c r="BD72" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="73" spans="1:56" ht="14.25">
@@ -34220,10 +34304,10 @@
         <v>0</v>
       </c>
       <c r="W73" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="X73" s="4" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="Y73" s="43">
         <v>55000060</v>
@@ -34315,7 +34399,7 @@
         <v>0.63278690000000004</v>
       </c>
       <c r="BD73" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="74" spans="1:56" ht="14.25">
@@ -34483,7 +34567,7 @@
         <v>0.70491800000000004</v>
       </c>
       <c r="BD74" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="75" spans="1:56" ht="14.25">
@@ -34559,7 +34643,7 @@
         <v>89</v>
       </c>
       <c r="X75" s="4" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="Y75" s="43">
         <v>55000004</v>
@@ -34651,7 +34735,7 @@
         <v>0.31475409999999998</v>
       </c>
       <c r="BD75" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="76" spans="1:56" ht="14.25">
@@ -34727,7 +34811,7 @@
         <v>12</v>
       </c>
       <c r="X76" s="4" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="Y76" s="43">
         <v>55000101</v>
@@ -34819,7 +34903,7 @@
         <v>0.81147539999999996</v>
       </c>
       <c r="BD76" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="77" spans="1:56" ht="14.25">
@@ -34895,7 +34979,7 @@
         <v>92</v>
       </c>
       <c r="X77" s="4" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="Y77" s="43">
         <v>55000106</v>
@@ -34983,7 +35067,7 @@
         <v>0.36721310000000001</v>
       </c>
       <c r="BD77" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="78" spans="1:56" ht="14.25">
@@ -35059,7 +35143,7 @@
         <v>94</v>
       </c>
       <c r="X78" s="4" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="Y78" s="43">
         <v>55000108</v>
@@ -35151,7 +35235,7 @@
         <v>0.68688519999999997</v>
       </c>
       <c r="BD78" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="79" spans="1:56" ht="14.25">
@@ -35309,7 +35393,7 @@
         <v>0.1393443</v>
       </c>
       <c r="BD79" s="22" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="80" spans="1:56" ht="14.25">
@@ -35467,7 +35551,7 @@
         <v>0.1147541</v>
       </c>
       <c r="BD80" s="22" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="81" spans="1:56" ht="14.25">
@@ -35635,7 +35719,7 @@
         <v>0.48196719999999998</v>
       </c>
       <c r="BD81" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="82" spans="1:56" ht="14.25">
@@ -35803,7 +35887,7 @@
         <v>0.82622949999999995</v>
       </c>
       <c r="BD82" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="83" spans="1:56" ht="14.25">
@@ -35879,7 +35963,7 @@
         <v>38</v>
       </c>
       <c r="X83" s="4" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="Y83" s="43">
         <v>55000111</v>
@@ -35971,7 +36055,7 @@
         <v>0.71147539999999998</v>
       </c>
       <c r="BD83" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="84" spans="1:56" ht="14.25">
@@ -36047,7 +36131,7 @@
         <v>100</v>
       </c>
       <c r="X84" s="4" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="Y84" s="43">
         <v>55000069</v>
@@ -36135,7 +36219,7 @@
         <v>0.3016393</v>
       </c>
       <c r="BD84" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="85" spans="1:56" ht="14.25">
@@ -36307,7 +36391,7 @@
         <v>0.8180328</v>
       </c>
       <c r="BD85" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="86" spans="1:56" ht="14.25">
@@ -36475,7 +36559,7 @@
         <v>0.28360659999999999</v>
       </c>
       <c r="BD86" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="87" spans="1:56" ht="14.25">
@@ -36551,7 +36635,7 @@
         <v>86</v>
       </c>
       <c r="X87" s="4" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="Y87" s="43">
         <v>55000068</v>
@@ -36643,7 +36727,7 @@
         <v>0.50819669999999995</v>
       </c>
       <c r="BD87" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="88" spans="1:56" ht="14.25">
@@ -36719,7 +36803,7 @@
         <v>0</v>
       </c>
       <c r="X88" s="4" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="Y88" s="43">
         <v>55000342</v>
@@ -36811,7 +36895,7 @@
         <v>0.33770489999999997</v>
       </c>
       <c r="BD88" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="89" spans="1:56" ht="14.25">
@@ -36887,7 +36971,7 @@
         <v>105</v>
       </c>
       <c r="X89" s="4" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="Y89" s="43">
         <v>55000115</v>
@@ -36979,7 +37063,7 @@
         <v>0.32131150000000003</v>
       </c>
       <c r="BD89" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="90" spans="1:56" ht="14.25">
@@ -37147,7 +37231,7 @@
         <v>0.67213109999999998</v>
       </c>
       <c r="BD90" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="91" spans="1:56" ht="14.25">
@@ -37223,7 +37307,7 @@
         <v>105</v>
       </c>
       <c r="X91" s="4" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="Y91" s="43">
         <v>55000118</v>
@@ -37315,7 +37399,7 @@
         <v>0.5</v>
       </c>
       <c r="BD91" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="92" spans="1:56" ht="14.25">
@@ -37483,7 +37567,7 @@
         <v>0.47868850000000002</v>
       </c>
       <c r="BD92" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="93" spans="1:56" ht="14.25">
@@ -37559,7 +37643,7 @@
         <v>111</v>
       </c>
       <c r="X93" s="4" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="Y93" s="43">
         <v>55000115</v>
@@ -37651,7 +37735,7 @@
         <v>0.3327869</v>
       </c>
       <c r="BD93" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="94" spans="1:56" ht="14.25">
@@ -37727,7 +37811,7 @@
         <v>78</v>
       </c>
       <c r="X94" s="4" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="Y94" s="43">
         <v>55000005</v>
@@ -37819,7 +37903,7 @@
         <v>0.84262289999999995</v>
       </c>
       <c r="BD94" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="95" spans="1:56" ht="14.25">
@@ -37895,7 +37979,7 @@
         <v>107</v>
       </c>
       <c r="X95" s="4" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="Y95" s="43">
         <v>55000114</v>
@@ -37987,7 +38071,7 @@
         <v>0.48688520000000002</v>
       </c>
       <c r="BD95" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="96" spans="1:56" ht="14.25">
@@ -38063,7 +38147,7 @@
         <v>2</v>
       </c>
       <c r="X96" s="4" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="Y96" s="43">
         <v>55000002</v>
@@ -38155,7 +38239,7 @@
         <v>0.66557379999999999</v>
       </c>
       <c r="BD96" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="97" spans="1:56" ht="14.25">
@@ -38231,7 +38315,7 @@
         <v>22</v>
       </c>
       <c r="X97" s="4" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="Y97" s="43">
         <v>55000123</v>
@@ -38327,7 +38411,7 @@
         <v>0.93114750000000002</v>
       </c>
       <c r="BD97" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="98" spans="1:56" ht="14.25">
@@ -38403,7 +38487,7 @@
         <v>94</v>
       </c>
       <c r="X98" s="4" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="Y98" s="43">
         <v>55000245</v>
@@ -38491,7 +38575,7 @@
         <v>0.51803279999999996</v>
       </c>
       <c r="BD98" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="99" spans="1:56" ht="14.25">
@@ -38564,10 +38648,10 @@
         <v>0</v>
       </c>
       <c r="W99" s="4" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="X99" s="4" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="Y99" s="43">
         <v>55000246</v>
@@ -38659,7 +38743,7 @@
         <v>0.36393439999999999</v>
       </c>
       <c r="BD99" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="100" spans="1:56" ht="14.25">
@@ -38735,7 +38819,7 @@
         <v>78</v>
       </c>
       <c r="X100" s="4" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="Y100" s="43">
         <v>55000040</v>
@@ -38837,7 +38921,7 @@
         <v>0.94918029999999998</v>
       </c>
       <c r="BD100" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="101" spans="1:56" ht="14.25">
@@ -38913,7 +38997,7 @@
         <v>4</v>
       </c>
       <c r="X101" s="4" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="Y101" s="43">
         <v>55000126</v>
@@ -39005,7 +39089,7 @@
         <v>0.60327869999999995</v>
       </c>
       <c r="BD101" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="102" spans="1:56" ht="14.25">
@@ -39177,7 +39261,7 @@
         <v>0.75737699999999997</v>
       </c>
       <c r="BD102" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="103" spans="1:56" ht="14.25">
@@ -39253,7 +39337,7 @@
         <v>9</v>
       </c>
       <c r="X103" s="4" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="Y103" s="43">
         <v>55000129</v>
@@ -39341,7 +39425,7 @@
         <v>0.1032787</v>
       </c>
       <c r="BD103" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="104" spans="1:56" ht="14.25">
@@ -39417,7 +39501,7 @@
         <v>4</v>
       </c>
       <c r="X104" s="4" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="Y104" s="43">
         <v>55000130</v>
@@ -39509,7 +39593,7 @@
         <v>0.42622949999999998</v>
       </c>
       <c r="BD104" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="105" spans="1:56" ht="14.25">
@@ -39677,7 +39761,7 @@
         <v>0.2098361</v>
       </c>
       <c r="BD105" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="106" spans="1:56" ht="14.25">
@@ -39753,7 +39837,7 @@
         <v>9</v>
       </c>
       <c r="X106" s="4" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="Y106" s="43">
         <v>55000133</v>
@@ -39841,7 +39925,7 @@
         <v>4.262295E-2</v>
       </c>
       <c r="BD106" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="107" spans="1:56" ht="14.25">
@@ -39917,7 +40001,7 @@
         <v>9</v>
       </c>
       <c r="X107" s="4" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="Y107" s="43">
         <v>55000134</v>
@@ -40005,7 +40089,7 @@
         <v>5.2459020000000002E-2</v>
       </c>
       <c r="BD107" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="108" spans="1:56" ht="14.25">
@@ -40081,7 +40165,7 @@
         <v>2</v>
       </c>
       <c r="X108" s="4" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="Y108" s="43">
         <v>55000017</v>
@@ -40177,7 +40261,7 @@
         <v>0.92622950000000004</v>
       </c>
       <c r="BD108" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="109" spans="1:56" ht="14.25">
@@ -40253,7 +40337,7 @@
         <v>128</v>
       </c>
       <c r="X109" s="4" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="Y109" s="43">
         <v>55000135</v>
@@ -40341,7 +40425,7 @@
         <v>6.8852460000000004E-2</v>
       </c>
       <c r="BD109" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="110" spans="1:56" ht="14.25">
@@ -40417,7 +40501,7 @@
         <v>130</v>
       </c>
       <c r="X110" s="4" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="Y110" s="43">
         <v>55000135</v>
@@ -40509,7 +40593,7 @@
         <v>0.24262300000000001</v>
       </c>
       <c r="BD110" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="111" spans="1:56" ht="14.25">
@@ -40585,7 +40669,7 @@
         <v>132</v>
       </c>
       <c r="X111" s="4" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="Y111" s="43">
         <v>55000038</v>
@@ -40673,7 +40757,7 @@
         <v>0.28360659999999999</v>
       </c>
       <c r="BD111" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="112" spans="1:56" ht="14.25">
@@ -40749,7 +40833,7 @@
         <v>118</v>
       </c>
       <c r="X112" s="4" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="Y112" s="43">
         <v>55010003</v>
@@ -40841,7 +40925,7 @@
         <v>0.5</v>
       </c>
       <c r="BD112" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="113" spans="1:56" ht="14.25">
@@ -40917,7 +41001,7 @@
         <v>135</v>
       </c>
       <c r="X113" s="4" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="Y113" s="43">
         <v>55000018</v>
@@ -41009,7 +41093,7 @@
         <v>0.51147540000000002</v>
       </c>
       <c r="BD113" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="114" spans="1:56" ht="14.25">
@@ -41085,7 +41169,7 @@
         <v>89</v>
       </c>
       <c r="X114" s="4" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="Y114" s="43">
         <v>55000040</v>
@@ -41187,7 +41271,7 @@
         <v>0.9442623</v>
       </c>
       <c r="BD114" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="115" spans="1:56" ht="14.25">
@@ -41263,7 +41347,7 @@
         <v>94</v>
       </c>
       <c r="X115" s="4" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="Y115" s="43">
         <v>55000040</v>
@@ -41365,7 +41449,7 @@
         <v>0.94262299999999999</v>
       </c>
       <c r="BD115" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="116" spans="1:56" ht="14.25">
@@ -41441,7 +41525,7 @@
         <v>31</v>
       </c>
       <c r="X116" s="4" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="Y116" s="43">
         <v>55000040</v>
@@ -41543,7 +41627,7 @@
         <v>0.92786880000000005</v>
       </c>
       <c r="BD116" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="117" spans="1:56" ht="14.25">
@@ -41711,7 +41795,7 @@
         <v>0.38196720000000001</v>
       </c>
       <c r="BD117" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="118" spans="1:56" ht="14.25">
@@ -41787,7 +41871,7 @@
         <v>40</v>
       </c>
       <c r="X118" s="4" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="Y118" s="43">
         <v>55000040</v>
@@ -41889,7 +41973,7 @@
         <v>0.9442623</v>
       </c>
       <c r="BD118" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="119" spans="1:56" ht="14.25">
@@ -41965,7 +42049,7 @@
         <v>100</v>
       </c>
       <c r="X119" s="4" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="Y119" s="43">
         <v>55000040</v>
@@ -42067,7 +42151,7 @@
         <v>0.95901639999999999</v>
       </c>
       <c r="BD119" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="120" spans="1:56" ht="14.25">
@@ -42143,7 +42227,7 @@
         <v>51</v>
       </c>
       <c r="X120" s="4" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="Y120" s="43">
         <v>55000040</v>
@@ -42245,7 +42329,7 @@
         <v>0.92786880000000005</v>
       </c>
       <c r="BD120" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="121" spans="1:56" ht="14.25">
@@ -42321,7 +42405,7 @@
         <v>22</v>
       </c>
       <c r="X121" s="4" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="Y121" s="43">
         <v>55000040</v>
@@ -42423,7 +42507,7 @@
         <v>0.95409829999999995</v>
       </c>
       <c r="BD121" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="122" spans="1:56" ht="14.25">
@@ -42591,7 +42675,7 @@
         <v>0.24426229999999999</v>
       </c>
       <c r="BD122" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="123" spans="1:56" ht="14.25">
@@ -42763,7 +42847,7 @@
         <v>0.27213110000000001</v>
       </c>
       <c r="BD123" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="124" spans="1:56" ht="14.25">
@@ -42935,7 +43019,7 @@
         <v>0.49836069999999999</v>
       </c>
       <c r="BD124" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="125" spans="1:56" ht="14.25">
@@ -43107,7 +43191,7 @@
         <v>0.73114749999999995</v>
       </c>
       <c r="BD125" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="126" spans="1:56" ht="14.25">
@@ -43183,7 +43267,7 @@
         <v>24</v>
       </c>
       <c r="X126" s="4" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="Y126" s="43">
         <v>55000151</v>
@@ -43271,7 +43355,7 @@
         <v>9.3442629999999999E-2</v>
       </c>
       <c r="BD126" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="127" spans="1:56" ht="14.25">
@@ -43435,7 +43519,7 @@
         <v>0.3</v>
       </c>
       <c r="BD127" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="128" spans="1:56" ht="14.25">
@@ -43603,7 +43687,7 @@
         <v>0.62131150000000002</v>
       </c>
       <c r="BD128" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="129" spans="1:56" ht="14.25">
@@ -43771,7 +43855,7 @@
         <v>0.85901640000000001</v>
       </c>
       <c r="BD129" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="130" spans="1:56" ht="14.25">
@@ -43935,7 +44019,7 @@
         <v>0.1114754</v>
       </c>
       <c r="BD130" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="131" spans="1:56" ht="14.25">
@@ -44099,7 +44183,7 @@
         <v>0.31639339999999999</v>
       </c>
       <c r="BD131" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="132" spans="1:56" ht="14.25">
@@ -44267,7 +44351,7 @@
         <v>0.76393440000000001</v>
       </c>
       <c r="BD132" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="133" spans="1:56" ht="14.25">
@@ -44435,7 +44519,7 @@
         <v>0.67213109999999998</v>
       </c>
       <c r="BD133" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="134" spans="1:56" ht="14.25">
@@ -44511,7 +44595,7 @@
         <v>2</v>
       </c>
       <c r="X134" s="4" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="Y134" s="43">
         <v>55000035</v>
@@ -44603,7 +44687,7 @@
         <v>0.44098359999999998</v>
       </c>
       <c r="BD134" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="135" spans="1:56" ht="14.25">
@@ -44771,7 +44855,7 @@
         <v>0.43442619999999998</v>
       </c>
       <c r="BD135" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="136" spans="1:56" ht="14.25">
@@ -44847,7 +44931,7 @@
         <v>107</v>
       </c>
       <c r="X136" s="4" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="Y136" s="43">
         <v>55000031</v>
@@ -44939,7 +45023,7 @@
         <v>0.50819669999999995</v>
       </c>
       <c r="BD136" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="137" spans="1:56" ht="14.25">
@@ -45015,7 +45099,7 @@
         <v>2</v>
       </c>
       <c r="X137" s="4" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="Y137" s="43">
         <v>55000012</v>
@@ -45111,7 +45195,7 @@
         <v>0.80983609999999995</v>
       </c>
       <c r="BD137" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="138" spans="1:56" ht="14.25">
@@ -45187,7 +45271,7 @@
         <v>6</v>
       </c>
       <c r="X138" s="4" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="Y138" s="43">
         <v>55000157</v>
@@ -45279,7 +45363,7 @@
         <v>0.25245899999999999</v>
       </c>
       <c r="BD138" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="139" spans="1:56" ht="14.25">
@@ -45355,7 +45439,7 @@
         <v>107</v>
       </c>
       <c r="X139" s="4" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="Y139" s="43">
         <v>55000119</v>
@@ -45447,7 +45531,7 @@
         <v>0.61311479999999996</v>
       </c>
       <c r="BD139" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="140" spans="1:56" ht="14.25">
@@ -45605,7 +45689,7 @@
         <v>0.36393439999999999</v>
       </c>
       <c r="BD140" s="22" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="141" spans="1:56" ht="14.25">
@@ -45681,7 +45765,7 @@
         <v>12</v>
       </c>
       <c r="X141" s="4" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="Y141" s="43">
         <v>55000088</v>
@@ -45773,7 +45857,7 @@
         <v>0.52295080000000005</v>
       </c>
       <c r="BD141" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="142" spans="1:56" ht="14.25">
@@ -45849,7 +45933,7 @@
         <v>40</v>
       </c>
       <c r="X142" s="4" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="Y142" s="43">
         <v>55000018</v>
@@ -45941,7 +46025,7 @@
         <v>0.3491803</v>
       </c>
       <c r="BD142" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="143" spans="1:56" ht="14.25">
@@ -46109,7 +46193,7 @@
         <v>0.26065569999999999</v>
       </c>
       <c r="BD143" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="144" spans="1:56" ht="14.25">
@@ -46185,7 +46269,7 @@
         <v>16</v>
       </c>
       <c r="X144" s="4" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="Y144" s="43">
         <v>55000044</v>
@@ -46273,7 +46357,7 @@
         <v>0.56393439999999995</v>
       </c>
       <c r="BD144" s="22" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="145" spans="1:56" ht="14.25">
@@ -46431,7 +46515,7 @@
         <v>0.13770489999999999</v>
       </c>
       <c r="BD145" s="22" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="146" spans="1:56" ht="14.25">
@@ -46603,7 +46687,7 @@
         <v>0.75081969999999998</v>
       </c>
       <c r="BD146" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="147" spans="1:56" ht="14.25">
@@ -46771,7 +46855,7 @@
         <v>0.41639340000000002</v>
       </c>
       <c r="BD147" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="148" spans="1:56" ht="14.25">
@@ -46844,10 +46928,10 @@
         <v>15</v>
       </c>
       <c r="W148" s="4" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="X148" s="4" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="Y148" s="43">
         <v>55000340</v>
@@ -46939,7 +47023,7 @@
         <v>0.1983607</v>
       </c>
       <c r="BD148" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="149" spans="1:56" ht="14.25">
@@ -47015,7 +47099,7 @@
         <v>166</v>
       </c>
       <c r="X149" s="4" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="Y149" s="43">
         <v>55000066</v>
@@ -47111,7 +47195,7 @@
         <v>0.52295080000000005</v>
       </c>
       <c r="BD149" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="150" spans="1:56" ht="14.25">
@@ -47283,7 +47367,7 @@
         <v>0.68852460000000004</v>
       </c>
       <c r="BD150" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="151" spans="1:56" ht="14.25">
@@ -47447,7 +47531,7 @@
         <v>0.47049180000000002</v>
       </c>
       <c r="BD151" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="152" spans="1:56" ht="14.25">
@@ -47605,7 +47689,7 @@
         <v>0.35409829999999998</v>
       </c>
       <c r="BD152" s="22" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="153" spans="1:56" ht="14.25">
@@ -47769,7 +47853,7 @@
         <v>0.32295079999999998</v>
       </c>
       <c r="BD153" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="154" spans="1:56" ht="14.25">
@@ -47933,7 +48017,7 @@
         <v>0.40819670000000002</v>
       </c>
       <c r="BD154" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="155" spans="1:56" ht="14.25">
@@ -48006,10 +48090,10 @@
         <v>15</v>
       </c>
       <c r="W155" s="4" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="X155" s="4" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="Y155" s="43">
         <v>55000165</v>
@@ -48097,7 +48181,7 @@
         <v>0.58688530000000005</v>
       </c>
       <c r="BD155" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="156" spans="1:56" ht="14.25">
@@ -48173,7 +48257,7 @@
         <v>4</v>
       </c>
       <c r="X156" s="4" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="Y156" s="43">
         <v>55000166</v>
@@ -48261,7 +48345,7 @@
         <v>0.28196719999999997</v>
       </c>
       <c r="BD156" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="157" spans="1:56" ht="14.25">
@@ -48419,7 +48503,7 @@
         <v>0.12950819999999999</v>
       </c>
       <c r="BD157" s="22" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="158" spans="1:56" ht="14.25">
@@ -48495,7 +48579,7 @@
         <v>2</v>
       </c>
       <c r="X158" s="4" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="Y158" s="43">
         <v>55000049</v>
@@ -48583,7 +48667,7 @@
         <v>0.69016390000000005</v>
       </c>
       <c r="BD158" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="159" spans="1:56" ht="14.25">
@@ -48751,7 +48835,7 @@
         <v>0.52950819999999998</v>
       </c>
       <c r="BD159" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="160" spans="1:56" ht="14.25">
@@ -48827,7 +48911,7 @@
         <v>179</v>
       </c>
       <c r="X160" s="4" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="Y160" s="43">
         <v>55000048</v>
@@ -48919,7 +49003,7 @@
         <v>0.94098360000000003</v>
       </c>
       <c r="BD160" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="161" spans="1:56" ht="14.25">
@@ -49077,7 +49161,7 @@
         <v>0.3098361</v>
       </c>
       <c r="BD161" s="22" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="162" spans="1:56" ht="14.25">
@@ -49153,7 +49237,7 @@
         <v>107</v>
       </c>
       <c r="X162" s="4" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="Y162" s="43">
         <v>55000150</v>
@@ -49241,7 +49325,7 @@
         <v>0.44754100000000002</v>
       </c>
       <c r="BD162" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="163" spans="1:56" ht="14.25">
@@ -49317,7 +49401,7 @@
         <v>107</v>
       </c>
       <c r="X163" s="4" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="Y163" s="43">
         <v>55000269</v>
@@ -49405,7 +49489,7 @@
         <v>0.45409840000000001</v>
       </c>
       <c r="BD163" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="164" spans="1:56" ht="14.25">
@@ -49481,7 +49565,7 @@
         <v>16</v>
       </c>
       <c r="X164" s="4" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="Y164" s="43">
         <v>55000167</v>
@@ -49573,7 +49657,7 @@
         <v>0.64098359999999999</v>
       </c>
       <c r="BD164" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="165" spans="1:56" ht="14.25">
@@ -49745,7 +49829,7 @@
         <v>0.73114749999999995</v>
       </c>
       <c r="BD165" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="166" spans="1:56" ht="14.25">
@@ -49821,7 +49905,7 @@
         <v>100</v>
       </c>
       <c r="X166" s="4" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="Y166" s="43">
         <v>55000094</v>
@@ -49913,7 +49997,7 @@
         <v>0.59344260000000004</v>
       </c>
       <c r="BD166" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="167" spans="1:56" ht="14.25">
@@ -50081,7 +50165,7 @@
         <v>0.60327869999999995</v>
       </c>
       <c r="BD167" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="168" spans="1:56" ht="14.25">
@@ -50253,7 +50337,7 @@
         <v>0.85409840000000004</v>
       </c>
       <c r="BD168" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="169" spans="1:56" ht="14.25">
@@ -50329,7 +50413,7 @@
         <v>9</v>
       </c>
       <c r="X169" s="4" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="Y169" s="43">
         <v>55000179</v>
@@ -50417,7 +50501,7 @@
         <v>5.7377049999999999E-2</v>
       </c>
       <c r="BD169" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="170" spans="1:56" ht="14.25">
@@ -50493,7 +50577,7 @@
         <v>9</v>
       </c>
       <c r="X170" s="4" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="Y170" s="43">
         <v>55000178</v>
@@ -50581,7 +50665,7 @@
         <v>4.0983609999999997E-2</v>
       </c>
       <c r="BD170" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="171" spans="1:56" ht="14.25">
@@ -50757,7 +50841,7 @@
         <v>4.590164E-2</v>
       </c>
       <c r="BD171" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="172" spans="1:56" ht="14.25">
@@ -50929,7 +51013,7 @@
         <v>0.77540980000000004</v>
       </c>
       <c r="BD172" s="22" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="173" spans="1:56" ht="14.25">
@@ -51002,10 +51086,10 @@
         <v>15</v>
       </c>
       <c r="W173" s="4" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="X173" s="4" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="Y173" s="43">
         <v>55000015</v>
@@ -51097,7 +51181,7 @@
         <v>9.0163930000000003E-2</v>
       </c>
       <c r="BD173" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="174" spans="1:56" ht="14.25">
@@ -51173,7 +51257,7 @@
         <v>69</v>
       </c>
       <c r="X174" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="Y174" s="43">
         <v>55000184</v>
@@ -51261,7 +51345,7 @@
         <v>0.56721310000000003</v>
       </c>
       <c r="BD174" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="175" spans="1:56" ht="14.25">
@@ -51337,7 +51421,7 @@
         <v>2</v>
       </c>
       <c r="X175" s="4" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="Y175" s="43">
         <v>55000185</v>
@@ -51425,7 +51509,7 @@
         <v>0.104918</v>
       </c>
       <c r="BD175" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="176" spans="1:56" ht="14.25">
@@ -51501,7 +51585,7 @@
         <v>12</v>
       </c>
       <c r="X176" s="4" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="Y176" s="43">
         <v>55000186</v>
@@ -51589,7 +51673,7 @@
         <v>0.57213119999999995</v>
       </c>
       <c r="BD176" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="177" spans="1:56" ht="14.25">
@@ -51665,7 +51749,7 @@
         <v>4</v>
       </c>
       <c r="X177" s="4" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="Y177" s="43">
         <v>55000188</v>
@@ -51757,7 +51841,7 @@
         <v>0.25737710000000003</v>
       </c>
       <c r="BD177" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="178" spans="1:56" ht="14.25">
@@ -51833,7 +51917,7 @@
         <v>4</v>
       </c>
       <c r="X178" s="4" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="Y178" s="43">
         <v>55000087</v>
@@ -51925,7 +52009,7 @@
         <v>0.64590159999999996</v>
       </c>
       <c r="BD178" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="179" spans="1:56" ht="14.25">
@@ -52089,7 +52173,7 @@
         <v>0.49508200000000002</v>
       </c>
       <c r="BD179" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="180" spans="1:56" ht="14.25">
@@ -52165,7 +52249,7 @@
         <v>65</v>
       </c>
       <c r="X180" s="4" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="Y180" s="43">
         <v>55000061</v>
@@ -52265,7 +52349,7 @@
         <v>0.80819669999999999</v>
       </c>
       <c r="BD180" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="181" spans="1:56" ht="14.25">
@@ -52341,7 +52425,7 @@
         <v>976</v>
       </c>
       <c r="X181" s="4" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="Y181" s="43">
         <v>55000044</v>
@@ -52437,7 +52521,7 @@
         <v>0.91639349999999997</v>
       </c>
       <c r="BD181" s="22" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="182" spans="1:56" ht="14.25">
@@ -52605,7 +52689,7 @@
         <v>0.27377050000000003</v>
       </c>
       <c r="BD182" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="183" spans="1:56" ht="14.25">
@@ -52681,7 +52765,7 @@
         <v>16</v>
       </c>
       <c r="X183" s="4" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="Y183" s="43">
         <v>55000297</v>
@@ -52773,7 +52857,7 @@
         <v>0.89508200000000004</v>
       </c>
       <c r="BD183" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="184" spans="1:56" ht="14.25">
@@ -52937,7 +53021,7 @@
         <v>0.65245900000000001</v>
       </c>
       <c r="BD184" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="185" spans="1:56" ht="14.25">
@@ -53013,7 +53097,7 @@
         <v>12</v>
       </c>
       <c r="X185" s="4" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="Y185" s="43">
         <v>55000194</v>
@@ -53105,7 +53189,7 @@
         <v>0.91639349999999997</v>
       </c>
       <c r="BD185" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="186" spans="1:56" ht="14.25">
@@ -53273,7 +53357,7 @@
         <v>0.73114749999999995</v>
       </c>
       <c r="BD186" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="187" spans="1:56" ht="14.25">
@@ -53349,7 +53433,7 @@
         <v>6</v>
       </c>
       <c r="X187" s="4" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="Y187" s="43">
         <v>55000089</v>
@@ -53437,7 +53521,7 @@
         <v>0.37377050000000001</v>
       </c>
       <c r="BD187" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="188" spans="1:56" ht="14.25">
@@ -53513,7 +53597,7 @@
         <v>2</v>
       </c>
       <c r="X188" s="4" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="Y188" s="43">
         <v>55000196</v>
@@ -53609,7 +53693,7 @@
         <v>0.9442623</v>
       </c>
       <c r="BD188" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="189" spans="1:56" ht="14.25">
@@ -53685,7 +53769,7 @@
         <v>4</v>
       </c>
       <c r="X189" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="Y189" s="43">
         <v>55000044</v>
@@ -53773,7 +53857,7 @@
         <v>0.50655740000000005</v>
       </c>
       <c r="BD189" s="22" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="190" spans="1:56" ht="14.25">
@@ -53931,7 +54015,7 @@
         <v>0.1508197</v>
       </c>
       <c r="BD190" s="22" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="191" spans="1:56" ht="14.25">
@@ -54099,7 +54183,7 @@
         <v>0.85409840000000004</v>
       </c>
       <c r="BD191" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="192" spans="1:56" ht="14.25">
@@ -54172,10 +54256,10 @@
         <v>12</v>
       </c>
       <c r="W192" s="4" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="X192" s="4" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="Y192" s="43">
         <v>55000001</v>
@@ -54271,7 +54355,7 @@
         <v>0.86229509999999998</v>
       </c>
       <c r="BD192" s="22" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="193" spans="1:56" ht="14.25">
@@ -54443,7 +54527,7 @@
         <v>0.8180328</v>
       </c>
       <c r="BD193" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="194" spans="1:56" ht="14.25">
@@ -54615,7 +54699,7 @@
         <v>0.89672130000000005</v>
       </c>
       <c r="BD194" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="195" spans="1:56" ht="14.25">
@@ -54691,7 +54775,7 @@
         <v>209</v>
       </c>
       <c r="X195" s="4" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="Y195" s="43">
         <v>55000016</v>
@@ -54791,7 +54875,7 @@
         <v>0.74262300000000003</v>
       </c>
       <c r="BD195" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="196" spans="1:56" ht="14.25">
@@ -54959,7 +55043,7 @@
         <v>0.79180329999999999</v>
       </c>
       <c r="BD196" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="197" spans="1:56" ht="14.25">
@@ -55131,7 +55215,7 @@
         <v>0.8327869</v>
       </c>
       <c r="BD197" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="198" spans="1:56" ht="14.25">
@@ -55303,7 +55387,7 @@
         <v>0.81967210000000001</v>
       </c>
       <c r="BD198" s="22" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="199" spans="1:56" ht="14.25">
@@ -55475,7 +55559,7 @@
         <v>0.9606557</v>
       </c>
       <c r="BD199" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="200" spans="1:56" ht="14.25">
@@ -55647,7 +55731,7 @@
         <v>0.82459009999999999</v>
       </c>
       <c r="BD200" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="201" spans="1:56" ht="14.25">
@@ -55723,7 +55807,7 @@
         <v>12</v>
       </c>
       <c r="X201" s="4" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="Y201" s="43">
         <v>55000036</v>
@@ -55811,7 +55895,7 @@
         <v>0.70327870000000003</v>
       </c>
       <c r="BD201" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="202" spans="1:56" ht="14.25">
@@ -55884,10 +55968,10 @@
         <v>0</v>
       </c>
       <c r="W202" s="4" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="X202" s="4" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="Y202" s="43">
         <v>55000203</v>
@@ -55975,7 +56059,7 @@
         <v>8.3606559999999996E-2</v>
       </c>
       <c r="BD202" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="203" spans="1:56" ht="14.25">
@@ -56143,7 +56227,7 @@
         <v>0.38196720000000001</v>
       </c>
       <c r="BD203" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="204" spans="1:56" ht="14.25">
@@ -56219,7 +56303,7 @@
         <v>2</v>
       </c>
       <c r="X204" s="4" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="Y204" s="43">
         <v>55000150</v>
@@ -56311,7 +56395,7 @@
         <v>0.3885246</v>
       </c>
       <c r="BD204" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="205" spans="1:56" ht="14.25">
@@ -56384,10 +56468,10 @@
         <v>15</v>
       </c>
       <c r="W205" s="4" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="X205" s="4" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="Y205" s="43">
         <v>55000197</v>
@@ -56475,7 +56559,7 @@
         <v>0.3180328</v>
       </c>
       <c r="BD205" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="206" spans="1:56" ht="14.25">
@@ -56551,7 +56635,7 @@
         <v>94</v>
       </c>
       <c r="X206" s="4" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="Y206" s="43">
         <v>55000003</v>
@@ -56643,7 +56727,7 @@
         <v>0.54754100000000006</v>
       </c>
       <c r="BD206" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="207" spans="1:56" ht="14.25">
@@ -56807,7 +56891,7 @@
         <v>0.20491799999999999</v>
       </c>
       <c r="BD207" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="208" spans="1:56" ht="14.25">
@@ -56883,7 +56967,7 @@
         <v>6</v>
       </c>
       <c r="X208" s="7" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="Y208" s="43">
         <v>55000207</v>
@@ -56975,7 +57059,7 @@
         <v>0.53278689999999995</v>
       </c>
       <c r="BD208" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="209" spans="1:56" ht="14.25">
@@ -57051,7 +57135,7 @@
         <v>2</v>
       </c>
       <c r="X209" s="4" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="Y209" s="43">
         <v>55000120</v>
@@ -57139,7 +57223,7 @@
         <v>0.1622951</v>
       </c>
       <c r="BD209" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="210" spans="1:56" ht="14.25">
@@ -57215,7 +57299,7 @@
         <v>172</v>
       </c>
       <c r="X210" s="4" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="Y210" s="43">
         <v>55000001</v>
@@ -57307,7 +57391,7 @@
         <v>0.37704919999999997</v>
       </c>
       <c r="BD210" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="211" spans="1:56" ht="14.25">
@@ -57383,7 +57467,7 @@
         <v>69</v>
       </c>
       <c r="X211" s="4" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="Y211" s="43">
         <v>55000208</v>
@@ -57479,7 +57563,7 @@
         <v>0.6426229</v>
       </c>
       <c r="BD211" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="212" spans="1:56" ht="14.25">
@@ -57555,7 +57639,7 @@
         <v>132</v>
       </c>
       <c r="X212" s="4" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="Y212" s="43">
         <v>55000103</v>
@@ -57647,7 +57731,7 @@
         <v>0.67704920000000002</v>
       </c>
       <c r="BD212" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="213" spans="1:56" ht="14.25">
@@ -57723,7 +57807,7 @@
         <v>228</v>
       </c>
       <c r="X213" s="4" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="Y213" s="43">
         <v>55000114</v>
@@ -57819,7 +57903,7 @@
         <v>0.79016390000000003</v>
       </c>
       <c r="BD213" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="214" spans="1:56" ht="14.25">
@@ -57991,7 +58075,7 @@
         <v>0.3803279</v>
       </c>
       <c r="BD214" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="215" spans="1:56" ht="14.25">
@@ -58067,7 +58151,7 @@
         <v>190</v>
       </c>
       <c r="X215" s="4" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="Y215" s="43">
         <v>55000102</v>
@@ -58167,7 +58251,7 @@
         <v>0.75901640000000004</v>
       </c>
       <c r="BD215" s="22" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="216" spans="1:56" ht="14.25">
@@ -58331,7 +58415,7 @@
         <v>0.75737699999999997</v>
       </c>
       <c r="BD216" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="217" spans="1:56" ht="14.25">
@@ -58407,7 +58491,7 @@
         <v>4</v>
       </c>
       <c r="X217" s="4" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="Y217" s="43">
         <v>55000001</v>
@@ -58499,7 +58583,7 @@
         <v>0.37377050000000001</v>
       </c>
       <c r="BD217" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="218" spans="1:56" ht="14.25">
@@ -58575,7 +58659,7 @@
         <v>4</v>
       </c>
       <c r="X218" s="4" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="Y218" s="43">
         <v>55000340</v>
@@ -58667,7 +58751,7 @@
         <v>0.24098359999999999</v>
       </c>
       <c r="BD218" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="219" spans="1:56" ht="14.25">
@@ -58740,10 +58824,10 @@
         <v>15</v>
       </c>
       <c r="W219" s="4" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="X219" s="4" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="Y219" s="43">
         <v>55000070</v>
@@ -58835,7 +58919,7 @@
         <v>0.48032789999999997</v>
       </c>
       <c r="BD219" s="22" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="220" spans="1:56" ht="14.25">
@@ -58911,7 +58995,7 @@
         <v>65</v>
       </c>
       <c r="X220" s="4" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="Y220" s="43">
         <v>55000101</v>
@@ -58999,7 +59083,7 @@
         <v>0.404918</v>
       </c>
       <c r="BD220" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="221" spans="1:56" ht="14.25">
@@ -59075,7 +59159,7 @@
         <v>237</v>
       </c>
       <c r="X221" s="4" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="Y221" s="43">
         <v>55000215</v>
@@ -59167,7 +59251,7 @@
         <v>0.69672129999999999</v>
       </c>
       <c r="BD221" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="222" spans="1:56" ht="14.25">
@@ -59243,7 +59327,7 @@
         <v>6</v>
       </c>
       <c r="X222" s="4" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="Y222" s="43">
         <v>55000217</v>
@@ -59331,7 +59415,7 @@
         <v>0.41639340000000002</v>
       </c>
       <c r="BD222" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="223" spans="1:56" ht="14.25">
@@ -59407,7 +59491,7 @@
         <v>9</v>
       </c>
       <c r="X223" s="4" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="Y223" s="43">
         <v>55000218</v>
@@ -59495,7 +59579,7 @@
         <v>0.49508200000000002</v>
       </c>
       <c r="BD223" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="224" spans="1:56" ht="14.25">
@@ -59663,7 +59747,7 @@
         <v>0.83934430000000004</v>
       </c>
       <c r="BD224" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="225" spans="1:56" ht="14.25">
@@ -59739,7 +59823,7 @@
         <v>16</v>
       </c>
       <c r="X225" s="4" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="Y225" s="43">
         <v>55000009</v>
@@ -59831,7 +59915,7 @@
         <v>0.69016390000000005</v>
       </c>
       <c r="BD225" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="226" spans="1:56" ht="14.25">
@@ -60003,7 +60087,7 @@
         <v>0.82786890000000002</v>
       </c>
       <c r="BD226" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="227" spans="1:56" ht="14.25">
@@ -60079,7 +60163,7 @@
         <v>172</v>
       </c>
       <c r="X227" s="4" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="Y227" s="43">
         <v>55000222</v>
@@ -60171,7 +60255,7 @@
         <v>0.8</v>
       </c>
       <c r="BD227" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="228" spans="1:56" ht="14.25">
@@ -60247,7 +60331,7 @@
         <v>245</v>
       </c>
       <c r="X228" s="4" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="Y228" s="43">
         <v>55000160</v>
@@ -60339,7 +60423,7 @@
         <v>0.52295080000000005</v>
       </c>
       <c r="BD228" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="229" spans="1:56" ht="14.25">
@@ -60415,7 +60499,7 @@
         <v>24</v>
       </c>
       <c r="X229" s="4" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="Y229" s="43">
         <v>55000093</v>
@@ -60507,7 +60591,7 @@
         <v>0.47540979999999999</v>
       </c>
       <c r="BD229" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="230" spans="1:56" ht="14.25">
@@ -60583,7 +60667,7 @@
         <v>9</v>
       </c>
       <c r="X230" s="4" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="Y230" s="43">
         <v>55000225</v>
@@ -60671,7 +60755,7 @@
         <v>5.2459020000000002E-2</v>
       </c>
       <c r="BD230" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="231" spans="1:56" ht="14.25">
@@ -60747,7 +60831,7 @@
         <v>9</v>
       </c>
       <c r="X231" s="4" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="Y231" s="43">
         <v>55000226</v>
@@ -60835,7 +60919,7 @@
         <v>5.4098359999999998E-2</v>
       </c>
       <c r="BD231" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="232" spans="1:56" ht="14.25">
@@ -60993,7 +61077,7 @@
         <v>3.9344259999999999E-2</v>
       </c>
       <c r="BD232" s="22" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="233" spans="1:56" ht="14.25">
@@ -61069,7 +61153,7 @@
         <v>251</v>
       </c>
       <c r="X233" s="4" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="Y233" s="43">
         <v>55000120</v>
@@ -61157,7 +61241,7 @@
         <v>0.54426229999999998</v>
       </c>
       <c r="BD233" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="234" spans="1:56" ht="14.25">
@@ -61325,7 +61409,7 @@
         <v>0.8573771</v>
       </c>
       <c r="BD234" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="235" spans="1:56" ht="14.25">
@@ -61493,7 +61577,7 @@
         <v>0.595082</v>
       </c>
       <c r="BD235" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="236" spans="1:56" ht="14.25">
@@ -61661,7 +61745,7 @@
         <v>0.47704920000000001</v>
       </c>
       <c r="BD236" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="237" spans="1:56" ht="14.25">
@@ -61837,7 +61921,7 @@
         <v>0.70327870000000003</v>
       </c>
       <c r="BD237" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="238" spans="1:56" ht="14.25">
@@ -62005,7 +62089,7 @@
         <v>9.3442629999999999E-2</v>
       </c>
       <c r="BD238" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="239" spans="1:56" ht="14.25">
@@ -62173,7 +62257,7 @@
         <v>0.77377050000000003</v>
       </c>
       <c r="BD239" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="240" spans="1:56" ht="14.25">
@@ -62249,7 +62333,7 @@
         <v>2</v>
       </c>
       <c r="X240" s="4" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="Y240" s="43">
         <v>55000006</v>
@@ -62341,7 +62425,7 @@
         <v>0.63934429999999998</v>
       </c>
       <c r="BD240" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="241" spans="1:56" ht="14.25">
@@ -62517,7 +62601,7 @@
         <v>0.89016399999999996</v>
       </c>
       <c r="BD241" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="242" spans="1:56" ht="14.25">
@@ -62685,7 +62769,7 @@
         <v>0.51311479999999998</v>
       </c>
       <c r="BD242" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="243" spans="1:56" ht="14.25">
@@ -62761,7 +62845,7 @@
         <v>220</v>
       </c>
       <c r="X243" s="4" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="Y243" s="43">
         <v>55000037</v>
@@ -62857,7 +62941,7 @@
         <v>0.54590170000000005</v>
       </c>
       <c r="BD243" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="244" spans="1:56" ht="14.25">
@@ -62933,7 +63017,7 @@
         <v>2</v>
       </c>
       <c r="X244" s="4" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="Y244" s="43">
         <v>55000131</v>
@@ -63025,7 +63109,7 @@
         <v>0.62131150000000002</v>
       </c>
       <c r="BD244" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="245" spans="1:56" ht="14.25">
@@ -63101,7 +63185,7 @@
         <v>69</v>
       </c>
       <c r="X245" s="4" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="Y245" s="43">
         <v>55000131</v>
@@ -63201,7 +63285,7 @@
         <v>0.84590169999999998</v>
       </c>
       <c r="BD245" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="246" spans="1:56" ht="14.25">
@@ -63277,7 +63361,7 @@
         <v>251</v>
       </c>
       <c r="X246" s="4" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="Y246" s="43">
         <v>55000216</v>
@@ -63365,7 +63449,7 @@
         <v>0.85245899999999997</v>
       </c>
       <c r="BD246" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="247" spans="1:56" ht="14.25">
@@ -63537,7 +63621,7 @@
         <v>0.90983610000000004</v>
       </c>
       <c r="BD247" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="248" spans="1:56" ht="14.25">
@@ -63613,7 +63697,7 @@
         <v>19</v>
       </c>
       <c r="X248" s="4" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="Y248" s="43">
         <v>55000260</v>
@@ -63701,7 +63785,7 @@
         <v>5.0819669999999997E-2</v>
       </c>
       <c r="BD248" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="249" spans="1:56" ht="14.25">
@@ -63869,7 +63953,7 @@
         <v>0.59836069999999997</v>
       </c>
       <c r="BD249" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="250" spans="1:56" ht="14.25">
@@ -64041,7 +64125,7 @@
         <v>0.94262299999999999</v>
       </c>
       <c r="BD250" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="251" spans="1:56" ht="14.25">
@@ -64209,7 +64293,7 @@
         <v>0.35573769999999999</v>
       </c>
       <c r="BD251" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="252" spans="1:56" ht="14.25">
@@ -64285,7 +64369,7 @@
         <v>135</v>
       </c>
       <c r="X252" s="4" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="Y252" s="43">
         <v>55000030</v>
@@ -64381,7 +64465,7 @@
         <v>0.90163930000000003</v>
       </c>
       <c r="BD252" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="253" spans="1:56" ht="14.25">
@@ -64457,7 +64541,7 @@
         <v>19</v>
       </c>
       <c r="X253" s="4" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="Y253" s="43">
         <v>55000265</v>
@@ -64549,7 +64633,7 @@
         <v>0.64918039999999999</v>
       </c>
       <c r="BD253" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="254" spans="1:56" ht="14.25">
@@ -64625,7 +64709,7 @@
         <v>209</v>
       </c>
       <c r="X254" s="4" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="Y254" s="43">
         <v>55000340</v>
@@ -64717,7 +64801,7 @@
         <v>0.49836069999999999</v>
       </c>
       <c r="BD254" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="255" spans="1:56" ht="14.25">
@@ -64793,7 +64877,7 @@
         <v>0</v>
       </c>
       <c r="X255" s="4" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="Y255" s="43">
         <v>55000181</v>
@@ -64885,7 +64969,7 @@
         <v>0.82786890000000002</v>
       </c>
       <c r="BD255" s="22" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="256" spans="1:56" ht="14.25">
@@ -64961,7 +65045,7 @@
         <v>4</v>
       </c>
       <c r="X256" s="4" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="Y256" s="43">
         <v>55000032</v>
@@ -65053,7 +65137,7 @@
         <v>0.63278690000000004</v>
       </c>
       <c r="BD256" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="257" spans="1:56" ht="14.25">
@@ -65221,7 +65305,7 @@
         <v>0.49344260000000001</v>
       </c>
       <c r="BD257" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="258" spans="1:56" ht="14.25">
@@ -65297,7 +65381,7 @@
         <v>251</v>
       </c>
       <c r="X258" s="4" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="Y258" s="43">
         <v>55000088</v>
@@ -65389,7 +65473,7 @@
         <v>0.2147541</v>
       </c>
       <c r="BD258" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="259" spans="1:56" ht="14.25">
@@ -65557,7 +65641,7 @@
         <v>0.25245899999999999</v>
       </c>
       <c r="BD259" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="260" spans="1:56" ht="14.25">
@@ -65620,7 +65704,7 @@
         <v>0</v>
       </c>
       <c r="T260" s="15">
-        <f t="shared" ref="T260:T323" si="17">SUM(J260:K260)+SUM(M260:S260)*5+4.4*SUM(AN260:AV260)+2.5*SUM(AH260:AL260)+AG260/100+L260</f>
+        <f t="shared" ref="T260:T311" si="17">SUM(J260:K260)+SUM(M260:S260)*5+4.4*SUM(AN260:AV260)+2.5*SUM(AH260:AL260)+AG260/100+L260</f>
         <v>9.5</v>
       </c>
       <c r="U260" s="4">
@@ -65725,7 +65809,7 @@
         <v>0.28032790000000002</v>
       </c>
       <c r="BD260" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="261" spans="1:56" ht="14.25">
@@ -65893,7 +65977,7 @@
         <v>0.50327869999999997</v>
       </c>
       <c r="BD261" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="262" spans="1:56" ht="14.25">
@@ -65969,7 +66053,7 @@
         <v>4</v>
       </c>
       <c r="X262" s="4" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="Y262" s="43">
         <v>55000199</v>
@@ -66057,7 +66141,7 @@
         <v>0.37704919999999997</v>
       </c>
       <c r="BD262" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="263" spans="1:56" ht="14.25">
@@ -66215,7 +66299,7 @@
         <v>0.1065574</v>
       </c>
       <c r="BD263" s="22" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="264" spans="1:56" ht="14.25">
@@ -66383,7 +66467,7 @@
         <v>0.4360656</v>
       </c>
       <c r="BD264" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="265" spans="1:56" ht="14.25">
@@ -66459,7 +66543,7 @@
         <v>2</v>
       </c>
       <c r="X265" s="4" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="Y265" s="43">
         <v>55000123</v>
@@ -66555,7 +66639,7 @@
         <v>0.57704920000000004</v>
       </c>
       <c r="BD265" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="266" spans="1:56" ht="14.25">
@@ -66727,7 +66811,7 @@
         <v>0.64590159999999996</v>
       </c>
       <c r="BD266" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="267" spans="1:56" ht="14.25">
@@ -66803,7 +66887,7 @@
         <v>94</v>
       </c>
       <c r="X267" s="4" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="Y267" s="43">
         <v>55000001</v>
@@ -66899,7 +66983,7 @@
         <v>0.8</v>
       </c>
       <c r="BD267" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="268" spans="1:56" ht="14.25">
@@ -66975,7 +67059,7 @@
         <v>16</v>
       </c>
       <c r="X268" s="4" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="Y268" s="43">
         <v>55000279</v>
@@ -67067,7 +67151,7 @@
         <v>0.5557377</v>
       </c>
       <c r="BD268" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="269" spans="1:56" ht="14.25">
@@ -67143,7 +67227,7 @@
         <v>9</v>
       </c>
       <c r="X269" s="4" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="Y269" s="43">
         <v>55000272</v>
@@ -67231,7 +67315,7 @@
         <v>0.4606557</v>
       </c>
       <c r="BD269" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="270" spans="1:56" ht="14.25">
@@ -67399,7 +67483,7 @@
         <v>0.58688530000000005</v>
       </c>
       <c r="BD270" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="271" spans="1:56" ht="14.25">
@@ -67475,7 +67559,7 @@
         <v>40</v>
       </c>
       <c r="X271" s="4" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="Y271" s="43">
         <v>55000019</v>
@@ -67571,7 +67655,7 @@
         <v>0.81147539999999996</v>
       </c>
       <c r="BD271" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="272" spans="1:56" ht="14.25">
@@ -67647,7 +67731,7 @@
         <v>31</v>
       </c>
       <c r="X272" s="4" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="Y272" s="43">
         <v>55000275</v>
@@ -67743,7 +67827,7 @@
         <v>0.77213109999999996</v>
       </c>
       <c r="BD272" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="273" spans="1:56" ht="14.25">
@@ -67816,10 +67900,10 @@
         <v>12</v>
       </c>
       <c r="W273" s="4" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="X273" s="4" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="Y273" s="43">
         <v>55000136</v>
@@ -67915,7 +67999,7 @@
         <v>0.83442620000000001</v>
       </c>
       <c r="BD273" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="274" spans="1:56" ht="14.25">
@@ -67991,7 +68075,7 @@
         <v>0</v>
       </c>
       <c r="X274" s="4" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="Y274" s="43">
         <v>55000342</v>
@@ -68079,7 +68163,7 @@
         <v>0.12950819999999999</v>
       </c>
       <c r="BD274" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="275" spans="1:56" ht="14.25">
@@ -68155,7 +68239,7 @@
         <v>277</v>
       </c>
       <c r="X275" s="4" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="Y275" s="43">
         <v>55000278</v>
@@ -68247,7 +68331,7 @@
         <v>0.40655740000000001</v>
       </c>
       <c r="BD275" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="276" spans="1:56" ht="14.25">
@@ -68323,7 +68407,7 @@
         <v>22</v>
       </c>
       <c r="X276" s="4" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="Y276" s="43">
         <v>55000038</v>
@@ -68413,7 +68497,7 @@
         <v>0.67049179999999997</v>
       </c>
       <c r="BD276" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="277" spans="1:56" ht="14.25">
@@ -68489,7 +68573,7 @@
         <v>78</v>
       </c>
       <c r="X277" s="4" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="Y277" s="43">
         <v>55000150</v>
@@ -68581,7 +68665,7 @@
         <v>0.48196719999999998</v>
       </c>
       <c r="BD277" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="278" spans="1:56" ht="14.25">
@@ -68657,7 +68741,7 @@
         <v>4</v>
       </c>
       <c r="X278" s="4" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="Y278" s="43">
         <v>55000136</v>
@@ -68749,7 +68833,7 @@
         <v>0.52295080000000005</v>
       </c>
       <c r="BD278" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="279" spans="1:56" ht="14.25">
@@ -68825,7 +68909,7 @@
         <v>4</v>
       </c>
       <c r="X279" s="7" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="Y279" s="43">
         <v>55000282</v>
@@ -68913,7 +68997,7 @@
         <v>0.10983610000000001</v>
       </c>
       <c r="BD279" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="280" spans="1:56" ht="14.25">
@@ -68989,7 +69073,7 @@
         <v>16</v>
       </c>
       <c r="X280" s="4" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="Y280" s="43">
         <v>55000120</v>
@@ -69081,7 +69165,7 @@
         <v>0.50655740000000005</v>
       </c>
       <c r="BD280" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="281" spans="1:56" ht="14.25">
@@ -69157,7 +69241,7 @@
         <v>9</v>
       </c>
       <c r="X281" s="4" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="Y281" s="43">
         <v>55000285</v>
@@ -69245,7 +69329,7 @@
         <v>5.5737700000000001E-2</v>
       </c>
       <c r="BD281" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="282" spans="1:56" ht="14.25">
@@ -69321,7 +69405,7 @@
         <v>6</v>
       </c>
       <c r="X282" s="4" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="Y282" s="43">
         <v>55000285</v>
@@ -69409,7 +69493,7 @@
         <v>0.14590159999999999</v>
       </c>
       <c r="BD282" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="283" spans="1:56" ht="14.25">
@@ -69485,7 +69569,7 @@
         <v>16</v>
       </c>
       <c r="X283" s="4" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="Y283" s="43">
         <v>55000285</v>
@@ -69573,7 +69657,7 @@
         <v>0.1245902</v>
       </c>
       <c r="BD283" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="284" spans="1:56" ht="14.25">
@@ -69649,7 +69733,7 @@
         <v>6</v>
       </c>
       <c r="X284" s="4" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="Y284" s="43">
         <v>55000287</v>
@@ -69741,7 +69825,7 @@
         <v>0.90163930000000003</v>
       </c>
       <c r="BD284" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="285" spans="1:56" ht="14.25">
@@ -69909,7 +69993,7 @@
         <v>0.91311469999999995</v>
       </c>
       <c r="BD285" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="286" spans="1:56" ht="14.25">
@@ -70067,7 +70151,7 @@
         <v>0.2262295</v>
       </c>
       <c r="BD286" s="22" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="287" spans="1:56" ht="14.25">
@@ -70143,7 +70227,7 @@
         <v>16</v>
       </c>
       <c r="X287" s="4" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="Y287" s="43">
         <v>55000286</v>
@@ -70235,7 +70319,7 @@
         <v>0.74754100000000001</v>
       </c>
       <c r="BD287" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="288" spans="1:56" ht="14.25">
@@ -70311,7 +70395,7 @@
         <v>9</v>
       </c>
       <c r="X288" s="4" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="Y288" s="43">
         <v>55000292</v>
@@ -70403,7 +70487,7 @@
         <v>0.33934429999999999</v>
       </c>
       <c r="BD288" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="289" spans="1:56" ht="14.25">
@@ -70479,7 +70563,7 @@
         <v>100</v>
       </c>
       <c r="X289" s="4" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="Y289" s="43">
         <v>55000293</v>
@@ -70567,7 +70651,7 @@
         <v>8.6885240000000002E-2</v>
       </c>
       <c r="BD289" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="290" spans="1:56" ht="14.25">
@@ -70731,7 +70815,7 @@
         <v>0.3327869</v>
       </c>
       <c r="BD290" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="291" spans="1:56" ht="14.25">
@@ -70899,7 +70983,7 @@
         <v>0.72786890000000004</v>
       </c>
       <c r="BD291" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="292" spans="1:56" ht="14.25">
@@ -71067,7 +71151,7 @@
         <v>0.7</v>
       </c>
       <c r="BD292" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="293" spans="1:56" ht="14.25">
@@ -71231,7 +71315,7 @@
         <v>8.1967209999999999E-2</v>
       </c>
       <c r="BD293" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="294" spans="1:56" ht="14.25">
@@ -71307,7 +71391,7 @@
         <v>16</v>
       </c>
       <c r="X294" s="4" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="Y294" s="43">
         <v>55000015</v>
@@ -71403,7 +71487,7 @@
         <v>0.8180328</v>
       </c>
       <c r="BD294" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="295" spans="1:56" ht="14.25">
@@ -71567,7 +71651,7 @@
         <v>0.34426230000000002</v>
       </c>
       <c r="BD295" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="296" spans="1:56" ht="14.25">
@@ -71735,7 +71819,7 @@
         <v>0.29836059999999998</v>
       </c>
       <c r="BD296" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="297" spans="1:56" ht="14.25">
@@ -71811,7 +71895,7 @@
         <v>45</v>
       </c>
       <c r="X297" s="4" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="Y297" s="43">
         <v>55000045</v>
@@ -71907,7 +71991,7 @@
         <v>0.50983610000000001</v>
       </c>
       <c r="BD297" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="298" spans="1:56" ht="14.25">
@@ -72075,7 +72159,7 @@
         <v>0.2377049</v>
       </c>
       <c r="BD298" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="299" spans="1:56" ht="14.25">
@@ -72151,7 +72235,7 @@
         <v>22</v>
       </c>
       <c r="X299" s="4" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="Y299" s="43">
         <v>55000047</v>
@@ -72239,7 +72323,7 @@
         <v>0.80983609999999995</v>
       </c>
       <c r="BD299" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="300" spans="1:56" ht="14.25">
@@ -72315,7 +72399,7 @@
         <v>22</v>
       </c>
       <c r="X300" s="4" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="Y300" s="43">
         <v>55000107</v>
@@ -72403,7 +72487,7 @@
         <v>0.81967210000000001</v>
       </c>
       <c r="BD300" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="301" spans="1:56" ht="14.25">
@@ -72479,7 +72563,7 @@
         <v>111</v>
       </c>
       <c r="X301" s="4" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="Y301" s="43">
         <v>55000013</v>
@@ -72579,7 +72663,7 @@
         <v>0.75409839999999995</v>
       </c>
       <c r="BD301" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="302" spans="1:56" ht="14.25">
@@ -72655,7 +72739,7 @@
         <v>209</v>
       </c>
       <c r="X302" s="4" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="Y302" s="43">
         <v>55000335</v>
@@ -72747,7 +72831,7 @@
         <v>0.33442620000000001</v>
       </c>
       <c r="BD302" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="303" spans="1:56" ht="14.25">
@@ -72915,7 +72999,7 @@
         <v>0.1065574</v>
       </c>
       <c r="BD303" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="304" spans="1:56" ht="14.25">
@@ -73079,7 +73163,7 @@
         <v>0.19508200000000001</v>
       </c>
       <c r="BD304" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="305" spans="1:56" ht="14.25">
@@ -73243,7 +73327,7 @@
         <v>0.3885246</v>
       </c>
       <c r="BD305" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="306" spans="1:56" ht="14.25">
@@ -73411,7 +73495,7 @@
         <v>0.51967220000000003</v>
       </c>
       <c r="BD306" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="307" spans="1:56" ht="14.25">
@@ -73575,7 +73659,7 @@
         <v>0.49672129999999998</v>
       </c>
       <c r="BD307" s="22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="308" spans="1:56" ht="14.25">
@@ -73733,7 +73817,7 @@
         <v>0.49672129999999998</v>
       </c>
       <c r="BD308" s="22" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="309" spans="1:56" ht="14.25">
@@ -73891,7 +73975,7 @@
         <v>0.49672129999999998</v>
       </c>
       <c r="BD309" s="22" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="310" spans="1:56" ht="14.25">
@@ -74049,7 +74133,7 @@
         <v>0.49672129999999998</v>
       </c>
       <c r="BD310" s="22" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="311" spans="1:56" ht="14.25">
@@ -74207,7 +74291,7 @@
         <v>0.49672129999999998</v>
       </c>
       <c r="BD311" s="22" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
   </sheetData>
@@ -74225,16 +74309,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H311">
-    <cfRule type="cellIs" dxfId="129" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="3" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="130" priority="4" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -74249,13 +74333,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BF9"/>
+  <dimension ref="A1:BF11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="AG4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AK7" sqref="AK7"/>
+      <selection pane="bottomRight" activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -74279,7 +74363,7 @@
     <col min="42" max="50" width="3.75" customWidth="1"/>
     <col min="51" max="51" width="18.25" customWidth="1"/>
     <col min="52" max="52" width="6" customWidth="1"/>
-    <col min="53" max="53" width="4.625" customWidth="1"/>
+    <col min="53" max="53" width="5.625" customWidth="1"/>
     <col min="54" max="54" width="5.75" customWidth="1"/>
     <col min="55" max="55" width="4.625" customWidth="1"/>
     <col min="56" max="57" width="4.125" customWidth="1"/>
@@ -74308,7 +74392,7 @@
         <v>315</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="I1" s="17" t="s">
         <v>977</v>
@@ -74323,34 +74407,34 @@
         <v>972</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="N1" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="O1" s="17" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="Q1" s="17" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="R1" s="17" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="S1" s="17" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="T1" s="40" t="s">
         <v>974</v>
       </c>
       <c r="U1" s="17" t="s">
+        <v>1140</v>
+      </c>
+      <c r="V1" s="17" t="s">
         <v>1141</v>
-      </c>
-      <c r="V1" s="17" t="s">
-        <v>1142</v>
       </c>
       <c r="W1" s="17" t="s">
         <v>323</v>
@@ -74359,82 +74443,82 @@
         <v>325</v>
       </c>
       <c r="Y1" s="44" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="Z1" s="44" t="s">
+        <v>1242</v>
+      </c>
+      <c r="AA1" s="44" t="s">
         <v>1243</v>
       </c>
-      <c r="AA1" s="44" t="s">
+      <c r="AB1" s="44" t="s">
         <v>1244</v>
       </c>
-      <c r="AB1" s="44" t="s">
+      <c r="AC1" s="44" t="s">
         <v>1245</v>
       </c>
-      <c r="AC1" s="44" t="s">
+      <c r="AD1" s="44" t="s">
         <v>1246</v>
       </c>
-      <c r="AD1" s="44" t="s">
+      <c r="AE1" s="44" t="s">
         <v>1247</v>
       </c>
-      <c r="AE1" s="44" t="s">
+      <c r="AF1" s="44" t="s">
         <v>1248</v>
       </c>
-      <c r="AF1" s="44" t="s">
+      <c r="AG1" s="44" t="s">
         <v>1249</v>
       </c>
-      <c r="AG1" s="44" t="s">
+      <c r="AH1" s="44" t="s">
         <v>1250</v>
       </c>
-      <c r="AH1" s="44" t="s">
-        <v>1251</v>
-      </c>
       <c r="AI1" s="44" t="s">
+        <v>1260</v>
+      </c>
+      <c r="AJ1" s="17" t="s">
         <v>1261</v>
       </c>
-      <c r="AJ1" s="17" t="s">
+      <c r="AK1" s="17" t="s">
         <v>1262</v>
       </c>
-      <c r="AK1" s="17" t="s">
+      <c r="AL1" s="17" t="s">
         <v>1263</v>
       </c>
-      <c r="AL1" s="17" t="s">
+      <c r="AM1" s="17" t="s">
         <v>1264</v>
       </c>
-      <c r="AM1" s="17" t="s">
+      <c r="AN1" s="17" t="s">
         <v>1265</v>
       </c>
-      <c r="AN1" s="17" t="s">
-        <v>1266</v>
-      </c>
       <c r="AO1" s="17" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="AP1" s="47" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="AQ1" s="47" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="AR1" s="47" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AS1" s="47" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="AT1" s="47" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="AU1" s="47" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="AV1" s="47" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="AW1" s="47" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="AX1" s="47" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="AY1" s="48" t="s">
         <v>1027</v>
@@ -74484,7 +74568,7 @@
         <v>295</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>295</v>
@@ -74502,7 +74586,7 @@
         <v>295</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>295</v>
@@ -74660,7 +74744,7 @@
         <v>1033</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>979</v>
@@ -74675,34 +74759,34 @@
         <v>973</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="T3" s="42" t="s">
         <v>975</v>
       </c>
       <c r="U3" s="6" t="s">
+        <v>1143</v>
+      </c>
+      <c r="V3" s="6" t="s">
         <v>1144</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>1145</v>
       </c>
       <c r="W3" s="6" t="s">
         <v>306</v>
@@ -74711,82 +74795,82 @@
         <v>308</v>
       </c>
       <c r="Y3" s="46" t="s">
+        <v>1240</v>
+      </c>
+      <c r="Z3" s="46" t="s">
         <v>1241</v>
       </c>
-      <c r="Z3" s="46" t="s">
-        <v>1242</v>
-      </c>
       <c r="AA3" s="46" t="s">
+        <v>1251</v>
+      </c>
+      <c r="AB3" s="46" t="s">
         <v>1252</v>
       </c>
-      <c r="AB3" s="46" t="s">
+      <c r="AC3" s="46" t="s">
         <v>1253</v>
       </c>
-      <c r="AC3" s="46" t="s">
+      <c r="AD3" s="46" t="s">
         <v>1254</v>
       </c>
-      <c r="AD3" s="46" t="s">
+      <c r="AE3" s="46" t="s">
         <v>1255</v>
       </c>
-      <c r="AE3" s="46" t="s">
+      <c r="AF3" s="46" t="s">
         <v>1256</v>
       </c>
-      <c r="AF3" s="46" t="s">
+      <c r="AG3" s="46" t="s">
         <v>1257</v>
       </c>
-      <c r="AG3" s="46" t="s">
+      <c r="AH3" s="46" t="s">
         <v>1258</v>
       </c>
-      <c r="AH3" s="46" t="s">
+      <c r="AI3" s="46" t="s">
         <v>1259</v>
       </c>
-      <c r="AI3" s="46" t="s">
-        <v>1260</v>
-      </c>
       <c r="AJ3" s="6" t="s">
+        <v>1266</v>
+      </c>
+      <c r="AK3" s="6" t="s">
         <v>1267</v>
       </c>
-      <c r="AK3" s="6" t="s">
+      <c r="AL3" s="6" t="s">
         <v>1268</v>
       </c>
-      <c r="AL3" s="6" t="s">
+      <c r="AM3" s="6" t="s">
         <v>1269</v>
       </c>
-      <c r="AM3" s="6" t="s">
+      <c r="AN3" s="6" t="s">
         <v>1270</v>
       </c>
-      <c r="AN3" s="6" t="s">
-        <v>1271</v>
-      </c>
       <c r="AO3" s="6" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="AP3" s="51" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="AQ3" s="52" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="AR3" s="52" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="AS3" s="52" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="AT3" s="52" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="AU3" s="52" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="AV3" s="52" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="AW3" s="52" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="AX3" s="52" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="AY3" s="42" t="s">
         <v>1028</v>
@@ -74836,7 +74920,7 @@
         <v>7</v>
       </c>
       <c r="H4" s="4">
-        <f t="shared" ref="H4:H9" si="0">IF(T4&gt;10,5,IF(T4&gt;5,4,IF(T4&gt;2.5,3,IF(T4&gt;0,2,IF(T4&gt;-2.5,1,IF(T4&gt;-10,0,6))))))</f>
+        <f t="shared" ref="H4:H11" si="0">IF(T4&gt;10,5,IF(T4&gt;5,4,IF(T4&gt;2.5,3,IF(T4&gt;0,2,IF(T4&gt;-2.5,1,IF(T4&gt;-10,0,6))))))</f>
         <v>6</v>
       </c>
       <c r="I4" s="11">
@@ -74873,7 +74957,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="15">
-        <f t="shared" ref="T4:T9" si="1">SUM(J4:K4)+SUM(M4:S4)*5+4.4*SUM(AP4:AX4)+2.5*SUM(AJ4:AN4)+AI4/100+L4</f>
+        <f t="shared" ref="T4:T11" si="1">SUM(J4:K4)+SUM(M4:S4)*5+4.4*SUM(AP4:AX4)+2.5*SUM(AJ4:AN4)+AI4/100+L4</f>
         <v>-21</v>
       </c>
       <c r="U4" s="11">
@@ -74924,7 +75008,7 @@
         <v>0</v>
       </c>
       <c r="AO4" s="11" t="str">
-        <f t="shared" ref="AO4:AO9" si="2">CONCATENATE(AJ4,";",AK4,";",AL4,";",AM4,";",AN4)</f>
+        <f t="shared" ref="AO4:AO11" si="2">CONCATENATE(AJ4,";",AK4,";",AL4,";",AM4,";",AN4)</f>
         <v>0;0;0;0;0</v>
       </c>
       <c r="AP4" s="21">
@@ -74955,7 +75039,7 @@
         <v>0</v>
       </c>
       <c r="AY4" s="11" t="str">
-        <f t="shared" ref="AY4:AY9" si="3">CONCATENATE(AP4,";",AQ4,";",AR4,";",AS4,";",AT4,";",AU4,";",AV4,";",AW4,";",AX4)</f>
+        <f t="shared" ref="AY4:AY11" si="3">CONCATENATE(AP4,";",AQ4,";",AR4,";",AS4,";",AT4,";",AU4,";",AV4,";",AW4,";",AX4)</f>
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AZ4" s="11">
@@ -75303,13 +75387,13 @@
         <v>51018001</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C7" s="11" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D7" s="25" t="s">
         <v>1138</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>1139</v>
       </c>
       <c r="E7" s="11">
         <v>1</v>
@@ -75365,7 +75449,7 @@
         <v>10</v>
       </c>
       <c r="V7" s="11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W7" s="11" t="s">
         <v>6</v>
@@ -75458,41 +75542,41 @@
       <c r="BF7" s="22"/>
     </row>
     <row r="8" spans="1:58" ht="14.25">
-      <c r="A8">
-        <v>51019299</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>963</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>675</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>867</v>
-      </c>
-      <c r="E8" s="36">
+      <c r="A8" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>1409</v>
+      </c>
+      <c r="E8" s="11">
         <v>1</v>
       </c>
-      <c r="F8" s="36">
-        <v>8</v>
-      </c>
-      <c r="G8" s="36">
-        <v>0</v>
-      </c>
-      <c r="H8" s="36">
+      <c r="F8" s="11">
+        <v>15</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0</v>
+      </c>
+      <c r="H8" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I8" s="36">
-        <v>1</v>
-      </c>
-      <c r="J8" s="36">
-        <v>0</v>
-      </c>
-      <c r="K8" s="36">
-        <v>0</v>
-      </c>
-      <c r="L8" s="36">
+        <v>5</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>-35</v>
+      </c>
+      <c r="K8" s="4">
+        <v>300</v>
+      </c>
+      <c r="L8" s="4">
         <v>0</v>
       </c>
       <c r="M8" s="11">
@@ -75518,24 +75602,20 @@
       </c>
       <c r="T8" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>265</v>
       </c>
       <c r="U8" s="11">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="V8" s="11">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="W8" s="11" t="s">
-        <v>64</v>
+        <v>1414</v>
       </c>
       <c r="X8" s="22"/>
-      <c r="Y8" s="53">
-        <v>55000021</v>
-      </c>
-      <c r="Z8" s="53">
-        <v>100</v>
-      </c>
+      <c r="Y8" s="53"/>
+      <c r="Z8" s="53"/>
       <c r="AA8" s="53"/>
       <c r="AB8" s="53"/>
       <c r="AC8" s="53"/>
@@ -75602,11 +75682,11 @@
         <f t="shared" si="3"/>
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
-      <c r="AZ8" s="36">
+      <c r="AZ8" s="11">
         <v>6</v>
       </c>
-      <c r="BA8" s="36">
-        <v>299</v>
+      <c r="BA8" s="11">
+        <v>10002</v>
       </c>
       <c r="BB8" s="21"/>
       <c r="BC8" s="24">
@@ -75615,45 +75695,45 @@
       <c r="BD8" s="38">
         <v>0</v>
       </c>
-      <c r="BE8" s="39">
+      <c r="BE8" s="34">
         <v>0</v>
       </c>
       <c r="BF8" s="22"/>
     </row>
     <row r="9" spans="1:58" ht="14.25">
       <c r="A9" t="s">
-        <v>1137</v>
+        <v>1413</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>1136</v>
+        <v>1406</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>1030</v>
+        <v>1408</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>1031</v>
+        <v>1410</v>
       </c>
       <c r="E9" s="11">
         <v>1</v>
       </c>
       <c r="F9" s="11">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G9" s="11">
         <v>0</v>
       </c>
       <c r="H9" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H9" si="4">IF(T9&gt;10,5,IF(T9&gt;5,4,IF(T9&gt;2.5,3,IF(T9&gt;0,2,IF(T9&gt;-2.5,1,IF(T9&gt;-10,0,6))))))</f>
         <v>5</v>
       </c>
       <c r="I9" s="11">
         <v>0</v>
       </c>
       <c r="J9" s="4">
-        <v>-35</v>
+        <v>-30</v>
       </c>
       <c r="K9" s="4">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="L9" s="4">
         <v>0</v>
@@ -75680,25 +75760,21 @@
         <v>0</v>
       </c>
       <c r="T9" s="15">
-        <f t="shared" si="1"/>
-        <v>365</v>
+        <f t="shared" ref="T9" si="5">SUM(J9:K9)+SUM(M9:S9)*5+4.4*SUM(AP9:AX9)+2.5*SUM(AJ9:AN9)+AI9/100+L9</f>
+        <v>150</v>
       </c>
       <c r="U9" s="11">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="V9" s="11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W9" s="11" t="s">
-        <v>6</v>
+        <v>1414</v>
       </c>
       <c r="X9" s="22"/>
-      <c r="Y9" s="53">
-        <v>55000021</v>
-      </c>
-      <c r="Z9" s="53">
-        <v>100</v>
-      </c>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="53"/>
       <c r="AA9" s="53"/>
       <c r="AB9" s="53"/>
       <c r="AC9" s="53"/>
@@ -75731,7 +75807,7 @@
         <v>0</v>
       </c>
       <c r="AO9" s="22" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="AO9" si="6">CONCATENATE(AJ9,";",AK9,";",AL9,";",AM9,";",AN9)</f>
         <v>0;0;0;0;0</v>
       </c>
       <c r="AP9" s="21">
@@ -75762,14 +75838,14 @@
         <v>0</v>
       </c>
       <c r="AY9" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="AY9" si="7">CONCATENATE(AP9,";",AQ9,";",AR9,";",AS9,";",AT9,";",AU9,";",AV9,";",AW9,";",AX9)</f>
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AZ9" s="11">
         <v>6</v>
       </c>
       <c r="BA9" s="11">
-        <v>299</v>
+        <v>10003</v>
       </c>
       <c r="BB9" s="21"/>
       <c r="BC9" s="24">
@@ -75778,45 +75854,419 @@
       <c r="BD9" s="38">
         <v>0</v>
       </c>
-      <c r="BE9" s="38">
+      <c r="BE9" s="34">
         <v>0</v>
       </c>
       <c r="BF9" s="22"/>
+    </row>
+    <row r="10" spans="1:58" ht="14.25">
+      <c r="A10">
+        <v>51019299</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>963</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>675</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>867</v>
+      </c>
+      <c r="E10" s="36">
+        <v>1</v>
+      </c>
+      <c r="F10" s="36">
+        <v>8</v>
+      </c>
+      <c r="G10" s="36">
+        <v>0</v>
+      </c>
+      <c r="H10" s="36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I10" s="36">
+        <v>1</v>
+      </c>
+      <c r="J10" s="36">
+        <v>0</v>
+      </c>
+      <c r="K10" s="36">
+        <v>0</v>
+      </c>
+      <c r="L10" s="36">
+        <v>0</v>
+      </c>
+      <c r="M10" s="11">
+        <v>0</v>
+      </c>
+      <c r="N10" s="11">
+        <v>0</v>
+      </c>
+      <c r="O10" s="11">
+        <v>0</v>
+      </c>
+      <c r="P10" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>0</v>
+      </c>
+      <c r="R10" s="11">
+        <v>0</v>
+      </c>
+      <c r="S10" s="11">
+        <v>0</v>
+      </c>
+      <c r="T10" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="11">
+        <v>35</v>
+      </c>
+      <c r="V10" s="11">
+        <v>15</v>
+      </c>
+      <c r="W10" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="53">
+        <v>55000021</v>
+      </c>
+      <c r="Z10" s="53">
+        <v>100</v>
+      </c>
+      <c r="AA10" s="53"/>
+      <c r="AB10" s="53"/>
+      <c r="AC10" s="53"/>
+      <c r="AD10" s="53"/>
+      <c r="AE10" s="53"/>
+      <c r="AF10" s="53"/>
+      <c r="AG10" s="53"/>
+      <c r="AH10" s="53"/>
+      <c r="AI10" s="53">
+        <f>IF(ISBLANK($Y10),0, LOOKUP($Y10,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$Z10/100)+
+IF(ISBLANK($AA10),0, LOOKUP($AA10,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AB10/100)+
+IF(ISBLANK($AC10),0, LOOKUP($AC10,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AD10/100)+
+IF(ISBLANK($AE10),0, LOOKUP($AE10,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AF10/100)+
+IF(ISBLANK($AG10),0, LOOKUP($AG10,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AH10/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="21">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="21">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="21">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="21">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="21">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>0;0;0;0;0</v>
+      </c>
+      <c r="AP10" s="21">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="21">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="21">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="21">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="21">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="21">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="21">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="21">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="21">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>0;0;0;0;0;0;0;0;0</v>
+      </c>
+      <c r="AZ10" s="36">
+        <v>6</v>
+      </c>
+      <c r="BA10" s="36">
+        <v>299</v>
+      </c>
+      <c r="BB10" s="21"/>
+      <c r="BC10" s="24">
+        <v>1</v>
+      </c>
+      <c r="BD10" s="38">
+        <v>0</v>
+      </c>
+      <c r="BE10" s="39">
+        <v>0</v>
+      </c>
+      <c r="BF10" s="22"/>
+    </row>
+    <row r="11" spans="1:58" ht="14.25">
+      <c r="A11" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E11" s="11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="11">
+        <v>15</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <v>-35</v>
+      </c>
+      <c r="K11" s="4">
+        <v>400</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="11">
+        <v>0</v>
+      </c>
+      <c r="O11" s="11">
+        <v>0</v>
+      </c>
+      <c r="P11" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>0</v>
+      </c>
+      <c r="R11" s="11">
+        <v>0</v>
+      </c>
+      <c r="S11" s="11">
+        <v>0</v>
+      </c>
+      <c r="T11" s="15">
+        <f t="shared" si="1"/>
+        <v>365</v>
+      </c>
+      <c r="U11" s="11">
+        <v>10</v>
+      </c>
+      <c r="V11" s="11">
+        <v>10</v>
+      </c>
+      <c r="W11" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="X11" s="22"/>
+      <c r="Y11" s="53">
+        <v>55000021</v>
+      </c>
+      <c r="Z11" s="53">
+        <v>100</v>
+      </c>
+      <c r="AA11" s="53"/>
+      <c r="AB11" s="53"/>
+      <c r="AC11" s="53"/>
+      <c r="AD11" s="53"/>
+      <c r="AE11" s="53"/>
+      <c r="AF11" s="53"/>
+      <c r="AG11" s="53"/>
+      <c r="AH11" s="53"/>
+      <c r="AI11" s="53">
+        <f>IF(ISBLANK($Y11),0, LOOKUP($Y11,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$Z11/100)+
+IF(ISBLANK($AA11),0, LOOKUP($AA11,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AB11/100)+
+IF(ISBLANK($AC11),0, LOOKUP($AC11,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AD11/100)+
+IF(ISBLANK($AE11),0, LOOKUP($AE11,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AF11/100)+
+IF(ISBLANK($AG11),0, LOOKUP($AG11,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AH11/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="21">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="21">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="21">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="21">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="21">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>0;0;0;0;0</v>
+      </c>
+      <c r="AP11" s="21">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="21">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="21">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="21">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="21">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="21">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="21">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="21">
+        <v>0</v>
+      </c>
+      <c r="AX11" s="21">
+        <v>0</v>
+      </c>
+      <c r="AY11" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>0;0;0;0;0;0;0;0;0</v>
+      </c>
+      <c r="AZ11" s="11">
+        <v>6</v>
+      </c>
+      <c r="BA11" s="11">
+        <v>299</v>
+      </c>
+      <c r="BB11" s="21"/>
+      <c r="BC11" s="24">
+        <v>1</v>
+      </c>
+      <c r="BD11" s="38">
+        <v>0</v>
+      </c>
+      <c r="BE11" s="38">
+        <v>0</v>
+      </c>
+      <c r="BF11" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="K4:K9">
-    <cfRule type="cellIs" dxfId="66" priority="7" operator="between">
+  <conditionalFormatting sqref="K4:K7 K10:K11">
+    <cfRule type="cellIs" dxfId="70" priority="13" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="cellIs" dxfId="65" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="69" priority="12" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:J7">
-    <cfRule type="cellIs" dxfId="64" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="68" priority="11" operator="between">
+      <formula>-30</formula>
+      <formula>30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
+    <cfRule type="cellIs" dxfId="67" priority="10" operator="between">
+      <formula>-30</formula>
+      <formula>30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10">
+    <cfRule type="cellIs" dxfId="66" priority="9" operator="between">
+      <formula>-30</formula>
+      <formula>30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T10:T11 T4:T7">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9">
+    <cfRule type="cellIs" dxfId="65" priority="5" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="cellIs" dxfId="63" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="64" priority="4" operator="between">
+      <formula>-30</formula>
+      <formula>30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T9">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
+    <cfRule type="cellIs" dxfId="63" priority="2" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="62" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="62" priority="1" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T4:T9">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="T8">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/ConfigData/Xlsx/Monster.xlsx
+++ b/ConfigData/Xlsx/Monster.xlsx
@@ -9682,11 +9682,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1758014640"/>
-        <c:axId val="-1758028784"/>
+        <c:axId val="-304057216"/>
+        <c:axId val="-304048512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1758014640"/>
+        <c:axId val="-304057216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9729,7 +9729,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1758028784"/>
+        <c:crossAx val="-304048512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9737,7 +9737,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1758028784"/>
+        <c:axId val="-304048512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9788,7 +9788,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1758014640"/>
+        <c:crossAx val="-304057216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -74339,7 +74339,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="W8" sqref="W8"/>
+      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -75555,7 +75555,7 @@
         <v>1409</v>
       </c>
       <c r="E8" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F8" s="11">
         <v>15</v>
@@ -75571,10 +75571,10 @@
         <v>0</v>
       </c>
       <c r="J8" s="4">
-        <v>-35</v>
+        <v>25</v>
       </c>
       <c r="K8" s="4">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L8" s="4">
         <v>0</v>
@@ -75602,7 +75602,7 @@
       </c>
       <c r="T8" s="15">
         <f t="shared" si="1"/>
-        <v>265</v>
+        <v>425</v>
       </c>
       <c r="U8" s="11">
         <v>40</v>
@@ -75714,7 +75714,7 @@
         <v>1410</v>
       </c>
       <c r="E9" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9" s="11">
         <v>2</v>
@@ -75730,10 +75730,10 @@
         <v>0</v>
       </c>
       <c r="J9" s="4">
-        <v>-30</v>
+        <v>30</v>
       </c>
       <c r="K9" s="4">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="L9" s="4">
         <v>0</v>
@@ -75761,7 +75761,7 @@
       </c>
       <c r="T9" s="15">
         <f t="shared" ref="T9" si="5">SUM(J9:K9)+SUM(M9:S9)*5+4.4*SUM(AP9:AX9)+2.5*SUM(AJ9:AN9)+AI9/100+L9</f>
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="U9" s="11">
         <v>40</v>

--- a/ConfigData/Xlsx/Monster.xlsx
+++ b/ConfigData/Xlsx/Monster.xlsx
@@ -701,7 +701,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2556" uniqueCount="1425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2563" uniqueCount="1429">
   <si>
     <t>arrow</t>
   </si>
@@ -5525,6 +5525,21 @@
   </si>
   <si>
     <t>LifeTime</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>哥布林巢穴</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goblin Nest</t>
+  </si>
+  <si>
+    <t>召唤</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>55000300;100</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -6380,7 +6395,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6552,6 +6567,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -6597,142 +6615,7 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="138">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="142">
     <dxf>
       <font>
         <b/>
@@ -6760,33 +6643,6 @@
         <i val="0"/>
         <color rgb="FF00B050"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -7637,6 +7493,33 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -8207,6 +8090,114 @@
         <patternFill patternType="solid">
           <fgColor theme="4"/>
           <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -9018,6 +9009,33 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -9584,6 +9602,34 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -9881,11 +9927,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="224312400"/>
-        <c:axId val="224312960"/>
+        <c:axId val="278082608"/>
+        <c:axId val="278083168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="224312400"/>
+        <c:axId val="278082608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9928,7 +9974,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="224312960"/>
+        <c:crossAx val="278083168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9936,7 +9982,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="224312960"/>
+        <c:axId val="278083168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9987,7 +10033,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="224312400"/>
+        <c:crossAx val="278082608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10694,135 +10740,135 @@
         </row>
         <row r="4">
           <cell r="A4">
-            <v>54999738</v>
+            <v>55000001</v>
           </cell>
           <cell r="Q4">
-            <v>2200</v>
+            <v>200</v>
           </cell>
         </row>
         <row r="5">
           <cell r="A5">
-            <v>55000001</v>
+            <v>55000002</v>
           </cell>
           <cell r="Q5">
-            <v>200</v>
+            <v>80</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6">
-            <v>55000002</v>
+            <v>55000003</v>
           </cell>
           <cell r="Q6">
-            <v>80</v>
+            <v>120</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7">
-            <v>55000003</v>
+            <v>55000004</v>
           </cell>
           <cell r="Q7">
-            <v>120</v>
+            <v>66</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8">
-            <v>55000004</v>
+            <v>55000005</v>
           </cell>
           <cell r="Q8">
-            <v>66</v>
+            <v>132</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9">
-            <v>55000005</v>
+            <v>55000006</v>
           </cell>
           <cell r="Q9">
-            <v>132</v>
+            <v>66</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10">
-            <v>55000006</v>
+            <v>55000007</v>
           </cell>
           <cell r="Q10">
-            <v>66</v>
+            <v>132</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11">
-            <v>55000007</v>
+            <v>55000008</v>
           </cell>
           <cell r="Q11">
-            <v>132</v>
+            <v>66</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12">
-            <v>55000008</v>
+            <v>55000009</v>
           </cell>
           <cell r="Q12">
-            <v>66</v>
+            <v>132</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13">
-            <v>55000009</v>
+            <v>55000010</v>
           </cell>
           <cell r="Q13">
-            <v>132</v>
+            <v>66</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14">
-            <v>55000010</v>
+            <v>55000011</v>
           </cell>
           <cell r="Q14">
-            <v>66</v>
+            <v>132</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15">
-            <v>55000011</v>
+            <v>55000012</v>
           </cell>
           <cell r="Q15">
-            <v>132</v>
+            <v>66</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16">
-            <v>55000012</v>
+            <v>55000013</v>
           </cell>
           <cell r="Q16">
-            <v>66</v>
+            <v>132</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17">
-            <v>55000013</v>
+            <v>55000014</v>
           </cell>
           <cell r="Q17">
-            <v>132</v>
+            <v>66</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18">
-            <v>55000014</v>
+            <v>55000015</v>
           </cell>
           <cell r="Q18">
-            <v>66</v>
+            <v>132</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19">
-            <v>55000015</v>
+            <v>55000016</v>
           </cell>
           <cell r="Q19">
-            <v>132</v>
+            <v>66</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20">
-            <v>55000016</v>
+            <v>55000017</v>
           </cell>
           <cell r="Q20">
             <v>66</v>
@@ -10830,7 +10876,7 @@
         </row>
         <row r="21">
           <cell r="A21">
-            <v>55000017</v>
+            <v>55000018</v>
           </cell>
           <cell r="Q21">
             <v>66</v>
@@ -10838,47 +10884,47 @@
         </row>
         <row r="22">
           <cell r="A22">
-            <v>55000018</v>
+            <v>55000019</v>
           </cell>
           <cell r="Q22">
-            <v>66</v>
+            <v>132</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23">
-            <v>55000019</v>
+            <v>55000020</v>
           </cell>
           <cell r="Q23">
-            <v>132</v>
+            <v>160</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24">
-            <v>55000020</v>
+            <v>55000021</v>
           </cell>
           <cell r="Q24">
-            <v>160</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25">
-            <v>55000021</v>
+            <v>55000029</v>
           </cell>
           <cell r="Q25">
-            <v>0</v>
+            <v>300</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26">
-            <v>55000029</v>
+            <v>55000030</v>
           </cell>
           <cell r="Q26">
-            <v>300</v>
+            <v>400</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27">
-            <v>55000030</v>
+            <v>55000031</v>
           </cell>
           <cell r="Q27">
             <v>400</v>
@@ -10886,15 +10932,15 @@
         </row>
         <row r="28">
           <cell r="A28">
-            <v>55000031</v>
+            <v>55000032</v>
           </cell>
           <cell r="Q28">
-            <v>400</v>
+            <v>600</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29">
-            <v>55000032</v>
+            <v>55000033</v>
           </cell>
           <cell r="Q29">
             <v>600</v>
@@ -10902,127 +10948,127 @@
         </row>
         <row r="30">
           <cell r="A30">
-            <v>55000033</v>
+            <v>55000034</v>
           </cell>
           <cell r="Q30">
-            <v>600</v>
+            <v>120</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31">
-            <v>55000034</v>
+            <v>55000035</v>
           </cell>
           <cell r="Q31">
-            <v>120</v>
+            <v>800</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32">
-            <v>55000035</v>
+            <v>55000036</v>
           </cell>
           <cell r="Q32">
-            <v>800</v>
+            <v>100</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33">
-            <v>55000036</v>
+            <v>55000037</v>
           </cell>
           <cell r="Q33">
-            <v>100</v>
+            <v>500</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34">
-            <v>55000037</v>
+            <v>55000038</v>
           </cell>
           <cell r="Q34">
-            <v>500</v>
+            <v>1000</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35">
-            <v>55000038</v>
+            <v>55000039</v>
           </cell>
           <cell r="Q35">
-            <v>1000</v>
+            <v>2000</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36">
-            <v>55000039</v>
+            <v>55000040</v>
           </cell>
           <cell r="Q36">
-            <v>2000</v>
+            <v>4000</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37">
-            <v>55000040</v>
+            <v>55000041</v>
           </cell>
           <cell r="Q37">
-            <v>4000</v>
+            <v>2000</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38">
-            <v>55000041</v>
+            <v>55000042</v>
           </cell>
           <cell r="Q38">
-            <v>2000</v>
+            <v>200</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39">
-            <v>55000042</v>
+            <v>55000043</v>
           </cell>
           <cell r="Q39">
-            <v>200</v>
+            <v>1000</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40">
-            <v>55000043</v>
+            <v>55000044</v>
           </cell>
           <cell r="Q40">
-            <v>1000</v>
+            <v>2500</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41">
-            <v>55000044</v>
+            <v>55000045</v>
           </cell>
           <cell r="Q41">
-            <v>2500</v>
+            <v>200</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42">
-            <v>55000045</v>
+            <v>55000046</v>
           </cell>
           <cell r="Q42">
-            <v>200</v>
+            <v>80</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43">
-            <v>55000046</v>
+            <v>55000047</v>
           </cell>
           <cell r="Q43">
-            <v>80</v>
+            <v>120</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44">
-            <v>55000047</v>
+            <v>55000048</v>
           </cell>
           <cell r="Q44">
-            <v>120</v>
+            <v>300</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45">
-            <v>55000048</v>
+            <v>55000049</v>
           </cell>
           <cell r="Q45">
             <v>300</v>
@@ -11030,63 +11076,63 @@
         </row>
         <row r="46">
           <cell r="A46">
-            <v>55000049</v>
+            <v>55000050</v>
           </cell>
           <cell r="Q46">
-            <v>300</v>
+            <v>160</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47">
-            <v>55000050</v>
+            <v>55000051</v>
           </cell>
           <cell r="Q47">
-            <v>160</v>
+            <v>500</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48">
-            <v>55000051</v>
+            <v>55000061</v>
           </cell>
           <cell r="Q48">
-            <v>500</v>
+            <v>175</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49">
-            <v>55000061</v>
+            <v>55000062</v>
           </cell>
           <cell r="Q49">
-            <v>175</v>
+            <v>450</v>
           </cell>
         </row>
         <row r="50">
           <cell r="A50">
-            <v>55000062</v>
+            <v>55000063</v>
           </cell>
           <cell r="Q50">
-            <v>450</v>
+            <v>1000</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51">
-            <v>55000063</v>
+            <v>55000064</v>
           </cell>
           <cell r="Q51">
-            <v>1000</v>
+            <v>500</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52">
-            <v>55000064</v>
+            <v>55000065</v>
           </cell>
           <cell r="Q52">
-            <v>500</v>
+            <v>100</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53">
-            <v>55000065</v>
+            <v>55000066</v>
           </cell>
           <cell r="Q53">
             <v>100</v>
@@ -11094,7 +11140,7 @@
         </row>
         <row r="54">
           <cell r="A54">
-            <v>55000066</v>
+            <v>55000067</v>
           </cell>
           <cell r="Q54">
             <v>100</v>
@@ -11102,7 +11148,7 @@
         </row>
         <row r="55">
           <cell r="A55">
-            <v>55000067</v>
+            <v>55000068</v>
           </cell>
           <cell r="Q55">
             <v>100</v>
@@ -11110,7 +11156,7 @@
         </row>
         <row r="56">
           <cell r="A56">
-            <v>55000068</v>
+            <v>55000069</v>
           </cell>
           <cell r="Q56">
             <v>100</v>
@@ -11118,7 +11164,7 @@
         </row>
         <row r="57">
           <cell r="A57">
-            <v>55000069</v>
+            <v>55000070</v>
           </cell>
           <cell r="Q57">
             <v>100</v>
@@ -11126,7 +11172,7 @@
         </row>
         <row r="58">
           <cell r="A58">
-            <v>55000070</v>
+            <v>55000071</v>
           </cell>
           <cell r="Q58">
             <v>100</v>
@@ -11134,7 +11180,7 @@
         </row>
         <row r="59">
           <cell r="A59">
-            <v>55000071</v>
+            <v>55000072</v>
           </cell>
           <cell r="Q59">
             <v>100</v>
@@ -11142,63 +11188,63 @@
         </row>
         <row r="60">
           <cell r="A60">
-            <v>55000072</v>
+            <v>55000073</v>
           </cell>
           <cell r="Q60">
-            <v>100</v>
+            <v>120</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61">
-            <v>55000073</v>
+            <v>55000074</v>
           </cell>
           <cell r="Q61">
-            <v>120</v>
+            <v>100</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62">
-            <v>55000074</v>
+            <v>55000075</v>
           </cell>
           <cell r="Q62">
-            <v>100</v>
+            <v>1250</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63">
-            <v>55000075</v>
+            <v>55000076</v>
           </cell>
           <cell r="Q63">
-            <v>1250</v>
+            <v>500</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64">
-            <v>55000076</v>
+            <v>55000077</v>
           </cell>
           <cell r="Q64">
-            <v>500</v>
+            <v>2600</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65">
-            <v>55000077</v>
+            <v>55000078</v>
           </cell>
           <cell r="Q65">
-            <v>2600</v>
+            <v>-400</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66">
-            <v>55000078</v>
+            <v>55000079</v>
           </cell>
           <cell r="Q66">
-            <v>-400</v>
+            <v>200</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67">
-            <v>55000079</v>
+            <v>55000080</v>
           </cell>
           <cell r="Q67">
             <v>200</v>
@@ -11206,79 +11252,79 @@
         </row>
         <row r="68">
           <cell r="A68">
-            <v>55000080</v>
+            <v>55000081</v>
           </cell>
           <cell r="Q68">
-            <v>200</v>
+            <v>100</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69">
-            <v>55000081</v>
+            <v>55000082</v>
           </cell>
           <cell r="Q69">
-            <v>100</v>
+            <v>600</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70">
-            <v>55000082</v>
+            <v>55000083</v>
           </cell>
           <cell r="Q70">
-            <v>600</v>
+            <v>1500</v>
           </cell>
         </row>
         <row r="71">
           <cell r="A71">
-            <v>55000083</v>
+            <v>55000084</v>
           </cell>
           <cell r="Q71">
-            <v>1500</v>
+            <v>1000</v>
           </cell>
         </row>
         <row r="72">
           <cell r="A72">
-            <v>55000084</v>
+            <v>55000085</v>
           </cell>
           <cell r="Q72">
-            <v>1000</v>
+            <v>250</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73">
-            <v>55000085</v>
+            <v>55000086</v>
           </cell>
           <cell r="Q73">
-            <v>250</v>
+            <v>132</v>
           </cell>
         </row>
         <row r="74">
           <cell r="A74">
-            <v>55000086</v>
+            <v>55000087</v>
           </cell>
           <cell r="Q74">
-            <v>132</v>
+            <v>600</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75">
-            <v>55000087</v>
+            <v>55000088</v>
           </cell>
           <cell r="Q75">
-            <v>600</v>
+            <v>300</v>
           </cell>
         </row>
         <row r="76">
           <cell r="A76">
-            <v>55000088</v>
+            <v>55000089</v>
           </cell>
           <cell r="Q76">
-            <v>300</v>
+            <v>600</v>
           </cell>
         </row>
         <row r="77">
           <cell r="A77">
-            <v>55000089</v>
+            <v>55000090</v>
           </cell>
           <cell r="Q77">
             <v>600</v>
@@ -11286,303 +11332,303 @@
         </row>
         <row r="78">
           <cell r="A78">
-            <v>55000090</v>
+            <v>55000091</v>
           </cell>
           <cell r="Q78">
-            <v>600</v>
+            <v>-1425</v>
           </cell>
         </row>
         <row r="79">
           <cell r="A79">
-            <v>55000091</v>
+            <v>55000092</v>
           </cell>
           <cell r="Q79">
-            <v>-1425</v>
+            <v>500</v>
           </cell>
         </row>
         <row r="80">
           <cell r="A80">
-            <v>55000092</v>
+            <v>55000093</v>
           </cell>
           <cell r="Q80">
-            <v>500</v>
+            <v>200</v>
           </cell>
         </row>
         <row r="81">
           <cell r="A81">
-            <v>55000093</v>
+            <v>55000094</v>
           </cell>
           <cell r="Q81">
-            <v>200</v>
+            <v>3000</v>
           </cell>
         </row>
         <row r="82">
           <cell r="A82">
-            <v>55000094</v>
+            <v>55000095</v>
           </cell>
           <cell r="Q82">
-            <v>3000</v>
+            <v>300</v>
           </cell>
         </row>
         <row r="83">
           <cell r="A83">
-            <v>55000095</v>
+            <v>55000096</v>
           </cell>
           <cell r="Q83">
-            <v>300</v>
+            <v>280</v>
           </cell>
         </row>
         <row r="84">
           <cell r="A84">
-            <v>55000096</v>
+            <v>55000097</v>
           </cell>
           <cell r="Q84">
-            <v>280</v>
+            <v>80</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85">
-            <v>55000097</v>
+            <v>55000098</v>
           </cell>
           <cell r="Q85">
-            <v>80</v>
+            <v>400</v>
           </cell>
         </row>
         <row r="86">
           <cell r="A86">
-            <v>55000098</v>
+            <v>55000099</v>
           </cell>
           <cell r="Q86">
-            <v>400</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87">
-            <v>55000099</v>
+            <v>55000100</v>
           </cell>
           <cell r="Q87">
-            <v>55</v>
+            <v>555</v>
           </cell>
         </row>
         <row r="88">
           <cell r="A88">
-            <v>55000100</v>
+            <v>55000101</v>
           </cell>
           <cell r="Q88">
-            <v>555</v>
+            <v>180</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89">
-            <v>55000101</v>
+            <v>55000102</v>
           </cell>
           <cell r="Q89">
-            <v>180</v>
+            <v>300</v>
           </cell>
         </row>
         <row r="90">
           <cell r="A90">
-            <v>55000102</v>
+            <v>55000103</v>
           </cell>
           <cell r="Q90">
-            <v>300</v>
+            <v>1000</v>
           </cell>
         </row>
         <row r="91">
           <cell r="A91">
-            <v>55000103</v>
+            <v>55000104</v>
           </cell>
           <cell r="Q91">
-            <v>1000</v>
+            <v>132</v>
           </cell>
         </row>
         <row r="92">
           <cell r="A92">
-            <v>55000104</v>
+            <v>55000105</v>
           </cell>
           <cell r="Q92">
-            <v>132</v>
+            <v>250</v>
           </cell>
         </row>
         <row r="93">
           <cell r="A93">
-            <v>55000105</v>
+            <v>55000106</v>
           </cell>
           <cell r="Q93">
-            <v>250</v>
+            <v>500</v>
           </cell>
         </row>
         <row r="94">
           <cell r="A94">
-            <v>55000106</v>
+            <v>55000107</v>
           </cell>
           <cell r="Q94">
-            <v>500</v>
+            <v>120</v>
           </cell>
         </row>
         <row r="95">
           <cell r="A95">
-            <v>55000107</v>
+            <v>55000108</v>
           </cell>
           <cell r="Q95">
-            <v>120</v>
+            <v>80</v>
           </cell>
         </row>
         <row r="96">
           <cell r="A96">
-            <v>55000108</v>
+            <v>55000109</v>
           </cell>
           <cell r="Q96">
-            <v>80</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="97">
           <cell r="A97">
-            <v>55000109</v>
+            <v>55000110</v>
           </cell>
           <cell r="Q97">
-            <v>55</v>
+            <v>500</v>
           </cell>
         </row>
         <row r="98">
           <cell r="A98">
-            <v>55000110</v>
+            <v>55000111</v>
           </cell>
           <cell r="Q98">
-            <v>500</v>
+            <v>555</v>
           </cell>
         </row>
         <row r="99">
           <cell r="A99">
-            <v>55000111</v>
+            <v>55000112</v>
           </cell>
           <cell r="Q99">
-            <v>555</v>
+            <v>250</v>
           </cell>
         </row>
         <row r="100">
           <cell r="A100">
-            <v>55000112</v>
+            <v>55000113</v>
           </cell>
           <cell r="Q100">
-            <v>250</v>
+            <v>111</v>
           </cell>
         </row>
         <row r="101">
           <cell r="A101">
-            <v>55000113</v>
+            <v>55000114</v>
           </cell>
           <cell r="Q101">
-            <v>111</v>
+            <v>400</v>
           </cell>
         </row>
         <row r="102">
           <cell r="A102">
-            <v>55000114</v>
+            <v>55000115</v>
           </cell>
           <cell r="Q102">
-            <v>400</v>
+            <v>2000</v>
           </cell>
         </row>
         <row r="103">
           <cell r="A103">
-            <v>55000115</v>
+            <v>55000116</v>
           </cell>
           <cell r="Q103">
-            <v>2000</v>
+            <v>300</v>
           </cell>
         </row>
         <row r="104">
           <cell r="A104">
-            <v>55000116</v>
+            <v>55000117</v>
           </cell>
           <cell r="Q104">
-            <v>300</v>
+            <v>100</v>
           </cell>
         </row>
         <row r="105">
           <cell r="A105">
-            <v>55000117</v>
+            <v>55000118</v>
           </cell>
           <cell r="Q105">
-            <v>100</v>
+            <v>83</v>
           </cell>
         </row>
         <row r="106">
           <cell r="A106">
-            <v>55000118</v>
+            <v>55000119</v>
           </cell>
           <cell r="Q106">
-            <v>83</v>
+            <v>700</v>
           </cell>
         </row>
         <row r="107">
           <cell r="A107">
-            <v>55000119</v>
+            <v>55000120</v>
           </cell>
           <cell r="Q107">
-            <v>700</v>
+            <v>1000</v>
           </cell>
         </row>
         <row r="108">
           <cell r="A108">
-            <v>55000120</v>
+            <v>55000121</v>
           </cell>
           <cell r="Q108">
-            <v>1000</v>
+            <v>333</v>
           </cell>
         </row>
         <row r="109">
           <cell r="A109">
-            <v>55000121</v>
+            <v>55000122</v>
           </cell>
           <cell r="Q109">
-            <v>333</v>
+            <v>120</v>
           </cell>
         </row>
         <row r="110">
           <cell r="A110">
-            <v>55000122</v>
+            <v>55000123</v>
           </cell>
           <cell r="Q110">
-            <v>120</v>
+            <v>200</v>
           </cell>
         </row>
         <row r="111">
           <cell r="A111">
-            <v>55000123</v>
+            <v>55000124</v>
           </cell>
           <cell r="Q111">
-            <v>200</v>
+            <v>111</v>
           </cell>
         </row>
         <row r="112">
           <cell r="A112">
-            <v>55000124</v>
+            <v>55000125</v>
           </cell>
           <cell r="Q112">
-            <v>111</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="113">
           <cell r="A113">
-            <v>55000125</v>
+            <v>55000126</v>
           </cell>
           <cell r="Q113">
-            <v>55</v>
+            <v>400</v>
           </cell>
         </row>
         <row r="114">
           <cell r="A114">
-            <v>55000126</v>
+            <v>55000127</v>
           </cell>
           <cell r="Q114">
-            <v>400</v>
+            <v>100</v>
           </cell>
         </row>
         <row r="115">
           <cell r="A115">
-            <v>55000127</v>
+            <v>55000128</v>
           </cell>
           <cell r="Q115">
             <v>100</v>
@@ -11590,15 +11636,15 @@
         </row>
         <row r="116">
           <cell r="A116">
-            <v>55000128</v>
+            <v>55000129</v>
           </cell>
           <cell r="Q116">
-            <v>100</v>
+            <v>300</v>
           </cell>
         </row>
         <row r="117">
           <cell r="A117">
-            <v>55000129</v>
+            <v>55000130</v>
           </cell>
           <cell r="Q117">
             <v>300</v>
@@ -11606,31 +11652,31 @@
         </row>
         <row r="118">
           <cell r="A118">
-            <v>55000130</v>
+            <v>55000131</v>
           </cell>
           <cell r="Q118">
-            <v>300</v>
+            <v>500</v>
           </cell>
         </row>
         <row r="119">
           <cell r="A119">
-            <v>55000131</v>
+            <v>55000132</v>
           </cell>
           <cell r="Q119">
-            <v>500</v>
+            <v>300</v>
           </cell>
         </row>
         <row r="120">
           <cell r="A120">
-            <v>55000132</v>
+            <v>55000133</v>
           </cell>
           <cell r="Q120">
-            <v>300</v>
+            <v>500</v>
           </cell>
         </row>
         <row r="121">
           <cell r="A121">
-            <v>55000133</v>
+            <v>55000134</v>
           </cell>
           <cell r="Q121">
             <v>500</v>
@@ -11638,47 +11684,47 @@
         </row>
         <row r="122">
           <cell r="A122">
-            <v>55000134</v>
+            <v>55000135</v>
           </cell>
           <cell r="Q122">
-            <v>500</v>
+            <v>-500</v>
           </cell>
         </row>
         <row r="123">
           <cell r="A123">
-            <v>55000135</v>
+            <v>55000136</v>
           </cell>
           <cell r="Q123">
-            <v>-500</v>
+            <v>600</v>
           </cell>
         </row>
         <row r="124">
           <cell r="A124">
-            <v>55000136</v>
+            <v>55000137</v>
           </cell>
           <cell r="Q124">
-            <v>600</v>
+            <v>111</v>
           </cell>
         </row>
         <row r="125">
           <cell r="A125">
-            <v>55000137</v>
+            <v>55000138</v>
           </cell>
           <cell r="Q125">
-            <v>111</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="126">
           <cell r="A126">
-            <v>55000138</v>
+            <v>55000139</v>
           </cell>
           <cell r="Q126">
-            <v>55</v>
+            <v>111</v>
           </cell>
         </row>
         <row r="127">
           <cell r="A127">
-            <v>55000139</v>
+            <v>55000140</v>
           </cell>
           <cell r="Q127">
             <v>111</v>
@@ -11686,7 +11732,7 @@
         </row>
         <row r="128">
           <cell r="A128">
-            <v>55000140</v>
+            <v>55000141</v>
           </cell>
           <cell r="Q128">
             <v>111</v>
@@ -11694,303 +11740,303 @@
         </row>
         <row r="129">
           <cell r="A129">
-            <v>55000141</v>
+            <v>55000142</v>
           </cell>
           <cell r="Q129">
-            <v>111</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="130">
           <cell r="A130">
-            <v>55000142</v>
+            <v>55000143</v>
           </cell>
           <cell r="Q130">
-            <v>55</v>
+            <v>400</v>
           </cell>
         </row>
         <row r="131">
           <cell r="A131">
-            <v>55000143</v>
+            <v>55000144</v>
           </cell>
           <cell r="Q131">
-            <v>400</v>
+            <v>111</v>
           </cell>
         </row>
         <row r="132">
           <cell r="A132">
-            <v>55000144</v>
+            <v>55000145</v>
           </cell>
           <cell r="Q132">
-            <v>111</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="133">
           <cell r="A133">
-            <v>55000145</v>
+            <v>55000146</v>
           </cell>
           <cell r="Q133">
-            <v>55</v>
+            <v>111</v>
           </cell>
         </row>
         <row r="134">
           <cell r="A134">
-            <v>55000146</v>
+            <v>55000147</v>
           </cell>
           <cell r="Q134">
-            <v>111</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="135">
           <cell r="A135">
-            <v>55000147</v>
+            <v>55000148</v>
           </cell>
           <cell r="Q135">
-            <v>55</v>
+            <v>111</v>
           </cell>
         </row>
         <row r="136">
           <cell r="A136">
-            <v>55000148</v>
+            <v>55000149</v>
           </cell>
           <cell r="Q136">
-            <v>111</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="137">
           <cell r="A137">
-            <v>55000149</v>
+            <v>55000150</v>
           </cell>
           <cell r="Q137">
-            <v>55</v>
+            <v>75</v>
           </cell>
         </row>
         <row r="138">
           <cell r="A138">
-            <v>55000150</v>
+            <v>55000151</v>
           </cell>
           <cell r="Q138">
-            <v>75</v>
+            <v>200</v>
           </cell>
         </row>
         <row r="139">
           <cell r="A139">
-            <v>55000151</v>
+            <v>55000152</v>
           </cell>
           <cell r="Q139">
-            <v>200</v>
+            <v>300</v>
           </cell>
         </row>
         <row r="140">
           <cell r="A140">
-            <v>55000152</v>
+            <v>55000153</v>
           </cell>
           <cell r="Q140">
-            <v>300</v>
+            <v>27</v>
           </cell>
         </row>
         <row r="141">
           <cell r="A141">
-            <v>55000153</v>
+            <v>55000154</v>
           </cell>
           <cell r="Q141">
-            <v>27</v>
+            <v>100</v>
           </cell>
         </row>
         <row r="142">
           <cell r="A142">
-            <v>55000154</v>
+            <v>55000155</v>
           </cell>
           <cell r="Q142">
-            <v>100</v>
+            <v>-120</v>
           </cell>
         </row>
         <row r="143">
           <cell r="A143">
-            <v>55000155</v>
+            <v>55000156</v>
           </cell>
           <cell r="Q143">
-            <v>-120</v>
+            <v>90</v>
           </cell>
         </row>
         <row r="144">
           <cell r="A144">
-            <v>55000156</v>
+            <v>55000157</v>
           </cell>
           <cell r="Q144">
-            <v>90</v>
+            <v>3000</v>
           </cell>
         </row>
         <row r="145">
           <cell r="A145">
-            <v>55000157</v>
+            <v>55000158</v>
           </cell>
           <cell r="Q145">
-            <v>3000</v>
+            <v>700</v>
           </cell>
         </row>
         <row r="146">
           <cell r="A146">
-            <v>55000158</v>
+            <v>55000159</v>
           </cell>
           <cell r="Q146">
-            <v>700</v>
+            <v>120</v>
           </cell>
         </row>
         <row r="147">
           <cell r="A147">
-            <v>55000159</v>
+            <v>55000160</v>
           </cell>
           <cell r="Q147">
-            <v>120</v>
+            <v>950</v>
           </cell>
         </row>
         <row r="148">
           <cell r="A148">
-            <v>55000160</v>
+            <v>55000161</v>
           </cell>
           <cell r="Q148">
-            <v>950</v>
+            <v>83</v>
           </cell>
         </row>
         <row r="149">
           <cell r="A149">
-            <v>55000161</v>
+            <v>55000162</v>
           </cell>
           <cell r="Q149">
-            <v>83</v>
+            <v>100</v>
           </cell>
         </row>
         <row r="150">
           <cell r="A150">
-            <v>55000162</v>
+            <v>55000163</v>
           </cell>
           <cell r="Q150">
-            <v>100</v>
+            <v>1000</v>
           </cell>
         </row>
         <row r="151">
           <cell r="A151">
-            <v>55000163</v>
+            <v>55000164</v>
           </cell>
           <cell r="Q151">
-            <v>1000</v>
+            <v>600</v>
           </cell>
         </row>
         <row r="152">
           <cell r="A152">
-            <v>55000164</v>
+            <v>55000165</v>
           </cell>
           <cell r="Q152">
-            <v>600</v>
+            <v>266</v>
           </cell>
         </row>
         <row r="153">
           <cell r="A153">
-            <v>55000165</v>
+            <v>55000166</v>
           </cell>
           <cell r="Q153">
-            <v>266</v>
+            <v>600</v>
           </cell>
         </row>
         <row r="154">
           <cell r="A154">
-            <v>55000166</v>
+            <v>55000167</v>
           </cell>
           <cell r="Q154">
-            <v>600</v>
+            <v>1000</v>
           </cell>
         </row>
         <row r="155">
           <cell r="A155">
-            <v>55000167</v>
+            <v>55000168</v>
           </cell>
           <cell r="Q155">
-            <v>1000</v>
+            <v>200</v>
           </cell>
         </row>
         <row r="156">
           <cell r="A156">
-            <v>55000168</v>
+            <v>55000169</v>
           </cell>
           <cell r="Q156">
-            <v>200</v>
+            <v>500</v>
           </cell>
         </row>
         <row r="157">
           <cell r="A157">
-            <v>55000169</v>
+            <v>55000170</v>
           </cell>
           <cell r="Q157">
-            <v>500</v>
+            <v>112</v>
           </cell>
         </row>
         <row r="158">
           <cell r="A158">
-            <v>55000170</v>
+            <v>55000171</v>
           </cell>
           <cell r="Q158">
-            <v>112</v>
+            <v>400</v>
           </cell>
         </row>
         <row r="159">
           <cell r="A159">
-            <v>55000171</v>
+            <v>55000172</v>
           </cell>
           <cell r="Q159">
-            <v>400</v>
+            <v>200</v>
           </cell>
         </row>
         <row r="160">
           <cell r="A160">
-            <v>55000172</v>
+            <v>55000173</v>
           </cell>
           <cell r="Q160">
-            <v>200</v>
+            <v>160</v>
           </cell>
         </row>
         <row r="161">
           <cell r="A161">
-            <v>55000173</v>
+            <v>55000174</v>
           </cell>
           <cell r="Q161">
-            <v>160</v>
+            <v>150</v>
           </cell>
         </row>
         <row r="162">
           <cell r="A162">
-            <v>55000174</v>
+            <v>55000175</v>
           </cell>
           <cell r="Q162">
-            <v>150</v>
+            <v>132</v>
           </cell>
         </row>
         <row r="163">
           <cell r="A163">
-            <v>55000175</v>
+            <v>55000176</v>
           </cell>
           <cell r="Q163">
-            <v>132</v>
+            <v>555</v>
           </cell>
         </row>
         <row r="164">
           <cell r="A164">
-            <v>55000176</v>
+            <v>55000177</v>
           </cell>
           <cell r="Q164">
-            <v>555</v>
+            <v>75</v>
           </cell>
         </row>
         <row r="165">
           <cell r="A165">
-            <v>55000177</v>
+            <v>55000178</v>
           </cell>
           <cell r="Q165">
-            <v>75</v>
+            <v>500</v>
           </cell>
         </row>
         <row r="166">
           <cell r="A166">
-            <v>55000178</v>
+            <v>55000179</v>
           </cell>
           <cell r="Q166">
             <v>500</v>
@@ -11998,215 +12044,215 @@
         </row>
         <row r="167">
           <cell r="A167">
-            <v>55000179</v>
+            <v>55000180</v>
           </cell>
           <cell r="Q167">
-            <v>500</v>
+            <v>1000</v>
           </cell>
         </row>
         <row r="168">
           <cell r="A168">
-            <v>55000180</v>
+            <v>55000181</v>
           </cell>
           <cell r="Q168">
-            <v>1000</v>
+            <v>4000</v>
           </cell>
         </row>
         <row r="169">
           <cell r="A169">
-            <v>55000181</v>
+            <v>55000182</v>
           </cell>
           <cell r="Q169">
-            <v>4000</v>
+            <v>333</v>
           </cell>
         </row>
         <row r="170">
           <cell r="A170">
-            <v>55000182</v>
+            <v>55000183</v>
           </cell>
           <cell r="Q170">
-            <v>333</v>
+            <v>300</v>
           </cell>
         </row>
         <row r="171">
           <cell r="A171">
-            <v>55000183</v>
+            <v>55000184</v>
           </cell>
           <cell r="Q171">
-            <v>300</v>
+            <v>120</v>
           </cell>
         </row>
         <row r="172">
           <cell r="A172">
-            <v>55000184</v>
+            <v>55000185</v>
           </cell>
           <cell r="Q172">
-            <v>120</v>
+            <v>360</v>
           </cell>
         </row>
         <row r="173">
           <cell r="A173">
-            <v>55000185</v>
+            <v>55000186</v>
           </cell>
           <cell r="Q173">
-            <v>360</v>
+            <v>200</v>
           </cell>
         </row>
         <row r="174">
           <cell r="A174">
-            <v>55000186</v>
+            <v>55000187</v>
           </cell>
           <cell r="Q174">
-            <v>200</v>
+            <v>-1200</v>
           </cell>
         </row>
         <row r="175">
           <cell r="A175">
-            <v>55000187</v>
+            <v>55000188</v>
           </cell>
           <cell r="Q175">
-            <v>-1200</v>
+            <v>-36</v>
           </cell>
         </row>
         <row r="176">
           <cell r="A176">
-            <v>55000188</v>
+            <v>55000189</v>
           </cell>
           <cell r="Q176">
-            <v>-36</v>
+            <v>2000</v>
           </cell>
         </row>
         <row r="177">
           <cell r="A177">
-            <v>55000189</v>
+            <v>55000190</v>
           </cell>
           <cell r="Q177">
-            <v>2000</v>
+            <v>175</v>
           </cell>
         </row>
         <row r="178">
           <cell r="A178">
-            <v>55000190</v>
+            <v>55000191</v>
           </cell>
           <cell r="Q178">
-            <v>175</v>
+            <v>2222</v>
           </cell>
         </row>
         <row r="179">
           <cell r="A179">
-            <v>55000191</v>
+            <v>55000192</v>
           </cell>
           <cell r="Q179">
-            <v>2222</v>
+            <v>200</v>
           </cell>
         </row>
         <row r="180">
           <cell r="A180">
-            <v>55000192</v>
+            <v>55000193</v>
           </cell>
           <cell r="Q180">
-            <v>200</v>
+            <v>60</v>
           </cell>
         </row>
         <row r="181">
           <cell r="A181">
-            <v>55000193</v>
+            <v>55000194</v>
           </cell>
           <cell r="Q181">
-            <v>60</v>
+            <v>166</v>
           </cell>
         </row>
         <row r="182">
           <cell r="A182">
-            <v>55000194</v>
+            <v>55000195</v>
           </cell>
           <cell r="Q182">
-            <v>166</v>
+            <v>100</v>
           </cell>
         </row>
         <row r="183">
           <cell r="A183">
-            <v>55000195</v>
+            <v>55000196</v>
           </cell>
           <cell r="Q183">
-            <v>100</v>
+            <v>150</v>
           </cell>
         </row>
         <row r="184">
           <cell r="A184">
-            <v>55000196</v>
+            <v>55000197</v>
           </cell>
           <cell r="Q184">
-            <v>150</v>
+            <v>300</v>
           </cell>
         </row>
         <row r="185">
           <cell r="A185">
-            <v>55000197</v>
+            <v>55000198</v>
           </cell>
           <cell r="Q185">
-            <v>300</v>
+            <v>200</v>
           </cell>
         </row>
         <row r="186">
           <cell r="A186">
-            <v>55000198</v>
+            <v>55000199</v>
           </cell>
           <cell r="Q186">
-            <v>200</v>
+            <v>600</v>
           </cell>
         </row>
         <row r="187">
           <cell r="A187">
-            <v>55000199</v>
+            <v>55000200</v>
           </cell>
           <cell r="Q187">
-            <v>600</v>
+            <v>1400</v>
           </cell>
         </row>
         <row r="188">
           <cell r="A188">
-            <v>55000200</v>
+            <v>55000201</v>
           </cell>
           <cell r="Q188">
-            <v>1400</v>
+            <v>225</v>
           </cell>
         </row>
         <row r="189">
           <cell r="A189">
-            <v>55000201</v>
+            <v>55000202</v>
           </cell>
           <cell r="Q189">
-            <v>225</v>
+            <v>1000</v>
           </cell>
         </row>
         <row r="190">
           <cell r="A190">
-            <v>55000202</v>
+            <v>55000203</v>
           </cell>
           <cell r="Q190">
-            <v>1000</v>
+            <v>500</v>
           </cell>
         </row>
         <row r="191">
           <cell r="A191">
-            <v>55000203</v>
+            <v>55000204</v>
           </cell>
           <cell r="Q191">
-            <v>500</v>
+            <v>44</v>
           </cell>
         </row>
         <row r="192">
           <cell r="A192">
-            <v>55000204</v>
+            <v>55000205</v>
           </cell>
           <cell r="Q192">
-            <v>44</v>
+            <v>120</v>
           </cell>
         </row>
         <row r="193">
           <cell r="A193">
-            <v>55000205</v>
+            <v>55000206</v>
           </cell>
           <cell r="Q193">
             <v>120</v>
@@ -12214,159 +12260,159 @@
         </row>
         <row r="194">
           <cell r="A194">
-            <v>55000206</v>
+            <v>55000207</v>
           </cell>
           <cell r="Q194">
-            <v>120</v>
+            <v>2500</v>
           </cell>
         </row>
         <row r="195">
           <cell r="A195">
-            <v>55000207</v>
+            <v>55000208</v>
           </cell>
           <cell r="Q195">
-            <v>2500</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="196">
           <cell r="A196">
-            <v>55000208</v>
+            <v>55000209</v>
           </cell>
           <cell r="Q196">
-            <v>50</v>
+            <v>44</v>
           </cell>
         </row>
         <row r="197">
           <cell r="A197">
-            <v>55000209</v>
+            <v>55000210</v>
           </cell>
           <cell r="Q197">
-            <v>44</v>
+            <v>666</v>
           </cell>
         </row>
         <row r="198">
           <cell r="A198">
-            <v>55000210</v>
+            <v>55000211</v>
           </cell>
           <cell r="Q198">
-            <v>666</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="199">
           <cell r="A199">
-            <v>55000211</v>
+            <v>55000212</v>
           </cell>
           <cell r="Q199">
-            <v>11</v>
+            <v>300</v>
           </cell>
         </row>
         <row r="200">
           <cell r="A200">
-            <v>55000212</v>
+            <v>55000213</v>
           </cell>
           <cell r="Q200">
-            <v>300</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="201">
           <cell r="A201">
-            <v>55000213</v>
+            <v>55000214</v>
           </cell>
           <cell r="Q201">
-            <v>11</v>
+            <v>1500</v>
           </cell>
         </row>
         <row r="202">
           <cell r="A202">
-            <v>55000214</v>
+            <v>55000215</v>
           </cell>
           <cell r="Q202">
-            <v>1500</v>
+            <v>400</v>
           </cell>
         </row>
         <row r="203">
           <cell r="A203">
-            <v>55000215</v>
+            <v>55000216</v>
           </cell>
           <cell r="Q203">
-            <v>400</v>
+            <v>500</v>
           </cell>
         </row>
         <row r="204">
           <cell r="A204">
-            <v>55000216</v>
+            <v>55000217</v>
           </cell>
           <cell r="Q204">
-            <v>500</v>
+            <v>200</v>
           </cell>
         </row>
         <row r="205">
           <cell r="A205">
-            <v>55000217</v>
+            <v>55000218</v>
           </cell>
           <cell r="Q205">
-            <v>200</v>
+            <v>800</v>
           </cell>
         </row>
         <row r="206">
           <cell r="A206">
-            <v>55000218</v>
+            <v>55000219</v>
           </cell>
           <cell r="Q206">
-            <v>800</v>
+            <v>200</v>
           </cell>
         </row>
         <row r="207">
           <cell r="A207">
-            <v>55000219</v>
+            <v>55000220</v>
           </cell>
           <cell r="Q207">
-            <v>200</v>
+            <v>120</v>
           </cell>
         </row>
         <row r="208">
           <cell r="A208">
-            <v>55000220</v>
+            <v>55000221</v>
           </cell>
           <cell r="Q208">
-            <v>120</v>
+            <v>1200</v>
           </cell>
         </row>
         <row r="209">
           <cell r="A209">
-            <v>55000221</v>
+            <v>55000222</v>
           </cell>
           <cell r="Q209">
-            <v>1200</v>
+            <v>400</v>
           </cell>
         </row>
         <row r="210">
           <cell r="A210">
-            <v>55000222</v>
+            <v>55000223</v>
           </cell>
           <cell r="Q210">
-            <v>400</v>
+            <v>66</v>
           </cell>
         </row>
         <row r="211">
           <cell r="A211">
-            <v>55000223</v>
+            <v>55000224</v>
           </cell>
           <cell r="Q211">
-            <v>66</v>
+            <v>132</v>
           </cell>
         </row>
         <row r="212">
           <cell r="A212">
-            <v>55000224</v>
+            <v>55000225</v>
           </cell>
           <cell r="Q212">
-            <v>132</v>
+            <v>500</v>
           </cell>
         </row>
         <row r="213">
           <cell r="A213">
-            <v>55000225</v>
+            <v>55000226</v>
           </cell>
           <cell r="Q213">
             <v>500</v>
@@ -12374,290 +12420,290 @@
         </row>
         <row r="214">
           <cell r="A214">
-            <v>55000226</v>
+            <v>55000227</v>
           </cell>
           <cell r="Q214">
-            <v>500</v>
+            <v>300</v>
           </cell>
         </row>
         <row r="215">
           <cell r="A215">
-            <v>55000227</v>
+            <v>55000228</v>
           </cell>
           <cell r="Q215">
-            <v>300</v>
+            <v>180</v>
           </cell>
         </row>
         <row r="216">
           <cell r="A216">
-            <v>55000228</v>
+            <v>55000229</v>
           </cell>
           <cell r="Q216">
-            <v>180</v>
+            <v>3000</v>
           </cell>
         </row>
         <row r="217">
           <cell r="A217">
-            <v>55000229</v>
+            <v>55000230</v>
           </cell>
           <cell r="Q217">
-            <v>3000</v>
+            <v>-1800</v>
           </cell>
         </row>
         <row r="218">
           <cell r="A218">
-            <v>55000230</v>
+            <v>55000231</v>
           </cell>
           <cell r="Q218">
-            <v>-1800</v>
+            <v>1500</v>
           </cell>
         </row>
         <row r="219">
           <cell r="A219">
-            <v>55000231</v>
+            <v>55000232</v>
           </cell>
           <cell r="Q219">
-            <v>1500</v>
+            <v>300</v>
           </cell>
         </row>
         <row r="220">
           <cell r="A220">
-            <v>55000232</v>
+            <v>55000233</v>
           </cell>
           <cell r="Q220">
-            <v>300</v>
+            <v>-200</v>
           </cell>
         </row>
         <row r="221">
           <cell r="A221">
-            <v>55000233</v>
+            <v>55000234</v>
           </cell>
           <cell r="Q221">
-            <v>-200</v>
+            <v>333</v>
           </cell>
         </row>
         <row r="222">
           <cell r="A222">
-            <v>55000234</v>
+            <v>55000235</v>
           </cell>
           <cell r="Q222">
-            <v>333</v>
+            <v>100</v>
           </cell>
         </row>
         <row r="223">
           <cell r="A223">
-            <v>55000235</v>
+            <v>55000236</v>
           </cell>
           <cell r="Q223">
-            <v>100</v>
+            <v>500</v>
           </cell>
         </row>
         <row r="224">
           <cell r="A224">
-            <v>55000236</v>
+            <v>55000237</v>
           </cell>
           <cell r="Q224">
-            <v>500</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="225">
           <cell r="A225">
-            <v>55000237</v>
+            <v>55000238</v>
           </cell>
           <cell r="Q225">
-            <v>0</v>
+            <v>1000</v>
           </cell>
         </row>
         <row r="226">
           <cell r="A226">
-            <v>55000238</v>
+            <v>55000239</v>
           </cell>
           <cell r="Q226">
-            <v>1000</v>
+            <v>200</v>
           </cell>
         </row>
         <row r="227">
           <cell r="A227">
-            <v>55000239</v>
+            <v>55000240</v>
           </cell>
           <cell r="Q227">
-            <v>200</v>
+            <v>500</v>
           </cell>
         </row>
         <row r="228">
           <cell r="A228">
-            <v>55000240</v>
+            <v>55000241</v>
           </cell>
           <cell r="Q228">
-            <v>500</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="229">
           <cell r="A229">
-            <v>55000241</v>
+            <v>55000242</v>
           </cell>
           <cell r="Q229">
-            <v>30</v>
+            <v>300</v>
           </cell>
         </row>
         <row r="230">
           <cell r="A230">
-            <v>55000242</v>
+            <v>55000243</v>
           </cell>
           <cell r="Q230">
-            <v>300</v>
+            <v>222</v>
           </cell>
         </row>
         <row r="231">
           <cell r="A231">
-            <v>55000243</v>
+            <v>55000244</v>
           </cell>
           <cell r="Q231">
-            <v>222</v>
+            <v>280</v>
           </cell>
         </row>
         <row r="232">
           <cell r="A232">
-            <v>55000244</v>
+            <v>55000245</v>
           </cell>
           <cell r="Q232">
-            <v>280</v>
+            <v>450</v>
           </cell>
         </row>
         <row r="233">
           <cell r="A233">
-            <v>55000245</v>
+            <v>55000246</v>
           </cell>
           <cell r="Q233">
-            <v>450</v>
+            <v>100</v>
           </cell>
         </row>
         <row r="234">
           <cell r="A234">
-            <v>55000246</v>
+            <v>55000247</v>
           </cell>
           <cell r="Q234">
-            <v>100</v>
+            <v>132</v>
           </cell>
         </row>
         <row r="235">
           <cell r="A235">
-            <v>55000247</v>
+            <v>55000248</v>
           </cell>
           <cell r="Q235">
-            <v>132</v>
+            <v>800</v>
           </cell>
         </row>
         <row r="236">
           <cell r="A236">
-            <v>55000248</v>
+            <v>55000249</v>
           </cell>
           <cell r="Q236">
-            <v>800</v>
+            <v>400</v>
           </cell>
         </row>
         <row r="237">
           <cell r="A237">
-            <v>55000249</v>
+            <v>55000250</v>
           </cell>
           <cell r="Q237">
-            <v>400</v>
+            <v>300</v>
           </cell>
         </row>
         <row r="238">
           <cell r="A238">
-            <v>55000250</v>
+            <v>55000251</v>
           </cell>
           <cell r="Q238">
-            <v>300</v>
+            <v>250</v>
           </cell>
         </row>
         <row r="239">
           <cell r="A239">
-            <v>55000251</v>
+            <v>55000252</v>
           </cell>
           <cell r="Q239">
-            <v>250</v>
+            <v>100</v>
           </cell>
         </row>
         <row r="240">
           <cell r="A240">
-            <v>55000252</v>
+            <v>55000253</v>
           </cell>
           <cell r="Q240">
-            <v>100</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="241">
           <cell r="A241">
-            <v>55000253</v>
+            <v>55000254</v>
           </cell>
           <cell r="Q241">
-            <v>30</v>
+            <v>300</v>
           </cell>
         </row>
         <row r="242">
           <cell r="A242">
-            <v>55000254</v>
+            <v>55000255</v>
           </cell>
           <cell r="Q242">
-            <v>300</v>
+            <v>500</v>
           </cell>
         </row>
         <row r="243">
           <cell r="A243">
-            <v>55000255</v>
+            <v>55000256</v>
           </cell>
           <cell r="Q243">
-            <v>500</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="244">
           <cell r="A244">
-            <v>55000256</v>
+            <v>55000257</v>
           </cell>
           <cell r="Q244">
-            <v>30</v>
+            <v>200</v>
           </cell>
         </row>
         <row r="245">
           <cell r="A245">
-            <v>55000257</v>
+            <v>55000258</v>
           </cell>
           <cell r="Q245">
-            <v>200</v>
+            <v>300</v>
           </cell>
         </row>
         <row r="246">
           <cell r="A246">
-            <v>55000258</v>
+            <v>55000259</v>
           </cell>
           <cell r="Q246">
-            <v>300</v>
+            <v>500</v>
           </cell>
         </row>
         <row r="247">
           <cell r="A247">
-            <v>55000259</v>
+            <v>55000260</v>
           </cell>
           <cell r="Q247">
-            <v>500</v>
+            <v>300</v>
           </cell>
         </row>
         <row r="248">
           <cell r="A248">
-            <v>55000260</v>
+            <v>55000261</v>
           </cell>
           <cell r="Q248">
-            <v>300</v>
+            <v>200</v>
           </cell>
         </row>
         <row r="249">
           <cell r="A249">
-            <v>55000261</v>
+            <v>55000262</v>
           </cell>
           <cell r="Q249">
-            <v>200</v>
+            <v>2200</v>
           </cell>
         </row>
         <row r="250">
@@ -12950,15 +12996,15 @@
         </row>
         <row r="286">
           <cell r="A286">
-            <v>55000324</v>
+            <v>55000300</v>
           </cell>
           <cell r="Q286">
-            <v>500</v>
+            <v>2500</v>
           </cell>
         </row>
         <row r="287">
           <cell r="A287">
-            <v>55000325</v>
+            <v>55000324</v>
           </cell>
           <cell r="Q287">
             <v>500</v>
@@ -12966,121 +13012,129 @@
         </row>
         <row r="288">
           <cell r="A288">
-            <v>55000326</v>
+            <v>55000325</v>
           </cell>
           <cell r="Q288">
-            <v>1000</v>
+            <v>500</v>
           </cell>
         </row>
         <row r="289">
           <cell r="A289">
-            <v>55000327</v>
+            <v>55000326</v>
           </cell>
           <cell r="Q289">
-            <v>833</v>
+            <v>1000</v>
           </cell>
         </row>
         <row r="290">
           <cell r="A290">
-            <v>55000328</v>
+            <v>55000327</v>
           </cell>
           <cell r="Q290">
-            <v>700</v>
+            <v>833</v>
           </cell>
         </row>
         <row r="291">
           <cell r="A291">
-            <v>55000329</v>
+            <v>55000328</v>
           </cell>
           <cell r="Q291">
-            <v>600</v>
+            <v>700</v>
           </cell>
         </row>
         <row r="292">
           <cell r="A292">
-            <v>55000330</v>
+            <v>55000329</v>
           </cell>
           <cell r="Q292">
-            <v>480</v>
+            <v>600</v>
           </cell>
         </row>
         <row r="293">
           <cell r="A293">
-            <v>55000331</v>
+            <v>55000330</v>
           </cell>
           <cell r="Q293">
-            <v>600</v>
+            <v>480</v>
           </cell>
         </row>
         <row r="294">
           <cell r="A294">
-            <v>55000332</v>
+            <v>55000331</v>
           </cell>
           <cell r="Q294">
-            <v>50</v>
+            <v>600</v>
           </cell>
         </row>
         <row r="295">
           <cell r="A295">
-            <v>55000333</v>
+            <v>55000332</v>
           </cell>
           <cell r="Q295">
-            <v>30</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="296">
           <cell r="A296">
-            <v>55000334</v>
+            <v>55000333</v>
           </cell>
           <cell r="Q296">
-            <v>250</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="297">
           <cell r="A297">
-            <v>55000335</v>
+            <v>55000334</v>
           </cell>
           <cell r="Q297">
-            <v>1500</v>
+            <v>250</v>
           </cell>
         </row>
         <row r="298">
           <cell r="A298">
-            <v>55000340</v>
+            <v>55000335</v>
           </cell>
           <cell r="Q298">
-            <v>200</v>
+            <v>1500</v>
           </cell>
         </row>
         <row r="299">
           <cell r="A299">
-            <v>55000341</v>
+            <v>55000340</v>
           </cell>
           <cell r="Q299">
-            <v>800</v>
+            <v>200</v>
           </cell>
         </row>
         <row r="300">
           <cell r="A300">
-            <v>55000342</v>
+            <v>55000341</v>
           </cell>
           <cell r="Q300">
-            <v>400</v>
+            <v>800</v>
           </cell>
         </row>
         <row r="301">
           <cell r="A301">
+            <v>55000342</v>
+          </cell>
+          <cell r="Q301">
+            <v>400</v>
+          </cell>
+        </row>
+        <row r="302">
+          <cell r="A302">
             <v>55000343</v>
           </cell>
-          <cell r="Q301">
+          <cell r="Q302">
             <v>600</v>
           </cell>
         </row>
-        <row r="302">
-          <cell r="A302" t="str">
+        <row r="303">
+          <cell r="A303" t="str">
             <v>55000060|FightQuick</v>
           </cell>
-          <cell r="Q302">
+          <cell r="Q303">
             <v>100</v>
           </cell>
         </row>
@@ -22118,8 +22172,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:BF311" totalsRowShown="0" headerRowDxfId="137" dataDxfId="136" tableBorderDxfId="135">
-  <autoFilter ref="A3:BF311"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:BF312" totalsRowShown="0" headerRowDxfId="137" dataDxfId="136" tableBorderDxfId="135">
+  <autoFilter ref="A3:BF312"/>
   <sortState ref="A4:AF311">
     <sortCondition ref="A3:A311"/>
   </sortState>
@@ -22150,144 +22204,144 @@
     </tableColumn>
     <tableColumn id="13" name="Range" dataDxfId="114"/>
     <tableColumn id="14" name="Mov" dataDxfId="113"/>
-    <tableColumn id="51" name="LifeTime" dataDxfId="14"/>
-    <tableColumn id="16" name="Arrow" dataDxfId="112"/>
-    <tableColumn id="18" name="Skills" dataDxfId="111"/>
-    <tableColumn id="42" name="~Skill1" dataDxfId="110"/>
-    <tableColumn id="43" name="~SkillRate1" dataDxfId="109"/>
-    <tableColumn id="44" name="~Skill2" dataDxfId="108"/>
-    <tableColumn id="45" name="~SkillRate2" dataDxfId="107"/>
-    <tableColumn id="46" name="~Skill3" dataDxfId="106"/>
-    <tableColumn id="47" name="~SkillRate3" dataDxfId="105"/>
-    <tableColumn id="48" name="~Skill4" dataDxfId="104"/>
-    <tableColumn id="49" name="~SkillRate4" dataDxfId="103"/>
-    <tableColumn id="54" name="~SkillMark" dataDxfId="102">
+    <tableColumn id="51" name="LifeTime" dataDxfId="112"/>
+    <tableColumn id="16" name="Arrow" dataDxfId="111"/>
+    <tableColumn id="18" name="Skills" dataDxfId="110"/>
+    <tableColumn id="42" name="~Skill1" dataDxfId="109"/>
+    <tableColumn id="43" name="~SkillRate1" dataDxfId="108"/>
+    <tableColumn id="44" name="~Skill2" dataDxfId="107"/>
+    <tableColumn id="45" name="~SkillRate2" dataDxfId="106"/>
+    <tableColumn id="46" name="~Skill3" dataDxfId="105"/>
+    <tableColumn id="47" name="~SkillRate3" dataDxfId="104"/>
+    <tableColumn id="48" name="~Skill4" dataDxfId="103"/>
+    <tableColumn id="49" name="~SkillRate4" dataDxfId="102"/>
+    <tableColumn id="54" name="~SkillMark" dataDxfId="101">
       <calculatedColumnFormula>IF(ISBLANK($Z4),0, LOOKUP($Z4,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AA4/100)+
 IF(ISBLANK($AB4),0, LOOKUP($AB4,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AC4/100)+
 IF(ISBLANK($AD4),0, LOOKUP($AD4,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AE4/100)+
 IF(ISBLANK($AF4),0, LOOKUP($AF4,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AG4/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="52" name="~AntiLife" dataDxfId="101"/>
-    <tableColumn id="57" name="~AntiMental" dataDxfId="100"/>
-    <tableColumn id="56" name="~AntiPhysical" dataDxfId="99"/>
-    <tableColumn id="55" name="~AntiElement" dataDxfId="98"/>
-    <tableColumn id="53" name="~AntiHelp" dataDxfId="97"/>
-    <tableColumn id="30" name="BuffImmune" dataDxfId="96">
+    <tableColumn id="52" name="~AntiLife" dataDxfId="100"/>
+    <tableColumn id="57" name="~AntiMental" dataDxfId="99"/>
+    <tableColumn id="56" name="~AntiPhysical" dataDxfId="98"/>
+    <tableColumn id="55" name="~AntiElement" dataDxfId="97"/>
+    <tableColumn id="53" name="~AntiHelp" dataDxfId="96"/>
+    <tableColumn id="30" name="BuffImmune" dataDxfId="95">
       <calculatedColumnFormula>CONCATENATE(AI4,";",AJ4,";",AK4,";",AL4,";",AM4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="~AntiNull" dataDxfId="95"/>
-    <tableColumn id="11" name="~AntiWater" dataDxfId="94"/>
-    <tableColumn id="26" name="~AntiWind" dataDxfId="93"/>
-    <tableColumn id="27" name="~AntiFire" dataDxfId="92"/>
-    <tableColumn id="37" name="~AntiEarth" dataDxfId="91"/>
-    <tableColumn id="38" name="~AntiIce" dataDxfId="90"/>
-    <tableColumn id="39" name="~AntiThunder" dataDxfId="89"/>
-    <tableColumn id="40" name="~AntiLight" dataDxfId="88"/>
-    <tableColumn id="41" name="~AntiDark" dataDxfId="87"/>
-    <tableColumn id="31" name="AttrDef" dataDxfId="86">
+    <tableColumn id="8" name="~AntiNull" dataDxfId="94"/>
+    <tableColumn id="11" name="~AntiWater" dataDxfId="93"/>
+    <tableColumn id="26" name="~AntiWind" dataDxfId="92"/>
+    <tableColumn id="27" name="~AntiFire" dataDxfId="91"/>
+    <tableColumn id="37" name="~AntiEarth" dataDxfId="90"/>
+    <tableColumn id="38" name="~AntiIce" dataDxfId="89"/>
+    <tableColumn id="39" name="~AntiThunder" dataDxfId="88"/>
+    <tableColumn id="40" name="~AntiLight" dataDxfId="87"/>
+    <tableColumn id="41" name="~AntiDark" dataDxfId="86"/>
+    <tableColumn id="31" name="AttrDef" dataDxfId="85">
       <calculatedColumnFormula>CONCATENATE(AO4,";",AP4,";",AQ4,";",AR4,";",AS4,";",AT4,";",AU4,";",AV4,";",AW4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="50" name="IsBuilding" dataDxfId="85"/>
-    <tableColumn id="20" name="Res" dataDxfId="84"/>
-    <tableColumn id="21" name="Icon" dataDxfId="83"/>
-    <tableColumn id="17" name="Cover" dataDxfId="82"/>
-    <tableColumn id="15" name="IsSpecial" dataDxfId="81"/>
-    <tableColumn id="28" name="IsNew" dataDxfId="80"/>
-    <tableColumn id="19" name="VsMark" dataDxfId="79"/>
-    <tableColumn id="29" name="Remark" dataDxfId="78"/>
+    <tableColumn id="50" name="IsBuilding" dataDxfId="84"/>
+    <tableColumn id="20" name="Res" dataDxfId="83"/>
+    <tableColumn id="21" name="Icon" dataDxfId="82"/>
+    <tableColumn id="17" name="Cover" dataDxfId="81"/>
+    <tableColumn id="15" name="IsSpecial" dataDxfId="80"/>
+    <tableColumn id="28" name="IsNew" dataDxfId="79"/>
+    <tableColumn id="19" name="VsMark" dataDxfId="78"/>
+    <tableColumn id="29" name="Remark" dataDxfId="77"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表1_5" displayName="表1_5" ref="A3:BH11" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76" tableBorderDxfId="75">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表1_5" displayName="表1_5" ref="A3:BH11" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66" tableBorderDxfId="65">
   <autoFilter ref="A3:BH11"/>
   <sortState ref="A4:AF311">
     <sortCondition ref="A3:A311"/>
   </sortState>
   <tableColumns count="60">
-    <tableColumn id="1" name="Id" dataDxfId="74"/>
-    <tableColumn id="2" name="Name" dataDxfId="73"/>
-    <tableColumn id="22" name="Ename" dataDxfId="72"/>
-    <tableColumn id="23" name="EnameShort" dataDxfId="71"/>
-    <tableColumn id="3" name="Star" dataDxfId="70"/>
-    <tableColumn id="4" name="Type" dataDxfId="69"/>
-    <tableColumn id="5" name="Attr" dataDxfId="68"/>
-    <tableColumn id="58" name="Quality" dataDxfId="67">
+    <tableColumn id="1" name="Id" dataDxfId="64"/>
+    <tableColumn id="2" name="Name" dataDxfId="63"/>
+    <tableColumn id="22" name="Ename" dataDxfId="62"/>
+    <tableColumn id="23" name="EnameShort" dataDxfId="61"/>
+    <tableColumn id="3" name="Star" dataDxfId="60"/>
+    <tableColumn id="4" name="Type" dataDxfId="59"/>
+    <tableColumn id="5" name="Attr" dataDxfId="58"/>
+    <tableColumn id="58" name="Quality" dataDxfId="57">
       <calculatedColumnFormula>IF(T4&gt;10,5,IF(T4&gt;5,4,IF(T4&gt;2.5,3,IF(T4&gt;0,2,IF(T4&gt;-2.5,1,IF(T4&gt;-10,0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Cost" dataDxfId="66"/>
-    <tableColumn id="6" name="AtkP" dataDxfId="65"/>
-    <tableColumn id="24" name="VitP" dataDxfId="64"/>
-    <tableColumn id="25" name="Modify" dataDxfId="63"/>
-    <tableColumn id="9" name="Def" dataDxfId="62"/>
-    <tableColumn id="10" name="Mag" dataDxfId="61"/>
-    <tableColumn id="32" name="Spd" dataDxfId="60"/>
-    <tableColumn id="35" name="Hit" dataDxfId="59"/>
-    <tableColumn id="36" name="Dhit" dataDxfId="58"/>
-    <tableColumn id="34" name="Crt" dataDxfId="57"/>
-    <tableColumn id="33" name="Luk" dataDxfId="56"/>
-    <tableColumn id="7" name="Sum" dataDxfId="55">
+    <tableColumn id="12" name="Cost" dataDxfId="56"/>
+    <tableColumn id="6" name="AtkP" dataDxfId="55"/>
+    <tableColumn id="24" name="VitP" dataDxfId="54"/>
+    <tableColumn id="25" name="Modify" dataDxfId="53"/>
+    <tableColumn id="9" name="Def" dataDxfId="52"/>
+    <tableColumn id="10" name="Mag" dataDxfId="51"/>
+    <tableColumn id="32" name="Spd" dataDxfId="50"/>
+    <tableColumn id="35" name="Hit" dataDxfId="49"/>
+    <tableColumn id="36" name="Dhit" dataDxfId="48"/>
+    <tableColumn id="34" name="Crt" dataDxfId="47"/>
+    <tableColumn id="33" name="Luk" dataDxfId="46"/>
+    <tableColumn id="7" name="Sum" dataDxfId="45">
       <calculatedColumnFormula>SUM(J4:K4)+SUM(M4:S4)*5+4.4*SUM(AQ4:AY4)+2.5*SUM(AK4:AO4)+AJ4/100+L4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Range" dataDxfId="54"/>
-    <tableColumn id="14" name="Mov" dataDxfId="53"/>
-    <tableColumn id="60" name="LifeTime" dataDxfId="0"/>
-    <tableColumn id="16" name="Arrow" dataDxfId="52"/>
-    <tableColumn id="18" name="Skills" dataDxfId="51"/>
-    <tableColumn id="42" name="~Skill1" dataDxfId="50"/>
-    <tableColumn id="43" name="~SkillRate1" dataDxfId="49"/>
-    <tableColumn id="44" name="~Skill2" dataDxfId="48"/>
-    <tableColumn id="45" name="~SkillRate2" dataDxfId="47"/>
-    <tableColumn id="46" name="~Skill3" dataDxfId="46"/>
-    <tableColumn id="47" name="~SkillRate3" dataDxfId="45"/>
-    <tableColumn id="48" name="~Skill4" dataDxfId="44"/>
-    <tableColumn id="49" name="~SkillRate4" dataDxfId="43"/>
-    <tableColumn id="50" name="~Skill5" dataDxfId="42"/>
-    <tableColumn id="51" name="~SkillRate5" dataDxfId="41"/>
-    <tableColumn id="54" name="~SkillMark" dataDxfId="40">
+    <tableColumn id="13" name="Range" dataDxfId="44"/>
+    <tableColumn id="14" name="Mov" dataDxfId="43"/>
+    <tableColumn id="60" name="LifeTime" dataDxfId="42"/>
+    <tableColumn id="16" name="Arrow" dataDxfId="41"/>
+    <tableColumn id="18" name="Skills" dataDxfId="40"/>
+    <tableColumn id="42" name="~Skill1" dataDxfId="39"/>
+    <tableColumn id="43" name="~SkillRate1" dataDxfId="38"/>
+    <tableColumn id="44" name="~Skill2" dataDxfId="37"/>
+    <tableColumn id="45" name="~SkillRate2" dataDxfId="36"/>
+    <tableColumn id="46" name="~Skill3" dataDxfId="35"/>
+    <tableColumn id="47" name="~SkillRate3" dataDxfId="34"/>
+    <tableColumn id="48" name="~Skill4" dataDxfId="33"/>
+    <tableColumn id="49" name="~SkillRate4" dataDxfId="32"/>
+    <tableColumn id="50" name="~Skill5" dataDxfId="31"/>
+    <tableColumn id="51" name="~SkillRate5" dataDxfId="30"/>
+    <tableColumn id="54" name="~SkillMark" dataDxfId="29">
       <calculatedColumnFormula>IF(ISBLANK($Z4),0, LOOKUP($Z4,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AA4/100)+
 IF(ISBLANK($AB4),0, LOOKUP($AB4,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AC4/100)+
 IF(ISBLANK($AD4),0, LOOKUP($AD4,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AE4/100)+
 IF(ISBLANK($AF4),0, LOOKUP($AF4,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AG4/100)+
 IF(ISBLANK($AH4),0, LOOKUP($AH4,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AI4/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="52" name="~AntiLife" dataDxfId="39"/>
-    <tableColumn id="57" name="~AntiMental" dataDxfId="38"/>
-    <tableColumn id="56" name="~AntiPhysical" dataDxfId="37"/>
-    <tableColumn id="55" name="~AntiElement" dataDxfId="36"/>
-    <tableColumn id="53" name="~AntiHelp" dataDxfId="35"/>
-    <tableColumn id="30" name="BuffImmune" dataDxfId="34">
+    <tableColumn id="52" name="~AntiLife" dataDxfId="28"/>
+    <tableColumn id="57" name="~AntiMental" dataDxfId="27"/>
+    <tableColumn id="56" name="~AntiPhysical" dataDxfId="26"/>
+    <tableColumn id="55" name="~AntiElement" dataDxfId="25"/>
+    <tableColumn id="53" name="~AntiHelp" dataDxfId="24"/>
+    <tableColumn id="30" name="BuffImmune" dataDxfId="23">
       <calculatedColumnFormula>CONCATENATE(AK4,";",AL4,";",AM4,";",AN4,";",AO4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="~AntiNull" dataDxfId="33"/>
-    <tableColumn id="11" name="~AntiWater" dataDxfId="32"/>
-    <tableColumn id="26" name="~AntiWind" dataDxfId="31"/>
-    <tableColumn id="27" name="~AntiFire" dataDxfId="30"/>
-    <tableColumn id="37" name="~AntiEarth" dataDxfId="29"/>
-    <tableColumn id="38" name="~AntiIce" dataDxfId="28"/>
-    <tableColumn id="39" name="~AntiThunder" dataDxfId="27"/>
-    <tableColumn id="40" name="~AntiLight" dataDxfId="26"/>
-    <tableColumn id="41" name="~AntiDark" dataDxfId="25"/>
-    <tableColumn id="31" name="AttrDef" dataDxfId="24">
+    <tableColumn id="8" name="~AntiNull" dataDxfId="22"/>
+    <tableColumn id="11" name="~AntiWater" dataDxfId="21"/>
+    <tableColumn id="26" name="~AntiWind" dataDxfId="20"/>
+    <tableColumn id="27" name="~AntiFire" dataDxfId="19"/>
+    <tableColumn id="37" name="~AntiEarth" dataDxfId="18"/>
+    <tableColumn id="38" name="~AntiIce" dataDxfId="17"/>
+    <tableColumn id="39" name="~AntiThunder" dataDxfId="16"/>
+    <tableColumn id="40" name="~AntiLight" dataDxfId="15"/>
+    <tableColumn id="41" name="~AntiDark" dataDxfId="14"/>
+    <tableColumn id="31" name="AttrDef" dataDxfId="13">
       <calculatedColumnFormula>CONCATENATE(AQ4,";",AR4,";",AS4,";",AT4,";",AU4,";",AV4,";",AW4,";",AX4,";",AY4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="59" name="IsBuilding" dataDxfId="23"/>
-    <tableColumn id="20" name="Res" dataDxfId="22"/>
-    <tableColumn id="21" name="Icon" dataDxfId="21"/>
-    <tableColumn id="17" name="Cover" dataDxfId="20"/>
-    <tableColumn id="15" name="IsSpecial" dataDxfId="19"/>
-    <tableColumn id="28" name="IsNew" dataDxfId="18"/>
-    <tableColumn id="19" name="VsMark" dataDxfId="17"/>
-    <tableColumn id="29" name="Remark" dataDxfId="16"/>
+    <tableColumn id="59" name="IsBuilding" dataDxfId="12"/>
+    <tableColumn id="20" name="Res" dataDxfId="11"/>
+    <tableColumn id="21" name="Icon" dataDxfId="10"/>
+    <tableColumn id="17" name="Cover" dataDxfId="9"/>
+    <tableColumn id="15" name="IsSpecial" dataDxfId="8"/>
+    <tableColumn id="28" name="IsNew" dataDxfId="7"/>
+    <tableColumn id="19" name="VsMark" dataDxfId="6"/>
+    <tableColumn id="29" name="Remark" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:I15" totalsRowShown="0" headerRowDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:I15" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A1:I15"/>
   <tableColumns count="9">
     <tableColumn id="1" name="星级"/>
@@ -22591,13 +22645,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BF311"/>
+  <dimension ref="A1:BF312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B298" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="W8" sqref="W8"/>
+      <selection pane="bottomRight" activeCell="Z312" sqref="Z312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -22607,7 +22661,8 @@
     <col min="3" max="3" width="12.88671875" customWidth="1"/>
     <col min="4" max="4" width="6.109375" customWidth="1"/>
     <col min="5" max="9" width="3.33203125" customWidth="1"/>
-    <col min="10" max="11" width="4.109375" customWidth="1"/>
+    <col min="10" max="10" width="5" customWidth="1"/>
+    <col min="11" max="11" width="4.109375" customWidth="1"/>
     <col min="12" max="19" width="4.77734375" customWidth="1"/>
     <col min="20" max="20" width="4.109375" customWidth="1"/>
     <col min="21" max="23" width="4.77734375" customWidth="1"/>
@@ -67425,7 +67480,7 @@
         <v>1</v>
       </c>
       <c r="H260" s="4">
-        <f t="shared" ref="H260:H311" si="16">IF(T260&gt;10,5,IF(T260&gt;5,4,IF(T260&gt;2.5,3,IF(T260&gt;0,2,IF(T260&gt;-2.5,1,IF(T260&gt;-10,0,6))))))</f>
+        <f t="shared" ref="H260:H312" si="16">IF(T260&gt;10,5,IF(T260&gt;5,4,IF(T260&gt;2.5,3,IF(T260&gt;0,2,IF(T260&gt;-2.5,1,IF(T260&gt;-10,0,6))))))</f>
         <v>4</v>
       </c>
       <c r="I260" s="4">
@@ -67462,7 +67517,7 @@
         <v>0</v>
       </c>
       <c r="T260" s="15">
-        <f t="shared" ref="T260:T311" si="17">SUM(J260:K260)+SUM(M260:S260)*5+4.4*SUM(AO260:AW260)+2.5*SUM(AI260:AM260)+AH260/100+L260</f>
+        <f t="shared" ref="T260:T312" si="17">SUM(J260:K260)+SUM(M260:S260)*5+4.4*SUM(AO260:AW260)+2.5*SUM(AI260:AM260)+AH260/100+L260</f>
         <v>9.5</v>
       </c>
       <c r="U260" s="4">
@@ -67550,7 +67605,7 @@
         <v>0</v>
       </c>
       <c r="AX260" s="4" t="str">
-        <f t="shared" ref="AX260:AX311" si="18">CONCATENATE(AO260,";",AP260,";",AQ260,";",AR260,";",AS260,";",AT260,";",AU260,";",AV260,";",AW260)</f>
+        <f t="shared" ref="AX260:AX312" si="18">CONCATENATE(AO260,";",AP260,";",AQ260,";",AR260,";",AS260,";",AT260,";",AU260,";",AV260,";",AW260)</f>
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY260" s="56" t="s">
@@ -67693,7 +67748,7 @@
         <v>0</v>
       </c>
       <c r="AN261" s="4" t="str">
-        <f t="shared" ref="AN261:AN311" si="19">CONCATENATE(AI261,";",AJ261,";",AK261,";",AL261,";",AM261)</f>
+        <f t="shared" ref="AN261:AN312" si="19">CONCATENATE(AI261,";",AJ261,";",AK261,";",AL261,";",AM261)</f>
         <v>0;0;0;0;0</v>
       </c>
       <c r="AO261" s="21">
@@ -75863,7 +75918,7 @@
         <v>0</v>
       </c>
       <c r="BD308" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE308" s="30">
         <v>0.49672129999999998</v>
@@ -76364,10 +76419,180 @@
         <v>1276</v>
       </c>
     </row>
+    <row r="312" spans="1:58">
+      <c r="A312">
+        <v>51000309</v>
+      </c>
+      <c r="B312" s="11" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C312" s="4" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D312" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="E312" s="11">
+        <v>3</v>
+      </c>
+      <c r="F312" s="11">
+        <v>13</v>
+      </c>
+      <c r="G312" s="11">
+        <v>4</v>
+      </c>
+      <c r="H312" s="24">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+      <c r="I312" s="11">
+        <v>3</v>
+      </c>
+      <c r="J312" s="11">
+        <v>-100</v>
+      </c>
+      <c r="K312" s="11">
+        <v>20</v>
+      </c>
+      <c r="L312" s="11">
+        <v>-2</v>
+      </c>
+      <c r="M312" s="11">
+        <v>0</v>
+      </c>
+      <c r="N312" s="11">
+        <v>0</v>
+      </c>
+      <c r="O312" s="11">
+        <v>0</v>
+      </c>
+      <c r="P312" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q312" s="11">
+        <v>0</v>
+      </c>
+      <c r="R312" s="11">
+        <v>0</v>
+      </c>
+      <c r="S312" s="11">
+        <v>0</v>
+      </c>
+      <c r="T312" s="24">
+        <f t="shared" si="17"/>
+        <v>-57</v>
+      </c>
+      <c r="U312" s="11">
+        <v>0</v>
+      </c>
+      <c r="V312" s="11">
+        <v>0</v>
+      </c>
+      <c r="W312" s="11">
+        <v>90</v>
+      </c>
+      <c r="X312" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y312" s="11" t="s">
+        <v>1428</v>
+      </c>
+      <c r="Z312" s="21">
+        <v>55000300</v>
+      </c>
+      <c r="AA312" s="21">
+        <v>100</v>
+      </c>
+      <c r="AB312" s="21"/>
+      <c r="AC312" s="21"/>
+      <c r="AD312" s="21"/>
+      <c r="AE312" s="21"/>
+      <c r="AF312" s="21"/>
+      <c r="AG312" s="21"/>
+      <c r="AH312" s="21">
+        <f>IF(ISBLANK($Z312),0, LOOKUP($Z312,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AA312/100)+
+IF(ISBLANK($AB312),0, LOOKUP($AB312,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AC312/100)+
+IF(ISBLANK($AD312),0, LOOKUP($AD312,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AE312/100)+
+IF(ISBLANK($AF312),0, LOOKUP($AF312,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*$AG312/100)</f>
+        <v>2500</v>
+      </c>
+      <c r="AI312" s="21">
+        <v>0</v>
+      </c>
+      <c r="AJ312" s="21">
+        <v>0</v>
+      </c>
+      <c r="AK312" s="21">
+        <v>0</v>
+      </c>
+      <c r="AL312" s="21">
+        <v>0</v>
+      </c>
+      <c r="AM312" s="21">
+        <v>0</v>
+      </c>
+      <c r="AN312" s="11" t="str">
+        <f t="shared" si="19"/>
+        <v>0;0;0;0;0</v>
+      </c>
+      <c r="AO312" s="21">
+        <v>0</v>
+      </c>
+      <c r="AP312" s="21">
+        <v>0</v>
+      </c>
+      <c r="AQ312" s="21">
+        <v>0</v>
+      </c>
+      <c r="AR312" s="21">
+        <v>0</v>
+      </c>
+      <c r="AS312" s="21">
+        <v>0</v>
+      </c>
+      <c r="AT312" s="21">
+        <v>0</v>
+      </c>
+      <c r="AU312" s="21">
+        <v>0</v>
+      </c>
+      <c r="AV312" s="21">
+        <v>0</v>
+      </c>
+      <c r="AW312" s="21">
+        <v>0</v>
+      </c>
+      <c r="AX312" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v>0;0;0;0;0;0;0;0;0</v>
+      </c>
+      <c r="AY312" s="57" t="s">
+        <v>1418</v>
+      </c>
+      <c r="AZ312" s="11">
+        <v>6</v>
+      </c>
+      <c r="BA312" s="11">
+        <v>309</v>
+      </c>
+      <c r="BB312" s="11"/>
+      <c r="BC312" s="24">
+        <v>0</v>
+      </c>
+      <c r="BD312" s="11">
+        <v>1</v>
+      </c>
+      <c r="BE312" s="11">
+        <v>0.40819670000000002</v>
+      </c>
+      <c r="BF312" s="11" t="s">
+        <v>1427</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="T4:T311">
-    <cfRule type="colorScale" priority="28">
+  <conditionalFormatting sqref="T4:T312">
+    <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -76378,17 +76603,43 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H311">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+  <conditionalFormatting sqref="H4:H312">
+    <cfRule type="cellIs" dxfId="141" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="7" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="8" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="138" priority="9" operator="greaterThanOrEqual">
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T312">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H312">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -78325,31 +78576,31 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="K4:K7 K10:K11">
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="76" priority="13" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="75" priority="12" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:J7">
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="74" priority="11" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="73" priority="10" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="5" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="72" priority="9" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
@@ -78367,13 +78618,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="71" priority="5" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="70" priority="4" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
@@ -78391,13 +78642,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="69" priority="2" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="68" priority="1" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>

--- a/ConfigData/Xlsx/Monster.xlsx
+++ b/ConfigData/Xlsx/Monster.xlsx
@@ -220,7 +220,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-主要是建筑类</t>
+主要是建筑类，回合数</t>
         </r>
       </text>
     </comment>
@@ -692,7 +692,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-主要是建筑类</t>
+主要是建筑类，回合数</t>
         </r>
       </text>
     </comment>
@@ -5499,14 +5499,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>LifeTime</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>哥布林巢穴</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -5527,6 +5519,14 @@
   </si>
   <si>
     <t>55000203;100</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LifeRound</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -6606,42 +6606,6 @@
   <dxfs count="140">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -7076,6 +7040,24 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -8825,6 +8807,24 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -9879,11 +9879,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="62134912"/>
-        <c:axId val="62133824"/>
+        <c:axId val="-1104899136"/>
+        <c:axId val="-1104895328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62134912"/>
+        <c:axId val="-1104899136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9926,7 +9926,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62133824"/>
+        <c:crossAx val="-1104895328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9934,7 +9934,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62133824"/>
+        <c:axId val="-1104895328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9985,7 +9985,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62134912"/>
+        <c:crossAx val="-1104899136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -22125,7 +22125,15 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:BF312" totalsRowShown="0" headerRowDxfId="131" dataDxfId="130" tableBorderDxfId="129">
-  <autoFilter ref="A3:BF312"/>
+  <autoFilter ref="A3:BF312">
+    <filterColumn colId="22">
+      <filters>
+        <filter val="120"/>
+        <filter val="60"/>
+        <filter val="90"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A4:AF311">
     <sortCondition ref="A3:A311"/>
   </sortState>
@@ -22156,7 +22164,7 @@
     </tableColumn>
     <tableColumn id="13" name="Range" dataDxfId="108"/>
     <tableColumn id="14" name="Mov" dataDxfId="107"/>
-    <tableColumn id="51" name="LifeTime" dataDxfId="106"/>
+    <tableColumn id="51" name="LifeRound" dataDxfId="106"/>
     <tableColumn id="16" name="Arrow" dataDxfId="105"/>
     <tableColumn id="18" name="Skills" dataDxfId="104"/>
     <tableColumn id="42" name="~Skill1" dataDxfId="103"/>
@@ -22167,130 +22175,130 @@
     <tableColumn id="47" name="~SkillRate3" dataDxfId="98"/>
     <tableColumn id="48" name="~Skill4" dataDxfId="97"/>
     <tableColumn id="49" name="~SkillRate4" dataDxfId="96"/>
-    <tableColumn id="54" name="~SkillMark" dataDxfId="1">
+    <tableColumn id="54" name="~SkillMark" dataDxfId="95">
       <calculatedColumnFormula>IF(ISBLANK($Z4),0, LOOKUP($Z4,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AA4/100)+
 IF(ISBLANK($AB4),0, LOOKUP($AB4,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC4/100)+
 IF(ISBLANK($AD4),0, LOOKUP($AD4,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE4/100)+
 IF(ISBLANK($AF4),0, LOOKUP($AF4,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG4/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="52" name="~AntiLife" dataDxfId="95"/>
-    <tableColumn id="57" name="~AntiMental" dataDxfId="94"/>
-    <tableColumn id="56" name="~AntiPhysical" dataDxfId="93"/>
-    <tableColumn id="55" name="~AntiElement" dataDxfId="92"/>
-    <tableColumn id="53" name="~AntiHelp" dataDxfId="91"/>
-    <tableColumn id="30" name="BuffImmune" dataDxfId="90">
+    <tableColumn id="52" name="~AntiLife" dataDxfId="94"/>
+    <tableColumn id="57" name="~AntiMental" dataDxfId="93"/>
+    <tableColumn id="56" name="~AntiPhysical" dataDxfId="92"/>
+    <tableColumn id="55" name="~AntiElement" dataDxfId="91"/>
+    <tableColumn id="53" name="~AntiHelp" dataDxfId="90"/>
+    <tableColumn id="30" name="BuffImmune" dataDxfId="89">
       <calculatedColumnFormula>CONCATENATE(AI4,";",AJ4,";",AK4,";",AL4,";",AM4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="~AntiNull" dataDxfId="89"/>
-    <tableColumn id="11" name="~AntiWater" dataDxfId="88"/>
-    <tableColumn id="26" name="~AntiWind" dataDxfId="87"/>
-    <tableColumn id="27" name="~AntiFire" dataDxfId="86"/>
-    <tableColumn id="37" name="~AntiEarth" dataDxfId="85"/>
-    <tableColumn id="38" name="~AntiIce" dataDxfId="84"/>
-    <tableColumn id="39" name="~AntiThunder" dataDxfId="83"/>
-    <tableColumn id="40" name="~AntiLight" dataDxfId="82"/>
-    <tableColumn id="41" name="~AntiDark" dataDxfId="81"/>
-    <tableColumn id="31" name="AttrDef" dataDxfId="80">
+    <tableColumn id="8" name="~AntiNull" dataDxfId="88"/>
+    <tableColumn id="11" name="~AntiWater" dataDxfId="87"/>
+    <tableColumn id="26" name="~AntiWind" dataDxfId="86"/>
+    <tableColumn id="27" name="~AntiFire" dataDxfId="85"/>
+    <tableColumn id="37" name="~AntiEarth" dataDxfId="84"/>
+    <tableColumn id="38" name="~AntiIce" dataDxfId="83"/>
+    <tableColumn id="39" name="~AntiThunder" dataDxfId="82"/>
+    <tableColumn id="40" name="~AntiLight" dataDxfId="81"/>
+    <tableColumn id="41" name="~AntiDark" dataDxfId="80"/>
+    <tableColumn id="31" name="AttrDef" dataDxfId="79">
       <calculatedColumnFormula>CONCATENATE(AO4,";",AP4,";",AQ4,";",AR4,";",AS4,";",AT4,";",AU4,";",AV4,";",AW4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="50" name="IsBuilding" dataDxfId="79"/>
-    <tableColumn id="20" name="Res" dataDxfId="78"/>
-    <tableColumn id="21" name="Icon" dataDxfId="77"/>
-    <tableColumn id="17" name="Cover" dataDxfId="76"/>
-    <tableColumn id="15" name="IsSpecial" dataDxfId="75"/>
-    <tableColumn id="28" name="IsNew" dataDxfId="74"/>
-    <tableColumn id="19" name="VsMark" dataDxfId="73"/>
-    <tableColumn id="29" name="Remark" dataDxfId="72"/>
+    <tableColumn id="50" name="IsBuilding" dataDxfId="78"/>
+    <tableColumn id="20" name="Res" dataDxfId="77"/>
+    <tableColumn id="21" name="Icon" dataDxfId="76"/>
+    <tableColumn id="17" name="Cover" dataDxfId="75"/>
+    <tableColumn id="15" name="IsSpecial" dataDxfId="74"/>
+    <tableColumn id="28" name="IsNew" dataDxfId="73"/>
+    <tableColumn id="19" name="VsMark" dataDxfId="72"/>
+    <tableColumn id="29" name="Remark" dataDxfId="71"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表1_5" displayName="表1_5" ref="A3:BF11" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61" tableBorderDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表1_5" displayName="表1_5" ref="A3:BF11" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60" tableBorderDxfId="59">
   <autoFilter ref="A3:BF11"/>
   <sortState ref="A4:AF311">
     <sortCondition ref="A3:A311"/>
   </sortState>
   <tableColumns count="58">
-    <tableColumn id="1" name="Id" dataDxfId="59"/>
-    <tableColumn id="2" name="Name" dataDxfId="58"/>
-    <tableColumn id="22" name="Ename" dataDxfId="57"/>
-    <tableColumn id="23" name="EnameShort" dataDxfId="56"/>
-    <tableColumn id="3" name="Star" dataDxfId="55"/>
-    <tableColumn id="4" name="Type" dataDxfId="54"/>
-    <tableColumn id="5" name="Attr" dataDxfId="53"/>
-    <tableColumn id="58" name="Quality" dataDxfId="52">
+    <tableColumn id="1" name="Id" dataDxfId="58"/>
+    <tableColumn id="2" name="Name" dataDxfId="57"/>
+    <tableColumn id="22" name="Ename" dataDxfId="56"/>
+    <tableColumn id="23" name="EnameShort" dataDxfId="55"/>
+    <tableColumn id="3" name="Star" dataDxfId="54"/>
+    <tableColumn id="4" name="Type" dataDxfId="53"/>
+    <tableColumn id="5" name="Attr" dataDxfId="52"/>
+    <tableColumn id="58" name="Quality" dataDxfId="51">
       <calculatedColumnFormula>IF(T4&gt;10,5,IF(T4&gt;5,4,IF(T4&gt;2.5,3,IF(T4&gt;0,2,IF(T4&gt;-2.5,1,IF(T4&gt;-10,0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Cost" dataDxfId="51"/>
-    <tableColumn id="6" name="AtkP" dataDxfId="50"/>
-    <tableColumn id="24" name="VitP" dataDxfId="49"/>
-    <tableColumn id="25" name="Modify" dataDxfId="48"/>
-    <tableColumn id="9" name="Def" dataDxfId="47"/>
-    <tableColumn id="10" name="Mag" dataDxfId="46"/>
-    <tableColumn id="32" name="Spd" dataDxfId="45"/>
-    <tableColumn id="35" name="Hit" dataDxfId="44"/>
-    <tableColumn id="36" name="Dhit" dataDxfId="43"/>
-    <tableColumn id="34" name="Crt" dataDxfId="42"/>
-    <tableColumn id="33" name="Luk" dataDxfId="41"/>
-    <tableColumn id="7" name="Sum" dataDxfId="40">
+    <tableColumn id="12" name="Cost" dataDxfId="50"/>
+    <tableColumn id="6" name="AtkP" dataDxfId="49"/>
+    <tableColumn id="24" name="VitP" dataDxfId="48"/>
+    <tableColumn id="25" name="Modify" dataDxfId="47"/>
+    <tableColumn id="9" name="Def" dataDxfId="46"/>
+    <tableColumn id="10" name="Mag" dataDxfId="45"/>
+    <tableColumn id="32" name="Spd" dataDxfId="44"/>
+    <tableColumn id="35" name="Hit" dataDxfId="43"/>
+    <tableColumn id="36" name="Dhit" dataDxfId="42"/>
+    <tableColumn id="34" name="Crt" dataDxfId="41"/>
+    <tableColumn id="33" name="Luk" dataDxfId="40"/>
+    <tableColumn id="7" name="Sum" dataDxfId="39">
       <calculatedColumnFormula>SUM(J4:K4)+SUM(M4:S4)*5+4.4*SUM(AO4:AW4)+2.5*SUM(AI4:AM4)+AH4/100+L4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Range" dataDxfId="39"/>
-    <tableColumn id="14" name="Mov" dataDxfId="38"/>
-    <tableColumn id="60" name="LifeTime" dataDxfId="37"/>
-    <tableColumn id="16" name="Arrow" dataDxfId="36"/>
-    <tableColumn id="18" name="Skills" dataDxfId="35"/>
-    <tableColumn id="42" name="~Skill1" dataDxfId="34"/>
-    <tableColumn id="43" name="~SkillRate1" dataDxfId="33"/>
-    <tableColumn id="44" name="~Skill2" dataDxfId="32"/>
-    <tableColumn id="45" name="~SkillRate2" dataDxfId="31"/>
-    <tableColumn id="46" name="~Skill3" dataDxfId="30"/>
-    <tableColumn id="47" name="~SkillRate3" dataDxfId="29"/>
-    <tableColumn id="48" name="~Skill4" dataDxfId="28"/>
-    <tableColumn id="49" name="~SkillRate4" dataDxfId="27"/>
-    <tableColumn id="54" name="~SkillMark" dataDxfId="0">
+    <tableColumn id="13" name="Range" dataDxfId="38"/>
+    <tableColumn id="14" name="Mov" dataDxfId="37"/>
+    <tableColumn id="60" name="LifeRound" dataDxfId="36"/>
+    <tableColumn id="16" name="Arrow" dataDxfId="35"/>
+    <tableColumn id="18" name="Skills" dataDxfId="34"/>
+    <tableColumn id="42" name="~Skill1" dataDxfId="33"/>
+    <tableColumn id="43" name="~SkillRate1" dataDxfId="32"/>
+    <tableColumn id="44" name="~Skill2" dataDxfId="31"/>
+    <tableColumn id="45" name="~SkillRate2" dataDxfId="30"/>
+    <tableColumn id="46" name="~Skill3" dataDxfId="29"/>
+    <tableColumn id="47" name="~SkillRate3" dataDxfId="28"/>
+    <tableColumn id="48" name="~Skill4" dataDxfId="27"/>
+    <tableColumn id="49" name="~SkillRate4" dataDxfId="26"/>
+    <tableColumn id="54" name="~SkillMark" dataDxfId="25">
       <calculatedColumnFormula>IF(ISBLANK($Z4),0, LOOKUP($Z4,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AA4/100)+
 IF(ISBLANK($AB4),0, LOOKUP($AB4,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC4/100)+
 IF(ISBLANK($AD4),0, LOOKUP($AD4,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE4/100)+
 IF(ISBLANK($AF4),0, LOOKUP($AF4,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG4/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="52" name="~AntiLife" dataDxfId="26"/>
-    <tableColumn id="57" name="~AntiMental" dataDxfId="25"/>
-    <tableColumn id="56" name="~AntiPhysical" dataDxfId="24"/>
-    <tableColumn id="55" name="~AntiElement" dataDxfId="23"/>
-    <tableColumn id="53" name="~AntiHelp" dataDxfId="22"/>
-    <tableColumn id="30" name="BuffImmune" dataDxfId="21">
+    <tableColumn id="52" name="~AntiLife" dataDxfId="24"/>
+    <tableColumn id="57" name="~AntiMental" dataDxfId="23"/>
+    <tableColumn id="56" name="~AntiPhysical" dataDxfId="22"/>
+    <tableColumn id="55" name="~AntiElement" dataDxfId="21"/>
+    <tableColumn id="53" name="~AntiHelp" dataDxfId="20"/>
+    <tableColumn id="30" name="BuffImmune" dataDxfId="19">
       <calculatedColumnFormula>CONCATENATE(AI4,";",AJ4,";",AK4,";",AL4,";",AM4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="~AntiNull" dataDxfId="20"/>
-    <tableColumn id="11" name="~AntiWater" dataDxfId="19"/>
-    <tableColumn id="26" name="~AntiWind" dataDxfId="18"/>
-    <tableColumn id="27" name="~AntiFire" dataDxfId="17"/>
-    <tableColumn id="37" name="~AntiEarth" dataDxfId="16"/>
-    <tableColumn id="38" name="~AntiIce" dataDxfId="15"/>
-    <tableColumn id="39" name="~AntiThunder" dataDxfId="14"/>
-    <tableColumn id="40" name="~AntiLight" dataDxfId="13"/>
-    <tableColumn id="41" name="~AntiDark" dataDxfId="12"/>
-    <tableColumn id="31" name="AttrDef" dataDxfId="11">
+    <tableColumn id="8" name="~AntiNull" dataDxfId="18"/>
+    <tableColumn id="11" name="~AntiWater" dataDxfId="17"/>
+    <tableColumn id="26" name="~AntiWind" dataDxfId="16"/>
+    <tableColumn id="27" name="~AntiFire" dataDxfId="15"/>
+    <tableColumn id="37" name="~AntiEarth" dataDxfId="14"/>
+    <tableColumn id="38" name="~AntiIce" dataDxfId="13"/>
+    <tableColumn id="39" name="~AntiThunder" dataDxfId="12"/>
+    <tableColumn id="40" name="~AntiLight" dataDxfId="11"/>
+    <tableColumn id="41" name="~AntiDark" dataDxfId="10"/>
+    <tableColumn id="31" name="AttrDef" dataDxfId="9">
       <calculatedColumnFormula>CONCATENATE(AO4,";",AP4,";",AQ4,";",AR4,";",AS4,";",AT4,";",AU4,";",AV4,";",AW4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="59" name="IsBuilding" dataDxfId="10"/>
-    <tableColumn id="20" name="Res" dataDxfId="9"/>
-    <tableColumn id="21" name="Icon" dataDxfId="8"/>
-    <tableColumn id="17" name="Cover" dataDxfId="7"/>
-    <tableColumn id="15" name="IsSpecial" dataDxfId="6"/>
-    <tableColumn id="28" name="IsNew" dataDxfId="5"/>
-    <tableColumn id="19" name="VsMark" dataDxfId="4"/>
-    <tableColumn id="29" name="Remark" dataDxfId="3"/>
+    <tableColumn id="59" name="IsBuilding" dataDxfId="8"/>
+    <tableColumn id="20" name="Res" dataDxfId="7"/>
+    <tableColumn id="21" name="Icon" dataDxfId="6"/>
+    <tableColumn id="17" name="Cover" dataDxfId="5"/>
+    <tableColumn id="15" name="IsSpecial" dataDxfId="4"/>
+    <tableColumn id="28" name="IsNew" dataDxfId="3"/>
+    <tableColumn id="19" name="VsMark" dataDxfId="2"/>
+    <tableColumn id="29" name="Remark" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:I15" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:I15" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A1:I15"/>
   <tableColumns count="9">
     <tableColumn id="1" name="星级"/>
@@ -22597,10 +22605,10 @@
   <dimension ref="A1:BF312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="AG197" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BF202" sqref="BF202"/>
+      <selection pane="bottomRight" activeCell="W312" sqref="W312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -22876,7 +22884,7 @@
         <v>1141</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>1417</v>
+        <v>1423</v>
       </c>
       <c r="X2" s="2" t="s">
         <v>296</v>
@@ -23052,7 +23060,7 @@
         <v>1143</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>1418</v>
+        <v>1424</v>
       </c>
       <c r="X3" s="6" t="s">
         <v>306</v>
@@ -23160,7 +23168,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="4" spans="1:58" ht="14.25">
+    <row r="4" spans="1:58" ht="14.25" hidden="1">
       <c r="A4">
         <v>51000001</v>
       </c>
@@ -23324,7 +23332,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="5" spans="1:58" ht="14.25">
+    <row r="5" spans="1:58" ht="14.25" hidden="1">
       <c r="A5">
         <v>51000002</v>
       </c>
@@ -23498,7 +23506,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="6" spans="1:58" ht="14.25">
+    <row r="6" spans="1:58" ht="14.25" hidden="1">
       <c r="A6">
         <v>51000003</v>
       </c>
@@ -23668,7 +23676,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="7" spans="1:58" ht="14.25">
+    <row r="7" spans="1:58" ht="14.25" hidden="1">
       <c r="A7">
         <v>51000004</v>
       </c>
@@ -23908,7 +23916,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="4">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="X8" s="4" t="s">
         <v>9</v>
@@ -24002,7 +24010,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="9" spans="1:58" ht="14.25">
+    <row r="9" spans="1:58" ht="14.25" hidden="1">
       <c r="A9">
         <v>51000006</v>
       </c>
@@ -24172,7 +24180,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="10" spans="1:58" ht="14.25">
+    <row r="10" spans="1:58" ht="14.25" hidden="1">
       <c r="A10">
         <v>51000007</v>
       </c>
@@ -24342,7 +24350,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="11" spans="1:58" ht="14.25">
+    <row r="11" spans="1:58" ht="14.25" hidden="1">
       <c r="A11">
         <v>51000008</v>
       </c>
@@ -24512,7 +24520,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="12" spans="1:58" ht="14.25">
+    <row r="12" spans="1:58" ht="14.25" hidden="1">
       <c r="A12">
         <v>51000009</v>
       </c>
@@ -24686,7 +24694,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="13" spans="1:58" ht="14.25">
+    <row r="13" spans="1:58" ht="14.25" hidden="1">
       <c r="A13">
         <v>51000010</v>
       </c>
@@ -24850,7 +24858,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="14" spans="1:58" ht="14.25">
+    <row r="14" spans="1:58" ht="14.25" hidden="1">
       <c r="A14">
         <v>51000011</v>
       </c>
@@ -25028,7 +25036,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="15" spans="1:58" ht="14.25">
+    <row r="15" spans="1:58" ht="14.25" hidden="1">
       <c r="A15">
         <v>51000012</v>
       </c>
@@ -25192,7 +25200,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="16" spans="1:58" ht="14.25">
+    <row r="16" spans="1:58" ht="14.25" hidden="1">
       <c r="A16">
         <v>51000013</v>
       </c>
@@ -25356,7 +25364,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="17" spans="1:58" ht="14.25">
+    <row r="17" spans="1:58" ht="14.25" hidden="1">
       <c r="A17">
         <v>51000014</v>
       </c>
@@ -25520,7 +25528,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="18" spans="1:58" ht="14.25">
+    <row r="18" spans="1:58" ht="14.25" hidden="1">
       <c r="A18">
         <v>51000015</v>
       </c>
@@ -25684,7 +25692,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="19" spans="1:58" ht="14.25">
+    <row r="19" spans="1:58" ht="14.25" hidden="1">
       <c r="A19">
         <v>51000016</v>
       </c>
@@ -25848,7 +25856,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="20" spans="1:58" ht="14.25">
+    <row r="20" spans="1:58" ht="14.25" hidden="1">
       <c r="A20">
         <v>51000017</v>
       </c>
@@ -26012,7 +26020,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="21" spans="1:58" ht="14.25">
+    <row r="21" spans="1:58" ht="14.25" hidden="1">
       <c r="A21">
         <v>51000018</v>
       </c>
@@ -26176,7 +26184,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="22" spans="1:58" ht="14.25">
+    <row r="22" spans="1:58" ht="14.25" hidden="1">
       <c r="A22">
         <v>51000019</v>
       </c>
@@ -26340,7 +26348,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="23" spans="1:58" ht="14.25">
+    <row r="23" spans="1:58" ht="14.25" hidden="1">
       <c r="A23">
         <v>51000020</v>
       </c>
@@ -26504,7 +26512,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="24" spans="1:58" ht="14.25">
+    <row r="24" spans="1:58" ht="14.25" hidden="1">
       <c r="A24">
         <v>51000021</v>
       </c>
@@ -26674,7 +26682,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="25" spans="1:58" ht="14.25">
+    <row r="25" spans="1:58" ht="14.25" hidden="1">
       <c r="A25">
         <v>51000022</v>
       </c>
@@ -26852,7 +26860,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="26" spans="1:58" ht="14.25">
+    <row r="26" spans="1:58" ht="14.25" hidden="1">
       <c r="A26">
         <v>51000023</v>
       </c>
@@ -27016,7 +27024,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="27" spans="1:58" ht="14.25">
+    <row r="27" spans="1:58" ht="14.25" hidden="1">
       <c r="A27">
         <v>51000024</v>
       </c>
@@ -27186,7 +27194,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="28" spans="1:58" ht="14.25">
+    <row r="28" spans="1:58" ht="14.25" hidden="1">
       <c r="A28">
         <v>51000025</v>
       </c>
@@ -27356,7 +27364,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="29" spans="1:58" ht="14.25">
+    <row r="29" spans="1:58" ht="14.25" hidden="1">
       <c r="A29">
         <v>51000026</v>
       </c>
@@ -27526,7 +27534,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="30" spans="1:58" ht="14.25">
+    <row r="30" spans="1:58" ht="14.25" hidden="1">
       <c r="A30">
         <v>51000027</v>
       </c>
@@ -27690,7 +27698,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="31" spans="1:58" ht="14.25">
+    <row r="31" spans="1:58" ht="14.25" hidden="1">
       <c r="A31">
         <v>51000028</v>
       </c>
@@ -27864,7 +27872,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="32" spans="1:58" ht="14.25">
+    <row r="32" spans="1:58" ht="14.25" hidden="1">
       <c r="A32">
         <v>51000029</v>
       </c>
@@ -28042,7 +28050,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="33" spans="1:58" ht="14.25">
+    <row r="33" spans="1:58" ht="14.25" hidden="1">
       <c r="A33">
         <v>51000030</v>
       </c>
@@ -28206,7 +28214,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="34" spans="1:58" ht="14.25">
+    <row r="34" spans="1:58" ht="14.25" hidden="1">
       <c r="A34">
         <v>51000031</v>
       </c>
@@ -28376,7 +28384,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="35" spans="1:58" ht="14.25">
+    <row r="35" spans="1:58" ht="14.25" hidden="1">
       <c r="A35">
         <v>51000032</v>
       </c>
@@ -28546,7 +28554,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="36" spans="1:58" ht="14.25">
+    <row r="36" spans="1:58" ht="14.25" hidden="1">
       <c r="A36">
         <v>51000033</v>
       </c>
@@ -28720,7 +28728,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="37" spans="1:58" ht="14.25">
+    <row r="37" spans="1:58" ht="14.25" hidden="1">
       <c r="A37">
         <v>51000034</v>
       </c>
@@ -28890,7 +28898,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="38" spans="1:58" ht="14.25">
+    <row r="38" spans="1:58" ht="14.25" hidden="1">
       <c r="A38">
         <v>51000035</v>
       </c>
@@ -29054,7 +29062,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="39" spans="1:58" ht="14.25">
+    <row r="39" spans="1:58" ht="14.25" hidden="1">
       <c r="A39">
         <v>51000036</v>
       </c>
@@ -29218,7 +29226,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="40" spans="1:58" ht="14.25">
+    <row r="40" spans="1:58" ht="14.25" hidden="1">
       <c r="A40">
         <v>51000037</v>
       </c>
@@ -29382,7 +29390,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="41" spans="1:58" ht="14.25">
+    <row r="41" spans="1:58" ht="14.25" hidden="1">
       <c r="A41">
         <v>51000038</v>
       </c>
@@ -29552,7 +29560,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="42" spans="1:58" ht="14.25">
+    <row r="42" spans="1:58" ht="14.25" hidden="1">
       <c r="A42">
         <v>51000039</v>
       </c>
@@ -29726,7 +29734,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="43" spans="1:58" ht="14.25">
+    <row r="43" spans="1:58" ht="14.25" hidden="1">
       <c r="A43">
         <v>51000040</v>
       </c>
@@ -29896,7 +29904,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="44" spans="1:58" ht="14.25">
+    <row r="44" spans="1:58" ht="14.25" hidden="1">
       <c r="A44">
         <v>51000041</v>
       </c>
@@ -30070,7 +30078,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="45" spans="1:58" ht="14.25">
+    <row r="45" spans="1:58" ht="14.25" hidden="1">
       <c r="A45">
         <v>51000042</v>
       </c>
@@ -30244,7 +30252,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="46" spans="1:58" ht="14.25">
+    <row r="46" spans="1:58" ht="14.25" hidden="1">
       <c r="A46">
         <v>51000043</v>
       </c>
@@ -30418,7 +30426,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="47" spans="1:58" ht="14.25">
+    <row r="47" spans="1:58" ht="14.25" hidden="1">
       <c r="A47">
         <v>51000044</v>
       </c>
@@ -30588,7 +30596,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="48" spans="1:58" ht="14.25">
+    <row r="48" spans="1:58" ht="14.25" hidden="1">
       <c r="A48">
         <v>51000045</v>
       </c>
@@ -30758,7 +30766,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="49" spans="1:58" ht="14.25">
+    <row r="49" spans="1:58" ht="14.25" hidden="1">
       <c r="A49">
         <v>51000046</v>
       </c>
@@ -30928,7 +30936,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="50" spans="1:58" ht="14.25">
+    <row r="50" spans="1:58" ht="14.25" hidden="1">
       <c r="A50">
         <v>51000047</v>
       </c>
@@ -31102,7 +31110,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="51" spans="1:58" ht="14.25">
+    <row r="51" spans="1:58" ht="14.25" hidden="1">
       <c r="A51">
         <v>51000048</v>
       </c>
@@ -31276,7 +31284,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="52" spans="1:58" ht="14.25">
+    <row r="52" spans="1:58" ht="14.25" hidden="1">
       <c r="A52">
         <v>51000049</v>
       </c>
@@ -31352,7 +31360,7 @@
         <v>9</v>
       </c>
       <c r="Y52" s="4" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="Z52" s="43">
         <v>55000084</v>
@@ -31446,7 +31454,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="53" spans="1:58" ht="14.25">
+    <row r="53" spans="1:58" ht="14.25" hidden="1">
       <c r="A53">
         <v>51000050</v>
       </c>
@@ -31616,7 +31624,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="54" spans="1:58" ht="14.25">
+    <row r="54" spans="1:58" ht="14.25" hidden="1">
       <c r="A54">
         <v>51000051</v>
       </c>
@@ -31786,7 +31794,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="55" spans="1:58" ht="14.25">
+    <row r="55" spans="1:58" ht="14.25" hidden="1">
       <c r="A55">
         <v>51000052</v>
       </c>
@@ -31956,7 +31964,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="56" spans="1:58" ht="14.25">
+    <row r="56" spans="1:58" ht="14.25" hidden="1">
       <c r="A56">
         <v>51000053</v>
       </c>
@@ -32126,7 +32134,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="57" spans="1:58" ht="14.25">
+    <row r="57" spans="1:58" ht="14.25" hidden="1">
       <c r="A57">
         <v>51000054</v>
       </c>
@@ -32300,7 +32308,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="58" spans="1:58" ht="14.25">
+    <row r="58" spans="1:58" ht="14.25" hidden="1">
       <c r="A58">
         <v>51000055</v>
       </c>
@@ -32470,7 +32478,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="59" spans="1:58" ht="14.25">
+    <row r="59" spans="1:58" ht="14.25" hidden="1">
       <c r="A59">
         <v>51000056</v>
       </c>
@@ -32640,7 +32648,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="60" spans="1:58" ht="14.25">
+    <row r="60" spans="1:58" ht="14.25" hidden="1">
       <c r="A60">
         <v>51000057</v>
       </c>
@@ -32810,7 +32818,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="61" spans="1:58" ht="14.25">
+    <row r="61" spans="1:58" ht="14.25" hidden="1">
       <c r="A61">
         <v>51000058</v>
       </c>
@@ -32980,7 +32988,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="62" spans="1:58" ht="14.25">
+    <row r="62" spans="1:58" ht="14.25" hidden="1">
       <c r="A62">
         <v>51000059</v>
       </c>
@@ -33150,7 +33158,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="63" spans="1:58" ht="14.25">
+    <row r="63" spans="1:58" ht="14.25" hidden="1">
       <c r="A63">
         <v>51000060</v>
       </c>
@@ -33320,7 +33328,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="64" spans="1:58" ht="14.25">
+    <row r="64" spans="1:58" ht="14.25" hidden="1">
       <c r="A64">
         <v>51000061</v>
       </c>
@@ -33484,7 +33492,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="65" spans="1:58" ht="14.25">
+    <row r="65" spans="1:58" ht="14.25" hidden="1">
       <c r="A65">
         <v>51000062</v>
       </c>
@@ -33648,7 +33656,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="66" spans="1:58" ht="14.25">
+    <row r="66" spans="1:58" ht="14.25" hidden="1">
       <c r="A66">
         <v>51000063</v>
       </c>
@@ -33812,7 +33820,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="67" spans="1:58" ht="14.25">
+    <row r="67" spans="1:58" ht="14.25" hidden="1">
       <c r="A67">
         <v>51000064</v>
       </c>
@@ -33986,7 +33994,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="68" spans="1:58" ht="14.25">
+    <row r="68" spans="1:58" ht="14.25" hidden="1">
       <c r="A68">
         <v>51000065</v>
       </c>
@@ -34170,7 +34178,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="69" spans="1:58" ht="14.25">
+    <row r="69" spans="1:58" ht="14.25" hidden="1">
       <c r="A69">
         <v>51000066</v>
       </c>
@@ -34348,7 +34356,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="70" spans="1:58" ht="14.25">
+    <row r="70" spans="1:58" ht="14.25" hidden="1">
       <c r="A70">
         <v>51000067</v>
       </c>
@@ -34526,7 +34534,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="71" spans="1:58" ht="14.25">
+    <row r="71" spans="1:58" ht="14.25" hidden="1">
       <c r="A71">
         <v>51000068</v>
       </c>
@@ -34700,7 +34708,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="72" spans="1:58" ht="14.25">
+    <row r="72" spans="1:58" ht="14.25" hidden="1">
       <c r="A72">
         <v>51000069</v>
       </c>
@@ -34874,7 +34882,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="73" spans="1:58" ht="14.25">
+    <row r="73" spans="1:58" ht="14.25" hidden="1">
       <c r="A73">
         <v>51000070</v>
       </c>
@@ -35048,7 +35056,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="74" spans="1:58" ht="14.25">
+    <row r="74" spans="1:58" ht="14.25" hidden="1">
       <c r="A74">
         <v>51000071</v>
       </c>
@@ -35222,7 +35230,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="75" spans="1:58" ht="14.25">
+    <row r="75" spans="1:58" ht="14.25" hidden="1">
       <c r="A75">
         <v>51000072</v>
       </c>
@@ -35396,7 +35404,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="76" spans="1:58" ht="14.25">
+    <row r="76" spans="1:58" ht="14.25" hidden="1">
       <c r="A76">
         <v>51000073</v>
       </c>
@@ -35570,7 +35578,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="77" spans="1:58" ht="14.25">
+    <row r="77" spans="1:58" ht="14.25" hidden="1">
       <c r="A77">
         <v>51000074</v>
       </c>
@@ -35740,7 +35748,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="78" spans="1:58" ht="14.25">
+    <row r="78" spans="1:58" ht="14.25" hidden="1">
       <c r="A78">
         <v>51000075</v>
       </c>
@@ -35914,7 +35922,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="79" spans="1:58" ht="14.25">
+    <row r="79" spans="1:58" ht="14.25" hidden="1">
       <c r="A79">
         <v>51000076</v>
       </c>
@@ -36078,7 +36086,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="80" spans="1:58" ht="14.25">
+    <row r="80" spans="1:58" ht="14.25" hidden="1">
       <c r="A80">
         <v>51000077</v>
       </c>
@@ -36242,7 +36250,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="81" spans="1:58" ht="14.25">
+    <row r="81" spans="1:58" ht="14.25" hidden="1">
       <c r="A81">
         <v>51000078</v>
       </c>
@@ -36416,7 +36424,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="82" spans="1:58" ht="14.25">
+    <row r="82" spans="1:58" ht="14.25" hidden="1">
       <c r="A82">
         <v>51000079</v>
       </c>
@@ -36590,7 +36598,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="83" spans="1:58" ht="14.25">
+    <row r="83" spans="1:58" ht="14.25" hidden="1">
       <c r="A83">
         <v>51000080</v>
       </c>
@@ -36764,7 +36772,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="84" spans="1:58" ht="14.25">
+    <row r="84" spans="1:58" ht="14.25" hidden="1">
       <c r="A84">
         <v>51000081</v>
       </c>
@@ -36934,7 +36942,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="85" spans="1:58" ht="14.25">
+    <row r="85" spans="1:58" ht="14.25" hidden="1">
       <c r="A85">
         <v>51000082</v>
       </c>
@@ -37112,7 +37120,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="86" spans="1:58" ht="14.25">
+    <row r="86" spans="1:58" ht="14.25" hidden="1">
       <c r="A86">
         <v>51000083</v>
       </c>
@@ -37286,7 +37294,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="87" spans="1:58" ht="14.25">
+    <row r="87" spans="1:58" ht="14.25" hidden="1">
       <c r="A87">
         <v>51000084</v>
       </c>
@@ -37460,7 +37468,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="88" spans="1:58" ht="14.25">
+    <row r="88" spans="1:58" ht="14.25" hidden="1">
       <c r="A88">
         <v>51000085</v>
       </c>
@@ -37634,7 +37642,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="89" spans="1:58" ht="14.25">
+    <row r="89" spans="1:58" ht="14.25" hidden="1">
       <c r="A89">
         <v>51000086</v>
       </c>
@@ -37808,7 +37816,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="90" spans="1:58" ht="14.25">
+    <row r="90" spans="1:58" ht="14.25" hidden="1">
       <c r="A90">
         <v>51000087</v>
       </c>
@@ -37982,7 +37990,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="91" spans="1:58" ht="14.25">
+    <row r="91" spans="1:58" ht="14.25" hidden="1">
       <c r="A91">
         <v>51000088</v>
       </c>
@@ -38156,7 +38164,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="92" spans="1:58" ht="14.25">
+    <row r="92" spans="1:58" ht="14.25" hidden="1">
       <c r="A92">
         <v>51000089</v>
       </c>
@@ -38330,7 +38338,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="93" spans="1:58" ht="14.25">
+    <row r="93" spans="1:58" ht="14.25" hidden="1">
       <c r="A93">
         <v>51000090</v>
       </c>
@@ -38504,7 +38512,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="94" spans="1:58" ht="14.25">
+    <row r="94" spans="1:58" ht="14.25" hidden="1">
       <c r="A94">
         <v>51000091</v>
       </c>
@@ -38678,7 +38686,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="95" spans="1:58" ht="14.25">
+    <row r="95" spans="1:58" ht="14.25" hidden="1">
       <c r="A95">
         <v>51000092</v>
       </c>
@@ -38852,7 +38860,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="96" spans="1:58" ht="14.25">
+    <row r="96" spans="1:58" ht="14.25" hidden="1">
       <c r="A96">
         <v>51000093</v>
       </c>
@@ -39026,7 +39034,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="97" spans="1:58" ht="14.25">
+    <row r="97" spans="1:58" ht="14.25" hidden="1">
       <c r="A97">
         <v>51000094</v>
       </c>
@@ -39204,7 +39212,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="98" spans="1:58" ht="14.25">
+    <row r="98" spans="1:58" ht="14.25" hidden="1">
       <c r="A98">
         <v>51000095</v>
       </c>
@@ -39374,7 +39382,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="99" spans="1:58" ht="14.25">
+    <row r="99" spans="1:58" ht="14.25" hidden="1">
       <c r="A99">
         <v>51000096</v>
       </c>
@@ -39548,7 +39556,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="100" spans="1:58" ht="14.25">
+    <row r="100" spans="1:58" ht="14.25" hidden="1">
       <c r="A100">
         <v>51000097</v>
       </c>
@@ -39732,7 +39740,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="101" spans="1:58" ht="14.25">
+    <row r="101" spans="1:58" ht="14.25" hidden="1">
       <c r="A101">
         <v>51000098</v>
       </c>
@@ -39906,7 +39914,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="102" spans="1:58" ht="14.25">
+    <row r="102" spans="1:58" ht="14.25" hidden="1">
       <c r="A102">
         <v>51000099</v>
       </c>
@@ -40084,7 +40092,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="103" spans="1:58" ht="14.25">
+    <row r="103" spans="1:58" ht="14.25" hidden="1">
       <c r="A103">
         <v>51000100</v>
       </c>
@@ -40254,7 +40262,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="104" spans="1:58" ht="14.25">
+    <row r="104" spans="1:58" ht="14.25" hidden="1">
       <c r="A104">
         <v>51000101</v>
       </c>
@@ -40428,7 +40436,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="105" spans="1:58" ht="14.25">
+    <row r="105" spans="1:58" ht="14.25" hidden="1">
       <c r="A105">
         <v>51000102</v>
       </c>
@@ -40602,7 +40610,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="106" spans="1:58" ht="14.25">
+    <row r="106" spans="1:58" ht="14.25" hidden="1">
       <c r="A106">
         <v>51000103</v>
       </c>
@@ -40772,7 +40780,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="107" spans="1:58" ht="14.25">
+    <row r="107" spans="1:58" ht="14.25" hidden="1">
       <c r="A107">
         <v>51000104</v>
       </c>
@@ -40942,7 +40950,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="108" spans="1:58" ht="14.25">
+    <row r="108" spans="1:58" ht="14.25" hidden="1">
       <c r="A108">
         <v>51000105</v>
       </c>
@@ -41120,7 +41128,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="109" spans="1:58" ht="14.25">
+    <row r="109" spans="1:58" ht="14.25" hidden="1">
       <c r="A109">
         <v>51000106</v>
       </c>
@@ -41290,7 +41298,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="110" spans="1:58" ht="14.25">
+    <row r="110" spans="1:58" ht="14.25" hidden="1">
       <c r="A110">
         <v>51000107</v>
       </c>
@@ -41464,7 +41472,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="111" spans="1:58" ht="14.25">
+    <row r="111" spans="1:58" ht="14.25" hidden="1">
       <c r="A111">
         <v>51000108</v>
       </c>
@@ -41634,7 +41642,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="112" spans="1:58" ht="14.25">
+    <row r="112" spans="1:58" ht="14.25" hidden="1">
       <c r="A112">
         <v>51000109</v>
       </c>
@@ -41808,7 +41816,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="113" spans="1:58" ht="14.25">
+    <row r="113" spans="1:58" ht="14.25" hidden="1">
       <c r="A113">
         <v>51000110</v>
       </c>
@@ -41982,7 +41990,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="114" spans="1:58" ht="14.25">
+    <row r="114" spans="1:58" ht="14.25" hidden="1">
       <c r="A114">
         <v>51000111</v>
       </c>
@@ -42166,7 +42174,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="115" spans="1:58" ht="14.25">
+    <row r="115" spans="1:58" ht="14.25" hidden="1">
       <c r="A115">
         <v>51000112</v>
       </c>
@@ -42350,7 +42358,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="116" spans="1:58" ht="14.25">
+    <row r="116" spans="1:58" ht="14.25" hidden="1">
       <c r="A116">
         <v>51000113</v>
       </c>
@@ -42534,7 +42542,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="117" spans="1:58" ht="14.25">
+    <row r="117" spans="1:58" ht="14.25" hidden="1">
       <c r="A117">
         <v>51000114</v>
       </c>
@@ -42708,7 +42716,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="118" spans="1:58" ht="14.25">
+    <row r="118" spans="1:58" ht="14.25" hidden="1">
       <c r="A118">
         <v>51000115</v>
       </c>
@@ -42892,7 +42900,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="119" spans="1:58" ht="14.25">
+    <row r="119" spans="1:58" ht="14.25" hidden="1">
       <c r="A119">
         <v>51000116</v>
       </c>
@@ -43076,7 +43084,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="120" spans="1:58" ht="14.25">
+    <row r="120" spans="1:58" ht="14.25" hidden="1">
       <c r="A120">
         <v>51000117</v>
       </c>
@@ -43260,7 +43268,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="121" spans="1:58" ht="14.25">
+    <row r="121" spans="1:58" ht="14.25" hidden="1">
       <c r="A121">
         <v>51000118</v>
       </c>
@@ -43444,7 +43452,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="122" spans="1:58" ht="14.25">
+    <row r="122" spans="1:58" ht="14.25" hidden="1">
       <c r="A122">
         <v>51000119</v>
       </c>
@@ -43618,7 +43626,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="123" spans="1:58" ht="14.25">
+    <row r="123" spans="1:58" ht="14.25" hidden="1">
       <c r="A123">
         <v>51000120</v>
       </c>
@@ -43796,7 +43804,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="124" spans="1:58" ht="14.25">
+    <row r="124" spans="1:58" ht="14.25" hidden="1">
       <c r="A124">
         <v>51000121</v>
       </c>
@@ -43974,7 +43982,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="125" spans="1:58" ht="14.25">
+    <row r="125" spans="1:58" ht="14.25" hidden="1">
       <c r="A125">
         <v>51000122</v>
       </c>
@@ -44152,7 +44160,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="126" spans="1:58" ht="14.25">
+    <row r="126" spans="1:58" ht="14.25" hidden="1">
       <c r="A126">
         <v>51000123</v>
       </c>
@@ -44322,7 +44330,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="127" spans="1:58" ht="14.25">
+    <row r="127" spans="1:58" ht="14.25" hidden="1">
       <c r="A127">
         <v>51000124</v>
       </c>
@@ -44492,7 +44500,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="128" spans="1:58" ht="14.25">
+    <row r="128" spans="1:58" ht="14.25" hidden="1">
       <c r="A128">
         <v>51000125</v>
       </c>
@@ -44666,7 +44674,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="129" spans="1:58" ht="14.25">
+    <row r="129" spans="1:58" ht="14.25" hidden="1">
       <c r="A129">
         <v>51000126</v>
       </c>
@@ -44840,7 +44848,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="130" spans="1:58" ht="14.25">
+    <row r="130" spans="1:58" ht="14.25" hidden="1">
       <c r="A130">
         <v>51000127</v>
       </c>
@@ -45010,7 +45018,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="131" spans="1:58" ht="14.25">
+    <row r="131" spans="1:58" ht="14.25" hidden="1">
       <c r="A131">
         <v>51000128</v>
       </c>
@@ -45180,7 +45188,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="132" spans="1:58" ht="14.25">
+    <row r="132" spans="1:58" ht="14.25" hidden="1">
       <c r="A132">
         <v>51000129</v>
       </c>
@@ -45354,7 +45362,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="133" spans="1:58" ht="14.25">
+    <row r="133" spans="1:58" ht="14.25" hidden="1">
       <c r="A133">
         <v>51000130</v>
       </c>
@@ -45528,7 +45536,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="134" spans="1:58" ht="14.25">
+    <row r="134" spans="1:58" ht="14.25" hidden="1">
       <c r="A134">
         <v>51000131</v>
       </c>
@@ -45702,7 +45710,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="135" spans="1:58" ht="14.25">
+    <row r="135" spans="1:58" ht="14.25" hidden="1">
       <c r="A135">
         <v>51000132</v>
       </c>
@@ -45876,7 +45884,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="136" spans="1:58" ht="14.25">
+    <row r="136" spans="1:58" ht="14.25" hidden="1">
       <c r="A136">
         <v>51000133</v>
       </c>
@@ -46050,7 +46058,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="137" spans="1:58" ht="14.25">
+    <row r="137" spans="1:58" ht="14.25" hidden="1">
       <c r="A137">
         <v>51000134</v>
       </c>
@@ -46228,7 +46236,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="138" spans="1:58" ht="14.25">
+    <row r="138" spans="1:58" ht="14.25" hidden="1">
       <c r="A138">
         <v>51000135</v>
       </c>
@@ -46402,7 +46410,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="139" spans="1:58" ht="14.25">
+    <row r="139" spans="1:58" ht="14.25" hidden="1">
       <c r="A139">
         <v>51000136</v>
       </c>
@@ -46576,7 +46584,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="140" spans="1:58" ht="14.25">
+    <row r="140" spans="1:58" ht="14.25" hidden="1">
       <c r="A140">
         <v>51000137</v>
       </c>
@@ -46740,7 +46748,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="141" spans="1:58" ht="14.25">
+    <row r="141" spans="1:58" ht="14.25" hidden="1">
       <c r="A141">
         <v>51000138</v>
       </c>
@@ -46914,7 +46922,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="142" spans="1:58" ht="14.25">
+    <row r="142" spans="1:58" ht="14.25" hidden="1">
       <c r="A142">
         <v>51000139</v>
       </c>
@@ -47088,7 +47096,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="143" spans="1:58" ht="14.25">
+    <row r="143" spans="1:58" ht="14.25" hidden="1">
       <c r="A143">
         <v>51000140</v>
       </c>
@@ -47262,7 +47270,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="144" spans="1:58" ht="14.25">
+    <row r="144" spans="1:58" ht="14.25" hidden="1">
       <c r="A144">
         <v>51000141</v>
       </c>
@@ -47432,7 +47440,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="145" spans="1:58" ht="14.25">
+    <row r="145" spans="1:58" ht="14.25" hidden="1">
       <c r="A145">
         <v>51000142</v>
       </c>
@@ -47596,7 +47604,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="146" spans="1:58" ht="14.25">
+    <row r="146" spans="1:58" ht="14.25" hidden="1">
       <c r="A146">
         <v>51000143</v>
       </c>
@@ -47774,7 +47782,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="147" spans="1:58" ht="14.25">
+    <row r="147" spans="1:58" ht="14.25" hidden="1">
       <c r="A147">
         <v>51000144</v>
       </c>
@@ -47948,7 +47956,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="148" spans="1:58" ht="14.25">
+    <row r="148" spans="1:58" ht="14.25" hidden="1">
       <c r="A148">
         <v>51000145</v>
       </c>
@@ -48122,7 +48130,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="149" spans="1:58" ht="14.25">
+    <row r="149" spans="1:58" ht="14.25" hidden="1">
       <c r="A149">
         <v>51000146</v>
       </c>
@@ -48300,7 +48308,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="150" spans="1:58" ht="14.25">
+    <row r="150" spans="1:58" ht="14.25" hidden="1">
       <c r="A150">
         <v>51000147</v>
       </c>
@@ -48478,7 +48486,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="151" spans="1:58" ht="14.25">
+    <row r="151" spans="1:58" ht="14.25" hidden="1">
       <c r="A151">
         <v>51000148</v>
       </c>
@@ -48648,7 +48656,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="152" spans="1:58" ht="14.25">
+    <row r="152" spans="1:58" ht="14.25" hidden="1">
       <c r="A152">
         <v>51000149</v>
       </c>
@@ -48812,7 +48820,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="153" spans="1:58" ht="14.25">
+    <row r="153" spans="1:58" ht="14.25" hidden="1">
       <c r="A153">
         <v>51000150</v>
       </c>
@@ -48982,7 +48990,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="154" spans="1:58" ht="14.25">
+    <row r="154" spans="1:58" ht="14.25" hidden="1">
       <c r="A154">
         <v>51000151</v>
       </c>
@@ -49152,7 +49160,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="155" spans="1:58" ht="14.25">
+    <row r="155" spans="1:58" ht="14.25" hidden="1">
       <c r="A155">
         <v>51000152</v>
       </c>
@@ -49322,7 +49330,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="156" spans="1:58" ht="14.25">
+    <row r="156" spans="1:58" ht="14.25" hidden="1">
       <c r="A156">
         <v>51000153</v>
       </c>
@@ -49492,7 +49500,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="157" spans="1:58" ht="14.25">
+    <row r="157" spans="1:58" ht="14.25" hidden="1">
       <c r="A157">
         <v>51000154</v>
       </c>
@@ -49656,7 +49664,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="158" spans="1:58" ht="14.25">
+    <row r="158" spans="1:58" ht="14.25" hidden="1">
       <c r="A158">
         <v>51000155</v>
       </c>
@@ -49826,7 +49834,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="159" spans="1:58" ht="14.25">
+    <row r="159" spans="1:58" ht="14.25" hidden="1">
       <c r="A159">
         <v>51000156</v>
       </c>
@@ -50000,7 +50008,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="160" spans="1:58" ht="14.25">
+    <row r="160" spans="1:58" ht="14.25" hidden="1">
       <c r="A160">
         <v>51000157</v>
       </c>
@@ -50174,7 +50182,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="161" spans="1:58" ht="14.25">
+    <row r="161" spans="1:58" ht="14.25" hidden="1">
       <c r="A161">
         <v>51000158</v>
       </c>
@@ -50338,7 +50346,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="162" spans="1:58" ht="14.25">
+    <row r="162" spans="1:58" ht="14.25" hidden="1">
       <c r="A162">
         <v>51000159</v>
       </c>
@@ -50508,7 +50516,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="163" spans="1:58" ht="14.25">
+    <row r="163" spans="1:58" ht="14.25" hidden="1">
       <c r="A163">
         <v>51000160</v>
       </c>
@@ -50678,7 +50686,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="164" spans="1:58" ht="14.25">
+    <row r="164" spans="1:58" ht="14.25" hidden="1">
       <c r="A164">
         <v>51000161</v>
       </c>
@@ -50852,7 +50860,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="165" spans="1:58" ht="14.25">
+    <row r="165" spans="1:58" ht="14.25" hidden="1">
       <c r="A165">
         <v>51000162</v>
       </c>
@@ -51030,7 +51038,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="166" spans="1:58" ht="14.25">
+    <row r="166" spans="1:58" ht="14.25" hidden="1">
       <c r="A166">
         <v>51000163</v>
       </c>
@@ -51204,7 +51212,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="167" spans="1:58" ht="14.25">
+    <row r="167" spans="1:58" ht="14.25" hidden="1">
       <c r="A167">
         <v>51000164</v>
       </c>
@@ -51378,7 +51386,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="168" spans="1:58" ht="14.25">
+    <row r="168" spans="1:58" ht="14.25" hidden="1">
       <c r="A168">
         <v>51000165</v>
       </c>
@@ -51556,7 +51564,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="169" spans="1:58" ht="14.25">
+    <row r="169" spans="1:58" ht="14.25" hidden="1">
       <c r="A169">
         <v>51000166</v>
       </c>
@@ -51726,7 +51734,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="170" spans="1:58" ht="14.25">
+    <row r="170" spans="1:58" ht="14.25" hidden="1">
       <c r="A170">
         <v>51000167</v>
       </c>
@@ -51896,7 +51904,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="171" spans="1:58" ht="14.25">
+    <row r="171" spans="1:58" ht="14.25" hidden="1">
       <c r="A171">
         <v>51000168</v>
       </c>
@@ -52078,7 +52086,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="172" spans="1:58" ht="14.25">
+    <row r="172" spans="1:58" ht="14.25" hidden="1">
       <c r="A172">
         <v>51000169</v>
       </c>
@@ -52256,7 +52264,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="173" spans="1:58" ht="14.25">
+    <row r="173" spans="1:58" ht="14.25" hidden="1">
       <c r="A173">
         <v>51000170</v>
       </c>
@@ -52430,7 +52438,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="174" spans="1:58" ht="14.25">
+    <row r="174" spans="1:58" ht="14.25" hidden="1">
       <c r="A174">
         <v>51000171</v>
       </c>
@@ -52600,7 +52608,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="175" spans="1:58" ht="14.25">
+    <row r="175" spans="1:58" ht="14.25" hidden="1">
       <c r="A175">
         <v>51000172</v>
       </c>
@@ -52770,7 +52778,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="176" spans="1:58" ht="14.25">
+    <row r="176" spans="1:58" ht="14.25" hidden="1">
       <c r="A176">
         <v>51000173</v>
       </c>
@@ -52940,7 +52948,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="177" spans="1:58" ht="14.25">
+    <row r="177" spans="1:58" ht="14.25" hidden="1">
       <c r="A177">
         <v>51000174</v>
       </c>
@@ -53114,7 +53122,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="178" spans="1:58" ht="14.25">
+    <row r="178" spans="1:58" ht="14.25" hidden="1">
       <c r="A178">
         <v>51000175</v>
       </c>
@@ -53288,7 +53296,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="179" spans="1:58" ht="14.25">
+    <row r="179" spans="1:58" ht="14.25" hidden="1">
       <c r="A179">
         <v>51000176</v>
       </c>
@@ -53458,7 +53466,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="180" spans="1:58" ht="14.25">
+    <row r="180" spans="1:58" ht="14.25" hidden="1">
       <c r="A180">
         <v>51000177</v>
       </c>
@@ -53640,7 +53648,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="181" spans="1:58" ht="14.25">
+    <row r="181" spans="1:58" ht="14.25" hidden="1">
       <c r="A181">
         <v>51000178</v>
       </c>
@@ -53818,7 +53826,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="182" spans="1:58" ht="14.25">
+    <row r="182" spans="1:58" ht="14.25" hidden="1">
       <c r="A182">
         <v>51000179</v>
       </c>
@@ -53992,7 +54000,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="183" spans="1:58" ht="14.25">
+    <row r="183" spans="1:58" ht="14.25" hidden="1">
       <c r="A183">
         <v>51000180</v>
       </c>
@@ -54166,7 +54174,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="184" spans="1:58" ht="14.25">
+    <row r="184" spans="1:58" ht="14.25" hidden="1">
       <c r="A184">
         <v>51000181</v>
       </c>
@@ -54336,7 +54344,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="185" spans="1:58" ht="14.25">
+    <row r="185" spans="1:58" ht="14.25" hidden="1">
       <c r="A185">
         <v>51000182</v>
       </c>
@@ -54510,7 +54518,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="186" spans="1:58" ht="14.25">
+    <row r="186" spans="1:58" ht="14.25" hidden="1">
       <c r="A186">
         <v>51000183</v>
       </c>
@@ -54684,7 +54692,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="187" spans="1:58" ht="14.25">
+    <row r="187" spans="1:58" ht="14.25" hidden="1">
       <c r="A187">
         <v>51000184</v>
       </c>
@@ -54854,7 +54862,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="188" spans="1:58" ht="14.25">
+    <row r="188" spans="1:58" ht="14.25" hidden="1">
       <c r="A188">
         <v>51000185</v>
       </c>
@@ -55032,7 +55040,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="189" spans="1:58" ht="14.25">
+    <row r="189" spans="1:58" ht="14.25" hidden="1">
       <c r="A189">
         <v>51000186</v>
       </c>
@@ -55202,7 +55210,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="190" spans="1:58" ht="14.25">
+    <row r="190" spans="1:58" ht="14.25" hidden="1">
       <c r="A190">
         <v>51000187</v>
       </c>
@@ -55366,7 +55374,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="191" spans="1:58" ht="14.25">
+    <row r="191" spans="1:58" ht="14.25" hidden="1">
       <c r="A191">
         <v>51000188</v>
       </c>
@@ -55540,7 +55548,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="192" spans="1:58" ht="14.25">
+    <row r="192" spans="1:58" ht="14.25" hidden="1">
       <c r="A192">
         <v>51000189</v>
       </c>
@@ -55718,7 +55726,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="193" spans="1:58" ht="14.25">
+    <row r="193" spans="1:58" ht="14.25" hidden="1">
       <c r="A193">
         <v>51000190</v>
       </c>
@@ -55896,7 +55904,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="194" spans="1:58" ht="14.25">
+    <row r="194" spans="1:58" ht="14.25" hidden="1">
       <c r="A194">
         <v>51000191</v>
       </c>
@@ -56074,7 +56082,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="195" spans="1:58" ht="14.25">
+    <row r="195" spans="1:58" ht="14.25" hidden="1">
       <c r="A195">
         <v>51000192</v>
       </c>
@@ -56256,7 +56264,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="196" spans="1:58" ht="14.25">
+    <row r="196" spans="1:58" ht="14.25" hidden="1">
       <c r="A196">
         <v>51000193</v>
       </c>
@@ -56430,7 +56438,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="197" spans="1:58" ht="14.25">
+    <row r="197" spans="1:58" ht="14.25" hidden="1">
       <c r="A197">
         <v>51000194</v>
       </c>
@@ -56608,7 +56616,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="198" spans="1:58" ht="14.25">
+    <row r="198" spans="1:58" ht="14.25" hidden="1">
       <c r="A198">
         <v>51000195</v>
       </c>
@@ -56786,7 +56794,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="199" spans="1:58" ht="14.25">
+    <row r="199" spans="1:58" ht="14.25" hidden="1">
       <c r="A199">
         <v>51000196</v>
       </c>
@@ -56964,7 +56972,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="200" spans="1:58" ht="14.25">
+    <row r="200" spans="1:58" ht="14.25" hidden="1">
       <c r="A200">
         <v>51000197</v>
       </c>
@@ -57142,7 +57150,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="201" spans="1:58" ht="14.25">
+    <row r="201" spans="1:58" ht="14.25" hidden="1">
       <c r="A201">
         <v>51000198</v>
       </c>
@@ -57382,13 +57390,13 @@
         <v>0</v>
       </c>
       <c r="W202" s="4">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="X202" s="4" t="s">
         <v>1168</v>
       </c>
       <c r="Y202" s="4" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="Z202" s="43">
         <v>55000203</v>
@@ -57480,7 +57488,7 @@
       </c>
       <c r="BF202" s="22"/>
     </row>
-    <row r="203" spans="1:58" ht="14.25">
+    <row r="203" spans="1:58" ht="14.25" hidden="1">
       <c r="A203">
         <v>51000200</v>
       </c>
@@ -57654,7 +57662,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="204" spans="1:58" ht="14.25">
+    <row r="204" spans="1:58" ht="14.25" hidden="1">
       <c r="A204">
         <v>51000201</v>
       </c>
@@ -57828,7 +57836,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="205" spans="1:58" ht="14.25">
+    <row r="205" spans="1:58" ht="14.25" hidden="1">
       <c r="A205">
         <v>51000202</v>
       </c>
@@ -57998,7 +58006,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="206" spans="1:58" ht="14.25">
+    <row r="206" spans="1:58" ht="14.25" hidden="1">
       <c r="A206">
         <v>51000203</v>
       </c>
@@ -58172,7 +58180,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="207" spans="1:58" ht="14.25">
+    <row r="207" spans="1:58" ht="14.25" hidden="1">
       <c r="A207">
         <v>51000204</v>
       </c>
@@ -58342,7 +58350,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="208" spans="1:58" ht="14.25">
+    <row r="208" spans="1:58" ht="14.25" hidden="1">
       <c r="A208">
         <v>51000205</v>
       </c>
@@ -58516,7 +58524,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="209" spans="1:58" ht="14.25">
+    <row r="209" spans="1:58" ht="14.25" hidden="1">
       <c r="A209">
         <v>51000206</v>
       </c>
@@ -58686,7 +58694,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="210" spans="1:58" ht="14.25">
+    <row r="210" spans="1:58" ht="14.25" hidden="1">
       <c r="A210">
         <v>51000207</v>
       </c>
@@ -58860,7 +58868,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="211" spans="1:58" ht="14.25">
+    <row r="211" spans="1:58" ht="14.25" hidden="1">
       <c r="A211">
         <v>51000208</v>
       </c>
@@ -59038,7 +59046,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="212" spans="1:58" ht="14.25">
+    <row r="212" spans="1:58" ht="14.25" hidden="1">
       <c r="A212">
         <v>51000209</v>
       </c>
@@ -59212,7 +59220,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="213" spans="1:58" ht="14.25">
+    <row r="213" spans="1:58" ht="14.25" hidden="1">
       <c r="A213">
         <v>51000210</v>
       </c>
@@ -59390,7 +59398,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="214" spans="1:58" ht="14.25">
+    <row r="214" spans="1:58" ht="14.25" hidden="1">
       <c r="A214">
         <v>51000211</v>
       </c>
@@ -59568,7 +59576,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="215" spans="1:58" ht="14.25">
+    <row r="215" spans="1:58" ht="14.25" hidden="1">
       <c r="A215">
         <v>51000212</v>
       </c>
@@ -59750,7 +59758,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="216" spans="1:58" ht="14.25">
+    <row r="216" spans="1:58" ht="14.25" hidden="1">
       <c r="A216">
         <v>51000213</v>
       </c>
@@ -59920,7 +59928,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="217" spans="1:58" ht="14.25">
+    <row r="217" spans="1:58" ht="14.25" hidden="1">
       <c r="A217">
         <v>51000214</v>
       </c>
@@ -60094,7 +60102,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="218" spans="1:58" ht="14.25">
+    <row r="218" spans="1:58" ht="14.25" hidden="1">
       <c r="A218">
         <v>51000215</v>
       </c>
@@ -60268,7 +60276,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="219" spans="1:58" ht="14.25">
+    <row r="219" spans="1:58" ht="14.25" hidden="1">
       <c r="A219">
         <v>51000216</v>
       </c>
@@ -60442,7 +60450,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="220" spans="1:58" ht="14.25">
+    <row r="220" spans="1:58" ht="14.25" hidden="1">
       <c r="A220">
         <v>51000217</v>
       </c>
@@ -60612,7 +60620,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="221" spans="1:58" ht="14.25">
+    <row r="221" spans="1:58" ht="14.25" hidden="1">
       <c r="A221">
         <v>51000218</v>
       </c>
@@ -60786,7 +60794,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="222" spans="1:58" ht="14.25">
+    <row r="222" spans="1:58" ht="14.25" hidden="1">
       <c r="A222">
         <v>51000219</v>
       </c>
@@ -60956,7 +60964,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="223" spans="1:58" ht="14.25">
+    <row r="223" spans="1:58" ht="14.25" hidden="1">
       <c r="A223">
         <v>51000220</v>
       </c>
@@ -61126,7 +61134,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="224" spans="1:58" ht="14.25">
+    <row r="224" spans="1:58" ht="14.25" hidden="1">
       <c r="A224">
         <v>51000221</v>
       </c>
@@ -61300,7 +61308,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="225" spans="1:58" ht="14.25">
+    <row r="225" spans="1:58" ht="14.25" hidden="1">
       <c r="A225">
         <v>51000222</v>
       </c>
@@ -61474,7 +61482,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="226" spans="1:58" ht="14.25">
+    <row r="226" spans="1:58" ht="14.25" hidden="1">
       <c r="A226">
         <v>51000223</v>
       </c>
@@ -61652,7 +61660,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="227" spans="1:58" ht="14.25">
+    <row r="227" spans="1:58" ht="14.25" hidden="1">
       <c r="A227">
         <v>51000224</v>
       </c>
@@ -61826,7 +61834,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="228" spans="1:58" ht="14.25">
+    <row r="228" spans="1:58" ht="14.25" hidden="1">
       <c r="A228">
         <v>51000225</v>
       </c>
@@ -62000,7 +62008,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="229" spans="1:58" ht="14.25">
+    <row r="229" spans="1:58" ht="14.25" hidden="1">
       <c r="A229">
         <v>51000226</v>
       </c>
@@ -62174,7 +62182,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="230" spans="1:58" ht="14.25">
+    <row r="230" spans="1:58" ht="14.25" hidden="1">
       <c r="A230">
         <v>51000227</v>
       </c>
@@ -62344,7 +62352,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="231" spans="1:58" ht="14.25">
+    <row r="231" spans="1:58" ht="14.25" hidden="1">
       <c r="A231">
         <v>51000228</v>
       </c>
@@ -62514,7 +62522,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="232" spans="1:58" ht="14.25">
+    <row r="232" spans="1:58" ht="14.25" hidden="1">
       <c r="A232">
         <v>51000229</v>
       </c>
@@ -62678,7 +62686,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="233" spans="1:58" ht="14.25">
+    <row r="233" spans="1:58" ht="14.25" hidden="1">
       <c r="A233">
         <v>51000230</v>
       </c>
@@ -62848,7 +62856,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="234" spans="1:58" ht="14.25">
+    <row r="234" spans="1:58" ht="14.25" hidden="1">
       <c r="A234">
         <v>51000231</v>
       </c>
@@ -63022,7 +63030,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="235" spans="1:58" ht="14.25">
+    <row r="235" spans="1:58" ht="14.25" hidden="1">
       <c r="A235">
         <v>51000232</v>
       </c>
@@ -63196,7 +63204,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="236" spans="1:58" ht="14.25">
+    <row r="236" spans="1:58" ht="14.25" hidden="1">
       <c r="A236">
         <v>51000233</v>
       </c>
@@ -63370,7 +63378,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="237" spans="1:58" ht="14.25">
+    <row r="237" spans="1:58" ht="14.25" hidden="1">
       <c r="A237">
         <v>51000234</v>
       </c>
@@ -63552,7 +63560,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="238" spans="1:58" ht="14.25">
+    <row r="238" spans="1:58" ht="14.25" hidden="1">
       <c r="A238">
         <v>51000235</v>
       </c>
@@ -63726,7 +63734,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="239" spans="1:58" ht="14.25">
+    <row r="239" spans="1:58" ht="14.25" hidden="1">
       <c r="A239">
         <v>51000236</v>
       </c>
@@ -63900,7 +63908,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="240" spans="1:58" ht="14.25">
+    <row r="240" spans="1:58" ht="14.25" hidden="1">
       <c r="A240">
         <v>51000237</v>
       </c>
@@ -64074,7 +64082,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="241" spans="1:58" ht="14.25">
+    <row r="241" spans="1:58" ht="14.25" hidden="1">
       <c r="A241">
         <v>51000238</v>
       </c>
@@ -64256,7 +64264,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="242" spans="1:58" ht="14.25">
+    <row r="242" spans="1:58" ht="14.25" hidden="1">
       <c r="A242">
         <v>51000239</v>
       </c>
@@ -64430,7 +64438,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="243" spans="1:58" ht="14.25">
+    <row r="243" spans="1:58" ht="14.25" hidden="1">
       <c r="A243">
         <v>51000240</v>
       </c>
@@ -64608,7 +64616,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="244" spans="1:58" ht="14.25">
+    <row r="244" spans="1:58" ht="14.25" hidden="1">
       <c r="A244">
         <v>51000241</v>
       </c>
@@ -64782,7 +64790,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="245" spans="1:58" ht="14.25">
+    <row r="245" spans="1:58" ht="14.25" hidden="1">
       <c r="A245">
         <v>51000242</v>
       </c>
@@ -64964,7 +64972,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="246" spans="1:58" ht="14.25">
+    <row r="246" spans="1:58" ht="14.25" hidden="1">
       <c r="A246">
         <v>51000243</v>
       </c>
@@ -65134,7 +65142,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="247" spans="1:58" ht="14.25">
+    <row r="247" spans="1:58" ht="14.25" hidden="1">
       <c r="A247">
         <v>51000244</v>
       </c>
@@ -65312,7 +65320,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="248" spans="1:58" ht="14.25">
+    <row r="248" spans="1:58" ht="14.25" hidden="1">
       <c r="A248">
         <v>51000245</v>
       </c>
@@ -65482,7 +65490,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="249" spans="1:58" ht="14.25">
+    <row r="249" spans="1:58" ht="14.25" hidden="1">
       <c r="A249">
         <v>51000246</v>
       </c>
@@ -65656,7 +65664,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="250" spans="1:58" ht="14.25">
+    <row r="250" spans="1:58" ht="14.25" hidden="1">
       <c r="A250">
         <v>51000247</v>
       </c>
@@ -65834,7 +65842,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="251" spans="1:58" ht="14.25">
+    <row r="251" spans="1:58" ht="14.25" hidden="1">
       <c r="A251">
         <v>51000248</v>
       </c>
@@ -66008,7 +66016,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="252" spans="1:58" ht="14.25">
+    <row r="252" spans="1:58" ht="14.25" hidden="1">
       <c r="A252">
         <v>51000249</v>
       </c>
@@ -66186,7 +66194,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="253" spans="1:58" ht="14.25">
+    <row r="253" spans="1:58" ht="14.25" hidden="1">
       <c r="A253">
         <v>51000250</v>
       </c>
@@ -66360,7 +66368,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="254" spans="1:58" ht="14.25">
+    <row r="254" spans="1:58" ht="14.25" hidden="1">
       <c r="A254">
         <v>51000251</v>
       </c>
@@ -66534,7 +66542,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="255" spans="1:58" ht="14.25">
+    <row r="255" spans="1:58" ht="14.25" hidden="1">
       <c r="A255">
         <v>51000252</v>
       </c>
@@ -66708,7 +66716,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="256" spans="1:58" ht="14.25">
+    <row r="256" spans="1:58" ht="14.25" hidden="1">
       <c r="A256">
         <v>51000253</v>
       </c>
@@ -66882,7 +66890,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="257" spans="1:58" ht="14.25">
+    <row r="257" spans="1:58" ht="14.25" hidden="1">
       <c r="A257">
         <v>51000254</v>
       </c>
@@ -67056,7 +67064,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="258" spans="1:58" ht="14.25">
+    <row r="258" spans="1:58" ht="14.25" hidden="1">
       <c r="A258">
         <v>51000255</v>
       </c>
@@ -67230,7 +67238,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="259" spans="1:58" ht="14.25">
+    <row r="259" spans="1:58" ht="14.25" hidden="1">
       <c r="A259">
         <v>51000256</v>
       </c>
@@ -67404,7 +67412,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="260" spans="1:58" ht="14.25">
+    <row r="260" spans="1:58" ht="14.25" hidden="1">
       <c r="A260">
         <v>51000257</v>
       </c>
@@ -67578,7 +67586,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="261" spans="1:58" ht="14.25">
+    <row r="261" spans="1:58" ht="14.25" hidden="1">
       <c r="A261">
         <v>51000258</v>
       </c>
@@ -67752,7 +67760,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="262" spans="1:58" ht="14.25">
+    <row r="262" spans="1:58" ht="14.25" hidden="1">
       <c r="A262">
         <v>51000259</v>
       </c>
@@ -67922,7 +67930,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="263" spans="1:58" ht="14.25">
+    <row r="263" spans="1:58" ht="14.25" hidden="1">
       <c r="A263">
         <v>51000260</v>
       </c>
@@ -68086,7 +68094,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="264" spans="1:58" ht="14.25">
+    <row r="264" spans="1:58" ht="14.25" hidden="1">
       <c r="A264">
         <v>51000261</v>
       </c>
@@ -68260,7 +68268,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="265" spans="1:58" ht="14.25">
+    <row r="265" spans="1:58" ht="14.25" hidden="1">
       <c r="A265">
         <v>51000262</v>
       </c>
@@ -68438,7 +68446,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="266" spans="1:58" ht="14.25">
+    <row r="266" spans="1:58" ht="14.25" hidden="1">
       <c r="A266">
         <v>51000263</v>
       </c>
@@ -68616,7 +68624,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="267" spans="1:58" ht="14.25">
+    <row r="267" spans="1:58" ht="14.25" hidden="1">
       <c r="A267">
         <v>51000264</v>
       </c>
@@ -68794,7 +68802,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="268" spans="1:58" ht="14.25">
+    <row r="268" spans="1:58" ht="14.25" hidden="1">
       <c r="A268">
         <v>51000265</v>
       </c>
@@ -68968,7 +68976,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="269" spans="1:58" ht="14.25">
+    <row r="269" spans="1:58" ht="14.25" hidden="1">
       <c r="A269">
         <v>51000266</v>
       </c>
@@ -69138,7 +69146,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="270" spans="1:58" ht="14.25">
+    <row r="270" spans="1:58" ht="14.25" hidden="1">
       <c r="A270">
         <v>51000267</v>
       </c>
@@ -69312,7 +69320,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="271" spans="1:58" ht="14.25">
+    <row r="271" spans="1:58" ht="14.25" hidden="1">
       <c r="A271">
         <v>51000268</v>
       </c>
@@ -69490,7 +69498,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="272" spans="1:58" ht="14.25">
+    <row r="272" spans="1:58" ht="14.25" hidden="1">
       <c r="A272">
         <v>51000269</v>
       </c>
@@ -69668,7 +69676,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="273" spans="1:58" ht="14.25">
+    <row r="273" spans="1:58" ht="14.25" hidden="1">
       <c r="A273">
         <v>51000270</v>
       </c>
@@ -69846,7 +69854,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="274" spans="1:58" ht="14.25">
+    <row r="274" spans="1:58" ht="14.25" hidden="1">
       <c r="A274">
         <v>51000271</v>
       </c>
@@ -70016,7 +70024,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="275" spans="1:58" ht="14.25">
+    <row r="275" spans="1:58" ht="14.25" hidden="1">
       <c r="A275">
         <v>51000272</v>
       </c>
@@ -70190,7 +70198,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="276" spans="1:58" ht="14.25">
+    <row r="276" spans="1:58" ht="14.25" hidden="1">
       <c r="A276">
         <v>51000273</v>
       </c>
@@ -70362,7 +70370,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="277" spans="1:58" ht="14.25">
+    <row r="277" spans="1:58" ht="14.25" hidden="1">
       <c r="A277">
         <v>51000274</v>
       </c>
@@ -70536,7 +70544,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="278" spans="1:58" ht="14.25">
+    <row r="278" spans="1:58" ht="14.25" hidden="1">
       <c r="A278">
         <v>51000275</v>
       </c>
@@ -70710,7 +70718,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="279" spans="1:58" ht="14.25">
+    <row r="279" spans="1:58" ht="14.25" hidden="1">
       <c r="A279">
         <v>51000276</v>
       </c>
@@ -70880,7 +70888,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="280" spans="1:58" ht="14.25">
+    <row r="280" spans="1:58" ht="14.25" hidden="1">
       <c r="A280">
         <v>51000277</v>
       </c>
@@ -71054,7 +71062,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="281" spans="1:58" ht="14.25">
+    <row r="281" spans="1:58" ht="14.25" hidden="1">
       <c r="A281">
         <v>51000278</v>
       </c>
@@ -71224,7 +71232,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="282" spans="1:58" ht="14.25">
+    <row r="282" spans="1:58" ht="14.25" hidden="1">
       <c r="A282">
         <v>51000279</v>
       </c>
@@ -71394,7 +71402,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="283" spans="1:58" ht="14.25">
+    <row r="283" spans="1:58" ht="14.25" hidden="1">
       <c r="A283">
         <v>51000280</v>
       </c>
@@ -71564,7 +71572,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="284" spans="1:58" ht="14.25">
+    <row r="284" spans="1:58" ht="14.25" hidden="1">
       <c r="A284">
         <v>51000281</v>
       </c>
@@ -71738,7 +71746,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="285" spans="1:58" ht="14.25">
+    <row r="285" spans="1:58" ht="14.25" hidden="1">
       <c r="A285">
         <v>51000282</v>
       </c>
@@ -71912,7 +71920,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="286" spans="1:58" ht="14.25">
+    <row r="286" spans="1:58" ht="14.25" hidden="1">
       <c r="A286">
         <v>51000283</v>
       </c>
@@ -72076,7 +72084,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="287" spans="1:58" ht="14.25">
+    <row r="287" spans="1:58" ht="14.25" hidden="1">
       <c r="A287">
         <v>51000284</v>
       </c>
@@ -72250,7 +72258,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="288" spans="1:58" ht="14.25">
+    <row r="288" spans="1:58" ht="14.25" hidden="1">
       <c r="A288">
         <v>51000285</v>
       </c>
@@ -72424,7 +72432,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="289" spans="1:58" ht="14.25">
+    <row r="289" spans="1:58" ht="14.25" hidden="1">
       <c r="A289">
         <v>51000286</v>
       </c>
@@ -72594,7 +72602,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="290" spans="1:58" ht="14.25">
+    <row r="290" spans="1:58" ht="14.25" hidden="1">
       <c r="A290">
         <v>51000287</v>
       </c>
@@ -72764,7 +72772,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="291" spans="1:58" ht="14.25">
+    <row r="291" spans="1:58" ht="14.25" hidden="1">
       <c r="A291">
         <v>51000288</v>
       </c>
@@ -72938,7 +72946,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="292" spans="1:58" ht="14.25">
+    <row r="292" spans="1:58" ht="14.25" hidden="1">
       <c r="A292">
         <v>51000289</v>
       </c>
@@ -73112,7 +73120,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="293" spans="1:58" ht="14.25">
+    <row r="293" spans="1:58" ht="14.25" hidden="1">
       <c r="A293">
         <v>51000290</v>
       </c>
@@ -73282,7 +73290,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="294" spans="1:58" ht="14.25">
+    <row r="294" spans="1:58" ht="14.25" hidden="1">
       <c r="A294">
         <v>51000291</v>
       </c>
@@ -73460,7 +73468,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="295" spans="1:58" ht="14.25">
+    <row r="295" spans="1:58" ht="14.25" hidden="1">
       <c r="A295">
         <v>51000292</v>
       </c>
@@ -73630,7 +73638,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="296" spans="1:58" ht="14.25">
+    <row r="296" spans="1:58" ht="14.25" hidden="1">
       <c r="A296">
         <v>51000293</v>
       </c>
@@ -73804,7 +73812,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="297" spans="1:58" ht="14.25">
+    <row r="297" spans="1:58" ht="14.25" hidden="1">
       <c r="A297">
         <v>51000294</v>
       </c>
@@ -73982,7 +73990,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="298" spans="1:58" ht="14.25">
+    <row r="298" spans="1:58" ht="14.25" hidden="1">
       <c r="A298">
         <v>51000295</v>
       </c>
@@ -74156,7 +74164,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="299" spans="1:58" ht="14.25">
+    <row r="299" spans="1:58" ht="14.25" hidden="1">
       <c r="A299">
         <v>51000296</v>
       </c>
@@ -74326,7 +74334,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="300" spans="1:58" ht="14.25">
+    <row r="300" spans="1:58" ht="14.25" hidden="1">
       <c r="A300">
         <v>51000297</v>
       </c>
@@ -74496,7 +74504,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="301" spans="1:58" ht="14.25">
+    <row r="301" spans="1:58" ht="14.25" hidden="1">
       <c r="A301">
         <v>51000298</v>
       </c>
@@ -74678,7 +74686,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="302" spans="1:58" ht="14.25">
+    <row r="302" spans="1:58" ht="14.25" hidden="1">
       <c r="A302">
         <v>51000299</v>
       </c>
@@ -74852,7 +74860,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="303" spans="1:58" ht="14.25">
+    <row r="303" spans="1:58" ht="14.25" hidden="1">
       <c r="A303">
         <v>51000300</v>
       </c>
@@ -75026,7 +75034,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="304" spans="1:58" ht="14.25">
+    <row r="304" spans="1:58" ht="14.25" hidden="1">
       <c r="A304">
         <v>51000301</v>
       </c>
@@ -75196,7 +75204,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="305" spans="1:58" ht="14.25">
+    <row r="305" spans="1:58" ht="14.25" hidden="1">
       <c r="A305">
         <v>51000302</v>
       </c>
@@ -75366,7 +75374,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="306" spans="1:58" ht="14.25">
+    <row r="306" spans="1:58" ht="14.25" hidden="1">
       <c r="A306">
         <v>51000303</v>
       </c>
@@ -75540,7 +75548,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="307" spans="1:58" ht="14.25">
+    <row r="307" spans="1:58" ht="14.25" hidden="1">
       <c r="A307">
         <v>51000304</v>
       </c>
@@ -75710,7 +75718,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="308" spans="1:58" ht="14.25">
+    <row r="308" spans="1:58" ht="14.25" hidden="1">
       <c r="A308">
         <v>51000305</v>
       </c>
@@ -75874,7 +75882,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="309" spans="1:58" ht="14.25">
+    <row r="309" spans="1:58" ht="14.25" hidden="1">
       <c r="A309">
         <v>51000306</v>
       </c>
@@ -76038,7 +76046,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="310" spans="1:58" ht="14.25">
+    <row r="310" spans="1:58" ht="14.25" hidden="1">
       <c r="A310">
         <v>51000307</v>
       </c>
@@ -76202,7 +76210,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="311" spans="1:58" ht="14.25">
+    <row r="311" spans="1:58" ht="14.25" hidden="1">
       <c r="A311">
         <v>51000308</v>
       </c>
@@ -76371,10 +76379,10 @@
         <v>51000309</v>
       </c>
       <c r="B312" s="11" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="D312" s="8" t="s">
         <v>698</v>
@@ -76436,13 +76444,13 @@
         <v>0</v>
       </c>
       <c r="W312" s="11">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="X312" s="11" t="s">
         <v>9</v>
       </c>
       <c r="Y312" s="11" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="Z312" s="21">
         <v>55000300</v>
@@ -76533,7 +76541,7 @@
         <v>0.40819670000000002</v>
       </c>
       <c r="BF312" s="11" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
   </sheetData>
@@ -76604,10 +76612,10 @@
   <dimension ref="A1:BF11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="AA4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AH4" sqref="AH4"/>
+      <selection pane="bottomRight" activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -76882,7 +76890,7 @@
         <v>295</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>1417</v>
+        <v>1423</v>
       </c>
       <c r="X2" s="2" t="s">
         <v>296</v>
@@ -77058,7 +77066,7 @@
         <v>1143</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>1418</v>
+        <v>1424</v>
       </c>
       <c r="X3" s="6" t="s">
         <v>306</v>
@@ -78481,31 +78489,31 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="K4:K7 K10:K11">
-    <cfRule type="cellIs" dxfId="71" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="70" priority="13" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="cellIs" dxfId="70" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="69" priority="12" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:J7">
-    <cfRule type="cellIs" dxfId="69" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="68" priority="11" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="68" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="67" priority="10" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="67" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="66" priority="9" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
@@ -78523,13 +78531,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="cellIs" dxfId="66" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="65" priority="5" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="cellIs" dxfId="65" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="64" priority="4" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
@@ -78547,13 +78555,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="cellIs" dxfId="64" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="63" priority="2" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="63" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="62" priority="1" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>

--- a/ConfigData/Xlsx/Monster.xlsx
+++ b/ConfigData/Xlsx/Monster.xlsx
@@ -701,7 +701,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2556" uniqueCount="1425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2562" uniqueCount="1429">
   <si>
     <t>arrow</t>
   </si>
@@ -5510,23 +5510,39 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>55000084;100</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>55000203;100</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LifeRound</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>55000300;100</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>55000084;100</t>
+    <t>Baron Geddon</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>55000203;100</t>
+    <t>迦顿男爵</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>float</t>
+    <t>BRG</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>LifeRound</t>
+    <t>55000344;100</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -6603,7 +6619,35 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="140">
+  <dxfs count="136">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -9525,62 +9569,6 @@
           <bgColor theme="4"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -12951,7 +12939,7 @@
             <v>55000300</v>
           </cell>
           <cell r="V286">
-            <v>60</v>
+            <v>80</v>
           </cell>
         </row>
         <row r="287">
@@ -13090,6 +13078,14 @@
             <v>1</v>
           </cell>
         </row>
+        <row r="304">
+          <cell r="A304">
+            <v>55000344</v>
+          </cell>
+          <cell r="V304">
+            <v>5</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
@@ -22124,173 +22120,173 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:BF312" totalsRowShown="0" headerRowDxfId="131" dataDxfId="130" tableBorderDxfId="129">
-  <autoFilter ref="A3:BF312"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:BF313" totalsRowShown="0" headerRowDxfId="135" dataDxfId="134" tableBorderDxfId="133">
+  <autoFilter ref="A3:BF313"/>
   <sortState ref="A4:AF311">
     <sortCondition ref="A3:A311"/>
   </sortState>
   <tableColumns count="58">
-    <tableColumn id="1" name="Id" dataDxfId="128"/>
-    <tableColumn id="2" name="Name" dataDxfId="127"/>
-    <tableColumn id="22" name="Ename" dataDxfId="126"/>
-    <tableColumn id="23" name="EnameShort" dataDxfId="125"/>
-    <tableColumn id="3" name="Star" dataDxfId="124"/>
-    <tableColumn id="4" name="Type" dataDxfId="123"/>
-    <tableColumn id="5" name="Attr" dataDxfId="122"/>
-    <tableColumn id="58" name="Quality" dataDxfId="121">
+    <tableColumn id="1" name="Id" dataDxfId="132"/>
+    <tableColumn id="2" name="Name" dataDxfId="131"/>
+    <tableColumn id="22" name="Ename" dataDxfId="130"/>
+    <tableColumn id="23" name="EnameShort" dataDxfId="129"/>
+    <tableColumn id="3" name="Star" dataDxfId="128"/>
+    <tableColumn id="4" name="Type" dataDxfId="127"/>
+    <tableColumn id="5" name="Attr" dataDxfId="126"/>
+    <tableColumn id="58" name="Quality" dataDxfId="125">
       <calculatedColumnFormula>IF(T4&gt;10,5,IF(T4&gt;5,4,IF(T4&gt;2.5,3,IF(T4&gt;0,2,IF(T4&gt;-2.5,1,IF(T4&gt;-10,0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Cost" dataDxfId="120"/>
-    <tableColumn id="6" name="AtkP" dataDxfId="119"/>
-    <tableColumn id="24" name="VitP" dataDxfId="118"/>
-    <tableColumn id="25" name="Modify" dataDxfId="117"/>
-    <tableColumn id="9" name="Def" dataDxfId="116"/>
-    <tableColumn id="10" name="Mag" dataDxfId="115"/>
-    <tableColumn id="32" name="Spd" dataDxfId="114"/>
-    <tableColumn id="35" name="Hit" dataDxfId="113"/>
-    <tableColumn id="36" name="Dhit" dataDxfId="112"/>
-    <tableColumn id="34" name="Crt" dataDxfId="111"/>
-    <tableColumn id="33" name="Luk" dataDxfId="110"/>
-    <tableColumn id="7" name="Sum" dataDxfId="109">
+    <tableColumn id="12" name="Cost" dataDxfId="124"/>
+    <tableColumn id="6" name="AtkP" dataDxfId="123"/>
+    <tableColumn id="24" name="VitP" dataDxfId="122"/>
+    <tableColumn id="25" name="Modify" dataDxfId="121"/>
+    <tableColumn id="9" name="Def" dataDxfId="120"/>
+    <tableColumn id="10" name="Mag" dataDxfId="119"/>
+    <tableColumn id="32" name="Spd" dataDxfId="118"/>
+    <tableColumn id="35" name="Hit" dataDxfId="117"/>
+    <tableColumn id="36" name="Dhit" dataDxfId="116"/>
+    <tableColumn id="34" name="Crt" dataDxfId="115"/>
+    <tableColumn id="33" name="Luk" dataDxfId="114"/>
+    <tableColumn id="7" name="Sum" dataDxfId="113">
       <calculatedColumnFormula>SUM(J4:K4)+SUM(M4:S4)*5+4.4*SUM(AO4:AW4)+2.5*SUM(AI4:AM4)+AH4+L4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Range" dataDxfId="108"/>
-    <tableColumn id="14" name="Mov" dataDxfId="107"/>
-    <tableColumn id="51" name="LifeRound" dataDxfId="106"/>
-    <tableColumn id="16" name="Arrow" dataDxfId="105"/>
-    <tableColumn id="18" name="Skills" dataDxfId="104"/>
-    <tableColumn id="42" name="~Skill1" dataDxfId="103"/>
-    <tableColumn id="43" name="~SkillRate1" dataDxfId="102"/>
-    <tableColumn id="44" name="~Skill2" dataDxfId="101"/>
-    <tableColumn id="45" name="~SkillRate2" dataDxfId="100"/>
-    <tableColumn id="46" name="~Skill3" dataDxfId="99"/>
-    <tableColumn id="47" name="~SkillRate3" dataDxfId="98"/>
-    <tableColumn id="48" name="~Skill4" dataDxfId="97"/>
-    <tableColumn id="49" name="~SkillRate4" dataDxfId="96"/>
-    <tableColumn id="54" name="~SkillMark" dataDxfId="95">
+    <tableColumn id="13" name="Range" dataDxfId="112"/>
+    <tableColumn id="14" name="Mov" dataDxfId="111"/>
+    <tableColumn id="51" name="LifeRound" dataDxfId="110"/>
+    <tableColumn id="16" name="Arrow" dataDxfId="109"/>
+    <tableColumn id="18" name="Skills" dataDxfId="108"/>
+    <tableColumn id="42" name="~Skill1" dataDxfId="107"/>
+    <tableColumn id="43" name="~SkillRate1" dataDxfId="106"/>
+    <tableColumn id="44" name="~Skill2" dataDxfId="105"/>
+    <tableColumn id="45" name="~SkillRate2" dataDxfId="104"/>
+    <tableColumn id="46" name="~Skill3" dataDxfId="103"/>
+    <tableColumn id="47" name="~SkillRate3" dataDxfId="102"/>
+    <tableColumn id="48" name="~Skill4" dataDxfId="101"/>
+    <tableColumn id="49" name="~SkillRate4" dataDxfId="100"/>
+    <tableColumn id="54" name="~SkillMark" dataDxfId="99">
       <calculatedColumnFormula>IF(ISBLANK($Z4),0, LOOKUP($Z4,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AA4/100)+
 IF(ISBLANK($AB4),0, LOOKUP($AB4,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC4/100)+
 IF(ISBLANK($AD4),0, LOOKUP($AD4,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE4/100)+
 IF(ISBLANK($AF4),0, LOOKUP($AF4,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG4/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="52" name="~AntiLife" dataDxfId="94"/>
-    <tableColumn id="57" name="~AntiMental" dataDxfId="93"/>
-    <tableColumn id="56" name="~AntiPhysical" dataDxfId="92"/>
-    <tableColumn id="55" name="~AntiElement" dataDxfId="91"/>
-    <tableColumn id="53" name="~AntiHelp" dataDxfId="90"/>
-    <tableColumn id="30" name="BuffImmune" dataDxfId="89">
+    <tableColumn id="52" name="~AntiLife" dataDxfId="98"/>
+    <tableColumn id="57" name="~AntiMental" dataDxfId="97"/>
+    <tableColumn id="56" name="~AntiPhysical" dataDxfId="96"/>
+    <tableColumn id="55" name="~AntiElement" dataDxfId="95"/>
+    <tableColumn id="53" name="~AntiHelp" dataDxfId="94"/>
+    <tableColumn id="30" name="BuffImmune" dataDxfId="93">
       <calculatedColumnFormula>CONCATENATE(AI4,";",AJ4,";",AK4,";",AL4,";",AM4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="~AntiNull" dataDxfId="88"/>
-    <tableColumn id="11" name="~AntiWater" dataDxfId="87"/>
-    <tableColumn id="26" name="~AntiWind" dataDxfId="86"/>
-    <tableColumn id="27" name="~AntiFire" dataDxfId="85"/>
-    <tableColumn id="37" name="~AntiEarth" dataDxfId="84"/>
-    <tableColumn id="38" name="~AntiIce" dataDxfId="83"/>
-    <tableColumn id="39" name="~AntiThunder" dataDxfId="82"/>
-    <tableColumn id="40" name="~AntiLight" dataDxfId="81"/>
-    <tableColumn id="41" name="~AntiDark" dataDxfId="80"/>
-    <tableColumn id="31" name="AttrDef" dataDxfId="79">
+    <tableColumn id="8" name="~AntiNull" dataDxfId="92"/>
+    <tableColumn id="11" name="~AntiWater" dataDxfId="91"/>
+    <tableColumn id="26" name="~AntiWind" dataDxfId="90"/>
+    <tableColumn id="27" name="~AntiFire" dataDxfId="89"/>
+    <tableColumn id="37" name="~AntiEarth" dataDxfId="88"/>
+    <tableColumn id="38" name="~AntiIce" dataDxfId="87"/>
+    <tableColumn id="39" name="~AntiThunder" dataDxfId="86"/>
+    <tableColumn id="40" name="~AntiLight" dataDxfId="85"/>
+    <tableColumn id="41" name="~AntiDark" dataDxfId="84"/>
+    <tableColumn id="31" name="AttrDef" dataDxfId="83">
       <calculatedColumnFormula>CONCATENATE(AO4,";",AP4,";",AQ4,";",AR4,";",AS4,";",AT4,";",AU4,";",AV4,";",AW4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="50" name="IsBuilding" dataDxfId="78"/>
-    <tableColumn id="20" name="Res" dataDxfId="77"/>
-    <tableColumn id="21" name="Icon" dataDxfId="76"/>
-    <tableColumn id="17" name="Cover" dataDxfId="75"/>
-    <tableColumn id="15" name="IsSpecial" dataDxfId="74"/>
-    <tableColumn id="28" name="IsNew" dataDxfId="73"/>
-    <tableColumn id="19" name="VsMark" dataDxfId="72"/>
-    <tableColumn id="29" name="Remark" dataDxfId="71"/>
+    <tableColumn id="50" name="IsBuilding" dataDxfId="82"/>
+    <tableColumn id="20" name="Res" dataDxfId="81"/>
+    <tableColumn id="21" name="Icon" dataDxfId="80"/>
+    <tableColumn id="17" name="Cover" dataDxfId="79"/>
+    <tableColumn id="15" name="IsSpecial" dataDxfId="78"/>
+    <tableColumn id="28" name="IsNew" dataDxfId="77"/>
+    <tableColumn id="19" name="VsMark" dataDxfId="76"/>
+    <tableColumn id="29" name="Remark" dataDxfId="75"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表1_5" displayName="表1_5" ref="A3:BF11" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60" tableBorderDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表1_5" displayName="表1_5" ref="A3:BF11" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64" tableBorderDxfId="63">
   <autoFilter ref="A3:BF11"/>
   <sortState ref="A4:AF311">
     <sortCondition ref="A3:A311"/>
   </sortState>
   <tableColumns count="58">
-    <tableColumn id="1" name="Id" dataDxfId="58"/>
-    <tableColumn id="2" name="Name" dataDxfId="57"/>
-    <tableColumn id="22" name="Ename" dataDxfId="56"/>
-    <tableColumn id="23" name="EnameShort" dataDxfId="55"/>
-    <tableColumn id="3" name="Star" dataDxfId="54"/>
-    <tableColumn id="4" name="Type" dataDxfId="53"/>
-    <tableColumn id="5" name="Attr" dataDxfId="52"/>
-    <tableColumn id="58" name="Quality" dataDxfId="51">
+    <tableColumn id="1" name="Id" dataDxfId="62"/>
+    <tableColumn id="2" name="Name" dataDxfId="61"/>
+    <tableColumn id="22" name="Ename" dataDxfId="60"/>
+    <tableColumn id="23" name="EnameShort" dataDxfId="59"/>
+    <tableColumn id="3" name="Star" dataDxfId="58"/>
+    <tableColumn id="4" name="Type" dataDxfId="57"/>
+    <tableColumn id="5" name="Attr" dataDxfId="56"/>
+    <tableColumn id="58" name="Quality" dataDxfId="55">
       <calculatedColumnFormula>IF(T4&gt;10,5,IF(T4&gt;5,4,IF(T4&gt;2.5,3,IF(T4&gt;0,2,IF(T4&gt;-2.5,1,IF(T4&gt;-10,0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Cost" dataDxfId="50"/>
-    <tableColumn id="6" name="AtkP" dataDxfId="49"/>
-    <tableColumn id="24" name="VitP" dataDxfId="48"/>
-    <tableColumn id="25" name="Modify" dataDxfId="47"/>
-    <tableColumn id="9" name="Def" dataDxfId="46"/>
-    <tableColumn id="10" name="Mag" dataDxfId="45"/>
-    <tableColumn id="32" name="Spd" dataDxfId="44"/>
-    <tableColumn id="35" name="Hit" dataDxfId="43"/>
-    <tableColumn id="36" name="Dhit" dataDxfId="42"/>
-    <tableColumn id="34" name="Crt" dataDxfId="41"/>
-    <tableColumn id="33" name="Luk" dataDxfId="40"/>
-    <tableColumn id="7" name="Sum" dataDxfId="39">
+    <tableColumn id="12" name="Cost" dataDxfId="54"/>
+    <tableColumn id="6" name="AtkP" dataDxfId="53"/>
+    <tableColumn id="24" name="VitP" dataDxfId="52"/>
+    <tableColumn id="25" name="Modify" dataDxfId="51"/>
+    <tableColumn id="9" name="Def" dataDxfId="50"/>
+    <tableColumn id="10" name="Mag" dataDxfId="49"/>
+    <tableColumn id="32" name="Spd" dataDxfId="48"/>
+    <tableColumn id="35" name="Hit" dataDxfId="47"/>
+    <tableColumn id="36" name="Dhit" dataDxfId="46"/>
+    <tableColumn id="34" name="Crt" dataDxfId="45"/>
+    <tableColumn id="33" name="Luk" dataDxfId="44"/>
+    <tableColumn id="7" name="Sum" dataDxfId="43">
       <calculatedColumnFormula>SUM(J4:K4)+SUM(M4:S4)*5+4.4*SUM(AO4:AW4)+2.5*SUM(AI4:AM4)+AH4+L4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Range" dataDxfId="38"/>
-    <tableColumn id="14" name="Mov" dataDxfId="37"/>
-    <tableColumn id="60" name="LifeRound" dataDxfId="36"/>
-    <tableColumn id="16" name="Arrow" dataDxfId="35"/>
-    <tableColumn id="18" name="Skills" dataDxfId="34"/>
-    <tableColumn id="42" name="~Skill1" dataDxfId="33"/>
-    <tableColumn id="43" name="~SkillRate1" dataDxfId="32"/>
-    <tableColumn id="44" name="~Skill2" dataDxfId="31"/>
-    <tableColumn id="45" name="~SkillRate2" dataDxfId="30"/>
-    <tableColumn id="46" name="~Skill3" dataDxfId="29"/>
-    <tableColumn id="47" name="~SkillRate3" dataDxfId="28"/>
-    <tableColumn id="48" name="~Skill4" dataDxfId="27"/>
-    <tableColumn id="49" name="~SkillRate4" dataDxfId="26"/>
-    <tableColumn id="54" name="~SkillMark" dataDxfId="25">
+    <tableColumn id="13" name="Range" dataDxfId="42"/>
+    <tableColumn id="14" name="Mov" dataDxfId="41"/>
+    <tableColumn id="60" name="LifeRound" dataDxfId="40"/>
+    <tableColumn id="16" name="Arrow" dataDxfId="39"/>
+    <tableColumn id="18" name="Skills" dataDxfId="38"/>
+    <tableColumn id="42" name="~Skill1" dataDxfId="37"/>
+    <tableColumn id="43" name="~SkillRate1" dataDxfId="36"/>
+    <tableColumn id="44" name="~Skill2" dataDxfId="35"/>
+    <tableColumn id="45" name="~SkillRate2" dataDxfId="34"/>
+    <tableColumn id="46" name="~Skill3" dataDxfId="33"/>
+    <tableColumn id="47" name="~SkillRate3" dataDxfId="32"/>
+    <tableColumn id="48" name="~Skill4" dataDxfId="31"/>
+    <tableColumn id="49" name="~SkillRate4" dataDxfId="30"/>
+    <tableColumn id="54" name="~SkillMark" dataDxfId="29">
       <calculatedColumnFormula>IF(ISBLANK($Z4),0, LOOKUP($Z4,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AA4/100)+
 IF(ISBLANK($AB4),0, LOOKUP($AB4,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC4/100)+
 IF(ISBLANK($AD4),0, LOOKUP($AD4,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE4/100)+
 IF(ISBLANK($AF4),0, LOOKUP($AF4,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG4/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="52" name="~AntiLife" dataDxfId="24"/>
-    <tableColumn id="57" name="~AntiMental" dataDxfId="23"/>
-    <tableColumn id="56" name="~AntiPhysical" dataDxfId="22"/>
-    <tableColumn id="55" name="~AntiElement" dataDxfId="21"/>
-    <tableColumn id="53" name="~AntiHelp" dataDxfId="20"/>
-    <tableColumn id="30" name="BuffImmune" dataDxfId="19">
+    <tableColumn id="52" name="~AntiLife" dataDxfId="28"/>
+    <tableColumn id="57" name="~AntiMental" dataDxfId="27"/>
+    <tableColumn id="56" name="~AntiPhysical" dataDxfId="26"/>
+    <tableColumn id="55" name="~AntiElement" dataDxfId="25"/>
+    <tableColumn id="53" name="~AntiHelp" dataDxfId="24"/>
+    <tableColumn id="30" name="BuffImmune" dataDxfId="23">
       <calculatedColumnFormula>CONCATENATE(AI4,";",AJ4,";",AK4,";",AL4,";",AM4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="~AntiNull" dataDxfId="18"/>
-    <tableColumn id="11" name="~AntiWater" dataDxfId="17"/>
-    <tableColumn id="26" name="~AntiWind" dataDxfId="16"/>
-    <tableColumn id="27" name="~AntiFire" dataDxfId="15"/>
-    <tableColumn id="37" name="~AntiEarth" dataDxfId="14"/>
-    <tableColumn id="38" name="~AntiIce" dataDxfId="13"/>
-    <tableColumn id="39" name="~AntiThunder" dataDxfId="12"/>
-    <tableColumn id="40" name="~AntiLight" dataDxfId="11"/>
-    <tableColumn id="41" name="~AntiDark" dataDxfId="10"/>
-    <tableColumn id="31" name="AttrDef" dataDxfId="9">
+    <tableColumn id="8" name="~AntiNull" dataDxfId="22"/>
+    <tableColumn id="11" name="~AntiWater" dataDxfId="21"/>
+    <tableColumn id="26" name="~AntiWind" dataDxfId="20"/>
+    <tableColumn id="27" name="~AntiFire" dataDxfId="19"/>
+    <tableColumn id="37" name="~AntiEarth" dataDxfId="18"/>
+    <tableColumn id="38" name="~AntiIce" dataDxfId="17"/>
+    <tableColumn id="39" name="~AntiThunder" dataDxfId="16"/>
+    <tableColumn id="40" name="~AntiLight" dataDxfId="15"/>
+    <tableColumn id="41" name="~AntiDark" dataDxfId="14"/>
+    <tableColumn id="31" name="AttrDef" dataDxfId="13">
       <calculatedColumnFormula>CONCATENATE(AO4,";",AP4,";",AQ4,";",AR4,";",AS4,";",AT4,";",AU4,";",AV4,";",AW4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="59" name="IsBuilding" dataDxfId="8"/>
-    <tableColumn id="20" name="Res" dataDxfId="7"/>
-    <tableColumn id="21" name="Icon" dataDxfId="6"/>
-    <tableColumn id="17" name="Cover" dataDxfId="5"/>
-    <tableColumn id="15" name="IsSpecial" dataDxfId="4"/>
-    <tableColumn id="28" name="IsNew" dataDxfId="3"/>
-    <tableColumn id="19" name="VsMark" dataDxfId="2"/>
-    <tableColumn id="29" name="Remark" dataDxfId="1"/>
+    <tableColumn id="59" name="IsBuilding" dataDxfId="12"/>
+    <tableColumn id="20" name="Res" dataDxfId="11"/>
+    <tableColumn id="21" name="Icon" dataDxfId="10"/>
+    <tableColumn id="17" name="Cover" dataDxfId="9"/>
+    <tableColumn id="15" name="IsSpecial" dataDxfId="8"/>
+    <tableColumn id="28" name="IsNew" dataDxfId="7"/>
+    <tableColumn id="19" name="VsMark" dataDxfId="6"/>
+    <tableColumn id="29" name="Remark" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:I15" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:I15" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A1:I15"/>
   <tableColumns count="9">
     <tableColumn id="1" name="星级"/>
@@ -22594,13 +22590,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BF312"/>
+  <dimension ref="A1:BF313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B190" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B303" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="W202" sqref="W202"/>
+      <selection pane="bottomRight" activeCell="Z313" sqref="Z313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -22876,7 +22872,7 @@
         <v>1141</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="X2" s="2" t="s">
         <v>296</v>
@@ -23052,7 +23048,7 @@
         <v>1143</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="X3" s="6" t="s">
         <v>306</v>
@@ -27925,7 +27921,7 @@
       </c>
       <c r="T32" s="15">
         <f t="shared" si="1"/>
-        <v>19.399999999999999</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="U32" s="4">
         <v>10</v>
@@ -27967,7 +27963,7 @@
 IF(ISBLANK($AB32),0, LOOKUP($AB32,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC32/100)+
 IF(ISBLANK($AD32),0, LOOKUP($AD32,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE32/100)+
 IF(ISBLANK($AF32),0, LOOKUP($AF32,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG32/100)</f>
-        <v>12.4</v>
+        <v>11.4</v>
       </c>
       <c r="AI32" s="21">
         <v>0</v>
@@ -31163,7 +31159,7 @@
       </c>
       <c r="T51" s="15">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U51" s="4">
         <v>10</v>
@@ -31201,7 +31197,7 @@
 IF(ISBLANK($AB51),0, LOOKUP($AB51,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC51/100)+
 IF(ISBLANK($AD51),0, LOOKUP($AD51,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE51/100)+
 IF(ISBLANK($AF51),0, LOOKUP($AF51,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG51/100)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI51" s="21">
         <v>0</v>
@@ -31352,7 +31348,7 @@
         <v>9</v>
       </c>
       <c r="Y52" s="4" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="Z52" s="43">
         <v>55000084</v>
@@ -36651,7 +36647,7 @@
       </c>
       <c r="T83" s="15">
         <f t="shared" si="5"/>
-        <v>37.32</v>
+        <v>36.32</v>
       </c>
       <c r="U83" s="4">
         <v>10</v>
@@ -36689,7 +36685,7 @@
 IF(ISBLANK($AB83),0, LOOKUP($AB83,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC83/100)+
 IF(ISBLANK($AD83),0, LOOKUP($AD83,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE83/100)+
 IF(ISBLANK($AF83),0, LOOKUP($AF83,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG83/100)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI83" s="21">
         <v>0</v>
@@ -36995,7 +36991,7 @@
       </c>
       <c r="T85" s="15">
         <f t="shared" si="5"/>
-        <v>30.5</v>
+        <v>29.5</v>
       </c>
       <c r="U85" s="4">
         <v>10</v>
@@ -37037,7 +37033,7 @@
 IF(ISBLANK($AB85),0, LOOKUP($AB85,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC85/100)+
 IF(ISBLANK($AD85),0, LOOKUP($AD85,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE85/100)+
 IF(ISBLANK($AF85),0, LOOKUP($AF85,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG85/100)</f>
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AI85" s="21">
         <v>0</v>
@@ -39087,7 +39083,7 @@
       </c>
       <c r="T97" s="15">
         <f t="shared" si="5"/>
-        <v>52.6</v>
+        <v>51.6</v>
       </c>
       <c r="U97" s="4">
         <v>10</v>
@@ -39129,7 +39125,7 @@
 IF(ISBLANK($AB97),0, LOOKUP($AB97,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC97/100)+
 IF(ISBLANK($AD97),0, LOOKUP($AD97,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE97/100)+
 IF(ISBLANK($AF97),0, LOOKUP($AF97,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG97/100)</f>
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="AI97" s="21">
         <v>0</v>
@@ -39793,7 +39789,7 @@
       </c>
       <c r="T101" s="15">
         <f t="shared" si="5"/>
-        <v>19.8</v>
+        <v>18.8</v>
       </c>
       <c r="U101" s="4">
         <v>10</v>
@@ -39831,7 +39827,7 @@
 IF(ISBLANK($AB101),0, LOOKUP($AB101,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC101/100)+
 IF(ISBLANK($AD101),0, LOOKUP($AD101,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE101/100)+
 IF(ISBLANK($AF101),0, LOOKUP($AF101,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG101/100)</f>
-        <v>6.8</v>
+        <v>5.8</v>
       </c>
       <c r="AI101" s="21">
         <v>0</v>
@@ -41695,7 +41691,7 @@
       </c>
       <c r="T112" s="15">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="U112" s="4">
         <v>40</v>
@@ -41733,7 +41729,7 @@
 IF(ISBLANK($AB112),0, LOOKUP($AB112,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC112/100)+
 IF(ISBLANK($AD112),0, LOOKUP($AD112,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE112/100)+
 IF(ISBLANK($AF112),0, LOOKUP($AF112,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG112/100)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI112" s="21">
         <v>0</v>
@@ -41869,7 +41865,7 @@
       </c>
       <c r="T113" s="15">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U113" s="4">
         <v>35</v>
@@ -41907,7 +41903,7 @@
 IF(ISBLANK($AB113),0, LOOKUP($AB113,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC113/100)+
 IF(ISBLANK($AD113),0, LOOKUP($AD113,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE113/100)+
 IF(ISBLANK($AF113),0, LOOKUP($AF113,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG113/100)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI113" s="21">
         <v>0</v>
@@ -42595,7 +42591,7 @@
       </c>
       <c r="T117" s="15">
         <f t="shared" si="5"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U117" s="4">
         <v>10</v>
@@ -42633,7 +42629,7 @@
 IF(ISBLANK($AB117),0, LOOKUP($AB117,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC117/100)+
 IF(ISBLANK($AD117),0, LOOKUP($AD117,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE117/100)+
 IF(ISBLANK($AF117),0, LOOKUP($AF117,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG117/100)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI117" s="21">
         <v>0</v>
@@ -43505,7 +43501,7 @@
       </c>
       <c r="T122" s="15">
         <f t="shared" si="5"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="U122" s="4">
         <v>10</v>
@@ -43543,7 +43539,7 @@
 IF(ISBLANK($AB122),0, LOOKUP($AB122,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC122/100)+
 IF(ISBLANK($AD122),0, LOOKUP($AD122,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE122/100)+
 IF(ISBLANK($AF122),0, LOOKUP($AF122,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG122/100)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI122" s="21">
         <v>0</v>
@@ -43642,7 +43638,7 @@
       </c>
       <c r="H123" s="4">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I123" s="4">
         <v>2</v>
@@ -43679,7 +43675,7 @@
       </c>
       <c r="T123" s="15">
         <f t="shared" si="5"/>
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="U123" s="4">
         <v>10</v>
@@ -43721,7 +43717,7 @@
 IF(ISBLANK($AB123),0, LOOKUP($AB123,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC123/100)+
 IF(ISBLANK($AD123),0, LOOKUP($AD123,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE123/100)+
 IF(ISBLANK($AF123),0, LOOKUP($AF123,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG123/100)</f>
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AI123" s="21">
         <v>0</v>
@@ -43857,7 +43853,7 @@
       </c>
       <c r="T124" s="15">
         <f t="shared" si="5"/>
-        <v>11.8</v>
+        <v>10.8</v>
       </c>
       <c r="U124" s="4">
         <v>10</v>
@@ -43899,7 +43895,7 @@
 IF(ISBLANK($AB124),0, LOOKUP($AB124,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC124/100)+
 IF(ISBLANK($AD124),0, LOOKUP($AD124,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE124/100)+
 IF(ISBLANK($AF124),0, LOOKUP($AF124,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG124/100)</f>
-        <v>6.8</v>
+        <v>5.8</v>
       </c>
       <c r="AI124" s="21">
         <v>0</v>
@@ -44035,7 +44031,7 @@
       </c>
       <c r="T125" s="15">
         <f t="shared" si="5"/>
-        <v>21.8</v>
+        <v>20.8</v>
       </c>
       <c r="U125" s="4">
         <v>10</v>
@@ -44077,7 +44073,7 @@
 IF(ISBLANK($AB125),0, LOOKUP($AB125,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC125/100)+
 IF(ISBLANK($AD125),0, LOOKUP($AD125,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE125/100)+
 IF(ISBLANK($AF125),0, LOOKUP($AF125,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG125/100)</f>
-        <v>6.8</v>
+        <v>5.8</v>
       </c>
       <c r="AI125" s="21">
         <v>0</v>
@@ -44516,7 +44512,7 @@
       </c>
       <c r="H128" s="4">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I128" s="4">
         <v>1</v>
@@ -44553,7 +44549,7 @@
       </c>
       <c r="T128" s="15">
         <f t="shared" si="5"/>
-        <v>10.75</v>
+        <v>9.75</v>
       </c>
       <c r="U128" s="4">
         <v>10</v>
@@ -44591,7 +44587,7 @@
 IF(ISBLANK($AB128),0, LOOKUP($AB128,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC128/100)+
 IF(ISBLANK($AD128),0, LOOKUP($AD128,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE128/100)+
 IF(ISBLANK($AF128),0, LOOKUP($AF128,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG128/100)</f>
-        <v>6.75</v>
+        <v>5.75</v>
       </c>
       <c r="AI128" s="21">
         <v>0</v>
@@ -45763,7 +45759,7 @@
       </c>
       <c r="T135" s="15">
         <f t="shared" si="9"/>
-        <v>27.92</v>
+        <v>26.92</v>
       </c>
       <c r="U135" s="4">
         <v>10</v>
@@ -45801,7 +45797,7 @@
 IF(ISBLANK($AB135),0, LOOKUP($AB135,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC135/100)+
 IF(ISBLANK($AD135),0, LOOKUP($AD135,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE135/100)+
 IF(ISBLANK($AF135),0, LOOKUP($AF135,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG135/100)</f>
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="AI135" s="21">
         <v>0</v>
@@ -46289,7 +46285,7 @@
       </c>
       <c r="T138" s="15">
         <f t="shared" si="9"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U138" s="4">
         <v>10</v>
@@ -46327,7 +46323,7 @@
 IF(ISBLANK($AB138),0, LOOKUP($AB138,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC138/100)+
 IF(ISBLANK($AD138),0, LOOKUP($AD138,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE138/100)+
 IF(ISBLANK($AF138),0, LOOKUP($AF138,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG138/100)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI138" s="21">
         <v>0</v>
@@ -46463,7 +46459,7 @@
       </c>
       <c r="T139" s="15">
         <f t="shared" si="9"/>
-        <v>41.8</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="U139" s="4">
         <v>10</v>
@@ -46501,7 +46497,7 @@
 IF(ISBLANK($AB139),0, LOOKUP($AB139,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC139/100)+
 IF(ISBLANK($AD139),0, LOOKUP($AD139,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE139/100)+
 IF(ISBLANK($AF139),0, LOOKUP($AF139,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG139/100)</f>
-        <v>8.8000000000000007</v>
+        <v>7.8</v>
       </c>
       <c r="AI139" s="21">
         <v>0</v>
@@ -46975,7 +46971,7 @@
       </c>
       <c r="T142" s="15">
         <f t="shared" si="9"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U142" s="4">
         <v>10</v>
@@ -47013,7 +47009,7 @@
 IF(ISBLANK($AB142),0, LOOKUP($AB142,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC142/100)+
 IF(ISBLANK($AD142),0, LOOKUP($AD142,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE142/100)+
 IF(ISBLANK($AF142),0, LOOKUP($AF142,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG142/100)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI142" s="21">
         <v>0</v>
@@ -47657,7 +47653,7 @@
       </c>
       <c r="T146" s="15">
         <f t="shared" si="9"/>
-        <v>28.32</v>
+        <v>27.32</v>
       </c>
       <c r="U146" s="4">
         <v>10</v>
@@ -47699,7 +47695,7 @@
 IF(ISBLANK($AB146),0, LOOKUP($AB146,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC146/100)+
 IF(ISBLANK($AD146),0, LOOKUP($AD146,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE146/100)+
 IF(ISBLANK($AF146),0, LOOKUP($AF146,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG146/100)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI146" s="21">
         <v>0</v>
@@ -48324,7 +48320,7 @@
       </c>
       <c r="H150" s="4">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I150" s="4">
         <v>4</v>
@@ -48361,7 +48357,7 @@
       </c>
       <c r="T150" s="15">
         <f t="shared" si="9"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U150" s="4">
         <v>10</v>
@@ -48403,7 +48399,7 @@
 IF(ISBLANK($AB150),0, LOOKUP($AB150,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC150/100)+
 IF(ISBLANK($AD150),0, LOOKUP($AD150,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE150/100)+
 IF(ISBLANK($AF150),0, LOOKUP($AF150,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG150/100)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI150" s="21">
         <v>0</v>
@@ -49887,7 +49883,7 @@
       </c>
       <c r="T159" s="15">
         <f t="shared" si="9"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U159" s="4">
         <v>10</v>
@@ -49925,7 +49921,7 @@
 IF(ISBLANK($AB159),0, LOOKUP($AB159,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC159/100)+
 IF(ISBLANK($AD159),0, LOOKUP($AD159,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE159/100)+
 IF(ISBLANK($AF159),0, LOOKUP($AF159,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG159/100)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI159" s="21">
         <v>0</v>
@@ -51957,7 +51953,7 @@
       </c>
       <c r="T171" s="15">
         <f t="shared" si="9"/>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="U171" s="4">
         <v>10</v>
@@ -52003,7 +51999,7 @@
 IF(ISBLANK($AB171),0, LOOKUP($AB171,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC171/100)+
 IF(ISBLANK($AD171),0, LOOKUP($AD171,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE171/100)+
 IF(ISBLANK($AF171),0, LOOKUP($AF171,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG171/100)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI171" s="21">
         <v>0</v>
@@ -52139,7 +52135,7 @@
       </c>
       <c r="T172" s="15">
         <f t="shared" si="9"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U172" s="4">
         <v>10</v>
@@ -52181,7 +52177,7 @@
 IF(ISBLANK($AB172),0, LOOKUP($AB172,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC172/100)+
 IF(ISBLANK($AD172),0, LOOKUP($AD172,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE172/100)+
 IF(ISBLANK($AF172),0, LOOKUP($AF172,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG172/100)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI172" s="21">
         <v>0</v>
@@ -53519,7 +53515,7 @@
       </c>
       <c r="T180" s="15">
         <f t="shared" si="9"/>
-        <v>23.2</v>
+        <v>22.2</v>
       </c>
       <c r="U180" s="4">
         <v>10</v>
@@ -53565,7 +53561,7 @@
 IF(ISBLANK($AB180),0, LOOKUP($AB180,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC180/100)+
 IF(ISBLANK($AD180),0, LOOKUP($AD180,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE180/100)+
 IF(ISBLANK($AF180),0, LOOKUP($AF180,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG180/100)</f>
-        <v>9.1999999999999993</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="AI180" s="21">
         <v>0</v>
@@ -53879,7 +53875,7 @@
       </c>
       <c r="T182" s="15">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U182" s="4">
         <v>10</v>
@@ -53917,7 +53913,7 @@
 IF(ISBLANK($AB182),0, LOOKUP($AB182,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC182/100)+
 IF(ISBLANK($AD182),0, LOOKUP($AD182,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE182/100)+
 IF(ISBLANK($AF182),0, LOOKUP($AF182,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG182/100)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI182" s="21">
         <v>0</v>
@@ -54571,7 +54567,7 @@
       </c>
       <c r="T186" s="15">
         <f t="shared" si="9"/>
-        <v>38.32</v>
+        <v>37.32</v>
       </c>
       <c r="U186" s="4">
         <v>10</v>
@@ -54609,7 +54605,7 @@
 IF(ISBLANK($AB186),0, LOOKUP($AB186,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC186/100)+
 IF(ISBLANK($AD186),0, LOOKUP($AD186,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE186/100)+
 IF(ISBLANK($AF186),0, LOOKUP($AF186,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG186/100)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI186" s="21">
         <v>0</v>
@@ -54915,7 +54911,7 @@
       </c>
       <c r="T188" s="15">
         <f t="shared" si="9"/>
-        <v>-24.8</v>
+        <v>-25.8</v>
       </c>
       <c r="U188" s="4">
         <v>10</v>
@@ -54957,7 +54953,7 @@
 IF(ISBLANK($AB188),0, LOOKUP($AB188,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC188/100)+
 IF(ISBLANK($AD188),0, LOOKUP($AD188,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE188/100)+
 IF(ISBLANK($AF188),0, LOOKUP($AF188,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG188/100)</f>
-        <v>8.1999999999999993</v>
+        <v>7.2</v>
       </c>
       <c r="AI188" s="21">
         <v>0</v>
@@ -56098,7 +56094,7 @@
       </c>
       <c r="H195" s="4">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I195" s="4">
         <v>5</v>
@@ -56135,7 +56131,7 @@
       </c>
       <c r="T195" s="15">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U195" s="4">
         <v>30</v>
@@ -56181,7 +56177,7 @@
 IF(ISBLANK($AB195),0, LOOKUP($AB195,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC195/100)+
 IF(ISBLANK($AD195),0, LOOKUP($AD195,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE195/100)+
 IF(ISBLANK($AF195),0, LOOKUP($AF195,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG195/100)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI195" s="21">
         <v>0</v>
@@ -57336,7 +57332,7 @@
       </c>
       <c r="H202" s="4">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I202" s="4">
         <v>3</v>
@@ -57348,7 +57344,7 @@
         <v>5</v>
       </c>
       <c r="L202" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M202" s="4">
         <v>0</v>
@@ -57373,7 +57369,7 @@
       </c>
       <c r="T202" s="15">
         <f t="shared" si="13"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U202" s="4">
         <v>0</v>
@@ -57388,7 +57384,7 @@
         <v>1168</v>
       </c>
       <c r="Y202" s="4" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="Z202" s="43">
         <v>55000203</v>
@@ -59451,7 +59447,7 @@
       </c>
       <c r="T214" s="15">
         <f t="shared" si="13"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U214" s="4">
         <v>10</v>
@@ -59493,7 +59489,7 @@
 IF(ISBLANK($AB214),0, LOOKUP($AB214,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC214/100)+
 IF(ISBLANK($AD214),0, LOOKUP($AD214,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE214/100)+
 IF(ISBLANK($AF214),0, LOOKUP($AF214,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG214/100)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI214" s="21">
         <v>0</v>
@@ -61535,7 +61531,7 @@
       </c>
       <c r="T226" s="15">
         <f t="shared" si="13"/>
-        <v>-21</v>
+        <v>-22</v>
       </c>
       <c r="U226" s="4">
         <v>10</v>
@@ -61577,7 +61573,7 @@
 IF(ISBLANK($AB226),0, LOOKUP($AB226,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC226/100)+
 IF(ISBLANK($AD226),0, LOOKUP($AD226,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE226/100)+
 IF(ISBLANK($AF226),0, LOOKUP($AF226,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG226/100)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI226" s="21">
         <v>0</v>
@@ -63431,7 +63427,7 @@
       </c>
       <c r="T237" s="15">
         <f t="shared" si="13"/>
-        <v>27.5</v>
+        <v>26.5</v>
       </c>
       <c r="U237" s="4">
         <v>10</v>
@@ -63477,7 +63473,7 @@
 IF(ISBLANK($AB237),0, LOOKUP($AB237,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC237/100)+
 IF(ISBLANK($AD237),0, LOOKUP($AD237,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE237/100)+
 IF(ISBLANK($AF237),0, LOOKUP($AF237,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG237/100)</f>
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AI237" s="21">
         <v>0</v>
@@ -63613,7 +63609,7 @@
       </c>
       <c r="T238" s="15">
         <f t="shared" si="13"/>
-        <v>8.8000000000000007</v>
+        <v>7.8000000000000007</v>
       </c>
       <c r="U238" s="4">
         <v>10</v>
@@ -63651,7 +63647,7 @@
 IF(ISBLANK($AB238),0, LOOKUP($AB238,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC238/100)+
 IF(ISBLANK($AD238),0, LOOKUP($AD238,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE238/100)+
 IF(ISBLANK($AF238),0, LOOKUP($AF238,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG238/100)</f>
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="AI238" s="21">
         <v>0</v>
@@ -64669,7 +64665,7 @@
       </c>
       <c r="T244" s="15">
         <f t="shared" si="13"/>
-        <v>29.5</v>
+        <v>28.5</v>
       </c>
       <c r="U244" s="4">
         <v>10</v>
@@ -64707,7 +64703,7 @@
 IF(ISBLANK($AB244),0, LOOKUP($AB244,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC244/100)+
 IF(ISBLANK($AD244),0, LOOKUP($AD244,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE244/100)+
 IF(ISBLANK($AF244),0, LOOKUP($AF244,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG244/100)</f>
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AI244" s="21">
         <v>0</v>
@@ -64806,7 +64802,7 @@
       </c>
       <c r="H245" s="4">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" s="4">
         <v>6</v>
@@ -64843,7 +64839,7 @@
       </c>
       <c r="T245" s="15">
         <f t="shared" si="13"/>
-        <v>-1.5</v>
+        <v>-2.5</v>
       </c>
       <c r="U245" s="4">
         <v>10</v>
@@ -64889,7 +64885,7 @@
 IF(ISBLANK($AB245),0, LOOKUP($AB245,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC245/100)+
 IF(ISBLANK($AD245),0, LOOKUP($AD245,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE245/100)+
 IF(ISBLANK($AF245),0, LOOKUP($AF245,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG245/100)</f>
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AI245" s="21">
         <v>0</v>
@@ -65195,7 +65191,7 @@
       </c>
       <c r="T247" s="15">
         <f t="shared" si="13"/>
-        <v>34.700000000000003</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="U247" s="4">
         <v>10</v>
@@ -65237,7 +65233,7 @@
 IF(ISBLANK($AB247),0, LOOKUP($AB247,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC247/100)+
 IF(ISBLANK($AD247),0, LOOKUP($AD247,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE247/100)+
 IF(ISBLANK($AF247),0, LOOKUP($AF247,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG247/100)</f>
-        <v>10.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="AI247" s="21">
         <v>0</v>
@@ -66769,7 +66765,7 @@
       </c>
       <c r="T256" s="15">
         <f t="shared" si="13"/>
-        <v>-4.2</v>
+        <v>-5.2</v>
       </c>
       <c r="U256" s="4">
         <v>10</v>
@@ -66807,7 +66803,7 @@
 IF(ISBLANK($AB256),0, LOOKUP($AB256,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC256/100)+
 IF(ISBLANK($AD256),0, LOOKUP($AD256,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE256/100)+
 IF(ISBLANK($AF256),0, LOOKUP($AF256,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG256/100)</f>
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="AI256" s="21">
         <v>0</v>
@@ -68147,7 +68143,7 @@
       </c>
       <c r="T264" s="15">
         <f t="shared" si="17"/>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U264" s="4">
         <v>10</v>
@@ -68185,7 +68181,7 @@
 IF(ISBLANK($AB264),0, LOOKUP($AB264,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC264/100)+
 IF(ISBLANK($AD264),0, LOOKUP($AD264,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE264/100)+
 IF(ISBLANK($AF264),0, LOOKUP($AF264,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG264/100)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI264" s="21">
         <v>0</v>
@@ -68321,7 +68317,7 @@
       </c>
       <c r="T265" s="15">
         <f t="shared" si="17"/>
-        <v>28.4</v>
+        <v>27.4</v>
       </c>
       <c r="U265" s="4">
         <v>10</v>
@@ -68363,7 +68359,7 @@
 IF(ISBLANK($AB265),0, LOOKUP($AB265,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC265/100)+
 IF(ISBLANK($AD265),0, LOOKUP($AD265,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE265/100)+
 IF(ISBLANK($AF265),0, LOOKUP($AF265,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG265/100)</f>
-        <v>10.4</v>
+        <v>9.4</v>
       </c>
       <c r="AI265" s="21">
         <v>0</v>
@@ -68855,7 +68851,7 @@
       </c>
       <c r="T268" s="15">
         <f t="shared" si="17"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U268" s="4">
         <v>10</v>
@@ -68893,7 +68889,7 @@
 IF(ISBLANK($AB268),0, LOOKUP($AB268,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC268/100)+
 IF(ISBLANK($AD268),0, LOOKUP($AD268,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE268/100)+
 IF(ISBLANK($AF268),0, LOOKUP($AF268,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG268/100)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI268" s="21">
         <v>0</v>
@@ -72274,7 +72270,7 @@
       </c>
       <c r="H288" s="4">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I288" s="4">
         <v>2</v>
@@ -72311,7 +72307,7 @@
       </c>
       <c r="T288" s="15">
         <f t="shared" si="17"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U288" s="4">
         <v>10</v>
@@ -72349,7 +72345,7 @@
 IF(ISBLANK($AB288),0, LOOKUP($AB288,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC288/100)+
 IF(ISBLANK($AD288),0, LOOKUP($AD288,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE288/100)+
 IF(ISBLANK($AF288),0, LOOKUP($AF288,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG288/100)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI288" s="21">
         <v>0</v>
@@ -73691,7 +73687,7 @@
       </c>
       <c r="T296" s="15">
         <f t="shared" si="17"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U296" s="4">
         <v>10</v>
@@ -73729,7 +73725,7 @@
 IF(ISBLANK($AB296),0, LOOKUP($AB296,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC296/100)+
 IF(ISBLANK($AD296),0, LOOKUP($AD296,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE296/100)+
 IF(ISBLANK($AF296),0, LOOKUP($AF296,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG296/100)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI296" s="21">
         <v>0</v>
@@ -73865,7 +73861,7 @@
       </c>
       <c r="T297" s="15">
         <f t="shared" si="17"/>
-        <v>-12.25</v>
+        <v>-13.25</v>
       </c>
       <c r="U297" s="4">
         <v>30</v>
@@ -73907,7 +73903,7 @@
 IF(ISBLANK($AB297),0, LOOKUP($AB297,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC297/100)+
 IF(ISBLANK($AD297),0, LOOKUP($AD297,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE297/100)+
 IF(ISBLANK($AF297),0, LOOKUP($AF297,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG297/100)</f>
-        <v>8.75</v>
+        <v>7.75</v>
       </c>
       <c r="AI297" s="21">
         <v>0</v>
@@ -74043,7 +74039,7 @@
       </c>
       <c r="T298" s="15">
         <f t="shared" si="17"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U298" s="4">
         <v>10</v>
@@ -74081,7 +74077,7 @@
 IF(ISBLANK($AB298),0, LOOKUP($AB298,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC298/100)+
 IF(ISBLANK($AD298),0, LOOKUP($AD298,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE298/100)+
 IF(ISBLANK($AF298),0, LOOKUP($AF298,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG298/100)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI298" s="21">
         <v>0</v>
@@ -74557,7 +74553,7 @@
       </c>
       <c r="T301" s="15">
         <f t="shared" si="17"/>
-        <v>34.700000000000003</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="U301" s="4">
         <v>10</v>
@@ -74603,7 +74599,7 @@
 IF(ISBLANK($AB301),0, LOOKUP($AB301,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC301/100)+
 IF(ISBLANK($AD301),0, LOOKUP($AD301,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE301/100)+
 IF(ISBLANK($AF301),0, LOOKUP($AF301,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG301/100)</f>
-        <v>8.6999999999999993</v>
+        <v>7.7</v>
       </c>
       <c r="AI301" s="21">
         <v>0</v>
@@ -74739,7 +74735,7 @@
       </c>
       <c r="T302" s="15">
         <f t="shared" si="17"/>
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="U302" s="4">
         <v>30</v>
@@ -74777,7 +74773,7 @@
 IF(ISBLANK($AB302),0, LOOKUP($AB302,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC302/100)+
 IF(ISBLANK($AD302),0, LOOKUP($AD302,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE302/100)+
 IF(ISBLANK($AF302),0, LOOKUP($AF302,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG302/100)</f>
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="AI302" s="21">
         <v>0</v>
@@ -74913,7 +74909,7 @@
       </c>
       <c r="T303" s="24">
         <f t="shared" si="17"/>
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="U303" s="4">
         <v>10</v>
@@ -74951,7 +74947,7 @@
 IF(ISBLANK($AB303),0, LOOKUP($AB303,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC303/100)+
 IF(ISBLANK($AD303),0, LOOKUP($AD303,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE303/100)+
 IF(ISBLANK($AF303),0, LOOKUP($AF303,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG303/100)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI303" s="21">
         <v>0</v>
@@ -76383,14 +76379,14 @@
         <v>3</v>
       </c>
       <c r="F312" s="11">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G312" s="11">
         <v>4</v>
       </c>
       <c r="H312" s="24">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I312" s="11">
         <v>3</v>
@@ -76427,7 +76423,7 @@
       </c>
       <c r="T312" s="24">
         <f t="shared" si="17"/>
-        <v>-22</v>
+        <v>-2</v>
       </c>
       <c r="U312" s="11">
         <v>0</v>
@@ -76442,7 +76438,7 @@
         <v>9</v>
       </c>
       <c r="Y312" s="11" t="s">
-        <v>1420</v>
+        <v>1424</v>
       </c>
       <c r="Z312" s="21">
         <v>55000300</v>
@@ -76461,7 +76457,7 @@
 IF(ISBLANK($AB312),0, LOOKUP($AB312,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC312/100)+
 IF(ISBLANK($AD312),0, LOOKUP($AD312,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE312/100)+
 IF(ISBLANK($AF312),0, LOOKUP($AF312,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG312/100)</f>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AI312" s="21">
         <v>0</v>
@@ -76536,10 +76532,178 @@
         <v>1419</v>
       </c>
     </row>
+    <row r="313" spans="1:58" ht="14.25">
+      <c r="A313">
+        <v>51000310</v>
+      </c>
+      <c r="B313" s="11" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C313" s="11" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D313" s="8" t="s">
+        <v>1427</v>
+      </c>
+      <c r="E313" s="11">
+        <v>6</v>
+      </c>
+      <c r="F313" s="11">
+        <v>1</v>
+      </c>
+      <c r="G313" s="11">
+        <v>3</v>
+      </c>
+      <c r="H313" s="24">
+        <f t="shared" ref="H313" si="20">IF(T313&gt;10,5,IF(T313&gt;5,4,IF(T313&gt;2.5,3,IF(T313&gt;0,2,IF(T313&gt;-2.5,1,IF(T313&gt;-10,0,6))))))</f>
+        <v>3</v>
+      </c>
+      <c r="I313" s="11">
+        <v>6</v>
+      </c>
+      <c r="J313" s="11">
+        <v>20</v>
+      </c>
+      <c r="K313" s="11">
+        <v>-20</v>
+      </c>
+      <c r="L313" s="11">
+        <v>0</v>
+      </c>
+      <c r="M313" s="11">
+        <v>0</v>
+      </c>
+      <c r="N313" s="11">
+        <v>0</v>
+      </c>
+      <c r="O313" s="11">
+        <v>0</v>
+      </c>
+      <c r="P313" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q313" s="11">
+        <v>0</v>
+      </c>
+      <c r="R313" s="11">
+        <v>0</v>
+      </c>
+      <c r="S313" s="11">
+        <v>0</v>
+      </c>
+      <c r="T313" s="24">
+        <f t="shared" ref="T313" si="21">SUM(J313:K313)+SUM(M313:S313)*5+4.4*SUM(AO313:AW313)+2.5*SUM(AI313:AM313)+AH313+L313</f>
+        <v>5</v>
+      </c>
+      <c r="U313" s="11">
+        <v>10</v>
+      </c>
+      <c r="V313" s="11">
+        <v>10</v>
+      </c>
+      <c r="W313" s="11">
+        <v>0</v>
+      </c>
+      <c r="X313" s="11" t="s">
+        <v>1021</v>
+      </c>
+      <c r="Y313" s="11" t="s">
+        <v>1428</v>
+      </c>
+      <c r="Z313" s="21">
+        <v>55000344</v>
+      </c>
+      <c r="AA313" s="21">
+        <v>100</v>
+      </c>
+      <c r="AB313" s="21"/>
+      <c r="AC313" s="21"/>
+      <c r="AD313" s="21"/>
+      <c r="AE313" s="21"/>
+      <c r="AF313" s="21"/>
+      <c r="AG313" s="21"/>
+      <c r="AH313" s="21">
+        <f>IF(ISBLANK($Z313),0, LOOKUP($Z313,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AA313/100)+
+IF(ISBLANK($AB313),0, LOOKUP($AB313,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC313/100)+
+IF(ISBLANK($AD313),0, LOOKUP($AD313,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE313/100)+
+IF(ISBLANK($AF313),0, LOOKUP($AF313,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG313/100)</f>
+        <v>5</v>
+      </c>
+      <c r="AI313" s="21">
+        <v>0</v>
+      </c>
+      <c r="AJ313" s="21">
+        <v>0</v>
+      </c>
+      <c r="AK313" s="21">
+        <v>0</v>
+      </c>
+      <c r="AL313" s="21">
+        <v>0</v>
+      </c>
+      <c r="AM313" s="21">
+        <v>0</v>
+      </c>
+      <c r="AN313" s="11" t="str">
+        <f t="shared" ref="AN313" si="22">CONCATENATE(AI313,";",AJ313,";",AK313,";",AL313,";",AM313)</f>
+        <v>0;0;0;0;0</v>
+      </c>
+      <c r="AO313" s="21">
+        <v>0</v>
+      </c>
+      <c r="AP313" s="21">
+        <v>0</v>
+      </c>
+      <c r="AQ313" s="21">
+        <v>0</v>
+      </c>
+      <c r="AR313" s="21">
+        <v>0</v>
+      </c>
+      <c r="AS313" s="21">
+        <v>0</v>
+      </c>
+      <c r="AT313" s="21">
+        <v>0</v>
+      </c>
+      <c r="AU313" s="21">
+        <v>0</v>
+      </c>
+      <c r="AV313" s="21">
+        <v>0</v>
+      </c>
+      <c r="AW313" s="21">
+        <v>0</v>
+      </c>
+      <c r="AX313" s="11" t="str">
+        <f t="shared" ref="AX313" si="23">CONCATENATE(AO313,";",AP313,";",AQ313,";",AR313,";",AS313,";",AT313,";",AU313,";",AV313,";",AW313)</f>
+        <v>0;0;0;0;0;0;0;0;0</v>
+      </c>
+      <c r="AY313" s="57" t="s">
+        <v>1412</v>
+      </c>
+      <c r="AZ313" s="11">
+        <v>6</v>
+      </c>
+      <c r="BA313" s="11">
+        <v>310</v>
+      </c>
+      <c r="BB313" s="11"/>
+      <c r="BC313" s="24">
+        <v>0</v>
+      </c>
+      <c r="BD313" s="11">
+        <v>1</v>
+      </c>
+      <c r="BE313" s="11">
+        <v>0.49672129999999998</v>
+      </c>
+      <c r="BF313" s="11"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="T4:T312">
-    <cfRule type="colorScale" priority="33">
+  <conditionalFormatting sqref="T4:T313">
+    <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -76550,43 +76714,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H312">
-    <cfRule type="cellIs" dxfId="139" priority="6" operator="equal">
+  <conditionalFormatting sqref="H4:H313">
+    <cfRule type="cellIs" dxfId="3" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="12" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="13" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="9" operator="greaterThanOrEqual">
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T312">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H312">
-    <cfRule type="cellIs" dxfId="135" priority="1" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="2" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="3" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="14" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -76882,7 +77020,7 @@
         <v>295</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="X2" s="2" t="s">
         <v>296</v>
@@ -77058,7 +77196,7 @@
         <v>1143</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="X3" s="6" t="s">
         <v>306</v>
@@ -77227,7 +77365,7 @@
       </c>
       <c r="T4" s="15">
         <f t="shared" ref="T4:T11" si="1">SUM(J4:K4)+SUM(M4:S4)*5+4.4*SUM(AO4:AW4)+2.5*SUM(AI4:AM4)+AH4+L4</f>
-        <v>-21</v>
+        <v>-22</v>
       </c>
       <c r="U4" s="11">
         <v>10</v>
@@ -77259,7 +77397,7 @@
 IF(ISBLANK($AB4),0, LOOKUP($AB4,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC4/100)+
 IF(ISBLANK($AD4),0, LOOKUP($AD4,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE4/100)+
 IF(ISBLANK($AF4),0, LOOKUP($AF4,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG4/100)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI4" s="21">
         <v>0</v>
@@ -77393,7 +77531,7 @@
       </c>
       <c r="T5" s="15">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U5" s="11">
         <v>10</v>
@@ -77425,7 +77563,7 @@
 IF(ISBLANK($AB5),0, LOOKUP($AB5,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC5/100)+
 IF(ISBLANK($AD5),0, LOOKUP($AD5,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE5/100)+
 IF(ISBLANK($AF5),0, LOOKUP($AF5,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG5/100)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI5" s="21">
         <v>0</v>
@@ -78481,31 +78619,31 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="K4:K7 K10:K11">
-    <cfRule type="cellIs" dxfId="70" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="74" priority="13" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="cellIs" dxfId="69" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="73" priority="12" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:J7">
-    <cfRule type="cellIs" dxfId="68" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="72" priority="11" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="67" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="71" priority="10" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="66" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="70" priority="9" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
@@ -78523,13 +78661,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="cellIs" dxfId="65" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="69" priority="5" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="cellIs" dxfId="64" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="68" priority="4" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
@@ -78547,13 +78685,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="cellIs" dxfId="63" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="67" priority="2" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="62" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="66" priority="1" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>

--- a/ConfigData/Xlsx/Monster.xlsx
+++ b/ConfigData/Xlsx/Monster.xlsx
@@ -701,7 +701,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2562" uniqueCount="1429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2561" uniqueCount="1429">
   <si>
     <t>arrow</t>
   </si>
@@ -5510,10 +5510,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>55000084;100</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>55000203;100</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -5543,6 +5539,10 @@
   </si>
   <si>
     <t>55000344;100</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>55000084;100</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -11219,7 +11219,7 @@
             <v>55000084</v>
           </cell>
           <cell r="V71">
-            <v>10</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="72">
@@ -13083,7 +13083,7 @@
             <v>55000344</v>
           </cell>
           <cell r="V304">
-            <v>5</v>
+            <v>40</v>
           </cell>
         </row>
       </sheetData>
@@ -22593,10 +22593,10 @@
   <dimension ref="A1:BF313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B303" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Z313" sqref="Z313"/>
+      <selection pane="bottomRight" activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -22872,7 +22872,7 @@
         <v>1141</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="X2" s="2" t="s">
         <v>296</v>
@@ -23048,7 +23048,7 @@
         <v>1143</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="X3" s="6" t="s">
         <v>306</v>
@@ -27921,7 +27921,7 @@
       </c>
       <c r="T32" s="15">
         <f t="shared" si="1"/>
-        <v>18.399999999999999</v>
+        <v>53.4</v>
       </c>
       <c r="U32" s="4">
         <v>10</v>
@@ -27963,7 +27963,7 @@
 IF(ISBLANK($AB32),0, LOOKUP($AB32,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC32/100)+
 IF(ISBLANK($AD32),0, LOOKUP($AD32,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE32/100)+
 IF(ISBLANK($AF32),0, LOOKUP($AF32,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG32/100)</f>
-        <v>11.4</v>
+        <v>46.4</v>
       </c>
       <c r="AI32" s="21">
         <v>0</v>
@@ -31122,7 +31122,7 @@
       </c>
       <c r="H51" s="4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I51" s="4">
         <v>1</v>
@@ -31159,7 +31159,7 @@
       </c>
       <c r="T51" s="15">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="U51" s="4">
         <v>10</v>
@@ -31197,7 +31197,7 @@
 IF(ISBLANK($AB51),0, LOOKUP($AB51,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC51/100)+
 IF(ISBLANK($AD51),0, LOOKUP($AD51,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE51/100)+
 IF(ISBLANK($AF51),0, LOOKUP($AF51,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG51/100)</f>
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="AI51" s="21">
         <v>0</v>
@@ -31286,7 +31286,7 @@
         <v>722</v>
       </c>
       <c r="E52" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F52" s="4">
         <v>0</v>
@@ -31296,19 +31296,19 @@
       </c>
       <c r="H52" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I52" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J52" s="4">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="K52" s="4">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="L52" s="4">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M52" s="4">
         <v>0</v>
@@ -31333,7 +31333,7 @@
       </c>
       <c r="T52" s="15">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="U52" s="4">
         <v>10</v>
@@ -31348,7 +31348,7 @@
         <v>9</v>
       </c>
       <c r="Y52" s="4" t="s">
-        <v>1420</v>
+        <v>1428</v>
       </c>
       <c r="Z52" s="43">
         <v>55000084</v>
@@ -31367,7 +31367,7 @@
 IF(ISBLANK($AB52),0, LOOKUP($AB52,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC52/100)+
 IF(ISBLANK($AD52),0, LOOKUP($AD52,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE52/100)+
 IF(ISBLANK($AF52),0, LOOKUP($AF52,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG52/100)</f>
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="AI52" s="21">
         <v>0</v>
@@ -31438,9 +31438,7 @@
       <c r="BE52" s="30">
         <v>0.2377049</v>
       </c>
-      <c r="BF52" s="22" t="s">
-        <v>1174</v>
-      </c>
+      <c r="BF52" s="22"/>
     </row>
     <row r="53" spans="1:58" ht="14.25">
       <c r="A53">
@@ -36647,7 +36645,7 @@
       </c>
       <c r="T83" s="15">
         <f t="shared" si="5"/>
-        <v>36.32</v>
+        <v>71.319999999999993</v>
       </c>
       <c r="U83" s="4">
         <v>10</v>
@@ -36685,7 +36683,7 @@
 IF(ISBLANK($AB83),0, LOOKUP($AB83,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC83/100)+
 IF(ISBLANK($AD83),0, LOOKUP($AD83,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE83/100)+
 IF(ISBLANK($AF83),0, LOOKUP($AF83,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG83/100)</f>
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="AI83" s="21">
         <v>0</v>
@@ -36991,7 +36989,7 @@
       </c>
       <c r="T85" s="15">
         <f t="shared" si="5"/>
-        <v>29.5</v>
+        <v>64.5</v>
       </c>
       <c r="U85" s="4">
         <v>10</v>
@@ -37033,7 +37031,7 @@
 IF(ISBLANK($AB85),0, LOOKUP($AB85,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC85/100)+
 IF(ISBLANK($AD85),0, LOOKUP($AD85,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE85/100)+
 IF(ISBLANK($AF85),0, LOOKUP($AF85,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG85/100)</f>
-        <v>6.5</v>
+        <v>41.5</v>
       </c>
       <c r="AI85" s="21">
         <v>0</v>
@@ -39083,7 +39081,7 @@
       </c>
       <c r="T97" s="15">
         <f t="shared" si="5"/>
-        <v>51.6</v>
+        <v>86.6</v>
       </c>
       <c r="U97" s="4">
         <v>10</v>
@@ -39125,7 +39123,7 @@
 IF(ISBLANK($AB97),0, LOOKUP($AB97,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC97/100)+
 IF(ISBLANK($AD97),0, LOOKUP($AD97,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE97/100)+
 IF(ISBLANK($AF97),0, LOOKUP($AF97,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG97/100)</f>
-        <v>7.6</v>
+        <v>42.6</v>
       </c>
       <c r="AI97" s="21">
         <v>0</v>
@@ -39789,7 +39787,7 @@
       </c>
       <c r="T101" s="15">
         <f t="shared" si="5"/>
-        <v>18.8</v>
+        <v>53.8</v>
       </c>
       <c r="U101" s="4">
         <v>10</v>
@@ -39827,7 +39825,7 @@
 IF(ISBLANK($AB101),0, LOOKUP($AB101,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC101/100)+
 IF(ISBLANK($AD101),0, LOOKUP($AD101,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE101/100)+
 IF(ISBLANK($AF101),0, LOOKUP($AF101,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG101/100)</f>
-        <v>5.8</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="AI101" s="21">
         <v>0</v>
@@ -41691,7 +41689,7 @@
       </c>
       <c r="T112" s="15">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="U112" s="4">
         <v>40</v>
@@ -41729,7 +41727,7 @@
 IF(ISBLANK($AB112),0, LOOKUP($AB112,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC112/100)+
 IF(ISBLANK($AD112),0, LOOKUP($AD112,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE112/100)+
 IF(ISBLANK($AF112),0, LOOKUP($AF112,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG112/100)</f>
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="AI112" s="21">
         <v>0</v>
@@ -41865,7 +41863,7 @@
       </c>
       <c r="T113" s="15">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="U113" s="4">
         <v>35</v>
@@ -41903,7 +41901,7 @@
 IF(ISBLANK($AB113),0, LOOKUP($AB113,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC113/100)+
 IF(ISBLANK($AD113),0, LOOKUP($AD113,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE113/100)+
 IF(ISBLANK($AF113),0, LOOKUP($AF113,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG113/100)</f>
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="AI113" s="21">
         <v>0</v>
@@ -42591,7 +42589,7 @@
       </c>
       <c r="T117" s="15">
         <f t="shared" si="5"/>
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="U117" s="4">
         <v>10</v>
@@ -42629,7 +42627,7 @@
 IF(ISBLANK($AB117),0, LOOKUP($AB117,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC117/100)+
 IF(ISBLANK($AD117),0, LOOKUP($AD117,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE117/100)+
 IF(ISBLANK($AF117),0, LOOKUP($AF117,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG117/100)</f>
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="AI117" s="21">
         <v>0</v>
@@ -43464,7 +43462,7 @@
       </c>
       <c r="H122" s="4">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I122" s="4">
         <v>2</v>
@@ -43501,7 +43499,7 @@
       </c>
       <c r="T122" s="15">
         <f t="shared" si="5"/>
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="U122" s="4">
         <v>10</v>
@@ -43539,7 +43537,7 @@
 IF(ISBLANK($AB122),0, LOOKUP($AB122,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC122/100)+
 IF(ISBLANK($AD122),0, LOOKUP($AD122,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE122/100)+
 IF(ISBLANK($AF122),0, LOOKUP($AF122,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG122/100)</f>
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="AI122" s="21">
         <v>0</v>
@@ -43638,7 +43636,7 @@
       </c>
       <c r="H123" s="4">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I123" s="4">
         <v>2</v>
@@ -43675,7 +43673,7 @@
       </c>
       <c r="T123" s="15">
         <f t="shared" si="5"/>
-        <v>4.5</v>
+        <v>74.5</v>
       </c>
       <c r="U123" s="4">
         <v>10</v>
@@ -43717,7 +43715,7 @@
 IF(ISBLANK($AB123),0, LOOKUP($AB123,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC123/100)+
 IF(ISBLANK($AD123),0, LOOKUP($AD123,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE123/100)+
 IF(ISBLANK($AF123),0, LOOKUP($AF123,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG123/100)</f>
-        <v>11.5</v>
+        <v>81.5</v>
       </c>
       <c r="AI123" s="21">
         <v>0</v>
@@ -43853,7 +43851,7 @@
       </c>
       <c r="T124" s="15">
         <f t="shared" si="5"/>
-        <v>10.8</v>
+        <v>45.8</v>
       </c>
       <c r="U124" s="4">
         <v>10</v>
@@ -43895,7 +43893,7 @@
 IF(ISBLANK($AB124),0, LOOKUP($AB124,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC124/100)+
 IF(ISBLANK($AD124),0, LOOKUP($AD124,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE124/100)+
 IF(ISBLANK($AF124),0, LOOKUP($AF124,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG124/100)</f>
-        <v>5.8</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="AI124" s="21">
         <v>0</v>
@@ -44031,7 +44029,7 @@
       </c>
       <c r="T125" s="15">
         <f t="shared" si="5"/>
-        <v>20.8</v>
+        <v>55.8</v>
       </c>
       <c r="U125" s="4">
         <v>10</v>
@@ -44073,7 +44071,7 @@
 IF(ISBLANK($AB125),0, LOOKUP($AB125,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC125/100)+
 IF(ISBLANK($AD125),0, LOOKUP($AD125,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE125/100)+
 IF(ISBLANK($AF125),0, LOOKUP($AF125,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG125/100)</f>
-        <v>5.8</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="AI125" s="21">
         <v>0</v>
@@ -44512,7 +44510,7 @@
       </c>
       <c r="H128" s="4">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I128" s="4">
         <v>1</v>
@@ -44549,7 +44547,7 @@
       </c>
       <c r="T128" s="15">
         <f t="shared" si="5"/>
-        <v>9.75</v>
+        <v>44.75</v>
       </c>
       <c r="U128" s="4">
         <v>10</v>
@@ -44587,7 +44585,7 @@
 IF(ISBLANK($AB128),0, LOOKUP($AB128,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC128/100)+
 IF(ISBLANK($AD128),0, LOOKUP($AD128,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE128/100)+
 IF(ISBLANK($AF128),0, LOOKUP($AF128,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG128/100)</f>
-        <v>5.75</v>
+        <v>40.75</v>
       </c>
       <c r="AI128" s="21">
         <v>0</v>
@@ -45759,7 +45757,7 @@
       </c>
       <c r="T135" s="15">
         <f t="shared" si="9"/>
-        <v>26.92</v>
+        <v>61.92</v>
       </c>
       <c r="U135" s="4">
         <v>10</v>
@@ -45797,7 +45795,7 @@
 IF(ISBLANK($AB135),0, LOOKUP($AB135,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC135/100)+
 IF(ISBLANK($AD135),0, LOOKUP($AD135,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE135/100)+
 IF(ISBLANK($AF135),0, LOOKUP($AF135,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG135/100)</f>
-        <v>6.6</v>
+        <v>41.6</v>
       </c>
       <c r="AI135" s="21">
         <v>0</v>
@@ -46285,7 +46283,7 @@
       </c>
       <c r="T138" s="15">
         <f t="shared" si="9"/>
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="U138" s="4">
         <v>10</v>
@@ -46323,7 +46321,7 @@
 IF(ISBLANK($AB138),0, LOOKUP($AB138,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC138/100)+
 IF(ISBLANK($AD138),0, LOOKUP($AD138,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE138/100)+
 IF(ISBLANK($AF138),0, LOOKUP($AF138,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG138/100)</f>
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="AI138" s="21">
         <v>0</v>
@@ -46459,7 +46457,7 @@
       </c>
       <c r="T139" s="15">
         <f t="shared" si="9"/>
-        <v>40.799999999999997</v>
+        <v>75.8</v>
       </c>
       <c r="U139" s="4">
         <v>10</v>
@@ -46497,7 +46495,7 @@
 IF(ISBLANK($AB139),0, LOOKUP($AB139,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC139/100)+
 IF(ISBLANK($AD139),0, LOOKUP($AD139,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE139/100)+
 IF(ISBLANK($AF139),0, LOOKUP($AF139,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG139/100)</f>
-        <v>7.8</v>
+        <v>42.8</v>
       </c>
       <c r="AI139" s="21">
         <v>0</v>
@@ -46971,7 +46969,7 @@
       </c>
       <c r="T142" s="15">
         <f t="shared" si="9"/>
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="U142" s="4">
         <v>10</v>
@@ -47009,7 +47007,7 @@
 IF(ISBLANK($AB142),0, LOOKUP($AB142,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC142/100)+
 IF(ISBLANK($AD142),0, LOOKUP($AD142,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE142/100)+
 IF(ISBLANK($AF142),0, LOOKUP($AF142,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG142/100)</f>
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="AI142" s="21">
         <v>0</v>
@@ -47653,7 +47651,7 @@
       </c>
       <c r="T146" s="15">
         <f t="shared" si="9"/>
-        <v>27.32</v>
+        <v>62.319999999999993</v>
       </c>
       <c r="U146" s="4">
         <v>10</v>
@@ -47695,7 +47693,7 @@
 IF(ISBLANK($AB146),0, LOOKUP($AB146,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC146/100)+
 IF(ISBLANK($AD146),0, LOOKUP($AD146,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE146/100)+
 IF(ISBLANK($AF146),0, LOOKUP($AF146,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG146/100)</f>
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="AI146" s="21">
         <v>0</v>
@@ -48320,7 +48318,7 @@
       </c>
       <c r="H150" s="4">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I150" s="4">
         <v>4</v>
@@ -48357,7 +48355,7 @@
       </c>
       <c r="T150" s="15">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="U150" s="4">
         <v>10</v>
@@ -48399,7 +48397,7 @@
 IF(ISBLANK($AB150),0, LOOKUP($AB150,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC150/100)+
 IF(ISBLANK($AD150),0, LOOKUP($AD150,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE150/100)+
 IF(ISBLANK($AF150),0, LOOKUP($AF150,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG150/100)</f>
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="AI150" s="21">
         <v>0</v>
@@ -49883,7 +49881,7 @@
       </c>
       <c r="T159" s="15">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="U159" s="4">
         <v>10</v>
@@ -49921,7 +49919,7 @@
 IF(ISBLANK($AB159),0, LOOKUP($AB159,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC159/100)+
 IF(ISBLANK($AD159),0, LOOKUP($AD159,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE159/100)+
 IF(ISBLANK($AF159),0, LOOKUP($AF159,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG159/100)</f>
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="AI159" s="21">
         <v>0</v>
@@ -51916,7 +51914,7 @@
       </c>
       <c r="H171" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I171" s="4">
         <v>1</v>
@@ -51953,7 +51951,7 @@
       </c>
       <c r="T171" s="15">
         <f t="shared" si="9"/>
-        <v>-4</v>
+        <v>31</v>
       </c>
       <c r="U171" s="4">
         <v>10</v>
@@ -51999,7 +51997,7 @@
 IF(ISBLANK($AB171),0, LOOKUP($AB171,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC171/100)+
 IF(ISBLANK($AD171),0, LOOKUP($AD171,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE171/100)+
 IF(ISBLANK($AF171),0, LOOKUP($AF171,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG171/100)</f>
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="AI171" s="21">
         <v>0</v>
@@ -52135,7 +52133,7 @@
       </c>
       <c r="T172" s="15">
         <f t="shared" si="9"/>
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="U172" s="4">
         <v>10</v>
@@ -52177,7 +52175,7 @@
 IF(ISBLANK($AB172),0, LOOKUP($AB172,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC172/100)+
 IF(ISBLANK($AD172),0, LOOKUP($AD172,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE172/100)+
 IF(ISBLANK($AF172),0, LOOKUP($AF172,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG172/100)</f>
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="AI172" s="21">
         <v>0</v>
@@ -53515,7 +53513,7 @@
       </c>
       <c r="T180" s="15">
         <f t="shared" si="9"/>
-        <v>22.2</v>
+        <v>57.2</v>
       </c>
       <c r="U180" s="4">
         <v>10</v>
@@ -53561,7 +53559,7 @@
 IF(ISBLANK($AB180),0, LOOKUP($AB180,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC180/100)+
 IF(ISBLANK($AD180),0, LOOKUP($AD180,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE180/100)+
 IF(ISBLANK($AF180),0, LOOKUP($AF180,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG180/100)</f>
-        <v>8.1999999999999993</v>
+        <v>43.2</v>
       </c>
       <c r="AI180" s="21">
         <v>0</v>
@@ -53875,7 +53873,7 @@
       </c>
       <c r="T182" s="15">
         <f t="shared" si="9"/>
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="U182" s="4">
         <v>10</v>
@@ -53913,7 +53911,7 @@
 IF(ISBLANK($AB182),0, LOOKUP($AB182,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC182/100)+
 IF(ISBLANK($AD182),0, LOOKUP($AD182,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE182/100)+
 IF(ISBLANK($AF182),0, LOOKUP($AF182,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG182/100)</f>
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="AI182" s="21">
         <v>0</v>
@@ -54567,7 +54565,7 @@
       </c>
       <c r="T186" s="15">
         <f t="shared" si="9"/>
-        <v>37.32</v>
+        <v>72.319999999999993</v>
       </c>
       <c r="U186" s="4">
         <v>10</v>
@@ -54605,7 +54603,7 @@
 IF(ISBLANK($AB186),0, LOOKUP($AB186,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC186/100)+
 IF(ISBLANK($AD186),0, LOOKUP($AD186,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE186/100)+
 IF(ISBLANK($AF186),0, LOOKUP($AF186,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG186/100)</f>
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="AI186" s="21">
         <v>0</v>
@@ -54874,7 +54872,7 @@
       </c>
       <c r="H188" s="4">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I188" s="4">
         <v>5</v>
@@ -54911,7 +54909,7 @@
       </c>
       <c r="T188" s="15">
         <f t="shared" si="9"/>
-        <v>-25.8</v>
+        <v>9.2000000000000028</v>
       </c>
       <c r="U188" s="4">
         <v>10</v>
@@ -54953,7 +54951,7 @@
 IF(ISBLANK($AB188),0, LOOKUP($AB188,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC188/100)+
 IF(ISBLANK($AD188),0, LOOKUP($AD188,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE188/100)+
 IF(ISBLANK($AF188),0, LOOKUP($AF188,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG188/100)</f>
-        <v>7.2</v>
+        <v>42.2</v>
       </c>
       <c r="AI188" s="21">
         <v>0</v>
@@ -56094,7 +56092,7 @@
       </c>
       <c r="H195" s="4">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I195" s="4">
         <v>5</v>
@@ -56131,7 +56129,7 @@
       </c>
       <c r="T195" s="15">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="U195" s="4">
         <v>30</v>
@@ -56177,7 +56175,7 @@
 IF(ISBLANK($AB195),0, LOOKUP($AB195,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC195/100)+
 IF(ISBLANK($AD195),0, LOOKUP($AD195,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE195/100)+
 IF(ISBLANK($AF195),0, LOOKUP($AF195,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG195/100)</f>
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="AI195" s="21">
         <v>0</v>
@@ -57384,7 +57382,7 @@
         <v>1168</v>
       </c>
       <c r="Y202" s="4" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="Z202" s="43">
         <v>55000203</v>
@@ -59447,7 +59445,7 @@
       </c>
       <c r="T214" s="15">
         <f t="shared" si="13"/>
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="U214" s="4">
         <v>10</v>
@@ -59489,7 +59487,7 @@
 IF(ISBLANK($AB214),0, LOOKUP($AB214,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC214/100)+
 IF(ISBLANK($AD214),0, LOOKUP($AD214,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE214/100)+
 IF(ISBLANK($AF214),0, LOOKUP($AF214,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG214/100)</f>
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="AI214" s="21">
         <v>0</v>
@@ -61494,7 +61492,7 @@
       </c>
       <c r="H226" s="4">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I226" s="4">
         <v>1</v>
@@ -61531,7 +61529,7 @@
       </c>
       <c r="T226" s="15">
         <f t="shared" si="13"/>
-        <v>-22</v>
+        <v>13</v>
       </c>
       <c r="U226" s="4">
         <v>10</v>
@@ -61573,7 +61571,7 @@
 IF(ISBLANK($AB226),0, LOOKUP($AB226,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC226/100)+
 IF(ISBLANK($AD226),0, LOOKUP($AD226,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE226/100)+
 IF(ISBLANK($AF226),0, LOOKUP($AF226,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG226/100)</f>
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="AI226" s="21">
         <v>0</v>
@@ -63427,7 +63425,7 @@
       </c>
       <c r="T237" s="15">
         <f t="shared" si="13"/>
-        <v>26.5</v>
+        <v>61.5</v>
       </c>
       <c r="U237" s="4">
         <v>10</v>
@@ -63473,7 +63471,7 @@
 IF(ISBLANK($AB237),0, LOOKUP($AB237,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC237/100)+
 IF(ISBLANK($AD237),0, LOOKUP($AD237,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE237/100)+
 IF(ISBLANK($AF237),0, LOOKUP($AF237,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG237/100)</f>
-        <v>13.5</v>
+        <v>48.5</v>
       </c>
       <c r="AI237" s="21">
         <v>0</v>
@@ -63572,7 +63570,7 @@
       </c>
       <c r="H238" s="4">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I238" s="4">
         <v>2</v>
@@ -63609,7 +63607,7 @@
       </c>
       <c r="T238" s="15">
         <f t="shared" si="13"/>
-        <v>7.8000000000000007</v>
+        <v>42.8</v>
       </c>
       <c r="U238" s="4">
         <v>10</v>
@@ -63647,7 +63645,7 @@
 IF(ISBLANK($AB238),0, LOOKUP($AB238,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC238/100)+
 IF(ISBLANK($AD238),0, LOOKUP($AD238,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE238/100)+
 IF(ISBLANK($AF238),0, LOOKUP($AF238,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG238/100)</f>
-        <v>6.8</v>
+        <v>41.8</v>
       </c>
       <c r="AI238" s="21">
         <v>0</v>
@@ -64665,7 +64663,7 @@
       </c>
       <c r="T244" s="15">
         <f t="shared" si="13"/>
-        <v>28.5</v>
+        <v>63.5</v>
       </c>
       <c r="U244" s="4">
         <v>10</v>
@@ -64703,7 +64701,7 @@
 IF(ISBLANK($AB244),0, LOOKUP($AB244,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC244/100)+
 IF(ISBLANK($AD244),0, LOOKUP($AD244,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE244/100)+
 IF(ISBLANK($AF244),0, LOOKUP($AF244,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG244/100)</f>
-        <v>7.5</v>
+        <v>42.5</v>
       </c>
       <c r="AI244" s="21">
         <v>0</v>
@@ -64802,7 +64800,7 @@
       </c>
       <c r="H245" s="4">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I245" s="4">
         <v>6</v>
@@ -64839,7 +64837,7 @@
       </c>
       <c r="T245" s="15">
         <f t="shared" si="13"/>
-        <v>-2.5</v>
+        <v>32.5</v>
       </c>
       <c r="U245" s="4">
         <v>10</v>
@@ -64885,7 +64883,7 @@
 IF(ISBLANK($AB245),0, LOOKUP($AB245,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC245/100)+
 IF(ISBLANK($AD245),0, LOOKUP($AD245,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE245/100)+
 IF(ISBLANK($AF245),0, LOOKUP($AF245,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG245/100)</f>
-        <v>7.5</v>
+        <v>42.5</v>
       </c>
       <c r="AI245" s="21">
         <v>0</v>
@@ -65191,7 +65189,7 @@
       </c>
       <c r="T247" s="15">
         <f t="shared" si="13"/>
-        <v>33.700000000000003</v>
+        <v>68.7</v>
       </c>
       <c r="U247" s="4">
         <v>10</v>
@@ -65233,7 +65231,7 @@
 IF(ISBLANK($AB247),0, LOOKUP($AB247,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC247/100)+
 IF(ISBLANK($AD247),0, LOOKUP($AD247,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE247/100)+
 IF(ISBLANK($AF247),0, LOOKUP($AF247,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG247/100)</f>
-        <v>9.6999999999999993</v>
+        <v>44.7</v>
       </c>
       <c r="AI247" s="21">
         <v>0</v>
@@ -66728,7 +66726,7 @@
       </c>
       <c r="H256" s="4">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I256" s="4">
         <v>4</v>
@@ -66765,7 +66763,7 @@
       </c>
       <c r="T256" s="15">
         <f t="shared" si="13"/>
-        <v>-5.2</v>
+        <v>29.799999999999997</v>
       </c>
       <c r="U256" s="4">
         <v>10</v>
@@ -66803,7 +66801,7 @@
 IF(ISBLANK($AB256),0, LOOKUP($AB256,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC256/100)+
 IF(ISBLANK($AD256),0, LOOKUP($AD256,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE256/100)+
 IF(ISBLANK($AF256),0, LOOKUP($AF256,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG256/100)</f>
-        <v>6.8</v>
+        <v>41.8</v>
       </c>
       <c r="AI256" s="21">
         <v>0</v>
@@ -68143,7 +68141,7 @@
       </c>
       <c r="T264" s="15">
         <f t="shared" si="17"/>
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="U264" s="4">
         <v>10</v>
@@ -68181,7 +68179,7 @@
 IF(ISBLANK($AB264),0, LOOKUP($AB264,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC264/100)+
 IF(ISBLANK($AD264),0, LOOKUP($AD264,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE264/100)+
 IF(ISBLANK($AF264),0, LOOKUP($AF264,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG264/100)</f>
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="AI264" s="21">
         <v>0</v>
@@ -68317,7 +68315,7 @@
       </c>
       <c r="T265" s="15">
         <f t="shared" si="17"/>
-        <v>27.4</v>
+        <v>62.400000000000006</v>
       </c>
       <c r="U265" s="4">
         <v>10</v>
@@ -68359,7 +68357,7 @@
 IF(ISBLANK($AB265),0, LOOKUP($AB265,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC265/100)+
 IF(ISBLANK($AD265),0, LOOKUP($AD265,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE265/100)+
 IF(ISBLANK($AF265),0, LOOKUP($AF265,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG265/100)</f>
-        <v>9.4</v>
+        <v>44.4</v>
       </c>
       <c r="AI265" s="21">
         <v>0</v>
@@ -68851,7 +68849,7 @@
       </c>
       <c r="T268" s="15">
         <f t="shared" si="17"/>
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="U268" s="4">
         <v>10</v>
@@ -68889,7 +68887,7 @@
 IF(ISBLANK($AB268),0, LOOKUP($AB268,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC268/100)+
 IF(ISBLANK($AD268),0, LOOKUP($AD268,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE268/100)+
 IF(ISBLANK($AF268),0, LOOKUP($AF268,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG268/100)</f>
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="AI268" s="21">
         <v>0</v>
@@ -72270,7 +72268,7 @@
       </c>
       <c r="H288" s="4">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I288" s="4">
         <v>2</v>
@@ -72307,7 +72305,7 @@
       </c>
       <c r="T288" s="15">
         <f t="shared" si="17"/>
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="U288" s="4">
         <v>10</v>
@@ -72345,7 +72343,7 @@
 IF(ISBLANK($AB288),0, LOOKUP($AB288,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC288/100)+
 IF(ISBLANK($AD288),0, LOOKUP($AD288,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE288/100)+
 IF(ISBLANK($AF288),0, LOOKUP($AF288,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG288/100)</f>
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="AI288" s="21">
         <v>0</v>
@@ -73687,7 +73685,7 @@
       </c>
       <c r="T296" s="15">
         <f t="shared" si="17"/>
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="U296" s="4">
         <v>10</v>
@@ -73725,7 +73723,7 @@
 IF(ISBLANK($AB296),0, LOOKUP($AB296,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC296/100)+
 IF(ISBLANK($AD296),0, LOOKUP($AD296,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE296/100)+
 IF(ISBLANK($AF296),0, LOOKUP($AF296,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG296/100)</f>
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="AI296" s="21">
         <v>0</v>
@@ -73824,7 +73822,7 @@
       </c>
       <c r="H297" s="4">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I297" s="4">
         <v>3</v>
@@ -73861,7 +73859,7 @@
       </c>
       <c r="T297" s="15">
         <f t="shared" si="17"/>
-        <v>-13.25</v>
+        <v>21.75</v>
       </c>
       <c r="U297" s="4">
         <v>30</v>
@@ -73903,7 +73901,7 @@
 IF(ISBLANK($AB297),0, LOOKUP($AB297,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC297/100)+
 IF(ISBLANK($AD297),0, LOOKUP($AD297,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE297/100)+
 IF(ISBLANK($AF297),0, LOOKUP($AF297,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG297/100)</f>
-        <v>7.75</v>
+        <v>42.75</v>
       </c>
       <c r="AI297" s="21">
         <v>0</v>
@@ -74002,7 +74000,7 @@
       </c>
       <c r="H298" s="4">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I298" s="4">
         <v>1</v>
@@ -74039,7 +74037,7 @@
       </c>
       <c r="T298" s="15">
         <f t="shared" si="17"/>
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="U298" s="4">
         <v>10</v>
@@ -74077,7 +74075,7 @@
 IF(ISBLANK($AB298),0, LOOKUP($AB298,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC298/100)+
 IF(ISBLANK($AD298),0, LOOKUP($AD298,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE298/100)+
 IF(ISBLANK($AF298),0, LOOKUP($AF298,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG298/100)</f>
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="AI298" s="21">
         <v>0</v>
@@ -74553,7 +74551,7 @@
       </c>
       <c r="T301" s="15">
         <f t="shared" si="17"/>
-        <v>33.700000000000003</v>
+        <v>68.7</v>
       </c>
       <c r="U301" s="4">
         <v>10</v>
@@ -74599,7 +74597,7 @@
 IF(ISBLANK($AB301),0, LOOKUP($AB301,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC301/100)+
 IF(ISBLANK($AD301),0, LOOKUP($AD301,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE301/100)+
 IF(ISBLANK($AF301),0, LOOKUP($AF301,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG301/100)</f>
-        <v>7.7</v>
+        <v>42.7</v>
       </c>
       <c r="AI301" s="21">
         <v>0</v>
@@ -74698,7 +74696,7 @@
       </c>
       <c r="H302" s="4">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I302" s="4">
         <v>3</v>
@@ -74735,7 +74733,7 @@
       </c>
       <c r="T302" s="15">
         <f t="shared" si="17"/>
-        <v>6.5</v>
+        <v>41.5</v>
       </c>
       <c r="U302" s="4">
         <v>30</v>
@@ -74773,7 +74771,7 @@
 IF(ISBLANK($AB302),0, LOOKUP($AB302,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC302/100)+
 IF(ISBLANK($AD302),0, LOOKUP($AD302,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE302/100)+
 IF(ISBLANK($AF302),0, LOOKUP($AF302,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG302/100)</f>
-        <v>9.5</v>
+        <v>44.5</v>
       </c>
       <c r="AI302" s="21">
         <v>0</v>
@@ -74872,7 +74870,7 @@
       </c>
       <c r="H303" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I303" s="11">
         <v>1</v>
@@ -74909,7 +74907,7 @@
       </c>
       <c r="T303" s="24">
         <f t="shared" si="17"/>
-        <v>-6</v>
+        <v>29</v>
       </c>
       <c r="U303" s="4">
         <v>10</v>
@@ -74947,7 +74945,7 @@
 IF(ISBLANK($AB303),0, LOOKUP($AB303,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC303/100)+
 IF(ISBLANK($AD303),0, LOOKUP($AD303,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE303/100)+
 IF(ISBLANK($AF303),0, LOOKUP($AF303,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG303/100)</f>
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="AI303" s="21">
         <v>0</v>
@@ -76438,7 +76436,7 @@
         <v>9</v>
       </c>
       <c r="Y312" s="11" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="Z312" s="21">
         <v>55000300</v>
@@ -76537,13 +76535,13 @@
         <v>51000310</v>
       </c>
       <c r="B313" s="11" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C313" s="11" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D313" s="8" t="s">
         <v>1426</v>
-      </c>
-      <c r="C313" s="11" t="s">
-        <v>1425</v>
-      </c>
-      <c r="D313" s="8" t="s">
-        <v>1427</v>
       </c>
       <c r="E313" s="11">
         <v>6</v>
@@ -76556,13 +76554,13 @@
       </c>
       <c r="H313" s="24">
         <f t="shared" ref="H313" si="20">IF(T313&gt;10,5,IF(T313&gt;5,4,IF(T313&gt;2.5,3,IF(T313&gt;0,2,IF(T313&gt;-2.5,1,IF(T313&gt;-10,0,6))))))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I313" s="11">
         <v>6</v>
       </c>
       <c r="J313" s="11">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K313" s="11">
         <v>-20</v>
@@ -76577,13 +76575,13 @@
         <v>0</v>
       </c>
       <c r="O313" s="11">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P313" s="11">
         <v>0</v>
       </c>
       <c r="Q313" s="11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R313" s="11">
         <v>0</v>
@@ -76593,7 +76591,7 @@
       </c>
       <c r="T313" s="24">
         <f t="shared" ref="T313" si="21">SUM(J313:K313)+SUM(M313:S313)*5+4.4*SUM(AO313:AW313)+2.5*SUM(AI313:AM313)+AH313+L313</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="U313" s="11">
         <v>10</v>
@@ -76608,7 +76606,7 @@
         <v>1021</v>
       </c>
       <c r="Y313" s="11" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="Z313" s="21">
         <v>55000344</v>
@@ -76627,7 +76625,7 @@
 IF(ISBLANK($AB313),0, LOOKUP($AB313,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC313/100)+
 IF(ISBLANK($AD313),0, LOOKUP($AD313,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE313/100)+
 IF(ISBLANK($AF313),0, LOOKUP($AF313,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG313/100)</f>
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="AI313" s="21">
         <v>0</v>
@@ -77020,7 +77018,7 @@
         <v>295</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="X2" s="2" t="s">
         <v>296</v>
@@ -77196,7 +77194,7 @@
         <v>1143</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="X3" s="6" t="s">
         <v>306</v>
@@ -77328,7 +77326,7 @@
       </c>
       <c r="H4" s="4">
         <f t="shared" ref="H4:H11" si="0">IF(T4&gt;10,5,IF(T4&gt;5,4,IF(T4&gt;2.5,3,IF(T4&gt;0,2,IF(T4&gt;-2.5,1,IF(T4&gt;-10,0,6))))))</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I4" s="11">
         <v>1</v>
@@ -77365,7 +77363,7 @@
       </c>
       <c r="T4" s="15">
         <f t="shared" ref="T4:T11" si="1">SUM(J4:K4)+SUM(M4:S4)*5+4.4*SUM(AO4:AW4)+2.5*SUM(AI4:AM4)+AH4+L4</f>
-        <v>-22</v>
+        <v>13</v>
       </c>
       <c r="U4" s="11">
         <v>10</v>
@@ -77397,7 +77395,7 @@
 IF(ISBLANK($AB4),0, LOOKUP($AB4,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC4/100)+
 IF(ISBLANK($AD4),0, LOOKUP($AD4,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE4/100)+
 IF(ISBLANK($AF4),0, LOOKUP($AF4,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG4/100)</f>
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="AI4" s="21">
         <v>0</v>
@@ -77494,7 +77492,7 @@
       </c>
       <c r="H5" s="11">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I5" s="11">
         <v>2</v>
@@ -77531,7 +77529,7 @@
       </c>
       <c r="T5" s="15">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="U5" s="11">
         <v>10</v>
@@ -77563,7 +77561,7 @@
 IF(ISBLANK($AB5),0, LOOKUP($AB5,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC5/100)+
 IF(ISBLANK($AD5),0, LOOKUP($AD5,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE5/100)+
 IF(ISBLANK($AF5),0, LOOKUP($AF5,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG5/100)</f>
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="AI5" s="21">
         <v>0</v>

--- a/ConfigData/Xlsx/Monster.xlsx
+++ b/ConfigData/Xlsx/Monster.xlsx
@@ -701,7 +701,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2561" uniqueCount="1429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2561" uniqueCount="1430">
   <si>
     <t>arrow</t>
   </si>
@@ -4217,9 +4217,6 @@
   </si>
   <si>
     <t>55000143;30|55000219;100</t>
-  </si>
-  <si>
-    <t>55000221;100|55000187;100|55010006;100</t>
   </si>
   <si>
     <t>55000002;100|55000235;100</t>
@@ -5543,6 +5540,14 @@
   </si>
   <si>
     <t>55000084;100</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>55000221;100</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -6619,13 +6624,23 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="136">
+  <dxfs count="137">
     <dxf>
       <font>
         <b/>
         <i val="0"/>
         <color theme="9" tint="-0.24994659260841701"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -12315,7 +12330,7 @@
             <v>55000221</v>
           </cell>
           <cell r="V208">
-            <v>12</v>
+            <v>80</v>
           </cell>
         </row>
         <row r="209">
@@ -22120,173 +22135,173 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:BF313" totalsRowShown="0" headerRowDxfId="135" dataDxfId="134" tableBorderDxfId="133">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:BF313" totalsRowShown="0" headerRowDxfId="136" dataDxfId="135" tableBorderDxfId="134">
   <autoFilter ref="A3:BF313"/>
   <sortState ref="A4:AF311">
     <sortCondition ref="A3:A311"/>
   </sortState>
   <tableColumns count="58">
-    <tableColumn id="1" name="Id" dataDxfId="132"/>
-    <tableColumn id="2" name="Name" dataDxfId="131"/>
-    <tableColumn id="22" name="Ename" dataDxfId="130"/>
-    <tableColumn id="23" name="EnameShort" dataDxfId="129"/>
-    <tableColumn id="3" name="Star" dataDxfId="128"/>
-    <tableColumn id="4" name="Type" dataDxfId="127"/>
-    <tableColumn id="5" name="Attr" dataDxfId="126"/>
-    <tableColumn id="58" name="Quality" dataDxfId="125">
+    <tableColumn id="1" name="Id" dataDxfId="133"/>
+    <tableColumn id="2" name="Name" dataDxfId="132"/>
+    <tableColumn id="22" name="Ename" dataDxfId="131"/>
+    <tableColumn id="23" name="EnameShort" dataDxfId="130"/>
+    <tableColumn id="3" name="Star" dataDxfId="129"/>
+    <tableColumn id="4" name="Type" dataDxfId="128"/>
+    <tableColumn id="5" name="Attr" dataDxfId="127"/>
+    <tableColumn id="58" name="Quality" dataDxfId="126">
       <calculatedColumnFormula>IF(T4&gt;10,5,IF(T4&gt;5,4,IF(T4&gt;2.5,3,IF(T4&gt;0,2,IF(T4&gt;-2.5,1,IF(T4&gt;-10,0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Cost" dataDxfId="124"/>
-    <tableColumn id="6" name="AtkP" dataDxfId="123"/>
-    <tableColumn id="24" name="VitP" dataDxfId="122"/>
-    <tableColumn id="25" name="Modify" dataDxfId="121"/>
-    <tableColumn id="9" name="Def" dataDxfId="120"/>
-    <tableColumn id="10" name="Mag" dataDxfId="119"/>
-    <tableColumn id="32" name="Spd" dataDxfId="118"/>
-    <tableColumn id="35" name="Hit" dataDxfId="117"/>
-    <tableColumn id="36" name="Dhit" dataDxfId="116"/>
-    <tableColumn id="34" name="Crt" dataDxfId="115"/>
-    <tableColumn id="33" name="Luk" dataDxfId="114"/>
-    <tableColumn id="7" name="Sum" dataDxfId="113">
+    <tableColumn id="12" name="Cost" dataDxfId="125"/>
+    <tableColumn id="6" name="AtkP" dataDxfId="124"/>
+    <tableColumn id="24" name="VitP" dataDxfId="123"/>
+    <tableColumn id="25" name="Modify" dataDxfId="122"/>
+    <tableColumn id="9" name="Def" dataDxfId="121"/>
+    <tableColumn id="10" name="Mag" dataDxfId="120"/>
+    <tableColumn id="32" name="Spd" dataDxfId="119"/>
+    <tableColumn id="35" name="Hit" dataDxfId="118"/>
+    <tableColumn id="36" name="Dhit" dataDxfId="117"/>
+    <tableColumn id="34" name="Crt" dataDxfId="116"/>
+    <tableColumn id="33" name="Luk" dataDxfId="115"/>
+    <tableColumn id="7" name="Sum" dataDxfId="114">
       <calculatedColumnFormula>SUM(J4:K4)+SUM(M4:S4)*5+4.4*SUM(AO4:AW4)+2.5*SUM(AI4:AM4)+AH4+L4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Range" dataDxfId="112"/>
-    <tableColumn id="14" name="Mov" dataDxfId="111"/>
-    <tableColumn id="51" name="LifeRound" dataDxfId="110"/>
-    <tableColumn id="16" name="Arrow" dataDxfId="109"/>
-    <tableColumn id="18" name="Skills" dataDxfId="108"/>
-    <tableColumn id="42" name="~Skill1" dataDxfId="107"/>
-    <tableColumn id="43" name="~SkillRate1" dataDxfId="106"/>
-    <tableColumn id="44" name="~Skill2" dataDxfId="105"/>
-    <tableColumn id="45" name="~SkillRate2" dataDxfId="104"/>
-    <tableColumn id="46" name="~Skill3" dataDxfId="103"/>
-    <tableColumn id="47" name="~SkillRate3" dataDxfId="102"/>
-    <tableColumn id="48" name="~Skill4" dataDxfId="101"/>
-    <tableColumn id="49" name="~SkillRate4" dataDxfId="100"/>
-    <tableColumn id="54" name="~SkillMark" dataDxfId="99">
+    <tableColumn id="13" name="Range" dataDxfId="113"/>
+    <tableColumn id="14" name="Mov" dataDxfId="112"/>
+    <tableColumn id="51" name="LifeRound" dataDxfId="111"/>
+    <tableColumn id="16" name="Arrow" dataDxfId="110"/>
+    <tableColumn id="18" name="Skills" dataDxfId="109"/>
+    <tableColumn id="42" name="~Skill1" dataDxfId="108"/>
+    <tableColumn id="43" name="~SkillRate1" dataDxfId="107"/>
+    <tableColumn id="44" name="~Skill2" dataDxfId="106"/>
+    <tableColumn id="45" name="~SkillRate2" dataDxfId="105"/>
+    <tableColumn id="46" name="~Skill3" dataDxfId="104"/>
+    <tableColumn id="47" name="~SkillRate3" dataDxfId="103"/>
+    <tableColumn id="48" name="~Skill4" dataDxfId="102"/>
+    <tableColumn id="49" name="~SkillRate4" dataDxfId="101"/>
+    <tableColumn id="54" name="~SkillMark" dataDxfId="100">
       <calculatedColumnFormula>IF(ISBLANK($Z4),0, LOOKUP($Z4,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AA4/100)+
 IF(ISBLANK($AB4),0, LOOKUP($AB4,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC4/100)+
 IF(ISBLANK($AD4),0, LOOKUP($AD4,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE4/100)+
 IF(ISBLANK($AF4),0, LOOKUP($AF4,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG4/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="52" name="~AntiLife" dataDxfId="98"/>
-    <tableColumn id="57" name="~AntiMental" dataDxfId="97"/>
-    <tableColumn id="56" name="~AntiPhysical" dataDxfId="96"/>
-    <tableColumn id="55" name="~AntiElement" dataDxfId="95"/>
-    <tableColumn id="53" name="~AntiHelp" dataDxfId="94"/>
-    <tableColumn id="30" name="BuffImmune" dataDxfId="93">
+    <tableColumn id="52" name="~AntiLife" dataDxfId="99"/>
+    <tableColumn id="57" name="~AntiMental" dataDxfId="98"/>
+    <tableColumn id="56" name="~AntiPhysical" dataDxfId="97"/>
+    <tableColumn id="55" name="~AntiElement" dataDxfId="96"/>
+    <tableColumn id="53" name="~AntiHelp" dataDxfId="95"/>
+    <tableColumn id="30" name="BuffImmune" dataDxfId="94">
       <calculatedColumnFormula>CONCATENATE(AI4,";",AJ4,";",AK4,";",AL4,";",AM4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="~AntiNull" dataDxfId="92"/>
-    <tableColumn id="11" name="~AntiWater" dataDxfId="91"/>
-    <tableColumn id="26" name="~AntiWind" dataDxfId="90"/>
-    <tableColumn id="27" name="~AntiFire" dataDxfId="89"/>
-    <tableColumn id="37" name="~AntiEarth" dataDxfId="88"/>
-    <tableColumn id="38" name="~AntiIce" dataDxfId="87"/>
-    <tableColumn id="39" name="~AntiThunder" dataDxfId="86"/>
-    <tableColumn id="40" name="~AntiLight" dataDxfId="85"/>
-    <tableColumn id="41" name="~AntiDark" dataDxfId="84"/>
-    <tableColumn id="31" name="AttrDef" dataDxfId="83">
+    <tableColumn id="8" name="~AntiNull" dataDxfId="93"/>
+    <tableColumn id="11" name="~AntiWater" dataDxfId="92"/>
+    <tableColumn id="26" name="~AntiWind" dataDxfId="91"/>
+    <tableColumn id="27" name="~AntiFire" dataDxfId="90"/>
+    <tableColumn id="37" name="~AntiEarth" dataDxfId="89"/>
+    <tableColumn id="38" name="~AntiIce" dataDxfId="88"/>
+    <tableColumn id="39" name="~AntiThunder" dataDxfId="87"/>
+    <tableColumn id="40" name="~AntiLight" dataDxfId="86"/>
+    <tableColumn id="41" name="~AntiDark" dataDxfId="85"/>
+    <tableColumn id="31" name="AttrDef" dataDxfId="84">
       <calculatedColumnFormula>CONCATENATE(AO4,";",AP4,";",AQ4,";",AR4,";",AS4,";",AT4,";",AU4,";",AV4,";",AW4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="50" name="IsBuilding" dataDxfId="82"/>
-    <tableColumn id="20" name="Res" dataDxfId="81"/>
-    <tableColumn id="21" name="Icon" dataDxfId="80"/>
-    <tableColumn id="17" name="Cover" dataDxfId="79"/>
-    <tableColumn id="15" name="IsSpecial" dataDxfId="78"/>
-    <tableColumn id="28" name="IsNew" dataDxfId="77"/>
-    <tableColumn id="19" name="VsMark" dataDxfId="76"/>
-    <tableColumn id="29" name="Remark" dataDxfId="75"/>
+    <tableColumn id="50" name="IsBuilding" dataDxfId="83"/>
+    <tableColumn id="20" name="Res" dataDxfId="82"/>
+    <tableColumn id="21" name="Icon" dataDxfId="81"/>
+    <tableColumn id="17" name="Cover" dataDxfId="80"/>
+    <tableColumn id="15" name="IsSpecial" dataDxfId="79"/>
+    <tableColumn id="28" name="IsNew" dataDxfId="78"/>
+    <tableColumn id="19" name="VsMark" dataDxfId="77"/>
+    <tableColumn id="29" name="Remark" dataDxfId="76"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表1_5" displayName="表1_5" ref="A3:BF11" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64" tableBorderDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表1_5" displayName="表1_5" ref="A3:BF11" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65" tableBorderDxfId="64">
   <autoFilter ref="A3:BF11"/>
   <sortState ref="A4:AF311">
     <sortCondition ref="A3:A311"/>
   </sortState>
   <tableColumns count="58">
-    <tableColumn id="1" name="Id" dataDxfId="62"/>
-    <tableColumn id="2" name="Name" dataDxfId="61"/>
-    <tableColumn id="22" name="Ename" dataDxfId="60"/>
-    <tableColumn id="23" name="EnameShort" dataDxfId="59"/>
-    <tableColumn id="3" name="Star" dataDxfId="58"/>
-    <tableColumn id="4" name="Type" dataDxfId="57"/>
-    <tableColumn id="5" name="Attr" dataDxfId="56"/>
-    <tableColumn id="58" name="Quality" dataDxfId="55">
+    <tableColumn id="1" name="Id" dataDxfId="63"/>
+    <tableColumn id="2" name="Name" dataDxfId="62"/>
+    <tableColumn id="22" name="Ename" dataDxfId="61"/>
+    <tableColumn id="23" name="EnameShort" dataDxfId="60"/>
+    <tableColumn id="3" name="Star" dataDxfId="59"/>
+    <tableColumn id="4" name="Type" dataDxfId="58"/>
+    <tableColumn id="5" name="Attr" dataDxfId="57"/>
+    <tableColumn id="58" name="Quality" dataDxfId="56">
       <calculatedColumnFormula>IF(T4&gt;10,5,IF(T4&gt;5,4,IF(T4&gt;2.5,3,IF(T4&gt;0,2,IF(T4&gt;-2.5,1,IF(T4&gt;-10,0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Cost" dataDxfId="54"/>
-    <tableColumn id="6" name="AtkP" dataDxfId="53"/>
-    <tableColumn id="24" name="VitP" dataDxfId="52"/>
-    <tableColumn id="25" name="Modify" dataDxfId="51"/>
-    <tableColumn id="9" name="Def" dataDxfId="50"/>
-    <tableColumn id="10" name="Mag" dataDxfId="49"/>
-    <tableColumn id="32" name="Spd" dataDxfId="48"/>
-    <tableColumn id="35" name="Hit" dataDxfId="47"/>
-    <tableColumn id="36" name="Dhit" dataDxfId="46"/>
-    <tableColumn id="34" name="Crt" dataDxfId="45"/>
-    <tableColumn id="33" name="Luk" dataDxfId="44"/>
-    <tableColumn id="7" name="Sum" dataDxfId="43">
+    <tableColumn id="12" name="Cost" dataDxfId="55"/>
+    <tableColumn id="6" name="AtkP" dataDxfId="54"/>
+    <tableColumn id="24" name="VitP" dataDxfId="53"/>
+    <tableColumn id="25" name="Modify" dataDxfId="52"/>
+    <tableColumn id="9" name="Def" dataDxfId="51"/>
+    <tableColumn id="10" name="Mag" dataDxfId="50"/>
+    <tableColumn id="32" name="Spd" dataDxfId="49"/>
+    <tableColumn id="35" name="Hit" dataDxfId="48"/>
+    <tableColumn id="36" name="Dhit" dataDxfId="47"/>
+    <tableColumn id="34" name="Crt" dataDxfId="46"/>
+    <tableColumn id="33" name="Luk" dataDxfId="45"/>
+    <tableColumn id="7" name="Sum" dataDxfId="44">
       <calculatedColumnFormula>SUM(J4:K4)+SUM(M4:S4)*5+4.4*SUM(AO4:AW4)+2.5*SUM(AI4:AM4)+AH4+L4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Range" dataDxfId="42"/>
-    <tableColumn id="14" name="Mov" dataDxfId="41"/>
-    <tableColumn id="60" name="LifeRound" dataDxfId="40"/>
-    <tableColumn id="16" name="Arrow" dataDxfId="39"/>
-    <tableColumn id="18" name="Skills" dataDxfId="38"/>
-    <tableColumn id="42" name="~Skill1" dataDxfId="37"/>
-    <tableColumn id="43" name="~SkillRate1" dataDxfId="36"/>
-    <tableColumn id="44" name="~Skill2" dataDxfId="35"/>
-    <tableColumn id="45" name="~SkillRate2" dataDxfId="34"/>
-    <tableColumn id="46" name="~Skill3" dataDxfId="33"/>
-    <tableColumn id="47" name="~SkillRate3" dataDxfId="32"/>
-    <tableColumn id="48" name="~Skill4" dataDxfId="31"/>
-    <tableColumn id="49" name="~SkillRate4" dataDxfId="30"/>
-    <tableColumn id="54" name="~SkillMark" dataDxfId="29">
+    <tableColumn id="13" name="Range" dataDxfId="43"/>
+    <tableColumn id="14" name="Mov" dataDxfId="42"/>
+    <tableColumn id="60" name="LifeRound" dataDxfId="41"/>
+    <tableColumn id="16" name="Arrow" dataDxfId="40"/>
+    <tableColumn id="18" name="Skills" dataDxfId="39"/>
+    <tableColumn id="42" name="~Skill1" dataDxfId="38"/>
+    <tableColumn id="43" name="~SkillRate1" dataDxfId="37"/>
+    <tableColumn id="44" name="~Skill2" dataDxfId="36"/>
+    <tableColumn id="45" name="~SkillRate2" dataDxfId="35"/>
+    <tableColumn id="46" name="~Skill3" dataDxfId="34"/>
+    <tableColumn id="47" name="~SkillRate3" dataDxfId="33"/>
+    <tableColumn id="48" name="~Skill4" dataDxfId="32"/>
+    <tableColumn id="49" name="~SkillRate4" dataDxfId="31"/>
+    <tableColumn id="54" name="~SkillMark" dataDxfId="30">
       <calculatedColumnFormula>IF(ISBLANK($Z4),0, LOOKUP($Z4,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AA4/100)+
 IF(ISBLANK($AB4),0, LOOKUP($AB4,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC4/100)+
 IF(ISBLANK($AD4),0, LOOKUP($AD4,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE4/100)+
 IF(ISBLANK($AF4),0, LOOKUP($AF4,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG4/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="52" name="~AntiLife" dataDxfId="28"/>
-    <tableColumn id="57" name="~AntiMental" dataDxfId="27"/>
-    <tableColumn id="56" name="~AntiPhysical" dataDxfId="26"/>
-    <tableColumn id="55" name="~AntiElement" dataDxfId="25"/>
-    <tableColumn id="53" name="~AntiHelp" dataDxfId="24"/>
-    <tableColumn id="30" name="BuffImmune" dataDxfId="23">
+    <tableColumn id="52" name="~AntiLife" dataDxfId="29"/>
+    <tableColumn id="57" name="~AntiMental" dataDxfId="28"/>
+    <tableColumn id="56" name="~AntiPhysical" dataDxfId="27"/>
+    <tableColumn id="55" name="~AntiElement" dataDxfId="26"/>
+    <tableColumn id="53" name="~AntiHelp" dataDxfId="25"/>
+    <tableColumn id="30" name="BuffImmune" dataDxfId="24">
       <calculatedColumnFormula>CONCATENATE(AI4,";",AJ4,";",AK4,";",AL4,";",AM4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="~AntiNull" dataDxfId="22"/>
-    <tableColumn id="11" name="~AntiWater" dataDxfId="21"/>
-    <tableColumn id="26" name="~AntiWind" dataDxfId="20"/>
-    <tableColumn id="27" name="~AntiFire" dataDxfId="19"/>
-    <tableColumn id="37" name="~AntiEarth" dataDxfId="18"/>
-    <tableColumn id="38" name="~AntiIce" dataDxfId="17"/>
-    <tableColumn id="39" name="~AntiThunder" dataDxfId="16"/>
-    <tableColumn id="40" name="~AntiLight" dataDxfId="15"/>
-    <tableColumn id="41" name="~AntiDark" dataDxfId="14"/>
-    <tableColumn id="31" name="AttrDef" dataDxfId="13">
+    <tableColumn id="8" name="~AntiNull" dataDxfId="23"/>
+    <tableColumn id="11" name="~AntiWater" dataDxfId="22"/>
+    <tableColumn id="26" name="~AntiWind" dataDxfId="21"/>
+    <tableColumn id="27" name="~AntiFire" dataDxfId="20"/>
+    <tableColumn id="37" name="~AntiEarth" dataDxfId="19"/>
+    <tableColumn id="38" name="~AntiIce" dataDxfId="18"/>
+    <tableColumn id="39" name="~AntiThunder" dataDxfId="17"/>
+    <tableColumn id="40" name="~AntiLight" dataDxfId="16"/>
+    <tableColumn id="41" name="~AntiDark" dataDxfId="15"/>
+    <tableColumn id="31" name="AttrDef" dataDxfId="14">
       <calculatedColumnFormula>CONCATENATE(AO4,";",AP4,";",AQ4,";",AR4,";",AS4,";",AT4,";",AU4,";",AV4,";",AW4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="59" name="IsBuilding" dataDxfId="12"/>
-    <tableColumn id="20" name="Res" dataDxfId="11"/>
-    <tableColumn id="21" name="Icon" dataDxfId="10"/>
-    <tableColumn id="17" name="Cover" dataDxfId="9"/>
-    <tableColumn id="15" name="IsSpecial" dataDxfId="8"/>
-    <tableColumn id="28" name="IsNew" dataDxfId="7"/>
-    <tableColumn id="19" name="VsMark" dataDxfId="6"/>
-    <tableColumn id="29" name="Remark" dataDxfId="5"/>
+    <tableColumn id="59" name="IsBuilding" dataDxfId="13"/>
+    <tableColumn id="20" name="Res" dataDxfId="12"/>
+    <tableColumn id="21" name="Icon" dataDxfId="11"/>
+    <tableColumn id="17" name="Cover" dataDxfId="10"/>
+    <tableColumn id="15" name="IsSpecial" dataDxfId="9"/>
+    <tableColumn id="28" name="IsNew" dataDxfId="8"/>
+    <tableColumn id="19" name="VsMark" dataDxfId="7"/>
+    <tableColumn id="29" name="Remark" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:I15" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:I15" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A1:I15"/>
   <tableColumns count="9">
     <tableColumn id="1" name="星级"/>
@@ -22593,10 +22608,10 @@
   <dimension ref="A1:BF313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="AG218" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B52" sqref="B52"/>
+      <selection pane="bottomRight" activeCell="AY224" sqref="AY224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -22651,7 +22666,7 @@
         <v>315</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="I1" s="17" t="s">
         <v>977</v>
@@ -22666,37 +22681,37 @@
         <v>972</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="N1" s="17" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="O1" s="17" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="Q1" s="17" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="R1" s="17" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="S1" s="17" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T1" s="40" t="s">
         <v>974</v>
       </c>
       <c r="U1" s="17" t="s">
+        <v>1138</v>
+      </c>
+      <c r="V1" s="17" t="s">
         <v>1139</v>
       </c>
-      <c r="V1" s="17" t="s">
-        <v>1140</v>
-      </c>
       <c r="W1" s="17" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="X1" s="17" t="s">
         <v>323</v>
@@ -22705,82 +22720,82 @@
         <v>325</v>
       </c>
       <c r="Z1" s="44" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="AA1" s="44" t="s">
+        <v>1240</v>
+      </c>
+      <c r="AB1" s="44" t="s">
         <v>1241</v>
       </c>
-      <c r="AB1" s="44" t="s">
+      <c r="AC1" s="44" t="s">
         <v>1242</v>
       </c>
-      <c r="AC1" s="44" t="s">
+      <c r="AD1" s="44" t="s">
         <v>1243</v>
       </c>
-      <c r="AD1" s="44" t="s">
+      <c r="AE1" s="44" t="s">
         <v>1244</v>
       </c>
-      <c r="AE1" s="44" t="s">
+      <c r="AF1" s="44" t="s">
         <v>1245</v>
       </c>
-      <c r="AF1" s="44" t="s">
+      <c r="AG1" s="44" t="s">
         <v>1246</v>
       </c>
-      <c r="AG1" s="44" t="s">
-        <v>1247</v>
-      </c>
       <c r="AH1" s="44" t="s">
+        <v>1254</v>
+      </c>
+      <c r="AI1" s="17" t="s">
         <v>1255</v>
       </c>
-      <c r="AI1" s="17" t="s">
+      <c r="AJ1" s="17" t="s">
         <v>1256</v>
       </c>
-      <c r="AJ1" s="17" t="s">
+      <c r="AK1" s="17" t="s">
         <v>1257</v>
       </c>
-      <c r="AK1" s="17" t="s">
+      <c r="AL1" s="17" t="s">
         <v>1258</v>
       </c>
-      <c r="AL1" s="17" t="s">
+      <c r="AM1" s="17" t="s">
         <v>1259</v>
       </c>
-      <c r="AM1" s="17" t="s">
-        <v>1260</v>
-      </c>
       <c r="AN1" s="17" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="AO1" s="47" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="AP1" s="47" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="AQ1" s="47" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="AR1" s="47" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AS1" s="47" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="AT1" s="47" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="AU1" s="47" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="AV1" s="47" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="AW1" s="47" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="AX1" s="48" t="s">
         <v>1027</v>
       </c>
       <c r="AY1" s="54" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="AZ1" s="17" t="s">
         <v>326</v>
@@ -22827,7 +22842,7 @@
         <v>295</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>978</v>
@@ -22842,37 +22857,37 @@
         <v>965</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="T2" s="41" t="s">
         <v>1009</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="X2" s="2" t="s">
         <v>296</v>
@@ -22941,13 +22956,13 @@
         <v>1009</v>
       </c>
       <c r="AT2" s="49" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="AU2" s="49" t="s">
         <v>1009</v>
       </c>
       <c r="AV2" s="49" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="AW2" s="49" t="s">
         <v>1009</v>
@@ -22956,7 +22971,7 @@
         <v>1029</v>
       </c>
       <c r="AY2" s="55" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ2" s="2" t="s">
         <v>295</v>
@@ -23003,7 +23018,7 @@
         <v>1033</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>979</v>
@@ -23018,37 +23033,37 @@
         <v>973</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="T3" s="42" t="s">
         <v>975</v>
       </c>
       <c r="U3" s="6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="V3" s="6" t="s">
         <v>1142</v>
       </c>
-      <c r="V3" s="6" t="s">
-        <v>1143</v>
-      </c>
       <c r="W3" s="6" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="X3" s="6" t="s">
         <v>306</v>
@@ -23057,82 +23072,82 @@
         <v>308</v>
       </c>
       <c r="Z3" s="46" t="s">
+        <v>1238</v>
+      </c>
+      <c r="AA3" s="46" t="s">
         <v>1239</v>
       </c>
-      <c r="AA3" s="46" t="s">
-        <v>1240</v>
-      </c>
       <c r="AB3" s="46" t="s">
+        <v>1247</v>
+      </c>
+      <c r="AC3" s="46" t="s">
         <v>1248</v>
       </c>
-      <c r="AC3" s="46" t="s">
+      <c r="AD3" s="46" t="s">
         <v>1249</v>
       </c>
-      <c r="AD3" s="46" t="s">
+      <c r="AE3" s="46" t="s">
         <v>1250</v>
       </c>
-      <c r="AE3" s="46" t="s">
+      <c r="AF3" s="46" t="s">
         <v>1251</v>
       </c>
-      <c r="AF3" s="46" t="s">
+      <c r="AG3" s="46" t="s">
         <v>1252</v>
       </c>
-      <c r="AG3" s="46" t="s">
+      <c r="AH3" s="46" t="s">
         <v>1253</v>
       </c>
-      <c r="AH3" s="46" t="s">
-        <v>1254</v>
-      </c>
       <c r="AI3" s="6" t="s">
+        <v>1260</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
         <v>1261</v>
       </c>
-      <c r="AJ3" s="6" t="s">
+      <c r="AK3" s="6" t="s">
         <v>1262</v>
       </c>
-      <c r="AK3" s="6" t="s">
+      <c r="AL3" s="6" t="s">
         <v>1263</v>
       </c>
-      <c r="AL3" s="6" t="s">
+      <c r="AM3" s="6" t="s">
         <v>1264</v>
       </c>
-      <c r="AM3" s="6" t="s">
-        <v>1265</v>
-      </c>
       <c r="AN3" s="6" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="AO3" s="51" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="AP3" s="52" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="AQ3" s="52" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="AR3" s="52" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="AS3" s="52" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="AT3" s="52" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="AU3" s="52" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="AV3" s="52" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="AW3" s="52" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="AX3" s="42" t="s">
         <v>1028</v>
       </c>
       <c r="AY3" s="14" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="AZ3" s="6" t="s">
         <v>309</v>
@@ -23298,7 +23313,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY4" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ4" s="4">
         <v>6</v>
@@ -23317,7 +23332,7 @@
         <v>0.104918</v>
       </c>
       <c r="BF4" s="22" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="5" spans="1:58" ht="14.25">
@@ -23396,7 +23411,7 @@
         <v>4</v>
       </c>
       <c r="Y5" s="4" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="Z5" s="43">
         <v>55000001</v>
@@ -23472,7 +23487,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY5" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ5" s="4">
         <v>6</v>
@@ -23491,7 +23506,7 @@
         <v>0.30327870000000001</v>
       </c>
       <c r="BF5" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="6" spans="1:58" ht="14.25">
@@ -23642,7 +23657,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY6" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ6" s="4">
         <v>6</v>
@@ -23661,7 +23676,7 @@
         <v>0.52786889999999997</v>
       </c>
       <c r="BF6" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="7" spans="1:58" ht="14.25">
@@ -23740,7 +23755,7 @@
         <v>0</v>
       </c>
       <c r="Y7" s="4" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="Z7" s="43">
         <v>55000029</v>
@@ -23812,7 +23827,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY7" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ7" s="4">
         <v>6</v>
@@ -23831,7 +23846,7 @@
         <v>0.33934429999999999</v>
       </c>
       <c r="BF7" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="8" spans="1:58" ht="14.25">
@@ -23976,7 +23991,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY8" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ8" s="4">
         <v>6</v>
@@ -23995,7 +24010,7 @@
         <v>0.40819670000000002</v>
       </c>
       <c r="BF8" s="22" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="9" spans="1:58" ht="14.25">
@@ -24074,7 +24089,7 @@
         <v>11</v>
       </c>
       <c r="Y9" s="4" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="Z9" s="43">
         <v>55000067</v>
@@ -24146,7 +24161,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY9" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ9" s="4">
         <v>6</v>
@@ -24165,7 +24180,7 @@
         <v>0.3180328</v>
       </c>
       <c r="BF9" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="10" spans="1:58" ht="14.25">
@@ -24244,7 +24259,7 @@
         <v>12</v>
       </c>
       <c r="Y10" s="4" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="Z10" s="43">
         <v>55000035</v>
@@ -24316,7 +24331,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY10" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ10" s="4">
         <v>6</v>
@@ -24335,7 +24350,7 @@
         <v>0.20163929999999999</v>
       </c>
       <c r="BF10" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="11" spans="1:58" ht="14.25">
@@ -24414,7 +24429,7 @@
         <v>14</v>
       </c>
       <c r="Y11" s="4" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="Z11" s="43">
         <v>55000016</v>
@@ -24486,7 +24501,7 @@
         <v>0;0;0;0;0;0;0;0;0.3</v>
       </c>
       <c r="AY11" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ11" s="4">
         <v>6</v>
@@ -24505,7 +24520,7 @@
         <v>0.2377049</v>
       </c>
       <c r="BF11" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="12" spans="1:58" ht="14.25">
@@ -24660,7 +24675,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY12" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ12" s="4">
         <v>6</v>
@@ -24679,7 +24694,7 @@
         <v>0.81147539999999996</v>
       </c>
       <c r="BF12" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="13" spans="1:58" ht="14.25">
@@ -24824,7 +24839,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY13" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ13" s="4">
         <v>6</v>
@@ -24843,7 +24858,7 @@
         <v>0.48688520000000002</v>
       </c>
       <c r="BF13" s="22" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="14" spans="1:58" ht="14.25">
@@ -25002,7 +25017,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY14" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ14" s="4">
         <v>6</v>
@@ -25021,7 +25036,7 @@
         <v>0.67213109999999998</v>
       </c>
       <c r="BF14" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="15" spans="1:58" ht="14.25">
@@ -25166,7 +25181,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY15" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ15" s="4">
         <v>4</v>
@@ -25185,7 +25200,7 @@
         <v>0.94918029999999998</v>
       </c>
       <c r="BF15" s="22" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="16" spans="1:58" ht="14.25">
@@ -25330,7 +25345,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY16" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ16" s="4">
         <v>6</v>
@@ -25349,7 +25364,7 @@
         <v>0.26557380000000003</v>
       </c>
       <c r="BF16" s="22" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="17" spans="1:58" ht="14.25">
@@ -25494,7 +25509,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY17" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ17" s="4">
         <v>6</v>
@@ -25513,7 +25528,7 @@
         <v>0.65901639999999995</v>
       </c>
       <c r="BF17" s="22" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="18" spans="1:58" ht="14.25">
@@ -25658,7 +25673,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY18" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ18" s="4">
         <v>6</v>
@@ -25677,7 +25692,7 @@
         <v>0.13278690000000001</v>
       </c>
       <c r="BF18" s="22" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="19" spans="1:58" ht="14.25">
@@ -25822,7 +25837,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY19" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ19" s="4">
         <v>6</v>
@@ -25841,7 +25856,7 @@
         <v>0.1213115</v>
       </c>
       <c r="BF19" s="22" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="20" spans="1:58" ht="14.25">
@@ -25986,7 +26001,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY20" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ20" s="4">
         <v>6</v>
@@ -26005,7 +26020,7 @@
         <v>0.2770492</v>
       </c>
       <c r="BF20" s="22" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="21" spans="1:58" ht="14.25">
@@ -26150,7 +26165,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY21" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ21" s="4">
         <v>6</v>
@@ -26169,7 +26184,7 @@
         <v>0.14098359999999999</v>
       </c>
       <c r="BF21" s="22" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="22" spans="1:58" ht="14.25">
@@ -26314,7 +26329,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY22" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ22" s="4">
         <v>6</v>
@@ -26333,7 +26348,7 @@
         <v>0.1131148</v>
       </c>
       <c r="BF22" s="22" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="23" spans="1:58" ht="14.25">
@@ -26478,7 +26493,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY23" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ23" s="4">
         <v>6</v>
@@ -26497,7 +26512,7 @@
         <v>0.26885249999999999</v>
       </c>
       <c r="BF23" s="22" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="24" spans="1:58" ht="14.25">
@@ -26576,7 +26591,7 @@
         <v>0</v>
       </c>
       <c r="Y24" s="4" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="Z24" s="43">
         <v>55000006</v>
@@ -26648,7 +26663,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY24" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ24" s="4">
         <v>6</v>
@@ -26667,7 +26682,7 @@
         <v>0.34754099999999999</v>
       </c>
       <c r="BF24" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="25" spans="1:58" ht="14.25">
@@ -26746,7 +26761,7 @@
         <v>31</v>
       </c>
       <c r="Y25" s="4" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="Z25" s="43">
         <v>55000002</v>
@@ -26826,7 +26841,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY25" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ25" s="4">
         <v>6</v>
@@ -26845,7 +26860,7 @@
         <v>0.46885250000000001</v>
       </c>
       <c r="BF25" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="26" spans="1:58" ht="14.25">
@@ -26990,7 +27005,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY26" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ26" s="4">
         <v>6</v>
@@ -27009,7 +27024,7 @@
         <v>0.6426229</v>
       </c>
       <c r="BF26" s="22" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="27" spans="1:58" ht="14.25">
@@ -27160,7 +27175,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY27" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ27" s="4">
         <v>6</v>
@@ -27179,7 +27194,7 @@
         <v>0.58032790000000001</v>
       </c>
       <c r="BF27" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="28" spans="1:58" ht="14.25">
@@ -27258,7 +27273,7 @@
         <v>6</v>
       </c>
       <c r="Y28" s="4" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="Z28" s="43">
         <v>55000051</v>
@@ -27330,7 +27345,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY28" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ28" s="4">
         <v>6</v>
@@ -27349,7 +27364,7 @@
         <v>0.23278689999999999</v>
       </c>
       <c r="BF28" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="29" spans="1:58" ht="14.25">
@@ -27428,7 +27443,7 @@
         <v>9</v>
       </c>
       <c r="Y29" s="4" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="Z29" s="43">
         <v>55000030</v>
@@ -27500,7 +27515,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY29" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ29" s="4">
         <v>6</v>
@@ -27519,7 +27534,7 @@
         <v>0.38524589999999997</v>
       </c>
       <c r="BF29" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="30" spans="1:58" ht="14.25">
@@ -27664,7 +27679,7 @@
         <v>0;0;0;0;0.3;0;0;0;0</v>
       </c>
       <c r="AY30" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ30" s="4">
         <v>6</v>
@@ -27683,7 +27698,7 @@
         <v>0.58196720000000002</v>
       </c>
       <c r="BF30" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="31" spans="1:58" ht="14.25">
@@ -27762,7 +27777,7 @@
         <v>38</v>
       </c>
       <c r="Y31" s="4" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="Z31" s="43">
         <v>55000060</v>
@@ -27838,7 +27853,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY31" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ31" s="4">
         <v>6</v>
@@ -27857,7 +27872,7 @@
         <v>0.50819669999999995</v>
       </c>
       <c r="BF31" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="32" spans="1:58" ht="14.25">
@@ -28016,7 +28031,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY32" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ32" s="4">
         <v>6</v>
@@ -28035,7 +28050,7 @@
         <v>0.51475409999999999</v>
       </c>
       <c r="BF32" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="33" spans="1:58" ht="14.25">
@@ -28180,7 +28195,7 @@
         <v>0;0.3;0.3;0.3;0;0;0;0.3;0</v>
       </c>
       <c r="AY33" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ33" s="4">
         <v>6</v>
@@ -28199,7 +28214,7 @@
         <v>0.43278689999999997</v>
       </c>
       <c r="BF33" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="34" spans="1:58" ht="14.25">
@@ -28350,7 +28365,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY34" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ34" s="4">
         <v>6</v>
@@ -28369,7 +28384,7 @@
         <v>0.20163929999999999</v>
       </c>
       <c r="BF34" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="35" spans="1:58" ht="14.25">
@@ -28448,7 +28463,7 @@
         <v>9</v>
       </c>
       <c r="Y35" s="4" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="Z35" s="43">
         <v>55000064</v>
@@ -28520,7 +28535,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY35" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ35" s="4">
         <v>6</v>
@@ -28539,7 +28554,7 @@
         <v>5.0819669999999997E-2</v>
       </c>
       <c r="BF35" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="36" spans="1:58" ht="14.25">
@@ -28615,10 +28630,10 @@
         <v>0</v>
       </c>
       <c r="X36" s="4" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="Y36" s="4" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="Z36" s="43">
         <v>55000030</v>
@@ -28694,7 +28709,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY36" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ36" s="4">
         <v>6</v>
@@ -28713,7 +28728,7 @@
         <v>0.36721310000000001</v>
       </c>
       <c r="BF36" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="37" spans="1:58" ht="14.25">
@@ -28792,7 +28807,7 @@
         <v>38</v>
       </c>
       <c r="Y37" s="4" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="Z37" s="43">
         <v>55000073</v>
@@ -28864,7 +28879,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY37" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ37" s="4">
         <v>6</v>
@@ -28883,7 +28898,7 @@
         <v>0.35245900000000002</v>
       </c>
       <c r="BF37" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="38" spans="1:58" ht="14.25">
@@ -29028,7 +29043,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY38" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ38" s="4">
         <v>6</v>
@@ -29047,7 +29062,7 @@
         <v>0.25901639999999998</v>
       </c>
       <c r="BF38" s="22" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="39" spans="1:58" ht="14.25">
@@ -29192,7 +29207,7 @@
         <v>0;0.3;0;0;0.3;0;0;0;0</v>
       </c>
       <c r="AY39" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ39" s="4">
         <v>6</v>
@@ -29211,7 +29226,7 @@
         <v>0.76393440000000001</v>
       </c>
       <c r="BF39" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="40" spans="1:58" ht="14.25">
@@ -29356,7 +29371,7 @@
         <v>0;0.3;0;0.3;0;0.3;0.3;0;0</v>
       </c>
       <c r="AY40" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ40" s="4">
         <v>6</v>
@@ -29375,7 +29390,7 @@
         <v>0.79836059999999998</v>
       </c>
       <c r="BF40" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="41" spans="1:58" ht="14.25">
@@ -29454,7 +29469,7 @@
         <v>51</v>
       </c>
       <c r="Y41" s="4" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="Z41" s="43">
         <v>55000071</v>
@@ -29526,7 +29541,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY41" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ41" s="4">
         <v>6</v>
@@ -29545,7 +29560,7 @@
         <v>0.2377049</v>
       </c>
       <c r="BF41" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="42" spans="1:58" ht="14.25">
@@ -29624,7 +29639,7 @@
         <v>53</v>
       </c>
       <c r="Y42" s="4" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="Z42" s="43">
         <v>55000034</v>
@@ -29700,7 +29715,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY42" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ42" s="4">
         <v>6</v>
@@ -29719,7 +29734,7 @@
         <v>0.57868850000000005</v>
       </c>
       <c r="BF42" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="43" spans="1:58" ht="14.25">
@@ -29798,7 +29813,7 @@
         <v>4</v>
       </c>
       <c r="Y43" s="4" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="Z43" s="43">
         <v>55000074</v>
@@ -29870,7 +29885,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY43" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ43" s="4">
         <v>6</v>
@@ -29889,7 +29904,7 @@
         <v>0.13606560000000001</v>
       </c>
       <c r="BF43" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="44" spans="1:58" ht="14.25">
@@ -29968,7 +29983,7 @@
         <v>16</v>
       </c>
       <c r="Y44" s="4" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="Z44" s="43">
         <v>55000075</v>
@@ -30044,7 +30059,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY44" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ44" s="4">
         <v>6</v>
@@ -30063,7 +30078,7 @@
         <v>0.7</v>
       </c>
       <c r="BF44" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="45" spans="1:58" ht="14.25">
@@ -30142,7 +30157,7 @@
         <v>4</v>
       </c>
       <c r="Y45" s="4" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="Z45" s="43">
         <v>55000077</v>
@@ -30218,7 +30233,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY45" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ45" s="4">
         <v>6</v>
@@ -30237,7 +30252,7 @@
         <v>0.2</v>
       </c>
       <c r="BF45" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="46" spans="1:58" ht="14.25">
@@ -30316,7 +30331,7 @@
         <v>2</v>
       </c>
       <c r="Y46" s="4" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="Z46" s="43">
         <v>55000075</v>
@@ -30392,7 +30407,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY46" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ46" s="4">
         <v>6</v>
@@ -30411,7 +30426,7 @@
         <v>0.38688529999999999</v>
       </c>
       <c r="BF46" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="47" spans="1:58" ht="14.25">
@@ -30562,7 +30577,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY47" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ47" s="4">
         <v>6</v>
@@ -30581,7 +30596,7 @@
         <v>0.5557377</v>
       </c>
       <c r="BF47" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="48" spans="1:58" ht="14.25">
@@ -30732,7 +30747,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY48" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ48" s="4">
         <v>6</v>
@@ -30751,7 +30766,7 @@
         <v>0.46721309999999999</v>
       </c>
       <c r="BF48" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="49" spans="1:58" ht="14.25">
@@ -30902,7 +30917,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY49" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ49" s="4">
         <v>6</v>
@@ -30921,7 +30936,7 @@
         <v>0.3245902</v>
       </c>
       <c r="BF49" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="50" spans="1:58" ht="14.25">
@@ -31076,7 +31091,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY50" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ50" s="4">
         <v>4</v>
@@ -31095,7 +31110,7 @@
         <v>0.8573771</v>
       </c>
       <c r="BF50" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="51" spans="1:58" ht="14.25">
@@ -31250,7 +31265,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY51" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ51" s="4">
         <v>6</v>
@@ -31269,7 +31284,7 @@
         <v>0.33606560000000002</v>
       </c>
       <c r="BF51" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="52" spans="1:58" ht="14.25">
@@ -31348,7 +31363,7 @@
         <v>9</v>
       </c>
       <c r="Y52" s="4" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="Z52" s="43">
         <v>55000084</v>
@@ -31420,7 +31435,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY52" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ52" s="4">
         <v>6</v>
@@ -31588,7 +31603,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY53" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ53" s="4">
         <v>6</v>
@@ -31607,7 +31622,7 @@
         <v>0.39836070000000001</v>
       </c>
       <c r="BF53" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="54" spans="1:58" ht="14.25">
@@ -31686,7 +31701,7 @@
         <v>64</v>
       </c>
       <c r="Y54" s="4" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="Z54" s="43">
         <v>55000066</v>
@@ -31758,7 +31773,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY54" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ54" s="4">
         <v>6</v>
@@ -31777,7 +31792,7 @@
         <v>0.53442619999999996</v>
       </c>
       <c r="BF54" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="55" spans="1:58" ht="14.25">
@@ -31928,7 +31943,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY55" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ55" s="4">
         <v>6</v>
@@ -31947,7 +31962,7 @@
         <v>0.33770489999999997</v>
       </c>
       <c r="BF55" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="56" spans="1:58" ht="14.25">
@@ -32026,7 +32041,7 @@
         <v>4</v>
       </c>
       <c r="Y56" s="4" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="Z56" s="43">
         <v>55000087</v>
@@ -32098,7 +32113,7 @@
         <v>0;0;0;0;0;0;0;0;0.3</v>
       </c>
       <c r="AY56" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ56" s="4">
         <v>6</v>
@@ -32117,7 +32132,7 @@
         <v>0.5557377</v>
       </c>
       <c r="BF56" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="57" spans="1:58" ht="14.25">
@@ -32196,7 +32211,7 @@
         <v>4</v>
       </c>
       <c r="Y57" s="4" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="Z57" s="43">
         <v>55000088</v>
@@ -32272,7 +32287,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY57" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ57" s="4">
         <v>6</v>
@@ -32291,7 +32306,7 @@
         <v>0.24918029999999999</v>
       </c>
       <c r="BF57" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="58" spans="1:58" ht="14.25">
@@ -32442,7 +32457,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY58" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ58" s="4">
         <v>6</v>
@@ -32461,7 +32476,7 @@
         <v>0.3967213</v>
       </c>
       <c r="BF58" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="59" spans="1:58" ht="14.25">
@@ -32540,7 +32555,7 @@
         <v>69</v>
       </c>
       <c r="Y59" s="4" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="Z59" s="43">
         <v>55000091</v>
@@ -32612,7 +32627,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY59" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ59" s="4">
         <v>6</v>
@@ -32631,7 +32646,7 @@
         <v>0.70163940000000002</v>
       </c>
       <c r="BF59" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="60" spans="1:58" ht="14.25">
@@ -32710,7 +32725,7 @@
         <v>9</v>
       </c>
       <c r="Y60" s="4" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="Z60" s="43">
         <v>55000092</v>
@@ -32782,7 +32797,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY60" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ60" s="4">
         <v>6</v>
@@ -32801,7 +32816,7 @@
         <v>0.26065569999999999</v>
       </c>
       <c r="BF60" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="61" spans="1:58" ht="14.25">
@@ -32880,7 +32895,7 @@
         <v>24</v>
       </c>
       <c r="Y61" s="4" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="Z61" s="43">
         <v>55000093</v>
@@ -32952,7 +32967,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY61" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ61" s="4">
         <v>6</v>
@@ -32971,7 +32986,7 @@
         <v>0.17213120000000001</v>
       </c>
       <c r="BF61" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="62" spans="1:58" ht="14.25">
@@ -33122,7 +33137,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY62" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ62" s="4">
         <v>6</v>
@@ -33141,7 +33156,7 @@
         <v>0.13278690000000001</v>
       </c>
       <c r="BF62" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="63" spans="1:58" ht="14.25">
@@ -33292,7 +33307,7 @@
         <v>0;0;0;0;0;0.3;0;0;0</v>
       </c>
       <c r="AY63" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ63" s="4">
         <v>6</v>
@@ -33311,7 +33326,7 @@
         <v>0.75737699999999997</v>
       </c>
       <c r="BF63" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="64" spans="1:58" ht="14.25">
@@ -33456,7 +33471,7 @@
         <v>0;0.3;0.3;0;0.3;0;0;0;0</v>
       </c>
       <c r="AY64" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ64" s="4">
         <v>6</v>
@@ -33475,7 +33490,7 @@
         <v>0.43442619999999998</v>
       </c>
       <c r="BF64" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="65" spans="1:58" ht="14.25">
@@ -33620,7 +33635,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY65" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ65" s="4">
         <v>6</v>
@@ -33639,7 +33654,7 @@
         <v>0.14590159999999999</v>
       </c>
       <c r="BF65" s="22" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="66" spans="1:58" ht="14.25">
@@ -33784,7 +33799,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY66" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ66" s="4">
         <v>6</v>
@@ -33803,7 +33818,7 @@
         <v>0.15245900000000001</v>
       </c>
       <c r="BF66" s="22" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="67" spans="1:58" ht="14.25">
@@ -33882,7 +33897,7 @@
         <v>78</v>
       </c>
       <c r="Y67" s="4" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="Z67" s="43">
         <v>55000095</v>
@@ -33958,7 +33973,7 @@
         <v>0;0;0;0;0;0;0.3;0;0</v>
       </c>
       <c r="AY67" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ67" s="4">
         <v>5</v>
@@ -33977,7 +33992,7 @@
         <v>0.8180328</v>
       </c>
       <c r="BF67" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="68" spans="1:58" ht="14.25">
@@ -34056,7 +34071,7 @@
         <v>78</v>
       </c>
       <c r="Y68" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="Z68" s="43">
         <v>55000036</v>
@@ -34140,7 +34155,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY68" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ68" s="4">
         <v>5</v>
@@ -34161,7 +34176,7 @@
         <v>0.95081970000000005</v>
       </c>
       <c r="BF68" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="69" spans="1:58" ht="14.25">
@@ -34240,7 +34255,7 @@
         <v>40</v>
       </c>
       <c r="Y69" s="4" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="Z69" s="43">
         <v>55000060</v>
@@ -34320,7 +34335,7 @@
         <v>0;0;0;0;0;0;0.3;0;0</v>
       </c>
       <c r="AY69" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ69" s="4">
         <v>5</v>
@@ -34339,7 +34354,7 @@
         <v>0.84098360000000005</v>
       </c>
       <c r="BF69" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="70" spans="1:58" ht="14.25">
@@ -34498,7 +34513,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY70" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ70" s="4">
         <v>5</v>
@@ -34517,7 +34532,7 @@
         <v>0.89508200000000004</v>
       </c>
       <c r="BF70" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="71" spans="1:58" ht="14.25">
@@ -34596,7 +34611,7 @@
         <v>2</v>
       </c>
       <c r="Y71" s="4" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="Z71" s="43">
         <v>55000103</v>
@@ -34672,7 +34687,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY71" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ71" s="4">
         <v>6</v>
@@ -34691,7 +34706,7 @@
         <v>0.36065570000000002</v>
       </c>
       <c r="BF71" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="72" spans="1:58" ht="14.25">
@@ -34770,7 +34785,7 @@
         <v>2</v>
       </c>
       <c r="Y72" s="4" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="Z72" s="43">
         <v>55000103</v>
@@ -34846,7 +34861,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY72" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ72" s="4">
         <v>6</v>
@@ -34865,7 +34880,7 @@
         <v>0.72786890000000004</v>
       </c>
       <c r="BF72" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="73" spans="1:58" ht="14.25">
@@ -34941,10 +34956,10 @@
         <v>0</v>
       </c>
       <c r="X73" s="4" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="Y73" s="4" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="Z73" s="43">
         <v>55000060</v>
@@ -35020,7 +35035,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY73" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ73" s="4">
         <v>6</v>
@@ -35039,7 +35054,7 @@
         <v>0.63278690000000004</v>
       </c>
       <c r="BF73" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="74" spans="1:58" ht="14.25">
@@ -35194,7 +35209,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY74" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ74" s="4">
         <v>6</v>
@@ -35213,7 +35228,7 @@
         <v>0.70491800000000004</v>
       </c>
       <c r="BF74" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="75" spans="1:58" ht="14.25">
@@ -35292,7 +35307,7 @@
         <v>89</v>
       </c>
       <c r="Y75" s="4" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="Z75" s="43">
         <v>55000004</v>
@@ -35368,7 +35383,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY75" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ75" s="4">
         <v>6</v>
@@ -35387,7 +35402,7 @@
         <v>0.31475409999999998</v>
       </c>
       <c r="BF75" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="76" spans="1:58" ht="14.25">
@@ -35466,7 +35481,7 @@
         <v>12</v>
       </c>
       <c r="Y76" s="4" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="Z76" s="43">
         <v>55000101</v>
@@ -35542,7 +35557,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY76" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ76" s="4">
         <v>6</v>
@@ -35561,7 +35576,7 @@
         <v>0.81147539999999996</v>
       </c>
       <c r="BF76" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="77" spans="1:58" ht="14.25">
@@ -35640,7 +35655,7 @@
         <v>92</v>
       </c>
       <c r="Y77" s="4" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="Z77" s="43">
         <v>55000106</v>
@@ -35712,7 +35727,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY77" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ77" s="4">
         <v>6</v>
@@ -35731,7 +35746,7 @@
         <v>0.36721310000000001</v>
       </c>
       <c r="BF77" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="78" spans="1:58" ht="14.25">
@@ -35810,7 +35825,7 @@
         <v>94</v>
       </c>
       <c r="Y78" s="4" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="Z78" s="43">
         <v>55000108</v>
@@ -35886,7 +35901,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY78" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ78" s="4">
         <v>6</v>
@@ -35905,7 +35920,7 @@
         <v>0.68688519999999997</v>
       </c>
       <c r="BF78" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="79" spans="1:58" ht="14.25">
@@ -36050,7 +36065,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY79" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ79" s="4">
         <v>6</v>
@@ -36069,7 +36084,7 @@
         <v>0.1393443</v>
       </c>
       <c r="BF79" s="22" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="80" spans="1:58" ht="14.25">
@@ -36214,7 +36229,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY80" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ80" s="4">
         <v>6</v>
@@ -36233,7 +36248,7 @@
         <v>0.1147541</v>
       </c>
       <c r="BF80" s="22" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="81" spans="1:58" ht="14.25">
@@ -36388,7 +36403,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY81" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ81" s="4">
         <v>6</v>
@@ -36407,7 +36422,7 @@
         <v>0.48196719999999998</v>
       </c>
       <c r="BF81" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="82" spans="1:58" ht="14.25">
@@ -36562,7 +36577,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY82" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ82" s="4">
         <v>6</v>
@@ -36581,7 +36596,7 @@
         <v>0.82622949999999995</v>
       </c>
       <c r="BF82" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="83" spans="1:58" ht="14.25">
@@ -36660,7 +36675,7 @@
         <v>38</v>
       </c>
       <c r="Y83" s="4" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="Z83" s="43">
         <v>55000111</v>
@@ -36736,7 +36751,7 @@
         <v>0;0;0;0.3;0;0;0;0;0</v>
       </c>
       <c r="AY83" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ83" s="4">
         <v>6</v>
@@ -36755,7 +36770,7 @@
         <v>0.71147539999999998</v>
       </c>
       <c r="BF83" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="84" spans="1:58" ht="14.25">
@@ -36834,7 +36849,7 @@
         <v>100</v>
       </c>
       <c r="Y84" s="4" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="Z84" s="43">
         <v>55000069</v>
@@ -36906,7 +36921,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY84" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ84" s="4">
         <v>6</v>
@@ -36925,7 +36940,7 @@
         <v>0.3016393</v>
       </c>
       <c r="BF84" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="85" spans="1:58" ht="14.25">
@@ -37084,7 +37099,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY85" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ85" s="4">
         <v>3</v>
@@ -37103,7 +37118,7 @@
         <v>0.8180328</v>
       </c>
       <c r="BF85" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="86" spans="1:58" ht="14.25">
@@ -37258,7 +37273,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY86" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ86" s="4">
         <v>6</v>
@@ -37277,7 +37292,7 @@
         <v>0.28360659999999999</v>
       </c>
       <c r="BF86" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="87" spans="1:58" ht="14.25">
@@ -37356,7 +37371,7 @@
         <v>86</v>
       </c>
       <c r="Y87" s="4" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="Z87" s="43">
         <v>55000068</v>
@@ -37432,7 +37447,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY87" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ87" s="4">
         <v>6</v>
@@ -37451,7 +37466,7 @@
         <v>0.50819669999999995</v>
       </c>
       <c r="BF87" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="88" spans="1:58" ht="14.25">
@@ -37530,7 +37545,7 @@
         <v>0</v>
       </c>
       <c r="Y88" s="4" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="Z88" s="43">
         <v>55000342</v>
@@ -37606,7 +37621,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY88" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ88" s="4">
         <v>6</v>
@@ -37625,7 +37640,7 @@
         <v>0.33770489999999997</v>
       </c>
       <c r="BF88" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="89" spans="1:58" ht="14.25">
@@ -37704,7 +37719,7 @@
         <v>105</v>
       </c>
       <c r="Y89" s="4" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Z89" s="43">
         <v>55000115</v>
@@ -37780,7 +37795,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY89" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ89" s="4">
         <v>6</v>
@@ -37799,7 +37814,7 @@
         <v>0.32131150000000003</v>
       </c>
       <c r="BF89" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="90" spans="1:58" ht="14.25">
@@ -37954,7 +37969,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY90" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ90" s="4">
         <v>6</v>
@@ -37973,7 +37988,7 @@
         <v>0.67213109999999998</v>
       </c>
       <c r="BF90" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="91" spans="1:58" ht="14.25">
@@ -38052,7 +38067,7 @@
         <v>105</v>
       </c>
       <c r="Y91" s="4" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="Z91" s="43">
         <v>55000118</v>
@@ -38128,7 +38143,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY91" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ91" s="4">
         <v>6</v>
@@ -38147,7 +38162,7 @@
         <v>0.5</v>
       </c>
       <c r="BF91" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="92" spans="1:58" ht="14.25">
@@ -38302,7 +38317,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY92" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ92" s="4">
         <v>6</v>
@@ -38321,7 +38336,7 @@
         <v>0.47868850000000002</v>
       </c>
       <c r="BF92" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="93" spans="1:58" ht="14.25">
@@ -38400,7 +38415,7 @@
         <v>111</v>
       </c>
       <c r="Y93" s="4" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="Z93" s="43">
         <v>55000115</v>
@@ -38476,7 +38491,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY93" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ93" s="4">
         <v>6</v>
@@ -38495,7 +38510,7 @@
         <v>0.3327869</v>
       </c>
       <c r="BF93" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="94" spans="1:58" ht="14.25">
@@ -38574,7 +38589,7 @@
         <v>78</v>
       </c>
       <c r="Y94" s="4" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="Z94" s="43">
         <v>55000005</v>
@@ -38650,7 +38665,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY94" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ94" s="4">
         <v>5</v>
@@ -38669,7 +38684,7 @@
         <v>0.84262289999999995</v>
       </c>
       <c r="BF94" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="95" spans="1:58" ht="14.25">
@@ -38748,7 +38763,7 @@
         <v>107</v>
       </c>
       <c r="Y95" s="4" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="Z95" s="43">
         <v>55000114</v>
@@ -38824,7 +38839,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY95" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ95" s="4">
         <v>6</v>
@@ -38843,7 +38858,7 @@
         <v>0.48688520000000002</v>
       </c>
       <c r="BF95" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="96" spans="1:58" ht="14.25">
@@ -38922,7 +38937,7 @@
         <v>2</v>
       </c>
       <c r="Y96" s="4" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="Z96" s="43">
         <v>55000002</v>
@@ -38998,7 +39013,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY96" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ96" s="4">
         <v>6</v>
@@ -39017,7 +39032,7 @@
         <v>0.66557379999999999</v>
       </c>
       <c r="BF96" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="97" spans="1:58" ht="14.25">
@@ -39096,7 +39111,7 @@
         <v>22</v>
       </c>
       <c r="Y97" s="4" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="Z97" s="43">
         <v>55000123</v>
@@ -39176,7 +39191,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY97" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ97" s="4">
         <v>3</v>
@@ -39195,7 +39210,7 @@
         <v>0.93114750000000002</v>
       </c>
       <c r="BF97" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="98" spans="1:58" ht="14.25">
@@ -39274,7 +39289,7 @@
         <v>94</v>
       </c>
       <c r="Y98" s="4" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="Z98" s="43">
         <v>55000245</v>
@@ -39346,7 +39361,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY98" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ98" s="4">
         <v>6</v>
@@ -39365,7 +39380,7 @@
         <v>0.51803279999999996</v>
       </c>
       <c r="BF98" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="99" spans="1:58" ht="14.25">
@@ -39441,10 +39456,10 @@
         <v>0</v>
       </c>
       <c r="X99" s="4" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="Y99" s="4" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="Z99" s="43">
         <v>55000246</v>
@@ -39520,7 +39535,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY99" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ99" s="4">
         <v>6</v>
@@ -39539,7 +39554,7 @@
         <v>0.36393439999999999</v>
       </c>
       <c r="BF99" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="100" spans="1:58" ht="14.25">
@@ -39618,7 +39633,7 @@
         <v>78</v>
       </c>
       <c r="Y100" s="4" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="Z100" s="43">
         <v>55000040</v>
@@ -39702,7 +39717,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY100" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ100" s="4">
         <v>5</v>
@@ -39723,7 +39738,7 @@
         <v>0.94918029999999998</v>
       </c>
       <c r="BF100" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="101" spans="1:58" ht="14.25">
@@ -39802,7 +39817,7 @@
         <v>4</v>
       </c>
       <c r="Y101" s="4" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="Z101" s="43">
         <v>55000126</v>
@@ -39878,7 +39893,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY101" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ101" s="4">
         <v>6</v>
@@ -39897,7 +39912,7 @@
         <v>0.60327869999999995</v>
       </c>
       <c r="BF101" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="102" spans="1:58" ht="14.25">
@@ -40056,7 +40071,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY102" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ102" s="4">
         <v>4</v>
@@ -40075,7 +40090,7 @@
         <v>0.75737699999999997</v>
       </c>
       <c r="BF102" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="103" spans="1:58" ht="14.25">
@@ -40154,7 +40169,7 @@
         <v>9</v>
       </c>
       <c r="Y103" s="4" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="Z103" s="43">
         <v>55000129</v>
@@ -40226,7 +40241,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY103" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ103" s="4">
         <v>6</v>
@@ -40245,7 +40260,7 @@
         <v>0.1032787</v>
       </c>
       <c r="BF103" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="104" spans="1:58" ht="14.25">
@@ -40324,7 +40339,7 @@
         <v>4</v>
       </c>
       <c r="Y104" s="4" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="Z104" s="43">
         <v>55000130</v>
@@ -40400,7 +40415,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY104" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ104" s="4">
         <v>6</v>
@@ -40419,7 +40434,7 @@
         <v>0.42622949999999998</v>
       </c>
       <c r="BF104" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="105" spans="1:58" ht="14.25">
@@ -40574,7 +40589,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY105" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ105" s="4">
         <v>6</v>
@@ -40593,7 +40608,7 @@
         <v>0.2098361</v>
       </c>
       <c r="BF105" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="106" spans="1:58" ht="14.25">
@@ -40672,7 +40687,7 @@
         <v>9</v>
       </c>
       <c r="Y106" s="4" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="Z106" s="43">
         <v>55000133</v>
@@ -40744,7 +40759,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY106" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ106" s="4">
         <v>6</v>
@@ -40763,7 +40778,7 @@
         <v>4.262295E-2</v>
       </c>
       <c r="BF106" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="107" spans="1:58" ht="14.25">
@@ -40842,7 +40857,7 @@
         <v>9</v>
       </c>
       <c r="Y107" s="4" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="Z107" s="43">
         <v>55000134</v>
@@ -40914,7 +40929,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY107" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ107" s="4">
         <v>6</v>
@@ -40933,7 +40948,7 @@
         <v>5.2459020000000002E-2</v>
       </c>
       <c r="BF107" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="108" spans="1:58" ht="14.25">
@@ -41012,7 +41027,7 @@
         <v>2</v>
       </c>
       <c r="Y108" s="4" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="Z108" s="43">
         <v>55000017</v>
@@ -41092,7 +41107,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY108" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ108" s="4">
         <v>4</v>
@@ -41111,7 +41126,7 @@
         <v>0.92622950000000004</v>
       </c>
       <c r="BF108" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="109" spans="1:58" ht="14.25">
@@ -41190,7 +41205,7 @@
         <v>128</v>
       </c>
       <c r="Y109" s="4" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="Z109" s="43">
         <v>55000135</v>
@@ -41262,7 +41277,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY109" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ109" s="4">
         <v>6</v>
@@ -41281,7 +41296,7 @@
         <v>6.8852460000000004E-2</v>
       </c>
       <c r="BF109" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="110" spans="1:58" ht="14.25">
@@ -41360,7 +41375,7 @@
         <v>130</v>
       </c>
       <c r="Y110" s="4" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="Z110" s="43">
         <v>55000135</v>
@@ -41436,7 +41451,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY110" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ110" s="4">
         <v>6</v>
@@ -41455,7 +41470,7 @@
         <v>0.24262300000000001</v>
       </c>
       <c r="BF110" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="111" spans="1:58" ht="14.25">
@@ -41534,7 +41549,7 @@
         <v>132</v>
       </c>
       <c r="Y111" s="4" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="Z111" s="43">
         <v>55000038</v>
@@ -41606,7 +41621,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY111" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ111" s="4">
         <v>6</v>
@@ -41625,7 +41640,7 @@
         <v>0.28360659999999999</v>
       </c>
       <c r="BF111" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="112" spans="1:58" ht="14.25">
@@ -41704,7 +41719,7 @@
         <v>118</v>
       </c>
       <c r="Y112" s="4" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="Z112" s="43">
         <v>55010003</v>
@@ -41780,7 +41795,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY112" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ112" s="4">
         <v>6</v>
@@ -41799,7 +41814,7 @@
         <v>0.5</v>
       </c>
       <c r="BF112" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="113" spans="1:58" ht="14.25">
@@ -41878,7 +41893,7 @@
         <v>135</v>
       </c>
       <c r="Y113" s="4" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="Z113" s="43">
         <v>55000018</v>
@@ -41954,7 +41969,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY113" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ113" s="4">
         <v>6</v>
@@ -41973,7 +41988,7 @@
         <v>0.51147540000000002</v>
       </c>
       <c r="BF113" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="114" spans="1:58" ht="14.25">
@@ -42052,7 +42067,7 @@
         <v>89</v>
       </c>
       <c r="Y114" s="4" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="Z114" s="43">
         <v>55000040</v>
@@ -42136,7 +42151,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY114" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ114" s="4">
         <v>3</v>
@@ -42157,7 +42172,7 @@
         <v>0.9442623</v>
       </c>
       <c r="BF114" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="115" spans="1:58" ht="14.25">
@@ -42236,7 +42251,7 @@
         <v>94</v>
       </c>
       <c r="Y115" s="4" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="Z115" s="43">
         <v>55000040</v>
@@ -42320,7 +42335,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY115" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ115" s="4">
         <v>6</v>
@@ -42341,7 +42356,7 @@
         <v>0.94262299999999999</v>
       </c>
       <c r="BF115" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="116" spans="1:58" ht="14.25">
@@ -42420,7 +42435,7 @@
         <v>31</v>
       </c>
       <c r="Y116" s="4" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="Z116" s="43">
         <v>55000040</v>
@@ -42504,7 +42519,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY116" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ116" s="4">
         <v>6</v>
@@ -42525,7 +42540,7 @@
         <v>0.92786880000000005</v>
       </c>
       <c r="BF116" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="117" spans="1:58" ht="14.25">
@@ -42680,7 +42695,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY117" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ117" s="4">
         <v>6</v>
@@ -42699,7 +42714,7 @@
         <v>0.38196720000000001</v>
       </c>
       <c r="BF117" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="118" spans="1:58" ht="14.25">
@@ -42778,7 +42793,7 @@
         <v>40</v>
       </c>
       <c r="Y118" s="4" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="Z118" s="43">
         <v>55000040</v>
@@ -42862,7 +42877,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY118" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ118" s="4">
         <v>5</v>
@@ -42883,7 +42898,7 @@
         <v>0.9442623</v>
       </c>
       <c r="BF118" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="119" spans="1:58" ht="14.25">
@@ -42962,7 +42977,7 @@
         <v>100</v>
       </c>
       <c r="Y119" s="4" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="Z119" s="43">
         <v>55000040</v>
@@ -43046,7 +43061,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY119" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ119" s="4">
         <v>6</v>
@@ -43067,7 +43082,7 @@
         <v>0.95901639999999999</v>
       </c>
       <c r="BF119" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="120" spans="1:58" ht="14.25">
@@ -43146,7 +43161,7 @@
         <v>51</v>
       </c>
       <c r="Y120" s="4" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="Z120" s="43">
         <v>55000040</v>
@@ -43230,7 +43245,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY120" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ120" s="4">
         <v>5</v>
@@ -43251,7 +43266,7 @@
         <v>0.92786880000000005</v>
       </c>
       <c r="BF120" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="121" spans="1:58" ht="14.25">
@@ -43330,7 +43345,7 @@
         <v>22</v>
       </c>
       <c r="Y121" s="4" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="Z121" s="43">
         <v>55000040</v>
@@ -43414,7 +43429,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY121" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ121" s="4">
         <v>6</v>
@@ -43435,7 +43450,7 @@
         <v>0.95409829999999995</v>
       </c>
       <c r="BF121" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="122" spans="1:58" ht="14.25">
@@ -43590,7 +43605,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY122" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ122" s="4">
         <v>6</v>
@@ -43609,7 +43624,7 @@
         <v>0.24426229999999999</v>
       </c>
       <c r="BF122" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="123" spans="1:58" ht="14.25">
@@ -43768,7 +43783,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY123" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ123" s="4">
         <v>6</v>
@@ -43787,7 +43802,7 @@
         <v>0.27213110000000001</v>
       </c>
       <c r="BF123" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="124" spans="1:58" ht="14.25">
@@ -43946,7 +43961,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY124" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ124" s="4">
         <v>6</v>
@@ -43965,7 +43980,7 @@
         <v>0.49836069999999999</v>
       </c>
       <c r="BF124" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="125" spans="1:58" ht="14.25">
@@ -44124,7 +44139,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY125" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ125" s="4">
         <v>6</v>
@@ -44143,7 +44158,7 @@
         <v>0.73114749999999995</v>
       </c>
       <c r="BF125" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="126" spans="1:58" ht="14.25">
@@ -44222,7 +44237,7 @@
         <v>24</v>
       </c>
       <c r="Y126" s="4" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="Z126" s="43">
         <v>55000151</v>
@@ -44294,7 +44309,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY126" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ126" s="4">
         <v>6</v>
@@ -44313,7 +44328,7 @@
         <v>9.3442629999999999E-2</v>
       </c>
       <c r="BF126" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="127" spans="1:58" ht="14.25">
@@ -44464,7 +44479,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY127" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ127" s="4">
         <v>6</v>
@@ -44483,7 +44498,7 @@
         <v>0.3</v>
       </c>
       <c r="BF127" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="128" spans="1:58" ht="14.25">
@@ -44638,7 +44653,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY128" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ128" s="4">
         <v>6</v>
@@ -44657,7 +44672,7 @@
         <v>0.62131150000000002</v>
       </c>
       <c r="BF128" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="129" spans="1:58" ht="14.25">
@@ -44812,7 +44827,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY129" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ129" s="4">
         <v>3</v>
@@ -44831,7 +44846,7 @@
         <v>0.85901640000000001</v>
       </c>
       <c r="BF129" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="130" spans="1:58" ht="14.25">
@@ -44982,7 +44997,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY130" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ130" s="4">
         <v>6</v>
@@ -45001,7 +45016,7 @@
         <v>0.1114754</v>
       </c>
       <c r="BF130" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="131" spans="1:58" ht="14.25">
@@ -45152,7 +45167,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY131" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ131" s="4">
         <v>6</v>
@@ -45171,7 +45186,7 @@
         <v>0.31639339999999999</v>
       </c>
       <c r="BF131" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="132" spans="1:58" ht="14.25">
@@ -45326,7 +45341,7 @@
         <v>0;0;0;0.3;0;0;0;0;0</v>
       </c>
       <c r="AY132" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ132" s="4">
         <v>6</v>
@@ -45345,7 +45360,7 @@
         <v>0.76393440000000001</v>
       </c>
       <c r="BF132" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="133" spans="1:58" ht="14.25">
@@ -45500,7 +45515,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY133" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ133" s="4">
         <v>6</v>
@@ -45519,7 +45534,7 @@
         <v>0.67213109999999998</v>
       </c>
       <c r="BF133" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="134" spans="1:58" ht="14.25">
@@ -45598,7 +45613,7 @@
         <v>2</v>
       </c>
       <c r="Y134" s="4" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="Z134" s="43">
         <v>55000035</v>
@@ -45674,7 +45689,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY134" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ134" s="4">
         <v>6</v>
@@ -45693,7 +45708,7 @@
         <v>0.44098359999999998</v>
       </c>
       <c r="BF134" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="135" spans="1:58" ht="14.25">
@@ -45848,7 +45863,7 @@
         <v>0;0;0;0;0;0.3;0;0;0</v>
       </c>
       <c r="AY135" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ135" s="4">
         <v>6</v>
@@ -45867,7 +45882,7 @@
         <v>0.43442619999999998</v>
       </c>
       <c r="BF135" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="136" spans="1:58" ht="14.25">
@@ -45946,7 +45961,7 @@
         <v>107</v>
       </c>
       <c r="Y136" s="4" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="Z136" s="43">
         <v>55000031</v>
@@ -46022,7 +46037,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY136" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ136" s="4">
         <v>6</v>
@@ -46041,7 +46056,7 @@
         <v>0.50819669999999995</v>
       </c>
       <c r="BF136" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="137" spans="1:58" ht="14.25">
@@ -46120,7 +46135,7 @@
         <v>2</v>
       </c>
       <c r="Y137" s="4" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="Z137" s="43">
         <v>55000012</v>
@@ -46200,7 +46215,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY137" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ137" s="4">
         <v>5</v>
@@ -46219,7 +46234,7 @@
         <v>0.80983609999999995</v>
       </c>
       <c r="BF137" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="138" spans="1:58" ht="14.25">
@@ -46298,7 +46313,7 @@
         <v>6</v>
       </c>
       <c r="Y138" s="4" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="Z138" s="43">
         <v>55000157</v>
@@ -46374,7 +46389,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY138" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ138" s="4">
         <v>6</v>
@@ -46393,7 +46408,7 @@
         <v>0.25245899999999999</v>
       </c>
       <c r="BF138" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="139" spans="1:58" ht="14.25">
@@ -46472,7 +46487,7 @@
         <v>107</v>
       </c>
       <c r="Y139" s="4" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="Z139" s="43">
         <v>55000119</v>
@@ -46548,7 +46563,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY139" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ139" s="4">
         <v>6</v>
@@ -46567,7 +46582,7 @@
         <v>0.61311479999999996</v>
       </c>
       <c r="BF139" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="140" spans="1:58" ht="14.25">
@@ -46712,7 +46727,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY140" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ140" s="4">
         <v>6</v>
@@ -46731,7 +46746,7 @@
         <v>0.36393439999999999</v>
       </c>
       <c r="BF140" s="22" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="141" spans="1:58" ht="14.25">
@@ -46810,7 +46825,7 @@
         <v>12</v>
       </c>
       <c r="Y141" s="4" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="Z141" s="43">
         <v>55000088</v>
@@ -46886,7 +46901,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY141" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ141" s="4">
         <v>6</v>
@@ -46905,7 +46920,7 @@
         <v>0.52295080000000005</v>
       </c>
       <c r="BF141" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="142" spans="1:58" ht="14.25">
@@ -46984,7 +46999,7 @@
         <v>40</v>
       </c>
       <c r="Y142" s="4" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="Z142" s="43">
         <v>55000018</v>
@@ -47060,7 +47075,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY142" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ142" s="4">
         <v>6</v>
@@ -47079,7 +47094,7 @@
         <v>0.3491803</v>
       </c>
       <c r="BF142" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="143" spans="1:58" ht="14.25">
@@ -47234,7 +47249,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY143" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ143" s="4">
         <v>6</v>
@@ -47253,7 +47268,7 @@
         <v>0.26065569999999999</v>
       </c>
       <c r="BF143" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="144" spans="1:58" ht="14.25">
@@ -47332,7 +47347,7 @@
         <v>16</v>
       </c>
       <c r="Y144" s="4" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="Z144" s="43">
         <v>55000044</v>
@@ -47404,7 +47419,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY144" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ144" s="4">
         <v>6</v>
@@ -47423,7 +47438,7 @@
         <v>0.56393439999999995</v>
       </c>
       <c r="BF144" s="22" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="145" spans="1:58" ht="14.25">
@@ -47568,7 +47583,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY145" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ145" s="4">
         <v>6</v>
@@ -47587,7 +47602,7 @@
         <v>0.13770489999999999</v>
       </c>
       <c r="BF145" s="22" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="146" spans="1:58" ht="14.25">
@@ -47746,7 +47761,7 @@
         <v>0;0;0;0;0.3;0;0;0;0</v>
       </c>
       <c r="AY146" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ146" s="4">
         <v>6</v>
@@ -47765,7 +47780,7 @@
         <v>0.75081969999999998</v>
       </c>
       <c r="BF146" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="147" spans="1:58" ht="14.25">
@@ -47920,7 +47935,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY147" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ147" s="4">
         <v>6</v>
@@ -47939,7 +47954,7 @@
         <v>0.41639340000000002</v>
       </c>
       <c r="BF147" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="148" spans="1:58" ht="14.25">
@@ -48015,10 +48030,10 @@
         <v>0</v>
       </c>
       <c r="X148" s="4" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="Y148" s="4" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="Z148" s="43">
         <v>55000340</v>
@@ -48094,7 +48109,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY148" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ148" s="4">
         <v>6</v>
@@ -48113,7 +48128,7 @@
         <v>0.1983607</v>
       </c>
       <c r="BF148" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="149" spans="1:58" ht="14.25">
@@ -48192,7 +48207,7 @@
         <v>166</v>
       </c>
       <c r="Y149" s="4" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="Z149" s="43">
         <v>55000066</v>
@@ -48272,7 +48287,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY149" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ149" s="4">
         <v>6</v>
@@ -48291,7 +48306,7 @@
         <v>0.52295080000000005</v>
       </c>
       <c r="BF149" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="150" spans="1:58" ht="14.25">
@@ -48450,7 +48465,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY150" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ150" s="4">
         <v>6</v>
@@ -48469,7 +48484,7 @@
         <v>0.68852460000000004</v>
       </c>
       <c r="BF150" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="151" spans="1:58" ht="14.25">
@@ -48620,7 +48635,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY151" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ151" s="4">
         <v>6</v>
@@ -48639,7 +48654,7 @@
         <v>0.47049180000000002</v>
       </c>
       <c r="BF151" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="152" spans="1:58" ht="14.25">
@@ -48784,7 +48799,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY152" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ152" s="4">
         <v>6</v>
@@ -48803,7 +48818,7 @@
         <v>0.35409829999999998</v>
       </c>
       <c r="BF152" s="22" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="153" spans="1:58" ht="14.25">
@@ -48954,7 +48969,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY153" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ153" s="4">
         <v>6</v>
@@ -48973,7 +48988,7 @@
         <v>0.32295079999999998</v>
       </c>
       <c r="BF153" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="154" spans="1:58" ht="14.25">
@@ -49124,7 +49139,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY154" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ154" s="4">
         <v>6</v>
@@ -49143,7 +49158,7 @@
         <v>0.40819670000000002</v>
       </c>
       <c r="BF154" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="155" spans="1:58" ht="14.25">
@@ -49219,10 +49234,10 @@
         <v>0</v>
       </c>
       <c r="X155" s="4" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="Y155" s="4" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="Z155" s="43">
         <v>55000165</v>
@@ -49294,7 +49309,7 @@
         <v>0;0;0;0;0;0.3;0;0;0</v>
       </c>
       <c r="AY155" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ155" s="4">
         <v>6</v>
@@ -49313,7 +49328,7 @@
         <v>0.58688530000000005</v>
       </c>
       <c r="BF155" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="156" spans="1:58" ht="14.25">
@@ -49392,7 +49407,7 @@
         <v>4</v>
       </c>
       <c r="Y156" s="4" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="Z156" s="43">
         <v>55000166</v>
@@ -49464,7 +49479,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY156" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ156" s="4">
         <v>6</v>
@@ -49483,7 +49498,7 @@
         <v>0.28196719999999997</v>
       </c>
       <c r="BF156" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="157" spans="1:58" ht="14.25">
@@ -49628,7 +49643,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY157" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ157" s="4">
         <v>6</v>
@@ -49647,7 +49662,7 @@
         <v>0.12950819999999999</v>
       </c>
       <c r="BF157" s="22" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="158" spans="1:58" ht="14.25">
@@ -49726,7 +49741,7 @@
         <v>2</v>
       </c>
       <c r="Y158" s="4" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="Z158" s="43">
         <v>55000049</v>
@@ -49798,7 +49813,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY158" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ158" s="4">
         <v>6</v>
@@ -49817,7 +49832,7 @@
         <v>0.69016390000000005</v>
       </c>
       <c r="BF158" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="159" spans="1:58" ht="14.25">
@@ -49972,7 +49987,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY159" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ159" s="4">
         <v>6</v>
@@ -49991,7 +50006,7 @@
         <v>0.52950819999999998</v>
       </c>
       <c r="BF159" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="160" spans="1:58" ht="14.25">
@@ -50070,7 +50085,7 @@
         <v>179</v>
       </c>
       <c r="Y160" s="4" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="Z160" s="43">
         <v>55000048</v>
@@ -50146,7 +50161,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY160" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ160" s="4">
         <v>6</v>
@@ -50165,7 +50180,7 @@
         <v>0.94098360000000003</v>
       </c>
       <c r="BF160" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="161" spans="1:58" ht="14.25">
@@ -50310,7 +50325,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY161" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ161" s="4">
         <v>6</v>
@@ -50329,7 +50344,7 @@
         <v>0.3098361</v>
       </c>
       <c r="BF161" s="22" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="162" spans="1:58" ht="14.25">
@@ -50408,7 +50423,7 @@
         <v>107</v>
       </c>
       <c r="Y162" s="4" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="Z162" s="43">
         <v>55000150</v>
@@ -50480,7 +50495,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY162" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ162" s="4">
         <v>6</v>
@@ -50499,7 +50514,7 @@
         <v>0.44754100000000002</v>
       </c>
       <c r="BF162" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="163" spans="1:58" ht="14.25">
@@ -50578,7 +50593,7 @@
         <v>107</v>
       </c>
       <c r="Y163" s="4" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="Z163" s="43">
         <v>55000269</v>
@@ -50650,7 +50665,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY163" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ163" s="4">
         <v>6</v>
@@ -50669,7 +50684,7 @@
         <v>0.45409840000000001</v>
       </c>
       <c r="BF163" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="164" spans="1:58" ht="14.25">
@@ -50748,7 +50763,7 @@
         <v>16</v>
       </c>
       <c r="Y164" s="4" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="Z164" s="43">
         <v>55000167</v>
@@ -50824,7 +50839,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY164" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ164" s="4">
         <v>6</v>
@@ -50843,7 +50858,7 @@
         <v>0.64098359999999999</v>
       </c>
       <c r="BF164" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="165" spans="1:58" ht="14.25">
@@ -51002,7 +51017,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY165" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ165" s="4">
         <v>6</v>
@@ -51021,7 +51036,7 @@
         <v>0.73114749999999995</v>
       </c>
       <c r="BF165" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="166" spans="1:58" ht="14.25">
@@ -51100,7 +51115,7 @@
         <v>100</v>
       </c>
       <c r="Y166" s="4" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="Z166" s="43">
         <v>55000094</v>
@@ -51176,7 +51191,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY166" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ166" s="4">
         <v>6</v>
@@ -51195,7 +51210,7 @@
         <v>0.59344260000000004</v>
       </c>
       <c r="BF166" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="167" spans="1:58" ht="14.25">
@@ -51350,7 +51365,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY167" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ167" s="4">
         <v>6</v>
@@ -51369,7 +51384,7 @@
         <v>0.60327869999999995</v>
       </c>
       <c r="BF167" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="168" spans="1:58" ht="14.25">
@@ -51528,7 +51543,7 @@
         <v>0;0;0;0;0;0;0.3;0;0</v>
       </c>
       <c r="AY168" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ168" s="4">
         <v>5</v>
@@ -51547,7 +51562,7 @@
         <v>0.85409840000000004</v>
       </c>
       <c r="BF168" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="169" spans="1:58" ht="14.25">
@@ -51626,7 +51641,7 @@
         <v>9</v>
       </c>
       <c r="Y169" s="4" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="Z169" s="43">
         <v>55000179</v>
@@ -51698,7 +51713,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY169" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ169" s="4">
         <v>6</v>
@@ -51717,7 +51732,7 @@
         <v>5.7377049999999999E-2</v>
       </c>
       <c r="BF169" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="170" spans="1:58" ht="14.25">
@@ -51796,7 +51811,7 @@
         <v>9</v>
       </c>
       <c r="Y170" s="4" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="Z170" s="43">
         <v>55000178</v>
@@ -51868,7 +51883,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY170" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ170" s="4">
         <v>6</v>
@@ -51887,7 +51902,7 @@
         <v>4.0983609999999997E-2</v>
       </c>
       <c r="BF170" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="171" spans="1:58" ht="14.25">
@@ -52050,7 +52065,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY171" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ171" s="4">
         <v>6</v>
@@ -52069,7 +52084,7 @@
         <v>4.590164E-2</v>
       </c>
       <c r="BF171" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="172" spans="1:58" ht="14.25">
@@ -52228,7 +52243,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY172" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ172" s="4">
         <v>6</v>
@@ -52247,7 +52262,7 @@
         <v>0.77540980000000004</v>
       </c>
       <c r="BF172" s="22" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="173" spans="1:58" ht="14.25">
@@ -52323,10 +52338,10 @@
         <v>0</v>
       </c>
       <c r="X173" s="4" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="Y173" s="4" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="Z173" s="43">
         <v>55000015</v>
@@ -52402,7 +52417,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY173" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ173" s="4">
         <v>6</v>
@@ -52421,7 +52436,7 @@
         <v>9.0163930000000003E-2</v>
       </c>
       <c r="BF173" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="174" spans="1:58" ht="14.25">
@@ -52500,7 +52515,7 @@
         <v>69</v>
       </c>
       <c r="Y174" s="4" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="Z174" s="43">
         <v>55000184</v>
@@ -52572,7 +52587,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY174" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ174" s="4">
         <v>6</v>
@@ -52591,7 +52606,7 @@
         <v>0.56721310000000003</v>
       </c>
       <c r="BF174" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="175" spans="1:58" ht="14.25">
@@ -52670,7 +52685,7 @@
         <v>2</v>
       </c>
       <c r="Y175" s="4" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="Z175" s="43">
         <v>55000185</v>
@@ -52742,7 +52757,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY175" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ175" s="4">
         <v>6</v>
@@ -52761,7 +52776,7 @@
         <v>0.104918</v>
       </c>
       <c r="BF175" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="176" spans="1:58" ht="14.25">
@@ -52840,7 +52855,7 @@
         <v>12</v>
       </c>
       <c r="Y176" s="4" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="Z176" s="43">
         <v>55000186</v>
@@ -52912,7 +52927,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY176" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ176" s="4">
         <v>6</v>
@@ -52931,7 +52946,7 @@
         <v>0.57213119999999995</v>
       </c>
       <c r="BF176" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="177" spans="1:58" ht="14.25">
@@ -53010,7 +53025,7 @@
         <v>4</v>
       </c>
       <c r="Y177" s="4" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="Z177" s="43">
         <v>55000188</v>
@@ -53086,7 +53101,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY177" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ177" s="4">
         <v>6</v>
@@ -53105,7 +53120,7 @@
         <v>0.25737710000000003</v>
       </c>
       <c r="BF177" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="178" spans="1:58" ht="14.25">
@@ -53184,7 +53199,7 @@
         <v>4</v>
       </c>
       <c r="Y178" s="4" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="Z178" s="43">
         <v>55000087</v>
@@ -53260,7 +53275,7 @@
         <v>0;0;0;0;0;0;0;0.3;0</v>
       </c>
       <c r="AY178" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ178" s="4">
         <v>6</v>
@@ -53279,7 +53294,7 @@
         <v>0.64590159999999996</v>
       </c>
       <c r="BF178" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="179" spans="1:58" ht="14.25">
@@ -53430,7 +53445,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY179" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ179" s="4">
         <v>6</v>
@@ -53449,7 +53464,7 @@
         <v>0.49508200000000002</v>
       </c>
       <c r="BF179" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="180" spans="1:58" ht="14.25">
@@ -53528,7 +53543,7 @@
         <v>65</v>
       </c>
       <c r="Y180" s="4" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="Z180" s="43">
         <v>55000061</v>
@@ -53612,7 +53627,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY180" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ180" s="4">
         <v>5</v>
@@ -53631,7 +53646,7 @@
         <v>0.80819669999999999</v>
       </c>
       <c r="BF180" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="181" spans="1:58" ht="14.25">
@@ -53710,7 +53725,7 @@
         <v>976</v>
       </c>
       <c r="Y181" s="4" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="Z181" s="43">
         <v>55000044</v>
@@ -53790,7 +53805,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY181" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ181" s="4">
         <v>6</v>
@@ -53809,7 +53824,7 @@
         <v>0.91639349999999997</v>
       </c>
       <c r="BF181" s="22" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="182" spans="1:58" ht="14.25">
@@ -53964,7 +53979,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY182" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ182" s="4">
         <v>6</v>
@@ -53983,7 +53998,7 @@
         <v>0.27377050000000003</v>
       </c>
       <c r="BF182" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="183" spans="1:58" ht="14.25">
@@ -54062,7 +54077,7 @@
         <v>16</v>
       </c>
       <c r="Y183" s="4" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="Z183" s="43">
         <v>55000297</v>
@@ -54138,7 +54153,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY183" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ183" s="4">
         <v>5</v>
@@ -54157,7 +54172,7 @@
         <v>0.89508200000000004</v>
       </c>
       <c r="BF183" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="184" spans="1:58" ht="14.25">
@@ -54308,7 +54323,7 @@
         <v>0;0;0.3;0;0;0;0;0;0</v>
       </c>
       <c r="AY184" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ184" s="4">
         <v>6</v>
@@ -54327,7 +54342,7 @@
         <v>0.65245900000000001</v>
       </c>
       <c r="BF184" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="185" spans="1:58" ht="14.25">
@@ -54406,7 +54421,7 @@
         <v>12</v>
       </c>
       <c r="Y185" s="4" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="Z185" s="43">
         <v>55000194</v>
@@ -54482,7 +54497,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY185" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ185" s="4">
         <v>3</v>
@@ -54501,7 +54516,7 @@
         <v>0.91639349999999997</v>
       </c>
       <c r="BF185" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="186" spans="1:58" ht="14.25">
@@ -54656,7 +54671,7 @@
         <v>0;0.3;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY186" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ186" s="4">
         <v>6</v>
@@ -54675,7 +54690,7 @@
         <v>0.73114749999999995</v>
       </c>
       <c r="BF186" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="187" spans="1:58" ht="14.25">
@@ -54754,7 +54769,7 @@
         <v>6</v>
       </c>
       <c r="Y187" s="4" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="Z187" s="43">
         <v>55000089</v>
@@ -54826,7 +54841,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY187" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ187" s="4">
         <v>6</v>
@@ -54845,7 +54860,7 @@
         <v>0.37377050000000001</v>
       </c>
       <c r="BF187" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="188" spans="1:58" ht="14.25">
@@ -54924,7 +54939,7 @@
         <v>2</v>
       </c>
       <c r="Y188" s="4" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="Z188" s="43">
         <v>55000196</v>
@@ -55004,7 +55019,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY188" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ188" s="4">
         <v>3</v>
@@ -55023,7 +55038,7 @@
         <v>0.9442623</v>
       </c>
       <c r="BF188" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="189" spans="1:58" ht="14.25">
@@ -55102,7 +55117,7 @@
         <v>4</v>
       </c>
       <c r="Y189" s="4" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="Z189" s="43">
         <v>55000044</v>
@@ -55174,7 +55189,7 @@
         <v>0;0;0;0;0;0.3;0;0;0</v>
       </c>
       <c r="AY189" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ189" s="4">
         <v>6</v>
@@ -55193,7 +55208,7 @@
         <v>0.50655740000000005</v>
       </c>
       <c r="BF189" s="22" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="190" spans="1:58" ht="14.25">
@@ -55338,7 +55353,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY190" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ190" s="4">
         <v>6</v>
@@ -55357,7 +55372,7 @@
         <v>0.1508197</v>
       </c>
       <c r="BF190" s="22" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="191" spans="1:58" ht="14.25">
@@ -55512,7 +55527,7 @@
         <v>0;0;0;0;0;0;0;0.3;0</v>
       </c>
       <c r="AY191" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ191" s="4">
         <v>6</v>
@@ -55531,7 +55546,7 @@
         <v>0.85409840000000004</v>
       </c>
       <c r="BF191" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="192" spans="1:58" ht="14.25">
@@ -55607,10 +55622,10 @@
         <v>0</v>
       </c>
       <c r="X192" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="Y192" s="4" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="Z192" s="43">
         <v>55000001</v>
@@ -55690,7 +55705,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY192" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ192" s="4">
         <v>6</v>
@@ -55709,7 +55724,7 @@
         <v>0.86229509999999998</v>
       </c>
       <c r="BF192" s="22" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="193" spans="1:58" ht="14.25">
@@ -55868,7 +55883,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY193" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ193" s="4">
         <v>6</v>
@@ -55887,7 +55902,7 @@
         <v>0.8180328</v>
       </c>
       <c r="BF193" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="194" spans="1:58" ht="14.25">
@@ -56046,7 +56061,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY194" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ194" s="4">
         <v>4</v>
@@ -56065,7 +56080,7 @@
         <v>0.89672130000000005</v>
       </c>
       <c r="BF194" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="195" spans="1:58" ht="14.25">
@@ -56144,7 +56159,7 @@
         <v>209</v>
       </c>
       <c r="Y195" s="4" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="Z195" s="43">
         <v>55000016</v>
@@ -56228,7 +56243,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY195" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ195" s="4">
         <v>5</v>
@@ -56247,7 +56262,7 @@
         <v>0.74262300000000003</v>
       </c>
       <c r="BF195" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="196" spans="1:58" ht="14.25">
@@ -56402,7 +56417,7 @@
         <v>0;0;0;0;0;0;0.3;0;0</v>
       </c>
       <c r="AY196" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ196" s="4">
         <v>5</v>
@@ -56421,7 +56436,7 @@
         <v>0.79180329999999999</v>
       </c>
       <c r="BF196" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="197" spans="1:58" ht="14.25">
@@ -56580,7 +56595,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY197" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ197" s="4">
         <v>5</v>
@@ -56599,7 +56614,7 @@
         <v>0.8327869</v>
       </c>
       <c r="BF197" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="198" spans="1:58" ht="14.25">
@@ -56758,7 +56773,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY198" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ198" s="4">
         <v>3</v>
@@ -56777,7 +56792,7 @@
         <v>0.81967210000000001</v>
       </c>
       <c r="BF198" s="22" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="199" spans="1:58" ht="14.25">
@@ -56936,7 +56951,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY199" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ199" s="4">
         <v>6</v>
@@ -56955,7 +56970,7 @@
         <v>0.9606557</v>
       </c>
       <c r="BF199" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="200" spans="1:58" ht="14.25">
@@ -57114,7 +57129,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY200" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ200" s="4">
         <v>6</v>
@@ -57133,7 +57148,7 @@
         <v>0.82459009999999999</v>
       </c>
       <c r="BF200" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="201" spans="1:58" ht="14.25">
@@ -57212,7 +57227,7 @@
         <v>12</v>
       </c>
       <c r="Y201" s="4" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="Z201" s="43">
         <v>55000036</v>
@@ -57284,7 +57299,7 @@
         <v>0;0;0;0.3;0;0;0;0;0</v>
       </c>
       <c r="AY201" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ201" s="4">
         <v>3</v>
@@ -57303,7 +57318,7 @@
         <v>0.70327870000000003</v>
       </c>
       <c r="BF201" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="202" spans="1:58" ht="14.25">
@@ -57379,10 +57394,10 @@
         <v>6</v>
       </c>
       <c r="X202" s="4" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="Y202" s="4" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="Z202" s="43">
         <v>55000203</v>
@@ -57454,7 +57469,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY202" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ202" s="4">
         <v>6</v>
@@ -57626,7 +57641,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY203" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ203" s="4">
         <v>6</v>
@@ -57645,7 +57660,7 @@
         <v>0.38196720000000001</v>
       </c>
       <c r="BF203" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="204" spans="1:58" ht="14.25">
@@ -57724,7 +57739,7 @@
         <v>2</v>
       </c>
       <c r="Y204" s="4" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="Z204" s="43">
         <v>55000150</v>
@@ -57800,7 +57815,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY204" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ204" s="4">
         <v>6</v>
@@ -57819,7 +57834,7 @@
         <v>0.3885246</v>
       </c>
       <c r="BF204" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="205" spans="1:58" ht="14.25">
@@ -57895,10 +57910,10 @@
         <v>0</v>
       </c>
       <c r="X205" s="4" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="Y205" s="4" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="Z205" s="43">
         <v>55000197</v>
@@ -57970,7 +57985,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY205" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ205" s="4">
         <v>6</v>
@@ -57989,7 +58004,7 @@
         <v>0.3180328</v>
       </c>
       <c r="BF205" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="206" spans="1:58" ht="14.25">
@@ -58068,7 +58083,7 @@
         <v>94</v>
       </c>
       <c r="Y206" s="4" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="Z206" s="43">
         <v>55000003</v>
@@ -58144,7 +58159,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY206" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ206" s="4">
         <v>6</v>
@@ -58163,7 +58178,7 @@
         <v>0.54754100000000006</v>
       </c>
       <c r="BF206" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="207" spans="1:58" ht="14.25">
@@ -58314,7 +58329,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY207" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ207" s="4">
         <v>6</v>
@@ -58333,7 +58348,7 @@
         <v>0.20491799999999999</v>
       </c>
       <c r="BF207" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="208" spans="1:58" ht="14.25">
@@ -58412,7 +58427,7 @@
         <v>6</v>
       </c>
       <c r="Y208" s="7" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="Z208" s="43">
         <v>55000207</v>
@@ -58488,7 +58503,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY208" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ208" s="4">
         <v>6</v>
@@ -58507,7 +58522,7 @@
         <v>0.53278689999999995</v>
       </c>
       <c r="BF208" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="209" spans="1:58" ht="14.25">
@@ -58586,7 +58601,7 @@
         <v>2</v>
       </c>
       <c r="Y209" s="4" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="Z209" s="43">
         <v>55000120</v>
@@ -58658,7 +58673,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY209" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ209" s="4">
         <v>6</v>
@@ -58677,7 +58692,7 @@
         <v>0.1622951</v>
       </c>
       <c r="BF209" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="210" spans="1:58" ht="14.25">
@@ -58756,7 +58771,7 @@
         <v>172</v>
       </c>
       <c r="Y210" s="4" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="Z210" s="43">
         <v>55000001</v>
@@ -58832,7 +58847,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY210" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ210" s="4">
         <v>6</v>
@@ -58851,7 +58866,7 @@
         <v>0.37704919999999997</v>
       </c>
       <c r="BF210" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="211" spans="1:58" ht="14.25">
@@ -58930,7 +58945,7 @@
         <v>69</v>
       </c>
       <c r="Y211" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="Z211" s="43">
         <v>55000208</v>
@@ -59010,7 +59025,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY211" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ211" s="4">
         <v>6</v>
@@ -59029,7 +59044,7 @@
         <v>0.6426229</v>
       </c>
       <c r="BF211" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="212" spans="1:58" ht="14.25">
@@ -59108,7 +59123,7 @@
         <v>132</v>
       </c>
       <c r="Y212" s="4" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="Z212" s="43">
         <v>55000103</v>
@@ -59184,7 +59199,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY212" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ212" s="4">
         <v>6</v>
@@ -59203,7 +59218,7 @@
         <v>0.67704920000000002</v>
       </c>
       <c r="BF212" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="213" spans="1:58" ht="14.25">
@@ -59282,7 +59297,7 @@
         <v>228</v>
       </c>
       <c r="Y213" s="4" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="Z213" s="43">
         <v>55000114</v>
@@ -59362,7 +59377,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY213" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ213" s="4">
         <v>6</v>
@@ -59381,7 +59396,7 @@
         <v>0.79016390000000003</v>
       </c>
       <c r="BF213" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="214" spans="1:58" ht="14.25">
@@ -59540,7 +59555,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY214" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ214" s="4">
         <v>6</v>
@@ -59559,7 +59574,7 @@
         <v>0.3803279</v>
       </c>
       <c r="BF214" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="215" spans="1:58" ht="14.25">
@@ -59638,7 +59653,7 @@
         <v>190</v>
       </c>
       <c r="Y215" s="4" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="Z215" s="43">
         <v>55000102</v>
@@ -59722,7 +59737,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY215" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ215" s="4">
         <v>6</v>
@@ -59741,7 +59756,7 @@
         <v>0.75901640000000004</v>
       </c>
       <c r="BF215" s="22" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="216" spans="1:58" ht="14.25">
@@ -59892,7 +59907,7 @@
         <v>0;0;0;0;0;0;0;0;0.3</v>
       </c>
       <c r="AY216" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ216" s="4">
         <v>6</v>
@@ -59911,7 +59926,7 @@
         <v>0.75737699999999997</v>
       </c>
       <c r="BF216" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="217" spans="1:58" ht="14.25">
@@ -59990,7 +60005,7 @@
         <v>4</v>
       </c>
       <c r="Y217" s="4" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="Z217" s="43">
         <v>55000001</v>
@@ -60066,7 +60081,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY217" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ217" s="4">
         <v>6</v>
@@ -60085,7 +60100,7 @@
         <v>0.37377050000000001</v>
       </c>
       <c r="BF217" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="218" spans="1:58" ht="14.25">
@@ -60164,7 +60179,7 @@
         <v>4</v>
       </c>
       <c r="Y218" s="4" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="Z218" s="43">
         <v>55000340</v>
@@ -60240,7 +60255,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY218" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ218" s="4">
         <v>6</v>
@@ -60259,7 +60274,7 @@
         <v>0.24098359999999999</v>
       </c>
       <c r="BF218" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="219" spans="1:58" ht="14.25">
@@ -60335,10 +60350,10 @@
         <v>0</v>
       </c>
       <c r="X219" s="4" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="Y219" s="4" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="Z219" s="43">
         <v>55000070</v>
@@ -60414,7 +60429,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY219" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ219" s="4">
         <v>6</v>
@@ -60433,7 +60448,7 @@
         <v>0.48032789999999997</v>
       </c>
       <c r="BF219" s="22" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="220" spans="1:58" ht="14.25">
@@ -60512,7 +60527,7 @@
         <v>65</v>
       </c>
       <c r="Y220" s="4" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="Z220" s="43">
         <v>55000101</v>
@@ -60584,7 +60599,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY220" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ220" s="4">
         <v>6</v>
@@ -60603,7 +60618,7 @@
         <v>0.404918</v>
       </c>
       <c r="BF220" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="221" spans="1:58" ht="14.25">
@@ -60682,7 +60697,7 @@
         <v>237</v>
       </c>
       <c r="Y221" s="4" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="Z221" s="43">
         <v>55000215</v>
@@ -60758,7 +60773,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY221" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ221" s="4">
         <v>6</v>
@@ -60777,7 +60792,7 @@
         <v>0.69672129999999999</v>
       </c>
       <c r="BF221" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="222" spans="1:58" ht="14.25">
@@ -60856,7 +60871,7 @@
         <v>6</v>
       </c>
       <c r="Y222" s="4" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="Z222" s="43">
         <v>55000217</v>
@@ -60928,7 +60943,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY222" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ222" s="4">
         <v>6</v>
@@ -60947,7 +60962,7 @@
         <v>0.41639340000000002</v>
       </c>
       <c r="BF222" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="223" spans="1:58" ht="14.25">
@@ -61026,7 +61041,7 @@
         <v>9</v>
       </c>
       <c r="Y223" s="4" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="Z223" s="43">
         <v>55000218</v>
@@ -61098,7 +61113,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY223" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ223" s="4">
         <v>6</v>
@@ -61117,7 +61132,7 @@
         <v>0.49508200000000002</v>
       </c>
       <c r="BF223" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="224" spans="1:58" ht="14.25">
@@ -61272,7 +61287,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY224" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ224" s="4">
         <v>6</v>
@@ -61291,7 +61306,7 @@
         <v>0.83934430000000004</v>
       </c>
       <c r="BF224" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="225" spans="1:58" ht="14.25">
@@ -61370,7 +61385,7 @@
         <v>16</v>
       </c>
       <c r="Y225" s="4" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="Z225" s="43">
         <v>55000009</v>
@@ -61446,7 +61461,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY225" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ225" s="4">
         <v>6</v>
@@ -61465,7 +61480,7 @@
         <v>0.69016390000000005</v>
       </c>
       <c r="BF225" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="226" spans="1:58" ht="14.25">
@@ -61482,7 +61497,7 @@
         <v>830</v>
       </c>
       <c r="E226" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F226" s="4">
         <v>3</v>
@@ -61492,19 +61507,19 @@
       </c>
       <c r="H226" s="4">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I226" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J226" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K226" s="4">
-        <v>-30</v>
-      </c>
-      <c r="L226" s="4">
-        <v>-1</v>
+        <v>0</v>
+      </c>
+      <c r="L226" s="11">
+        <v>-80</v>
       </c>
       <c r="M226" s="4">
         <v>0</v>
@@ -61529,7 +61544,7 @@
       </c>
       <c r="T226" s="15">
         <f t="shared" si="13"/>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="U226" s="4">
         <v>10</v>
@@ -61544,7 +61559,7 @@
         <v>9</v>
       </c>
       <c r="Y226" s="4" t="s">
-        <v>1103</v>
+        <v>1429</v>
       </c>
       <c r="Z226" s="43">
         <v>55000221</v>
@@ -61552,18 +61567,10 @@
       <c r="AA226" s="21">
         <v>100</v>
       </c>
-      <c r="AB226" s="21">
-        <v>55000187</v>
-      </c>
-      <c r="AC226" s="21">
-        <v>100</v>
-      </c>
-      <c r="AD226" s="21">
-        <v>55010006</v>
-      </c>
-      <c r="AE226" s="21">
-        <v>100</v>
-      </c>
+      <c r="AB226" s="21"/>
+      <c r="AC226" s="21"/>
+      <c r="AD226" s="21"/>
+      <c r="AE226" s="21"/>
       <c r="AF226" s="21"/>
       <c r="AG226" s="21"/>
       <c r="AH226" s="21">
@@ -61571,7 +61578,7 @@
 IF(ISBLANK($AB226),0, LOOKUP($AB226,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC226/100)+
 IF(ISBLANK($AD226),0, LOOKUP($AD226,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE226/100)+
 IF(ISBLANK($AF226),0, LOOKUP($AF226,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG226/100)</f>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI226" s="21">
         <v>0</v>
@@ -61624,7 +61631,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY226" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ226" s="4">
         <v>6</v>
@@ -61642,9 +61649,7 @@
       <c r="BE226" s="30">
         <v>0.82786890000000002</v>
       </c>
-      <c r="BF226" s="22" t="s">
-        <v>1174</v>
-      </c>
+      <c r="BF226" s="22"/>
     </row>
     <row r="227" spans="1:58" ht="14.25">
       <c r="A227">
@@ -61722,7 +61727,7 @@
         <v>172</v>
       </c>
       <c r="Y227" s="4" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="Z227" s="43">
         <v>55000222</v>
@@ -61798,7 +61803,7 @@
         <v>0;0;0;0;0;0;0;0.3;0</v>
       </c>
       <c r="AY227" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ227" s="4">
         <v>6</v>
@@ -61817,7 +61822,7 @@
         <v>0.8</v>
       </c>
       <c r="BF227" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="228" spans="1:58" ht="14.25">
@@ -61896,7 +61901,7 @@
         <v>245</v>
       </c>
       <c r="Y228" s="4" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="Z228" s="43">
         <v>55000160</v>
@@ -61972,7 +61977,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY228" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ228" s="4">
         <v>6</v>
@@ -61991,7 +61996,7 @@
         <v>0.52295080000000005</v>
       </c>
       <c r="BF228" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="229" spans="1:58" ht="14.25">
@@ -62070,7 +62075,7 @@
         <v>24</v>
       </c>
       <c r="Y229" s="4" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="Z229" s="43">
         <v>55000093</v>
@@ -62146,7 +62151,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY229" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ229" s="4">
         <v>6</v>
@@ -62165,7 +62170,7 @@
         <v>0.47540979999999999</v>
       </c>
       <c r="BF229" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="230" spans="1:58" ht="14.25">
@@ -62244,7 +62249,7 @@
         <v>9</v>
       </c>
       <c r="Y230" s="4" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="Z230" s="43">
         <v>55000225</v>
@@ -62316,7 +62321,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY230" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ230" s="4">
         <v>6</v>
@@ -62335,7 +62340,7 @@
         <v>5.2459020000000002E-2</v>
       </c>
       <c r="BF230" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="231" spans="1:58" ht="14.25">
@@ -62414,7 +62419,7 @@
         <v>9</v>
       </c>
       <c r="Y231" s="4" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="Z231" s="43">
         <v>55000226</v>
@@ -62486,7 +62491,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY231" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ231" s="4">
         <v>6</v>
@@ -62505,7 +62510,7 @@
         <v>5.4098359999999998E-2</v>
       </c>
       <c r="BF231" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="232" spans="1:58" ht="14.25">
@@ -62650,7 +62655,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY232" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ232" s="4">
         <v>6</v>
@@ -62669,7 +62674,7 @@
         <v>3.9344259999999999E-2</v>
       </c>
       <c r="BF232" s="22" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="233" spans="1:58" ht="14.25">
@@ -62748,7 +62753,7 @@
         <v>251</v>
       </c>
       <c r="Y233" s="4" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="Z233" s="43">
         <v>55000120</v>
@@ -62820,7 +62825,7 @@
         <v>0;0;0.3;0;0;0;0;0;0</v>
       </c>
       <c r="AY233" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ233" s="4">
         <v>6</v>
@@ -62839,7 +62844,7 @@
         <v>0.54426229999999998</v>
       </c>
       <c r="BF233" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="234" spans="1:58" ht="14.25">
@@ -62918,7 +62923,7 @@
         <v>22</v>
       </c>
       <c r="Y234" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Z234" s="43">
         <v>55000002</v>
@@ -62994,7 +62999,7 @@
         <v>0;0;0;0;0;0;0;0;0.3</v>
       </c>
       <c r="AY234" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ234" s="4">
         <v>6</v>
@@ -63013,7 +63018,7 @@
         <v>0.8573771</v>
       </c>
       <c r="BF234" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="235" spans="1:58" ht="14.25">
@@ -63092,7 +63097,7 @@
         <v>6</v>
       </c>
       <c r="Y235" s="4" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="Z235" s="43">
         <v>55000087</v>
@@ -63168,7 +63173,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY235" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ235" s="4">
         <v>6</v>
@@ -63187,7 +63192,7 @@
         <v>0.595082</v>
       </c>
       <c r="BF235" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="236" spans="1:58" ht="14.25">
@@ -63266,7 +63271,7 @@
         <v>12</v>
       </c>
       <c r="Y236" s="4" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="Z236" s="43">
         <v>55000237</v>
@@ -63342,7 +63347,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY236" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ236" s="4">
         <v>6</v>
@@ -63361,7 +63366,7 @@
         <v>0.47704920000000001</v>
       </c>
       <c r="BF236" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="237" spans="1:58" ht="14.25">
@@ -63440,7 +63445,7 @@
         <v>2</v>
       </c>
       <c r="Y237" s="4" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="Z237" s="43">
         <v>55000003</v>
@@ -63524,7 +63529,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY237" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ237" s="4">
         <v>6</v>
@@ -63543,7 +63548,7 @@
         <v>0.70327870000000003</v>
       </c>
       <c r="BF237" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="238" spans="1:58" ht="14.25">
@@ -63622,7 +63627,7 @@
         <v>4</v>
       </c>
       <c r="Y238" s="7" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="Z238" s="43">
         <v>55000033</v>
@@ -63698,7 +63703,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY238" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ238" s="4">
         <v>6</v>
@@ -63717,7 +63722,7 @@
         <v>9.3442629999999999E-2</v>
       </c>
       <c r="BF238" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="239" spans="1:58" ht="14.25">
@@ -63796,7 +63801,7 @@
         <v>4</v>
       </c>
       <c r="Y239" s="4" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="Z239" s="43">
         <v>55000199</v>
@@ -63872,7 +63877,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY239" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ239" s="4">
         <v>6</v>
@@ -63891,7 +63896,7 @@
         <v>0.77377050000000003</v>
       </c>
       <c r="BF239" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="240" spans="1:58" ht="14.25">
@@ -63970,7 +63975,7 @@
         <v>2</v>
       </c>
       <c r="Y240" s="4" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="Z240" s="43">
         <v>55000006</v>
@@ -64046,7 +64051,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY240" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ240" s="4">
         <v>6</v>
@@ -64065,7 +64070,7 @@
         <v>0.63934429999999998</v>
       </c>
       <c r="BF240" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="241" spans="1:58" ht="14.25">
@@ -64144,7 +64149,7 @@
         <v>16</v>
       </c>
       <c r="Y241" s="4" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="Z241" s="43">
         <v>55000216</v>
@@ -64228,7 +64233,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY241" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ241" s="4">
         <v>3</v>
@@ -64247,7 +64252,7 @@
         <v>0.89016399999999996</v>
       </c>
       <c r="BF241" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="242" spans="1:58" ht="14.25">
@@ -64326,7 +64331,7 @@
         <v>4</v>
       </c>
       <c r="Y242" s="4" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="Z242" s="43">
         <v>55000010</v>
@@ -64402,7 +64407,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY242" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ242" s="4">
         <v>6</v>
@@ -64421,7 +64426,7 @@
         <v>0.51311479999999998</v>
       </c>
       <c r="BF242" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="243" spans="1:58" ht="14.25">
@@ -64500,7 +64505,7 @@
         <v>220</v>
       </c>
       <c r="Y243" s="4" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="Z243" s="43">
         <v>55000037</v>
@@ -64580,7 +64585,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY243" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ243" s="4">
         <v>6</v>
@@ -64599,7 +64604,7 @@
         <v>0.54590170000000005</v>
       </c>
       <c r="BF243" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="244" spans="1:58" ht="14.25">
@@ -64678,7 +64683,7 @@
         <v>2</v>
       </c>
       <c r="Y244" s="4" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="Z244" s="43">
         <v>55000131</v>
@@ -64754,7 +64759,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY244" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ244" s="4">
         <v>6</v>
@@ -64773,7 +64778,7 @@
         <v>0.62131150000000002</v>
       </c>
       <c r="BF244" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="245" spans="1:58" ht="14.25">
@@ -64852,7 +64857,7 @@
         <v>69</v>
       </c>
       <c r="Y245" s="4" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="Z245" s="43">
         <v>55000131</v>
@@ -64936,7 +64941,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY245" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ245" s="4">
         <v>4</v>
@@ -64955,7 +64960,7 @@
         <v>0.84590169999999998</v>
       </c>
       <c r="BF245" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="246" spans="1:58" ht="14.25">
@@ -65034,7 +65039,7 @@
         <v>251</v>
       </c>
       <c r="Y246" s="4" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="Z246" s="43">
         <v>55000216</v>
@@ -65106,7 +65111,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY246" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ246" s="4">
         <v>4</v>
@@ -65125,7 +65130,7 @@
         <v>0.85245899999999997</v>
       </c>
       <c r="BF246" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="247" spans="1:58" ht="14.25">
@@ -65204,7 +65209,7 @@
         <v>2</v>
       </c>
       <c r="Y247" s="4" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="Z247" s="43">
         <v>55000258</v>
@@ -65284,7 +65289,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY247" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ247" s="4">
         <v>6</v>
@@ -65303,7 +65308,7 @@
         <v>0.90983610000000004</v>
       </c>
       <c r="BF247" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="248" spans="1:58" ht="14.25">
@@ -65382,7 +65387,7 @@
         <v>19</v>
       </c>
       <c r="Y248" s="4" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="Z248" s="43">
         <v>55000260</v>
@@ -65454,7 +65459,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY248" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ248" s="4">
         <v>6</v>
@@ -65473,7 +65478,7 @@
         <v>5.0819669999999997E-2</v>
       </c>
       <c r="BF248" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="249" spans="1:58" ht="14.25">
@@ -65552,7 +65557,7 @@
         <v>16</v>
       </c>
       <c r="Y249" s="4" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="Z249" s="43">
         <v>55000037</v>
@@ -65628,7 +65633,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY249" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ249" s="4">
         <v>6</v>
@@ -65647,7 +65652,7 @@
         <v>0.59836069999999997</v>
       </c>
       <c r="BF249" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="250" spans="1:58" ht="14.25">
@@ -65726,7 +65731,7 @@
         <v>2</v>
       </c>
       <c r="Y250" s="4" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="Z250" s="43">
         <v>55000209</v>
@@ -65806,7 +65811,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY250" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ250" s="4">
         <v>3</v>
@@ -65825,7 +65830,7 @@
         <v>0.94262299999999999</v>
       </c>
       <c r="BF250" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="251" spans="1:58" ht="14.25">
@@ -65904,7 +65909,7 @@
         <v>4</v>
       </c>
       <c r="Y251" s="4" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="Z251" s="43">
         <v>55000001</v>
@@ -65980,7 +65985,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY251" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ251" s="4">
         <v>6</v>
@@ -65999,7 +66004,7 @@
         <v>0.35573769999999999</v>
       </c>
       <c r="BF251" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="252" spans="1:58" ht="14.25">
@@ -66078,7 +66083,7 @@
         <v>135</v>
       </c>
       <c r="Y252" s="4" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="Z252" s="43">
         <v>55000030</v>
@@ -66158,7 +66163,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY252" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ252" s="4">
         <v>6</v>
@@ -66177,7 +66182,7 @@
         <v>0.90163930000000003</v>
       </c>
       <c r="BF252" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="253" spans="1:58" ht="14.25">
@@ -66256,7 +66261,7 @@
         <v>19</v>
       </c>
       <c r="Y253" s="4" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="Z253" s="43">
         <v>55000265</v>
@@ -66332,7 +66337,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY253" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ253" s="4">
         <v>6</v>
@@ -66351,7 +66356,7 @@
         <v>0.64918039999999999</v>
       </c>
       <c r="BF253" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="254" spans="1:58" ht="14.25">
@@ -66430,7 +66435,7 @@
         <v>209</v>
       </c>
       <c r="Y254" s="4" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="Z254" s="43">
         <v>55000340</v>
@@ -66506,7 +66511,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY254" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ254" s="4">
         <v>6</v>
@@ -66525,7 +66530,7 @@
         <v>0.49836069999999999</v>
       </c>
       <c r="BF254" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="255" spans="1:58" ht="14.25">
@@ -66604,7 +66609,7 @@
         <v>0</v>
       </c>
       <c r="Y255" s="4" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="Z255" s="43">
         <v>55000181</v>
@@ -66680,7 +66685,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY255" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ255" s="4">
         <v>6</v>
@@ -66699,7 +66704,7 @@
         <v>0.82786890000000002</v>
       </c>
       <c r="BF255" s="22" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="256" spans="1:58" ht="14.25">
@@ -66778,7 +66783,7 @@
         <v>4</v>
       </c>
       <c r="Y256" s="4" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="Z256" s="43">
         <v>55000032</v>
@@ -66854,7 +66859,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY256" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ256" s="4">
         <v>6</v>
@@ -66873,7 +66878,7 @@
         <v>0.63278690000000004</v>
       </c>
       <c r="BF256" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="257" spans="1:58" ht="14.25">
@@ -66952,7 +66957,7 @@
         <v>2</v>
       </c>
       <c r="Y257" s="4" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="Z257" s="43">
         <v>55000129</v>
@@ -67028,7 +67033,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY257" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ257" s="4">
         <v>6</v>
@@ -67047,7 +67052,7 @@
         <v>0.49344260000000001</v>
       </c>
       <c r="BF257" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="258" spans="1:58" ht="14.25">
@@ -67126,7 +67131,7 @@
         <v>251</v>
       </c>
       <c r="Y258" s="4" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="Z258" s="43">
         <v>55000088</v>
@@ -67202,7 +67207,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY258" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ258" s="4">
         <v>6</v>
@@ -67221,7 +67226,7 @@
         <v>0.2147541</v>
       </c>
       <c r="BF258" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="259" spans="1:58" ht="14.25">
@@ -67300,7 +67305,7 @@
         <v>4</v>
       </c>
       <c r="Y259" s="7" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="Z259" s="43">
         <v>55000340</v>
@@ -67376,7 +67381,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY259" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ259" s="4">
         <v>6</v>
@@ -67395,7 +67400,7 @@
         <v>0.25245899999999999</v>
       </c>
       <c r="BF259" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="260" spans="1:58" ht="14.25">
@@ -67474,7 +67479,7 @@
         <v>6</v>
       </c>
       <c r="Y260" s="4" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="Z260" s="43">
         <v>55000269</v>
@@ -67550,7 +67555,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY260" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ260" s="4">
         <v>6</v>
@@ -67569,7 +67574,7 @@
         <v>0.28032790000000002</v>
       </c>
       <c r="BF260" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="261" spans="1:58" ht="14.25">
@@ -67648,7 +67653,7 @@
         <v>16</v>
       </c>
       <c r="Y261" s="4" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="Z261" s="43">
         <v>55000079</v>
@@ -67724,7 +67729,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY261" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ261" s="4">
         <v>6</v>
@@ -67743,7 +67748,7 @@
         <v>0.50327869999999997</v>
       </c>
       <c r="BF261" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="262" spans="1:58" ht="14.25">
@@ -67822,7 +67827,7 @@
         <v>4</v>
       </c>
       <c r="Y262" s="4" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="Z262" s="43">
         <v>55000199</v>
@@ -67894,7 +67899,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY262" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ262" s="4">
         <v>6</v>
@@ -67913,7 +67918,7 @@
         <v>0.37704919999999997</v>
       </c>
       <c r="BF262" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="263" spans="1:58" ht="14.25">
@@ -68058,7 +68063,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY263" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ263" s="4">
         <v>6</v>
@@ -68077,7 +68082,7 @@
         <v>0.1065574</v>
       </c>
       <c r="BF263" s="22" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="264" spans="1:58" ht="14.25">
@@ -68156,7 +68161,7 @@
         <v>4</v>
       </c>
       <c r="Y264" s="4" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="Z264" s="43">
         <v>55000271</v>
@@ -68232,7 +68237,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY264" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ264" s="4">
         <v>6</v>
@@ -68251,7 +68256,7 @@
         <v>0.4360656</v>
       </c>
       <c r="BF264" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="265" spans="1:58" ht="14.25">
@@ -68330,7 +68335,7 @@
         <v>2</v>
       </c>
       <c r="Y265" s="4" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="Z265" s="43">
         <v>55000123</v>
@@ -68410,7 +68415,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY265" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ265" s="4">
         <v>6</v>
@@ -68429,7 +68434,7 @@
         <v>0.57704920000000004</v>
       </c>
       <c r="BF265" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="266" spans="1:58" ht="14.25">
@@ -68508,7 +68513,7 @@
         <v>24</v>
       </c>
       <c r="Y266" s="4" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="Z266" s="43">
         <v>55000093</v>
@@ -68588,7 +68593,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY266" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ266" s="4">
         <v>6</v>
@@ -68607,7 +68612,7 @@
         <v>0.64590159999999996</v>
       </c>
       <c r="BF266" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="267" spans="1:58" ht="14.25">
@@ -68686,7 +68691,7 @@
         <v>94</v>
       </c>
       <c r="Y267" s="4" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="Z267" s="43">
         <v>55000001</v>
@@ -68766,7 +68771,7 @@
         <v>0;0;0;0;0;0;0;0.3;0</v>
       </c>
       <c r="AY267" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ267" s="4">
         <v>6</v>
@@ -68785,7 +68790,7 @@
         <v>0.8</v>
       </c>
       <c r="BF267" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="268" spans="1:58" ht="14.25">
@@ -68864,7 +68869,7 @@
         <v>16</v>
       </c>
       <c r="Y268" s="4" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="Z268" s="43">
         <v>55000279</v>
@@ -68940,7 +68945,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY268" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ268" s="4">
         <v>6</v>
@@ -68959,7 +68964,7 @@
         <v>0.5557377</v>
       </c>
       <c r="BF268" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="269" spans="1:58" ht="14.25">
@@ -69038,7 +69043,7 @@
         <v>9</v>
       </c>
       <c r="Y269" s="4" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="Z269" s="43">
         <v>55000272</v>
@@ -69110,7 +69115,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY269" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ269" s="4">
         <v>6</v>
@@ -69129,7 +69134,7 @@
         <v>0.4606557</v>
       </c>
       <c r="BF269" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="270" spans="1:58" ht="14.25">
@@ -69208,7 +69213,7 @@
         <v>16</v>
       </c>
       <c r="Y270" s="4" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="Z270" s="43">
         <v>55000030</v>
@@ -69284,7 +69289,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY270" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ270" s="4">
         <v>6</v>
@@ -69303,7 +69308,7 @@
         <v>0.58688530000000005</v>
       </c>
       <c r="BF270" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="271" spans="1:58" ht="14.25">
@@ -69382,7 +69387,7 @@
         <v>40</v>
       </c>
       <c r="Y271" s="4" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="Z271" s="43">
         <v>55000019</v>
@@ -69462,7 +69467,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY271" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ271" s="4">
         <v>5</v>
@@ -69481,7 +69486,7 @@
         <v>0.81147539999999996</v>
       </c>
       <c r="BF271" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="272" spans="1:58" ht="14.25">
@@ -69560,7 +69565,7 @@
         <v>31</v>
       </c>
       <c r="Y272" s="4" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="Z272" s="43">
         <v>55000275</v>
@@ -69640,7 +69645,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY272" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ272" s="4">
         <v>6</v>
@@ -69659,7 +69664,7 @@
         <v>0.77213109999999996</v>
       </c>
       <c r="BF272" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="273" spans="1:58" ht="14.25">
@@ -69735,10 +69740,10 @@
         <v>0</v>
       </c>
       <c r="X273" s="4" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="Y273" s="4" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="Z273" s="43">
         <v>55000136</v>
@@ -69818,7 +69823,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY273" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ273" s="4">
         <v>3</v>
@@ -69837,7 +69842,7 @@
         <v>0.83442620000000001</v>
       </c>
       <c r="BF273" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="274" spans="1:58" ht="14.25">
@@ -69916,7 +69921,7 @@
         <v>0</v>
       </c>
       <c r="Y274" s="4" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="Z274" s="43">
         <v>55000342</v>
@@ -69988,7 +69993,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY274" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ274" s="4">
         <v>6</v>
@@ -70007,7 +70012,7 @@
         <v>0.12950819999999999</v>
       </c>
       <c r="BF274" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="275" spans="1:58" ht="14.25">
@@ -70086,7 +70091,7 @@
         <v>277</v>
       </c>
       <c r="Y275" s="4" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="Z275" s="43">
         <v>55000278</v>
@@ -70162,7 +70167,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY275" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ275" s="4">
         <v>6</v>
@@ -70181,7 +70186,7 @@
         <v>0.40655740000000001</v>
       </c>
       <c r="BF275" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="276" spans="1:58" ht="14.25">
@@ -70260,7 +70265,7 @@
         <v>22</v>
       </c>
       <c r="Y276" s="4" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="Z276" s="43">
         <v>55000038</v>
@@ -70334,7 +70339,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY276" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ276" s="4">
         <v>6</v>
@@ -70353,7 +70358,7 @@
         <v>0.67049179999999997</v>
       </c>
       <c r="BF276" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="277" spans="1:58" ht="14.25">
@@ -70432,7 +70437,7 @@
         <v>78</v>
       </c>
       <c r="Y277" s="4" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="Z277" s="43">
         <v>55000150</v>
@@ -70508,7 +70513,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY277" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ277" s="4">
         <v>6</v>
@@ -70527,7 +70532,7 @@
         <v>0.48196719999999998</v>
       </c>
       <c r="BF277" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="278" spans="1:58" ht="14.25">
@@ -70606,7 +70611,7 @@
         <v>4</v>
       </c>
       <c r="Y278" s="4" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="Z278" s="43">
         <v>55000136</v>
@@ -70682,7 +70687,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY278" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ278" s="4">
         <v>6</v>
@@ -70701,7 +70706,7 @@
         <v>0.52295080000000005</v>
       </c>
       <c r="BF278" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="279" spans="1:58" ht="14.25">
@@ -70780,7 +70785,7 @@
         <v>4</v>
       </c>
       <c r="Y279" s="7" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="Z279" s="43">
         <v>55000282</v>
@@ -70852,7 +70857,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY279" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ279" s="4">
         <v>6</v>
@@ -70871,7 +70876,7 @@
         <v>0.10983610000000001</v>
       </c>
       <c r="BF279" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="280" spans="1:58" ht="14.25">
@@ -70950,7 +70955,7 @@
         <v>16</v>
       </c>
       <c r="Y280" s="4" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="Z280" s="43">
         <v>55000120</v>
@@ -71026,7 +71031,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY280" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ280" s="4">
         <v>6</v>
@@ -71045,7 +71050,7 @@
         <v>0.50655740000000005</v>
       </c>
       <c r="BF280" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="281" spans="1:58" ht="14.25">
@@ -71124,7 +71129,7 @@
         <v>9</v>
       </c>
       <c r="Y281" s="4" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="Z281" s="43">
         <v>55000285</v>
@@ -71196,7 +71201,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY281" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ281" s="4">
         <v>6</v>
@@ -71215,7 +71220,7 @@
         <v>5.5737700000000001E-2</v>
       </c>
       <c r="BF281" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="282" spans="1:58" ht="14.25">
@@ -71294,7 +71299,7 @@
         <v>6</v>
       </c>
       <c r="Y282" s="4" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="Z282" s="43">
         <v>55000285</v>
@@ -71366,7 +71371,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY282" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ282" s="4">
         <v>6</v>
@@ -71385,7 +71390,7 @@
         <v>0.14590159999999999</v>
       </c>
       <c r="BF282" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="283" spans="1:58" ht="14.25">
@@ -71464,7 +71469,7 @@
         <v>16</v>
       </c>
       <c r="Y283" s="4" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="Z283" s="43">
         <v>55000285</v>
@@ -71536,7 +71541,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY283" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ283" s="4">
         <v>6</v>
@@ -71555,7 +71560,7 @@
         <v>0.1245902</v>
       </c>
       <c r="BF283" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="284" spans="1:58" ht="14.25">
@@ -71634,7 +71639,7 @@
         <v>6</v>
       </c>
       <c r="Y284" s="4" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="Z284" s="43">
         <v>55000287</v>
@@ -71710,7 +71715,7 @@
         <v>0;0;0;0;0;0;0;0.3;0</v>
       </c>
       <c r="AY284" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ284" s="4">
         <v>6</v>
@@ -71729,7 +71734,7 @@
         <v>0.90163930000000003</v>
       </c>
       <c r="BF284" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="285" spans="1:58" ht="14.25">
@@ -71808,7 +71813,7 @@
         <v>16</v>
       </c>
       <c r="Y285" s="4" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="Z285" s="43">
         <v>55000289</v>
@@ -71884,7 +71889,7 @@
         <v>0;0;0;0;0;0;0;0;0.3</v>
       </c>
       <c r="AY285" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ285" s="4">
         <v>5</v>
@@ -71903,7 +71908,7 @@
         <v>0.91311469999999995</v>
       </c>
       <c r="BF285" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="286" spans="1:58" ht="14.25">
@@ -72048,7 +72053,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY286" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ286" s="4">
         <v>6</v>
@@ -72067,7 +72072,7 @@
         <v>0.2262295</v>
       </c>
       <c r="BF286" s="22" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="287" spans="1:58" ht="14.25">
@@ -72146,7 +72151,7 @@
         <v>16</v>
       </c>
       <c r="Y287" s="4" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="Z287" s="43">
         <v>55000286</v>
@@ -72222,7 +72227,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY287" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ287" s="4">
         <v>6</v>
@@ -72241,7 +72246,7 @@
         <v>0.74754100000000001</v>
       </c>
       <c r="BF287" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="288" spans="1:58" ht="14.25">
@@ -72320,7 +72325,7 @@
         <v>9</v>
       </c>
       <c r="Y288" s="4" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="Z288" s="43">
         <v>55000292</v>
@@ -72396,7 +72401,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY288" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ288" s="4">
         <v>6</v>
@@ -72415,7 +72420,7 @@
         <v>0.33934429999999999</v>
       </c>
       <c r="BF288" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="289" spans="1:58" ht="14.25">
@@ -72494,7 +72499,7 @@
         <v>100</v>
       </c>
       <c r="Y289" s="4" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="Z289" s="43">
         <v>55000293</v>
@@ -72566,7 +72571,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY289" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ289" s="4">
         <v>6</v>
@@ -72585,7 +72590,7 @@
         <v>8.6885240000000002E-2</v>
       </c>
       <c r="BF289" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="290" spans="1:58" ht="14.25">
@@ -72664,7 +72669,7 @@
         <v>16</v>
       </c>
       <c r="Y290" s="4" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="Z290" s="43">
         <v>55000284</v>
@@ -72736,7 +72741,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY290" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ290" s="4">
         <v>6</v>
@@ -72755,7 +72760,7 @@
         <v>0.3327869</v>
       </c>
       <c r="BF290" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="291" spans="1:58" ht="14.25">
@@ -72834,7 +72839,7 @@
         <v>78</v>
       </c>
       <c r="Y291" s="4" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="Z291" s="43">
         <v>55000246</v>
@@ -72910,7 +72915,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY291" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ291" s="4">
         <v>6</v>
@@ -72929,7 +72934,7 @@
         <v>0.72786890000000004</v>
       </c>
       <c r="BF291" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="292" spans="1:58" ht="14.25">
@@ -73008,7 +73013,7 @@
         <v>22</v>
       </c>
       <c r="Y292" s="4" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="Z292" s="43">
         <v>55000037</v>
@@ -73084,7 +73089,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY292" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ292" s="4">
         <v>6</v>
@@ -73103,7 +73108,7 @@
         <v>0.7</v>
       </c>
       <c r="BF292" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="293" spans="1:58" ht="14.25">
@@ -73182,7 +73187,7 @@
         <v>9</v>
       </c>
       <c r="Y293" s="4" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="Z293" s="43">
         <v>55000296</v>
@@ -73254,7 +73259,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY293" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ293" s="4">
         <v>6</v>
@@ -73273,7 +73278,7 @@
         <v>8.1967209999999999E-2</v>
       </c>
       <c r="BF293" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="294" spans="1:58" ht="14.25">
@@ -73352,7 +73357,7 @@
         <v>16</v>
       </c>
       <c r="Y294" s="4" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="Z294" s="43">
         <v>55000015</v>
@@ -73432,7 +73437,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY294" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ294" s="4">
         <v>6</v>
@@ -73451,7 +73456,7 @@
         <v>0.8180328</v>
       </c>
       <c r="BF294" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="295" spans="1:58" ht="14.25">
@@ -73530,7 +73535,7 @@
         <v>1002</v>
       </c>
       <c r="Y295" s="4" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="Z295" s="43">
         <v>55000332</v>
@@ -73602,7 +73607,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY295" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ295" s="4">
         <v>6</v>
@@ -73621,7 +73626,7 @@
         <v>0.34426230000000002</v>
       </c>
       <c r="BF295" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="296" spans="1:58" ht="14.25">
@@ -73700,7 +73705,7 @@
         <v>2</v>
       </c>
       <c r="Y296" s="4" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="Z296" s="43">
         <v>55000333</v>
@@ -73776,7 +73781,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY296" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ296" s="4">
         <v>6</v>
@@ -73795,7 +73800,7 @@
         <v>0.29836059999999998</v>
       </c>
       <c r="BF296" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="297" spans="1:58" ht="14.25">
@@ -73874,7 +73879,7 @@
         <v>45</v>
       </c>
       <c r="Y297" s="4" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="Z297" s="43">
         <v>55000045</v>
@@ -73954,7 +73959,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY297" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ297" s="4">
         <v>6</v>
@@ -73973,7 +73978,7 @@
         <v>0.50983610000000001</v>
       </c>
       <c r="BF297" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="298" spans="1:58" ht="14.25">
@@ -74052,7 +74057,7 @@
         <v>2</v>
       </c>
       <c r="Y298" s="7" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="Z298" s="43">
         <v>55000046</v>
@@ -74128,7 +74133,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY298" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ298" s="4">
         <v>6</v>
@@ -74147,7 +74152,7 @@
         <v>0.2377049</v>
       </c>
       <c r="BF298" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="299" spans="1:58" ht="14.25">
@@ -74226,7 +74231,7 @@
         <v>22</v>
       </c>
       <c r="Y299" s="4" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="Z299" s="43">
         <v>55000047</v>
@@ -74298,7 +74303,7 @@
         <v>0;0;0;0.3;0;0;0;0;0</v>
       </c>
       <c r="AY299" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ299" s="4">
         <v>6</v>
@@ -74317,7 +74322,7 @@
         <v>0.80983609999999995</v>
       </c>
       <c r="BF299" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="300" spans="1:58" ht="14.25">
@@ -74396,7 +74401,7 @@
         <v>22</v>
       </c>
       <c r="Y300" s="4" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="Z300" s="43">
         <v>55000107</v>
@@ -74468,7 +74473,7 @@
         <v>0;0.3;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY300" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ300" s="4">
         <v>6</v>
@@ -74487,7 +74492,7 @@
         <v>0.81967210000000001</v>
       </c>
       <c r="BF300" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="301" spans="1:58" ht="14.25">
@@ -74566,7 +74571,7 @@
         <v>111</v>
       </c>
       <c r="Y301" s="4" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="Z301" s="43">
         <v>55000013</v>
@@ -74650,7 +74655,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY301" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ301" s="4">
         <v>3</v>
@@ -74669,7 +74674,7 @@
         <v>0.75409839999999995</v>
       </c>
       <c r="BF301" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="302" spans="1:58" ht="14.25">
@@ -74748,7 +74753,7 @@
         <v>209</v>
       </c>
       <c r="Y302" s="4" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="Z302" s="43">
         <v>55000335</v>
@@ -74824,7 +74829,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY302" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ302" s="4">
         <v>6</v>
@@ -74843,7 +74848,7 @@
         <v>0.33442620000000001</v>
       </c>
       <c r="BF302" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="303" spans="1:58" ht="14.25">
@@ -74922,7 +74927,7 @@
         <v>78</v>
       </c>
       <c r="Y303" s="11" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="Z303" s="43">
         <v>55000340</v>
@@ -74998,7 +75003,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY303" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ303" s="11">
         <v>6</v>
@@ -75017,7 +75022,7 @@
         <v>0.1065574</v>
       </c>
       <c r="BF303" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="304" spans="1:58" ht="14.25">
@@ -75096,7 +75101,7 @@
         <v>6</v>
       </c>
       <c r="Y304" s="11" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="Z304" s="43">
         <v>55000341</v>
@@ -75168,7 +75173,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY304" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ304" s="11">
         <v>6</v>
@@ -75187,7 +75192,7 @@
         <v>0.19508200000000001</v>
       </c>
       <c r="BF304" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="305" spans="1:58" ht="14.25">
@@ -75266,7 +75271,7 @@
         <v>6</v>
       </c>
       <c r="Y305" s="11" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="Z305" s="43">
         <v>55000341</v>
@@ -75338,7 +75343,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY305" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ305" s="11">
         <v>6</v>
@@ -75357,7 +75362,7 @@
         <v>0.3885246</v>
       </c>
       <c r="BF305" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="306" spans="1:58" ht="14.25">
@@ -75436,7 +75441,7 @@
         <v>78</v>
       </c>
       <c r="Y306" s="11" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="Z306" s="43">
         <v>55000341</v>
@@ -75512,7 +75517,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY306" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ306" s="11">
         <v>6</v>
@@ -75531,7 +75536,7 @@
         <v>0.51967220000000003</v>
       </c>
       <c r="BF306" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="307" spans="1:58" ht="14.25">
@@ -75610,7 +75615,7 @@
         <v>0</v>
       </c>
       <c r="Y307" s="11" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="Z307" s="43">
         <v>55000343</v>
@@ -75682,7 +75687,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY307" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ307" s="11">
         <v>6</v>
@@ -75701,7 +75706,7 @@
         <v>0.49672129999999998</v>
       </c>
       <c r="BF307" s="22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="308" spans="1:58" ht="14.25">
@@ -75846,7 +75851,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY308" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ308" s="11">
         <v>6</v>
@@ -75865,7 +75870,7 @@
         <v>0.49672129999999998</v>
       </c>
       <c r="BF308" s="22" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="309" spans="1:58" ht="14.25">
@@ -76010,7 +76015,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY309" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ309" s="11">
         <v>6</v>
@@ -76029,7 +76034,7 @@
         <v>0.49672129999999998</v>
       </c>
       <c r="BF309" s="22" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="310" spans="1:58" ht="14.25">
@@ -76174,7 +76179,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY310" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ310" s="11">
         <v>6</v>
@@ -76193,7 +76198,7 @@
         <v>0.49672129999999998</v>
       </c>
       <c r="BF310" s="22" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="311" spans="1:58" ht="14.25">
@@ -76338,7 +76343,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY311" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ311" s="11">
         <v>6</v>
@@ -76357,7 +76362,7 @@
         <v>0.49672129999999998</v>
       </c>
       <c r="BF311" s="22" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="312" spans="1:58" ht="14.25">
@@ -76365,10 +76370,10 @@
         <v>51000309</v>
       </c>
       <c r="B312" s="11" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C312" s="4" t="s">
         <v>1417</v>
-      </c>
-      <c r="C312" s="4" t="s">
-        <v>1418</v>
       </c>
       <c r="D312" s="8" t="s">
         <v>698</v>
@@ -76436,7 +76441,7 @@
         <v>9</v>
       </c>
       <c r="Y312" s="11" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="Z312" s="21">
         <v>55000300</v>
@@ -76508,7 +76513,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY312" s="57" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ312" s="11">
         <v>6</v>
@@ -76527,7 +76532,7 @@
         <v>0.40819670000000002</v>
       </c>
       <c r="BF312" s="11" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="313" spans="1:58" ht="14.25">
@@ -76535,13 +76540,13 @@
         <v>51000310</v>
       </c>
       <c r="B313" s="11" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C313" s="11" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D313" s="8" t="s">
         <v>1425</v>
-      </c>
-      <c r="C313" s="11" t="s">
-        <v>1424</v>
-      </c>
-      <c r="D313" s="8" t="s">
-        <v>1426</v>
       </c>
       <c r="E313" s="11">
         <v>6</v>
@@ -76554,7 +76559,7 @@
       </c>
       <c r="H313" s="24">
         <f t="shared" ref="H313" si="20">IF(T313&gt;10,5,IF(T313&gt;5,4,IF(T313&gt;2.5,3,IF(T313&gt;0,2,IF(T313&gt;-2.5,1,IF(T313&gt;-10,0,6))))))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I313" s="11">
         <v>6</v>
@@ -76566,7 +76571,7 @@
         <v>-20</v>
       </c>
       <c r="L313" s="11">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="M313" s="11">
         <v>0</v>
@@ -76591,7 +76596,7 @@
       </c>
       <c r="T313" s="24">
         <f t="shared" ref="T313" si="21">SUM(J313:K313)+SUM(M313:S313)*5+4.4*SUM(AO313:AW313)+2.5*SUM(AI313:AM313)+AH313+L313</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="U313" s="11">
         <v>10</v>
@@ -76606,7 +76611,7 @@
         <v>1021</v>
       </c>
       <c r="Y313" s="11" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="Z313" s="21">
         <v>55000344</v>
@@ -76678,7 +76683,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY313" s="57" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ313" s="11">
         <v>6</v>
@@ -76696,12 +76701,14 @@
       <c r="BE313" s="11">
         <v>0.49672129999999998</v>
       </c>
-      <c r="BF313" s="11"/>
+      <c r="BF313" s="11" t="s">
+        <v>1428</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="T4:T313">
-    <cfRule type="colorScale" priority="38">
+    <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -76713,17 +76720,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H313">
-    <cfRule type="cellIs" dxfId="3" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="13" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="14" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="14" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="15" operator="equal">
       <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -76743,7 +76753,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="T5" sqref="T5"/>
+      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -76797,7 +76807,7 @@
         <v>315</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="I1" s="17" t="s">
         <v>977</v>
@@ -76812,37 +76822,37 @@
         <v>972</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="N1" s="17" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="O1" s="17" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="Q1" s="17" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="R1" s="17" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="S1" s="17" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T1" s="40" t="s">
         <v>974</v>
       </c>
       <c r="U1" s="17" t="s">
+        <v>1138</v>
+      </c>
+      <c r="V1" s="17" t="s">
         <v>1139</v>
       </c>
-      <c r="V1" s="17" t="s">
-        <v>1140</v>
-      </c>
       <c r="W1" s="17" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="X1" s="17" t="s">
         <v>323</v>
@@ -76851,82 +76861,82 @@
         <v>325</v>
       </c>
       <c r="Z1" s="44" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="AA1" s="44" t="s">
+        <v>1240</v>
+      </c>
+      <c r="AB1" s="44" t="s">
         <v>1241</v>
       </c>
-      <c r="AB1" s="44" t="s">
+      <c r="AC1" s="44" t="s">
         <v>1242</v>
       </c>
-      <c r="AC1" s="44" t="s">
+      <c r="AD1" s="44" t="s">
         <v>1243</v>
       </c>
-      <c r="AD1" s="44" t="s">
+      <c r="AE1" s="44" t="s">
         <v>1244</v>
       </c>
-      <c r="AE1" s="44" t="s">
+      <c r="AF1" s="44" t="s">
         <v>1245</v>
       </c>
-      <c r="AF1" s="44" t="s">
+      <c r="AG1" s="44" t="s">
         <v>1246</v>
       </c>
-      <c r="AG1" s="44" t="s">
-        <v>1247</v>
-      </c>
       <c r="AH1" s="44" t="s">
+        <v>1254</v>
+      </c>
+      <c r="AI1" s="17" t="s">
         <v>1255</v>
       </c>
-      <c r="AI1" s="17" t="s">
+      <c r="AJ1" s="17" t="s">
         <v>1256</v>
       </c>
-      <c r="AJ1" s="17" t="s">
+      <c r="AK1" s="17" t="s">
         <v>1257</v>
       </c>
-      <c r="AK1" s="17" t="s">
+      <c r="AL1" s="17" t="s">
         <v>1258</v>
       </c>
-      <c r="AL1" s="17" t="s">
+      <c r="AM1" s="17" t="s">
         <v>1259</v>
       </c>
-      <c r="AM1" s="17" t="s">
-        <v>1260</v>
-      </c>
       <c r="AN1" s="17" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="AO1" s="47" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="AP1" s="47" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="AQ1" s="47" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="AR1" s="47" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AS1" s="47" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="AT1" s="47" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="AU1" s="47" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="AV1" s="47" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="AW1" s="47" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="AX1" s="48" t="s">
         <v>1027</v>
       </c>
       <c r="AY1" s="54" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="AZ1" s="17" t="s">
         <v>326</v>
@@ -76973,7 +76983,7 @@
         <v>295</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>295</v>
@@ -76991,7 +77001,7 @@
         <v>295</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>295</v>
@@ -77018,7 +77028,7 @@
         <v>295</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="X2" s="2" t="s">
         <v>296</v>
@@ -77102,7 +77112,7 @@
         <v>1029</v>
       </c>
       <c r="AY2" s="55" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ2" s="2" t="s">
         <v>295</v>
@@ -77149,7 +77159,7 @@
         <v>1033</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>979</v>
@@ -77164,37 +77174,37 @@
         <v>973</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="T3" s="42" t="s">
         <v>975</v>
       </c>
       <c r="U3" s="6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="V3" s="6" t="s">
         <v>1142</v>
       </c>
-      <c r="V3" s="6" t="s">
-        <v>1143</v>
-      </c>
       <c r="W3" s="6" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="X3" s="6" t="s">
         <v>306</v>
@@ -77203,82 +77213,82 @@
         <v>308</v>
       </c>
       <c r="Z3" s="46" t="s">
+        <v>1238</v>
+      </c>
+      <c r="AA3" s="46" t="s">
         <v>1239</v>
       </c>
-      <c r="AA3" s="46" t="s">
-        <v>1240</v>
-      </c>
       <c r="AB3" s="46" t="s">
+        <v>1247</v>
+      </c>
+      <c r="AC3" s="46" t="s">
         <v>1248</v>
       </c>
-      <c r="AC3" s="46" t="s">
+      <c r="AD3" s="46" t="s">
         <v>1249</v>
       </c>
-      <c r="AD3" s="46" t="s">
+      <c r="AE3" s="46" t="s">
         <v>1250</v>
       </c>
-      <c r="AE3" s="46" t="s">
+      <c r="AF3" s="46" t="s">
         <v>1251</v>
       </c>
-      <c r="AF3" s="46" t="s">
+      <c r="AG3" s="46" t="s">
         <v>1252</v>
       </c>
-      <c r="AG3" s="46" t="s">
+      <c r="AH3" s="46" t="s">
         <v>1253</v>
       </c>
-      <c r="AH3" s="46" t="s">
-        <v>1254</v>
-      </c>
       <c r="AI3" s="6" t="s">
+        <v>1260</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
         <v>1261</v>
       </c>
-      <c r="AJ3" s="6" t="s">
+      <c r="AK3" s="6" t="s">
         <v>1262</v>
       </c>
-      <c r="AK3" s="6" t="s">
+      <c r="AL3" s="6" t="s">
         <v>1263</v>
       </c>
-      <c r="AL3" s="6" t="s">
+      <c r="AM3" s="6" t="s">
         <v>1264</v>
       </c>
-      <c r="AM3" s="6" t="s">
-        <v>1265</v>
-      </c>
       <c r="AN3" s="6" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="AO3" s="51" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="AP3" s="52" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="AQ3" s="52" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="AR3" s="52" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="AS3" s="52" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="AT3" s="52" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="AU3" s="52" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="AV3" s="52" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="AW3" s="52" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="AX3" s="42" t="s">
         <v>1028</v>
       </c>
       <c r="AY3" s="14" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="AZ3" s="6" t="s">
         <v>309</v>
@@ -77316,7 +77326,7 @@
         <v>830</v>
       </c>
       <c r="E4" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F4" s="11">
         <v>3</v>
@@ -77326,19 +77336,19 @@
       </c>
       <c r="H4" s="4">
         <f t="shared" ref="H4:H11" si="0">IF(T4&gt;10,5,IF(T4&gt;5,4,IF(T4&gt;2.5,3,IF(T4&gt;0,2,IF(T4&gt;-2.5,1,IF(T4&gt;-10,0,6))))))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I4" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J4" s="11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K4" s="11">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="L4" s="11">
-        <v>-1</v>
+        <v>-80</v>
       </c>
       <c r="M4" s="11">
         <v>0</v>
@@ -77363,7 +77373,7 @@
       </c>
       <c r="T4" s="15">
         <f t="shared" ref="T4:T11" si="1">SUM(J4:K4)+SUM(M4:S4)*5+4.4*SUM(AO4:AW4)+2.5*SUM(AI4:AM4)+AH4+L4</f>
-        <v>13</v>
+        <v>-80</v>
       </c>
       <c r="U4" s="11">
         <v>10</v>
@@ -77378,12 +77388,8 @@
         <v>9</v>
       </c>
       <c r="Y4" s="11"/>
-      <c r="Z4" s="21">
-        <v>55010006</v>
-      </c>
-      <c r="AA4" s="21">
-        <v>100</v>
-      </c>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21"/>
       <c r="AB4" s="21"/>
       <c r="AC4" s="21"/>
       <c r="AD4" s="21"/>
@@ -77395,7 +77401,7 @@
 IF(ISBLANK($AB4),0, LOOKUP($AB4,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC4/100)+
 IF(ISBLANK($AD4),0, LOOKUP($AD4,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE4/100)+
 IF(ISBLANK($AF4),0, LOOKUP($AF4,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG4/100)</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AI4" s="21">
         <v>0</v>
@@ -77448,7 +77454,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY4" s="56" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="AZ4" s="11">
         <v>6</v>
@@ -77614,7 +77620,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY5" s="56" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="AZ5" s="11">
         <v>6</v>
@@ -77776,7 +77782,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY6" s="56" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="AZ6" s="4">
         <v>6</v>
@@ -77801,13 +77807,13 @@
         <v>51018001</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C7" s="11" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D7" s="25" t="s">
         <v>1136</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>1137</v>
       </c>
       <c r="E7" s="11">
         <v>1</v>
@@ -77938,7 +77944,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY7" s="56" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="AZ7" s="11">
         <v>6</v>
@@ -77960,16 +77966,16 @@
     </row>
     <row r="8" spans="1:58" ht="14.25">
       <c r="A8" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="E8" s="11">
         <v>4</v>
@@ -78031,7 +78037,7 @@
         <v>0</v>
       </c>
       <c r="X8" s="11" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="Y8" s="22"/>
       <c r="Z8" s="53"/>
@@ -78100,7 +78106,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY8" s="56" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="AZ8" s="11">
         <v>6</v>
@@ -78122,16 +78128,16 @@
     </row>
     <row r="9" spans="1:58" ht="14.25">
       <c r="A9" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="E9" s="11">
         <v>3</v>
@@ -78193,7 +78199,7 @@
         <v>0</v>
       </c>
       <c r="X9" s="11" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="Y9" s="22"/>
       <c r="Z9" s="53"/>
@@ -78262,7 +78268,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY9" s="56" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="AZ9" s="11">
         <v>6</v>
@@ -78428,7 +78434,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY10" s="56" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="AZ10" s="36">
         <v>6</v>
@@ -78450,10 +78456,10 @@
     </row>
     <row r="11" spans="1:58" ht="14.25">
       <c r="A11" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>1030</v>
@@ -78594,7 +78600,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY11" s="56" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="AZ11" s="11">
         <v>6</v>
@@ -78617,31 +78623,31 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="K4:K7 K10:K11">
-    <cfRule type="cellIs" dxfId="74" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="75" priority="13" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="cellIs" dxfId="73" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="74" priority="12" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:J7">
-    <cfRule type="cellIs" dxfId="72" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="73" priority="11" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="71" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="72" priority="10" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="70" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="71" priority="9" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
@@ -78659,13 +78665,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="cellIs" dxfId="69" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="70" priority="5" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="cellIs" dxfId="68" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="69" priority="4" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
@@ -78683,13 +78689,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="cellIs" dxfId="67" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="68" priority="2" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="66" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="67" priority="1" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>

--- a/ConfigData/Xlsx/Monster.xlsx
+++ b/ConfigData/Xlsx/Monster.xlsx
@@ -701,7 +701,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2560" uniqueCount="1430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2559" uniqueCount="1430">
   <si>
     <t>arrow</t>
   </si>
@@ -5201,10 +5201,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>55000115;25|55000116;400</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>55000118;100|55000243;100</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -5549,6 +5545,10 @@
   </si>
   <si>
     <t>55000127;100</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>55000116;100</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -11491,7 +11491,7 @@
             <v>55000116</v>
           </cell>
           <cell r="V103">
-            <v>3</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="104">
@@ -22601,10 +22601,10 @@
   <dimension ref="A1:BF313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B94" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B79" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A102" sqref="A102"/>
+      <selection pane="bottomRight" activeCell="Y89" sqref="Y89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -22704,7 +22704,7 @@
         <v>1138</v>
       </c>
       <c r="W1" s="17" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="X1" s="17" t="s">
         <v>323</v>
@@ -22788,7 +22788,7 @@
         <v>1027</v>
       </c>
       <c r="AY1" s="54" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="AZ1" s="17" t="s">
         <v>326</v>
@@ -22880,7 +22880,7 @@
         <v>1139</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="X2" s="2" t="s">
         <v>296</v>
@@ -22964,7 +22964,7 @@
         <v>1029</v>
       </c>
       <c r="AY2" s="55" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="AZ2" s="2" t="s">
         <v>295</v>
@@ -23056,7 +23056,7 @@
         <v>1141</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="X3" s="6" t="s">
         <v>306</v>
@@ -23140,7 +23140,7 @@
         <v>1028</v>
       </c>
       <c r="AY3" s="14" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="AZ3" s="6" t="s">
         <v>309</v>
@@ -23306,7 +23306,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY4" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ4" s="4">
         <v>6</v>
@@ -23480,7 +23480,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY5" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ5" s="4">
         <v>6</v>
@@ -23650,7 +23650,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY6" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ6" s="4">
         <v>6</v>
@@ -23820,7 +23820,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY7" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ7" s="4">
         <v>6</v>
@@ -23984,7 +23984,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY8" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ8" s="4">
         <v>6</v>
@@ -24082,7 +24082,7 @@
         <v>11</v>
       </c>
       <c r="Y9" s="4" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="Z9" s="43">
         <v>55000067</v>
@@ -24154,7 +24154,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY9" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ9" s="4">
         <v>6</v>
@@ -24324,7 +24324,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY10" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ10" s="4">
         <v>6</v>
@@ -24494,7 +24494,7 @@
         <v>0;0;0;0;0;0;0;0;0.3</v>
       </c>
       <c r="AY11" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ11" s="4">
         <v>6</v>
@@ -24668,7 +24668,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY12" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ12" s="4">
         <v>6</v>
@@ -24832,7 +24832,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY13" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ13" s="4">
         <v>6</v>
@@ -25010,7 +25010,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY14" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ14" s="4">
         <v>6</v>
@@ -25174,7 +25174,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY15" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ15" s="4">
         <v>4</v>
@@ -25338,7 +25338,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY16" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ16" s="4">
         <v>6</v>
@@ -25502,7 +25502,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY17" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ17" s="4">
         <v>6</v>
@@ -25666,7 +25666,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY18" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ18" s="4">
         <v>6</v>
@@ -25830,7 +25830,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY19" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ19" s="4">
         <v>6</v>
@@ -25994,7 +25994,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY20" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ20" s="4">
         <v>6</v>
@@ -26158,7 +26158,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY21" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ21" s="4">
         <v>6</v>
@@ -26322,7 +26322,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY22" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ22" s="4">
         <v>6</v>
@@ -26486,7 +26486,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY23" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ23" s="4">
         <v>6</v>
@@ -26656,7 +26656,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY24" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ24" s="4">
         <v>6</v>
@@ -26834,7 +26834,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY25" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ25" s="4">
         <v>6</v>
@@ -26998,7 +26998,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY26" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ26" s="4">
         <v>6</v>
@@ -27168,7 +27168,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY27" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ27" s="4">
         <v>6</v>
@@ -27338,7 +27338,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY28" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ28" s="4">
         <v>6</v>
@@ -27508,7 +27508,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY29" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ29" s="4">
         <v>6</v>
@@ -27672,7 +27672,7 @@
         <v>0;0;0;0;0.3;0;0;0;0</v>
       </c>
       <c r="AY30" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ30" s="4">
         <v>6</v>
@@ -27846,7 +27846,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY31" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ31" s="4">
         <v>6</v>
@@ -28024,7 +28024,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY32" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ32" s="4">
         <v>6</v>
@@ -28188,7 +28188,7 @@
         <v>0;0.3;0.3;0.3;0;0;0;0.3;0</v>
       </c>
       <c r="AY33" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ33" s="4">
         <v>6</v>
@@ -28358,7 +28358,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY34" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ34" s="4">
         <v>6</v>
@@ -28528,7 +28528,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY35" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ35" s="4">
         <v>6</v>
@@ -28626,7 +28626,7 @@
         <v>1160</v>
       </c>
       <c r="Y36" s="4" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="Z36" s="43">
         <v>55000030</v>
@@ -28702,7 +28702,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY36" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ36" s="4">
         <v>6</v>
@@ -28872,7 +28872,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY37" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ37" s="4">
         <v>6</v>
@@ -29036,7 +29036,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY38" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ38" s="4">
         <v>6</v>
@@ -29200,7 +29200,7 @@
         <v>0;0.3;0;0;0.3;0;0;0;0</v>
       </c>
       <c r="AY39" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ39" s="4">
         <v>6</v>
@@ -29364,7 +29364,7 @@
         <v>0;0.3;0;0.3;0;0.3;0.3;0;0</v>
       </c>
       <c r="AY40" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ40" s="4">
         <v>6</v>
@@ -29462,7 +29462,7 @@
         <v>51</v>
       </c>
       <c r="Y41" s="4" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="Z41" s="43">
         <v>55000071</v>
@@ -29534,7 +29534,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY41" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ41" s="4">
         <v>6</v>
@@ -29632,7 +29632,7 @@
         <v>53</v>
       </c>
       <c r="Y42" s="4" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="Z42" s="43">
         <v>55000034</v>
@@ -29708,7 +29708,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY42" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ42" s="4">
         <v>6</v>
@@ -29878,7 +29878,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY43" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ43" s="4">
         <v>6</v>
@@ -29976,7 +29976,7 @@
         <v>16</v>
       </c>
       <c r="Y44" s="4" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="Z44" s="43">
         <v>55000075</v>
@@ -30052,7 +30052,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY44" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ44" s="4">
         <v>6</v>
@@ -30226,7 +30226,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY45" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ45" s="4">
         <v>6</v>
@@ -30324,7 +30324,7 @@
         <v>2</v>
       </c>
       <c r="Y46" s="4" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="Z46" s="43">
         <v>55000075</v>
@@ -30400,7 +30400,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY46" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ46" s="4">
         <v>6</v>
@@ -30570,7 +30570,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY47" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ47" s="4">
         <v>6</v>
@@ -30740,7 +30740,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY48" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ48" s="4">
         <v>6</v>
@@ -30910,7 +30910,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY49" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ49" s="4">
         <v>6</v>
@@ -31084,7 +31084,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY50" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ50" s="4">
         <v>4</v>
@@ -31258,7 +31258,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY51" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ51" s="4">
         <v>6</v>
@@ -31356,7 +31356,7 @@
         <v>9</v>
       </c>
       <c r="Y52" s="4" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="Z52" s="43">
         <v>55000084</v>
@@ -31428,7 +31428,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY52" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ52" s="4">
         <v>6</v>
@@ -31596,7 +31596,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY53" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ53" s="4">
         <v>6</v>
@@ -31694,7 +31694,7 @@
         <v>64</v>
       </c>
       <c r="Y54" s="4" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="Z54" s="43">
         <v>55000066</v>
@@ -31766,7 +31766,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY54" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ54" s="4">
         <v>6</v>
@@ -31936,7 +31936,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY55" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ55" s="4">
         <v>6</v>
@@ -32034,7 +32034,7 @@
         <v>4</v>
       </c>
       <c r="Y56" s="4" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="Z56" s="43">
         <v>55000087</v>
@@ -32106,7 +32106,7 @@
         <v>0;0;0;0;0;0;0;0;0.3</v>
       </c>
       <c r="AY56" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ56" s="4">
         <v>6</v>
@@ -32280,7 +32280,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY57" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ57" s="4">
         <v>6</v>
@@ -32450,7 +32450,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY58" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ58" s="4">
         <v>6</v>
@@ -32620,7 +32620,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY59" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ59" s="4">
         <v>6</v>
@@ -32790,7 +32790,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY60" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ60" s="4">
         <v>6</v>
@@ -32960,7 +32960,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY61" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ61" s="4">
         <v>6</v>
@@ -33130,7 +33130,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY62" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ62" s="4">
         <v>6</v>
@@ -33300,7 +33300,7 @@
         <v>0;0;0;0;0;0.3;0;0;0</v>
       </c>
       <c r="AY63" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ63" s="4">
         <v>6</v>
@@ -33464,7 +33464,7 @@
         <v>0;0.3;0.3;0;0.3;0;0;0;0</v>
       </c>
       <c r="AY64" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ64" s="4">
         <v>6</v>
@@ -33628,7 +33628,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY65" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ65" s="4">
         <v>6</v>
@@ -33792,7 +33792,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY66" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ66" s="4">
         <v>6</v>
@@ -33890,7 +33890,7 @@
         <v>78</v>
       </c>
       <c r="Y67" s="4" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="Z67" s="43">
         <v>55000095</v>
@@ -33966,7 +33966,7 @@
         <v>0;0;0;0;0;0;0.3;0;0</v>
       </c>
       <c r="AY67" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ67" s="4">
         <v>5</v>
@@ -34148,7 +34148,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY68" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ68" s="4">
         <v>5</v>
@@ -34328,7 +34328,7 @@
         <v>0;0;0;0;0;0;0.3;0;0</v>
       </c>
       <c r="AY69" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ69" s="4">
         <v>5</v>
@@ -34506,7 +34506,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY70" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ70" s="4">
         <v>5</v>
@@ -34680,7 +34680,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY71" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ71" s="4">
         <v>6</v>
@@ -34854,7 +34854,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY72" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ72" s="4">
         <v>6</v>
@@ -35028,7 +35028,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY73" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ73" s="4">
         <v>6</v>
@@ -35202,7 +35202,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY74" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ74" s="4">
         <v>6</v>
@@ -35300,7 +35300,7 @@
         <v>89</v>
       </c>
       <c r="Y75" s="4" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="Z75" s="43">
         <v>55000004</v>
@@ -35376,7 +35376,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY75" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ75" s="4">
         <v>6</v>
@@ -35550,7 +35550,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY76" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ76" s="4">
         <v>6</v>
@@ -35720,7 +35720,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY77" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ77" s="4">
         <v>6</v>
@@ -35894,7 +35894,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY78" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ78" s="4">
         <v>6</v>
@@ -36058,7 +36058,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY79" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ79" s="4">
         <v>6</v>
@@ -36222,7 +36222,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY80" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ80" s="4">
         <v>6</v>
@@ -36396,7 +36396,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY81" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ81" s="4">
         <v>6</v>
@@ -36570,7 +36570,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY82" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ82" s="4">
         <v>6</v>
@@ -36744,7 +36744,7 @@
         <v>0;0;0;0.3;0;0;0;0;0</v>
       </c>
       <c r="AY83" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ83" s="4">
         <v>6</v>
@@ -36842,7 +36842,7 @@
         <v>100</v>
       </c>
       <c r="Y84" s="4" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="Z84" s="43">
         <v>55000069</v>
@@ -36914,7 +36914,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY84" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ84" s="4">
         <v>6</v>
@@ -37092,7 +37092,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY85" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ85" s="4">
         <v>3</v>
@@ -37266,7 +37266,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY86" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ86" s="4">
         <v>6</v>
@@ -37364,7 +37364,7 @@
         <v>86</v>
       </c>
       <c r="Y87" s="4" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="Z87" s="43">
         <v>55000068</v>
@@ -37440,7 +37440,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY87" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ87" s="4">
         <v>6</v>
@@ -37614,7 +37614,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY88" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ88" s="4">
         <v>6</v>
@@ -37650,7 +37650,7 @@
         <v>880</v>
       </c>
       <c r="E89" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F89" s="4">
         <v>8</v>
@@ -37660,19 +37660,19 @@
       </c>
       <c r="H89" s="4">
         <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I89" s="4">
+        <v>2</v>
+      </c>
+      <c r="J89" s="4">
+        <v>0</v>
+      </c>
+      <c r="K89" s="4">
         <v>5</v>
       </c>
-      <c r="I89" s="4">
-        <v>1</v>
-      </c>
-      <c r="J89" s="4">
-        <v>9</v>
-      </c>
-      <c r="K89" s="4">
-        <v>18</v>
-      </c>
       <c r="L89" s="4">
-        <v>-2</v>
+        <v>-34</v>
       </c>
       <c r="M89" s="4">
         <v>0</v>
@@ -37697,7 +37697,7 @@
       </c>
       <c r="T89" s="15">
         <f t="shared" si="5"/>
-        <v>31.200000000000003</v>
+        <v>1</v>
       </c>
       <c r="U89" s="4">
         <v>10</v>
@@ -37712,20 +37712,16 @@
         <v>105</v>
       </c>
       <c r="Y89" s="4" t="s">
-        <v>1342</v>
-      </c>
-      <c r="Z89" s="43">
-        <v>55000115</v>
+        <v>1429</v>
+      </c>
+      <c r="Z89" s="21">
+        <v>55000116</v>
       </c>
       <c r="AA89" s="21">
-        <v>25</v>
-      </c>
-      <c r="AB89" s="21">
-        <v>55000116</v>
-      </c>
-      <c r="AC89" s="21">
-        <v>40</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="AB89" s="21"/>
+      <c r="AC89" s="21"/>
       <c r="AD89" s="21"/>
       <c r="AE89" s="21"/>
       <c r="AF89" s="21"/>
@@ -37735,7 +37731,7 @@
 IF(ISBLANK($AB89),0, LOOKUP($AB89,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC89/100)+
 IF(ISBLANK($AD89),0, LOOKUP($AD89,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE89/100)+
 IF(ISBLANK($AF89),0, LOOKUP($AF89,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG89/100)</f>
-        <v>6.2</v>
+        <v>30</v>
       </c>
       <c r="AI89" s="21">
         <v>0</v>
@@ -37788,7 +37784,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY89" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ89" s="4">
         <v>6</v>
@@ -37806,9 +37802,7 @@
       <c r="BE89" s="30">
         <v>0.32131150000000003</v>
       </c>
-      <c r="BF89" s="22" t="s">
-        <v>1172</v>
-      </c>
+      <c r="BF89" s="22"/>
     </row>
     <row r="90" spans="1:58" ht="14.25">
       <c r="A90">
@@ -37962,7 +37956,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY90" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ90" s="4">
         <v>6</v>
@@ -38060,7 +38054,7 @@
         <v>105</v>
       </c>
       <c r="Y91" s="4" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="Z91" s="43">
         <v>55000118</v>
@@ -38136,7 +38130,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY91" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ91" s="4">
         <v>6</v>
@@ -38310,7 +38304,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY92" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ92" s="4">
         <v>6</v>
@@ -38484,7 +38478,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY93" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ93" s="4">
         <v>6</v>
@@ -38658,7 +38652,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY94" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ94" s="4">
         <v>5</v>
@@ -38756,7 +38750,7 @@
         <v>107</v>
       </c>
       <c r="Y95" s="4" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="Z95" s="43">
         <v>55000114</v>
@@ -38832,7 +38826,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY95" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ95" s="4">
         <v>6</v>
@@ -39006,7 +39000,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY96" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ96" s="4">
         <v>6</v>
@@ -39104,7 +39098,7 @@
         <v>22</v>
       </c>
       <c r="Y97" s="4" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="Z97" s="43">
         <v>55000123</v>
@@ -39184,7 +39178,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY97" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ97" s="4">
         <v>3</v>
@@ -39282,7 +39276,7 @@
         <v>94</v>
       </c>
       <c r="Y98" s="4" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="Z98" s="43">
         <v>55000245</v>
@@ -39354,7 +39348,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY98" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ98" s="4">
         <v>6</v>
@@ -39528,7 +39522,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY99" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ99" s="4">
         <v>6</v>
@@ -39710,7 +39704,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY100" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ100" s="4">
         <v>5</v>
@@ -39886,7 +39880,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY101" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ101" s="4">
         <v>6</v>
@@ -39984,7 +39978,7 @@
         <v>16</v>
       </c>
       <c r="Y102" s="4" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="Z102" s="43">
         <v>55000127</v>
@@ -40056,7 +40050,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY102" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ102" s="4">
         <v>4</v>
@@ -40224,7 +40218,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY103" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ103" s="4">
         <v>6</v>
@@ -40398,7 +40392,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY104" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ104" s="4">
         <v>6</v>
@@ -40572,7 +40566,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY105" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ105" s="4">
         <v>6</v>
@@ -40742,7 +40736,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY106" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ106" s="4">
         <v>6</v>
@@ -40912,7 +40906,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY107" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ107" s="4">
         <v>6</v>
@@ -41010,7 +41004,7 @@
         <v>2</v>
       </c>
       <c r="Y108" s="4" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="Z108" s="43">
         <v>55000017</v>
@@ -41090,7 +41084,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY108" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ108" s="4">
         <v>4</v>
@@ -41188,7 +41182,7 @@
         <v>128</v>
       </c>
       <c r="Y109" s="4" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Z109" s="43">
         <v>55000135</v>
@@ -41260,7 +41254,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY109" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ109" s="4">
         <v>6</v>
@@ -41358,7 +41352,7 @@
         <v>130</v>
       </c>
       <c r="Y110" s="4" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="Z110" s="43">
         <v>55000135</v>
@@ -41434,7 +41428,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY110" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ110" s="4">
         <v>6</v>
@@ -41532,7 +41526,7 @@
         <v>132</v>
       </c>
       <c r="Y111" s="4" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="Z111" s="43">
         <v>55000038</v>
@@ -41604,7 +41598,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY111" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ111" s="4">
         <v>6</v>
@@ -41702,7 +41696,7 @@
         <v>118</v>
       </c>
       <c r="Y112" s="4" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="Z112" s="43">
         <v>55010003</v>
@@ -41778,7 +41772,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY112" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ112" s="4">
         <v>6</v>
@@ -41952,7 +41946,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY113" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ113" s="4">
         <v>6</v>
@@ -42134,7 +42128,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY114" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ114" s="4">
         <v>3</v>
@@ -42318,7 +42312,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY115" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ115" s="4">
         <v>6</v>
@@ -42502,7 +42496,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY116" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ116" s="4">
         <v>6</v>
@@ -42678,7 +42672,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY117" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ117" s="4">
         <v>6</v>
@@ -42860,7 +42854,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY118" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ118" s="4">
         <v>5</v>
@@ -43044,7 +43038,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY119" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ119" s="4">
         <v>6</v>
@@ -43228,7 +43222,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY120" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ120" s="4">
         <v>5</v>
@@ -43412,7 +43406,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY121" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ121" s="4">
         <v>6</v>
@@ -43588,7 +43582,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY122" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ122" s="4">
         <v>6</v>
@@ -43766,7 +43760,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY123" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ123" s="4">
         <v>6</v>
@@ -43944,7 +43938,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY124" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ124" s="4">
         <v>6</v>
@@ -44122,7 +44116,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY125" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ125" s="4">
         <v>6</v>
@@ -44292,7 +44286,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY126" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ126" s="4">
         <v>6</v>
@@ -44462,7 +44456,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY127" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ127" s="4">
         <v>6</v>
@@ -44636,7 +44630,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY128" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ128" s="4">
         <v>6</v>
@@ -44810,7 +44804,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY129" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ129" s="4">
         <v>3</v>
@@ -44980,7 +44974,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY130" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ130" s="4">
         <v>6</v>
@@ -45150,7 +45144,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY131" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ131" s="4">
         <v>6</v>
@@ -45324,7 +45318,7 @@
         <v>0;0;0;0.3;0;0;0;0;0</v>
       </c>
       <c r="AY132" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ132" s="4">
         <v>6</v>
@@ -45498,7 +45492,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY133" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ133" s="4">
         <v>6</v>
@@ -45672,7 +45666,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY134" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ134" s="4">
         <v>6</v>
@@ -45846,7 +45840,7 @@
         <v>0;0;0;0;0;0.3;0;0;0</v>
       </c>
       <c r="AY135" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ135" s="4">
         <v>6</v>
@@ -46020,7 +46014,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY136" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ136" s="4">
         <v>6</v>
@@ -46198,7 +46192,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY137" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ137" s="4">
         <v>5</v>
@@ -46372,7 +46366,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY138" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ138" s="4">
         <v>6</v>
@@ -46546,7 +46540,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY139" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ139" s="4">
         <v>6</v>
@@ -46710,7 +46704,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY140" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ140" s="4">
         <v>6</v>
@@ -46884,7 +46878,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY141" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ141" s="4">
         <v>6</v>
@@ -46982,7 +46976,7 @@
         <v>40</v>
       </c>
       <c r="Y142" s="4" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="Z142" s="43">
         <v>55000018</v>
@@ -47058,7 +47052,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY142" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ142" s="4">
         <v>6</v>
@@ -47232,7 +47226,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY143" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ143" s="4">
         <v>6</v>
@@ -47402,7 +47396,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY144" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ144" s="4">
         <v>6</v>
@@ -47566,7 +47560,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY145" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ145" s="4">
         <v>6</v>
@@ -47744,7 +47738,7 @@
         <v>0;0;0;0;0.3;0;0;0;0</v>
       </c>
       <c r="AY146" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ146" s="4">
         <v>6</v>
@@ -47918,7 +47912,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY147" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ147" s="4">
         <v>6</v>
@@ -48016,7 +48010,7 @@
         <v>1165</v>
       </c>
       <c r="Y148" s="4" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="Z148" s="43">
         <v>55000340</v>
@@ -48092,7 +48086,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY148" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ148" s="4">
         <v>6</v>
@@ -48190,7 +48184,7 @@
         <v>166</v>
       </c>
       <c r="Y149" s="4" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="Z149" s="43">
         <v>55000066</v>
@@ -48270,7 +48264,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY149" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ149" s="4">
         <v>6</v>
@@ -48448,7 +48442,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY150" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ150" s="4">
         <v>6</v>
@@ -48618,7 +48612,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY151" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ151" s="4">
         <v>6</v>
@@ -48782,7 +48776,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY152" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ152" s="4">
         <v>6</v>
@@ -48952,7 +48946,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY153" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ153" s="4">
         <v>6</v>
@@ -49122,7 +49116,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY154" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ154" s="4">
         <v>6</v>
@@ -49220,7 +49214,7 @@
         <v>1169</v>
       </c>
       <c r="Y155" s="4" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="Z155" s="43">
         <v>55000165</v>
@@ -49292,7 +49286,7 @@
         <v>0;0;0;0;0;0.3;0;0;0</v>
       </c>
       <c r="AY155" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ155" s="4">
         <v>6</v>
@@ -49462,7 +49456,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY156" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ156" s="4">
         <v>6</v>
@@ -49626,7 +49620,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY157" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ157" s="4">
         <v>6</v>
@@ -49796,7 +49790,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY158" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ158" s="4">
         <v>6</v>
@@ -49970,7 +49964,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY159" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ159" s="4">
         <v>6</v>
@@ -50068,7 +50062,7 @@
         <v>179</v>
       </c>
       <c r="Y160" s="4" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="Z160" s="43">
         <v>55000048</v>
@@ -50144,7 +50138,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY160" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ160" s="4">
         <v>6</v>
@@ -50308,7 +50302,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY161" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ161" s="4">
         <v>6</v>
@@ -50478,7 +50472,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY162" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ162" s="4">
         <v>6</v>
@@ -50648,7 +50642,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY163" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ163" s="4">
         <v>6</v>
@@ -50822,7 +50816,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY164" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ164" s="4">
         <v>6</v>
@@ -51000,7 +50994,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY165" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ165" s="4">
         <v>6</v>
@@ -51174,7 +51168,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY166" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ166" s="4">
         <v>6</v>
@@ -51348,7 +51342,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY167" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ167" s="4">
         <v>6</v>
@@ -51526,7 +51520,7 @@
         <v>0;0;0;0;0;0;0.3;0;0</v>
       </c>
       <c r="AY168" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ168" s="4">
         <v>5</v>
@@ -51696,7 +51690,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY169" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ169" s="4">
         <v>6</v>
@@ -51866,7 +51860,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY170" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ170" s="4">
         <v>6</v>
@@ -52048,7 +52042,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY171" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ171" s="4">
         <v>6</v>
@@ -52226,7 +52220,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY172" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ172" s="4">
         <v>6</v>
@@ -52324,7 +52318,7 @@
         <v>1163</v>
       </c>
       <c r="Y173" s="4" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="Z173" s="43">
         <v>55000015</v>
@@ -52400,7 +52394,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY173" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ173" s="4">
         <v>6</v>
@@ -52570,7 +52564,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY174" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ174" s="4">
         <v>6</v>
@@ -52740,7 +52734,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY175" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ175" s="4">
         <v>6</v>
@@ -52910,7 +52904,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY176" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ176" s="4">
         <v>6</v>
@@ -53008,7 +53002,7 @@
         <v>4</v>
       </c>
       <c r="Y177" s="4" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="Z177" s="43">
         <v>55000188</v>
@@ -53084,7 +53078,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY177" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ177" s="4">
         <v>6</v>
@@ -53258,7 +53252,7 @@
         <v>0;0;0;0;0;0;0;0.3;0</v>
       </c>
       <c r="AY178" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ178" s="4">
         <v>6</v>
@@ -53428,7 +53422,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY179" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ179" s="4">
         <v>6</v>
@@ -53526,7 +53520,7 @@
         <v>65</v>
       </c>
       <c r="Y180" s="4" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="Z180" s="43">
         <v>55000061</v>
@@ -53610,7 +53604,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY180" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ180" s="4">
         <v>5</v>
@@ -53708,7 +53702,7 @@
         <v>976</v>
       </c>
       <c r="Y181" s="4" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="Z181" s="43">
         <v>55000044</v>
@@ -53788,7 +53782,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY181" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ181" s="4">
         <v>6</v>
@@ -53962,7 +53956,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY182" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ182" s="4">
         <v>6</v>
@@ -54136,7 +54130,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY183" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ183" s="4">
         <v>5</v>
@@ -54306,7 +54300,7 @@
         <v>0;0;0.3;0;0;0;0;0;0</v>
       </c>
       <c r="AY184" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ184" s="4">
         <v>6</v>
@@ -54404,7 +54398,7 @@
         <v>12</v>
       </c>
       <c r="Y185" s="4" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="Z185" s="43">
         <v>55000194</v>
@@ -54480,7 +54474,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY185" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ185" s="4">
         <v>3</v>
@@ -54654,7 +54648,7 @@
         <v>0;0.3;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY186" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ186" s="4">
         <v>6</v>
@@ -54824,7 +54818,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY187" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ187" s="4">
         <v>6</v>
@@ -54922,7 +54916,7 @@
         <v>2</v>
       </c>
       <c r="Y188" s="4" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="Z188" s="43">
         <v>55000196</v>
@@ -55002,7 +54996,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY188" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ188" s="4">
         <v>3</v>
@@ -55172,7 +55166,7 @@
         <v>0;0;0;0;0;0.3;0;0;0</v>
       </c>
       <c r="AY189" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ189" s="4">
         <v>6</v>
@@ -55336,7 +55330,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY190" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ190" s="4">
         <v>6</v>
@@ -55510,7 +55504,7 @@
         <v>0;0;0;0;0;0;0;0.3;0</v>
       </c>
       <c r="AY191" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ191" s="4">
         <v>6</v>
@@ -55608,7 +55602,7 @@
         <v>1164</v>
       </c>
       <c r="Y192" s="4" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="Z192" s="43">
         <v>55000001</v>
@@ -55688,7 +55682,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY192" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ192" s="4">
         <v>6</v>
@@ -55866,7 +55860,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY193" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ193" s="4">
         <v>6</v>
@@ -56044,7 +56038,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY194" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ194" s="4">
         <v>4</v>
@@ -56142,7 +56136,7 @@
         <v>209</v>
       </c>
       <c r="Y195" s="4" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="Z195" s="43">
         <v>55000016</v>
@@ -56226,7 +56220,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY195" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ195" s="4">
         <v>5</v>
@@ -56400,7 +56394,7 @@
         <v>0;0;0;0;0;0;0.3;0;0</v>
       </c>
       <c r="AY196" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ196" s="4">
         <v>5</v>
@@ -56578,7 +56572,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY197" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ197" s="4">
         <v>5</v>
@@ -56756,7 +56750,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY198" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ198" s="4">
         <v>3</v>
@@ -56934,7 +56928,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY199" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ199" s="4">
         <v>6</v>
@@ -57112,7 +57106,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY200" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ200" s="4">
         <v>6</v>
@@ -57282,7 +57276,7 @@
         <v>0;0;0;0.3;0;0;0;0;0</v>
       </c>
       <c r="AY201" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ201" s="4">
         <v>3</v>
@@ -57380,7 +57374,7 @@
         <v>1166</v>
       </c>
       <c r="Y202" s="4" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="Z202" s="43">
         <v>55000203</v>
@@ -57452,7 +57446,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY202" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ202" s="4">
         <v>6</v>
@@ -57624,7 +57618,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY203" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ203" s="4">
         <v>6</v>
@@ -57798,7 +57792,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY204" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ204" s="4">
         <v>6</v>
@@ -57896,7 +57890,7 @@
         <v>1168</v>
       </c>
       <c r="Y205" s="4" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="Z205" s="43">
         <v>55000197</v>
@@ -57968,7 +57962,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY205" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ205" s="4">
         <v>6</v>
@@ -58066,7 +58060,7 @@
         <v>94</v>
       </c>
       <c r="Y206" s="4" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="Z206" s="43">
         <v>55000003</v>
@@ -58142,7 +58136,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY206" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ206" s="4">
         <v>6</v>
@@ -58312,7 +58306,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY207" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ207" s="4">
         <v>6</v>
@@ -58486,7 +58480,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY208" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ208" s="4">
         <v>6</v>
@@ -58584,7 +58578,7 @@
         <v>2</v>
       </c>
       <c r="Y209" s="4" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="Z209" s="43">
         <v>55000120</v>
@@ -58656,7 +58650,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY209" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ209" s="4">
         <v>6</v>
@@ -58830,7 +58824,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY210" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ210" s="4">
         <v>6</v>
@@ -59008,7 +59002,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY211" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ211" s="4">
         <v>6</v>
@@ -59106,7 +59100,7 @@
         <v>132</v>
       </c>
       <c r="Y212" s="4" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="Z212" s="43">
         <v>55000103</v>
@@ -59182,7 +59176,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY212" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ212" s="4">
         <v>6</v>
@@ -59280,7 +59274,7 @@
         <v>228</v>
       </c>
       <c r="Y213" s="4" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="Z213" s="43">
         <v>55000114</v>
@@ -59360,7 +59354,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY213" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ213" s="4">
         <v>6</v>
@@ -59538,7 +59532,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY214" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ214" s="4">
         <v>6</v>
@@ -59636,7 +59630,7 @@
         <v>190</v>
       </c>
       <c r="Y215" s="4" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="Z215" s="43">
         <v>55000102</v>
@@ -59720,7 +59714,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY215" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ215" s="4">
         <v>6</v>
@@ -59890,7 +59884,7 @@
         <v>0;0;0;0;0;0;0;0;0.3</v>
       </c>
       <c r="AY216" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ216" s="4">
         <v>6</v>
@@ -60064,7 +60058,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY217" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ217" s="4">
         <v>6</v>
@@ -60238,7 +60232,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY218" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ218" s="4">
         <v>6</v>
@@ -60336,7 +60330,7 @@
         <v>1167</v>
       </c>
       <c r="Y219" s="4" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="Z219" s="43">
         <v>55000070</v>
@@ -60412,7 +60406,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY219" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ219" s="4">
         <v>6</v>
@@ -60582,7 +60576,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY220" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ220" s="4">
         <v>6</v>
@@ -60756,7 +60750,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY221" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ221" s="4">
         <v>6</v>
@@ -60926,7 +60920,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY222" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ222" s="4">
         <v>6</v>
@@ -61096,7 +61090,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY223" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ223" s="4">
         <v>6</v>
@@ -61270,7 +61264,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY224" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ224" s="4">
         <v>6</v>
@@ -61444,7 +61438,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY225" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ225" s="4">
         <v>6</v>
@@ -61542,7 +61536,7 @@
         <v>9</v>
       </c>
       <c r="Y226" s="4" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="Z226" s="43">
         <v>55000221</v>
@@ -61614,7 +61608,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY226" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ226" s="4">
         <v>6</v>
@@ -61786,7 +61780,7 @@
         <v>0;0;0;0;0;0;0;0.3;0</v>
       </c>
       <c r="AY227" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ227" s="4">
         <v>6</v>
@@ -61884,7 +61878,7 @@
         <v>245</v>
       </c>
       <c r="Y228" s="4" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="Z228" s="43">
         <v>55000160</v>
@@ -61960,7 +61954,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY228" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ228" s="4">
         <v>6</v>
@@ -62134,7 +62128,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY229" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ229" s="4">
         <v>6</v>
@@ -62304,7 +62298,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY230" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ230" s="4">
         <v>6</v>
@@ -62474,7 +62468,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY231" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ231" s="4">
         <v>6</v>
@@ -62638,7 +62632,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY232" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ232" s="4">
         <v>6</v>
@@ -62736,7 +62730,7 @@
         <v>251</v>
       </c>
       <c r="Y233" s="4" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="Z233" s="43">
         <v>55000120</v>
@@ -62808,7 +62802,7 @@
         <v>0;0;0.3;0;0;0;0;0;0</v>
       </c>
       <c r="AY233" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ233" s="4">
         <v>6</v>
@@ -62982,7 +62976,7 @@
         <v>0;0;0;0;0;0;0;0;0.3</v>
       </c>
       <c r="AY234" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ234" s="4">
         <v>6</v>
@@ -63156,7 +63150,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY235" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ235" s="4">
         <v>6</v>
@@ -63330,7 +63324,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY236" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ236" s="4">
         <v>6</v>
@@ -63512,7 +63506,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY237" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ237" s="4">
         <v>6</v>
@@ -63686,7 +63680,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY238" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ238" s="4">
         <v>6</v>
@@ -63860,7 +63854,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY239" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ239" s="4">
         <v>6</v>
@@ -64034,7 +64028,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY240" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ240" s="4">
         <v>6</v>
@@ -64216,7 +64210,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY241" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ241" s="4">
         <v>3</v>
@@ -64390,7 +64384,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY242" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ242" s="4">
         <v>6</v>
@@ -64488,7 +64482,7 @@
         <v>220</v>
       </c>
       <c r="Y243" s="4" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="Z243" s="43">
         <v>55000037</v>
@@ -64568,7 +64562,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY243" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ243" s="4">
         <v>6</v>
@@ -64742,7 +64736,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY244" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ244" s="4">
         <v>6</v>
@@ -64924,7 +64918,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY245" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ245" s="4">
         <v>4</v>
@@ -65094,7 +65088,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY246" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ246" s="4">
         <v>4</v>
@@ -65272,7 +65266,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY247" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ247" s="4">
         <v>6</v>
@@ -65442,7 +65436,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY248" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ248" s="4">
         <v>6</v>
@@ -65616,7 +65610,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY249" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ249" s="4">
         <v>6</v>
@@ -65794,7 +65788,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY250" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ250" s="4">
         <v>3</v>
@@ -65968,7 +65962,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY251" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ251" s="4">
         <v>6</v>
@@ -66146,7 +66140,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY252" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ252" s="4">
         <v>6</v>
@@ -66320,7 +66314,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY253" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ253" s="4">
         <v>6</v>
@@ -66418,7 +66412,7 @@
         <v>209</v>
       </c>
       <c r="Y254" s="4" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="Z254" s="43">
         <v>55000340</v>
@@ -66494,7 +66488,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY254" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ254" s="4">
         <v>6</v>
@@ -66592,7 +66586,7 @@
         <v>0</v>
       </c>
       <c r="Y255" s="4" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="Z255" s="43">
         <v>55000181</v>
@@ -66668,7 +66662,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY255" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ255" s="4">
         <v>6</v>
@@ -66842,7 +66836,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY256" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ256" s="4">
         <v>6</v>
@@ -67016,7 +67010,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY257" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ257" s="4">
         <v>6</v>
@@ -67190,7 +67184,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY258" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ258" s="4">
         <v>6</v>
@@ -67364,7 +67358,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY259" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ259" s="4">
         <v>6</v>
@@ -67538,7 +67532,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY260" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ260" s="4">
         <v>6</v>
@@ -67712,7 +67706,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY261" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ261" s="4">
         <v>6</v>
@@ -67882,7 +67876,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY262" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ262" s="4">
         <v>6</v>
@@ -68046,7 +68040,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY263" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ263" s="4">
         <v>6</v>
@@ -68220,7 +68214,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY264" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ264" s="4">
         <v>6</v>
@@ -68398,7 +68392,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY265" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ265" s="4">
         <v>6</v>
@@ -68576,7 +68570,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY266" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ266" s="4">
         <v>6</v>
@@ -68674,7 +68668,7 @@
         <v>94</v>
       </c>
       <c r="Y267" s="4" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="Z267" s="43">
         <v>55000001</v>
@@ -68754,7 +68748,7 @@
         <v>0;0;0;0;0;0;0;0.3;0</v>
       </c>
       <c r="AY267" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ267" s="4">
         <v>6</v>
@@ -68928,7 +68922,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY268" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ268" s="4">
         <v>6</v>
@@ -69098,7 +69092,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY269" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ269" s="4">
         <v>6</v>
@@ -69272,7 +69266,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY270" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ270" s="4">
         <v>6</v>
@@ -69450,7 +69444,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY271" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ271" s="4">
         <v>5</v>
@@ -69628,7 +69622,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY272" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ272" s="4">
         <v>6</v>
@@ -69806,7 +69800,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY273" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ273" s="4">
         <v>3</v>
@@ -69904,7 +69898,7 @@
         <v>0</v>
       </c>
       <c r="Y274" s="4" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="Z274" s="43">
         <v>55000342</v>
@@ -69976,7 +69970,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY274" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ274" s="4">
         <v>6</v>
@@ -70074,7 +70068,7 @@
         <v>277</v>
       </c>
       <c r="Y275" s="4" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="Z275" s="43">
         <v>55000278</v>
@@ -70150,7 +70144,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY275" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ275" s="4">
         <v>6</v>
@@ -70322,7 +70316,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY276" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ276" s="4">
         <v>6</v>
@@ -70496,7 +70490,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY277" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ277" s="4">
         <v>6</v>
@@ -70670,7 +70664,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY278" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ278" s="4">
         <v>6</v>
@@ -70840,7 +70834,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY279" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ279" s="4">
         <v>6</v>
@@ -71014,7 +71008,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY280" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ280" s="4">
         <v>6</v>
@@ -71184,7 +71178,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY281" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ281" s="4">
         <v>6</v>
@@ -71354,7 +71348,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY282" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ282" s="4">
         <v>6</v>
@@ -71524,7 +71518,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY283" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ283" s="4">
         <v>6</v>
@@ -71698,7 +71692,7 @@
         <v>0;0;0;0;0;0;0;0.3;0</v>
       </c>
       <c r="AY284" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ284" s="4">
         <v>6</v>
@@ -71872,7 +71866,7 @@
         <v>0;0;0;0;0;0;0;0;0.3</v>
       </c>
       <c r="AY285" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ285" s="4">
         <v>5</v>
@@ -72036,7 +72030,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY286" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ286" s="4">
         <v>6</v>
@@ -72210,7 +72204,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY287" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ287" s="4">
         <v>6</v>
@@ -72384,7 +72378,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY288" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ288" s="4">
         <v>6</v>
@@ -72482,7 +72476,7 @@
         <v>100</v>
       </c>
       <c r="Y289" s="4" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="Z289" s="43">
         <v>55000293</v>
@@ -72554,7 +72548,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY289" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ289" s="4">
         <v>6</v>
@@ -72724,7 +72718,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY290" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ290" s="4">
         <v>6</v>
@@ -72898,7 +72892,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY291" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ291" s="4">
         <v>6</v>
@@ -73072,7 +73066,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY292" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ292" s="4">
         <v>6</v>
@@ -73242,7 +73236,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY293" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ293" s="4">
         <v>6</v>
@@ -73420,7 +73414,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY294" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ294" s="4">
         <v>6</v>
@@ -73590,7 +73584,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY295" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ295" s="4">
         <v>6</v>
@@ -73764,7 +73758,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY296" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ296" s="4">
         <v>6</v>
@@ -73862,7 +73856,7 @@
         <v>45</v>
       </c>
       <c r="Y297" s="4" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="Z297" s="43">
         <v>55000045</v>
@@ -73942,7 +73936,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY297" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ297" s="4">
         <v>6</v>
@@ -74116,7 +74110,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY298" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ298" s="4">
         <v>6</v>
@@ -74214,7 +74208,7 @@
         <v>22</v>
       </c>
       <c r="Y299" s="4" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="Z299" s="43">
         <v>55000047</v>
@@ -74286,7 +74280,7 @@
         <v>0;0;0;0.3;0;0;0;0;0</v>
       </c>
       <c r="AY299" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ299" s="4">
         <v>6</v>
@@ -74384,7 +74378,7 @@
         <v>22</v>
       </c>
       <c r="Y300" s="4" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="Z300" s="43">
         <v>55000107</v>
@@ -74456,7 +74450,7 @@
         <v>0;0.3;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY300" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ300" s="4">
         <v>6</v>
@@ -74638,7 +74632,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY301" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ301" s="4">
         <v>3</v>
@@ -74736,7 +74730,7 @@
         <v>209</v>
       </c>
       <c r="Y302" s="4" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="Z302" s="43">
         <v>55000335</v>
@@ -74812,7 +74806,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY302" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ302" s="4">
         <v>6</v>
@@ -74986,7 +74980,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY303" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ303" s="11">
         <v>6</v>
@@ -75156,7 +75150,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY304" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ304" s="11">
         <v>6</v>
@@ -75326,7 +75320,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY305" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ305" s="11">
         <v>6</v>
@@ -75500,7 +75494,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY306" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ306" s="11">
         <v>6</v>
@@ -75670,7 +75664,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY307" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ307" s="11">
         <v>6</v>
@@ -75834,7 +75828,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY308" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ308" s="11">
         <v>6</v>
@@ -75998,7 +75992,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY309" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ309" s="11">
         <v>6</v>
@@ -76162,7 +76156,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY310" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ310" s="11">
         <v>6</v>
@@ -76326,7 +76320,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY311" s="56" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ311" s="11">
         <v>6</v>
@@ -76353,10 +76347,10 @@
         <v>51000309</v>
       </c>
       <c r="B312" s="11" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C312" s="4" t="s">
         <v>1415</v>
-      </c>
-      <c r="C312" s="4" t="s">
-        <v>1416</v>
       </c>
       <c r="D312" s="8" t="s">
         <v>698</v>
@@ -76424,7 +76418,7 @@
         <v>9</v>
       </c>
       <c r="Y312" s="11" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="Z312" s="21">
         <v>55000300</v>
@@ -76496,7 +76490,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY312" s="57" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ312" s="11">
         <v>6</v>
@@ -76515,7 +76509,7 @@
         <v>0.40819670000000002</v>
       </c>
       <c r="BF312" s="11" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="313" spans="1:58" ht="14.25">
@@ -76523,13 +76517,13 @@
         <v>51000310</v>
       </c>
       <c r="B313" s="11" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C313" s="11" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D313" s="8" t="s">
         <v>1423</v>
-      </c>
-      <c r="C313" s="11" t="s">
-        <v>1422</v>
-      </c>
-      <c r="D313" s="8" t="s">
-        <v>1424</v>
       </c>
       <c r="E313" s="11">
         <v>6</v>
@@ -76594,7 +76588,7 @@
         <v>1021</v>
       </c>
       <c r="Y313" s="11" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="Z313" s="21">
         <v>55000344</v>
@@ -76666,7 +76660,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY313" s="57" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ313" s="11">
         <v>6</v>
@@ -76685,7 +76679,7 @@
         <v>0.49672129999999998</v>
       </c>
       <c r="BF313" s="11" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
   </sheetData>
@@ -76835,7 +76829,7 @@
         <v>1138</v>
       </c>
       <c r="W1" s="17" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="X1" s="17" t="s">
         <v>323</v>
@@ -76919,7 +76913,7 @@
         <v>1027</v>
       </c>
       <c r="AY1" s="54" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="AZ1" s="17" t="s">
         <v>326</v>
@@ -77011,7 +77005,7 @@
         <v>295</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="X2" s="2" t="s">
         <v>296</v>
@@ -77095,7 +77089,7 @@
         <v>1029</v>
       </c>
       <c r="AY2" s="55" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="AZ2" s="2" t="s">
         <v>295</v>
@@ -77187,7 +77181,7 @@
         <v>1141</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="X3" s="6" t="s">
         <v>306</v>
@@ -77271,7 +77265,7 @@
         <v>1028</v>
       </c>
       <c r="AY3" s="14" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="AZ3" s="6" t="s">
         <v>309</v>
@@ -77437,7 +77431,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY4" s="56" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="AZ4" s="11">
         <v>6</v>
@@ -77603,7 +77597,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY5" s="56" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="AZ5" s="11">
         <v>6</v>
@@ -77765,7 +77759,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY6" s="56" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="AZ6" s="4">
         <v>6</v>
@@ -77927,7 +77921,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY7" s="56" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="AZ7" s="11">
         <v>6</v>
@@ -77949,16 +77943,16 @@
     </row>
     <row r="8" spans="1:58" ht="14.25">
       <c r="A8" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="E8" s="11">
         <v>4</v>
@@ -78020,7 +78014,7 @@
         <v>0</v>
       </c>
       <c r="X8" s="11" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="Y8" s="22"/>
       <c r="Z8" s="53"/>
@@ -78089,7 +78083,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY8" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ8" s="11">
         <v>6</v>
@@ -78111,16 +78105,16 @@
     </row>
     <row r="9" spans="1:58" ht="14.25">
       <c r="A9" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="E9" s="11">
         <v>3</v>
@@ -78182,7 +78176,7 @@
         <v>0</v>
       </c>
       <c r="X9" s="11" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="Y9" s="22"/>
       <c r="Z9" s="53"/>
@@ -78251,7 +78245,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY9" s="56" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AZ9" s="11">
         <v>6</v>
@@ -78417,7 +78411,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY10" s="56" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="AZ10" s="36">
         <v>6</v>
@@ -78439,7 +78433,7 @@
     </row>
     <row r="11" spans="1:58" ht="14.25">
       <c r="A11" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>1133</v>
@@ -78583,7 +78577,7 @@
         <v>0;0;0;0;0;0;0;0;0</v>
       </c>
       <c r="AY11" s="56" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="AZ11" s="11">
         <v>6</v>

--- a/ConfigData/Xlsx/Monster.xlsx
+++ b/ConfigData/Xlsx/Monster.xlsx
@@ -22604,7 +22604,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B79" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Y89" sqref="Y89"/>
+      <selection pane="bottomRight" activeCell="I85" sqref="I85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/ConfigData/Xlsx/Monster.xlsx
+++ b/ConfigData/Xlsx/Monster.xlsx
@@ -23,7 +23,7 @@
   </externalReferences>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -701,7 +701,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2559" uniqueCount="1430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2566" uniqueCount="1436">
   <si>
     <t>arrow</t>
   </si>
@@ -5549,6 +5549,30 @@
   </si>
   <si>
     <t>55000116;100</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>压制</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛欧塞布</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loatheb</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOT</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>55000052;100</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>darkfire</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -6625,7 +6649,45 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="137">
+  <dxfs count="142">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -9883,11 +9945,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2146182368"/>
-        <c:axId val="2146184000"/>
+        <c:axId val="2119222944"/>
+        <c:axId val="2119223488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2146182368"/>
+        <c:axId val="2119222944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9930,7 +9992,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2146184000"/>
+        <c:crossAx val="2119223488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9938,7 +10000,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2146184000"/>
+        <c:axId val="2119223488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9989,7 +10051,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2146182368"/>
+        <c:crossAx val="2119222944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11048,47 +11110,47 @@
         </row>
         <row r="48">
           <cell r="A48">
-            <v>55000061</v>
+            <v>55000052</v>
           </cell>
           <cell r="V48">
-            <v>1</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49">
-            <v>55000062</v>
+            <v>55000061</v>
           </cell>
           <cell r="V49">
-            <v>4</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="50">
           <cell r="A50">
-            <v>55000063</v>
+            <v>55000062</v>
           </cell>
           <cell r="V50">
-            <v>10</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51">
-            <v>55000064</v>
+            <v>55000063</v>
           </cell>
           <cell r="V51">
-            <v>5</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52">
-            <v>55000065</v>
+            <v>55000064</v>
           </cell>
           <cell r="V52">
-            <v>1</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53">
-            <v>55000066</v>
+            <v>55000065</v>
           </cell>
           <cell r="V53">
             <v>1</v>
@@ -11096,7 +11158,7 @@
         </row>
         <row r="54">
           <cell r="A54">
-            <v>55000067</v>
+            <v>55000066</v>
           </cell>
           <cell r="V54">
             <v>1</v>
@@ -11104,7 +11166,7 @@
         </row>
         <row r="55">
           <cell r="A55">
-            <v>55000068</v>
+            <v>55000067</v>
           </cell>
           <cell r="V55">
             <v>1</v>
@@ -11112,7 +11174,7 @@
         </row>
         <row r="56">
           <cell r="A56">
-            <v>55000069</v>
+            <v>55000068</v>
           </cell>
           <cell r="V56">
             <v>1</v>
@@ -11120,7 +11182,7 @@
         </row>
         <row r="57">
           <cell r="A57">
-            <v>55000070</v>
+            <v>55000069</v>
           </cell>
           <cell r="V57">
             <v>1</v>
@@ -11128,7 +11190,7 @@
         </row>
         <row r="58">
           <cell r="A58">
-            <v>55000071</v>
+            <v>55000070</v>
           </cell>
           <cell r="V58">
             <v>1</v>
@@ -11136,7 +11198,7 @@
         </row>
         <row r="59">
           <cell r="A59">
-            <v>55000072</v>
+            <v>55000071</v>
           </cell>
           <cell r="V59">
             <v>1</v>
@@ -11144,7 +11206,7 @@
         </row>
         <row r="60">
           <cell r="A60">
-            <v>55000073</v>
+            <v>55000072</v>
           </cell>
           <cell r="V60">
             <v>1</v>
@@ -11152,7 +11214,7 @@
         </row>
         <row r="61">
           <cell r="A61">
-            <v>55000074</v>
+            <v>55000073</v>
           </cell>
           <cell r="V61">
             <v>1</v>
@@ -11160,47 +11222,47 @@
         </row>
         <row r="62">
           <cell r="A62">
-            <v>55000075</v>
+            <v>55000074</v>
           </cell>
           <cell r="V62">
-            <v>12</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63">
-            <v>55000076</v>
+            <v>55000075</v>
           </cell>
           <cell r="V63">
-            <v>5</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64">
-            <v>55000077</v>
+            <v>55000076</v>
           </cell>
           <cell r="V64">
-            <v>26</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65">
-            <v>55000078</v>
+            <v>55000077</v>
           </cell>
           <cell r="V65">
-            <v>-4</v>
+            <v>26</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66">
-            <v>55000079</v>
+            <v>55000078</v>
           </cell>
           <cell r="V66">
-            <v>2</v>
+            <v>-4</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67">
-            <v>55000080</v>
+            <v>55000079</v>
           </cell>
           <cell r="V67">
             <v>2</v>
@@ -11208,79 +11270,79 @@
         </row>
         <row r="68">
           <cell r="A68">
-            <v>55000081</v>
+            <v>55000080</v>
           </cell>
           <cell r="V68">
-            <v>1</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69">
-            <v>55000082</v>
+            <v>55000081</v>
           </cell>
           <cell r="V69">
-            <v>6</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70">
-            <v>55000083</v>
+            <v>55000082</v>
           </cell>
           <cell r="V70">
-            <v>15</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="71">
           <cell r="A71">
-            <v>55000084</v>
+            <v>55000083</v>
           </cell>
           <cell r="V71">
-            <v>35</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="72">
           <cell r="A72">
-            <v>55000085</v>
+            <v>55000084</v>
           </cell>
           <cell r="V72">
-            <v>2</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73">
-            <v>55000086</v>
+            <v>55000085</v>
           </cell>
           <cell r="V73">
-            <v>1</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="74">
           <cell r="A74">
-            <v>55000087</v>
+            <v>55000086</v>
           </cell>
           <cell r="V74">
-            <v>6</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75">
-            <v>55000088</v>
+            <v>55000087</v>
           </cell>
           <cell r="V75">
-            <v>3</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="76">
           <cell r="A76">
-            <v>55000089</v>
+            <v>55000088</v>
           </cell>
           <cell r="V76">
-            <v>6</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="77">
           <cell r="A77">
-            <v>55000090</v>
+            <v>55000089</v>
           </cell>
           <cell r="V77">
             <v>6</v>
@@ -11288,151 +11350,151 @@
         </row>
         <row r="78">
           <cell r="A78">
-            <v>55000091</v>
+            <v>55000090</v>
           </cell>
           <cell r="V78">
-            <v>-15</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="79">
           <cell r="A79">
-            <v>55000092</v>
+            <v>55000091</v>
           </cell>
           <cell r="V79">
-            <v>5</v>
+            <v>-15</v>
           </cell>
         </row>
         <row r="80">
           <cell r="A80">
-            <v>55000093</v>
+            <v>55000092</v>
           </cell>
           <cell r="V80">
-            <v>2</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="81">
           <cell r="A81">
-            <v>55000094</v>
+            <v>55000093</v>
           </cell>
           <cell r="V81">
-            <v>30</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="82">
           <cell r="A82">
-            <v>55000095</v>
+            <v>55000094</v>
           </cell>
           <cell r="V82">
-            <v>3</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="83">
           <cell r="A83">
-            <v>55000096</v>
+            <v>55000095</v>
           </cell>
           <cell r="V83">
-            <v>2</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="84">
           <cell r="A84">
-            <v>55000097</v>
+            <v>55000096</v>
           </cell>
           <cell r="V84">
-            <v>0</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85">
-            <v>55000098</v>
+            <v>55000097</v>
           </cell>
           <cell r="V85">
-            <v>4</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="86">
           <cell r="A86">
-            <v>55000099</v>
+            <v>55000098</v>
           </cell>
           <cell r="V86">
-            <v>0</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87">
-            <v>55000100</v>
+            <v>55000099</v>
           </cell>
           <cell r="V87">
-            <v>5</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="88">
           <cell r="A88">
-            <v>55000101</v>
+            <v>55000100</v>
           </cell>
           <cell r="V88">
-            <v>1</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89">
-            <v>55000102</v>
+            <v>55000101</v>
           </cell>
           <cell r="V89">
-            <v>3</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="90">
           <cell r="A90">
-            <v>55000103</v>
+            <v>55000102</v>
           </cell>
           <cell r="V90">
-            <v>10</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="91">
           <cell r="A91">
-            <v>55000104</v>
+            <v>55000103</v>
           </cell>
           <cell r="V91">
-            <v>1</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="92">
           <cell r="A92">
-            <v>55000105</v>
+            <v>55000104</v>
           </cell>
           <cell r="V92">
-            <v>2</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="93">
           <cell r="A93">
-            <v>55000106</v>
+            <v>55000105</v>
           </cell>
           <cell r="V93">
-            <v>5</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="94">
           <cell r="A94">
-            <v>55000107</v>
+            <v>55000106</v>
           </cell>
           <cell r="V94">
-            <v>1</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="95">
           <cell r="A95">
-            <v>55000108</v>
+            <v>55000107</v>
           </cell>
           <cell r="V95">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="96">
           <cell r="A96">
-            <v>55000109</v>
+            <v>55000108</v>
           </cell>
           <cell r="V96">
             <v>0</v>
@@ -11440,15 +11502,15 @@
         </row>
         <row r="97">
           <cell r="A97">
-            <v>55000110</v>
+            <v>55000109</v>
           </cell>
           <cell r="V97">
-            <v>5</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="98">
           <cell r="A98">
-            <v>55000111</v>
+            <v>55000110</v>
           </cell>
           <cell r="V98">
             <v>5</v>
@@ -11456,143 +11518,143 @@
         </row>
         <row r="99">
           <cell r="A99">
-            <v>55000112</v>
+            <v>55000111</v>
           </cell>
           <cell r="V99">
-            <v>2</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="100">
           <cell r="A100">
-            <v>55000113</v>
+            <v>55000112</v>
           </cell>
           <cell r="V100">
-            <v>1</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="101">
           <cell r="A101">
-            <v>55000114</v>
+            <v>55000113</v>
           </cell>
           <cell r="V101">
-            <v>4</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="102">
           <cell r="A102">
-            <v>55000115</v>
+            <v>55000114</v>
           </cell>
           <cell r="V102">
-            <v>20</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="103">
           <cell r="A103">
-            <v>55000116</v>
+            <v>55000115</v>
           </cell>
           <cell r="V103">
-            <v>30</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="104">
           <cell r="A104">
-            <v>55000117</v>
+            <v>55000116</v>
           </cell>
           <cell r="V104">
-            <v>1</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="105">
           <cell r="A105">
-            <v>55000118</v>
+            <v>55000117</v>
           </cell>
           <cell r="V105">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="106">
           <cell r="A106">
-            <v>55000119</v>
+            <v>55000118</v>
           </cell>
           <cell r="V106">
-            <v>7</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="107">
           <cell r="A107">
-            <v>55000120</v>
+            <v>55000119</v>
           </cell>
           <cell r="V107">
-            <v>10</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="108">
           <cell r="A108">
-            <v>55000121</v>
+            <v>55000120</v>
           </cell>
           <cell r="V108">
-            <v>3</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="109">
           <cell r="A109">
-            <v>55000122</v>
+            <v>55000121</v>
           </cell>
           <cell r="V109">
-            <v>1</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="110">
           <cell r="A110">
-            <v>55000123</v>
+            <v>55000122</v>
           </cell>
           <cell r="V110">
-            <v>2</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="111">
           <cell r="A111">
-            <v>55000124</v>
+            <v>55000123</v>
           </cell>
           <cell r="V111">
-            <v>1</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="112">
           <cell r="A112">
-            <v>55000125</v>
+            <v>55000124</v>
           </cell>
           <cell r="V112">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="113">
           <cell r="A113">
-            <v>55000126</v>
+            <v>55000125</v>
           </cell>
           <cell r="V113">
-            <v>4</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="114">
           <cell r="A114">
-            <v>55000127</v>
+            <v>55000126</v>
           </cell>
           <cell r="V114">
-            <v>80</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="115">
           <cell r="A115">
-            <v>55000129</v>
+            <v>55000127</v>
           </cell>
           <cell r="V115">
-            <v>3</v>
+            <v>80</v>
           </cell>
         </row>
         <row r="116">
           <cell r="A116">
-            <v>55000130</v>
+            <v>55000129</v>
           </cell>
           <cell r="V116">
             <v>3</v>
@@ -11600,31 +11662,31 @@
         </row>
         <row r="117">
           <cell r="A117">
-            <v>55000131</v>
+            <v>55000130</v>
           </cell>
           <cell r="V117">
-            <v>5</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="118">
           <cell r="A118">
-            <v>55000132</v>
+            <v>55000131</v>
           </cell>
           <cell r="V118">
-            <v>3</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="119">
           <cell r="A119">
-            <v>55000133</v>
+            <v>55000132</v>
           </cell>
           <cell r="V119">
-            <v>5</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="120">
           <cell r="A120">
-            <v>55000134</v>
+            <v>55000133</v>
           </cell>
           <cell r="V120">
             <v>5</v>
@@ -11632,47 +11694,47 @@
         </row>
         <row r="121">
           <cell r="A121">
-            <v>55000135</v>
+            <v>55000134</v>
           </cell>
           <cell r="V121">
-            <v>-5</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="122">
           <cell r="A122">
-            <v>55000136</v>
+            <v>55000135</v>
           </cell>
           <cell r="V122">
-            <v>6</v>
+            <v>-5</v>
           </cell>
         </row>
         <row r="123">
           <cell r="A123">
-            <v>55000137</v>
+            <v>55000136</v>
           </cell>
           <cell r="V123">
-            <v>1</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="124">
           <cell r="A124">
-            <v>55000138</v>
+            <v>55000137</v>
           </cell>
           <cell r="V124">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="125">
           <cell r="A125">
-            <v>55000139</v>
+            <v>55000138</v>
           </cell>
           <cell r="V125">
-            <v>1</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="126">
           <cell r="A126">
-            <v>55000140</v>
+            <v>55000139</v>
           </cell>
           <cell r="V126">
             <v>1</v>
@@ -11680,7 +11742,7 @@
         </row>
         <row r="127">
           <cell r="A127">
-            <v>55000141</v>
+            <v>55000140</v>
           </cell>
           <cell r="V127">
             <v>1</v>
@@ -11688,71 +11750,71 @@
         </row>
         <row r="128">
           <cell r="A128">
-            <v>55000142</v>
+            <v>55000141</v>
           </cell>
           <cell r="V128">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="129">
           <cell r="A129">
-            <v>55000143</v>
+            <v>55000142</v>
           </cell>
           <cell r="V129">
-            <v>4</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="130">
           <cell r="A130">
-            <v>55000144</v>
+            <v>55000143</v>
           </cell>
           <cell r="V130">
-            <v>1</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="131">
           <cell r="A131">
-            <v>55000145</v>
+            <v>55000144</v>
           </cell>
           <cell r="V131">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="132">
           <cell r="A132">
-            <v>55000146</v>
+            <v>55000145</v>
           </cell>
           <cell r="V132">
-            <v>1</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="133">
           <cell r="A133">
-            <v>55000147</v>
+            <v>55000146</v>
           </cell>
           <cell r="V133">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="134">
           <cell r="A134">
-            <v>55000148</v>
+            <v>55000147</v>
           </cell>
           <cell r="V134">
-            <v>1</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="135">
           <cell r="A135">
-            <v>55000149</v>
+            <v>55000148</v>
           </cell>
           <cell r="V135">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="136">
           <cell r="A136">
-            <v>55000150</v>
+            <v>55000149</v>
           </cell>
           <cell r="V136">
             <v>0</v>
@@ -11760,191 +11822,191 @@
         </row>
         <row r="137">
           <cell r="A137">
-            <v>55000151</v>
+            <v>55000150</v>
           </cell>
           <cell r="V137">
-            <v>2</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="138">
           <cell r="A138">
-            <v>55000152</v>
+            <v>55000151</v>
           </cell>
           <cell r="V138">
-            <v>3</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="139">
           <cell r="A139">
-            <v>55000153</v>
+            <v>55000152</v>
           </cell>
           <cell r="V139">
-            <v>0</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="140">
           <cell r="A140">
-            <v>55000154</v>
+            <v>55000153</v>
           </cell>
           <cell r="V140">
-            <v>1</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="141">
           <cell r="A141">
-            <v>55000155</v>
+            <v>55000154</v>
           </cell>
           <cell r="V141">
-            <v>-2</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="142">
           <cell r="A142">
-            <v>55000156</v>
+            <v>55000155</v>
           </cell>
           <cell r="V142">
-            <v>0</v>
+            <v>-2</v>
           </cell>
         </row>
         <row r="143">
           <cell r="A143">
-            <v>55000157</v>
+            <v>55000156</v>
           </cell>
           <cell r="V143">
-            <v>30</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="144">
           <cell r="A144">
-            <v>55000158</v>
+            <v>55000157</v>
           </cell>
           <cell r="V144">
-            <v>7</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="145">
           <cell r="A145">
-            <v>55000159</v>
+            <v>55000158</v>
           </cell>
           <cell r="V145">
-            <v>1</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="146">
           <cell r="A146">
-            <v>55000160</v>
+            <v>55000159</v>
           </cell>
           <cell r="V146">
-            <v>9</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="147">
           <cell r="A147">
-            <v>55000161</v>
+            <v>55000160</v>
           </cell>
           <cell r="V147">
-            <v>0</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="148">
           <cell r="A148">
-            <v>55000162</v>
+            <v>55000161</v>
           </cell>
           <cell r="V148">
-            <v>1</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="149">
           <cell r="A149">
-            <v>55000163</v>
+            <v>55000162</v>
           </cell>
           <cell r="V149">
-            <v>10</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="150">
           <cell r="A150">
-            <v>55000164</v>
+            <v>55000163</v>
           </cell>
           <cell r="V150">
-            <v>6</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="151">
           <cell r="A151">
-            <v>55000165</v>
+            <v>55000164</v>
           </cell>
           <cell r="V151">
-            <v>2</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="152">
           <cell r="A152">
-            <v>55000166</v>
+            <v>55000165</v>
           </cell>
           <cell r="V152">
-            <v>6</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="153">
           <cell r="A153">
-            <v>55000167</v>
+            <v>55000166</v>
           </cell>
           <cell r="V153">
-            <v>10</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="154">
           <cell r="A154">
-            <v>55000168</v>
+            <v>55000167</v>
           </cell>
           <cell r="V154">
-            <v>2</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="155">
           <cell r="A155">
-            <v>55000169</v>
+            <v>55000168</v>
           </cell>
           <cell r="V155">
-            <v>5</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="156">
           <cell r="A156">
-            <v>55000170</v>
+            <v>55000169</v>
           </cell>
           <cell r="V156">
-            <v>1</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="157">
           <cell r="A157">
-            <v>55000171</v>
+            <v>55000170</v>
           </cell>
           <cell r="V157">
-            <v>4</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="158">
           <cell r="A158">
-            <v>55000172</v>
+            <v>55000171</v>
           </cell>
           <cell r="V158">
-            <v>2</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="159">
           <cell r="A159">
-            <v>55000173</v>
+            <v>55000172</v>
           </cell>
           <cell r="V159">
-            <v>1</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="160">
           <cell r="A160">
-            <v>55000174</v>
+            <v>55000173</v>
           </cell>
           <cell r="V160">
             <v>1</v>
@@ -11952,7 +12014,7 @@
         </row>
         <row r="161">
           <cell r="A161">
-            <v>55000175</v>
+            <v>55000174</v>
           </cell>
           <cell r="V161">
             <v>1</v>
@@ -11960,31 +12022,31 @@
         </row>
         <row r="162">
           <cell r="A162">
-            <v>55000176</v>
+            <v>55000175</v>
           </cell>
           <cell r="V162">
-            <v>5</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="163">
           <cell r="A163">
-            <v>55000177</v>
+            <v>55000176</v>
           </cell>
           <cell r="V163">
-            <v>0</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="164">
           <cell r="A164">
-            <v>55000178</v>
+            <v>55000177</v>
           </cell>
           <cell r="V164">
-            <v>5</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="165">
           <cell r="A165">
-            <v>55000179</v>
+            <v>55000178</v>
           </cell>
           <cell r="V165">
             <v>5</v>
@@ -11992,31 +12054,31 @@
         </row>
         <row r="166">
           <cell r="A166">
-            <v>55000180</v>
+            <v>55000179</v>
           </cell>
           <cell r="V166">
-            <v>10</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="167">
           <cell r="A167">
-            <v>55000181</v>
+            <v>55000180</v>
           </cell>
           <cell r="V167">
-            <v>40</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="168">
           <cell r="A168">
-            <v>55000182</v>
+            <v>55000181</v>
           </cell>
           <cell r="V168">
-            <v>3</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="169">
           <cell r="A169">
-            <v>55000183</v>
+            <v>55000182</v>
           </cell>
           <cell r="V169">
             <v>3</v>
@@ -12024,95 +12086,95 @@
         </row>
         <row r="170">
           <cell r="A170">
-            <v>55000184</v>
+            <v>55000183</v>
           </cell>
           <cell r="V170">
-            <v>1</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="171">
           <cell r="A171">
-            <v>55000185</v>
+            <v>55000184</v>
           </cell>
           <cell r="V171">
-            <v>3</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="172">
           <cell r="A172">
-            <v>55000186</v>
+            <v>55000185</v>
           </cell>
           <cell r="V172">
-            <v>2</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="173">
           <cell r="A173">
-            <v>55000187</v>
+            <v>55000186</v>
           </cell>
           <cell r="V173">
-            <v>-12</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="174">
           <cell r="A174">
-            <v>55000188</v>
+            <v>55000187</v>
           </cell>
           <cell r="V174">
-            <v>-1</v>
+            <v>-12</v>
           </cell>
         </row>
         <row r="175">
           <cell r="A175">
-            <v>55000189</v>
+            <v>55000188</v>
           </cell>
           <cell r="V175">
-            <v>20</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="176">
           <cell r="A176">
-            <v>55000190</v>
+            <v>55000189</v>
           </cell>
           <cell r="V176">
-            <v>1</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="177">
           <cell r="A177">
-            <v>55000191</v>
+            <v>55000190</v>
           </cell>
           <cell r="V177">
-            <v>22</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="178">
           <cell r="A178">
-            <v>55000192</v>
+            <v>55000191</v>
           </cell>
           <cell r="V178">
-            <v>2</v>
+            <v>22</v>
           </cell>
         </row>
         <row r="179">
           <cell r="A179">
-            <v>55000193</v>
+            <v>55000192</v>
           </cell>
           <cell r="V179">
-            <v>0</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="180">
           <cell r="A180">
-            <v>55000194</v>
+            <v>55000193</v>
           </cell>
           <cell r="V180">
-            <v>1</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="181">
           <cell r="A181">
-            <v>55000195</v>
+            <v>55000194</v>
           </cell>
           <cell r="V181">
             <v>1</v>
@@ -12120,7 +12182,7 @@
         </row>
         <row r="182">
           <cell r="A182">
-            <v>55000196</v>
+            <v>55000195</v>
           </cell>
           <cell r="V182">
             <v>1</v>
@@ -12128,79 +12190,79 @@
         </row>
         <row r="183">
           <cell r="A183">
-            <v>55000197</v>
+            <v>55000196</v>
           </cell>
           <cell r="V183">
-            <v>3</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="184">
           <cell r="A184">
-            <v>55000198</v>
+            <v>55000197</v>
           </cell>
           <cell r="V184">
-            <v>2</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="185">
           <cell r="A185">
-            <v>55000199</v>
+            <v>55000198</v>
           </cell>
           <cell r="V185">
-            <v>6</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="186">
           <cell r="A186">
-            <v>55000200</v>
+            <v>55000199</v>
           </cell>
           <cell r="V186">
-            <v>14</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="187">
           <cell r="A187">
-            <v>55000201</v>
+            <v>55000200</v>
           </cell>
           <cell r="V187">
-            <v>2</v>
+            <v>14</v>
           </cell>
         </row>
         <row r="188">
           <cell r="A188">
-            <v>55000202</v>
+            <v>55000201</v>
           </cell>
           <cell r="V188">
-            <v>10</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="189">
           <cell r="A189">
-            <v>55000203</v>
+            <v>55000202</v>
           </cell>
           <cell r="V189">
-            <v>100</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="190">
           <cell r="A190">
-            <v>55000204</v>
+            <v>55000203</v>
           </cell>
           <cell r="V190">
-            <v>0</v>
+            <v>100</v>
           </cell>
         </row>
         <row r="191">
           <cell r="A191">
-            <v>55000205</v>
+            <v>55000204</v>
           </cell>
           <cell r="V191">
-            <v>1</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="192">
           <cell r="A192">
-            <v>55000206</v>
+            <v>55000205</v>
           </cell>
           <cell r="V192">
             <v>1</v>
@@ -12208,23 +12270,23 @@
         </row>
         <row r="193">
           <cell r="A193">
-            <v>55000207</v>
+            <v>55000206</v>
           </cell>
           <cell r="V193">
-            <v>25</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="194">
           <cell r="A194">
-            <v>55000208</v>
+            <v>55000207</v>
           </cell>
           <cell r="V194">
-            <v>0</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="195">
           <cell r="A195">
-            <v>55000209</v>
+            <v>55000208</v>
           </cell>
           <cell r="V195">
             <v>0</v>
@@ -12232,135 +12294,135 @@
         </row>
         <row r="196">
           <cell r="A196">
-            <v>55000210</v>
+            <v>55000209</v>
           </cell>
           <cell r="V196">
-            <v>6</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="197">
           <cell r="A197">
-            <v>55000211</v>
+            <v>55000210</v>
           </cell>
           <cell r="V197">
-            <v>0</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="198">
           <cell r="A198">
-            <v>55000212</v>
+            <v>55000211</v>
           </cell>
           <cell r="V198">
-            <v>3</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="199">
           <cell r="A199">
-            <v>55000213</v>
+            <v>55000212</v>
           </cell>
           <cell r="V199">
-            <v>0</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="200">
           <cell r="A200">
-            <v>55000214</v>
+            <v>55000213</v>
           </cell>
           <cell r="V200">
-            <v>15</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="201">
           <cell r="A201">
-            <v>55000215</v>
+            <v>55000214</v>
           </cell>
           <cell r="V201">
-            <v>4</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="202">
           <cell r="A202">
-            <v>55000216</v>
+            <v>55000215</v>
           </cell>
           <cell r="V202">
-            <v>5</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="203">
           <cell r="A203">
-            <v>55000217</v>
+            <v>55000216</v>
           </cell>
           <cell r="V203">
-            <v>2</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="204">
           <cell r="A204">
-            <v>55000218</v>
+            <v>55000217</v>
           </cell>
           <cell r="V204">
-            <v>8</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="205">
           <cell r="A205">
-            <v>55000219</v>
+            <v>55000218</v>
           </cell>
           <cell r="V205">
-            <v>2</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="206">
           <cell r="A206">
-            <v>55000220</v>
+            <v>55000219</v>
           </cell>
           <cell r="V206">
-            <v>1</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="207">
           <cell r="A207">
-            <v>55000221</v>
+            <v>55000220</v>
           </cell>
           <cell r="V207">
-            <v>80</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="208">
           <cell r="A208">
-            <v>55000222</v>
+            <v>55000221</v>
           </cell>
           <cell r="V208">
-            <v>4</v>
+            <v>80</v>
           </cell>
         </row>
         <row r="209">
           <cell r="A209">
-            <v>55000223</v>
+            <v>55000222</v>
           </cell>
           <cell r="V209">
-            <v>0</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="210">
           <cell r="A210">
-            <v>55000224</v>
+            <v>55000223</v>
           </cell>
           <cell r="V210">
-            <v>1</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="211">
           <cell r="A211">
-            <v>55000225</v>
+            <v>55000224</v>
           </cell>
           <cell r="V211">
-            <v>5</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="212">
           <cell r="A212">
-            <v>55000226</v>
+            <v>55000225</v>
           </cell>
           <cell r="V212">
             <v>5</v>
@@ -12368,143 +12430,143 @@
         </row>
         <row r="213">
           <cell r="A213">
-            <v>55000227</v>
+            <v>55000226</v>
           </cell>
           <cell r="V213">
-            <v>3</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="214">
           <cell r="A214">
-            <v>55000228</v>
+            <v>55000227</v>
           </cell>
           <cell r="V214">
-            <v>1</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="215">
           <cell r="A215">
-            <v>55000229</v>
+            <v>55000228</v>
           </cell>
           <cell r="V215">
-            <v>30</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="216">
           <cell r="A216">
-            <v>55000230</v>
+            <v>55000229</v>
           </cell>
           <cell r="V216">
-            <v>-18</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="217">
           <cell r="A217">
-            <v>55000231</v>
+            <v>55000230</v>
           </cell>
           <cell r="V217">
-            <v>15</v>
+            <v>-18</v>
           </cell>
         </row>
         <row r="218">
           <cell r="A218">
-            <v>55000232</v>
+            <v>55000231</v>
           </cell>
           <cell r="V218">
-            <v>3</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="219">
           <cell r="A219">
-            <v>55000233</v>
+            <v>55000232</v>
           </cell>
           <cell r="V219">
-            <v>-2</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="220">
           <cell r="A220">
-            <v>55000234</v>
+            <v>55000233</v>
           </cell>
           <cell r="V220">
-            <v>3</v>
+            <v>-2</v>
           </cell>
         </row>
         <row r="221">
           <cell r="A221">
-            <v>55000235</v>
+            <v>55000234</v>
           </cell>
           <cell r="V221">
-            <v>1</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="222">
           <cell r="A222">
-            <v>55000236</v>
+            <v>55000235</v>
           </cell>
           <cell r="V222">
-            <v>5</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="223">
           <cell r="A223">
-            <v>55000237</v>
+            <v>55000236</v>
           </cell>
           <cell r="V223">
-            <v>0</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="224">
           <cell r="A224">
-            <v>55000238</v>
+            <v>55000237</v>
           </cell>
           <cell r="V224">
-            <v>10</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="225">
           <cell r="A225">
-            <v>55000239</v>
+            <v>55000238</v>
           </cell>
           <cell r="V225">
-            <v>2</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="226">
           <cell r="A226">
-            <v>55000240</v>
+            <v>55000239</v>
           </cell>
           <cell r="V226">
-            <v>5</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="227">
           <cell r="A227">
-            <v>55000241</v>
+            <v>55000240</v>
           </cell>
           <cell r="V227">
-            <v>0</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="228">
           <cell r="A228">
-            <v>55000242</v>
+            <v>55000241</v>
           </cell>
           <cell r="V228">
-            <v>3</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="229">
           <cell r="A229">
-            <v>55000243</v>
+            <v>55000242</v>
           </cell>
           <cell r="V229">
-            <v>2</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="230">
           <cell r="A230">
-            <v>55000244</v>
+            <v>55000243</v>
           </cell>
           <cell r="V230">
             <v>2</v>
@@ -12512,23 +12574,23 @@
         </row>
         <row r="231">
           <cell r="A231">
-            <v>55000245</v>
+            <v>55000244</v>
           </cell>
           <cell r="V231">
-            <v>4</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="232">
           <cell r="A232">
-            <v>55000246</v>
+            <v>55000245</v>
           </cell>
           <cell r="V232">
-            <v>1</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="233">
           <cell r="A233">
-            <v>55000247</v>
+            <v>55000246</v>
           </cell>
           <cell r="V233">
             <v>1</v>
@@ -12536,311 +12598,311 @@
         </row>
         <row r="234">
           <cell r="A234">
-            <v>55000248</v>
+            <v>55000247</v>
           </cell>
           <cell r="V234">
-            <v>8</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="235">
           <cell r="A235">
-            <v>55000249</v>
+            <v>55000248</v>
           </cell>
           <cell r="V235">
-            <v>4</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="236">
           <cell r="A236">
-            <v>55000250</v>
+            <v>55000249</v>
           </cell>
           <cell r="V236">
-            <v>3</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="237">
           <cell r="A237">
-            <v>55000251</v>
+            <v>55000250</v>
           </cell>
           <cell r="V237">
-            <v>2</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="238">
           <cell r="A238">
-            <v>55000252</v>
+            <v>55000251</v>
           </cell>
           <cell r="V238">
-            <v>1</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="239">
           <cell r="A239">
-            <v>55000253</v>
+            <v>55000252</v>
           </cell>
           <cell r="V239">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="240">
           <cell r="A240">
-            <v>55000254</v>
+            <v>55000253</v>
           </cell>
           <cell r="V240">
-            <v>3</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="241">
           <cell r="A241">
-            <v>55000255</v>
+            <v>55000254</v>
           </cell>
           <cell r="V241">
-            <v>5</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="242">
           <cell r="A242">
-            <v>55000256</v>
+            <v>55000255</v>
           </cell>
           <cell r="V242">
-            <v>0</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="243">
           <cell r="A243">
-            <v>55000257</v>
+            <v>55000256</v>
           </cell>
           <cell r="V243">
-            <v>2</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="244">
           <cell r="A244">
-            <v>55000258</v>
+            <v>55000257</v>
           </cell>
           <cell r="V244">
-            <v>3</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="245">
           <cell r="A245">
-            <v>55000259</v>
+            <v>55000258</v>
           </cell>
           <cell r="V245">
-            <v>5</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="246">
           <cell r="A246">
-            <v>55000260</v>
+            <v>55000259</v>
           </cell>
           <cell r="V246">
-            <v>3</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="247">
           <cell r="A247">
-            <v>55000261</v>
+            <v>55000260</v>
           </cell>
           <cell r="V247">
-            <v>2</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="248">
           <cell r="A248">
-            <v>55000262</v>
+            <v>55000261</v>
           </cell>
           <cell r="V248">
-            <v>22</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="249">
           <cell r="A249">
-            <v>55000263</v>
+            <v>55000262</v>
           </cell>
           <cell r="V249">
-            <v>10</v>
+            <v>22</v>
           </cell>
         </row>
         <row r="250">
           <cell r="A250">
-            <v>55000264</v>
+            <v>55000263</v>
           </cell>
           <cell r="V250">
-            <v>3</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="251">
           <cell r="A251">
-            <v>55000265</v>
+            <v>55000264</v>
           </cell>
           <cell r="V251">
-            <v>10</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="252">
           <cell r="A252">
-            <v>55000266</v>
+            <v>55000265</v>
           </cell>
           <cell r="V252">
-            <v>1</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="253">
           <cell r="A253">
-            <v>55000267</v>
+            <v>55000266</v>
           </cell>
           <cell r="V253">
-            <v>25</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="254">
           <cell r="A254">
-            <v>55000268</v>
+            <v>55000267</v>
           </cell>
           <cell r="V254">
-            <v>2</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="255">
           <cell r="A255">
-            <v>55000269</v>
+            <v>55000268</v>
           </cell>
           <cell r="V255">
-            <v>3</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="256">
           <cell r="A256">
-            <v>55000270</v>
+            <v>55000269</v>
           </cell>
           <cell r="V256">
-            <v>0</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="257">
           <cell r="A257">
-            <v>55000271</v>
+            <v>55000270</v>
           </cell>
           <cell r="V257">
-            <v>2</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="258">
           <cell r="A258">
-            <v>55000272</v>
+            <v>55000271</v>
           </cell>
           <cell r="V258">
-            <v>25</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="259">
           <cell r="A259">
-            <v>55000273</v>
+            <v>55000272</v>
           </cell>
           <cell r="V259">
-            <v>4</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="260">
           <cell r="A260">
-            <v>55000274</v>
+            <v>55000273</v>
           </cell>
           <cell r="V260">
-            <v>0</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="261">
           <cell r="A261">
-            <v>55000275</v>
+            <v>55000274</v>
           </cell>
           <cell r="V261">
-            <v>2</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="262">
           <cell r="A262">
-            <v>55000276</v>
+            <v>55000275</v>
           </cell>
           <cell r="V262">
-            <v>30</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="263">
           <cell r="A263">
-            <v>55000277</v>
+            <v>55000276</v>
           </cell>
           <cell r="V263">
-            <v>1</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="264">
           <cell r="A264">
-            <v>55000278</v>
+            <v>55000277</v>
           </cell>
           <cell r="V264">
-            <v>9</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="265">
           <cell r="A265">
-            <v>55000279</v>
+            <v>55000278</v>
           </cell>
           <cell r="V265">
-            <v>8</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="266">
           <cell r="A266">
-            <v>55000280</v>
+            <v>55000279</v>
           </cell>
           <cell r="V266">
-            <v>2</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="267">
           <cell r="A267">
-            <v>55000281</v>
+            <v>55000280</v>
           </cell>
           <cell r="V267">
-            <v>15</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="268">
           <cell r="A268">
-            <v>55000282</v>
+            <v>55000281</v>
           </cell>
           <cell r="V268">
-            <v>1</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="269">
           <cell r="A269">
-            <v>55000284</v>
+            <v>55000282</v>
           </cell>
           <cell r="V269">
-            <v>6</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="270">
           <cell r="A270">
-            <v>55000285</v>
+            <v>55000284</v>
           </cell>
           <cell r="V270">
-            <v>4</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="271">
           <cell r="A271">
-            <v>55000286</v>
+            <v>55000285</v>
           </cell>
           <cell r="V271">
-            <v>3</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="272">
           <cell r="A272">
-            <v>55000287</v>
+            <v>55000286</v>
           </cell>
           <cell r="V272">
             <v>3</v>
@@ -12848,87 +12910,87 @@
         </row>
         <row r="273">
           <cell r="A273">
-            <v>55000288</v>
+            <v>55000287</v>
           </cell>
           <cell r="V273">
-            <v>1</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="274">
           <cell r="A274">
-            <v>55000289</v>
+            <v>55000288</v>
           </cell>
           <cell r="V274">
-            <v>8</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="275">
           <cell r="A275">
-            <v>55000290</v>
+            <v>55000289</v>
           </cell>
           <cell r="V275">
-            <v>6</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="276">
           <cell r="A276">
-            <v>55000291</v>
+            <v>55000290</v>
           </cell>
           <cell r="V276">
-            <v>4</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="277">
           <cell r="A277">
-            <v>55000292</v>
+            <v>55000291</v>
           </cell>
           <cell r="V277">
-            <v>9</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="278">
           <cell r="A278">
-            <v>55000293</v>
+            <v>55000292</v>
           </cell>
           <cell r="V278">
-            <v>1</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="279">
           <cell r="A279">
-            <v>55000294</v>
+            <v>55000293</v>
           </cell>
           <cell r="V279">
-            <v>3</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="280">
           <cell r="A280">
-            <v>55000295</v>
+            <v>55000294</v>
           </cell>
           <cell r="V280">
-            <v>4</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="281">
           <cell r="A281">
-            <v>55000296</v>
+            <v>55000295</v>
           </cell>
           <cell r="V281">
-            <v>3</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="282">
           <cell r="A282">
-            <v>55000297</v>
+            <v>55000296</v>
           </cell>
           <cell r="V282">
-            <v>2</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="283">
           <cell r="A283">
-            <v>55000298</v>
+            <v>55000297</v>
           </cell>
           <cell r="V283">
             <v>2</v>
@@ -12936,31 +12998,31 @@
         </row>
         <row r="284">
           <cell r="A284">
-            <v>55000299</v>
+            <v>55000298</v>
           </cell>
           <cell r="V284">
-            <v>3</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="285">
           <cell r="A285">
-            <v>55000300</v>
+            <v>55000299</v>
           </cell>
           <cell r="V285">
-            <v>80</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="286">
           <cell r="A286">
-            <v>55000324</v>
+            <v>55000300</v>
           </cell>
           <cell r="V286">
-            <v>5</v>
+            <v>80</v>
           </cell>
         </row>
         <row r="287">
           <cell r="A287">
-            <v>55000325</v>
+            <v>55000324</v>
           </cell>
           <cell r="V287">
             <v>5</v>
@@ -12968,63 +13030,63 @@
         </row>
         <row r="288">
           <cell r="A288">
-            <v>55000326</v>
+            <v>55000325</v>
           </cell>
           <cell r="V288">
-            <v>10</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="289">
           <cell r="A289">
-            <v>55000327</v>
+            <v>55000326</v>
           </cell>
           <cell r="V289">
-            <v>8</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="290">
           <cell r="A290">
-            <v>55000328</v>
+            <v>55000327</v>
           </cell>
           <cell r="V290">
-            <v>7</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="291">
           <cell r="A291">
-            <v>55000329</v>
+            <v>55000328</v>
           </cell>
           <cell r="V291">
-            <v>6</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="292">
           <cell r="A292">
-            <v>55000330</v>
+            <v>55000329</v>
           </cell>
           <cell r="V292">
-            <v>4</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="293">
           <cell r="A293">
-            <v>55000331</v>
+            <v>55000330</v>
           </cell>
           <cell r="V293">
-            <v>6</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="294">
           <cell r="A294">
-            <v>55000332</v>
+            <v>55000331</v>
           </cell>
           <cell r="V294">
-            <v>0</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="295">
           <cell r="A295">
-            <v>55000333</v>
+            <v>55000332</v>
           </cell>
           <cell r="V295">
             <v>0</v>
@@ -13032,65 +13094,73 @@
         </row>
         <row r="296">
           <cell r="A296">
-            <v>55000334</v>
+            <v>55000333</v>
           </cell>
           <cell r="V296">
-            <v>2</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="297">
           <cell r="A297">
-            <v>55000335</v>
+            <v>55000334</v>
           </cell>
           <cell r="V297">
-            <v>15</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="298">
           <cell r="A298">
-            <v>55000340</v>
+            <v>55000335</v>
           </cell>
           <cell r="V298">
-            <v>2</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="299">
           <cell r="A299">
-            <v>55000341</v>
+            <v>55000340</v>
           </cell>
           <cell r="V299">
-            <v>8</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="300">
           <cell r="A300">
-            <v>55000342</v>
+            <v>55000341</v>
           </cell>
           <cell r="V300">
-            <v>4</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="301">
           <cell r="A301">
+            <v>55000342</v>
+          </cell>
+          <cell r="V301">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="302">
+          <cell r="A302">
             <v>55000343</v>
           </cell>
-          <cell r="V301">
+          <cell r="V302">
             <v>6</v>
           </cell>
         </row>
-        <row r="302">
-          <cell r="A302" t="str">
+        <row r="303">
+          <cell r="A303" t="str">
             <v>55000060|FightQuick</v>
           </cell>
-          <cell r="V302">
+          <cell r="V303">
             <v>1</v>
           </cell>
         </row>
-        <row r="303">
-          <cell r="A303">
+        <row r="304">
+          <cell r="A304">
             <v>55000344</v>
           </cell>
-          <cell r="V303">
+          <cell r="V304">
             <v>40</v>
           </cell>
         </row>
@@ -22030,7 +22100,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="27">
     <pivotField dataField="1" showAll="0"/>
@@ -22128,173 +22198,173 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:BF313" totalsRowShown="0" headerRowDxfId="131" dataDxfId="130" tableBorderDxfId="129">
-  <autoFilter ref="A3:BF313"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:BF314" totalsRowShown="0" headerRowDxfId="136" dataDxfId="135" tableBorderDxfId="134">
+  <autoFilter ref="A3:BF314"/>
   <sortState ref="A4:AF311">
     <sortCondition ref="A3:A311"/>
   </sortState>
   <tableColumns count="58">
-    <tableColumn id="1" name="Id" dataDxfId="128"/>
-    <tableColumn id="2" name="Name" dataDxfId="127"/>
-    <tableColumn id="22" name="Ename" dataDxfId="126"/>
-    <tableColumn id="23" name="EnameShort" dataDxfId="125"/>
-    <tableColumn id="3" name="Star" dataDxfId="124"/>
-    <tableColumn id="4" name="Type" dataDxfId="123"/>
-    <tableColumn id="5" name="Attr" dataDxfId="122"/>
-    <tableColumn id="58" name="Quality" dataDxfId="121">
+    <tableColumn id="1" name="Id" dataDxfId="133"/>
+    <tableColumn id="2" name="Name" dataDxfId="132"/>
+    <tableColumn id="22" name="Ename" dataDxfId="131"/>
+    <tableColumn id="23" name="EnameShort" dataDxfId="130"/>
+    <tableColumn id="3" name="Star" dataDxfId="129"/>
+    <tableColumn id="4" name="Type" dataDxfId="128"/>
+    <tableColumn id="5" name="Attr" dataDxfId="127"/>
+    <tableColumn id="58" name="Quality" dataDxfId="126">
       <calculatedColumnFormula>IF(T4&gt;10,5,IF(T4&gt;5,4,IF(T4&gt;2.5,3,IF(T4&gt;0,2,IF(T4&gt;-2.5,1,IF(T4&gt;-10,0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Cost" dataDxfId="120"/>
-    <tableColumn id="6" name="AtkP" dataDxfId="119"/>
-    <tableColumn id="24" name="VitP" dataDxfId="118"/>
-    <tableColumn id="25" name="Modify" dataDxfId="117"/>
-    <tableColumn id="9" name="Def" dataDxfId="116"/>
-    <tableColumn id="10" name="Mag" dataDxfId="115"/>
-    <tableColumn id="32" name="Spd" dataDxfId="114"/>
-    <tableColumn id="35" name="Hit" dataDxfId="113"/>
-    <tableColumn id="36" name="Dhit" dataDxfId="112"/>
-    <tableColumn id="34" name="Crt" dataDxfId="111"/>
-    <tableColumn id="33" name="Luk" dataDxfId="110"/>
-    <tableColumn id="7" name="Sum" dataDxfId="109">
+    <tableColumn id="12" name="Cost" dataDxfId="125"/>
+    <tableColumn id="6" name="AtkP" dataDxfId="124"/>
+    <tableColumn id="24" name="VitP" dataDxfId="123"/>
+    <tableColumn id="25" name="Modify" dataDxfId="122"/>
+    <tableColumn id="9" name="Def" dataDxfId="121"/>
+    <tableColumn id="10" name="Mag" dataDxfId="120"/>
+    <tableColumn id="32" name="Spd" dataDxfId="119"/>
+    <tableColumn id="35" name="Hit" dataDxfId="118"/>
+    <tableColumn id="36" name="Dhit" dataDxfId="117"/>
+    <tableColumn id="34" name="Crt" dataDxfId="116"/>
+    <tableColumn id="33" name="Luk" dataDxfId="115"/>
+    <tableColumn id="7" name="Sum" dataDxfId="114">
       <calculatedColumnFormula>SUM(J4:K4)+SUM(M4:S4)*5+4.4*SUM(AO4:AW4)+2.5*SUM(AI4:AM4)+AH4+L4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Range" dataDxfId="108"/>
-    <tableColumn id="14" name="Mov" dataDxfId="107"/>
-    <tableColumn id="51" name="LifeRound" dataDxfId="106"/>
-    <tableColumn id="16" name="Arrow" dataDxfId="105"/>
-    <tableColumn id="18" name="Skills" dataDxfId="104"/>
-    <tableColumn id="42" name="~Skill1" dataDxfId="103"/>
-    <tableColumn id="43" name="~SkillRate1" dataDxfId="102"/>
-    <tableColumn id="44" name="~Skill2" dataDxfId="101"/>
-    <tableColumn id="45" name="~SkillRate2" dataDxfId="100"/>
-    <tableColumn id="46" name="~Skill3" dataDxfId="99"/>
-    <tableColumn id="47" name="~SkillRate3" dataDxfId="98"/>
-    <tableColumn id="48" name="~Skill4" dataDxfId="97"/>
-    <tableColumn id="49" name="~SkillRate4" dataDxfId="96"/>
-    <tableColumn id="54" name="~SkillMark" dataDxfId="95">
+    <tableColumn id="13" name="Range" dataDxfId="113"/>
+    <tableColumn id="14" name="Mov" dataDxfId="112"/>
+    <tableColumn id="51" name="LifeRound" dataDxfId="111"/>
+    <tableColumn id="16" name="Arrow" dataDxfId="110"/>
+    <tableColumn id="18" name="Skills" dataDxfId="109"/>
+    <tableColumn id="42" name="~Skill1" dataDxfId="108"/>
+    <tableColumn id="43" name="~SkillRate1" dataDxfId="107"/>
+    <tableColumn id="44" name="~Skill2" dataDxfId="106"/>
+    <tableColumn id="45" name="~SkillRate2" dataDxfId="105"/>
+    <tableColumn id="46" name="~Skill3" dataDxfId="104"/>
+    <tableColumn id="47" name="~SkillRate3" dataDxfId="103"/>
+    <tableColumn id="48" name="~Skill4" dataDxfId="102"/>
+    <tableColumn id="49" name="~SkillRate4" dataDxfId="101"/>
+    <tableColumn id="54" name="~SkillMark" dataDxfId="100">
       <calculatedColumnFormula>IF(ISBLANK($Z4),0, LOOKUP($Z4,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AA4/100)+
 IF(ISBLANK($AB4),0, LOOKUP($AB4,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC4/100)+
 IF(ISBLANK($AD4),0, LOOKUP($AD4,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE4/100)+
 IF(ISBLANK($AF4),0, LOOKUP($AF4,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG4/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="52" name="~AntiLife" dataDxfId="94"/>
-    <tableColumn id="57" name="~AntiMental" dataDxfId="93"/>
-    <tableColumn id="56" name="~AntiPhysical" dataDxfId="92"/>
-    <tableColumn id="55" name="~AntiElement" dataDxfId="91"/>
-    <tableColumn id="53" name="~AntiHelp" dataDxfId="90"/>
-    <tableColumn id="30" name="BuffImmune" dataDxfId="89">
+    <tableColumn id="52" name="~AntiLife" dataDxfId="99"/>
+    <tableColumn id="57" name="~AntiMental" dataDxfId="98"/>
+    <tableColumn id="56" name="~AntiPhysical" dataDxfId="97"/>
+    <tableColumn id="55" name="~AntiElement" dataDxfId="96"/>
+    <tableColumn id="53" name="~AntiHelp" dataDxfId="95"/>
+    <tableColumn id="30" name="BuffImmune" dataDxfId="94">
       <calculatedColumnFormula>CONCATENATE(AI4,";",AJ4,";",AK4,";",AL4,";",AM4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="~AntiNull" dataDxfId="88"/>
-    <tableColumn id="11" name="~AntiWater" dataDxfId="87"/>
-    <tableColumn id="26" name="~AntiWind" dataDxfId="86"/>
-    <tableColumn id="27" name="~AntiFire" dataDxfId="85"/>
-    <tableColumn id="37" name="~AntiEarth" dataDxfId="84"/>
-    <tableColumn id="38" name="~AntiIce" dataDxfId="83"/>
-    <tableColumn id="39" name="~AntiThunder" dataDxfId="82"/>
-    <tableColumn id="40" name="~AntiLight" dataDxfId="81"/>
-    <tableColumn id="41" name="~AntiDark" dataDxfId="80"/>
-    <tableColumn id="31" name="AttrDef" dataDxfId="79">
+    <tableColumn id="8" name="~AntiNull" dataDxfId="93"/>
+    <tableColumn id="11" name="~AntiWater" dataDxfId="92"/>
+    <tableColumn id="26" name="~AntiWind" dataDxfId="91"/>
+    <tableColumn id="27" name="~AntiFire" dataDxfId="90"/>
+    <tableColumn id="37" name="~AntiEarth" dataDxfId="89"/>
+    <tableColumn id="38" name="~AntiIce" dataDxfId="88"/>
+    <tableColumn id="39" name="~AntiThunder" dataDxfId="87"/>
+    <tableColumn id="40" name="~AntiLight" dataDxfId="86"/>
+    <tableColumn id="41" name="~AntiDark" dataDxfId="85"/>
+    <tableColumn id="31" name="AttrDef" dataDxfId="84">
       <calculatedColumnFormula>CONCATENATE(AO4,";",AP4,";",AQ4,";",AR4,";",AS4,";",AT4,";",AU4,";",AV4,";",AW4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="50" name="IsBuilding" dataDxfId="78"/>
-    <tableColumn id="20" name="Res" dataDxfId="77"/>
-    <tableColumn id="21" name="Icon" dataDxfId="76"/>
-    <tableColumn id="17" name="Cover" dataDxfId="75"/>
-    <tableColumn id="15" name="IsSpecial" dataDxfId="74"/>
-    <tableColumn id="28" name="IsNew" dataDxfId="73"/>
-    <tableColumn id="19" name="VsMark" dataDxfId="72"/>
-    <tableColumn id="29" name="Remark" dataDxfId="71"/>
+    <tableColumn id="50" name="IsBuilding" dataDxfId="83"/>
+    <tableColumn id="20" name="Res" dataDxfId="82"/>
+    <tableColumn id="21" name="Icon" dataDxfId="81"/>
+    <tableColumn id="17" name="Cover" dataDxfId="80"/>
+    <tableColumn id="15" name="IsSpecial" dataDxfId="79"/>
+    <tableColumn id="28" name="IsNew" dataDxfId="78"/>
+    <tableColumn id="19" name="VsMark" dataDxfId="77"/>
+    <tableColumn id="29" name="Remark" dataDxfId="76"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表1_5" displayName="表1_5" ref="A3:BF11" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60" tableBorderDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表1_5" displayName="表1_5" ref="A3:BF11" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65" tableBorderDxfId="64">
   <autoFilter ref="A3:BF11"/>
   <sortState ref="A4:AF311">
     <sortCondition ref="A3:A311"/>
   </sortState>
   <tableColumns count="58">
-    <tableColumn id="1" name="Id" dataDxfId="58"/>
-    <tableColumn id="2" name="Name" dataDxfId="57"/>
-    <tableColumn id="22" name="Ename" dataDxfId="56"/>
-    <tableColumn id="23" name="EnameShort" dataDxfId="55"/>
-    <tableColumn id="3" name="Star" dataDxfId="54"/>
-    <tableColumn id="4" name="Type" dataDxfId="53"/>
-    <tableColumn id="5" name="Attr" dataDxfId="52"/>
-    <tableColumn id="58" name="Quality" dataDxfId="51">
+    <tableColumn id="1" name="Id" dataDxfId="63"/>
+    <tableColumn id="2" name="Name" dataDxfId="62"/>
+    <tableColumn id="22" name="Ename" dataDxfId="61"/>
+    <tableColumn id="23" name="EnameShort" dataDxfId="60"/>
+    <tableColumn id="3" name="Star" dataDxfId="59"/>
+    <tableColumn id="4" name="Type" dataDxfId="58"/>
+    <tableColumn id="5" name="Attr" dataDxfId="57"/>
+    <tableColumn id="58" name="Quality" dataDxfId="56">
       <calculatedColumnFormula>IF(T4&gt;10,5,IF(T4&gt;5,4,IF(T4&gt;2.5,3,IF(T4&gt;0,2,IF(T4&gt;-2.5,1,IF(T4&gt;-10,0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Cost" dataDxfId="50"/>
-    <tableColumn id="6" name="AtkP" dataDxfId="49"/>
-    <tableColumn id="24" name="VitP" dataDxfId="48"/>
-    <tableColumn id="25" name="Modify" dataDxfId="47"/>
-    <tableColumn id="9" name="Def" dataDxfId="46"/>
-    <tableColumn id="10" name="Mag" dataDxfId="45"/>
-    <tableColumn id="32" name="Spd" dataDxfId="44"/>
-    <tableColumn id="35" name="Hit" dataDxfId="43"/>
-    <tableColumn id="36" name="Dhit" dataDxfId="42"/>
-    <tableColumn id="34" name="Crt" dataDxfId="41"/>
-    <tableColumn id="33" name="Luk" dataDxfId="40"/>
-    <tableColumn id="7" name="Sum" dataDxfId="39">
+    <tableColumn id="12" name="Cost" dataDxfId="55"/>
+    <tableColumn id="6" name="AtkP" dataDxfId="54"/>
+    <tableColumn id="24" name="VitP" dataDxfId="53"/>
+    <tableColumn id="25" name="Modify" dataDxfId="52"/>
+    <tableColumn id="9" name="Def" dataDxfId="51"/>
+    <tableColumn id="10" name="Mag" dataDxfId="50"/>
+    <tableColumn id="32" name="Spd" dataDxfId="49"/>
+    <tableColumn id="35" name="Hit" dataDxfId="48"/>
+    <tableColumn id="36" name="Dhit" dataDxfId="47"/>
+    <tableColumn id="34" name="Crt" dataDxfId="46"/>
+    <tableColumn id="33" name="Luk" dataDxfId="45"/>
+    <tableColumn id="7" name="Sum" dataDxfId="44">
       <calculatedColumnFormula>SUM(J4:K4)+SUM(M4:S4)*5+4.4*SUM(AO4:AW4)+2.5*SUM(AI4:AM4)+AH4+L4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Range" dataDxfId="38"/>
-    <tableColumn id="14" name="Mov" dataDxfId="37"/>
-    <tableColumn id="60" name="LifeRound" dataDxfId="36"/>
-    <tableColumn id="16" name="Arrow" dataDxfId="35"/>
-    <tableColumn id="18" name="Skills" dataDxfId="34"/>
-    <tableColumn id="42" name="~Skill1" dataDxfId="33"/>
-    <tableColumn id="43" name="~SkillRate1" dataDxfId="32"/>
-    <tableColumn id="44" name="~Skill2" dataDxfId="31"/>
-    <tableColumn id="45" name="~SkillRate2" dataDxfId="30"/>
-    <tableColumn id="46" name="~Skill3" dataDxfId="29"/>
-    <tableColumn id="47" name="~SkillRate3" dataDxfId="28"/>
-    <tableColumn id="48" name="~Skill4" dataDxfId="27"/>
-    <tableColumn id="49" name="~SkillRate4" dataDxfId="26"/>
-    <tableColumn id="54" name="~SkillMark" dataDxfId="25">
+    <tableColumn id="13" name="Range" dataDxfId="43"/>
+    <tableColumn id="14" name="Mov" dataDxfId="42"/>
+    <tableColumn id="60" name="LifeRound" dataDxfId="41"/>
+    <tableColumn id="16" name="Arrow" dataDxfId="40"/>
+    <tableColumn id="18" name="Skills" dataDxfId="39"/>
+    <tableColumn id="42" name="~Skill1" dataDxfId="38"/>
+    <tableColumn id="43" name="~SkillRate1" dataDxfId="37"/>
+    <tableColumn id="44" name="~Skill2" dataDxfId="36"/>
+    <tableColumn id="45" name="~SkillRate2" dataDxfId="35"/>
+    <tableColumn id="46" name="~Skill3" dataDxfId="34"/>
+    <tableColumn id="47" name="~SkillRate3" dataDxfId="33"/>
+    <tableColumn id="48" name="~Skill4" dataDxfId="32"/>
+    <tableColumn id="49" name="~SkillRate4" dataDxfId="31"/>
+    <tableColumn id="54" name="~SkillMark" dataDxfId="30">
       <calculatedColumnFormula>IF(ISBLANK($Z4),0, LOOKUP($Z4,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AA4/100)+
 IF(ISBLANK($AB4),0, LOOKUP($AB4,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC4/100)+
 IF(ISBLANK($AD4),0, LOOKUP($AD4,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE4/100)+
 IF(ISBLANK($AF4),0, LOOKUP($AF4,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG4/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="52" name="~AntiLife" dataDxfId="24"/>
-    <tableColumn id="57" name="~AntiMental" dataDxfId="23"/>
-    <tableColumn id="56" name="~AntiPhysical" dataDxfId="22"/>
-    <tableColumn id="55" name="~AntiElement" dataDxfId="21"/>
-    <tableColumn id="53" name="~AntiHelp" dataDxfId="20"/>
-    <tableColumn id="30" name="BuffImmune" dataDxfId="19">
+    <tableColumn id="52" name="~AntiLife" dataDxfId="29"/>
+    <tableColumn id="57" name="~AntiMental" dataDxfId="28"/>
+    <tableColumn id="56" name="~AntiPhysical" dataDxfId="27"/>
+    <tableColumn id="55" name="~AntiElement" dataDxfId="26"/>
+    <tableColumn id="53" name="~AntiHelp" dataDxfId="25"/>
+    <tableColumn id="30" name="BuffImmune" dataDxfId="24">
       <calculatedColumnFormula>CONCATENATE(AI4,";",AJ4,";",AK4,";",AL4,";",AM4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="~AntiNull" dataDxfId="18"/>
-    <tableColumn id="11" name="~AntiWater" dataDxfId="17"/>
-    <tableColumn id="26" name="~AntiWind" dataDxfId="16"/>
-    <tableColumn id="27" name="~AntiFire" dataDxfId="15"/>
-    <tableColumn id="37" name="~AntiEarth" dataDxfId="14"/>
-    <tableColumn id="38" name="~AntiIce" dataDxfId="13"/>
-    <tableColumn id="39" name="~AntiThunder" dataDxfId="12"/>
-    <tableColumn id="40" name="~AntiLight" dataDxfId="11"/>
-    <tableColumn id="41" name="~AntiDark" dataDxfId="10"/>
-    <tableColumn id="31" name="AttrDef" dataDxfId="9">
+    <tableColumn id="8" name="~AntiNull" dataDxfId="23"/>
+    <tableColumn id="11" name="~AntiWater" dataDxfId="22"/>
+    <tableColumn id="26" name="~AntiWind" dataDxfId="21"/>
+    <tableColumn id="27" name="~AntiFire" dataDxfId="20"/>
+    <tableColumn id="37" name="~AntiEarth" dataDxfId="19"/>
+    <tableColumn id="38" name="~AntiIce" dataDxfId="18"/>
+    <tableColumn id="39" name="~AntiThunder" dataDxfId="17"/>
+    <tableColumn id="40" name="~AntiLight" dataDxfId="16"/>
+    <tableColumn id="41" name="~AntiDark" dataDxfId="15"/>
+    <tableColumn id="31" name="AttrDef" dataDxfId="14">
       <calculatedColumnFormula>CONCATENATE(AO4,";",AP4,";",AQ4,";",AR4,";",AS4,";",AT4,";",AU4,";",AV4,";",AW4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="59" name="IsBuilding" dataDxfId="8"/>
-    <tableColumn id="20" name="Res" dataDxfId="7"/>
-    <tableColumn id="21" name="Icon" dataDxfId="6"/>
-    <tableColumn id="17" name="Cover" dataDxfId="5"/>
-    <tableColumn id="15" name="IsSpecial" dataDxfId="4"/>
-    <tableColumn id="28" name="IsNew" dataDxfId="3"/>
-    <tableColumn id="19" name="VsMark" dataDxfId="2"/>
-    <tableColumn id="29" name="Remark" dataDxfId="1"/>
+    <tableColumn id="59" name="IsBuilding" dataDxfId="13"/>
+    <tableColumn id="20" name="Res" dataDxfId="12"/>
+    <tableColumn id="21" name="Icon" dataDxfId="11"/>
+    <tableColumn id="17" name="Cover" dataDxfId="10"/>
+    <tableColumn id="15" name="IsSpecial" dataDxfId="9"/>
+    <tableColumn id="28" name="IsNew" dataDxfId="8"/>
+    <tableColumn id="19" name="VsMark" dataDxfId="7"/>
+    <tableColumn id="29" name="Remark" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:I15" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:I15" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A1:I15"/>
   <tableColumns count="9">
     <tableColumn id="1" name="星级"/>
@@ -22598,13 +22668,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BF313"/>
+  <dimension ref="A1:BF314"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B79" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B299" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I85" sqref="I85"/>
+      <selection pane="bottomRight" activeCell="X314" sqref="X314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -27718,7 +27788,7 @@
       </c>
       <c r="H31" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I31" s="4">
         <v>3</v>
@@ -27755,7 +27825,7 @@
       </c>
       <c r="T31" s="15">
         <f t="shared" si="1"/>
-        <v>-11</v>
+        <v>9</v>
       </c>
       <c r="U31" s="4">
         <v>10</v>
@@ -27793,7 +27863,7 @@
 IF(ISBLANK($AB31),0, LOOKUP($AB31,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC31/100)+
 IF(ISBLANK($AD31),0, LOOKUP($AD31,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE31/100)+
 IF(ISBLANK($AF31),0, LOOKUP($AF31,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG31/100)</f>
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="AI31" s="21">
         <v>0</v>
@@ -27929,7 +27999,7 @@
       </c>
       <c r="T32" s="15">
         <f t="shared" si="1"/>
-        <v>53.4</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="U32" s="4">
         <v>10</v>
@@ -27971,7 +28041,7 @@
 IF(ISBLANK($AB32),0, LOOKUP($AB32,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC32/100)+
 IF(ISBLANK($AD32),0, LOOKUP($AD32,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE32/100)+
 IF(ISBLANK($AF32),0, LOOKUP($AF32,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG32/100)</f>
-        <v>46.4</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="AI32" s="21">
         <v>0</v>
@@ -34196,7 +34266,7 @@
       </c>
       <c r="H69" s="4">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I69" s="4">
         <v>6</v>
@@ -34233,7 +34303,7 @@
       </c>
       <c r="T69" s="15">
         <f t="shared" si="5"/>
-        <v>9.7200000000000006</v>
+        <v>29.72</v>
       </c>
       <c r="U69" s="4">
         <v>10</v>
@@ -34275,7 +34345,7 @@
 IF(ISBLANK($AB69),0, LOOKUP($AB69,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC69/100)+
 IF(ISBLANK($AD69),0, LOOKUP($AD69,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE69/100)+
 IF(ISBLANK($AF69),0, LOOKUP($AF69,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG69/100)</f>
-        <v>6.4</v>
+        <v>26.4</v>
       </c>
       <c r="AI69" s="21">
         <v>0</v>
@@ -34937,7 +35007,7 @@
       </c>
       <c r="T73" s="15">
         <f t="shared" si="5"/>
-        <v>32.5</v>
+        <v>52.5</v>
       </c>
       <c r="U73" s="4">
         <v>40</v>
@@ -34975,7 +35045,7 @@
 IF(ISBLANK($AB73),0, LOOKUP($AB73,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC73/100)+
 IF(ISBLANK($AD73),0, LOOKUP($AD73,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE73/100)+
 IF(ISBLANK($AF73),0, LOOKUP($AF73,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG73/100)</f>
-        <v>5.5</v>
+        <v>25.5</v>
       </c>
       <c r="AI73" s="21">
         <v>0</v>
@@ -56974,7 +57044,7 @@
       </c>
       <c r="H200" s="4">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I200" s="4">
         <v>5</v>
@@ -57011,7 +57081,7 @@
       </c>
       <c r="T200" s="15">
         <f t="shared" si="13"/>
-        <v>-13</v>
+        <v>7</v>
       </c>
       <c r="U200" s="4">
         <v>10</v>
@@ -57053,7 +57123,7 @@
 IF(ISBLANK($AB200),0, LOOKUP($AB200,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC200/100)+
 IF(ISBLANK($AD200),0, LOOKUP($AD200,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE200/100)+
 IF(ISBLANK($AF200),0, LOOKUP($AF200,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG200/100)</f>
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="AI200" s="21">
         <v>0</v>
@@ -59271,7 +59341,7 @@
         <v>0</v>
       </c>
       <c r="X213" s="4" t="s">
-        <v>228</v>
+        <v>1435</v>
       </c>
       <c r="Y213" s="4" t="s">
         <v>1366</v>
@@ -63407,7 +63477,7 @@
       </c>
       <c r="T237" s="15">
         <f t="shared" si="13"/>
-        <v>61.5</v>
+        <v>81.5</v>
       </c>
       <c r="U237" s="4">
         <v>10</v>
@@ -63453,7 +63523,7 @@
 IF(ISBLANK($AB237),0, LOOKUP($AB237,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC237/100)+
 IF(ISBLANK($AD237),0, LOOKUP($AD237,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE237/100)+
 IF(ISBLANK($AF237),0, LOOKUP($AF237,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG237/100)</f>
-        <v>48.5</v>
+        <v>68.5</v>
       </c>
       <c r="AI237" s="21">
         <v>0</v>
@@ -76682,10 +76752,180 @@
         <v>1426</v>
       </c>
     </row>
+    <row r="314" spans="1:58" ht="14.25">
+      <c r="A314">
+        <v>51000311</v>
+      </c>
+      <c r="B314" s="11" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C314" s="11" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D314" s="8" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E314" s="11">
+        <v>4</v>
+      </c>
+      <c r="F314" s="11">
+        <v>1</v>
+      </c>
+      <c r="G314" s="11">
+        <v>3</v>
+      </c>
+      <c r="H314" s="24">
+        <f t="shared" ref="H314" si="24">IF(T314&gt;10,5,IF(T314&gt;5,4,IF(T314&gt;2.5,3,IF(T314&gt;0,2,IF(T314&gt;-2.5,1,IF(T314&gt;-10,0,6))))))</f>
+        <v>4</v>
+      </c>
+      <c r="I314" s="11">
+        <v>4</v>
+      </c>
+      <c r="J314" s="11">
+        <v>-3</v>
+      </c>
+      <c r="K314" s="11">
+        <v>3</v>
+      </c>
+      <c r="L314" s="11">
+        <v>-17</v>
+      </c>
+      <c r="M314" s="11">
+        <v>0</v>
+      </c>
+      <c r="N314" s="11">
+        <v>0</v>
+      </c>
+      <c r="O314" s="11">
+        <v>0</v>
+      </c>
+      <c r="P314" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q314" s="11">
+        <v>0</v>
+      </c>
+      <c r="R314" s="11">
+        <v>0</v>
+      </c>
+      <c r="S314" s="11">
+        <v>0</v>
+      </c>
+      <c r="T314" s="24">
+        <f t="shared" ref="T314" si="25">SUM(J314:K314)+SUM(M314:S314)*5+4.4*SUM(AO314:AW314)+2.5*SUM(AI314:AM314)+AH314+L314</f>
+        <v>8</v>
+      </c>
+      <c r="U314" s="11">
+        <v>10</v>
+      </c>
+      <c r="V314" s="11">
+        <v>10</v>
+      </c>
+      <c r="W314" s="11">
+        <v>0</v>
+      </c>
+      <c r="X314" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y314" s="11" t="s">
+        <v>1434</v>
+      </c>
+      <c r="Z314" s="21">
+        <v>55000052</v>
+      </c>
+      <c r="AA314" s="21">
+        <v>100</v>
+      </c>
+      <c r="AB314" s="21"/>
+      <c r="AC314" s="21"/>
+      <c r="AD314" s="21"/>
+      <c r="AE314" s="21"/>
+      <c r="AF314" s="21"/>
+      <c r="AG314" s="21"/>
+      <c r="AH314" s="21">
+        <f>IF(ISBLANK($Z314),0, LOOKUP($Z314,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AA314/100)+
+IF(ISBLANK($AB314),0, LOOKUP($AB314,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC314/100)+
+IF(ISBLANK($AD314),0, LOOKUP($AD314,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE314/100)+
+IF(ISBLANK($AF314),0, LOOKUP($AF314,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG314/100)</f>
+        <v>25</v>
+      </c>
+      <c r="AI314" s="21">
+        <v>0</v>
+      </c>
+      <c r="AJ314" s="21">
+        <v>0</v>
+      </c>
+      <c r="AK314" s="21">
+        <v>0</v>
+      </c>
+      <c r="AL314" s="21">
+        <v>0</v>
+      </c>
+      <c r="AM314" s="21">
+        <v>0</v>
+      </c>
+      <c r="AN314" s="11" t="str">
+        <f t="shared" ref="AN314" si="26">CONCATENATE(AI314,";",AJ314,";",AK314,";",AL314,";",AM314)</f>
+        <v>0;0;0;0;0</v>
+      </c>
+      <c r="AO314" s="21">
+        <v>0</v>
+      </c>
+      <c r="AP314" s="21">
+        <v>0</v>
+      </c>
+      <c r="AQ314" s="21">
+        <v>0</v>
+      </c>
+      <c r="AR314" s="21">
+        <v>0</v>
+      </c>
+      <c r="AS314" s="21">
+        <v>0</v>
+      </c>
+      <c r="AT314" s="21">
+        <v>0</v>
+      </c>
+      <c r="AU314" s="21">
+        <v>0</v>
+      </c>
+      <c r="AV314" s="21">
+        <v>0</v>
+      </c>
+      <c r="AW314" s="21">
+        <v>0</v>
+      </c>
+      <c r="AX314" s="11" t="str">
+        <f t="shared" ref="AX314" si="27">CONCATENATE(AO314,";",AP314,";",AQ314,";",AR314,";",AS314,";",AT314,";",AU314,";",AV314,";",AW314)</f>
+        <v>0;0;0;0;0;0;0;0;0</v>
+      </c>
+      <c r="AY314" s="57" t="s">
+        <v>1409</v>
+      </c>
+      <c r="AZ314" s="11">
+        <v>6</v>
+      </c>
+      <c r="BA314" s="11">
+        <v>311</v>
+      </c>
+      <c r="BB314" s="11"/>
+      <c r="BC314" s="24">
+        <v>0</v>
+      </c>
+      <c r="BD314" s="11">
+        <v>1</v>
+      </c>
+      <c r="BE314" s="11">
+        <v>0.49672129999999998</v>
+      </c>
+      <c r="BF314" s="11" t="s">
+        <v>1430</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="T4:T313">
-    <cfRule type="colorScale" priority="39">
+  <conditionalFormatting sqref="T4:T314">
+    <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -76696,21 +76936,50 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H313">
-    <cfRule type="cellIs" dxfId="136" priority="12" operator="equal">
+  <conditionalFormatting sqref="H4:H314">
+    <cfRule type="cellIs" dxfId="141" priority="18" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="19" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="20" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="21" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="7" operator="equal">
       <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T314">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H314">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+      <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -78600,31 +78869,31 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="K4:K7 K10:K11">
-    <cfRule type="cellIs" dxfId="70" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="75" priority="13" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="cellIs" dxfId="69" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="74" priority="12" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:J7">
-    <cfRule type="cellIs" dxfId="68" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="73" priority="11" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="67" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="72" priority="10" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="66" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="71" priority="9" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
@@ -78642,13 +78911,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="cellIs" dxfId="65" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="70" priority="5" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="cellIs" dxfId="64" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="69" priority="4" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
@@ -78666,13 +78935,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="cellIs" dxfId="63" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="68" priority="2" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="62" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="67" priority="1" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>

--- a/ConfigData/Xlsx/Monster.xlsx
+++ b/ConfigData/Xlsx/Monster.xlsx
@@ -13165,10 +13165,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -22671,10 +22671,10 @@
   <dimension ref="A1:BF314"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B299" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="AG302" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="X314" sqref="X314"/>
+      <selection pane="bottomRight" activeCell="BD309" sqref="BD309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -76075,7 +76075,7 @@
         <v>0</v>
       </c>
       <c r="BD309" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE309" s="30">
         <v>0.49672129999999998</v>

--- a/ConfigData/Xlsx/Monster.xlsx
+++ b/ConfigData/Xlsx/Monster.xlsx
@@ -22557,10 +22557,10 @@
   <dimension ref="A1:BD314"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B223" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="E227" sqref="E227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -28149,7 +28149,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="4">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G35" s="4">
         <v>5</v>
@@ -39431,7 +39431,7 @@
         <v>1</v>
       </c>
       <c r="F103" s="4">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G103" s="4">
         <v>0</v>
@@ -40095,7 +40095,7 @@
         <v>2</v>
       </c>
       <c r="F107" s="4">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G107" s="4">
         <v>4</v>
@@ -50507,7 +50507,7 @@
         <v>1</v>
       </c>
       <c r="F169" s="4">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G169" s="4">
         <v>0</v>
@@ -50671,7 +50671,7 @@
         <v>1</v>
       </c>
       <c r="F170" s="4">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G170" s="4">
         <v>2</v>
@@ -60749,7 +60749,7 @@
         <v>1</v>
       </c>
       <c r="F230" s="4">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G230" s="4">
         <v>0</v>
@@ -60913,7 +60913,7 @@
         <v>2</v>
       </c>
       <c r="F231" s="4">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G231" s="4">
         <v>0</v>
@@ -61077,7 +61077,7 @@
         <v>1</v>
       </c>
       <c r="F232" s="4">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G232" s="4">
         <v>0</v>

--- a/ConfigData/Xlsx/Monster.xlsx
+++ b/ConfigData/Xlsx/Monster.xlsx
@@ -701,7 +701,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2554" uniqueCount="1433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2554" uniqueCount="1434">
   <si>
     <t>arrow</t>
   </si>
@@ -5510,10 +5510,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>压制</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>洛欧塞布</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -5535,6 +5531,14 @@
   </si>
   <si>
     <t>AttrDef</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>过牌</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -11035,7 +11039,7 @@
             <v>55000064</v>
           </cell>
           <cell r="V52">
-            <v>5</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="53">
@@ -11587,7 +11591,7 @@
             <v>55000134</v>
           </cell>
           <cell r="V121">
-            <v>5</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="122">
@@ -11939,7 +11943,7 @@
             <v>55000178</v>
           </cell>
           <cell r="V165">
-            <v>5</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="166">
@@ -11947,7 +11951,7 @@
             <v>55000179</v>
           </cell>
           <cell r="V166">
-            <v>5</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="167">
@@ -12315,7 +12319,7 @@
             <v>55000225</v>
           </cell>
           <cell r="V212">
-            <v>5</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="213">
@@ -12323,7 +12327,7 @@
             <v>55000226</v>
           </cell>
           <cell r="V213">
-            <v>5</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="214">
@@ -22557,10 +22561,10 @@
   <dimension ref="A1:BD314"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B223" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E227" sqref="E227"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -28146,7 +28150,7 @@
         <v>905</v>
       </c>
       <c r="E35" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35" s="4">
         <v>16</v>
@@ -28156,16 +28160,16 @@
       </c>
       <c r="H35" s="4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I35" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J35" s="4">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="K35" s="4">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="L35" s="4">
         <v>0</v>
@@ -28193,7 +28197,7 @@
       </c>
       <c r="T35" s="15">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U35" s="4">
         <v>10</v>
@@ -28227,7 +28231,7 @@
 IF(ISBLANK($AB35),0, LOOKUP($AB35,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC35/100)+
 IF(ISBLANK($AD35),0, LOOKUP($AD35,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE35/100)+
 IF(ISBLANK($AF35),0, LOOKUP($AF35,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG35/100)</f>
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="AI35" s="21">
         <v>0</v>
@@ -28293,7 +28297,7 @@
         <v>5.0819669999999997E-2</v>
       </c>
       <c r="BD35" s="22" t="s">
-        <v>1172</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="36" spans="1:56" ht="14.25">
@@ -40102,19 +40106,19 @@
       </c>
       <c r="H107" s="4">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I107" s="4">
         <v>2</v>
       </c>
       <c r="J107" s="4">
-        <v>-13</v>
+        <v>-100</v>
       </c>
       <c r="K107" s="4">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="L107" s="4">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M107" s="4">
         <v>0</v>
@@ -40139,7 +40143,7 @@
       </c>
       <c r="T107" s="15">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>-5</v>
       </c>
       <c r="U107" s="4">
         <v>10</v>
@@ -40173,7 +40177,7 @@
 IF(ISBLANK($AB107),0, LOOKUP($AB107,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC107/100)+
 IF(ISBLANK($AD107),0, LOOKUP($AD107,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE107/100)+
 IF(ISBLANK($AF107),0, LOOKUP($AF107,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG107/100)</f>
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="AI107" s="21">
         <v>0</v>
@@ -40239,7 +40243,7 @@
         <v>5.2459020000000002E-2</v>
       </c>
       <c r="BD107" s="22" t="s">
-        <v>1172</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="108" spans="1:56" ht="14.25">
@@ -50504,7 +50508,7 @@
         <v>913</v>
       </c>
       <c r="E169" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F169" s="4">
         <v>16</v>
@@ -50514,16 +50518,16 @@
       </c>
       <c r="H169" s="4">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I169" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J169" s="4">
-        <v>-10</v>
+        <v>-100</v>
       </c>
       <c r="K169" s="4">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="L169" s="4">
         <v>0</v>
@@ -50551,7 +50555,7 @@
       </c>
       <c r="T169" s="15">
         <f t="shared" si="9"/>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="U169" s="4">
         <v>10</v>
@@ -50585,7 +50589,7 @@
 IF(ISBLANK($AB169),0, LOOKUP($AB169,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC169/100)+
 IF(ISBLANK($AD169),0, LOOKUP($AD169,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE169/100)+
 IF(ISBLANK($AF169),0, LOOKUP($AF169,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG169/100)</f>
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="AI169" s="21">
         <v>0</v>
@@ -50651,7 +50655,7 @@
         <v>5.7377049999999999E-2</v>
       </c>
       <c r="BD169" s="22" t="s">
-        <v>1172</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="170" spans="1:56" ht="14.25">
@@ -50668,7 +50672,7 @@
         <v>797</v>
       </c>
       <c r="E170" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F170" s="4">
         <v>16</v>
@@ -50678,16 +50682,16 @@
       </c>
       <c r="H170" s="4">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I170" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J170" s="4">
-        <v>-14</v>
+        <v>-100</v>
       </c>
       <c r="K170" s="4">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="L170" s="4">
         <v>0</v>
@@ -50715,7 +50719,7 @@
       </c>
       <c r="T170" s="15">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U170" s="4">
         <v>10</v>
@@ -50749,7 +50753,7 @@
 IF(ISBLANK($AB170),0, LOOKUP($AB170,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC170/100)+
 IF(ISBLANK($AD170),0, LOOKUP($AD170,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE170/100)+
 IF(ISBLANK($AF170),0, LOOKUP($AF170,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG170/100)</f>
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="AI170" s="21">
         <v>0</v>
@@ -50815,7 +50819,7 @@
         <v>4.0983609999999997E-2</v>
       </c>
       <c r="BD170" s="22" t="s">
-        <v>1172</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="171" spans="1:56" ht="14.25">
@@ -57955,7 +57959,7 @@
         <v>0</v>
       </c>
       <c r="X213" s="4" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="Y213" s="4" t="s">
         <v>1362</v>
@@ -60746,7 +60750,7 @@
         <v>834</v>
       </c>
       <c r="E230" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F230" s="4">
         <v>16</v>
@@ -60756,16 +60760,16 @@
       </c>
       <c r="H230" s="4">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I230" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J230" s="4">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K230" s="4">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="L230" s="4">
         <v>0</v>
@@ -60793,7 +60797,7 @@
       </c>
       <c r="T230" s="15">
         <f t="shared" si="13"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="U230" s="4">
         <v>10</v>
@@ -60827,7 +60831,7 @@
 IF(ISBLANK($AB230),0, LOOKUP($AB230,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC230/100)+
 IF(ISBLANK($AD230),0, LOOKUP($AD230,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE230/100)+
 IF(ISBLANK($AF230),0, LOOKUP($AF230,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG230/100)</f>
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="AI230" s="21">
         <v>0</v>
@@ -60893,7 +60897,7 @@
         <v>5.2459020000000002E-2</v>
       </c>
       <c r="BD230" s="22" t="s">
-        <v>1172</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="231" spans="1:56" ht="14.25">
@@ -60910,7 +60914,7 @@
         <v>939</v>
       </c>
       <c r="E231" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F231" s="4">
         <v>16</v>
@@ -60923,16 +60927,16 @@
         <v>1</v>
       </c>
       <c r="I231" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J231" s="4">
-        <v>-15</v>
+        <v>-100</v>
       </c>
       <c r="K231" s="4">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="L231" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M231" s="4">
         <v>0</v>
@@ -60991,7 +60995,7 @@
 IF(ISBLANK($AB231),0, LOOKUP($AB231,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC231/100)+
 IF(ISBLANK($AD231),0, LOOKUP($AD231,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE231/100)+
 IF(ISBLANK($AF231),0, LOOKUP($AF231,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG231/100)</f>
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="AI231" s="21">
         <v>0</v>
@@ -61057,7 +61061,7 @@
         <v>5.4098359999999998E-2</v>
       </c>
       <c r="BD231" s="22" t="s">
-        <v>1172</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="232" spans="1:56" ht="14.25">
@@ -61090,13 +61094,13 @@
         <v>1</v>
       </c>
       <c r="J232" s="4">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="K232" s="4">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="L232" s="4">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M232" s="4">
         <v>0</v>
@@ -61121,7 +61125,7 @@
       </c>
       <c r="T232" s="15">
         <f t="shared" si="13"/>
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="U232" s="4">
         <v>10</v>
@@ -74765,13 +74769,13 @@
         <v>51000311</v>
       </c>
       <c r="B314" s="11" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C314" s="11" t="s">
         <v>1427</v>
       </c>
-      <c r="C314" s="11" t="s">
+      <c r="D314" s="8" t="s">
         <v>1428</v>
-      </c>
-      <c r="D314" s="8" t="s">
-        <v>1429</v>
       </c>
       <c r="E314" s="11">
         <v>4</v>
@@ -74836,7 +74840,7 @@
         <v>228</v>
       </c>
       <c r="Y314" s="11" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="Z314" s="21">
         <v>55000052</v>
@@ -74921,7 +74925,7 @@
         <v>0.49672129999999998</v>
       </c>
       <c r="BD314" s="11" t="s">
-        <v>1426</v>
+        <v>1432</v>
       </c>
     </row>
   </sheetData>
@@ -75518,7 +75522,7 @@
         <v>1231</v>
       </c>
       <c r="AV3" s="42" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="AW3" s="14" t="s">
         <v>1404</v>

--- a/ConfigData/Xlsx/Monster.xlsx
+++ b/ConfigData/Xlsx/Monster.xlsx
@@ -23,7 +23,7 @@
   </externalReferences>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId7"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -6615,7 +6615,367 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="138">
+  <dxfs count="168">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -7718,34 +8078,6 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -9225,34 +9557,6 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -9463,82 +9767,6 @@
         <patternFill patternType="solid">
           <fgColor theme="4"/>
           <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -9839,11 +10067,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="839605296"/>
-        <c:axId val="839606384"/>
+        <c:axId val="1068423744"/>
+        <c:axId val="1068435168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="839605296"/>
+        <c:axId val="1068423744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9886,7 +10114,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="839606384"/>
+        <c:crossAx val="1068435168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9894,7 +10122,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="839606384"/>
+        <c:axId val="1068435168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9945,7 +10173,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="839605296"/>
+        <c:crossAx val="1068423744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21994,7 +22222,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="27">
     <pivotField dataField="1" showAll="0"/>
@@ -22092,169 +22320,169 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:BD314" totalsRowShown="0" headerRowDxfId="127" dataDxfId="126" tableBorderDxfId="125">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:BD314" totalsRowShown="0" headerRowDxfId="167" dataDxfId="166" tableBorderDxfId="165">
   <autoFilter ref="A3:BD314"/>
   <sortState ref="A4:AF311">
     <sortCondition ref="A3:A311"/>
   </sortState>
   <tableColumns count="56">
-    <tableColumn id="1" name="Id" dataDxfId="124"/>
-    <tableColumn id="2" name="Name" dataDxfId="123"/>
-    <tableColumn id="22" name="Ename" dataDxfId="122"/>
-    <tableColumn id="23" name="EnameShort" dataDxfId="121"/>
-    <tableColumn id="3" name="Star" dataDxfId="120"/>
-    <tableColumn id="4" name="Type" dataDxfId="119"/>
-    <tableColumn id="5" name="Attr" dataDxfId="118"/>
-    <tableColumn id="58" name="Quality" dataDxfId="117">
-      <calculatedColumnFormula>IF(T4&gt;10,5,IF(T4&gt;5,4,IF(T4&gt;2.5,3,IF(T4&gt;0,2,IF(T4&gt;-2.5,1,IF(T4&gt;-10,0,6))))))</calculatedColumnFormula>
+    <tableColumn id="1" name="Id" dataDxfId="164"/>
+    <tableColumn id="2" name="Name" dataDxfId="163"/>
+    <tableColumn id="22" name="Ename" dataDxfId="162"/>
+    <tableColumn id="23" name="EnameShort" dataDxfId="161"/>
+    <tableColumn id="3" name="Star" dataDxfId="160"/>
+    <tableColumn id="4" name="Type" dataDxfId="159"/>
+    <tableColumn id="5" name="Attr" dataDxfId="158"/>
+    <tableColumn id="58" name="Quality" dataDxfId="11">
+      <calculatedColumnFormula>IF(AND(T4&gt;=13,T4&lt;=16),5,IF(AND(T4&gt;=9,T4&lt;=12),4,IF(AND(T4&gt;=5,T4&lt;=8),3,IF(AND(T4&gt;=1,T4&lt;=4),2,IF(AND(T4&gt;=-3,T4&lt;=0),1,IF(AND(T4&gt;=-5,T4&lt;=-4),0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Cost" dataDxfId="116"/>
-    <tableColumn id="6" name="AtkP" dataDxfId="115"/>
-    <tableColumn id="24" name="VitP" dataDxfId="114"/>
-    <tableColumn id="25" name="Modify" dataDxfId="113"/>
-    <tableColumn id="9" name="Def" dataDxfId="112"/>
-    <tableColumn id="10" name="Mag" dataDxfId="111"/>
-    <tableColumn id="32" name="Spd" dataDxfId="110"/>
-    <tableColumn id="35" name="Hit" dataDxfId="109"/>
-    <tableColumn id="36" name="Dhit" dataDxfId="108"/>
-    <tableColumn id="34" name="Crt" dataDxfId="107"/>
-    <tableColumn id="33" name="Luk" dataDxfId="106"/>
-    <tableColumn id="7" name="Sum" dataDxfId="105">
+    <tableColumn id="12" name="Cost" dataDxfId="157"/>
+    <tableColumn id="6" name="AtkP" dataDxfId="156"/>
+    <tableColumn id="24" name="VitP" dataDxfId="155"/>
+    <tableColumn id="25" name="Modify" dataDxfId="154"/>
+    <tableColumn id="9" name="Def" dataDxfId="153"/>
+    <tableColumn id="10" name="Mag" dataDxfId="152"/>
+    <tableColumn id="32" name="Spd" dataDxfId="151"/>
+    <tableColumn id="35" name="Hit" dataDxfId="150"/>
+    <tableColumn id="36" name="Dhit" dataDxfId="149"/>
+    <tableColumn id="34" name="Crt" dataDxfId="148"/>
+    <tableColumn id="33" name="Luk" dataDxfId="147"/>
+    <tableColumn id="7" name="Sum" dataDxfId="146">
       <calculatedColumnFormula>SUM(J4:K4)+SUM(M4:S4)*5+4.4*SUM(AO4:AU4)+2.5*SUM(AI4:AM4)+AH4+L4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Range" dataDxfId="104"/>
-    <tableColumn id="14" name="Mov" dataDxfId="103"/>
-    <tableColumn id="51" name="LifeRound" dataDxfId="102"/>
-    <tableColumn id="16" name="Arrow" dataDxfId="101"/>
-    <tableColumn id="18" name="Skills" dataDxfId="100"/>
-    <tableColumn id="42" name="~Skill1" dataDxfId="99"/>
-    <tableColumn id="43" name="~SkillRate1" dataDxfId="98"/>
-    <tableColumn id="44" name="~Skill2" dataDxfId="97"/>
-    <tableColumn id="45" name="~SkillRate2" dataDxfId="96"/>
-    <tableColumn id="46" name="~Skill3" dataDxfId="95"/>
-    <tableColumn id="47" name="~SkillRate3" dataDxfId="94"/>
-    <tableColumn id="48" name="~Skill4" dataDxfId="93"/>
-    <tableColumn id="49" name="~SkillRate4" dataDxfId="92"/>
-    <tableColumn id="54" name="~SkillMark" dataDxfId="91">
+    <tableColumn id="13" name="Range" dataDxfId="145"/>
+    <tableColumn id="14" name="Mov" dataDxfId="144"/>
+    <tableColumn id="51" name="LifeRound" dataDxfId="143"/>
+    <tableColumn id="16" name="Arrow" dataDxfId="142"/>
+    <tableColumn id="18" name="Skills" dataDxfId="141"/>
+    <tableColumn id="42" name="~Skill1" dataDxfId="140"/>
+    <tableColumn id="43" name="~SkillRate1" dataDxfId="139"/>
+    <tableColumn id="44" name="~Skill2" dataDxfId="138"/>
+    <tableColumn id="45" name="~SkillRate2" dataDxfId="137"/>
+    <tableColumn id="46" name="~Skill3" dataDxfId="136"/>
+    <tableColumn id="47" name="~SkillRate3" dataDxfId="135"/>
+    <tableColumn id="48" name="~Skill4" dataDxfId="134"/>
+    <tableColumn id="49" name="~SkillRate4" dataDxfId="133"/>
+    <tableColumn id="54" name="~SkillMark" dataDxfId="132">
       <calculatedColumnFormula>IF(ISBLANK($Z4),0, LOOKUP($Z4,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AA4/100)+
 IF(ISBLANK($AB4),0, LOOKUP($AB4,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC4/100)+
 IF(ISBLANK($AD4),0, LOOKUP($AD4,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE4/100)+
 IF(ISBLANK($AF4),0, LOOKUP($AF4,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG4/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="52" name="~AntiLife" dataDxfId="90"/>
-    <tableColumn id="57" name="~AntiMental" dataDxfId="89"/>
-    <tableColumn id="56" name="~AntiPhysical" dataDxfId="88"/>
-    <tableColumn id="55" name="~AntiElement" dataDxfId="87"/>
-    <tableColumn id="53" name="~AntiHelp" dataDxfId="86"/>
-    <tableColumn id="30" name="BuffImmune" dataDxfId="85">
+    <tableColumn id="52" name="~AntiLife" dataDxfId="131"/>
+    <tableColumn id="57" name="~AntiMental" dataDxfId="130"/>
+    <tableColumn id="56" name="~AntiPhysical" dataDxfId="129"/>
+    <tableColumn id="55" name="~AntiElement" dataDxfId="128"/>
+    <tableColumn id="53" name="~AntiHelp" dataDxfId="127"/>
+    <tableColumn id="30" name="BuffImmune" dataDxfId="126">
       <calculatedColumnFormula>CONCATENATE(AI4,";",AJ4,";",AK4,";",AL4,";",AM4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="~AntiNull" dataDxfId="84"/>
-    <tableColumn id="11" name="~AntiWater" dataDxfId="83"/>
-    <tableColumn id="26" name="~AntiWind" dataDxfId="82"/>
-    <tableColumn id="27" name="~AntiFire" dataDxfId="81"/>
-    <tableColumn id="37" name="~AntiEarth" dataDxfId="80"/>
-    <tableColumn id="40" name="~AntiLight" dataDxfId="79"/>
-    <tableColumn id="41" name="~AntiDark" dataDxfId="78"/>
-    <tableColumn id="31" name="AttrDef" dataDxfId="77">
+    <tableColumn id="8" name="~AntiNull" dataDxfId="125"/>
+    <tableColumn id="11" name="~AntiWater" dataDxfId="124"/>
+    <tableColumn id="26" name="~AntiWind" dataDxfId="123"/>
+    <tableColumn id="27" name="~AntiFire" dataDxfId="122"/>
+    <tableColumn id="37" name="~AntiEarth" dataDxfId="121"/>
+    <tableColumn id="40" name="~AntiLight" dataDxfId="120"/>
+    <tableColumn id="41" name="~AntiDark" dataDxfId="119"/>
+    <tableColumn id="31" name="AttrDef" dataDxfId="118">
       <calculatedColumnFormula>CONCATENATE(AO4,";",AP4,";",AQ4,";",AR4,";",AS4,";",AT4,";",AU4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="50" name="IsBuilding" dataDxfId="76"/>
-    <tableColumn id="20" name="Res" dataDxfId="75"/>
-    <tableColumn id="21" name="Icon" dataDxfId="74"/>
-    <tableColumn id="17" name="Cover" dataDxfId="73"/>
-    <tableColumn id="15" name="IsSpecial" dataDxfId="72"/>
-    <tableColumn id="28" name="IsNew" dataDxfId="71"/>
-    <tableColumn id="19" name="VsMark" dataDxfId="70"/>
-    <tableColumn id="29" name="Remark" dataDxfId="69"/>
+    <tableColumn id="50" name="IsBuilding" dataDxfId="117"/>
+    <tableColumn id="20" name="Res" dataDxfId="116"/>
+    <tableColumn id="21" name="Icon" dataDxfId="115"/>
+    <tableColumn id="17" name="Cover" dataDxfId="114"/>
+    <tableColumn id="15" name="IsSpecial" dataDxfId="113"/>
+    <tableColumn id="28" name="IsNew" dataDxfId="112"/>
+    <tableColumn id="19" name="VsMark" dataDxfId="111"/>
+    <tableColumn id="29" name="Remark" dataDxfId="110"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表1_5" displayName="表1_5" ref="A3:BD11" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58" tableBorderDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表1_5" displayName="表1_5" ref="A3:BD11" totalsRowShown="0" headerRowDxfId="100" dataDxfId="99" tableBorderDxfId="98">
   <autoFilter ref="A3:BD11"/>
   <sortState ref="A4:AF311">
     <sortCondition ref="A3:A311"/>
   </sortState>
   <tableColumns count="56">
-    <tableColumn id="1" name="Id" dataDxfId="56"/>
-    <tableColumn id="2" name="Name" dataDxfId="55"/>
-    <tableColumn id="22" name="Ename" dataDxfId="54"/>
-    <tableColumn id="23" name="EnameShort" dataDxfId="53"/>
-    <tableColumn id="3" name="Star" dataDxfId="52"/>
-    <tableColumn id="4" name="Type" dataDxfId="51"/>
-    <tableColumn id="5" name="Attr" dataDxfId="50"/>
-    <tableColumn id="58" name="Quality" dataDxfId="49">
-      <calculatedColumnFormula>IF(T4&gt;10,5,IF(T4&gt;5,4,IF(T4&gt;2.5,3,IF(T4&gt;0,2,IF(T4&gt;-2.5,1,IF(T4&gt;-10,0,6))))))</calculatedColumnFormula>
+    <tableColumn id="1" name="Id" dataDxfId="97"/>
+    <tableColumn id="2" name="Name" dataDxfId="96"/>
+    <tableColumn id="22" name="Ename" dataDxfId="95"/>
+    <tableColumn id="23" name="EnameShort" dataDxfId="94"/>
+    <tableColumn id="3" name="Star" dataDxfId="93"/>
+    <tableColumn id="4" name="Type" dataDxfId="92"/>
+    <tableColumn id="5" name="Attr" dataDxfId="91"/>
+    <tableColumn id="58" name="Quality" dataDxfId="0">
+      <calculatedColumnFormula>IF(AND(T4&gt;=13,T4&lt;=16),5,IF(AND(T4&gt;=9,T4&lt;=12),4,IF(AND(T4&gt;=5,T4&lt;=8),3,IF(AND(T4&gt;=1,T4&lt;=4),2,IF(AND(T4&gt;=-3,T4&lt;=0),1,IF(AND(T4&gt;=-5,T4&lt;=-4),0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Cost" dataDxfId="48"/>
-    <tableColumn id="6" name="AtkP" dataDxfId="47"/>
-    <tableColumn id="24" name="VitP" dataDxfId="46"/>
-    <tableColumn id="25" name="Modify" dataDxfId="45"/>
-    <tableColumn id="9" name="Def" dataDxfId="44"/>
-    <tableColumn id="10" name="Mag" dataDxfId="43"/>
-    <tableColumn id="32" name="Spd" dataDxfId="42"/>
-    <tableColumn id="35" name="Hit" dataDxfId="41"/>
-    <tableColumn id="36" name="Dhit" dataDxfId="40"/>
-    <tableColumn id="34" name="Crt" dataDxfId="39"/>
-    <tableColumn id="33" name="Luk" dataDxfId="38"/>
-    <tableColumn id="7" name="Sum" dataDxfId="37">
+    <tableColumn id="12" name="Cost" dataDxfId="90"/>
+    <tableColumn id="6" name="AtkP" dataDxfId="89"/>
+    <tableColumn id="24" name="VitP" dataDxfId="88"/>
+    <tableColumn id="25" name="Modify" dataDxfId="87"/>
+    <tableColumn id="9" name="Def" dataDxfId="86"/>
+    <tableColumn id="10" name="Mag" dataDxfId="85"/>
+    <tableColumn id="32" name="Spd" dataDxfId="84"/>
+    <tableColumn id="35" name="Hit" dataDxfId="83"/>
+    <tableColumn id="36" name="Dhit" dataDxfId="82"/>
+    <tableColumn id="34" name="Crt" dataDxfId="81"/>
+    <tableColumn id="33" name="Luk" dataDxfId="80"/>
+    <tableColumn id="7" name="Sum" dataDxfId="79">
       <calculatedColumnFormula>SUM(J4:K4)+SUM(M4:S4)*5+4.4*SUM(AO4:AU4)+2.5*SUM(AI4:AM4)+AH4+L4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Range" dataDxfId="36"/>
-    <tableColumn id="14" name="Mov" dataDxfId="35"/>
-    <tableColumn id="60" name="LifeRound" dataDxfId="34"/>
-    <tableColumn id="16" name="Arrow" dataDxfId="33"/>
-    <tableColumn id="18" name="Skills" dataDxfId="32"/>
-    <tableColumn id="42" name="~Skill1" dataDxfId="31"/>
-    <tableColumn id="43" name="~SkillRate1" dataDxfId="30"/>
-    <tableColumn id="44" name="~Skill2" dataDxfId="29"/>
-    <tableColumn id="45" name="~SkillRate2" dataDxfId="28"/>
-    <tableColumn id="46" name="~Skill3" dataDxfId="27"/>
-    <tableColumn id="47" name="~SkillRate3" dataDxfId="26"/>
-    <tableColumn id="48" name="~Skill4" dataDxfId="25"/>
-    <tableColumn id="49" name="~SkillRate4" dataDxfId="24"/>
-    <tableColumn id="54" name="~SkillMark" dataDxfId="23">
+    <tableColumn id="13" name="Range" dataDxfId="78"/>
+    <tableColumn id="14" name="Mov" dataDxfId="77"/>
+    <tableColumn id="60" name="LifeRound" dataDxfId="76"/>
+    <tableColumn id="16" name="Arrow" dataDxfId="75"/>
+    <tableColumn id="18" name="Skills" dataDxfId="74"/>
+    <tableColumn id="42" name="~Skill1" dataDxfId="73"/>
+    <tableColumn id="43" name="~SkillRate1" dataDxfId="72"/>
+    <tableColumn id="44" name="~Skill2" dataDxfId="71"/>
+    <tableColumn id="45" name="~SkillRate2" dataDxfId="70"/>
+    <tableColumn id="46" name="~Skill3" dataDxfId="69"/>
+    <tableColumn id="47" name="~SkillRate3" dataDxfId="68"/>
+    <tableColumn id="48" name="~Skill4" dataDxfId="67"/>
+    <tableColumn id="49" name="~SkillRate4" dataDxfId="66"/>
+    <tableColumn id="54" name="~SkillMark" dataDxfId="65">
       <calculatedColumnFormula>IF(ISBLANK($Z4),0, LOOKUP($Z4,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AA4/100)+
 IF(ISBLANK($AB4),0, LOOKUP($AB4,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC4/100)+
 IF(ISBLANK($AD4),0, LOOKUP($AD4,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE4/100)+
 IF(ISBLANK($AF4),0, LOOKUP($AF4,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG4/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="52" name="~AntiLife" dataDxfId="22"/>
-    <tableColumn id="57" name="~AntiMental" dataDxfId="21"/>
-    <tableColumn id="56" name="~AntiPhysical" dataDxfId="20"/>
-    <tableColumn id="55" name="~AntiElement" dataDxfId="19"/>
-    <tableColumn id="53" name="~AntiHelp" dataDxfId="18"/>
-    <tableColumn id="30" name="BuffImmune" dataDxfId="17">
+    <tableColumn id="52" name="~AntiLife" dataDxfId="64"/>
+    <tableColumn id="57" name="~AntiMental" dataDxfId="63"/>
+    <tableColumn id="56" name="~AntiPhysical" dataDxfId="62"/>
+    <tableColumn id="55" name="~AntiElement" dataDxfId="61"/>
+    <tableColumn id="53" name="~AntiHelp" dataDxfId="60"/>
+    <tableColumn id="30" name="BuffImmune" dataDxfId="59">
       <calculatedColumnFormula>CONCATENATE(AI4,";",AJ4,";",AK4,";",AL4,";",AM4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="~AntiNull" dataDxfId="16"/>
-    <tableColumn id="11" name="~AntiWater" dataDxfId="15"/>
-    <tableColumn id="26" name="~AntiWind" dataDxfId="14"/>
-    <tableColumn id="27" name="~AntiFire" dataDxfId="13"/>
-    <tableColumn id="37" name="~AntiEarth" dataDxfId="12"/>
-    <tableColumn id="40" name="~AntiLight" dataDxfId="11"/>
-    <tableColumn id="41" name="~AntiDark" dataDxfId="10"/>
-    <tableColumn id="31" name="AttrDef" dataDxfId="9">
+    <tableColumn id="8" name="~AntiNull" dataDxfId="58"/>
+    <tableColumn id="11" name="~AntiWater" dataDxfId="57"/>
+    <tableColumn id="26" name="~AntiWind" dataDxfId="56"/>
+    <tableColumn id="27" name="~AntiFire" dataDxfId="55"/>
+    <tableColumn id="37" name="~AntiEarth" dataDxfId="54"/>
+    <tableColumn id="40" name="~AntiLight" dataDxfId="53"/>
+    <tableColumn id="41" name="~AntiDark" dataDxfId="52"/>
+    <tableColumn id="31" name="AttrDef" dataDxfId="51">
       <calculatedColumnFormula>CONCATENATE(AO4,";",AP4,";",AQ4,";",AR4,";",AS4,";",AT4,";",AU4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="59" name="IsBuilding" dataDxfId="8"/>
-    <tableColumn id="20" name="Res" dataDxfId="7"/>
-    <tableColumn id="21" name="Icon" dataDxfId="6"/>
-    <tableColumn id="17" name="Cover" dataDxfId="5"/>
-    <tableColumn id="15" name="IsSpecial" dataDxfId="4"/>
-    <tableColumn id="28" name="IsNew" dataDxfId="3"/>
-    <tableColumn id="19" name="VsMark" dataDxfId="2"/>
-    <tableColumn id="29" name="Remark" dataDxfId="1"/>
+    <tableColumn id="59" name="IsBuilding" dataDxfId="50"/>
+    <tableColumn id="20" name="Res" dataDxfId="49"/>
+    <tableColumn id="21" name="Icon" dataDxfId="48"/>
+    <tableColumn id="17" name="Cover" dataDxfId="47"/>
+    <tableColumn id="15" name="IsSpecial" dataDxfId="46"/>
+    <tableColumn id="28" name="IsNew" dataDxfId="45"/>
+    <tableColumn id="19" name="VsMark" dataDxfId="44"/>
+    <tableColumn id="29" name="Remark" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:I15" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:I15" totalsRowShown="0" headerRowDxfId="42">
   <autoFilter ref="A1:I15"/>
   <tableColumns count="9">
     <tableColumn id="1" name="星级"/>
@@ -22564,7 +22792,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -23129,7 +23357,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="4">
-        <f t="shared" ref="H4:H67" si="0">IF(T4&gt;10,5,IF(T4&gt;5,4,IF(T4&gt;2.5,3,IF(T4&gt;0,2,IF(T4&gt;-2.5,1,IF(T4&gt;-10,0,6))))))</f>
+        <f t="shared" ref="H4:H67" si="0">IF(AND(T4&gt;=13,T4&lt;=16),5,IF(AND(T4&gt;=9,T4&lt;=12),4,IF(AND(T4&gt;=5,T4&lt;=8),3,IF(AND(T4&gt;=1,T4&lt;=4),2,IF(AND(T4&gt;=-3,T4&lt;=0),1,IF(AND(T4&gt;=-5,T4&lt;=-4),0,6))))))</f>
         <v>0</v>
       </c>
       <c r="I4" s="4">
@@ -23141,8 +23369,8 @@
       <c r="K4" s="4">
         <v>-19</v>
       </c>
-      <c r="L4" s="9">
-        <v>-5</v>
+      <c r="L4" s="4">
+        <v>0</v>
       </c>
       <c r="M4" s="4">
         <v>0</v>
@@ -23167,7 +23395,7 @@
       </c>
       <c r="T4" s="15">
         <f t="shared" ref="T4:T67" si="1">SUM(J4:K4)+SUM(M4:S4)*5+4.4*SUM(AO4:AU4)+2.5*SUM(AI4:AM4)+AH4+L4</f>
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="U4" s="4">
         <v>10</v>
@@ -23456,7 +23684,7 @@
       </c>
       <c r="H6" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I6" s="4">
         <v>3</v>
@@ -23796,7 +24024,7 @@
         <v>20</v>
       </c>
       <c r="L8" s="4">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="M8" s="4">
         <v>2</v>
@@ -23821,7 +24049,7 @@
       </c>
       <c r="T8" s="15">
         <f t="shared" si="1"/>
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="U8" s="4">
         <v>0</v>
@@ -24270,7 +24498,7 @@
       </c>
       <c r="H11" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I11" s="4">
         <v>2</v>
@@ -24434,7 +24662,7 @@
       </c>
       <c r="H12" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I12" s="4">
         <v>4</v>
@@ -24614,7 +24842,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="35">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="M13" s="4">
         <v>0</v>
@@ -24639,7 +24867,7 @@
       </c>
       <c r="T13" s="15">
         <f t="shared" si="1"/>
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="U13" s="4">
         <v>10</v>
@@ -24944,7 +25172,7 @@
         <v>5</v>
       </c>
       <c r="L15" s="35">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M15" s="4">
         <v>0</v>
@@ -24969,7 +25197,7 @@
       </c>
       <c r="T15" s="15">
         <f t="shared" si="1"/>
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="U15" s="4">
         <v>10</v>
@@ -25101,8 +25329,8 @@
       <c r="K16" s="4">
         <v>-11</v>
       </c>
-      <c r="L16" s="9">
-        <v>0</v>
+      <c r="L16" s="4">
+        <v>3</v>
       </c>
       <c r="M16" s="4">
         <v>0</v>
@@ -25127,7 +25355,7 @@
       </c>
       <c r="T16" s="15">
         <f t="shared" si="1"/>
-        <v>-8</v>
+        <v>-5</v>
       </c>
       <c r="U16" s="4">
         <v>10</v>
@@ -25260,7 +25488,7 @@
         <v>4</v>
       </c>
       <c r="L17" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M17" s="4">
         <v>0</v>
@@ -25285,7 +25513,7 @@
       </c>
       <c r="T17" s="15">
         <f t="shared" si="1"/>
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="U17" s="4">
         <v>10</v>
@@ -25418,7 +25646,7 @@
         <v>-2</v>
       </c>
       <c r="L18" s="4">
-        <v>-9</v>
+        <v>-5</v>
       </c>
       <c r="M18" s="4">
         <v>0</v>
@@ -25443,7 +25671,7 @@
       </c>
       <c r="T18" s="15">
         <f t="shared" si="1"/>
-        <v>-9</v>
+        <v>-5</v>
       </c>
       <c r="U18" s="4">
         <v>10</v>
@@ -25576,7 +25804,7 @@
         <v>2</v>
       </c>
       <c r="L19" s="4">
-        <v>-9</v>
+        <v>-5</v>
       </c>
       <c r="M19" s="4">
         <v>0</v>
@@ -25601,7 +25829,7 @@
       </c>
       <c r="T19" s="15">
         <f t="shared" si="1"/>
-        <v>-9</v>
+        <v>-5</v>
       </c>
       <c r="U19" s="4">
         <v>10</v>
@@ -25734,7 +25962,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="4">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="M20" s="4">
         <v>0</v>
@@ -25759,7 +25987,7 @@
       </c>
       <c r="T20" s="15">
         <f t="shared" si="1"/>
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="U20" s="4">
         <v>10</v>
@@ -25892,7 +26120,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="4">
-        <v>-9</v>
+        <v>-5</v>
       </c>
       <c r="M21" s="4">
         <v>0</v>
@@ -25917,7 +26145,7 @@
       </c>
       <c r="T21" s="15">
         <f t="shared" si="1"/>
-        <v>-9</v>
+        <v>-5</v>
       </c>
       <c r="U21" s="4">
         <v>10</v>
@@ -26050,7 +26278,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="4">
-        <v>-9</v>
+        <v>-5</v>
       </c>
       <c r="M22" s="4">
         <v>0</v>
@@ -26075,7 +26303,7 @@
       </c>
       <c r="T22" s="15">
         <f t="shared" si="1"/>
-        <v>-9</v>
+        <v>-5</v>
       </c>
       <c r="U22" s="4">
         <v>10</v>
@@ -26207,8 +26435,8 @@
       <c r="K23" s="4">
         <v>-10</v>
       </c>
-      <c r="L23" s="9">
-        <v>-5</v>
+      <c r="L23" s="4">
+        <v>-1</v>
       </c>
       <c r="M23" s="4">
         <v>0</v>
@@ -26233,7 +26461,7 @@
       </c>
       <c r="T23" s="15">
         <f t="shared" si="1"/>
-        <v>-9</v>
+        <v>-5</v>
       </c>
       <c r="U23" s="4">
         <v>10</v>
@@ -26354,7 +26582,7 @@
       </c>
       <c r="H24" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I24" s="4">
         <v>2</v>
@@ -26702,7 +26930,7 @@
         <v>10</v>
       </c>
       <c r="L26" s="4">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="M26" s="4">
         <v>0</v>
@@ -26727,7 +26955,7 @@
       </c>
       <c r="T26" s="15">
         <f t="shared" si="1"/>
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="U26" s="4">
         <v>10</v>
@@ -26848,7 +27076,7 @@
       </c>
       <c r="H27" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I27" s="4">
         <v>3</v>
@@ -27340,7 +27568,7 @@
       </c>
       <c r="H30" s="4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I30" s="4">
         <v>4</v>
@@ -27666,7 +27894,7 @@
       </c>
       <c r="H32" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I32" s="4">
         <v>3</v>
@@ -27838,7 +28066,7 @@
       </c>
       <c r="H33" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I33" s="4">
         <v>3</v>
@@ -28324,7 +28552,7 @@
       </c>
       <c r="H36" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I36" s="4">
         <v>2</v>
@@ -28492,7 +28720,7 @@
       </c>
       <c r="H37" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I37" s="4">
         <v>2</v>
@@ -28668,7 +28896,7 @@
         <v>22</v>
       </c>
       <c r="L38" s="4">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="M38" s="4">
         <v>0</v>
@@ -28693,7 +28921,7 @@
       </c>
       <c r="T38" s="15">
         <f t="shared" si="1"/>
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="U38" s="4">
         <v>10</v>
@@ -28814,7 +29042,7 @@
       </c>
       <c r="H39" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I39" s="4">
         <v>4</v>
@@ -28972,7 +29200,7 @@
       </c>
       <c r="H40" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I40" s="4">
         <v>4</v>
@@ -29294,7 +29522,7 @@
       </c>
       <c r="H42" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I42" s="4">
         <v>3</v>
@@ -29462,7 +29690,7 @@
       </c>
       <c r="H43" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I43" s="4">
         <v>1</v>
@@ -29626,7 +29854,7 @@
       </c>
       <c r="H44" s="4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I44" s="4">
         <v>3</v>
@@ -29962,7 +30190,7 @@
       </c>
       <c r="H46" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I46" s="4">
         <v>3</v>
@@ -30130,7 +30358,7 @@
       </c>
       <c r="H47" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I47" s="4">
         <v>3</v>
@@ -30294,7 +30522,7 @@
       </c>
       <c r="H48" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I48" s="4">
         <v>3</v>
@@ -30622,7 +30850,7 @@
       </c>
       <c r="H50" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I50" s="4">
         <v>5</v>
@@ -30790,7 +31018,7 @@
       </c>
       <c r="H51" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I51" s="4">
         <v>1</v>
@@ -31120,7 +31348,7 @@
       </c>
       <c r="H53" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I53" s="4">
         <v>2</v>
@@ -31284,7 +31512,7 @@
       </c>
       <c r="H54" s="4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I54" s="4">
         <v>3</v>
@@ -31448,7 +31676,7 @@
       </c>
       <c r="H55" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I55" s="4">
         <v>2</v>
@@ -31612,7 +31840,7 @@
       </c>
       <c r="H56" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I56" s="4">
         <v>3</v>
@@ -32272,7 +32500,7 @@
       </c>
       <c r="H60" s="4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I60" s="4">
         <v>1</v>
@@ -32436,7 +32664,7 @@
       </c>
       <c r="H61" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I61" s="4">
         <v>1</v>
@@ -32764,7 +32992,7 @@
       </c>
       <c r="H63" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I63" s="4">
         <v>4</v>
@@ -32928,7 +33156,7 @@
       </c>
       <c r="H64" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I64" s="4">
         <v>3</v>
@@ -33098,7 +33326,7 @@
         <v>-5</v>
       </c>
       <c r="L65" s="4">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="M65" s="4">
         <v>0</v>
@@ -33123,7 +33351,7 @@
       </c>
       <c r="T65" s="15">
         <f t="shared" si="1"/>
-        <v>-8</v>
+        <v>-5</v>
       </c>
       <c r="U65" s="4">
         <v>10</v>
@@ -33256,7 +33484,7 @@
         <v>0</v>
       </c>
       <c r="L66" s="4">
-        <v>-9</v>
+        <v>-5</v>
       </c>
       <c r="M66" s="4">
         <v>0</v>
@@ -33281,7 +33509,7 @@
       </c>
       <c r="T66" s="15">
         <f t="shared" si="1"/>
-        <v>-9</v>
+        <v>-5</v>
       </c>
       <c r="U66" s="4">
         <v>10</v>
@@ -33402,7 +33630,7 @@
       </c>
       <c r="H67" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I67" s="4">
         <v>6</v>
@@ -33569,8 +33797,8 @@
         <v>3</v>
       </c>
       <c r="H68" s="4">
-        <f t="shared" ref="H68:H131" si="4">IF(T68&gt;10,5,IF(T68&gt;5,4,IF(T68&gt;2.5,3,IF(T68&gt;0,2,IF(T68&gt;-2.5,1,IF(T68&gt;-10,0,6))))))</f>
-        <v>5</v>
+        <f t="shared" ref="H68:H131" si="4">IF(AND(T68&gt;=13,T68&lt;=16),5,IF(AND(T68&gt;=9,T68&lt;=12),4,IF(AND(T68&gt;=5,T68&lt;=8),3,IF(AND(T68&gt;=1,T68&lt;=4),2,IF(AND(T68&gt;=-3,T68&lt;=0),1,IF(AND(T68&gt;=-5,T68&lt;=-4),0,6))))))</f>
+        <v>6</v>
       </c>
       <c r="I68" s="4">
         <v>7</v>
@@ -33748,7 +33976,7 @@
       </c>
       <c r="H69" s="4">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I69" s="4">
         <v>6</v>
@@ -33920,7 +34148,7 @@
       </c>
       <c r="H70" s="4">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I70" s="4">
         <v>5</v>
@@ -34260,7 +34488,7 @@
       </c>
       <c r="H72" s="4">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I72" s="4">
         <v>3</v>
@@ -34428,7 +34656,7 @@
       </c>
       <c r="H73" s="4">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I73" s="4">
         <v>3</v>
@@ -34596,7 +34824,7 @@
       </c>
       <c r="H74" s="4">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I74" s="4">
         <v>4</v>
@@ -34932,7 +35160,7 @@
       </c>
       <c r="H76" s="4">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I76" s="4">
         <v>4</v>
@@ -35264,7 +35492,7 @@
       </c>
       <c r="H78" s="4">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I78" s="4">
         <v>4</v>
@@ -35444,7 +35672,7 @@
         <v>-4</v>
       </c>
       <c r="L79" s="4">
-        <v>-9</v>
+        <v>-5</v>
       </c>
       <c r="M79" s="4">
         <v>0</v>
@@ -35469,7 +35697,7 @@
       </c>
       <c r="T79" s="15">
         <f t="shared" si="5"/>
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="U79" s="4">
         <v>10</v>
@@ -35602,7 +35830,7 @@
         <v>0</v>
       </c>
       <c r="L80" s="4">
-        <v>-9</v>
+        <v>-5</v>
       </c>
       <c r="M80" s="4">
         <v>0</v>
@@ -35627,7 +35855,7 @@
       </c>
       <c r="T80" s="15">
         <f t="shared" si="5"/>
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="U80" s="4">
         <v>10</v>
@@ -35748,7 +35976,7 @@
       </c>
       <c r="H81" s="4">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I81" s="4">
         <v>3</v>
@@ -35916,7 +36144,7 @@
       </c>
       <c r="H82" s="4">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I82" s="4">
         <v>5</v>
@@ -36084,7 +36312,7 @@
       </c>
       <c r="H83" s="4">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I83" s="4">
         <v>4</v>
@@ -36416,7 +36644,7 @@
       </c>
       <c r="H85" s="4">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I85" s="4">
         <v>5</v>
@@ -36588,7 +36816,7 @@
       </c>
       <c r="H86" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I86" s="4">
         <v>2</v>
@@ -36924,7 +37152,7 @@
       </c>
       <c r="H88" s="4">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I88" s="4">
         <v>2</v>
@@ -37254,7 +37482,7 @@
       </c>
       <c r="H90" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I90" s="4">
         <v>4</v>
@@ -37590,7 +37818,7 @@
       </c>
       <c r="H92" s="4">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I92" s="4">
         <v>3</v>
@@ -37926,7 +38154,7 @@
       </c>
       <c r="H94" s="4">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I94" s="4">
         <v>5</v>
@@ -38094,7 +38322,7 @@
       </c>
       <c r="H95" s="4">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I95" s="4">
         <v>3</v>
@@ -38430,7 +38658,7 @@
       </c>
       <c r="H97" s="4">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I97" s="4">
         <v>6</v>
@@ -38602,7 +38830,7 @@
       </c>
       <c r="H98" s="4">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I98" s="4">
         <v>3</v>
@@ -38766,7 +38994,7 @@
       </c>
       <c r="H99" s="4">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I99" s="4">
         <v>2</v>
@@ -38934,7 +39162,7 @@
       </c>
       <c r="H100" s="4">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I100" s="4">
         <v>7</v>
@@ -39112,7 +39340,7 @@
       </c>
       <c r="H101" s="4">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I101" s="4">
         <v>3</v>
@@ -39606,7 +39834,7 @@
       </c>
       <c r="H104" s="4">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I104" s="4">
         <v>2</v>
@@ -40270,7 +40498,7 @@
       </c>
       <c r="H108" s="4">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I108" s="4">
         <v>6</v>
@@ -40442,7 +40670,7 @@
       </c>
       <c r="H109" s="4">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I109" s="4">
         <v>1</v>
@@ -40606,7 +40834,7 @@
       </c>
       <c r="H110" s="4">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I110" s="4">
         <v>2</v>
@@ -40938,7 +41166,7 @@
       </c>
       <c r="H112" s="4">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I112" s="4">
         <v>3</v>
@@ -41106,7 +41334,7 @@
       </c>
       <c r="H113" s="4">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I113" s="4">
         <v>3</v>
@@ -41274,7 +41502,7 @@
       </c>
       <c r="H114" s="4">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I114" s="4">
         <v>7</v>
@@ -41452,7 +41680,7 @@
       </c>
       <c r="H115" s="4">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I115" s="4">
         <v>7</v>
@@ -41808,7 +42036,7 @@
       </c>
       <c r="H117" s="4">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I117" s="4">
         <v>2</v>
@@ -41976,7 +42204,7 @@
       </c>
       <c r="H118" s="4">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I118" s="4">
         <v>7</v>
@@ -42154,7 +42382,7 @@
       </c>
       <c r="H119" s="4">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I119" s="4">
         <v>7</v>
@@ -42332,7 +42560,7 @@
       </c>
       <c r="H120" s="4">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I120" s="4">
         <v>7</v>
@@ -42510,7 +42738,7 @@
       </c>
       <c r="H121" s="4">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I121" s="4">
         <v>7</v>
@@ -42688,7 +42916,7 @@
       </c>
       <c r="H122" s="4">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I122" s="4">
         <v>2</v>
@@ -42856,7 +43084,7 @@
       </c>
       <c r="H123" s="4">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I123" s="4">
         <v>2</v>
@@ -43028,7 +43256,7 @@
       </c>
       <c r="H124" s="4">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I124" s="4">
         <v>3</v>
@@ -43200,7 +43428,7 @@
       </c>
       <c r="H125" s="4">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I125" s="4">
         <v>4</v>
@@ -43700,7 +43928,7 @@
       </c>
       <c r="H128" s="4">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I128" s="4">
         <v>1</v>
@@ -43868,7 +44096,7 @@
       </c>
       <c r="H129" s="4">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I129" s="4">
         <v>5</v>
@@ -44363,8 +44591,8 @@
         <v>3</v>
       </c>
       <c r="H132" s="4">
-        <f t="shared" ref="H132:H195" si="8">IF(T132&gt;10,5,IF(T132&gt;5,4,IF(T132&gt;2.5,3,IF(T132&gt;0,2,IF(T132&gt;-2.5,1,IF(T132&gt;-10,0,6))))))</f>
-        <v>5</v>
+        <f t="shared" ref="H132:H195" si="8">IF(AND(T132&gt;=13,T132&lt;=16),5,IF(AND(T132&gt;=9,T132&lt;=12),4,IF(AND(T132&gt;=5,T132&lt;=8),3,IF(AND(T132&gt;=1,T132&lt;=4),2,IF(AND(T132&gt;=-3,T132&lt;=0),1,IF(AND(T132&gt;=-5,T132&lt;=-4),0,6))))))</f>
+        <v>6</v>
       </c>
       <c r="I132" s="4">
         <v>4</v>
@@ -44532,7 +44760,7 @@
       </c>
       <c r="H133" s="4">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I133" s="4">
         <v>4</v>
@@ -44868,7 +45096,7 @@
       </c>
       <c r="H135" s="4">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I135" s="4">
         <v>2</v>
@@ -45036,7 +45264,7 @@
       </c>
       <c r="H136" s="4">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I136" s="4">
         <v>3</v>
@@ -45204,7 +45432,7 @@
       </c>
       <c r="H137" s="4">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I137" s="4">
         <v>5</v>
@@ -45376,7 +45604,7 @@
       </c>
       <c r="H138" s="4">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I138" s="4">
         <v>2</v>
@@ -45544,7 +45772,7 @@
       </c>
       <c r="H139" s="4">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I139" s="4">
         <v>3</v>
@@ -45724,7 +45952,7 @@
         <v>-4</v>
       </c>
       <c r="L140" s="4">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="M140" s="4">
         <v>0</v>
@@ -45749,7 +45977,7 @@
       </c>
       <c r="T140" s="15">
         <f t="shared" si="9"/>
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="U140" s="4">
         <v>10</v>
@@ -46038,7 +46266,7 @@
       </c>
       <c r="H142" s="4">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I142" s="4">
         <v>2</v>
@@ -46374,7 +46602,7 @@
       </c>
       <c r="H144" s="4">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I144" s="4">
         <v>3</v>
@@ -46549,8 +46777,8 @@
       <c r="K145" s="4">
         <v>-6</v>
       </c>
-      <c r="L145" s="9">
-        <v>-4</v>
+      <c r="L145" s="4">
+        <v>-1</v>
       </c>
       <c r="M145" s="4">
         <v>0</v>
@@ -46575,7 +46803,7 @@
       </c>
       <c r="T145" s="15">
         <f t="shared" si="9"/>
-        <v>-8</v>
+        <v>-5</v>
       </c>
       <c r="U145" s="4">
         <v>30</v>
@@ -46696,7 +46924,7 @@
       </c>
       <c r="H146" s="4">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I146" s="4">
         <v>4</v>
@@ -46868,7 +47096,7 @@
       </c>
       <c r="H147" s="4">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I147" s="4">
         <v>3</v>
@@ -47204,7 +47432,7 @@
       </c>
       <c r="H149" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I149" s="4">
         <v>3</v>
@@ -47376,7 +47604,7 @@
       </c>
       <c r="H150" s="4">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I150" s="4">
         <v>4</v>
@@ -47723,8 +47951,8 @@
       <c r="K152" s="4">
         <v>-10</v>
       </c>
-      <c r="L152" s="9">
-        <v>-7</v>
+      <c r="L152" s="4">
+        <v>-3</v>
       </c>
       <c r="M152" s="4">
         <v>0</v>
@@ -47749,7 +47977,7 @@
       </c>
       <c r="T152" s="15">
         <f t="shared" si="9"/>
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="U152" s="4">
         <v>10</v>
@@ -47870,7 +48098,7 @@
       </c>
       <c r="H153" s="4">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I153" s="4">
         <v>2</v>
@@ -48034,7 +48262,7 @@
       </c>
       <c r="H154" s="4">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I154" s="4">
         <v>2</v>
@@ -48198,7 +48426,7 @@
       </c>
       <c r="H155" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I155" s="4">
         <v>4</v>
@@ -48538,7 +48766,7 @@
         <v>0</v>
       </c>
       <c r="L157" s="4">
-        <v>-9</v>
+        <v>-5</v>
       </c>
       <c r="M157" s="4">
         <v>0</v>
@@ -48563,7 +48791,7 @@
       </c>
       <c r="T157" s="15">
         <f t="shared" si="9"/>
-        <v>-9</v>
+        <v>-5</v>
       </c>
       <c r="U157" s="4">
         <v>10</v>
@@ -48684,7 +48912,7 @@
       </c>
       <c r="H158" s="4">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I158" s="4">
         <v>4</v>
@@ -48848,7 +49076,7 @@
       </c>
       <c r="H159" s="4">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I159" s="4">
         <v>3</v>
@@ -49016,7 +49244,7 @@
       </c>
       <c r="H160" s="4">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I160" s="4">
         <v>4</v>
@@ -49196,7 +49424,7 @@
         <v>-8</v>
       </c>
       <c r="L161" s="4">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="M161" s="4">
         <v>0</v>
@@ -49221,7 +49449,7 @@
       </c>
       <c r="T161" s="15">
         <f t="shared" si="9"/>
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="U161" s="4">
         <v>10</v>
@@ -49342,7 +49570,7 @@
       </c>
       <c r="H162" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I162" s="4">
         <v>3</v>
@@ -49670,7 +49898,7 @@
       </c>
       <c r="H164" s="4">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I164" s="4">
         <v>3</v>
@@ -49838,7 +50066,7 @@
       </c>
       <c r="H165" s="4">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I165" s="4">
         <v>4</v>
@@ -50010,7 +50238,7 @@
       </c>
       <c r="H166" s="4">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I166" s="4">
         <v>3</v>
@@ -50178,7 +50406,7 @@
       </c>
       <c r="H167" s="4">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I167" s="4">
         <v>3</v>
@@ -50846,7 +51074,7 @@
       </c>
       <c r="H171" s="4">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I171" s="4">
         <v>1</v>
@@ -51022,7 +51250,7 @@
       </c>
       <c r="H172" s="4">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I172" s="4">
         <v>4</v>
@@ -51194,7 +51422,7 @@
       </c>
       <c r="H173" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I173" s="4">
         <v>2</v>
@@ -52354,7 +52582,7 @@
       </c>
       <c r="H180" s="4">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I180" s="4">
         <v>5</v>
@@ -52530,7 +52758,7 @@
       </c>
       <c r="H181" s="4">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I181" s="4">
         <v>6</v>
@@ -52702,7 +52930,7 @@
       </c>
       <c r="H182" s="4">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I182" s="4">
         <v>2</v>
@@ -53038,7 +53266,7 @@
       </c>
       <c r="H184" s="4">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I184" s="4">
         <v>3</v>
@@ -53202,7 +53430,7 @@
       </c>
       <c r="H185" s="4">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I185" s="4">
         <v>6</v>
@@ -53370,7 +53598,7 @@
       </c>
       <c r="H186" s="4">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I186" s="4">
         <v>4</v>
@@ -53538,7 +53766,7 @@
       </c>
       <c r="H187" s="4">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I187" s="4">
         <v>2</v>
@@ -53874,7 +54102,7 @@
       </c>
       <c r="H189" s="4">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I189" s="4">
         <v>2</v>
@@ -54050,7 +54278,7 @@
         <v>0</v>
       </c>
       <c r="L190" s="4">
-        <v>-9</v>
+        <v>-5</v>
       </c>
       <c r="M190" s="4">
         <v>0</v>
@@ -54075,7 +54303,7 @@
       </c>
       <c r="T190" s="15">
         <f t="shared" si="9"/>
-        <v>-9</v>
+        <v>-5</v>
       </c>
       <c r="U190" s="4">
         <v>10</v>
@@ -54196,7 +54424,7 @@
       </c>
       <c r="H191" s="4">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I191" s="4">
         <v>5</v>
@@ -54364,7 +54592,7 @@
       </c>
       <c r="H192" s="4">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I192" s="4">
         <v>5</v>
@@ -54536,7 +54764,7 @@
       </c>
       <c r="H193" s="4">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I193" s="4">
         <v>5</v>
@@ -54880,7 +55108,7 @@
       </c>
       <c r="H195" s="4">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I195" s="4">
         <v>5</v>
@@ -55055,8 +55283,8 @@
         <v>0</v>
       </c>
       <c r="H196" s="4">
-        <f t="shared" ref="H196:H259" si="12">IF(T196&gt;10,5,IF(T196&gt;5,4,IF(T196&gt;2.5,3,IF(T196&gt;0,2,IF(T196&gt;-2.5,1,IF(T196&gt;-10,0,6))))))</f>
-        <v>0</v>
+        <f t="shared" ref="H196:H259" si="12">IF(AND(T196&gt;=13,T196&lt;=16),5,IF(AND(T196&gt;=9,T196&lt;=12),4,IF(AND(T196&gt;=5,T196&lt;=8),3,IF(AND(T196&gt;=1,T196&lt;=4),2,IF(AND(T196&gt;=-3,T196&lt;=0),1,IF(AND(T196&gt;=-5,T196&lt;=-4),0,6))))))</f>
+        <v>6</v>
       </c>
       <c r="I196" s="4">
         <v>5</v>
@@ -55396,7 +55624,7 @@
       </c>
       <c r="H198" s="4">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I198" s="4">
         <v>5</v>
@@ -55568,7 +55796,7 @@
       </c>
       <c r="H199" s="4">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I199" s="4">
         <v>5</v>
@@ -55740,7 +55968,7 @@
       </c>
       <c r="H200" s="4">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I200" s="4">
         <v>5</v>
@@ -55912,7 +56140,7 @@
       </c>
       <c r="H201" s="4">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I201" s="4">
         <v>5</v>
@@ -56406,7 +56634,7 @@
       </c>
       <c r="H204" s="4">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I204" s="4">
         <v>2</v>
@@ -56574,7 +56802,7 @@
       </c>
       <c r="H205" s="4">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I205" s="4">
         <v>2</v>
@@ -56738,7 +56966,7 @@
       </c>
       <c r="H206" s="4">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I206" s="4">
         <v>3</v>
@@ -56906,7 +57134,7 @@
       </c>
       <c r="H207" s="4">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I207" s="4">
         <v>2</v>
@@ -57238,7 +57466,7 @@
       </c>
       <c r="H209" s="4">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I209" s="4">
         <v>1</v>
@@ -57402,7 +57630,7 @@
       </c>
       <c r="H210" s="4">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I210" s="4">
         <v>2</v>
@@ -57570,7 +57798,7 @@
       </c>
       <c r="H211" s="4">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I211" s="4">
         <v>4</v>
@@ -58082,7 +58310,7 @@
       </c>
       <c r="H214" s="4">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I214" s="4">
         <v>2</v>
@@ -58254,7 +58482,7 @@
       </c>
       <c r="H215" s="4">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I215" s="4">
         <v>4</v>
@@ -58430,7 +58658,7 @@
       </c>
       <c r="H216" s="4">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I216" s="4">
         <v>4</v>
@@ -58594,7 +58822,7 @@
       </c>
       <c r="H217" s="4">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I217" s="4">
         <v>2</v>
@@ -58930,7 +59158,7 @@
       </c>
       <c r="H219" s="4">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I219" s="4">
         <v>3</v>
@@ -59098,7 +59326,7 @@
       </c>
       <c r="H220" s="4">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I220" s="4">
         <v>2</v>
@@ -59594,7 +59822,7 @@
       </c>
       <c r="H223" s="4">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I223" s="4">
         <v>2</v>
@@ -59758,7 +59986,7 @@
       </c>
       <c r="H224" s="4">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I224" s="4">
         <v>5</v>
@@ -59926,7 +60154,7 @@
       </c>
       <c r="H225" s="4">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I225" s="4">
         <v>4</v>
@@ -60094,7 +60322,7 @@
       </c>
       <c r="H226" s="4">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I226" s="4">
         <v>4</v>
@@ -60106,7 +60334,7 @@
         <v>0</v>
       </c>
       <c r="L226" s="11">
-        <v>-80</v>
+        <v>-78</v>
       </c>
       <c r="M226" s="4">
         <v>0</v>
@@ -60131,7 +60359,7 @@
       </c>
       <c r="T226" s="15">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U226" s="4">
         <v>10</v>
@@ -60256,7 +60484,7 @@
       </c>
       <c r="H227" s="4">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I227" s="4">
         <v>4</v>
@@ -60424,7 +60652,7 @@
       </c>
       <c r="H228" s="4">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I228" s="4">
         <v>3</v>
@@ -60760,7 +60988,7 @@
       </c>
       <c r="H230" s="4">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I230" s="4">
         <v>2</v>
@@ -60772,7 +61000,7 @@
         <v>70</v>
       </c>
       <c r="L230" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M230" s="4">
         <v>0</v>
@@ -60797,7 +61025,7 @@
       </c>
       <c r="T230" s="15">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U230" s="4">
         <v>10</v>
@@ -60936,7 +61164,7 @@
         <v>70</v>
       </c>
       <c r="L231" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M231" s="4">
         <v>0</v>
@@ -60961,7 +61189,7 @@
       </c>
       <c r="T231" s="15">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U231" s="4">
         <v>10</v>
@@ -61246,7 +61474,7 @@
       </c>
       <c r="H233" s="4">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I233" s="4">
         <v>3</v>
@@ -61410,7 +61638,7 @@
       </c>
       <c r="H234" s="4">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I234" s="4">
         <v>5</v>
@@ -61578,7 +61806,7 @@
       </c>
       <c r="H235" s="4">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I235" s="4">
         <v>3</v>
@@ -61914,7 +62142,7 @@
       </c>
       <c r="H237" s="4">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I237" s="4">
         <v>4</v>
@@ -62090,7 +62318,7 @@
       </c>
       <c r="H238" s="4">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I238" s="4">
         <v>2</v>
@@ -62258,7 +62486,7 @@
       </c>
       <c r="H239" s="4">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I239" s="4">
         <v>4</v>
@@ -62426,7 +62654,7 @@
       </c>
       <c r="H240" s="4">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I240" s="4">
         <v>3</v>
@@ -62594,7 +62822,7 @@
       </c>
       <c r="H241" s="4">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I241" s="4">
         <v>6</v>
@@ -62938,7 +63166,7 @@
       </c>
       <c r="H243" s="4">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I243" s="4">
         <v>3</v>
@@ -63110,7 +63338,7 @@
       </c>
       <c r="H244" s="4">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I244" s="4">
         <v>3</v>
@@ -63278,7 +63506,7 @@
       </c>
       <c r="H245" s="4">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I245" s="4">
         <v>6</v>
@@ -63454,7 +63682,7 @@
       </c>
       <c r="H246" s="4">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I246" s="4">
         <v>6</v>
@@ -63618,7 +63846,7 @@
       </c>
       <c r="H247" s="4">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I247" s="4">
         <v>5</v>
@@ -63954,7 +64182,7 @@
       </c>
       <c r="H249" s="4">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I249" s="4">
         <v>3</v>
@@ -64122,7 +64350,7 @@
       </c>
       <c r="H250" s="4">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I250" s="4">
         <v>6</v>
@@ -64294,7 +64522,7 @@
       </c>
       <c r="H251" s="4">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I251" s="4">
         <v>2</v>
@@ -64462,7 +64690,7 @@
       </c>
       <c r="H252" s="4">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I252" s="4">
         <v>5</v>
@@ -64802,7 +65030,7 @@
       </c>
       <c r="H254" s="4">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I254" s="4">
         <v>3</v>
@@ -65138,7 +65366,7 @@
       </c>
       <c r="H256" s="4">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I256" s="4">
         <v>4</v>
@@ -65306,7 +65534,7 @@
       </c>
       <c r="H257" s="4">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I257" s="4">
         <v>3</v>
@@ -65809,7 +66037,7 @@
         <v>1</v>
       </c>
       <c r="H260" s="4">
-        <f t="shared" ref="H260:H312" si="16">IF(T260&gt;10,5,IF(T260&gt;5,4,IF(T260&gt;2.5,3,IF(T260&gt;0,2,IF(T260&gt;-2.5,1,IF(T260&gt;-10,0,6))))))</f>
+        <f t="shared" ref="H260:H314" si="16">IF(AND(T260&gt;=13,T260&lt;=16),5,IF(AND(T260&gt;=9,T260&lt;=12),4,IF(AND(T260&gt;=5,T260&lt;=8),3,IF(AND(T260&gt;=1,T260&lt;=4),2,IF(AND(T260&gt;=-3,T260&lt;=0),1,IF(AND(T260&gt;=-5,T260&lt;=-4),0,6))))))</f>
         <v>4</v>
       </c>
       <c r="I260" s="4">
@@ -65846,7 +66074,7 @@
         <v>0</v>
       </c>
       <c r="T260" s="15">
-        <f t="shared" ref="T260:T323" si="17">SUM(J260:K260)+SUM(M260:S260)*5+4.4*SUM(AO260:AU260)+2.5*SUM(AI260:AM260)+AH260+L260</f>
+        <f t="shared" ref="T260:T314" si="17">SUM(J260:K260)+SUM(M260:S260)*5+4.4*SUM(AO260:AU260)+2.5*SUM(AI260:AM260)+AH260+L260</f>
         <v>9</v>
       </c>
       <c r="U260" s="4">
@@ -65978,7 +66206,7 @@
       </c>
       <c r="H261" s="4">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I261" s="4">
         <v>3</v>
@@ -66319,7 +66547,7 @@
         <v>2</v>
       </c>
       <c r="K263" s="4">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="L263" s="4">
         <v>-3</v>
@@ -66347,7 +66575,7 @@
       </c>
       <c r="T263" s="15">
         <f t="shared" si="17"/>
-        <v>-8</v>
+        <v>-5</v>
       </c>
       <c r="U263" s="4">
         <v>10</v>
@@ -66468,7 +66696,7 @@
       </c>
       <c r="H264" s="4">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I264" s="4">
         <v>2</v>
@@ -66636,7 +66864,7 @@
       </c>
       <c r="H265" s="4">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I265" s="4">
         <v>3</v>
@@ -66808,7 +67036,7 @@
       </c>
       <c r="H266" s="4">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I266" s="4">
         <v>4</v>
@@ -66980,7 +67208,7 @@
       </c>
       <c r="H267" s="4">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I267" s="4">
         <v>5</v>
@@ -67152,7 +67380,7 @@
       </c>
       <c r="H268" s="4">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I268" s="4">
         <v>3</v>
@@ -67320,7 +67548,7 @@
       </c>
       <c r="H269" s="4">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I269" s="4">
         <v>3</v>
@@ -67484,7 +67712,7 @@
       </c>
       <c r="H270" s="4">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I270" s="4">
         <v>3</v>
@@ -67996,7 +68224,7 @@
       </c>
       <c r="H273" s="4">
         <f t="shared" si="16"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I273" s="4">
         <v>5</v>
@@ -68168,7 +68396,7 @@
       </c>
       <c r="H274" s="4">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I274" s="4">
         <v>1</v>
@@ -68332,7 +68560,7 @@
       </c>
       <c r="H275" s="4">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I275" s="4">
         <v>3</v>
@@ -68500,7 +68728,7 @@
       </c>
       <c r="H276" s="4">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I276" s="4">
         <v>4</v>
@@ -68834,7 +69062,7 @@
       </c>
       <c r="H278" s="4">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I278" s="4">
         <v>3</v>
@@ -69002,7 +69230,7 @@
       </c>
       <c r="H279" s="4">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I279" s="4">
         <v>1</v>
@@ -69334,7 +69562,7 @@
       </c>
       <c r="H281" s="4">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I281" s="4">
         <v>1</v>
@@ -69498,7 +69726,7 @@
       </c>
       <c r="H282" s="4">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I282" s="4">
         <v>1</v>
@@ -69826,7 +70054,7 @@
       </c>
       <c r="H284" s="4">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I284" s="4">
         <v>6</v>
@@ -69994,7 +70222,7 @@
       </c>
       <c r="H285" s="4">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I285" s="4">
         <v>6</v>
@@ -70171,7 +70399,7 @@
         <v>0</v>
       </c>
       <c r="K286" s="4">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="L286" s="4">
         <v>-3</v>
@@ -70199,7 +70427,7 @@
       </c>
       <c r="T286" s="15">
         <f t="shared" si="17"/>
-        <v>-8</v>
+        <v>-5</v>
       </c>
       <c r="U286" s="4">
         <v>10</v>
@@ -70320,7 +70548,7 @@
       </c>
       <c r="H287" s="4">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I287" s="4">
         <v>4</v>
@@ -70488,7 +70716,7 @@
       </c>
       <c r="H288" s="4">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I288" s="4">
         <v>2</v>
@@ -70656,7 +70884,7 @@
       </c>
       <c r="H289" s="4">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I289" s="4">
         <v>1</v>
@@ -70820,7 +71048,7 @@
       </c>
       <c r="H290" s="4">
         <f t="shared" si="16"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I290" s="4">
         <v>2</v>
@@ -70984,7 +71212,7 @@
       </c>
       <c r="H291" s="4">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I291" s="4">
         <v>4</v>
@@ -71152,7 +71380,7 @@
       </c>
       <c r="H292" s="4">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I292" s="4">
         <v>4</v>
@@ -71320,7 +71548,7 @@
       </c>
       <c r="H293" s="4">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I293" s="4">
         <v>1</v>
@@ -71656,7 +71884,7 @@
       </c>
       <c r="H295" s="4">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I295" s="4">
         <v>2</v>
@@ -71820,7 +72048,7 @@
       </c>
       <c r="H296" s="4">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I296" s="4">
         <v>2</v>
@@ -71988,7 +72216,7 @@
       </c>
       <c r="H297" s="4">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I297" s="4">
         <v>3</v>
@@ -72160,7 +72388,7 @@
       </c>
       <c r="H298" s="4">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I298" s="4">
         <v>1</v>
@@ -72328,7 +72556,7 @@
       </c>
       <c r="H299" s="4">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I299" s="4">
         <v>5</v>
@@ -72492,7 +72720,7 @@
       </c>
       <c r="H300" s="4">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I300" s="4">
         <v>5</v>
@@ -72656,7 +72884,7 @@
       </c>
       <c r="H301" s="4">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I301" s="4">
         <v>5</v>
@@ -72832,7 +73060,7 @@
       </c>
       <c r="H302" s="4">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I302" s="4">
         <v>3</v>
@@ -73000,7 +73228,7 @@
       </c>
       <c r="H303" s="11">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I303" s="11">
         <v>1</v>
@@ -73664,7 +73892,7 @@
       </c>
       <c r="H307" s="11">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I307" s="11">
         <v>3</v>
@@ -73839,8 +74067,8 @@
       <c r="K308" s="11">
         <v>0</v>
       </c>
-      <c r="L308" s="11">
-        <v>-9</v>
+      <c r="L308" s="4">
+        <v>-6</v>
       </c>
       <c r="M308" s="4">
         <v>1</v>
@@ -73865,7 +74093,7 @@
       </c>
       <c r="T308" s="24">
         <f t="shared" si="17"/>
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="U308" s="4">
         <v>10</v>
@@ -74156,7 +74384,7 @@
         <v>2</v>
       </c>
       <c r="L310" s="11">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="M310" s="4">
         <v>0</v>
@@ -74181,7 +74409,7 @@
       </c>
       <c r="T310" s="24">
         <f t="shared" si="17"/>
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="U310" s="4">
         <v>10</v>
@@ -74314,7 +74542,7 @@
         <v>-3</v>
       </c>
       <c r="L311" s="11">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="M311" s="4">
         <v>0</v>
@@ -74339,7 +74567,7 @@
       </c>
       <c r="T311" s="24">
         <f t="shared" si="17"/>
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="U311" s="4">
         <v>10</v>
@@ -74623,7 +74851,7 @@
         <v>3</v>
       </c>
       <c r="H313" s="24">
-        <f t="shared" ref="H313" si="20">IF(T313&gt;10,5,IF(T313&gt;5,4,IF(T313&gt;2.5,3,IF(T313&gt;0,2,IF(T313&gt;-2.5,1,IF(T313&gt;-10,0,6))))))</f>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="I313" s="11">
@@ -74713,7 +74941,7 @@
         <v>0</v>
       </c>
       <c r="AN313" s="11" t="str">
-        <f t="shared" ref="AN313" si="21">CONCATENATE(AI313,";",AJ313,";",AK313,";",AL313,";",AM313)</f>
+        <f t="shared" ref="AN313" si="20">CONCATENATE(AI313,";",AJ313,";",AK313,";",AL313,";",AM313)</f>
         <v>0;0;0;0;0</v>
       </c>
       <c r="AO313" s="21">
@@ -74787,7 +75015,7 @@
         <v>3</v>
       </c>
       <c r="H314" s="24">
-        <f t="shared" ref="H314" si="22">IF(T314&gt;10,5,IF(T314&gt;5,4,IF(T314&gt;2.5,3,IF(T314&gt;0,2,IF(T314&gt;-2.5,1,IF(T314&gt;-10,0,6))))))</f>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="I314" s="11">
@@ -74800,7 +75028,7 @@
         <v>3</v>
       </c>
       <c r="L314" s="11">
-        <v>-17</v>
+        <v>-15</v>
       </c>
       <c r="M314" s="11">
         <v>0</v>
@@ -74825,7 +75053,7 @@
       </c>
       <c r="T314" s="24">
         <f t="shared" si="17"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U314" s="11">
         <v>10</v>
@@ -74877,7 +75105,7 @@
         <v>0</v>
       </c>
       <c r="AN314" s="11" t="str">
-        <f t="shared" ref="AN314" si="23">CONCATENATE(AI314,";",AJ314,";",AK314,";",AL314,";",AM314)</f>
+        <f t="shared" ref="AN314" si="21">CONCATENATE(AI314,";",AJ314,";",AK314,";",AL314,";",AM314)</f>
         <v>0;0;0;0;0</v>
       </c>
       <c r="AO314" s="21">
@@ -74931,7 +75159,7 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="T4:T314">
-    <cfRule type="colorScale" priority="45">
+    <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -74943,48 +75171,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H314">
-    <cfRule type="cellIs" dxfId="137" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="8" operator="greaterThanOrEqual">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="21" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T314">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H314">
-    <cfRule type="cellIs" dxfId="132" priority="1" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="2" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="3" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="4" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -75008,7 +75207,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -75572,7 +75771,7 @@
         <v>5</v>
       </c>
       <c r="H4" s="4">
-        <f t="shared" ref="H4:H11" si="0">IF(T4&gt;10,5,IF(T4&gt;5,4,IF(T4&gt;2.5,3,IF(T4&gt;0,2,IF(T4&gt;-2.5,1,IF(T4&gt;-10,0,6))))))</f>
+        <f t="shared" ref="H4:H11" si="0">IF(AND(T4&gt;=13,T4&lt;=16),5,IF(AND(T4&gt;=9,T4&lt;=12),4,IF(AND(T4&gt;=5,T4&lt;=8),3,IF(AND(T4&gt;=1,T4&lt;=4),2,IF(AND(T4&gt;=-3,T4&lt;=0),1,IF(AND(T4&gt;=-5,T4&lt;=-4),0,6))))))</f>
         <v>6</v>
       </c>
       <c r="I4" s="11">
@@ -75729,7 +75928,7 @@
       </c>
       <c r="H5" s="11">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I5" s="11">
         <v>2</v>
@@ -75889,7 +76088,7 @@
       </c>
       <c r="H6" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="4">
         <v>1</v>
@@ -76045,7 +76244,7 @@
       </c>
       <c r="H7" s="11">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I7" s="11">
         <v>0</v>
@@ -76201,7 +76400,7 @@
       </c>
       <c r="H8" s="11">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I8" s="11">
         <v>0</v>
@@ -76356,8 +76555,8 @@
         <v>0</v>
       </c>
       <c r="H9" s="11">
-        <f t="shared" ref="H9" si="4">IF(T9&gt;10,5,IF(T9&gt;5,4,IF(T9&gt;2.5,3,IF(T9&gt;0,2,IF(T9&gt;-2.5,1,IF(T9&gt;-10,0,6))))))</f>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="I9" s="11">
         <v>0</v>
@@ -76440,7 +76639,7 @@
         <v>0</v>
       </c>
       <c r="AN9" s="22" t="str">
-        <f t="shared" ref="AN9" si="5">CONCATENATE(AI9,";",AJ9,";",AK9,";",AL9,";",AM9)</f>
+        <f t="shared" ref="AN9" si="4">CONCATENATE(AI9,";",AJ9,";",AK9,";",AL9,";",AM9)</f>
         <v>0;0;0;0;0</v>
       </c>
       <c r="AO9" s="21">
@@ -76673,7 +76872,7 @@
       </c>
       <c r="H11" s="11">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I11" s="11">
         <v>0</v>
@@ -76812,37 +77011,37 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="K4:K7 K10:K11">
-    <cfRule type="cellIs" dxfId="68" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="109" priority="23" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="cellIs" dxfId="67" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="108" priority="22" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:J7">
-    <cfRule type="cellIs" dxfId="66" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="107" priority="21" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="65" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="106" priority="20" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="64" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="105" priority="19" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T10:T11 T4:T7">
-    <cfRule type="colorScale" priority="38">
+    <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -76854,19 +77053,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="cellIs" dxfId="63" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="104" priority="15" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="cellIs" dxfId="62" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="103" priority="14" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T9">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -76878,19 +77077,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="cellIs" dxfId="61" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="102" priority="12" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="60" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="101" priority="11" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T8">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -76899,6 +77098,23 @@
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
       </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="greaterThanOrEqual">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+      <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ConfigData/Xlsx/Monster.xlsx
+++ b/ConfigData/Xlsx/Monster.xlsx
@@ -23,7 +23,7 @@
   </externalReferences>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -701,7 +701,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2554" uniqueCount="1434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2553" uniqueCount="1435">
   <si>
     <t>arrow</t>
   </si>
@@ -4478,9 +4478,6 @@
   <si>
     <t>状态免疫</t>
     <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>55000001;100|55000003;50;100</t>
   </si>
   <si>
     <t>55000051;60;100</t>
@@ -5539,6 +5536,14 @@
   </si>
   <si>
     <t>过牌</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>55000003;100</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -6615,367 +6620,7 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="168">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="138">
     <dxf>
       <font>
         <b/>
@@ -8105,6 +7750,34 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -8322,6 +7995,44 @@
         <patternFill patternType="solid">
           <fgColor theme="4"/>
           <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -9557,6 +9268,34 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -9767,6 +9506,44 @@
         <patternFill patternType="solid">
           <fgColor theme="4"/>
           <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -10067,11 +9844,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1068423744"/>
-        <c:axId val="1068435168"/>
+        <c:axId val="-1178985072"/>
+        <c:axId val="-1178969840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1068423744"/>
+        <c:axId val="-1178985072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10114,7 +9891,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1068435168"/>
+        <c:crossAx val="-1178969840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10122,7 +9899,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1068435168"/>
+        <c:axId val="-1178969840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10173,7 +9950,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1068423744"/>
+        <c:crossAx val="-1178985072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10880,127 +10657,127 @@
         </row>
         <row r="4">
           <cell r="A4">
-            <v>55000001</v>
+            <v>55000002</v>
           </cell>
           <cell r="V4">
-            <v>2</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="5">
           <cell r="A5">
-            <v>55000002</v>
+            <v>55000003</v>
           </cell>
           <cell r="V5">
-            <v>0</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6">
-            <v>55000003</v>
+            <v>55000004</v>
           </cell>
           <cell r="V6">
-            <v>1</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7">
-            <v>55000004</v>
+            <v>55000005</v>
           </cell>
           <cell r="V7">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8">
-            <v>55000005</v>
+            <v>55000006</v>
           </cell>
           <cell r="V8">
-            <v>1</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9">
-            <v>55000006</v>
+            <v>55000007</v>
           </cell>
           <cell r="V9">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10">
-            <v>55000007</v>
+            <v>55000008</v>
           </cell>
           <cell r="V10">
-            <v>1</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11">
-            <v>55000008</v>
+            <v>55000009</v>
           </cell>
           <cell r="V11">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12">
-            <v>55000009</v>
+            <v>55000010</v>
           </cell>
           <cell r="V12">
-            <v>1</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13">
-            <v>55000010</v>
+            <v>55000011</v>
           </cell>
           <cell r="V13">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14">
-            <v>55000011</v>
+            <v>55000012</v>
           </cell>
           <cell r="V14">
-            <v>1</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15">
-            <v>55000012</v>
+            <v>55000013</v>
           </cell>
           <cell r="V15">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16">
-            <v>55000013</v>
+            <v>55000014</v>
           </cell>
           <cell r="V16">
-            <v>1</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17">
-            <v>55000014</v>
+            <v>55000015</v>
           </cell>
           <cell r="V17">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18">
-            <v>55000015</v>
+            <v>55000016</v>
           </cell>
           <cell r="V18">
-            <v>1</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19">
-            <v>55000016</v>
+            <v>55000017</v>
           </cell>
           <cell r="V19">
             <v>0</v>
@@ -11008,7 +10785,7 @@
         </row>
         <row r="20">
           <cell r="A20">
-            <v>55000017</v>
+            <v>55000018</v>
           </cell>
           <cell r="V20">
             <v>0</v>
@@ -11016,15 +10793,15 @@
         </row>
         <row r="21">
           <cell r="A21">
-            <v>55000018</v>
+            <v>55000019</v>
           </cell>
           <cell r="V21">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22">
-            <v>55000019</v>
+            <v>55000020</v>
           </cell>
           <cell r="V22">
             <v>1</v>
@@ -11032,31 +10809,31 @@
         </row>
         <row r="23">
           <cell r="A23">
-            <v>55000020</v>
+            <v>55000021</v>
           </cell>
           <cell r="V23">
-            <v>1</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24">
-            <v>55000021</v>
+            <v>55000029</v>
           </cell>
           <cell r="V24">
-            <v>0</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25">
-            <v>55000029</v>
+            <v>55000030</v>
           </cell>
           <cell r="V25">
-            <v>3</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26">
-            <v>55000030</v>
+            <v>55000031</v>
           </cell>
           <cell r="V26">
             <v>4</v>
@@ -11064,15 +10841,15 @@
         </row>
         <row r="27">
           <cell r="A27">
-            <v>55000031</v>
+            <v>55000032</v>
           </cell>
           <cell r="V27">
-            <v>4</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28">
-            <v>55000032</v>
+            <v>55000033</v>
           </cell>
           <cell r="V28">
             <v>6</v>
@@ -11080,127 +10857,127 @@
         </row>
         <row r="29">
           <cell r="A29">
-            <v>55000033</v>
+            <v>55000034</v>
           </cell>
           <cell r="V29">
-            <v>6</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30">
-            <v>55000034</v>
+            <v>55000035</v>
           </cell>
           <cell r="V30">
-            <v>1</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31">
-            <v>55000035</v>
+            <v>55000036</v>
           </cell>
           <cell r="V31">
-            <v>8</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32">
-            <v>55000036</v>
+            <v>55000037</v>
           </cell>
           <cell r="V32">
-            <v>1</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33">
-            <v>55000037</v>
+            <v>55000038</v>
           </cell>
           <cell r="V33">
-            <v>5</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34">
-            <v>55000038</v>
+            <v>55000039</v>
           </cell>
           <cell r="V34">
-            <v>10</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35">
-            <v>55000039</v>
+            <v>55000040</v>
           </cell>
           <cell r="V35">
-            <v>20</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36">
-            <v>55000040</v>
+            <v>55000041</v>
           </cell>
           <cell r="V36">
-            <v>40</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37">
-            <v>55000041</v>
+            <v>55000042</v>
           </cell>
           <cell r="V37">
-            <v>20</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38">
-            <v>55000042</v>
+            <v>55000043</v>
           </cell>
           <cell r="V38">
-            <v>2</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39">
-            <v>55000043</v>
+            <v>55000044</v>
           </cell>
           <cell r="V39">
-            <v>10</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40">
-            <v>55000044</v>
+            <v>55000045</v>
           </cell>
           <cell r="V40">
-            <v>25</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41">
-            <v>55000045</v>
+            <v>55000046</v>
           </cell>
           <cell r="V41">
-            <v>2</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42">
-            <v>55000046</v>
+            <v>55000047</v>
           </cell>
           <cell r="V42">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43">
-            <v>55000047</v>
+            <v>55000048</v>
           </cell>
           <cell r="V43">
-            <v>1</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44">
-            <v>55000048</v>
+            <v>55000049</v>
           </cell>
           <cell r="V44">
             <v>3</v>
@@ -11208,71 +10985,71 @@
         </row>
         <row r="45">
           <cell r="A45">
-            <v>55000049</v>
+            <v>55000050</v>
           </cell>
           <cell r="V45">
-            <v>3</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46">
-            <v>55000050</v>
+            <v>55000051</v>
           </cell>
           <cell r="V46">
-            <v>1</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47">
-            <v>55000051</v>
+            <v>55000052</v>
           </cell>
           <cell r="V47">
-            <v>5</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48">
-            <v>55000052</v>
+            <v>55000061</v>
           </cell>
           <cell r="V48">
-            <v>25</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49">
-            <v>55000061</v>
+            <v>55000062</v>
           </cell>
           <cell r="V49">
-            <v>1</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="50">
           <cell r="A50">
-            <v>55000062</v>
+            <v>55000063</v>
           </cell>
           <cell r="V50">
-            <v>4</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51">
-            <v>55000063</v>
+            <v>55000064</v>
           </cell>
           <cell r="V51">
-            <v>10</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52">
-            <v>55000064</v>
+            <v>55000065</v>
           </cell>
           <cell r="V52">
-            <v>40</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53">
-            <v>55000065</v>
+            <v>55000066</v>
           </cell>
           <cell r="V53">
             <v>1</v>
@@ -11280,7 +11057,7 @@
         </row>
         <row r="54">
           <cell r="A54">
-            <v>55000066</v>
+            <v>55000067</v>
           </cell>
           <cell r="V54">
             <v>1</v>
@@ -11288,7 +11065,7 @@
         </row>
         <row r="55">
           <cell r="A55">
-            <v>55000067</v>
+            <v>55000068</v>
           </cell>
           <cell r="V55">
             <v>1</v>
@@ -11296,7 +11073,7 @@
         </row>
         <row r="56">
           <cell r="A56">
-            <v>55000068</v>
+            <v>55000069</v>
           </cell>
           <cell r="V56">
             <v>1</v>
@@ -11304,7 +11081,7 @@
         </row>
         <row r="57">
           <cell r="A57">
-            <v>55000069</v>
+            <v>55000070</v>
           </cell>
           <cell r="V57">
             <v>1</v>
@@ -11312,7 +11089,7 @@
         </row>
         <row r="58">
           <cell r="A58">
-            <v>55000070</v>
+            <v>55000071</v>
           </cell>
           <cell r="V58">
             <v>1</v>
@@ -11320,7 +11097,7 @@
         </row>
         <row r="59">
           <cell r="A59">
-            <v>55000071</v>
+            <v>55000072</v>
           </cell>
           <cell r="V59">
             <v>1</v>
@@ -11328,7 +11105,7 @@
         </row>
         <row r="60">
           <cell r="A60">
-            <v>55000072</v>
+            <v>55000073</v>
           </cell>
           <cell r="V60">
             <v>1</v>
@@ -11336,7 +11113,7 @@
         </row>
         <row r="61">
           <cell r="A61">
-            <v>55000073</v>
+            <v>55000074</v>
           </cell>
           <cell r="V61">
             <v>1</v>
@@ -11344,47 +11121,47 @@
         </row>
         <row r="62">
           <cell r="A62">
-            <v>55000074</v>
+            <v>55000075</v>
           </cell>
           <cell r="V62">
-            <v>1</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63">
-            <v>55000075</v>
+            <v>55000076</v>
           </cell>
           <cell r="V63">
-            <v>12</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64">
-            <v>55000076</v>
+            <v>55000077</v>
           </cell>
           <cell r="V64">
-            <v>5</v>
+            <v>26</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65">
-            <v>55000077</v>
+            <v>55000078</v>
           </cell>
           <cell r="V65">
-            <v>26</v>
+            <v>-4</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66">
-            <v>55000078</v>
+            <v>55000079</v>
           </cell>
           <cell r="V66">
-            <v>-4</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67">
-            <v>55000079</v>
+            <v>55000080</v>
           </cell>
           <cell r="V67">
             <v>2</v>
@@ -11392,79 +11169,79 @@
         </row>
         <row r="68">
           <cell r="A68">
-            <v>55000080</v>
+            <v>55000081</v>
           </cell>
           <cell r="V68">
-            <v>2</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69">
-            <v>55000081</v>
+            <v>55000082</v>
           </cell>
           <cell r="V69">
-            <v>1</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70">
-            <v>55000082</v>
+            <v>55000083</v>
           </cell>
           <cell r="V70">
-            <v>6</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="71">
           <cell r="A71">
-            <v>55000083</v>
+            <v>55000084</v>
           </cell>
           <cell r="V71">
-            <v>15</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="72">
           <cell r="A72">
-            <v>55000084</v>
+            <v>55000085</v>
           </cell>
           <cell r="V72">
-            <v>35</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73">
-            <v>55000085</v>
+            <v>55000086</v>
           </cell>
           <cell r="V73">
-            <v>2</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="74">
           <cell r="A74">
-            <v>55000086</v>
+            <v>55000087</v>
           </cell>
           <cell r="V74">
-            <v>1</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75">
-            <v>55000087</v>
+            <v>55000088</v>
           </cell>
           <cell r="V75">
-            <v>6</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="76">
           <cell r="A76">
-            <v>55000088</v>
+            <v>55000089</v>
           </cell>
           <cell r="V76">
-            <v>3</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="77">
           <cell r="A77">
-            <v>55000089</v>
+            <v>55000090</v>
           </cell>
           <cell r="V77">
             <v>6</v>
@@ -11472,263 +11249,263 @@
         </row>
         <row r="78">
           <cell r="A78">
-            <v>55000090</v>
+            <v>55000091</v>
           </cell>
           <cell r="V78">
-            <v>6</v>
+            <v>-15</v>
           </cell>
         </row>
         <row r="79">
           <cell r="A79">
-            <v>55000091</v>
+            <v>55000092</v>
           </cell>
           <cell r="V79">
-            <v>-15</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="80">
           <cell r="A80">
-            <v>55000092</v>
+            <v>55000093</v>
           </cell>
           <cell r="V80">
-            <v>5</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="81">
           <cell r="A81">
-            <v>55000093</v>
+            <v>55000094</v>
           </cell>
           <cell r="V81">
-            <v>2</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="82">
           <cell r="A82">
-            <v>55000094</v>
+            <v>55000095</v>
           </cell>
           <cell r="V82">
-            <v>30</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="83">
           <cell r="A83">
-            <v>55000095</v>
+            <v>55000096</v>
           </cell>
           <cell r="V83">
-            <v>3</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="84">
           <cell r="A84">
-            <v>55000096</v>
+            <v>55000097</v>
           </cell>
           <cell r="V84">
-            <v>2</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85">
-            <v>55000097</v>
+            <v>55000098</v>
           </cell>
           <cell r="V85">
-            <v>0</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="86">
           <cell r="A86">
-            <v>55000098</v>
+            <v>55000099</v>
           </cell>
           <cell r="V86">
-            <v>4</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87">
-            <v>55000099</v>
+            <v>55000100</v>
           </cell>
           <cell r="V87">
-            <v>0</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="88">
           <cell r="A88">
-            <v>55000100</v>
+            <v>55000102</v>
           </cell>
           <cell r="V88">
-            <v>5</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89">
-            <v>55000101</v>
+            <v>55000103</v>
           </cell>
           <cell r="V89">
-            <v>1</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="90">
           <cell r="A90">
-            <v>55000102</v>
+            <v>55000104</v>
           </cell>
           <cell r="V90">
-            <v>3</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="91">
           <cell r="A91">
-            <v>55000103</v>
+            <v>55000105</v>
           </cell>
           <cell r="V91">
-            <v>10</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="92">
           <cell r="A92">
-            <v>55000104</v>
+            <v>55000106</v>
           </cell>
           <cell r="V92">
-            <v>1</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="93">
           <cell r="A93">
-            <v>55000105</v>
+            <v>55000107</v>
           </cell>
           <cell r="V93">
-            <v>2</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="94">
           <cell r="A94">
-            <v>55000106</v>
+            <v>55000108</v>
           </cell>
           <cell r="V94">
-            <v>5</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="95">
           <cell r="A95">
-            <v>55000107</v>
+            <v>55000109</v>
           </cell>
           <cell r="V95">
-            <v>1</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="96">
           <cell r="A96">
-            <v>55000108</v>
+            <v>55000110</v>
           </cell>
           <cell r="V96">
-            <v>0</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="97">
           <cell r="A97">
-            <v>55000109</v>
+            <v>55000111</v>
           </cell>
           <cell r="V97">
-            <v>0</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="98">
           <cell r="A98">
-            <v>55000110</v>
+            <v>55000112</v>
           </cell>
           <cell r="V98">
-            <v>5</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="99">
           <cell r="A99">
-            <v>55000111</v>
+            <v>55000113</v>
           </cell>
           <cell r="V99">
-            <v>5</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="100">
           <cell r="A100">
-            <v>55000112</v>
+            <v>55000114</v>
           </cell>
           <cell r="V100">
-            <v>2</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="101">
           <cell r="A101">
-            <v>55000113</v>
+            <v>55000115</v>
           </cell>
           <cell r="V101">
-            <v>1</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="102">
           <cell r="A102">
-            <v>55000114</v>
+            <v>55000116</v>
           </cell>
           <cell r="V102">
-            <v>4</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="103">
           <cell r="A103">
-            <v>55000115</v>
+            <v>55000117</v>
           </cell>
           <cell r="V103">
-            <v>20</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="104">
           <cell r="A104">
-            <v>55000116</v>
+            <v>55000118</v>
           </cell>
           <cell r="V104">
-            <v>30</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="105">
           <cell r="A105">
-            <v>55000117</v>
+            <v>55000119</v>
           </cell>
           <cell r="V105">
-            <v>1</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="106">
           <cell r="A106">
-            <v>55000118</v>
+            <v>55000120</v>
           </cell>
           <cell r="V106">
-            <v>0</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="107">
           <cell r="A107">
-            <v>55000119</v>
+            <v>55000121</v>
           </cell>
           <cell r="V107">
-            <v>7</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="108">
           <cell r="A108">
-            <v>55000120</v>
+            <v>55000122</v>
           </cell>
           <cell r="V108">
-            <v>10</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="109">
           <cell r="A109">
-            <v>55000121</v>
+            <v>55000123</v>
           </cell>
           <cell r="V109">
-            <v>3</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="110">
           <cell r="A110">
-            <v>55000122</v>
+            <v>55000124</v>
           </cell>
           <cell r="V110">
             <v>1</v>
@@ -11736,55 +11513,55 @@
         </row>
         <row r="111">
           <cell r="A111">
-            <v>55000123</v>
+            <v>55000125</v>
           </cell>
           <cell r="V111">
-            <v>2</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="112">
           <cell r="A112">
-            <v>55000124</v>
+            <v>55000126</v>
           </cell>
           <cell r="V112">
-            <v>1</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="113">
           <cell r="A113">
-            <v>55000125</v>
+            <v>55000127</v>
           </cell>
           <cell r="V113">
-            <v>0</v>
+            <v>80</v>
           </cell>
         </row>
         <row r="114">
           <cell r="A114">
-            <v>55000126</v>
+            <v>55000129</v>
           </cell>
           <cell r="V114">
-            <v>4</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="115">
           <cell r="A115">
-            <v>55000127</v>
+            <v>55000130</v>
           </cell>
           <cell r="V115">
-            <v>80</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="116">
           <cell r="A116">
-            <v>55000129</v>
+            <v>55000131</v>
           </cell>
           <cell r="V116">
-            <v>3</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="117">
           <cell r="A117">
-            <v>55000130</v>
+            <v>55000132</v>
           </cell>
           <cell r="V117">
             <v>3</v>
@@ -11792,7 +11569,7 @@
         </row>
         <row r="118">
           <cell r="A118">
-            <v>55000131</v>
+            <v>55000133</v>
           </cell>
           <cell r="V118">
             <v>5</v>
@@ -11800,47 +11577,47 @@
         </row>
         <row r="119">
           <cell r="A119">
-            <v>55000132</v>
+            <v>55000134</v>
           </cell>
           <cell r="V119">
-            <v>3</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="120">
           <cell r="A120">
-            <v>55000133</v>
+            <v>55000135</v>
           </cell>
           <cell r="V120">
-            <v>5</v>
+            <v>-5</v>
           </cell>
         </row>
         <row r="121">
           <cell r="A121">
-            <v>55000134</v>
+            <v>55000136</v>
           </cell>
           <cell r="V121">
-            <v>25</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="122">
           <cell r="A122">
-            <v>55000135</v>
+            <v>55000137</v>
           </cell>
           <cell r="V122">
-            <v>-5</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="123">
           <cell r="A123">
-            <v>55000136</v>
+            <v>55000138</v>
           </cell>
           <cell r="V123">
-            <v>6</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="124">
           <cell r="A124">
-            <v>55000137</v>
+            <v>55000139</v>
           </cell>
           <cell r="V124">
             <v>1</v>
@@ -11848,15 +11625,15 @@
         </row>
         <row r="125">
           <cell r="A125">
-            <v>55000138</v>
+            <v>55000140</v>
           </cell>
           <cell r="V125">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="126">
           <cell r="A126">
-            <v>55000139</v>
+            <v>55000141</v>
           </cell>
           <cell r="V126">
             <v>1</v>
@@ -11864,39 +11641,39 @@
         </row>
         <row r="127">
           <cell r="A127">
-            <v>55000140</v>
+            <v>55000142</v>
           </cell>
           <cell r="V127">
-            <v>1</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="128">
           <cell r="A128">
-            <v>55000141</v>
+            <v>55000143</v>
           </cell>
           <cell r="V128">
-            <v>1</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="129">
           <cell r="A129">
-            <v>55000142</v>
+            <v>55000144</v>
           </cell>
           <cell r="V129">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="130">
           <cell r="A130">
-            <v>55000143</v>
+            <v>55000145</v>
           </cell>
           <cell r="V130">
-            <v>4</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="131">
           <cell r="A131">
-            <v>55000144</v>
+            <v>55000146</v>
           </cell>
           <cell r="V131">
             <v>1</v>
@@ -11904,7 +11681,7 @@
         </row>
         <row r="132">
           <cell r="A132">
-            <v>55000145</v>
+            <v>55000147</v>
           </cell>
           <cell r="V132">
             <v>0</v>
@@ -11912,7 +11689,7 @@
         </row>
         <row r="133">
           <cell r="A133">
-            <v>55000146</v>
+            <v>55000148</v>
           </cell>
           <cell r="V133">
             <v>1</v>
@@ -11920,7 +11697,7 @@
         </row>
         <row r="134">
           <cell r="A134">
-            <v>55000147</v>
+            <v>55000149</v>
           </cell>
           <cell r="V134">
             <v>0</v>
@@ -11928,135 +11705,135 @@
         </row>
         <row r="135">
           <cell r="A135">
-            <v>55000148</v>
+            <v>55000150</v>
           </cell>
           <cell r="V135">
-            <v>1</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="136">
           <cell r="A136">
-            <v>55000149</v>
+            <v>55000151</v>
           </cell>
           <cell r="V136">
-            <v>0</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="137">
           <cell r="A137">
-            <v>55000150</v>
+            <v>55000152</v>
           </cell>
           <cell r="V137">
-            <v>0</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="138">
           <cell r="A138">
-            <v>55000151</v>
+            <v>55000153</v>
           </cell>
           <cell r="V138">
-            <v>2</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="139">
           <cell r="A139">
-            <v>55000152</v>
+            <v>55000154</v>
           </cell>
           <cell r="V139">
-            <v>3</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="140">
           <cell r="A140">
-            <v>55000153</v>
+            <v>55000155</v>
           </cell>
           <cell r="V140">
-            <v>0</v>
+            <v>-2</v>
           </cell>
         </row>
         <row r="141">
           <cell r="A141">
-            <v>55000154</v>
+            <v>55000156</v>
           </cell>
           <cell r="V141">
-            <v>1</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="142">
           <cell r="A142">
-            <v>55000155</v>
+            <v>55000157</v>
           </cell>
           <cell r="V142">
-            <v>-2</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="143">
           <cell r="A143">
-            <v>55000156</v>
+            <v>55000158</v>
           </cell>
           <cell r="V143">
-            <v>0</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="144">
           <cell r="A144">
-            <v>55000157</v>
+            <v>55000159</v>
           </cell>
           <cell r="V144">
-            <v>30</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="145">
           <cell r="A145">
-            <v>55000158</v>
+            <v>55000160</v>
           </cell>
           <cell r="V145">
-            <v>7</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="146">
           <cell r="A146">
-            <v>55000159</v>
+            <v>55000161</v>
           </cell>
           <cell r="V146">
-            <v>1</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="147">
           <cell r="A147">
-            <v>55000160</v>
+            <v>55000162</v>
           </cell>
           <cell r="V147">
-            <v>9</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="148">
           <cell r="A148">
-            <v>55000161</v>
+            <v>55000163</v>
           </cell>
           <cell r="V148">
-            <v>0</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="149">
           <cell r="A149">
-            <v>55000162</v>
+            <v>55000164</v>
           </cell>
           <cell r="V149">
-            <v>1</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="150">
           <cell r="A150">
-            <v>55000163</v>
+            <v>55000165</v>
           </cell>
           <cell r="V150">
-            <v>10</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="151">
           <cell r="A151">
-            <v>55000164</v>
+            <v>55000166</v>
           </cell>
           <cell r="V151">
             <v>6</v>
@@ -12064,71 +11841,71 @@
         </row>
         <row r="152">
           <cell r="A152">
-            <v>55000165</v>
+            <v>55000167</v>
           </cell>
           <cell r="V152">
-            <v>2</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="153">
           <cell r="A153">
-            <v>55000166</v>
+            <v>55000168</v>
           </cell>
           <cell r="V153">
-            <v>6</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="154">
           <cell r="A154">
-            <v>55000167</v>
+            <v>55000169</v>
           </cell>
           <cell r="V154">
-            <v>10</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="155">
           <cell r="A155">
-            <v>55000168</v>
+            <v>55000170</v>
           </cell>
           <cell r="V155">
-            <v>2</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="156">
           <cell r="A156">
-            <v>55000169</v>
+            <v>55000171</v>
           </cell>
           <cell r="V156">
-            <v>5</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="157">
           <cell r="A157">
-            <v>55000170</v>
+            <v>55000172</v>
           </cell>
           <cell r="V157">
-            <v>1</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="158">
           <cell r="A158">
-            <v>55000171</v>
+            <v>55000173</v>
           </cell>
           <cell r="V158">
-            <v>4</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="159">
           <cell r="A159">
-            <v>55000172</v>
+            <v>55000174</v>
           </cell>
           <cell r="V159">
-            <v>2</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="160">
           <cell r="A160">
-            <v>55000173</v>
+            <v>55000175</v>
           </cell>
           <cell r="V160">
             <v>1</v>
@@ -12136,79 +11913,79 @@
         </row>
         <row r="161">
           <cell r="A161">
-            <v>55000174</v>
+            <v>55000176</v>
           </cell>
           <cell r="V161">
-            <v>1</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="162">
           <cell r="A162">
-            <v>55000175</v>
+            <v>55000177</v>
           </cell>
           <cell r="V162">
-            <v>1</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="163">
           <cell r="A163">
-            <v>55000176</v>
+            <v>55000178</v>
           </cell>
           <cell r="V163">
-            <v>5</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="164">
           <cell r="A164">
-            <v>55000177</v>
+            <v>55000179</v>
           </cell>
           <cell r="V164">
-            <v>0</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="165">
           <cell r="A165">
-            <v>55000178</v>
+            <v>55000180</v>
           </cell>
           <cell r="V165">
-            <v>30</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="166">
           <cell r="A166">
-            <v>55000179</v>
+            <v>55000181</v>
           </cell>
           <cell r="V166">
-            <v>30</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="167">
           <cell r="A167">
-            <v>55000180</v>
+            <v>55000182</v>
           </cell>
           <cell r="V167">
-            <v>10</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="168">
           <cell r="A168">
-            <v>55000181</v>
+            <v>55000183</v>
           </cell>
           <cell r="V168">
-            <v>40</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="169">
           <cell r="A169">
-            <v>55000182</v>
+            <v>55000184</v>
           </cell>
           <cell r="V169">
-            <v>3</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="170">
           <cell r="A170">
-            <v>55000183</v>
+            <v>55000185</v>
           </cell>
           <cell r="V170">
             <v>3</v>
@@ -12216,87 +11993,87 @@
         </row>
         <row r="171">
           <cell r="A171">
-            <v>55000184</v>
+            <v>55000186</v>
           </cell>
           <cell r="V171">
-            <v>1</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="172">
           <cell r="A172">
-            <v>55000185</v>
+            <v>55000187</v>
           </cell>
           <cell r="V172">
-            <v>3</v>
+            <v>-12</v>
           </cell>
         </row>
         <row r="173">
           <cell r="A173">
-            <v>55000186</v>
+            <v>55000188</v>
           </cell>
           <cell r="V173">
-            <v>2</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="174">
           <cell r="A174">
-            <v>55000187</v>
+            <v>55000189</v>
           </cell>
           <cell r="V174">
-            <v>-12</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="175">
           <cell r="A175">
-            <v>55000188</v>
+            <v>55000190</v>
           </cell>
           <cell r="V175">
-            <v>-1</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="176">
           <cell r="A176">
-            <v>55000189</v>
+            <v>55000191</v>
           </cell>
           <cell r="V176">
-            <v>20</v>
+            <v>22</v>
           </cell>
         </row>
         <row r="177">
           <cell r="A177">
-            <v>55000190</v>
+            <v>55000192</v>
           </cell>
           <cell r="V177">
-            <v>1</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="178">
           <cell r="A178">
-            <v>55000191</v>
+            <v>55000193</v>
           </cell>
           <cell r="V178">
-            <v>22</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="179">
           <cell r="A179">
-            <v>55000192</v>
+            <v>55000194</v>
           </cell>
           <cell r="V179">
-            <v>2</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="180">
           <cell r="A180">
-            <v>55000193</v>
+            <v>55000195</v>
           </cell>
           <cell r="V180">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="181">
           <cell r="A181">
-            <v>55000194</v>
+            <v>55000196</v>
           </cell>
           <cell r="V181">
             <v>1</v>
@@ -12304,119 +12081,119 @@
         </row>
         <row r="182">
           <cell r="A182">
-            <v>55000195</v>
+            <v>55000197</v>
           </cell>
           <cell r="V182">
-            <v>1</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="183">
           <cell r="A183">
-            <v>55000196</v>
+            <v>55000198</v>
           </cell>
           <cell r="V183">
-            <v>1</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="184">
           <cell r="A184">
-            <v>55000197</v>
+            <v>55000199</v>
           </cell>
           <cell r="V184">
-            <v>3</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="185">
           <cell r="A185">
-            <v>55000198</v>
+            <v>55000200</v>
           </cell>
           <cell r="V185">
-            <v>2</v>
+            <v>14</v>
           </cell>
         </row>
         <row r="186">
           <cell r="A186">
-            <v>55000199</v>
+            <v>55000201</v>
           </cell>
           <cell r="V186">
-            <v>6</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="187">
           <cell r="A187">
-            <v>55000200</v>
+            <v>55000202</v>
           </cell>
           <cell r="V187">
-            <v>14</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="188">
           <cell r="A188">
-            <v>55000201</v>
+            <v>55000203</v>
           </cell>
           <cell r="V188">
-            <v>2</v>
+            <v>100</v>
           </cell>
         </row>
         <row r="189">
           <cell r="A189">
-            <v>55000202</v>
+            <v>55000204</v>
           </cell>
           <cell r="V189">
-            <v>10</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="190">
           <cell r="A190">
-            <v>55000203</v>
+            <v>55000205</v>
           </cell>
           <cell r="V190">
-            <v>100</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="191">
           <cell r="A191">
-            <v>55000204</v>
+            <v>55000206</v>
           </cell>
           <cell r="V191">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="192">
           <cell r="A192">
-            <v>55000205</v>
+            <v>55000207</v>
           </cell>
           <cell r="V192">
-            <v>1</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="193">
           <cell r="A193">
-            <v>55000206</v>
+            <v>55000208</v>
           </cell>
           <cell r="V193">
-            <v>1</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="194">
           <cell r="A194">
-            <v>55000207</v>
+            <v>55000209</v>
           </cell>
           <cell r="V194">
-            <v>25</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="195">
           <cell r="A195">
-            <v>55000208</v>
+            <v>55000210</v>
           </cell>
           <cell r="V195">
-            <v>0</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="196">
           <cell r="A196">
-            <v>55000209</v>
+            <v>55000211</v>
           </cell>
           <cell r="V196">
             <v>0</v>
@@ -12424,15 +12201,15 @@
         </row>
         <row r="197">
           <cell r="A197">
-            <v>55000210</v>
+            <v>55000212</v>
           </cell>
           <cell r="V197">
-            <v>6</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="198">
           <cell r="A198">
-            <v>55000211</v>
+            <v>55000213</v>
           </cell>
           <cell r="V198">
             <v>0</v>
@@ -12440,47 +12217,47 @@
         </row>
         <row r="199">
           <cell r="A199">
-            <v>55000212</v>
+            <v>55000214</v>
           </cell>
           <cell r="V199">
-            <v>3</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="200">
           <cell r="A200">
-            <v>55000213</v>
+            <v>55000215</v>
           </cell>
           <cell r="V200">
-            <v>0</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="201">
           <cell r="A201">
-            <v>55000214</v>
+            <v>55000216</v>
           </cell>
           <cell r="V201">
-            <v>15</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="202">
           <cell r="A202">
-            <v>55000215</v>
+            <v>55000217</v>
           </cell>
           <cell r="V202">
-            <v>4</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="203">
           <cell r="A203">
-            <v>55000216</v>
+            <v>55000218</v>
           </cell>
           <cell r="V203">
-            <v>5</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="204">
           <cell r="A204">
-            <v>55000217</v>
+            <v>55000219</v>
           </cell>
           <cell r="V204">
             <v>2</v>
@@ -12488,119 +12265,119 @@
         </row>
         <row r="205">
           <cell r="A205">
-            <v>55000218</v>
+            <v>55000220</v>
           </cell>
           <cell r="V205">
-            <v>8</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="206">
           <cell r="A206">
-            <v>55000219</v>
+            <v>55000221</v>
           </cell>
           <cell r="V206">
-            <v>2</v>
+            <v>80</v>
           </cell>
         </row>
         <row r="207">
           <cell r="A207">
-            <v>55000220</v>
+            <v>55000222</v>
           </cell>
           <cell r="V207">
-            <v>1</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="208">
           <cell r="A208">
-            <v>55000221</v>
+            <v>55000223</v>
           </cell>
           <cell r="V208">
-            <v>80</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="209">
           <cell r="A209">
-            <v>55000222</v>
+            <v>55000224</v>
           </cell>
           <cell r="V209">
-            <v>4</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="210">
           <cell r="A210">
-            <v>55000223</v>
+            <v>55000225</v>
           </cell>
           <cell r="V210">
-            <v>0</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="211">
           <cell r="A211">
-            <v>55000224</v>
+            <v>55000226</v>
           </cell>
           <cell r="V211">
-            <v>1</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="212">
           <cell r="A212">
-            <v>55000225</v>
+            <v>55000227</v>
           </cell>
           <cell r="V212">
-            <v>30</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="213">
           <cell r="A213">
-            <v>55000226</v>
+            <v>55000228</v>
           </cell>
           <cell r="V213">
-            <v>30</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="214">
           <cell r="A214">
-            <v>55000227</v>
+            <v>55000229</v>
           </cell>
           <cell r="V214">
-            <v>3</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="215">
           <cell r="A215">
-            <v>55000228</v>
+            <v>55000230</v>
           </cell>
           <cell r="V215">
-            <v>1</v>
+            <v>-18</v>
           </cell>
         </row>
         <row r="216">
           <cell r="A216">
-            <v>55000229</v>
+            <v>55000231</v>
           </cell>
           <cell r="V216">
-            <v>30</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="217">
           <cell r="A217">
-            <v>55000230</v>
+            <v>55000232</v>
           </cell>
           <cell r="V217">
-            <v>-18</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="218">
           <cell r="A218">
-            <v>55000231</v>
+            <v>55000233</v>
           </cell>
           <cell r="V218">
-            <v>15</v>
+            <v>-2</v>
           </cell>
         </row>
         <row r="219">
           <cell r="A219">
-            <v>55000232</v>
+            <v>55000234</v>
           </cell>
           <cell r="V219">
             <v>3</v>
@@ -12608,207 +12385,207 @@
         </row>
         <row r="220">
           <cell r="A220">
-            <v>55000233</v>
+            <v>55000235</v>
           </cell>
           <cell r="V220">
-            <v>-2</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="221">
           <cell r="A221">
-            <v>55000234</v>
+            <v>55000236</v>
           </cell>
           <cell r="V221">
-            <v>3</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="222">
           <cell r="A222">
-            <v>55000235</v>
+            <v>55000237</v>
           </cell>
           <cell r="V222">
-            <v>1</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="223">
           <cell r="A223">
-            <v>55000236</v>
+            <v>55000238</v>
           </cell>
           <cell r="V223">
-            <v>5</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="224">
           <cell r="A224">
-            <v>55000237</v>
+            <v>55000239</v>
           </cell>
           <cell r="V224">
-            <v>0</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="225">
           <cell r="A225">
-            <v>55000238</v>
+            <v>55000240</v>
           </cell>
           <cell r="V225">
-            <v>10</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="226">
           <cell r="A226">
-            <v>55000239</v>
+            <v>55000241</v>
           </cell>
           <cell r="V226">
-            <v>2</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="227">
           <cell r="A227">
-            <v>55000240</v>
+            <v>55000242</v>
           </cell>
           <cell r="V227">
-            <v>5</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="228">
           <cell r="A228">
-            <v>55000241</v>
+            <v>55000243</v>
           </cell>
           <cell r="V228">
-            <v>0</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="229">
           <cell r="A229">
-            <v>55000242</v>
+            <v>55000244</v>
           </cell>
           <cell r="V229">
-            <v>3</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="230">
           <cell r="A230">
-            <v>55000243</v>
+            <v>55000245</v>
           </cell>
           <cell r="V230">
-            <v>2</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="231">
           <cell r="A231">
-            <v>55000244</v>
+            <v>55000246</v>
           </cell>
           <cell r="V231">
-            <v>2</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="232">
           <cell r="A232">
-            <v>55000245</v>
+            <v>55000247</v>
           </cell>
           <cell r="V232">
-            <v>4</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="233">
           <cell r="A233">
-            <v>55000246</v>
+            <v>55000248</v>
           </cell>
           <cell r="V233">
-            <v>1</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="234">
           <cell r="A234">
-            <v>55000247</v>
+            <v>55000249</v>
           </cell>
           <cell r="V234">
-            <v>1</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="235">
           <cell r="A235">
-            <v>55000248</v>
+            <v>55000250</v>
           </cell>
           <cell r="V235">
-            <v>8</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="236">
           <cell r="A236">
-            <v>55000249</v>
+            <v>55000251</v>
           </cell>
           <cell r="V236">
-            <v>4</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="237">
           <cell r="A237">
-            <v>55000250</v>
+            <v>55000252</v>
           </cell>
           <cell r="V237">
-            <v>3</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="238">
           <cell r="A238">
-            <v>55000251</v>
+            <v>55000253</v>
           </cell>
           <cell r="V238">
-            <v>2</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="239">
           <cell r="A239">
-            <v>55000252</v>
+            <v>55000254</v>
           </cell>
           <cell r="V239">
-            <v>1</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="240">
           <cell r="A240">
-            <v>55000253</v>
+            <v>55000255</v>
           </cell>
           <cell r="V240">
-            <v>0</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="241">
           <cell r="A241">
-            <v>55000254</v>
+            <v>55000256</v>
           </cell>
           <cell r="V241">
-            <v>3</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="242">
           <cell r="A242">
-            <v>55000255</v>
+            <v>55000257</v>
           </cell>
           <cell r="V242">
-            <v>5</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="243">
           <cell r="A243">
-            <v>55000256</v>
+            <v>55000258</v>
           </cell>
           <cell r="V243">
-            <v>0</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="244">
           <cell r="A244">
-            <v>55000257</v>
+            <v>55000259</v>
           </cell>
           <cell r="V244">
-            <v>2</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="245">
           <cell r="A245">
-            <v>55000258</v>
+            <v>55000260</v>
           </cell>
           <cell r="V245">
             <v>3</v>
@@ -12816,39 +12593,39 @@
         </row>
         <row r="246">
           <cell r="A246">
-            <v>55000259</v>
+            <v>55000261</v>
           </cell>
           <cell r="V246">
-            <v>5</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="247">
           <cell r="A247">
-            <v>55000260</v>
+            <v>55000262</v>
           </cell>
           <cell r="V247">
-            <v>3</v>
+            <v>22</v>
           </cell>
         </row>
         <row r="248">
           <cell r="A248">
-            <v>55000261</v>
+            <v>55000263</v>
           </cell>
           <cell r="V248">
-            <v>2</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="249">
           <cell r="A249">
-            <v>55000262</v>
+            <v>55000264</v>
           </cell>
           <cell r="V249">
-            <v>22</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="250">
           <cell r="A250">
-            <v>55000263</v>
+            <v>55000265</v>
           </cell>
           <cell r="V250">
             <v>10</v>
@@ -12856,239 +12633,239 @@
         </row>
         <row r="251">
           <cell r="A251">
-            <v>55000264</v>
+            <v>55000266</v>
           </cell>
           <cell r="V251">
-            <v>3</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="252">
           <cell r="A252">
-            <v>55000265</v>
+            <v>55000267</v>
           </cell>
           <cell r="V252">
-            <v>10</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="253">
           <cell r="A253">
-            <v>55000266</v>
+            <v>55000268</v>
           </cell>
           <cell r="V253">
-            <v>1</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="254">
           <cell r="A254">
-            <v>55000267</v>
+            <v>55000269</v>
           </cell>
           <cell r="V254">
-            <v>25</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="255">
           <cell r="A255">
-            <v>55000268</v>
+            <v>55000270</v>
           </cell>
           <cell r="V255">
-            <v>2</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="256">
           <cell r="A256">
-            <v>55000269</v>
+            <v>55000271</v>
           </cell>
           <cell r="V256">
-            <v>3</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="257">
           <cell r="A257">
-            <v>55000270</v>
+            <v>55000272</v>
           </cell>
           <cell r="V257">
-            <v>0</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="258">
           <cell r="A258">
-            <v>55000271</v>
+            <v>55000273</v>
           </cell>
           <cell r="V258">
-            <v>2</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="259">
           <cell r="A259">
-            <v>55000272</v>
+            <v>55000274</v>
           </cell>
           <cell r="V259">
-            <v>25</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="260">
           <cell r="A260">
-            <v>55000273</v>
+            <v>55000275</v>
           </cell>
           <cell r="V260">
-            <v>4</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="261">
           <cell r="A261">
-            <v>55000274</v>
+            <v>55000276</v>
           </cell>
           <cell r="V261">
-            <v>0</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="262">
           <cell r="A262">
-            <v>55000275</v>
+            <v>55000277</v>
           </cell>
           <cell r="V262">
-            <v>2</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="263">
           <cell r="A263">
-            <v>55000276</v>
+            <v>55000278</v>
           </cell>
           <cell r="V263">
-            <v>30</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="264">
           <cell r="A264">
-            <v>55000277</v>
+            <v>55000279</v>
           </cell>
           <cell r="V264">
-            <v>1</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="265">
           <cell r="A265">
-            <v>55000278</v>
+            <v>55000280</v>
           </cell>
           <cell r="V265">
-            <v>9</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="266">
           <cell r="A266">
-            <v>55000279</v>
+            <v>55000281</v>
           </cell>
           <cell r="V266">
-            <v>8</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="267">
           <cell r="A267">
-            <v>55000280</v>
+            <v>55000282</v>
           </cell>
           <cell r="V267">
-            <v>2</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="268">
           <cell r="A268">
-            <v>55000281</v>
+            <v>55000284</v>
           </cell>
           <cell r="V268">
-            <v>15</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="269">
           <cell r="A269">
-            <v>55000282</v>
+            <v>55000285</v>
           </cell>
           <cell r="V269">
-            <v>1</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="270">
           <cell r="A270">
-            <v>55000284</v>
+            <v>55000286</v>
           </cell>
           <cell r="V270">
-            <v>6</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="271">
           <cell r="A271">
-            <v>55000285</v>
+            <v>55000287</v>
           </cell>
           <cell r="V271">
-            <v>4</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="272">
           <cell r="A272">
-            <v>55000286</v>
+            <v>55000288</v>
           </cell>
           <cell r="V272">
-            <v>3</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="273">
           <cell r="A273">
-            <v>55000287</v>
+            <v>55000289</v>
           </cell>
           <cell r="V273">
-            <v>3</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="274">
           <cell r="A274">
-            <v>55000288</v>
+            <v>55000290</v>
           </cell>
           <cell r="V274">
-            <v>1</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="275">
           <cell r="A275">
-            <v>55000289</v>
+            <v>55000291</v>
           </cell>
           <cell r="V275">
-            <v>8</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="276">
           <cell r="A276">
-            <v>55000290</v>
+            <v>55000292</v>
           </cell>
           <cell r="V276">
-            <v>6</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="277">
           <cell r="A277">
-            <v>55000291</v>
+            <v>55000293</v>
           </cell>
           <cell r="V277">
-            <v>4</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="278">
           <cell r="A278">
-            <v>55000292</v>
+            <v>55000294</v>
           </cell>
           <cell r="V278">
-            <v>9</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="279">
           <cell r="A279">
-            <v>55000293</v>
+            <v>55000295</v>
           </cell>
           <cell r="V279">
-            <v>1</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="280">
           <cell r="A280">
-            <v>55000294</v>
+            <v>55000296</v>
           </cell>
           <cell r="V280">
             <v>3</v>
@@ -13096,95 +12873,95 @@
         </row>
         <row r="281">
           <cell r="A281">
-            <v>55000295</v>
+            <v>55000297</v>
           </cell>
           <cell r="V281">
-            <v>4</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="282">
           <cell r="A282">
-            <v>55000296</v>
+            <v>55000298</v>
           </cell>
           <cell r="V282">
-            <v>3</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="283">
           <cell r="A283">
-            <v>55000297</v>
+            <v>55000299</v>
           </cell>
           <cell r="V283">
-            <v>2</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="284">
           <cell r="A284">
-            <v>55000298</v>
+            <v>55000300</v>
           </cell>
           <cell r="V284">
-            <v>2</v>
+            <v>80</v>
           </cell>
         </row>
         <row r="285">
           <cell r="A285">
-            <v>55000299</v>
+            <v>55000324</v>
           </cell>
           <cell r="V285">
-            <v>3</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="286">
           <cell r="A286">
-            <v>55000300</v>
+            <v>55000325</v>
           </cell>
           <cell r="V286">
-            <v>80</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="287">
           <cell r="A287">
-            <v>55000324</v>
+            <v>55000326</v>
           </cell>
           <cell r="V287">
-            <v>5</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="288">
           <cell r="A288">
-            <v>55000325</v>
+            <v>55000327</v>
           </cell>
           <cell r="V288">
-            <v>5</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="289">
           <cell r="A289">
-            <v>55000326</v>
+            <v>55000328</v>
           </cell>
           <cell r="V289">
-            <v>10</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="290">
           <cell r="A290">
-            <v>55000327</v>
+            <v>55000329</v>
           </cell>
           <cell r="V290">
-            <v>8</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="291">
           <cell r="A291">
-            <v>55000328</v>
+            <v>55000330</v>
           </cell>
           <cell r="V291">
-            <v>7</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="292">
           <cell r="A292">
-            <v>55000329</v>
+            <v>55000331</v>
           </cell>
           <cell r="V292">
             <v>6</v>
@@ -13192,39 +12969,39 @@
         </row>
         <row r="293">
           <cell r="A293">
-            <v>55000330</v>
+            <v>55000332</v>
           </cell>
           <cell r="V293">
-            <v>4</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="294">
           <cell r="A294">
-            <v>55000331</v>
+            <v>55000333</v>
           </cell>
           <cell r="V294">
-            <v>6</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="295">
           <cell r="A295">
-            <v>55000332</v>
+            <v>55000334</v>
           </cell>
           <cell r="V295">
-            <v>0</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="296">
           <cell r="A296">
-            <v>55000333</v>
+            <v>55000335</v>
           </cell>
           <cell r="V296">
-            <v>0</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="297">
           <cell r="A297">
-            <v>55000334</v>
+            <v>55000340</v>
           </cell>
           <cell r="V297">
             <v>2</v>
@@ -13232,57 +13009,41 @@
         </row>
         <row r="298">
           <cell r="A298">
-            <v>55000335</v>
+            <v>55000341</v>
           </cell>
           <cell r="V298">
-            <v>15</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="299">
           <cell r="A299">
-            <v>55000340</v>
+            <v>55000342</v>
           </cell>
           <cell r="V299">
-            <v>2</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="300">
           <cell r="A300">
-            <v>55000341</v>
+            <v>55000343</v>
           </cell>
           <cell r="V300">
-            <v>8</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="301">
-          <cell r="A301">
-            <v>55000342</v>
+          <cell r="A301" t="str">
+            <v>55000060|FightQuick</v>
           </cell>
           <cell r="V301">
-            <v>4</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="302">
           <cell r="A302">
-            <v>55000343</v>
+            <v>55000344</v>
           </cell>
           <cell r="V302">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="303">
-          <cell r="A303" t="str">
-            <v>55000060|FightQuick</v>
-          </cell>
-          <cell r="V303">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="304">
-          <cell r="A304">
-            <v>55000344</v>
-          </cell>
-          <cell r="V304">
             <v>40</v>
           </cell>
         </row>
@@ -22222,7 +21983,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="27">
     <pivotField dataField="1" showAll="0"/>
@@ -22320,169 +22081,169 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:BD314" totalsRowShown="0" headerRowDxfId="167" dataDxfId="166" tableBorderDxfId="165">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:BD314" totalsRowShown="0" headerRowDxfId="132" dataDxfId="131" tableBorderDxfId="130">
   <autoFilter ref="A3:BD314"/>
   <sortState ref="A4:AF311">
     <sortCondition ref="A3:A311"/>
   </sortState>
   <tableColumns count="56">
-    <tableColumn id="1" name="Id" dataDxfId="164"/>
-    <tableColumn id="2" name="Name" dataDxfId="163"/>
-    <tableColumn id="22" name="Ename" dataDxfId="162"/>
-    <tableColumn id="23" name="EnameShort" dataDxfId="161"/>
-    <tableColumn id="3" name="Star" dataDxfId="160"/>
-    <tableColumn id="4" name="Type" dataDxfId="159"/>
-    <tableColumn id="5" name="Attr" dataDxfId="158"/>
-    <tableColumn id="58" name="Quality" dataDxfId="11">
+    <tableColumn id="1" name="Id" dataDxfId="129"/>
+    <tableColumn id="2" name="Name" dataDxfId="128"/>
+    <tableColumn id="22" name="Ename" dataDxfId="127"/>
+    <tableColumn id="23" name="EnameShort" dataDxfId="126"/>
+    <tableColumn id="3" name="Star" dataDxfId="125"/>
+    <tableColumn id="4" name="Type" dataDxfId="124"/>
+    <tableColumn id="5" name="Attr" dataDxfId="123"/>
+    <tableColumn id="58" name="Quality" dataDxfId="122">
       <calculatedColumnFormula>IF(AND(T4&gt;=13,T4&lt;=16),5,IF(AND(T4&gt;=9,T4&lt;=12),4,IF(AND(T4&gt;=5,T4&lt;=8),3,IF(AND(T4&gt;=1,T4&lt;=4),2,IF(AND(T4&gt;=-3,T4&lt;=0),1,IF(AND(T4&gt;=-5,T4&lt;=-4),0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Cost" dataDxfId="157"/>
-    <tableColumn id="6" name="AtkP" dataDxfId="156"/>
-    <tableColumn id="24" name="VitP" dataDxfId="155"/>
-    <tableColumn id="25" name="Modify" dataDxfId="154"/>
-    <tableColumn id="9" name="Def" dataDxfId="153"/>
-    <tableColumn id="10" name="Mag" dataDxfId="152"/>
-    <tableColumn id="32" name="Spd" dataDxfId="151"/>
-    <tableColumn id="35" name="Hit" dataDxfId="150"/>
-    <tableColumn id="36" name="Dhit" dataDxfId="149"/>
-    <tableColumn id="34" name="Crt" dataDxfId="148"/>
-    <tableColumn id="33" name="Luk" dataDxfId="147"/>
-    <tableColumn id="7" name="Sum" dataDxfId="146">
+    <tableColumn id="12" name="Cost" dataDxfId="121"/>
+    <tableColumn id="6" name="AtkP" dataDxfId="120"/>
+    <tableColumn id="24" name="VitP" dataDxfId="119"/>
+    <tableColumn id="25" name="Modify" dataDxfId="118"/>
+    <tableColumn id="9" name="Def" dataDxfId="117"/>
+    <tableColumn id="10" name="Mag" dataDxfId="116"/>
+    <tableColumn id="32" name="Spd" dataDxfId="115"/>
+    <tableColumn id="35" name="Hit" dataDxfId="114"/>
+    <tableColumn id="36" name="Dhit" dataDxfId="113"/>
+    <tableColumn id="34" name="Crt" dataDxfId="112"/>
+    <tableColumn id="33" name="Luk" dataDxfId="111"/>
+    <tableColumn id="7" name="Sum" dataDxfId="110">
       <calculatedColumnFormula>SUM(J4:K4)+SUM(M4:S4)*5+4.4*SUM(AO4:AU4)+2.5*SUM(AI4:AM4)+AH4+L4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Range" dataDxfId="145"/>
-    <tableColumn id="14" name="Mov" dataDxfId="144"/>
-    <tableColumn id="51" name="LifeRound" dataDxfId="143"/>
-    <tableColumn id="16" name="Arrow" dataDxfId="142"/>
-    <tableColumn id="18" name="Skills" dataDxfId="141"/>
-    <tableColumn id="42" name="~Skill1" dataDxfId="140"/>
-    <tableColumn id="43" name="~SkillRate1" dataDxfId="139"/>
-    <tableColumn id="44" name="~Skill2" dataDxfId="138"/>
-    <tableColumn id="45" name="~SkillRate2" dataDxfId="137"/>
-    <tableColumn id="46" name="~Skill3" dataDxfId="136"/>
-    <tableColumn id="47" name="~SkillRate3" dataDxfId="135"/>
-    <tableColumn id="48" name="~Skill4" dataDxfId="134"/>
-    <tableColumn id="49" name="~SkillRate4" dataDxfId="133"/>
-    <tableColumn id="54" name="~SkillMark" dataDxfId="132">
+    <tableColumn id="13" name="Range" dataDxfId="109"/>
+    <tableColumn id="14" name="Mov" dataDxfId="108"/>
+    <tableColumn id="51" name="LifeRound" dataDxfId="107"/>
+    <tableColumn id="16" name="Arrow" dataDxfId="106"/>
+    <tableColumn id="18" name="Skills" dataDxfId="105"/>
+    <tableColumn id="42" name="~Skill1" dataDxfId="104"/>
+    <tableColumn id="43" name="~SkillRate1" dataDxfId="103"/>
+    <tableColumn id="44" name="~Skill2" dataDxfId="102"/>
+    <tableColumn id="45" name="~SkillRate2" dataDxfId="101"/>
+    <tableColumn id="46" name="~Skill3" dataDxfId="100"/>
+    <tableColumn id="47" name="~SkillRate3" dataDxfId="99"/>
+    <tableColumn id="48" name="~Skill4" dataDxfId="98"/>
+    <tableColumn id="49" name="~SkillRate4" dataDxfId="97"/>
+    <tableColumn id="54" name="~SkillMark" dataDxfId="96">
       <calculatedColumnFormula>IF(ISBLANK($Z4),0, LOOKUP($Z4,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AA4/100)+
 IF(ISBLANK($AB4),0, LOOKUP($AB4,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC4/100)+
 IF(ISBLANK($AD4),0, LOOKUP($AD4,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE4/100)+
 IF(ISBLANK($AF4),0, LOOKUP($AF4,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG4/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="52" name="~AntiLife" dataDxfId="131"/>
-    <tableColumn id="57" name="~AntiMental" dataDxfId="130"/>
-    <tableColumn id="56" name="~AntiPhysical" dataDxfId="129"/>
-    <tableColumn id="55" name="~AntiElement" dataDxfId="128"/>
-    <tableColumn id="53" name="~AntiHelp" dataDxfId="127"/>
-    <tableColumn id="30" name="BuffImmune" dataDxfId="126">
+    <tableColumn id="52" name="~AntiLife" dataDxfId="95"/>
+    <tableColumn id="57" name="~AntiMental" dataDxfId="94"/>
+    <tableColumn id="56" name="~AntiPhysical" dataDxfId="93"/>
+    <tableColumn id="55" name="~AntiElement" dataDxfId="92"/>
+    <tableColumn id="53" name="~AntiHelp" dataDxfId="91"/>
+    <tableColumn id="30" name="BuffImmune" dataDxfId="90">
       <calculatedColumnFormula>CONCATENATE(AI4,";",AJ4,";",AK4,";",AL4,";",AM4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="~AntiNull" dataDxfId="125"/>
-    <tableColumn id="11" name="~AntiWater" dataDxfId="124"/>
-    <tableColumn id="26" name="~AntiWind" dataDxfId="123"/>
-    <tableColumn id="27" name="~AntiFire" dataDxfId="122"/>
-    <tableColumn id="37" name="~AntiEarth" dataDxfId="121"/>
-    <tableColumn id="40" name="~AntiLight" dataDxfId="120"/>
-    <tableColumn id="41" name="~AntiDark" dataDxfId="119"/>
-    <tableColumn id="31" name="AttrDef" dataDxfId="118">
+    <tableColumn id="8" name="~AntiNull" dataDxfId="89"/>
+    <tableColumn id="11" name="~AntiWater" dataDxfId="88"/>
+    <tableColumn id="26" name="~AntiWind" dataDxfId="87"/>
+    <tableColumn id="27" name="~AntiFire" dataDxfId="86"/>
+    <tableColumn id="37" name="~AntiEarth" dataDxfId="85"/>
+    <tableColumn id="40" name="~AntiLight" dataDxfId="84"/>
+    <tableColumn id="41" name="~AntiDark" dataDxfId="83"/>
+    <tableColumn id="31" name="AttrDef" dataDxfId="82">
       <calculatedColumnFormula>CONCATENATE(AO4,";",AP4,";",AQ4,";",AR4,";",AS4,";",AT4,";",AU4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="50" name="IsBuilding" dataDxfId="117"/>
-    <tableColumn id="20" name="Res" dataDxfId="116"/>
-    <tableColumn id="21" name="Icon" dataDxfId="115"/>
-    <tableColumn id="17" name="Cover" dataDxfId="114"/>
-    <tableColumn id="15" name="IsSpecial" dataDxfId="113"/>
-    <tableColumn id="28" name="IsNew" dataDxfId="112"/>
-    <tableColumn id="19" name="VsMark" dataDxfId="111"/>
-    <tableColumn id="29" name="Remark" dataDxfId="110"/>
+    <tableColumn id="50" name="IsBuilding" dataDxfId="81"/>
+    <tableColumn id="20" name="Res" dataDxfId="80"/>
+    <tableColumn id="21" name="Icon" dataDxfId="79"/>
+    <tableColumn id="17" name="Cover" dataDxfId="78"/>
+    <tableColumn id="15" name="IsSpecial" dataDxfId="77"/>
+    <tableColumn id="28" name="IsNew" dataDxfId="76"/>
+    <tableColumn id="19" name="VsMark" dataDxfId="75"/>
+    <tableColumn id="29" name="Remark" dataDxfId="74"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表1_5" displayName="表1_5" ref="A3:BD11" totalsRowShown="0" headerRowDxfId="100" dataDxfId="99" tableBorderDxfId="98">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表1_5" displayName="表1_5" ref="A3:BD11" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58" tableBorderDxfId="57">
   <autoFilter ref="A3:BD11"/>
   <sortState ref="A4:AF311">
     <sortCondition ref="A3:A311"/>
   </sortState>
   <tableColumns count="56">
-    <tableColumn id="1" name="Id" dataDxfId="97"/>
-    <tableColumn id="2" name="Name" dataDxfId="96"/>
-    <tableColumn id="22" name="Ename" dataDxfId="95"/>
-    <tableColumn id="23" name="EnameShort" dataDxfId="94"/>
-    <tableColumn id="3" name="Star" dataDxfId="93"/>
-    <tableColumn id="4" name="Type" dataDxfId="92"/>
-    <tableColumn id="5" name="Attr" dataDxfId="91"/>
-    <tableColumn id="58" name="Quality" dataDxfId="0">
+    <tableColumn id="1" name="Id" dataDxfId="56"/>
+    <tableColumn id="2" name="Name" dataDxfId="55"/>
+    <tableColumn id="22" name="Ename" dataDxfId="54"/>
+    <tableColumn id="23" name="EnameShort" dataDxfId="53"/>
+    <tableColumn id="3" name="Star" dataDxfId="52"/>
+    <tableColumn id="4" name="Type" dataDxfId="51"/>
+    <tableColumn id="5" name="Attr" dataDxfId="50"/>
+    <tableColumn id="58" name="Quality" dataDxfId="49">
       <calculatedColumnFormula>IF(AND(T4&gt;=13,T4&lt;=16),5,IF(AND(T4&gt;=9,T4&lt;=12),4,IF(AND(T4&gt;=5,T4&lt;=8),3,IF(AND(T4&gt;=1,T4&lt;=4),2,IF(AND(T4&gt;=-3,T4&lt;=0),1,IF(AND(T4&gt;=-5,T4&lt;=-4),0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Cost" dataDxfId="90"/>
-    <tableColumn id="6" name="AtkP" dataDxfId="89"/>
-    <tableColumn id="24" name="VitP" dataDxfId="88"/>
-    <tableColumn id="25" name="Modify" dataDxfId="87"/>
-    <tableColumn id="9" name="Def" dataDxfId="86"/>
-    <tableColumn id="10" name="Mag" dataDxfId="85"/>
-    <tableColumn id="32" name="Spd" dataDxfId="84"/>
-    <tableColumn id="35" name="Hit" dataDxfId="83"/>
-    <tableColumn id="36" name="Dhit" dataDxfId="82"/>
-    <tableColumn id="34" name="Crt" dataDxfId="81"/>
-    <tableColumn id="33" name="Luk" dataDxfId="80"/>
-    <tableColumn id="7" name="Sum" dataDxfId="79">
+    <tableColumn id="12" name="Cost" dataDxfId="48"/>
+    <tableColumn id="6" name="AtkP" dataDxfId="47"/>
+    <tableColumn id="24" name="VitP" dataDxfId="46"/>
+    <tableColumn id="25" name="Modify" dataDxfId="45"/>
+    <tableColumn id="9" name="Def" dataDxfId="44"/>
+    <tableColumn id="10" name="Mag" dataDxfId="43"/>
+    <tableColumn id="32" name="Spd" dataDxfId="42"/>
+    <tableColumn id="35" name="Hit" dataDxfId="41"/>
+    <tableColumn id="36" name="Dhit" dataDxfId="40"/>
+    <tableColumn id="34" name="Crt" dataDxfId="39"/>
+    <tableColumn id="33" name="Luk" dataDxfId="38"/>
+    <tableColumn id="7" name="Sum" dataDxfId="37">
       <calculatedColumnFormula>SUM(J4:K4)+SUM(M4:S4)*5+4.4*SUM(AO4:AU4)+2.5*SUM(AI4:AM4)+AH4+L4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Range" dataDxfId="78"/>
-    <tableColumn id="14" name="Mov" dataDxfId="77"/>
-    <tableColumn id="60" name="LifeRound" dataDxfId="76"/>
-    <tableColumn id="16" name="Arrow" dataDxfId="75"/>
-    <tableColumn id="18" name="Skills" dataDxfId="74"/>
-    <tableColumn id="42" name="~Skill1" dataDxfId="73"/>
-    <tableColumn id="43" name="~SkillRate1" dataDxfId="72"/>
-    <tableColumn id="44" name="~Skill2" dataDxfId="71"/>
-    <tableColumn id="45" name="~SkillRate2" dataDxfId="70"/>
-    <tableColumn id="46" name="~Skill3" dataDxfId="69"/>
-    <tableColumn id="47" name="~SkillRate3" dataDxfId="68"/>
-    <tableColumn id="48" name="~Skill4" dataDxfId="67"/>
-    <tableColumn id="49" name="~SkillRate4" dataDxfId="66"/>
-    <tableColumn id="54" name="~SkillMark" dataDxfId="65">
+    <tableColumn id="13" name="Range" dataDxfId="36"/>
+    <tableColumn id="14" name="Mov" dataDxfId="35"/>
+    <tableColumn id="60" name="LifeRound" dataDxfId="34"/>
+    <tableColumn id="16" name="Arrow" dataDxfId="33"/>
+    <tableColumn id="18" name="Skills" dataDxfId="32"/>
+    <tableColumn id="42" name="~Skill1" dataDxfId="31"/>
+    <tableColumn id="43" name="~SkillRate1" dataDxfId="30"/>
+    <tableColumn id="44" name="~Skill2" dataDxfId="29"/>
+    <tableColumn id="45" name="~SkillRate2" dataDxfId="28"/>
+    <tableColumn id="46" name="~Skill3" dataDxfId="27"/>
+    <tableColumn id="47" name="~SkillRate3" dataDxfId="26"/>
+    <tableColumn id="48" name="~Skill4" dataDxfId="25"/>
+    <tableColumn id="49" name="~SkillRate4" dataDxfId="24"/>
+    <tableColumn id="54" name="~SkillMark" dataDxfId="23">
       <calculatedColumnFormula>IF(ISBLANK($Z4),0, LOOKUP($Z4,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AA4/100)+
 IF(ISBLANK($AB4),0, LOOKUP($AB4,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC4/100)+
 IF(ISBLANK($AD4),0, LOOKUP($AD4,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE4/100)+
 IF(ISBLANK($AF4),0, LOOKUP($AF4,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG4/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="52" name="~AntiLife" dataDxfId="64"/>
-    <tableColumn id="57" name="~AntiMental" dataDxfId="63"/>
-    <tableColumn id="56" name="~AntiPhysical" dataDxfId="62"/>
-    <tableColumn id="55" name="~AntiElement" dataDxfId="61"/>
-    <tableColumn id="53" name="~AntiHelp" dataDxfId="60"/>
-    <tableColumn id="30" name="BuffImmune" dataDxfId="59">
+    <tableColumn id="52" name="~AntiLife" dataDxfId="22"/>
+    <tableColumn id="57" name="~AntiMental" dataDxfId="21"/>
+    <tableColumn id="56" name="~AntiPhysical" dataDxfId="20"/>
+    <tableColumn id="55" name="~AntiElement" dataDxfId="19"/>
+    <tableColumn id="53" name="~AntiHelp" dataDxfId="18"/>
+    <tableColumn id="30" name="BuffImmune" dataDxfId="17">
       <calculatedColumnFormula>CONCATENATE(AI4,";",AJ4,";",AK4,";",AL4,";",AM4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="~AntiNull" dataDxfId="58"/>
-    <tableColumn id="11" name="~AntiWater" dataDxfId="57"/>
-    <tableColumn id="26" name="~AntiWind" dataDxfId="56"/>
-    <tableColumn id="27" name="~AntiFire" dataDxfId="55"/>
-    <tableColumn id="37" name="~AntiEarth" dataDxfId="54"/>
-    <tableColumn id="40" name="~AntiLight" dataDxfId="53"/>
-    <tableColumn id="41" name="~AntiDark" dataDxfId="52"/>
-    <tableColumn id="31" name="AttrDef" dataDxfId="51">
+    <tableColumn id="8" name="~AntiNull" dataDxfId="16"/>
+    <tableColumn id="11" name="~AntiWater" dataDxfId="15"/>
+    <tableColumn id="26" name="~AntiWind" dataDxfId="14"/>
+    <tableColumn id="27" name="~AntiFire" dataDxfId="13"/>
+    <tableColumn id="37" name="~AntiEarth" dataDxfId="12"/>
+    <tableColumn id="40" name="~AntiLight" dataDxfId="11"/>
+    <tableColumn id="41" name="~AntiDark" dataDxfId="10"/>
+    <tableColumn id="31" name="AttrDef" dataDxfId="9">
       <calculatedColumnFormula>CONCATENATE(AO4,";",AP4,";",AQ4,";",AR4,";",AS4,";",AT4,";",AU4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="59" name="IsBuilding" dataDxfId="50"/>
-    <tableColumn id="20" name="Res" dataDxfId="49"/>
-    <tableColumn id="21" name="Icon" dataDxfId="48"/>
-    <tableColumn id="17" name="Cover" dataDxfId="47"/>
-    <tableColumn id="15" name="IsSpecial" dataDxfId="46"/>
-    <tableColumn id="28" name="IsNew" dataDxfId="45"/>
-    <tableColumn id="19" name="VsMark" dataDxfId="44"/>
-    <tableColumn id="29" name="Remark" dataDxfId="43"/>
+    <tableColumn id="59" name="IsBuilding" dataDxfId="8"/>
+    <tableColumn id="20" name="Res" dataDxfId="7"/>
+    <tableColumn id="21" name="Icon" dataDxfId="6"/>
+    <tableColumn id="17" name="Cover" dataDxfId="5"/>
+    <tableColumn id="15" name="IsSpecial" dataDxfId="4"/>
+    <tableColumn id="28" name="IsNew" dataDxfId="3"/>
+    <tableColumn id="19" name="VsMark" dataDxfId="2"/>
+    <tableColumn id="29" name="Remark" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:I15" totalsRowShown="0" headerRowDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:I15" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A1:I15"/>
   <tableColumns count="9">
     <tableColumn id="1" name="星级"/>
@@ -22792,7 +22553,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -22847,7 +22608,7 @@
         <v>315</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="I1" s="17" t="s">
         <v>977</v>
@@ -22880,7 +22641,7 @@
         <v>1153</v>
       </c>
       <c r="S1" s="17" t="s">
-        <v>1151</v>
+        <v>1433</v>
       </c>
       <c r="T1" s="40" t="s">
         <v>974</v>
@@ -22892,7 +22653,7 @@
         <v>1138</v>
       </c>
       <c r="W1" s="17" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="X1" s="17" t="s">
         <v>323</v>
@@ -22901,76 +22662,76 @@
         <v>325</v>
       </c>
       <c r="Z1" s="44" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="AA1" s="44" t="s">
+        <v>1234</v>
+      </c>
+      <c r="AB1" s="44" t="s">
         <v>1235</v>
       </c>
-      <c r="AB1" s="44" t="s">
+      <c r="AC1" s="44" t="s">
         <v>1236</v>
       </c>
-      <c r="AC1" s="44" t="s">
+      <c r="AD1" s="44" t="s">
         <v>1237</v>
       </c>
-      <c r="AD1" s="44" t="s">
+      <c r="AE1" s="44" t="s">
         <v>1238</v>
       </c>
-      <c r="AE1" s="44" t="s">
+      <c r="AF1" s="44" t="s">
         <v>1239</v>
       </c>
-      <c r="AF1" s="44" t="s">
+      <c r="AG1" s="44" t="s">
         <v>1240</v>
       </c>
-      <c r="AG1" s="44" t="s">
-        <v>1241</v>
-      </c>
       <c r="AH1" s="44" t="s">
+        <v>1248</v>
+      </c>
+      <c r="AI1" s="17" t="s">
         <v>1249</v>
       </c>
-      <c r="AI1" s="17" t="s">
+      <c r="AJ1" s="17" t="s">
         <v>1250</v>
       </c>
-      <c r="AJ1" s="17" t="s">
+      <c r="AK1" s="17" t="s">
         <v>1251</v>
       </c>
-      <c r="AK1" s="17" t="s">
+      <c r="AL1" s="17" t="s">
         <v>1252</v>
       </c>
-      <c r="AL1" s="17" t="s">
+      <c r="AM1" s="17" t="s">
         <v>1253</v>
-      </c>
-      <c r="AM1" s="17" t="s">
-        <v>1254</v>
       </c>
       <c r="AN1" s="17" t="s">
         <v>1175</v>
       </c>
       <c r="AO1" s="47" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="AP1" s="47" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="AQ1" s="47" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="AR1" s="47" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="AS1" s="47" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AT1" s="47" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="AU1" s="47" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="AV1" s="48" t="s">
         <v>1027</v>
       </c>
       <c r="AW1" s="54" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="AX1" s="17" t="s">
         <v>326</v>
@@ -23017,7 +22778,7 @@
         <v>295</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>978</v>
@@ -23062,7 +22823,7 @@
         <v>1139</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="X2" s="2" t="s">
         <v>296</v>
@@ -23131,7 +22892,7 @@
         <v>1009</v>
       </c>
       <c r="AT2" s="49" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="AU2" s="49" t="s">
         <v>1009</v>
@@ -23140,7 +22901,7 @@
         <v>1029</v>
       </c>
       <c r="AW2" s="55" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="AX2" s="2" t="s">
         <v>295</v>
@@ -23187,7 +22948,7 @@
         <v>1033</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>979</v>
@@ -23232,7 +22993,7 @@
         <v>1141</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="X3" s="6" t="s">
         <v>306</v>
@@ -23241,76 +23002,76 @@
         <v>308</v>
       </c>
       <c r="Z3" s="46" t="s">
+        <v>1232</v>
+      </c>
+      <c r="AA3" s="46" t="s">
         <v>1233</v>
       </c>
-      <c r="AA3" s="46" t="s">
-        <v>1234</v>
-      </c>
       <c r="AB3" s="46" t="s">
+        <v>1241</v>
+      </c>
+      <c r="AC3" s="46" t="s">
         <v>1242</v>
       </c>
-      <c r="AC3" s="46" t="s">
+      <c r="AD3" s="46" t="s">
         <v>1243</v>
       </c>
-      <c r="AD3" s="46" t="s">
+      <c r="AE3" s="46" t="s">
         <v>1244</v>
       </c>
-      <c r="AE3" s="46" t="s">
+      <c r="AF3" s="46" t="s">
         <v>1245</v>
       </c>
-      <c r="AF3" s="46" t="s">
+      <c r="AG3" s="46" t="s">
         <v>1246</v>
       </c>
-      <c r="AG3" s="46" t="s">
+      <c r="AH3" s="46" t="s">
         <v>1247</v>
       </c>
-      <c r="AH3" s="46" t="s">
-        <v>1248</v>
-      </c>
       <c r="AI3" s="6" t="s">
+        <v>1254</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
         <v>1255</v>
       </c>
-      <c r="AJ3" s="6" t="s">
+      <c r="AK3" s="6" t="s">
         <v>1256</v>
       </c>
-      <c r="AK3" s="6" t="s">
+      <c r="AL3" s="6" t="s">
         <v>1257</v>
       </c>
-      <c r="AL3" s="6" t="s">
+      <c r="AM3" s="6" t="s">
         <v>1258</v>
-      </c>
-      <c r="AM3" s="6" t="s">
-        <v>1259</v>
       </c>
       <c r="AN3" s="6" t="s">
         <v>1174</v>
       </c>
       <c r="AO3" s="51" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="AP3" s="52" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="AQ3" s="52" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="AR3" s="52" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="AS3" s="52" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="AT3" s="52" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="AU3" s="52" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="AV3" s="42" t="s">
         <v>1028</v>
       </c>
       <c r="AW3" s="14" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="AX3" s="6" t="s">
         <v>309</v>
@@ -23470,7 +23231,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW4" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX4" s="4">
         <v>6</v>
@@ -23516,19 +23277,19 @@
       </c>
       <c r="H5" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I5" s="4">
         <v>2</v>
       </c>
       <c r="J5" s="4">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="K5" s="4">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L5" s="9">
-        <v>-5</v>
+        <v>-15</v>
       </c>
       <c r="M5" s="4">
         <v>0</v>
@@ -23553,7 +23314,7 @@
       </c>
       <c r="T5" s="15">
         <f t="shared" si="1"/>
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="U5" s="4">
         <v>10</v>
@@ -23568,20 +23329,16 @@
         <v>4</v>
       </c>
       <c r="Y5" s="4" t="s">
-        <v>1176</v>
-      </c>
-      <c r="Z5" s="43">
-        <v>55000001</v>
+        <v>1434</v>
+      </c>
+      <c r="Z5" s="21">
+        <v>55000003</v>
       </c>
       <c r="AA5" s="21">
         <v>100</v>
       </c>
-      <c r="AB5" s="21">
-        <v>55000003</v>
-      </c>
-      <c r="AC5" s="21">
-        <v>50</v>
-      </c>
+      <c r="AB5" s="21"/>
+      <c r="AC5" s="21"/>
       <c r="AD5" s="21"/>
       <c r="AE5" s="21"/>
       <c r="AF5" s="21"/>
@@ -23591,7 +23348,7 @@
 IF(ISBLANK($AB5),0, LOOKUP($AB5,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC5/100)+
 IF(ISBLANK($AD5),0, LOOKUP($AD5,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE5/100)+
 IF(ISBLANK($AF5),0, LOOKUP($AF5,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG5/100)</f>
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="AI5" s="21">
         <v>0</v>
@@ -23638,7 +23395,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW5" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX5" s="4">
         <v>6</v>
@@ -23656,9 +23413,7 @@
       <c r="BC5" s="30">
         <v>0.30327870000000001</v>
       </c>
-      <c r="BD5" s="22" t="s">
-        <v>1172</v>
-      </c>
+      <c r="BD5" s="22"/>
     </row>
     <row r="6" spans="1:56" ht="14.25">
       <c r="A6">
@@ -23802,7 +23557,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW6" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX6" s="4">
         <v>6</v>
@@ -23900,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="Y7" s="4" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="Z7" s="43">
         <v>55000029</v>
@@ -23966,7 +23721,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW7" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX7" s="4">
         <v>6</v>
@@ -24124,7 +23879,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW8" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX8" s="4">
         <v>6</v>
@@ -24222,7 +23977,7 @@
         <v>11</v>
       </c>
       <c r="Y9" s="4" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="Z9" s="43">
         <v>55000067</v>
@@ -24288,7 +24043,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW9" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX9" s="4">
         <v>6</v>
@@ -24386,7 +24141,7 @@
         <v>12</v>
       </c>
       <c r="Y10" s="4" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="Z10" s="43">
         <v>55000035</v>
@@ -24452,7 +24207,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW10" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX10" s="4">
         <v>6</v>
@@ -24550,7 +24305,7 @@
         <v>14</v>
       </c>
       <c r="Y11" s="4" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="Z11" s="43">
         <v>55000016</v>
@@ -24616,7 +24371,7 @@
         <v>0;0;0;0;0;0;0.3</v>
       </c>
       <c r="AW11" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX11" s="4">
         <v>6</v>
@@ -24784,7 +24539,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW12" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX12" s="4">
         <v>6</v>
@@ -24942,7 +24697,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW13" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX13" s="4">
         <v>6</v>
@@ -24961,7 +24716,7 @@
         <v>0.48688520000000002</v>
       </c>
       <c r="BD13" s="22" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="14" spans="1:56" ht="14.25">
@@ -25114,7 +24869,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW14" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX14" s="4">
         <v>6</v>
@@ -25272,7 +25027,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW15" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX15" s="4">
         <v>4</v>
@@ -25291,7 +25046,7 @@
         <v>0.94918029999999998</v>
       </c>
       <c r="BD15" s="22" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="16" spans="1:56" ht="14.25">
@@ -25430,7 +25185,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW16" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX16" s="4">
         <v>6</v>
@@ -25588,7 +25343,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW17" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX17" s="4">
         <v>6</v>
@@ -25746,7 +25501,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW18" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX18" s="4">
         <v>6</v>
@@ -25904,7 +25659,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW19" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX19" s="4">
         <v>6</v>
@@ -26062,7 +25817,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW20" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX20" s="4">
         <v>6</v>
@@ -26220,7 +25975,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW21" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX21" s="4">
         <v>6</v>
@@ -26378,7 +26133,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW22" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX22" s="4">
         <v>6</v>
@@ -26536,7 +26291,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW23" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX23" s="4">
         <v>6</v>
@@ -26634,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="Y24" s="4" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="Z24" s="43">
         <v>55000006</v>
@@ -26700,7 +26455,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW24" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX24" s="4">
         <v>6</v>
@@ -26798,7 +26553,7 @@
         <v>31</v>
       </c>
       <c r="Y25" s="4" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="Z25" s="43">
         <v>55000002</v>
@@ -26872,7 +26627,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW25" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX25" s="4">
         <v>6</v>
@@ -27030,7 +26785,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW26" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX26" s="4">
         <v>6</v>
@@ -27194,7 +26949,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW27" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX27" s="4">
         <v>6</v>
@@ -27292,7 +27047,7 @@
         <v>6</v>
       </c>
       <c r="Y28" s="4" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="Z28" s="43">
         <v>55000051</v>
@@ -27358,7 +27113,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW28" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX28" s="4">
         <v>6</v>
@@ -27456,7 +27211,7 @@
         <v>9</v>
       </c>
       <c r="Y29" s="4" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="Z29" s="43">
         <v>55000030</v>
@@ -27522,7 +27277,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW29" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX29" s="4">
         <v>6</v>
@@ -27680,7 +27435,7 @@
         <v>0;0;0;0;0.3;0;0</v>
       </c>
       <c r="AW30" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX30" s="4">
         <v>6</v>
@@ -27778,7 +27533,7 @@
         <v>38</v>
       </c>
       <c r="Y31" s="4" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="Z31" s="43">
         <v>55000060</v>
@@ -27848,7 +27603,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW31" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX31" s="4">
         <v>6</v>
@@ -28020,7 +27775,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW32" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX32" s="4">
         <v>6</v>
@@ -28178,7 +27933,7 @@
         <v>0;0.3;0.3;0.3;0;0.3;0</v>
       </c>
       <c r="AW33" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX33" s="4">
         <v>6</v>
@@ -28342,7 +28097,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW34" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX34" s="4">
         <v>6</v>
@@ -28440,7 +28195,7 @@
         <v>9</v>
       </c>
       <c r="Y35" s="4" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="Z35" s="43">
         <v>55000064</v>
@@ -28506,7 +28261,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW35" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX35" s="4">
         <v>6</v>
@@ -28525,7 +28280,7 @@
         <v>5.0819669999999997E-2</v>
       </c>
       <c r="BD35" s="22" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="36" spans="1:56" ht="14.25">
@@ -28604,7 +28359,7 @@
         <v>1160</v>
       </c>
       <c r="Y36" s="4" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="Z36" s="43">
         <v>55000030</v>
@@ -28674,7 +28429,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW36" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX36" s="4">
         <v>6</v>
@@ -28772,7 +28527,7 @@
         <v>38</v>
       </c>
       <c r="Y37" s="4" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="Z37" s="43">
         <v>55000073</v>
@@ -28838,7 +28593,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW37" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX37" s="4">
         <v>6</v>
@@ -28996,7 +28751,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW38" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX38" s="4">
         <v>6</v>
@@ -29154,7 +28909,7 @@
         <v>0;0.3;0;0;0.3;0;0</v>
       </c>
       <c r="AW39" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX39" s="4">
         <v>6</v>
@@ -29312,7 +29067,7 @@
         <v>0;0.3;0;0.3;0;0;0</v>
       </c>
       <c r="AW40" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX40" s="4">
         <v>6</v>
@@ -29410,7 +29165,7 @@
         <v>51</v>
       </c>
       <c r="Y41" s="4" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="Z41" s="43">
         <v>55000071</v>
@@ -29476,7 +29231,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW41" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX41" s="4">
         <v>6</v>
@@ -29574,7 +29329,7 @@
         <v>53</v>
       </c>
       <c r="Y42" s="4" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="Z42" s="43">
         <v>55000034</v>
@@ -29644,7 +29399,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW42" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX42" s="4">
         <v>6</v>
@@ -29742,7 +29497,7 @@
         <v>4</v>
       </c>
       <c r="Y43" s="4" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="Z43" s="43">
         <v>55000074</v>
@@ -29808,7 +29563,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW43" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX43" s="4">
         <v>6</v>
@@ -29906,7 +29661,7 @@
         <v>16</v>
       </c>
       <c r="Y44" s="4" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="Z44" s="43">
         <v>55000075</v>
@@ -29976,7 +29731,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW44" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX44" s="4">
         <v>6</v>
@@ -30074,7 +29829,7 @@
         <v>4</v>
       </c>
       <c r="Y45" s="4" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="Z45" s="43">
         <v>55000077</v>
@@ -30144,7 +29899,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW45" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX45" s="4">
         <v>6</v>
@@ -30242,7 +29997,7 @@
         <v>2</v>
       </c>
       <c r="Y46" s="4" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="Z46" s="43">
         <v>55000075</v>
@@ -30312,7 +30067,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW46" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX46" s="4">
         <v>6</v>
@@ -30476,7 +30231,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW47" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX47" s="4">
         <v>6</v>
@@ -30640,7 +30395,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW48" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX48" s="4">
         <v>6</v>
@@ -30804,7 +30559,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW49" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX49" s="4">
         <v>6</v>
@@ -30972,7 +30727,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW50" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX50" s="4">
         <v>4</v>
@@ -31140,7 +30895,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW51" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX51" s="4">
         <v>6</v>
@@ -31238,7 +30993,7 @@
         <v>9</v>
       </c>
       <c r="Y52" s="4" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="Z52" s="43">
         <v>55000084</v>
@@ -31304,7 +31059,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW52" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX52" s="4">
         <v>6</v>
@@ -31466,7 +31221,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW53" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX53" s="4">
         <v>6</v>
@@ -31564,7 +31319,7 @@
         <v>64</v>
       </c>
       <c r="Y54" s="4" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="Z54" s="43">
         <v>55000066</v>
@@ -31630,7 +31385,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW54" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX54" s="4">
         <v>6</v>
@@ -31794,7 +31549,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW55" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX55" s="4">
         <v>6</v>
@@ -31892,7 +31647,7 @@
         <v>4</v>
       </c>
       <c r="Y56" s="4" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="Z56" s="43">
         <v>55000087</v>
@@ -31958,7 +31713,7 @@
         <v>0;0;0;0;0;0;0.3</v>
       </c>
       <c r="AW56" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX56" s="4">
         <v>6</v>
@@ -32056,7 +31811,7 @@
         <v>4</v>
       </c>
       <c r="Y57" s="4" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="Z57" s="43">
         <v>55000088</v>
@@ -32126,7 +31881,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW57" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX57" s="4">
         <v>6</v>
@@ -32290,7 +32045,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW58" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX58" s="4">
         <v>6</v>
@@ -32388,7 +32143,7 @@
         <v>69</v>
       </c>
       <c r="Y59" s="4" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="Z59" s="43">
         <v>55000091</v>
@@ -32454,7 +32209,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW59" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX59" s="4">
         <v>6</v>
@@ -32552,7 +32307,7 @@
         <v>9</v>
       </c>
       <c r="Y60" s="4" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="Z60" s="43">
         <v>55000092</v>
@@ -32618,7 +32373,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW60" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX60" s="4">
         <v>6</v>
@@ -32716,7 +32471,7 @@
         <v>24</v>
       </c>
       <c r="Y61" s="4" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="Z61" s="43">
         <v>55000093</v>
@@ -32782,7 +32537,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW61" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX61" s="4">
         <v>6</v>
@@ -32946,7 +32701,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW62" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX62" s="4">
         <v>6</v>
@@ -33110,7 +32865,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW63" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX63" s="4">
         <v>6</v>
@@ -33268,7 +33023,7 @@
         <v>0;0.3;0.3;0;0.3;0;0</v>
       </c>
       <c r="AW64" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX64" s="4">
         <v>6</v>
@@ -33426,7 +33181,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW65" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX65" s="4">
         <v>6</v>
@@ -33584,7 +33339,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW66" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX66" s="4">
         <v>6</v>
@@ -33682,7 +33437,7 @@
         <v>78</v>
       </c>
       <c r="Y67" s="4" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="Z67" s="43">
         <v>55000095</v>
@@ -33752,7 +33507,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW67" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX67" s="4">
         <v>5</v>
@@ -33850,7 +33605,7 @@
         <v>78</v>
       </c>
       <c r="Y68" s="4" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="Z68" s="43">
         <v>55000036</v>
@@ -33928,7 +33683,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW68" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX68" s="4">
         <v>5</v>
@@ -34028,7 +33783,7 @@
         <v>40</v>
       </c>
       <c r="Y69" s="4" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="Z69" s="43">
         <v>55000060</v>
@@ -34102,7 +33857,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW69" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX69" s="4">
         <v>5</v>
@@ -34274,7 +34029,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW70" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX70" s="4">
         <v>5</v>
@@ -34372,7 +34127,7 @@
         <v>2</v>
       </c>
       <c r="Y71" s="4" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="Z71" s="43">
         <v>55000103</v>
@@ -34442,7 +34197,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW71" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX71" s="4">
         <v>6</v>
@@ -34540,7 +34295,7 @@
         <v>2</v>
       </c>
       <c r="Y72" s="4" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="Z72" s="43">
         <v>55000103</v>
@@ -34610,7 +34365,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW72" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX72" s="4">
         <v>6</v>
@@ -34708,7 +34463,7 @@
         <v>1162</v>
       </c>
       <c r="Y73" s="4" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="Z73" s="43">
         <v>55000060</v>
@@ -34778,7 +34533,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW73" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX73" s="4">
         <v>6</v>
@@ -34946,7 +34701,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW74" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX74" s="4">
         <v>6</v>
@@ -35044,7 +34799,7 @@
         <v>89</v>
       </c>
       <c r="Y75" s="4" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="Z75" s="43">
         <v>55000004</v>
@@ -35114,7 +34869,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW75" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX75" s="4">
         <v>6</v>
@@ -35197,7 +34952,7 @@
       </c>
       <c r="T76" s="15">
         <f t="shared" si="5"/>
-        <v>49.3</v>
+        <v>51.3</v>
       </c>
       <c r="U76" s="4">
         <v>10</v>
@@ -35212,7 +34967,7 @@
         <v>12</v>
       </c>
       <c r="Y76" s="4" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="Z76" s="43">
         <v>55000101</v>
@@ -35235,7 +34990,7 @@
 IF(ISBLANK($AB76),0, LOOKUP($AB76,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC76/100)+
 IF(ISBLANK($AD76),0, LOOKUP($AD76,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE76/100)+
 IF(ISBLANK($AF76),0, LOOKUP($AF76,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG76/100)</f>
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="AI76" s="21">
         <v>0</v>
@@ -35282,7 +35037,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW76" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX76" s="4">
         <v>6</v>
@@ -35380,7 +35135,7 @@
         <v>92</v>
       </c>
       <c r="Y77" s="4" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="Z77" s="43">
         <v>55000106</v>
@@ -35446,7 +35201,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW77" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX77" s="4">
         <v>6</v>
@@ -35544,7 +35299,7 @@
         <v>94</v>
       </c>
       <c r="Y78" s="4" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="Z78" s="43">
         <v>55000108</v>
@@ -35614,7 +35369,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW78" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX78" s="4">
         <v>6</v>
@@ -35772,7 +35527,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW79" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX79" s="4">
         <v>6</v>
@@ -35930,7 +35685,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW80" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX80" s="4">
         <v>6</v>
@@ -36098,7 +35853,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW81" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX81" s="4">
         <v>6</v>
@@ -36266,7 +36021,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW82" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX82" s="4">
         <v>6</v>
@@ -36364,7 +36119,7 @@
         <v>38</v>
       </c>
       <c r="Y83" s="4" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="Z83" s="43">
         <v>55000111</v>
@@ -36434,7 +36189,7 @@
         <v>0;0;0;0.3;0;0;0</v>
       </c>
       <c r="AW83" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX83" s="4">
         <v>6</v>
@@ -36532,7 +36287,7 @@
         <v>100</v>
       </c>
       <c r="Y84" s="4" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="Z84" s="43">
         <v>55000069</v>
@@ -36598,7 +36353,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW84" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX84" s="4">
         <v>6</v>
@@ -36770,7 +36525,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW85" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX85" s="4">
         <v>3</v>
@@ -36938,7 +36693,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW86" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX86" s="4">
         <v>6</v>
@@ -37036,7 +36791,7 @@
         <v>86</v>
       </c>
       <c r="Y87" s="4" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="Z87" s="43">
         <v>55000068</v>
@@ -37106,7 +36861,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW87" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX87" s="4">
         <v>6</v>
@@ -37204,7 +36959,7 @@
         <v>0</v>
       </c>
       <c r="Y88" s="4" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="Z88" s="43">
         <v>55000342</v>
@@ -37274,7 +37029,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW88" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX88" s="4">
         <v>6</v>
@@ -37372,7 +37127,7 @@
         <v>105</v>
       </c>
       <c r="Y89" s="4" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="Z89" s="21">
         <v>55000116</v>
@@ -37438,7 +37193,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW89" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX89" s="4">
         <v>6</v>
@@ -37604,7 +37359,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW90" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX90" s="4">
         <v>6</v>
@@ -37702,7 +37457,7 @@
         <v>105</v>
       </c>
       <c r="Y91" s="4" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="Z91" s="43">
         <v>55000118</v>
@@ -37772,7 +37527,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW91" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX91" s="4">
         <v>6</v>
@@ -37940,7 +37695,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW92" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX92" s="4">
         <v>6</v>
@@ -38038,7 +37793,7 @@
         <v>111</v>
       </c>
       <c r="Y93" s="4" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="Z93" s="43">
         <v>55000115</v>
@@ -38108,7 +37863,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW93" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX93" s="4">
         <v>6</v>
@@ -38206,7 +37961,7 @@
         <v>78</v>
       </c>
       <c r="Y94" s="4" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="Z94" s="43">
         <v>55000005</v>
@@ -38276,7 +38031,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW94" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX94" s="4">
         <v>5</v>
@@ -38374,7 +38129,7 @@
         <v>107</v>
       </c>
       <c r="Y95" s="4" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="Z95" s="43">
         <v>55000114</v>
@@ -38444,7 +38199,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW95" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX95" s="4">
         <v>6</v>
@@ -38542,7 +38297,7 @@
         <v>2</v>
       </c>
       <c r="Y96" s="4" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="Z96" s="43">
         <v>55000002</v>
@@ -38612,7 +38367,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW96" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX96" s="4">
         <v>6</v>
@@ -38710,7 +38465,7 @@
         <v>22</v>
       </c>
       <c r="Y97" s="4" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="Z97" s="43">
         <v>55000123</v>
@@ -38784,7 +38539,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW97" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX97" s="4">
         <v>3</v>
@@ -38882,7 +38637,7 @@
         <v>94</v>
       </c>
       <c r="Y98" s="4" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="Z98" s="43">
         <v>55000245</v>
@@ -38948,7 +38703,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW98" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX98" s="4">
         <v>6</v>
@@ -39046,7 +38801,7 @@
         <v>1161</v>
       </c>
       <c r="Y99" s="4" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="Z99" s="43">
         <v>55000246</v>
@@ -39116,7 +38871,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW99" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX99" s="4">
         <v>6</v>
@@ -39214,7 +38969,7 @@
         <v>78</v>
       </c>
       <c r="Y100" s="4" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="Z100" s="43">
         <v>55000040</v>
@@ -39292,7 +39047,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW100" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX100" s="4">
         <v>5</v>
@@ -39392,7 +39147,7 @@
         <v>4</v>
       </c>
       <c r="Y101" s="4" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="Z101" s="43">
         <v>55000126</v>
@@ -39462,7 +39217,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW101" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX101" s="4">
         <v>6</v>
@@ -39560,7 +39315,7 @@
         <v>16</v>
       </c>
       <c r="Y102" s="4" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="Z102" s="43">
         <v>55000127</v>
@@ -39626,7 +39381,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW102" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX102" s="4">
         <v>4</v>
@@ -39722,7 +39477,7 @@
         <v>9</v>
       </c>
       <c r="Y103" s="4" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="Z103" s="43">
         <v>55000129</v>
@@ -39788,7 +39543,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW103" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX103" s="4">
         <v>6</v>
@@ -39886,7 +39641,7 @@
         <v>4</v>
       </c>
       <c r="Y104" s="4" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="Z104" s="43">
         <v>55000130</v>
@@ -39956,7 +39711,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW104" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX104" s="4">
         <v>6</v>
@@ -40124,7 +39879,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW105" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX105" s="4">
         <v>6</v>
@@ -40222,7 +39977,7 @@
         <v>9</v>
       </c>
       <c r="Y106" s="4" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="Z106" s="43">
         <v>55000133</v>
@@ -40288,7 +40043,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW106" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX106" s="4">
         <v>6</v>
@@ -40386,7 +40141,7 @@
         <v>9</v>
       </c>
       <c r="Y107" s="4" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="Z107" s="43">
         <v>55000134</v>
@@ -40452,7 +40207,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW107" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX107" s="4">
         <v>6</v>
@@ -40471,7 +40226,7 @@
         <v>5.2459020000000002E-2</v>
       </c>
       <c r="BD107" s="22" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="108" spans="1:56" ht="14.25">
@@ -40550,7 +40305,7 @@
         <v>2</v>
       </c>
       <c r="Y108" s="4" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="Z108" s="43">
         <v>55000017</v>
@@ -40624,7 +40379,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW108" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX108" s="4">
         <v>4</v>
@@ -40722,7 +40477,7 @@
         <v>128</v>
       </c>
       <c r="Y109" s="4" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="Z109" s="43">
         <v>55000135</v>
@@ -40788,7 +40543,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW109" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX109" s="4">
         <v>6</v>
@@ -40886,7 +40641,7 @@
         <v>130</v>
       </c>
       <c r="Y110" s="4" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="Z110" s="43">
         <v>55000135</v>
@@ -40956,7 +40711,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW110" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX110" s="4">
         <v>6</v>
@@ -41054,7 +40809,7 @@
         <v>132</v>
       </c>
       <c r="Y111" s="4" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="Z111" s="43">
         <v>55000038</v>
@@ -41120,7 +40875,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW111" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX111" s="4">
         <v>6</v>
@@ -41218,7 +40973,7 @@
         <v>118</v>
       </c>
       <c r="Y112" s="4" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="Z112" s="43">
         <v>55010003</v>
@@ -41288,7 +41043,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW112" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX112" s="4">
         <v>6</v>
@@ -41386,7 +41141,7 @@
         <v>135</v>
       </c>
       <c r="Y113" s="4" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="Z113" s="43">
         <v>55000018</v>
@@ -41456,7 +41211,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW113" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX113" s="4">
         <v>6</v>
@@ -41554,7 +41309,7 @@
         <v>89</v>
       </c>
       <c r="Y114" s="4" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="Z114" s="43">
         <v>55000040</v>
@@ -41632,7 +41387,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW114" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX114" s="4">
         <v>3</v>
@@ -41732,7 +41487,7 @@
         <v>94</v>
       </c>
       <c r="Y115" s="4" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="Z115" s="43">
         <v>55000040</v>
@@ -41810,7 +41565,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW115" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX115" s="4">
         <v>6</v>
@@ -41910,7 +41665,7 @@
         <v>31</v>
       </c>
       <c r="Y116" s="4" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="Z116" s="43">
         <v>55000040</v>
@@ -41988,7 +41743,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW116" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX116" s="4">
         <v>6</v>
@@ -42158,7 +41913,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW117" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX117" s="4">
         <v>6</v>
@@ -42256,7 +42011,7 @@
         <v>40</v>
       </c>
       <c r="Y118" s="4" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="Z118" s="43">
         <v>55000040</v>
@@ -42334,7 +42089,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW118" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX118" s="4">
         <v>5</v>
@@ -42434,7 +42189,7 @@
         <v>100</v>
       </c>
       <c r="Y119" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="Z119" s="43">
         <v>55000040</v>
@@ -42512,7 +42267,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW119" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX119" s="4">
         <v>6</v>
@@ -42612,7 +42367,7 @@
         <v>51</v>
       </c>
       <c r="Y120" s="4" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="Z120" s="43">
         <v>55000040</v>
@@ -42690,7 +42445,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW120" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX120" s="4">
         <v>5</v>
@@ -42790,7 +42545,7 @@
         <v>22</v>
       </c>
       <c r="Y121" s="4" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="Z121" s="43">
         <v>55000040</v>
@@ -42868,7 +42623,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW121" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX121" s="4">
         <v>6</v>
@@ -43038,7 +42793,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW122" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX122" s="4">
         <v>6</v>
@@ -43210,7 +42965,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW123" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX123" s="4">
         <v>6</v>
@@ -43382,7 +43137,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW124" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX124" s="4">
         <v>6</v>
@@ -43554,7 +43309,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW125" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX125" s="4">
         <v>6</v>
@@ -43652,7 +43407,7 @@
         <v>24</v>
       </c>
       <c r="Y126" s="4" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="Z126" s="43">
         <v>55000151</v>
@@ -43718,7 +43473,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW126" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX126" s="4">
         <v>6</v>
@@ -43882,7 +43637,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW127" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX127" s="4">
         <v>6</v>
@@ -44050,7 +43805,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW128" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX128" s="4">
         <v>6</v>
@@ -44218,7 +43973,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW129" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX129" s="4">
         <v>3</v>
@@ -44382,7 +44137,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW130" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX130" s="4">
         <v>6</v>
@@ -44546,7 +44301,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW131" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX131" s="4">
         <v>6</v>
@@ -44714,7 +44469,7 @@
         <v>0;0;0;0.3;0;0;0</v>
       </c>
       <c r="AW132" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX132" s="4">
         <v>6</v>
@@ -44882,7 +44637,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW133" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX133" s="4">
         <v>6</v>
@@ -44980,7 +44735,7 @@
         <v>2</v>
       </c>
       <c r="Y134" s="4" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="Z134" s="43">
         <v>55000035</v>
@@ -45050,7 +44805,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW134" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX134" s="4">
         <v>6</v>
@@ -45218,7 +44973,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW135" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX135" s="4">
         <v>6</v>
@@ -45316,7 +45071,7 @@
         <v>107</v>
       </c>
       <c r="Y136" s="4" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="Z136" s="43">
         <v>55000031</v>
@@ -45386,7 +45141,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW136" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX136" s="4">
         <v>6</v>
@@ -45484,7 +45239,7 @@
         <v>2</v>
       </c>
       <c r="Y137" s="4" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="Z137" s="43">
         <v>55000012</v>
@@ -45558,7 +45313,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW137" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX137" s="4">
         <v>5</v>
@@ -45656,7 +45411,7 @@
         <v>6</v>
       </c>
       <c r="Y138" s="4" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="Z138" s="43">
         <v>55000157</v>
@@ -45726,7 +45481,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW138" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX138" s="4">
         <v>6</v>
@@ -45824,7 +45579,7 @@
         <v>107</v>
       </c>
       <c r="Y139" s="4" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="Z139" s="43">
         <v>55000119</v>
@@ -45894,7 +45649,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW139" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX139" s="4">
         <v>6</v>
@@ -46052,7 +45807,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW140" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX140" s="4">
         <v>6</v>
@@ -46150,7 +45905,7 @@
         <v>12</v>
       </c>
       <c r="Y141" s="4" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="Z141" s="43">
         <v>55000088</v>
@@ -46220,7 +45975,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW141" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX141" s="4">
         <v>6</v>
@@ -46318,7 +46073,7 @@
         <v>40</v>
       </c>
       <c r="Y142" s="4" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="Z142" s="43">
         <v>55000018</v>
@@ -46388,7 +46143,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW142" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX142" s="4">
         <v>6</v>
@@ -46432,9 +46187,9 @@
       <c r="G143" s="4">
         <v>0</v>
       </c>
-      <c r="H143" s="4">
+      <c r="H143" s="4" t="e">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
       <c r="I143" s="4">
         <v>2</v>
@@ -46469,9 +46224,9 @@
       <c r="S143" s="4">
         <v>0</v>
       </c>
-      <c r="T143" s="15">
+      <c r="T143" s="15" t="e">
         <f t="shared" si="9"/>
-        <v>-0.5</v>
+        <v>#N/A</v>
       </c>
       <c r="U143" s="4">
         <v>10</v>
@@ -46504,12 +46259,12 @@
       <c r="AE143" s="21"/>
       <c r="AF143" s="21"/>
       <c r="AG143" s="21"/>
-      <c r="AH143" s="21">
+      <c r="AH143" s="21" t="e">
         <f>IF(ISBLANK($Z143),0, LOOKUP($Z143,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AA143/100)+
 IF(ISBLANK($AB143),0, LOOKUP($AB143,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC143/100)+
 IF(ISBLANK($AD143),0, LOOKUP($AD143,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE143/100)+
 IF(ISBLANK($AF143),0, LOOKUP($AF143,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG143/100)</f>
-        <v>3.5</v>
+        <v>#N/A</v>
       </c>
       <c r="AI143" s="21">
         <v>0</v>
@@ -46556,7 +46311,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW143" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX143" s="4">
         <v>6</v>
@@ -46654,7 +46409,7 @@
         <v>16</v>
       </c>
       <c r="Y144" s="4" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="Z144" s="43">
         <v>55000044</v>
@@ -46720,7 +46475,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW144" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX144" s="4">
         <v>6</v>
@@ -46878,7 +46633,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW145" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX145" s="4">
         <v>6</v>
@@ -46961,7 +46716,7 @@
       </c>
       <c r="T146" s="15">
         <f t="shared" si="9"/>
-        <v>62.319999999999993</v>
+        <v>66.319999999999993</v>
       </c>
       <c r="U146" s="4">
         <v>10</v>
@@ -47003,7 +46758,7 @@
 IF(ISBLANK($AB146),0, LOOKUP($AB146,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC146/100)+
 IF(ISBLANK($AD146),0, LOOKUP($AD146,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE146/100)+
 IF(ISBLANK($AF146),0, LOOKUP($AF146,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG146/100)</f>
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="AI146" s="21">
         <v>0</v>
@@ -47050,7 +46805,7 @@
         <v>0;0;0;0;0.3;0;0</v>
       </c>
       <c r="AW146" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX146" s="4">
         <v>6</v>
@@ -47218,7 +46973,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW147" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX147" s="4">
         <v>6</v>
@@ -47316,7 +47071,7 @@
         <v>1165</v>
       </c>
       <c r="Y148" s="4" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Z148" s="43">
         <v>55000340</v>
@@ -47386,7 +47141,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW148" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX148" s="4">
         <v>6</v>
@@ -47484,7 +47239,7 @@
         <v>166</v>
       </c>
       <c r="Y149" s="4" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="Z149" s="43">
         <v>55000066</v>
@@ -47558,7 +47313,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW149" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX149" s="4">
         <v>6</v>
@@ -47730,7 +47485,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW150" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX150" s="4">
         <v>6</v>
@@ -47894,7 +47649,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW151" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX151" s="4">
         <v>6</v>
@@ -48052,7 +47807,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW152" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX152" s="4">
         <v>6</v>
@@ -48216,7 +47971,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW153" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX153" s="4">
         <v>6</v>
@@ -48380,7 +48135,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW154" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX154" s="4">
         <v>6</v>
@@ -48478,7 +48233,7 @@
         <v>1169</v>
       </c>
       <c r="Y155" s="4" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="Z155" s="43">
         <v>55000165</v>
@@ -48544,7 +48299,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW155" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX155" s="4">
         <v>6</v>
@@ -48642,7 +48397,7 @@
         <v>4</v>
       </c>
       <c r="Y156" s="4" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="Z156" s="43">
         <v>55000166</v>
@@ -48708,7 +48463,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW156" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX156" s="4">
         <v>6</v>
@@ -48866,7 +48621,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW157" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX157" s="4">
         <v>6</v>
@@ -48964,7 +48719,7 @@
         <v>2</v>
       </c>
       <c r="Y158" s="4" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="Z158" s="43">
         <v>55000049</v>
@@ -49030,7 +48785,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW158" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX158" s="4">
         <v>6</v>
@@ -49198,7 +48953,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW159" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX159" s="4">
         <v>6</v>
@@ -49296,7 +49051,7 @@
         <v>179</v>
       </c>
       <c r="Y160" s="4" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="Z160" s="43">
         <v>55000048</v>
@@ -49366,7 +49121,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW160" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX160" s="4">
         <v>6</v>
@@ -49524,7 +49279,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW161" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX161" s="4">
         <v>6</v>
@@ -49622,7 +49377,7 @@
         <v>107</v>
       </c>
       <c r="Y162" s="4" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="Z162" s="43">
         <v>55000150</v>
@@ -49688,7 +49443,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW162" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX162" s="4">
         <v>6</v>
@@ -49786,7 +49541,7 @@
         <v>107</v>
       </c>
       <c r="Y163" s="4" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="Z163" s="43">
         <v>55000269</v>
@@ -49852,7 +49607,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW163" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX163" s="4">
         <v>6</v>
@@ -49950,7 +49705,7 @@
         <v>16</v>
       </c>
       <c r="Y164" s="4" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="Z164" s="43">
         <v>55000167</v>
@@ -50020,7 +49775,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW164" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX164" s="4">
         <v>6</v>
@@ -50192,7 +49947,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW165" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX165" s="4">
         <v>6</v>
@@ -50290,7 +50045,7 @@
         <v>100</v>
       </c>
       <c r="Y166" s="4" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="Z166" s="43">
         <v>55000094</v>
@@ -50360,7 +50115,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW166" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX166" s="4">
         <v>6</v>
@@ -50528,7 +50283,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW167" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX167" s="4">
         <v>6</v>
@@ -50700,7 +50455,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW168" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX168" s="4">
         <v>5</v>
@@ -50798,7 +50553,7 @@
         <v>9</v>
       </c>
       <c r="Y169" s="4" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="Z169" s="43">
         <v>55000179</v>
@@ -50864,7 +50619,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW169" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX169" s="4">
         <v>6</v>
@@ -50883,7 +50638,7 @@
         <v>5.7377049999999999E-2</v>
       </c>
       <c r="BD169" s="22" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="170" spans="1:56" ht="14.25">
@@ -50962,7 +50717,7 @@
         <v>9</v>
       </c>
       <c r="Y170" s="4" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="Z170" s="43">
         <v>55000178</v>
@@ -51028,7 +50783,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW170" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX170" s="4">
         <v>6</v>
@@ -51047,7 +50802,7 @@
         <v>4.0983609999999997E-2</v>
       </c>
       <c r="BD170" s="22" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="171" spans="1:56" ht="14.25">
@@ -51204,7 +50959,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW171" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX171" s="4">
         <v>6</v>
@@ -51376,7 +51131,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW172" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX172" s="4">
         <v>6</v>
@@ -51474,7 +51229,7 @@
         <v>1163</v>
       </c>
       <c r="Y173" s="4" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="Z173" s="43">
         <v>55000015</v>
@@ -51544,7 +51299,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW173" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX173" s="4">
         <v>6</v>
@@ -51642,7 +51397,7 @@
         <v>69</v>
       </c>
       <c r="Y174" s="4" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="Z174" s="43">
         <v>55000184</v>
@@ -51708,7 +51463,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW174" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX174" s="4">
         <v>6</v>
@@ -51806,7 +51561,7 @@
         <v>2</v>
       </c>
       <c r="Y175" s="4" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="Z175" s="43">
         <v>55000185</v>
@@ -51872,7 +51627,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW175" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX175" s="4">
         <v>6</v>
@@ -51970,7 +51725,7 @@
         <v>12</v>
       </c>
       <c r="Y176" s="4" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="Z176" s="43">
         <v>55000186</v>
@@ -52036,7 +51791,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW176" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX176" s="4">
         <v>6</v>
@@ -52134,7 +51889,7 @@
         <v>4</v>
       </c>
       <c r="Y177" s="4" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="Z177" s="43">
         <v>55000188</v>
@@ -52204,7 +51959,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW177" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX177" s="4">
         <v>6</v>
@@ -52302,7 +52057,7 @@
         <v>4</v>
       </c>
       <c r="Y178" s="4" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="Z178" s="43">
         <v>55000087</v>
@@ -52372,7 +52127,7 @@
         <v>0;0;0;0;0;0.3;0</v>
       </c>
       <c r="AW178" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX178" s="4">
         <v>6</v>
@@ -52536,7 +52291,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW179" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX179" s="4">
         <v>6</v>
@@ -52634,7 +52389,7 @@
         <v>65</v>
       </c>
       <c r="Y180" s="4" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="Z180" s="43">
         <v>55000061</v>
@@ -52712,7 +52467,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW180" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX180" s="4">
         <v>5</v>
@@ -52810,7 +52565,7 @@
         <v>976</v>
       </c>
       <c r="Y181" s="4" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="Z181" s="43">
         <v>55000044</v>
@@ -52884,7 +52639,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW181" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX181" s="4">
         <v>6</v>
@@ -53052,7 +52807,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW182" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX182" s="4">
         <v>6</v>
@@ -53150,7 +52905,7 @@
         <v>16</v>
       </c>
       <c r="Y183" s="4" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="Z183" s="43">
         <v>55000297</v>
@@ -53220,7 +52975,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW183" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX183" s="4">
         <v>5</v>
@@ -53384,7 +53139,7 @@
         <v>0;0;0.3;0;0;0;0</v>
       </c>
       <c r="AW184" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX184" s="4">
         <v>6</v>
@@ -53482,7 +53237,7 @@
         <v>12</v>
       </c>
       <c r="Y185" s="4" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="Z185" s="43">
         <v>55000194</v>
@@ -53552,7 +53307,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW185" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX185" s="4">
         <v>3</v>
@@ -53720,7 +53475,7 @@
         <v>0;0.3;0;0;0;0;0</v>
       </c>
       <c r="AW186" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX186" s="4">
         <v>6</v>
@@ -53818,7 +53573,7 @@
         <v>6</v>
       </c>
       <c r="Y187" s="4" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="Z187" s="43">
         <v>55000089</v>
@@ -53884,7 +53639,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW187" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX187" s="4">
         <v>6</v>
@@ -53982,7 +53737,7 @@
         <v>2</v>
       </c>
       <c r="Y188" s="4" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="Z188" s="43">
         <v>55000196</v>
@@ -54056,7 +53811,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW188" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX188" s="4">
         <v>3</v>
@@ -54154,7 +53909,7 @@
         <v>4</v>
       </c>
       <c r="Y189" s="4" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="Z189" s="43">
         <v>55000044</v>
@@ -54220,7 +53975,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW189" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX189" s="4">
         <v>6</v>
@@ -54378,7 +54133,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW190" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX190" s="4">
         <v>6</v>
@@ -54546,7 +54301,7 @@
         <v>0;0;0;0;0;0.3;0</v>
       </c>
       <c r="AW191" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX191" s="4">
         <v>6</v>
@@ -54590,9 +54345,9 @@
       <c r="G192" s="4">
         <v>2</v>
       </c>
-      <c r="H192" s="4">
+      <c r="H192" s="4" t="e">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>#N/A</v>
       </c>
       <c r="I192" s="4">
         <v>5</v>
@@ -54627,9 +54382,9 @@
       <c r="S192" s="4">
         <v>0</v>
       </c>
-      <c r="T192" s="15">
+      <c r="T192" s="15" t="e">
         <f t="shared" si="9"/>
-        <v>11.4</v>
+        <v>#N/A</v>
       </c>
       <c r="U192" s="4">
         <v>40</v>
@@ -54644,7 +54399,7 @@
         <v>1164</v>
       </c>
       <c r="Y192" s="4" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="Z192" s="43">
         <v>55000001</v>
@@ -54666,12 +54421,12 @@
       </c>
       <c r="AF192" s="21"/>
       <c r="AG192" s="21"/>
-      <c r="AH192" s="21">
+      <c r="AH192" s="21" t="e">
         <f>IF(ISBLANK($Z192),0, LOOKUP($Z192,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AA192/100)+
 IF(ISBLANK($AB192),0, LOOKUP($AB192,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC192/100)+
 IF(ISBLANK($AD192),0, LOOKUP($AD192,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE192/100)+
 IF(ISBLANK($AF192),0, LOOKUP($AF192,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG192/100)</f>
-        <v>8.4</v>
+        <v>#N/A</v>
       </c>
       <c r="AI192" s="21">
         <v>0</v>
@@ -54718,7 +54473,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW192" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX192" s="4">
         <v>6</v>
@@ -54890,7 +54645,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW193" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX193" s="4">
         <v>6</v>
@@ -55062,7 +54817,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW194" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX194" s="4">
         <v>4</v>
@@ -55160,7 +54915,7 @@
         <v>209</v>
       </c>
       <c r="Y195" s="4" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="Z195" s="43">
         <v>55000016</v>
@@ -55238,7 +54993,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW195" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX195" s="4">
         <v>5</v>
@@ -55406,7 +55161,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW196" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX196" s="4">
         <v>5</v>
@@ -55578,7 +55333,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW197" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX197" s="4">
         <v>5</v>
@@ -55750,7 +55505,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW198" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX198" s="4">
         <v>3</v>
@@ -55922,7 +55677,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW199" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX199" s="4">
         <v>6</v>
@@ -56094,7 +55849,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW200" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX200" s="4">
         <v>6</v>
@@ -56192,7 +55947,7 @@
         <v>12</v>
       </c>
       <c r="Y201" s="4" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="Z201" s="43">
         <v>55000036</v>
@@ -56258,7 +56013,7 @@
         <v>0;0;0;0.3;0;0;0</v>
       </c>
       <c r="AW201" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX201" s="4">
         <v>3</v>
@@ -56356,7 +56111,7 @@
         <v>1166</v>
       </c>
       <c r="Y202" s="4" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="Z202" s="43">
         <v>55000203</v>
@@ -56422,7 +56177,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW202" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX202" s="4">
         <v>6</v>
@@ -56588,7 +56343,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW203" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX203" s="4">
         <v>6</v>
@@ -56686,7 +56441,7 @@
         <v>2</v>
       </c>
       <c r="Y204" s="4" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="Z204" s="43">
         <v>55000150</v>
@@ -56756,7 +56511,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW204" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX204" s="4">
         <v>6</v>
@@ -56854,7 +56609,7 @@
         <v>1168</v>
       </c>
       <c r="Y205" s="4" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="Z205" s="43">
         <v>55000197</v>
@@ -56920,7 +56675,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW205" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX205" s="4">
         <v>6</v>
@@ -57003,7 +56758,7 @@
       </c>
       <c r="T206" s="15">
         <f t="shared" si="13"/>
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="U206" s="4">
         <v>10</v>
@@ -57018,7 +56773,7 @@
         <v>94</v>
       </c>
       <c r="Y206" s="4" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="Z206" s="43">
         <v>55000003</v>
@@ -57041,7 +56796,7 @@
 IF(ISBLANK($AB206),0, LOOKUP($AB206,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC206/100)+
 IF(ISBLANK($AD206),0, LOOKUP($AD206,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE206/100)+
 IF(ISBLANK($AF206),0, LOOKUP($AF206,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG206/100)</f>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AI206" s="21">
         <v>0</v>
@@ -57088,7 +56843,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW206" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX206" s="4">
         <v>6</v>
@@ -57252,7 +57007,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW207" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX207" s="4">
         <v>6</v>
@@ -57350,7 +57105,7 @@
         <v>6</v>
       </c>
       <c r="Y208" s="7" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="Z208" s="43">
         <v>55000207</v>
@@ -57420,7 +57175,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW208" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX208" s="4">
         <v>6</v>
@@ -57518,7 +57273,7 @@
         <v>2</v>
       </c>
       <c r="Y209" s="4" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="Z209" s="43">
         <v>55000120</v>
@@ -57584,7 +57339,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW209" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX209" s="4">
         <v>6</v>
@@ -57628,9 +57383,9 @@
       <c r="G210" s="4">
         <v>6</v>
       </c>
-      <c r="H210" s="4">
+      <c r="H210" s="4" t="e">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>#N/A</v>
       </c>
       <c r="I210" s="4">
         <v>2</v>
@@ -57665,9 +57420,9 @@
       <c r="S210" s="4">
         <v>0</v>
       </c>
-      <c r="T210" s="15">
+      <c r="T210" s="15" t="e">
         <f t="shared" si="13"/>
-        <v>20.5</v>
+        <v>#N/A</v>
       </c>
       <c r="U210" s="4">
         <v>10</v>
@@ -57682,7 +57437,7 @@
         <v>172</v>
       </c>
       <c r="Y210" s="4" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="Z210" s="43">
         <v>55000001</v>
@@ -57700,12 +57455,12 @@
       <c r="AE210" s="21"/>
       <c r="AF210" s="21"/>
       <c r="AG210" s="21"/>
-      <c r="AH210" s="21">
+      <c r="AH210" s="21" t="e">
         <f>IF(ISBLANK($Z210),0, LOOKUP($Z210,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AA210/100)+
 IF(ISBLANK($AB210),0, LOOKUP($AB210,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC210/100)+
 IF(ISBLANK($AD210),0, LOOKUP($AD210,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE210/100)+
 IF(ISBLANK($AF210),0, LOOKUP($AF210,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG210/100)</f>
-        <v>4.5</v>
+        <v>#N/A</v>
       </c>
       <c r="AI210" s="21">
         <v>0</v>
@@ -57752,7 +57507,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW210" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX210" s="4">
         <v>6</v>
@@ -57850,7 +57605,7 @@
         <v>69</v>
       </c>
       <c r="Y211" s="4" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="Z211" s="43">
         <v>55000208</v>
@@ -57924,7 +57679,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW211" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX211" s="4">
         <v>6</v>
@@ -58022,7 +57777,7 @@
         <v>132</v>
       </c>
       <c r="Y212" s="4" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="Z212" s="43">
         <v>55000103</v>
@@ -58092,7 +57847,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW212" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX212" s="4">
         <v>6</v>
@@ -58187,10 +57942,10 @@
         <v>0</v>
       </c>
       <c r="X213" s="4" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="Y213" s="4" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="Z213" s="43">
         <v>55000114</v>
@@ -58264,7 +58019,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW213" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX213" s="4">
         <v>6</v>
@@ -58436,7 +58191,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW214" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX214" s="4">
         <v>6</v>
@@ -58534,7 +58289,7 @@
         <v>190</v>
       </c>
       <c r="Y215" s="4" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="Z215" s="43">
         <v>55000102</v>
@@ -58612,7 +58367,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW215" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX215" s="4">
         <v>6</v>
@@ -58776,7 +58531,7 @@
         <v>0;0;0;0;0;0;0.3</v>
       </c>
       <c r="AW216" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX216" s="4">
         <v>6</v>
@@ -58820,9 +58575,9 @@
       <c r="G217" s="4">
         <v>0</v>
       </c>
-      <c r="H217" s="4">
+      <c r="H217" s="4" t="e">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>#N/A</v>
       </c>
       <c r="I217" s="4">
         <v>2</v>
@@ -58857,9 +58612,9 @@
       <c r="S217" s="4">
         <v>0</v>
       </c>
-      <c r="T217" s="15">
+      <c r="T217" s="15" t="e">
         <f t="shared" si="13"/>
-        <v>30.6</v>
+        <v>#N/A</v>
       </c>
       <c r="U217" s="4">
         <v>10</v>
@@ -58874,7 +58629,7 @@
         <v>4</v>
       </c>
       <c r="Y217" s="4" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="Z217" s="43">
         <v>55000001</v>
@@ -58892,12 +58647,12 @@
       <c r="AE217" s="21"/>
       <c r="AF217" s="21"/>
       <c r="AG217" s="21"/>
-      <c r="AH217" s="21">
+      <c r="AH217" s="21" t="e">
         <f>IF(ISBLANK($Z217),0, LOOKUP($Z217,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AA217/100)+
 IF(ISBLANK($AB217),0, LOOKUP($AB217,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC217/100)+
 IF(ISBLANK($AD217),0, LOOKUP($AD217,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE217/100)+
 IF(ISBLANK($AF217),0, LOOKUP($AF217,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG217/100)</f>
-        <v>2.6</v>
+        <v>#N/A</v>
       </c>
       <c r="AI217" s="21">
         <v>0</v>
@@ -58944,7 +58699,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW217" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX217" s="4">
         <v>6</v>
@@ -59042,7 +58797,7 @@
         <v>4</v>
       </c>
       <c r="Y218" s="4" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="Z218" s="43">
         <v>55000340</v>
@@ -59112,7 +58867,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW218" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX218" s="4">
         <v>6</v>
@@ -59210,7 +58965,7 @@
         <v>1167</v>
       </c>
       <c r="Y219" s="4" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="Z219" s="43">
         <v>55000070</v>
@@ -59280,7 +59035,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW219" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX219" s="4">
         <v>6</v>
@@ -59363,7 +59118,7 @@
       </c>
       <c r="T220" s="15">
         <f t="shared" si="13"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="U220" s="4">
         <v>10</v>
@@ -59378,7 +59133,7 @@
         <v>65</v>
       </c>
       <c r="Y220" s="4" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="Z220" s="43">
         <v>55000101</v>
@@ -59397,7 +59152,7 @@
 IF(ISBLANK($AB220),0, LOOKUP($AB220,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC220/100)+
 IF(ISBLANK($AD220),0, LOOKUP($AD220,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE220/100)+
 IF(ISBLANK($AF220),0, LOOKUP($AF220,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG220/100)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AI220" s="21">
         <v>0</v>
@@ -59444,7 +59199,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW220" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX220" s="4">
         <v>6</v>
@@ -59542,7 +59297,7 @@
         <v>237</v>
       </c>
       <c r="Y221" s="4" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="Z221" s="43">
         <v>55000215</v>
@@ -59612,7 +59367,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW221" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX221" s="4">
         <v>6</v>
@@ -59710,7 +59465,7 @@
         <v>6</v>
       </c>
       <c r="Y222" s="4" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="Z222" s="43">
         <v>55000217</v>
@@ -59776,7 +59531,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW222" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX222" s="4">
         <v>6</v>
@@ -59874,7 +59629,7 @@
         <v>9</v>
       </c>
       <c r="Y223" s="4" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="Z223" s="43">
         <v>55000218</v>
@@ -59940,7 +59695,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW223" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX223" s="4">
         <v>6</v>
@@ -60108,7 +59863,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW224" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX224" s="4">
         <v>6</v>
@@ -60206,7 +59961,7 @@
         <v>16</v>
       </c>
       <c r="Y225" s="4" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="Z225" s="43">
         <v>55000009</v>
@@ -60276,7 +60031,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW225" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX225" s="4">
         <v>6</v>
@@ -60374,7 +60129,7 @@
         <v>9</v>
       </c>
       <c r="Y226" s="4" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="Z226" s="43">
         <v>55000221</v>
@@ -60440,7 +60195,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW226" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX226" s="4">
         <v>6</v>
@@ -60536,7 +60291,7 @@
         <v>172</v>
       </c>
       <c r="Y227" s="4" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="Z227" s="43">
         <v>55000222</v>
@@ -60606,7 +60361,7 @@
         <v>0;0;0;0;0;0.3;0</v>
       </c>
       <c r="AW227" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX227" s="4">
         <v>6</v>
@@ -60704,7 +60459,7 @@
         <v>245</v>
       </c>
       <c r="Y228" s="4" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="Z228" s="43">
         <v>55000160</v>
@@ -60774,7 +60529,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW228" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX228" s="4">
         <v>6</v>
@@ -60872,7 +60627,7 @@
         <v>24</v>
       </c>
       <c r="Y229" s="4" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="Z229" s="43">
         <v>55000093</v>
@@ -60942,7 +60697,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW229" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX229" s="4">
         <v>6</v>
@@ -61040,7 +60795,7 @@
         <v>9</v>
       </c>
       <c r="Y230" s="4" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="Z230" s="43">
         <v>55000225</v>
@@ -61106,7 +60861,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW230" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX230" s="4">
         <v>6</v>
@@ -61125,7 +60880,7 @@
         <v>5.2459020000000002E-2</v>
       </c>
       <c r="BD230" s="22" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="231" spans="1:56" ht="14.25">
@@ -61204,7 +60959,7 @@
         <v>9</v>
       </c>
       <c r="Y231" s="4" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="Z231" s="43">
         <v>55000226</v>
@@ -61270,7 +61025,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW231" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX231" s="4">
         <v>6</v>
@@ -61289,7 +61044,7 @@
         <v>5.4098359999999998E-2</v>
       </c>
       <c r="BD231" s="22" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="232" spans="1:56" ht="14.25">
@@ -61428,7 +61183,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW232" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX232" s="4">
         <v>6</v>
@@ -61526,7 +61281,7 @@
         <v>251</v>
       </c>
       <c r="Y233" s="4" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="Z233" s="43">
         <v>55000120</v>
@@ -61592,7 +61347,7 @@
         <v>0;0;0.3;0;0;0;0</v>
       </c>
       <c r="AW233" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX233" s="4">
         <v>6</v>
@@ -61760,7 +61515,7 @@
         <v>0;0;0;0;0;0;0.3</v>
       </c>
       <c r="AW234" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX234" s="4">
         <v>6</v>
@@ -61928,7 +61683,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW235" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX235" s="4">
         <v>6</v>
@@ -62096,7 +61851,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW236" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX236" s="4">
         <v>6</v>
@@ -62179,7 +61934,7 @@
       </c>
       <c r="T237" s="15">
         <f t="shared" si="13"/>
-        <v>81.5</v>
+        <v>90.5</v>
       </c>
       <c r="U237" s="4">
         <v>10</v>
@@ -62225,7 +61980,7 @@
 IF(ISBLANK($AB237),0, LOOKUP($AB237,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC237/100)+
 IF(ISBLANK($AD237),0, LOOKUP($AD237,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE237/100)+
 IF(ISBLANK($AF237),0, LOOKUP($AF237,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG237/100)</f>
-        <v>68.5</v>
+        <v>77.5</v>
       </c>
       <c r="AI237" s="21">
         <v>0</v>
@@ -62272,7 +62027,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW237" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX237" s="4">
         <v>6</v>
@@ -62440,7 +62195,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW238" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX238" s="4">
         <v>6</v>
@@ -62608,7 +62363,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW239" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX239" s="4">
         <v>6</v>
@@ -62706,7 +62461,7 @@
         <v>2</v>
       </c>
       <c r="Y240" s="4" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="Z240" s="43">
         <v>55000006</v>
@@ -62776,7 +62531,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW240" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX240" s="4">
         <v>6</v>
@@ -62952,7 +62707,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW241" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX241" s="4">
         <v>3</v>
@@ -63120,7 +62875,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW242" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX242" s="4">
         <v>6</v>
@@ -63218,7 +62973,7 @@
         <v>220</v>
       </c>
       <c r="Y243" s="4" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="Z243" s="43">
         <v>55000037</v>
@@ -63292,7 +63047,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW243" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX243" s="4">
         <v>6</v>
@@ -63390,7 +63145,7 @@
         <v>2</v>
       </c>
       <c r="Y244" s="4" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="Z244" s="43">
         <v>55000131</v>
@@ -63460,7 +63215,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW244" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX244" s="4">
         <v>6</v>
@@ -63558,7 +63313,7 @@
         <v>69</v>
       </c>
       <c r="Y245" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="Z245" s="43">
         <v>55000131</v>
@@ -63636,7 +63391,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW245" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX245" s="4">
         <v>4</v>
@@ -63734,7 +63489,7 @@
         <v>251</v>
       </c>
       <c r="Y246" s="4" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="Z246" s="43">
         <v>55000216</v>
@@ -63800,7 +63555,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW246" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX246" s="4">
         <v>4</v>
@@ -63972,7 +63727,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW247" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX247" s="4">
         <v>6</v>
@@ -64070,7 +63825,7 @@
         <v>19</v>
       </c>
       <c r="Y248" s="4" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="Z248" s="43">
         <v>55000260</v>
@@ -64136,7 +63891,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW248" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX248" s="4">
         <v>6</v>
@@ -64304,7 +64059,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW249" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX249" s="4">
         <v>6</v>
@@ -64476,7 +64231,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW250" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX250" s="4">
         <v>3</v>
@@ -64520,9 +64275,9 @@
       <c r="G251" s="4">
         <v>0</v>
       </c>
-      <c r="H251" s="4">
+      <c r="H251" s="4" t="e">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>#N/A</v>
       </c>
       <c r="I251" s="4">
         <v>2</v>
@@ -64557,9 +64312,9 @@
       <c r="S251" s="4">
         <v>0</v>
       </c>
-      <c r="T251" s="15">
+      <c r="T251" s="15" t="e">
         <f t="shared" si="13"/>
-        <v>24</v>
+        <v>#N/A</v>
       </c>
       <c r="U251" s="4">
         <v>10</v>
@@ -64592,12 +64347,12 @@
       <c r="AE251" s="21"/>
       <c r="AF251" s="21"/>
       <c r="AG251" s="21"/>
-      <c r="AH251" s="21">
+      <c r="AH251" s="21" t="e">
         <f>IF(ISBLANK($Z251),0, LOOKUP($Z251,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AA251/100)+
 IF(ISBLANK($AB251),0, LOOKUP($AB251,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC251/100)+
 IF(ISBLANK($AD251),0, LOOKUP($AD251,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE251/100)+
 IF(ISBLANK($AF251),0, LOOKUP($AF251,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG251/100)</f>
-        <v>4</v>
+        <v>#N/A</v>
       </c>
       <c r="AI251" s="21">
         <v>0</v>
@@ -64644,7 +64399,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW251" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX251" s="4">
         <v>6</v>
@@ -64742,7 +64497,7 @@
         <v>135</v>
       </c>
       <c r="Y252" s="4" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="Z252" s="43">
         <v>55000030</v>
@@ -64816,7 +64571,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW252" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX252" s="4">
         <v>6</v>
@@ -64914,7 +64669,7 @@
         <v>19</v>
       </c>
       <c r="Y253" s="4" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="Z253" s="43">
         <v>55000265</v>
@@ -64984,7 +64739,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW253" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX253" s="4">
         <v>6</v>
@@ -65082,7 +64837,7 @@
         <v>209</v>
       </c>
       <c r="Y254" s="4" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="Z254" s="43">
         <v>55000340</v>
@@ -65152,7 +64907,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW254" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX254" s="4">
         <v>6</v>
@@ -65250,7 +65005,7 @@
         <v>0</v>
       </c>
       <c r="Y255" s="4" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="Z255" s="43">
         <v>55000181</v>
@@ -65320,7 +65075,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW255" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX255" s="4">
         <v>6</v>
@@ -65418,7 +65173,7 @@
         <v>4</v>
       </c>
       <c r="Y256" s="4" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="Z256" s="43">
         <v>55000032</v>
@@ -65488,7 +65243,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW256" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX256" s="4">
         <v>6</v>
@@ -65656,7 +65411,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW257" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX257" s="4">
         <v>6</v>
@@ -65754,7 +65509,7 @@
         <v>251</v>
       </c>
       <c r="Y258" s="4" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="Z258" s="43">
         <v>55000088</v>
@@ -65824,7 +65579,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW258" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX258" s="4">
         <v>6</v>
@@ -65992,7 +65747,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW259" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX259" s="4">
         <v>6</v>
@@ -66160,7 +65915,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW260" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX260" s="4">
         <v>6</v>
@@ -66328,7 +66083,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW261" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX261" s="4">
         <v>6</v>
@@ -66426,7 +66181,7 @@
         <v>4</v>
       </c>
       <c r="Y262" s="4" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="Z262" s="43">
         <v>55000199</v>
@@ -66492,7 +66247,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW262" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX262" s="4">
         <v>6</v>
@@ -66650,7 +66405,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW263" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX263" s="4">
         <v>6</v>
@@ -66818,7 +66573,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW264" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX264" s="4">
         <v>6</v>
@@ -66916,7 +66671,7 @@
         <v>2</v>
       </c>
       <c r="Y265" s="4" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="Z265" s="43">
         <v>55000123</v>
@@ -66990,7 +66745,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW265" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX265" s="4">
         <v>6</v>
@@ -67162,7 +66917,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW266" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX266" s="4">
         <v>6</v>
@@ -67206,9 +66961,9 @@
       <c r="G267" s="4">
         <v>6</v>
       </c>
-      <c r="H267" s="4">
+      <c r="H267" s="4" t="e">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>#N/A</v>
       </c>
       <c r="I267" s="4">
         <v>5</v>
@@ -67243,9 +66998,9 @@
       <c r="S267" s="4">
         <v>0</v>
       </c>
-      <c r="T267" s="15">
+      <c r="T267" s="15" t="e">
         <f t="shared" si="17"/>
-        <v>23.32</v>
+        <v>#N/A</v>
       </c>
       <c r="U267" s="4">
         <v>10</v>
@@ -67260,7 +67015,7 @@
         <v>94</v>
       </c>
       <c r="Y267" s="4" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="Z267" s="43">
         <v>55000001</v>
@@ -67282,12 +67037,12 @@
       </c>
       <c r="AF267" s="21"/>
       <c r="AG267" s="21"/>
-      <c r="AH267" s="21">
+      <c r="AH267" s="21" t="e">
         <f>IF(ISBLANK($Z267),0, LOOKUP($Z267,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AA267/100)+
 IF(ISBLANK($AB267),0, LOOKUP($AB267,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC267/100)+
 IF(ISBLANK($AD267),0, LOOKUP($AD267,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE267/100)+
 IF(ISBLANK($AF267),0, LOOKUP($AF267,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG267/100)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="AI267" s="21">
         <v>0</v>
@@ -67334,7 +67089,7 @@
         <v>0;0;0;0;0;0.3;0</v>
       </c>
       <c r="AW267" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX267" s="4">
         <v>6</v>
@@ -67432,7 +67187,7 @@
         <v>16</v>
       </c>
       <c r="Y268" s="4" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="Z268" s="43">
         <v>55000279</v>
@@ -67502,7 +67257,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW268" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX268" s="4">
         <v>6</v>
@@ -67600,7 +67355,7 @@
         <v>9</v>
       </c>
       <c r="Y269" s="4" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="Z269" s="43">
         <v>55000272</v>
@@ -67666,7 +67421,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW269" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX269" s="4">
         <v>6</v>
@@ -67749,7 +67504,7 @@
       </c>
       <c r="T270" s="15">
         <f t="shared" si="17"/>
-        <v>19.399999999999999</v>
+        <v>23.4</v>
       </c>
       <c r="U270" s="4">
         <v>10</v>
@@ -67787,7 +67542,7 @@
 IF(ISBLANK($AB270),0, LOOKUP($AB270,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC270/100)+
 IF(ISBLANK($AD270),0, LOOKUP($AD270,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE270/100)+
 IF(ISBLANK($AF270),0, LOOKUP($AF270,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG270/100)</f>
-        <v>3.4</v>
+        <v>7.4</v>
       </c>
       <c r="AI270" s="21">
         <v>0</v>
@@ -67834,7 +67589,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW270" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX270" s="4">
         <v>6</v>
@@ -67932,7 +67687,7 @@
         <v>40</v>
       </c>
       <c r="Y271" s="4" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="Z271" s="43">
         <v>55000019</v>
@@ -68006,7 +67761,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW271" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX271" s="4">
         <v>5</v>
@@ -68104,7 +67859,7 @@
         <v>31</v>
       </c>
       <c r="Y272" s="4" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="Z272" s="43">
         <v>55000275</v>
@@ -68178,7 +67933,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW272" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX272" s="4">
         <v>6</v>
@@ -68276,7 +68031,7 @@
         <v>1170</v>
       </c>
       <c r="Y273" s="4" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="Z273" s="43">
         <v>55000136</v>
@@ -68350,7 +68105,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW273" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX273" s="4">
         <v>3</v>
@@ -68448,7 +68203,7 @@
         <v>0</v>
       </c>
       <c r="Y274" s="4" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="Z274" s="43">
         <v>55000342</v>
@@ -68514,7 +68269,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW274" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX274" s="4">
         <v>6</v>
@@ -68612,7 +68367,7 @@
         <v>277</v>
       </c>
       <c r="Y275" s="4" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="Z275" s="43">
         <v>55000278</v>
@@ -68682,7 +68437,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW275" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX275" s="4">
         <v>6</v>
@@ -68780,7 +68535,7 @@
         <v>22</v>
       </c>
       <c r="Y276" s="4" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="Z276" s="43">
         <v>55000038</v>
@@ -68848,7 +68603,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW276" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX276" s="4">
         <v>6</v>
@@ -68946,7 +68701,7 @@
         <v>78</v>
       </c>
       <c r="Y277" s="4" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="Z277" s="43">
         <v>55000150</v>
@@ -69016,7 +68771,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW277" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX277" s="4">
         <v>6</v>
@@ -69114,7 +68869,7 @@
         <v>4</v>
       </c>
       <c r="Y278" s="4" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="Z278" s="43">
         <v>55000136</v>
@@ -69184,7 +68939,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW278" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX278" s="4">
         <v>6</v>
@@ -69282,7 +69037,7 @@
         <v>4</v>
       </c>
       <c r="Y279" s="7" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="Z279" s="43">
         <v>55000282</v>
@@ -69348,7 +69103,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW279" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX279" s="4">
         <v>6</v>
@@ -69446,7 +69201,7 @@
         <v>16</v>
       </c>
       <c r="Y280" s="4" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="Z280" s="43">
         <v>55000120</v>
@@ -69516,7 +69271,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW280" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX280" s="4">
         <v>6</v>
@@ -69614,7 +69369,7 @@
         <v>9</v>
       </c>
       <c r="Y281" s="4" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="Z281" s="43">
         <v>55000285</v>
@@ -69680,7 +69435,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW281" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX281" s="4">
         <v>6</v>
@@ -69778,7 +69533,7 @@
         <v>6</v>
       </c>
       <c r="Y282" s="4" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="Z282" s="43">
         <v>55000285</v>
@@ -69844,7 +69599,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW282" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX282" s="4">
         <v>6</v>
@@ -69942,7 +69697,7 @@
         <v>16</v>
       </c>
       <c r="Y283" s="4" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="Z283" s="43">
         <v>55000285</v>
@@ -70008,7 +69763,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW283" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX283" s="4">
         <v>6</v>
@@ -70106,7 +69861,7 @@
         <v>6</v>
       </c>
       <c r="Y284" s="4" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="Z284" s="43">
         <v>55000287</v>
@@ -70176,7 +69931,7 @@
         <v>0;0;0;0;0;0.3;0</v>
       </c>
       <c r="AW284" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX284" s="4">
         <v>6</v>
@@ -70344,7 +70099,7 @@
         <v>0;0;0;0;0;0;0.3</v>
       </c>
       <c r="AW285" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX285" s="4">
         <v>5</v>
@@ -70502,7 +70257,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW286" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX286" s="4">
         <v>6</v>
@@ -70521,7 +70276,7 @@
         <v>0.2262295</v>
       </c>
       <c r="BD286" s="22" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="287" spans="1:56" ht="14.25">
@@ -70600,7 +70355,7 @@
         <v>16</v>
       </c>
       <c r="Y287" s="4" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="Z287" s="43">
         <v>55000286</v>
@@ -70670,7 +70425,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW287" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX287" s="4">
         <v>6</v>
@@ -70768,7 +70523,7 @@
         <v>9</v>
       </c>
       <c r="Y288" s="4" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="Z288" s="43">
         <v>55000292</v>
@@ -70838,7 +70593,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW288" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX288" s="4">
         <v>6</v>
@@ -70936,7 +70691,7 @@
         <v>100</v>
       </c>
       <c r="Y289" s="4" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="Z289" s="43">
         <v>55000293</v>
@@ -71002,7 +70757,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW289" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX289" s="4">
         <v>6</v>
@@ -71166,7 +70921,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW290" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX290" s="4">
         <v>6</v>
@@ -71334,7 +71089,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW291" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX291" s="4">
         <v>6</v>
@@ -71502,7 +71257,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW292" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX292" s="4">
         <v>6</v>
@@ -71666,7 +71421,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW293" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX293" s="4">
         <v>6</v>
@@ -71764,7 +71519,7 @@
         <v>16</v>
       </c>
       <c r="Y294" s="4" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="Z294" s="43">
         <v>55000015</v>
@@ -71838,7 +71593,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW294" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX294" s="4">
         <v>6</v>
@@ -72002,7 +71757,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW295" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX295" s="4">
         <v>6</v>
@@ -72170,7 +71925,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW296" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX296" s="4">
         <v>6</v>
@@ -72268,7 +72023,7 @@
         <v>45</v>
       </c>
       <c r="Y297" s="4" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="Z297" s="43">
         <v>55000045</v>
@@ -72342,7 +72097,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW297" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX297" s="4">
         <v>6</v>
@@ -72510,7 +72265,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW298" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX298" s="4">
         <v>6</v>
@@ -72608,7 +72363,7 @@
         <v>22</v>
       </c>
       <c r="Y299" s="4" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="Z299" s="43">
         <v>55000047</v>
@@ -72674,7 +72429,7 @@
         <v>0;0;0;0.3;0;0;0</v>
       </c>
       <c r="AW299" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX299" s="4">
         <v>6</v>
@@ -72772,7 +72527,7 @@
         <v>22</v>
       </c>
       <c r="Y300" s="4" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="Z300" s="43">
         <v>55000107</v>
@@ -72838,7 +72593,7 @@
         <v>0;0.3;0;0;0;0;0</v>
       </c>
       <c r="AW300" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX300" s="4">
         <v>6</v>
@@ -72936,7 +72691,7 @@
         <v>111</v>
       </c>
       <c r="Y301" s="4" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="Z301" s="43">
         <v>55000013</v>
@@ -73014,7 +72769,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW301" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX301" s="4">
         <v>3</v>
@@ -73112,7 +72867,7 @@
         <v>209</v>
       </c>
       <c r="Y302" s="4" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="Z302" s="43">
         <v>55000335</v>
@@ -73182,7 +72937,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW302" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX302" s="4">
         <v>6</v>
@@ -73350,7 +73105,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW303" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX303" s="11">
         <v>6</v>
@@ -73514,7 +73269,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW304" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX304" s="11">
         <v>6</v>
@@ -73678,7 +73433,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW305" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX305" s="11">
         <v>6</v>
@@ -73846,7 +73601,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW306" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX306" s="11">
         <v>6</v>
@@ -74010,7 +73765,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW307" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX307" s="11">
         <v>6</v>
@@ -74168,7 +73923,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW308" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX308" s="11">
         <v>6</v>
@@ -74187,7 +73942,7 @@
         <v>0.49672129999999998</v>
       </c>
       <c r="BD308" s="22" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="309" spans="1:56" ht="14.25">
@@ -74326,7 +74081,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW309" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX309" s="11">
         <v>6</v>
@@ -74345,7 +74100,7 @@
         <v>0.49672129999999998</v>
       </c>
       <c r="BD309" s="22" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="310" spans="1:56" ht="14.25">
@@ -74484,7 +74239,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW310" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX310" s="11">
         <v>6</v>
@@ -74503,7 +74258,7 @@
         <v>0.49672129999999998</v>
       </c>
       <c r="BD310" s="22" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="311" spans="1:56" ht="14.25">
@@ -74642,7 +74397,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW311" s="56" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX311" s="11">
         <v>6</v>
@@ -74661,7 +74416,7 @@
         <v>0.49672129999999998</v>
       </c>
       <c r="BD311" s="22" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="312" spans="1:56" ht="14.25">
@@ -74669,10 +74424,10 @@
         <v>51000309</v>
       </c>
       <c r="B312" s="11" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C312" s="4" t="s">
         <v>1410</v>
-      </c>
-      <c r="C312" s="4" t="s">
-        <v>1411</v>
       </c>
       <c r="D312" s="8" t="s">
         <v>698</v>
@@ -74740,7 +74495,7 @@
         <v>9</v>
       </c>
       <c r="Y312" s="11" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="Z312" s="21">
         <v>55000300</v>
@@ -74806,7 +74561,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW312" s="57" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX312" s="11">
         <v>6</v>
@@ -74825,7 +74580,7 @@
         <v>0.40819670000000002</v>
       </c>
       <c r="BD312" s="11" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="313" spans="1:56" ht="14.25">
@@ -74833,13 +74588,13 @@
         <v>51000310</v>
       </c>
       <c r="B313" s="11" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C313" s="11" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D313" s="8" t="s">
         <v>1418</v>
-      </c>
-      <c r="C313" s="11" t="s">
-        <v>1417</v>
-      </c>
-      <c r="D313" s="8" t="s">
-        <v>1419</v>
       </c>
       <c r="E313" s="11">
         <v>6</v>
@@ -74904,7 +74659,7 @@
         <v>1021</v>
       </c>
       <c r="Y313" s="11" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="Z313" s="21">
         <v>55000344</v>
@@ -74970,7 +74725,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW313" s="57" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX313" s="11">
         <v>6</v>
@@ -74989,7 +74744,7 @@
         <v>0.49672129999999998</v>
       </c>
       <c r="BD313" s="11" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="314" spans="1:56" ht="14.25">
@@ -74997,13 +74752,13 @@
         <v>51000311</v>
       </c>
       <c r="B314" s="11" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C314" s="11" t="s">
         <v>1426</v>
       </c>
-      <c r="C314" s="11" t="s">
+      <c r="D314" s="8" t="s">
         <v>1427</v>
-      </c>
-      <c r="D314" s="8" t="s">
-        <v>1428</v>
       </c>
       <c r="E314" s="11">
         <v>4</v>
@@ -75068,7 +74823,7 @@
         <v>228</v>
       </c>
       <c r="Y314" s="11" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="Z314" s="21">
         <v>55000052</v>
@@ -75134,7 +74889,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW314" s="57" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AX314" s="11">
         <v>6</v>
@@ -75153,7 +74908,7 @@
         <v>0.49672129999999998</v>
       </c>
       <c r="BD314" s="11" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
   </sheetData>
@@ -75171,19 +74926,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H314">
-    <cfRule type="cellIs" dxfId="17" priority="8" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="137" priority="8" operator="greaterThanOrEqual">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="20" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="21" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="22" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -75261,7 +75016,7 @@
         <v>315</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="I1" s="17" t="s">
         <v>977</v>
@@ -75306,7 +75061,7 @@
         <v>1138</v>
       </c>
       <c r="W1" s="17" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="X1" s="17" t="s">
         <v>323</v>
@@ -75315,76 +75070,76 @@
         <v>325</v>
       </c>
       <c r="Z1" s="44" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="AA1" s="44" t="s">
+        <v>1234</v>
+      </c>
+      <c r="AB1" s="44" t="s">
         <v>1235</v>
       </c>
-      <c r="AB1" s="44" t="s">
+      <c r="AC1" s="44" t="s">
         <v>1236</v>
       </c>
-      <c r="AC1" s="44" t="s">
+      <c r="AD1" s="44" t="s">
         <v>1237</v>
       </c>
-      <c r="AD1" s="44" t="s">
+      <c r="AE1" s="44" t="s">
         <v>1238</v>
       </c>
-      <c r="AE1" s="44" t="s">
+      <c r="AF1" s="44" t="s">
         <v>1239</v>
       </c>
-      <c r="AF1" s="44" t="s">
+      <c r="AG1" s="44" t="s">
         <v>1240</v>
       </c>
-      <c r="AG1" s="44" t="s">
-        <v>1241</v>
-      </c>
       <c r="AH1" s="44" t="s">
+        <v>1248</v>
+      </c>
+      <c r="AI1" s="17" t="s">
         <v>1249</v>
       </c>
-      <c r="AI1" s="17" t="s">
+      <c r="AJ1" s="17" t="s">
         <v>1250</v>
       </c>
-      <c r="AJ1" s="17" t="s">
+      <c r="AK1" s="17" t="s">
         <v>1251</v>
       </c>
-      <c r="AK1" s="17" t="s">
+      <c r="AL1" s="17" t="s">
         <v>1252</v>
       </c>
-      <c r="AL1" s="17" t="s">
+      <c r="AM1" s="17" t="s">
         <v>1253</v>
-      </c>
-      <c r="AM1" s="17" t="s">
-        <v>1254</v>
       </c>
       <c r="AN1" s="17" t="s">
         <v>1175</v>
       </c>
       <c r="AO1" s="47" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="AP1" s="47" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="AQ1" s="47" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="AR1" s="47" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="AS1" s="47" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AT1" s="47" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="AU1" s="47" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="AV1" s="48" t="s">
         <v>1027</v>
       </c>
       <c r="AW1" s="54" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="AX1" s="17" t="s">
         <v>326</v>
@@ -75431,7 +75186,7 @@
         <v>295</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>295</v>
@@ -75476,7 +75231,7 @@
         <v>295</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="X2" s="2" t="s">
         <v>296</v>
@@ -75554,7 +75309,7 @@
         <v>1029</v>
       </c>
       <c r="AW2" s="55" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="AX2" s="2" t="s">
         <v>295</v>
@@ -75601,7 +75356,7 @@
         <v>1033</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>979</v>
@@ -75646,7 +75401,7 @@
         <v>1141</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="X3" s="6" t="s">
         <v>306</v>
@@ -75655,76 +75410,76 @@
         <v>308</v>
       </c>
       <c r="Z3" s="46" t="s">
+        <v>1232</v>
+      </c>
+      <c r="AA3" s="46" t="s">
         <v>1233</v>
       </c>
-      <c r="AA3" s="46" t="s">
-        <v>1234</v>
-      </c>
       <c r="AB3" s="46" t="s">
+        <v>1241</v>
+      </c>
+      <c r="AC3" s="46" t="s">
         <v>1242</v>
       </c>
-      <c r="AC3" s="46" t="s">
+      <c r="AD3" s="46" t="s">
         <v>1243</v>
       </c>
-      <c r="AD3" s="46" t="s">
+      <c r="AE3" s="46" t="s">
         <v>1244</v>
       </c>
-      <c r="AE3" s="46" t="s">
+      <c r="AF3" s="46" t="s">
         <v>1245</v>
       </c>
-      <c r="AF3" s="46" t="s">
+      <c r="AG3" s="46" t="s">
         <v>1246</v>
       </c>
-      <c r="AG3" s="46" t="s">
+      <c r="AH3" s="46" t="s">
         <v>1247</v>
       </c>
-      <c r="AH3" s="46" t="s">
-        <v>1248</v>
-      </c>
       <c r="AI3" s="6" t="s">
+        <v>1254</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
         <v>1255</v>
       </c>
-      <c r="AJ3" s="6" t="s">
+      <c r="AK3" s="6" t="s">
         <v>1256</v>
       </c>
-      <c r="AK3" s="6" t="s">
+      <c r="AL3" s="6" t="s">
         <v>1257</v>
       </c>
-      <c r="AL3" s="6" t="s">
+      <c r="AM3" s="6" t="s">
         <v>1258</v>
-      </c>
-      <c r="AM3" s="6" t="s">
-        <v>1259</v>
       </c>
       <c r="AN3" s="6" t="s">
         <v>1174</v>
       </c>
       <c r="AO3" s="51" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="AP3" s="52" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="AQ3" s="52" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="AR3" s="52" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="AS3" s="52" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="AT3" s="52" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="AU3" s="52" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="AV3" s="42" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="AW3" s="14" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="AX3" s="6" t="s">
         <v>309</v>
@@ -75884,7 +75639,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW4" s="56" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="AX4" s="11">
         <v>6</v>
@@ -76044,7 +75799,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW5" s="56" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="AX5" s="11">
         <v>6</v>
@@ -76200,7 +75955,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW6" s="56" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="AX6" s="4">
         <v>6</v>
@@ -76356,7 +76111,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW7" s="56" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="AX7" s="11">
         <v>6</v>
@@ -76378,16 +76133,16 @@
     </row>
     <row r="8" spans="1:56" ht="14.25">
       <c r="A8" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="E8" s="11">
         <v>4</v>
@@ -76449,7 +76204,7 @@
         <v>0</v>
       </c>
       <c r="X8" s="11" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="Y8" s="22"/>
       <c r="Z8" s="53"/>
@@ -76512,7 +76267,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW8" s="56" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="AX8" s="11">
         <v>6</v>
@@ -76534,16 +76289,16 @@
     </row>
     <row r="9" spans="1:56" ht="14.25">
       <c r="A9" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="E9" s="11">
         <v>3</v>
@@ -76605,7 +76360,7 @@
         <v>0</v>
       </c>
       <c r="X9" s="11" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="Y9" s="22"/>
       <c r="Z9" s="53"/>
@@ -76668,7 +76423,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW9" s="56" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="AX9" s="11">
         <v>6</v>
@@ -76828,7 +76583,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW10" s="56" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="AX10" s="36">
         <v>6</v>
@@ -76850,7 +76605,7 @@
     </row>
     <row r="11" spans="1:56" ht="14.25">
       <c r="A11" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>1133</v>
@@ -76988,7 +76743,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW11" s="56" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="AX11" s="11">
         <v>6</v>
@@ -77011,31 +76766,31 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="K4:K7 K10:K11">
-    <cfRule type="cellIs" dxfId="109" priority="23" operator="between">
+    <cfRule type="cellIs" dxfId="73" priority="23" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="cellIs" dxfId="108" priority="22" operator="between">
+    <cfRule type="cellIs" dxfId="72" priority="22" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:J7">
-    <cfRule type="cellIs" dxfId="107" priority="21" operator="between">
+    <cfRule type="cellIs" dxfId="71" priority="21" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="106" priority="20" operator="between">
+    <cfRule type="cellIs" dxfId="70" priority="20" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="105" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="69" priority="19" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
@@ -77053,13 +76808,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="cellIs" dxfId="104" priority="15" operator="between">
+    <cfRule type="cellIs" dxfId="68" priority="15" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="cellIs" dxfId="103" priority="14" operator="between">
+    <cfRule type="cellIs" dxfId="67" priority="14" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
@@ -77077,13 +76832,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="cellIs" dxfId="102" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="66" priority="12" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="101" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="65" priority="11" operator="between">
       <formula>-30</formula>
       <formula>30</formula>
     </cfRule>
@@ -77101,19 +76856,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="64" priority="1" operator="greaterThanOrEqual">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="5" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ConfigData/Xlsx/Monster.xlsx
+++ b/ConfigData/Xlsx/Monster.xlsx
@@ -701,7 +701,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2553" uniqueCount="1435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2547" uniqueCount="1432">
   <si>
     <t>arrow</t>
   </si>
@@ -4010,9 +4010,6 @@
   <si>
     <t>Attr</t>
     <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>55000004;100</t>
   </si>
   <si>
     <t>55000017;100|55000041;20</t>
@@ -5097,15 +5094,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>55000029;20</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>55000006;100</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>55000016;100</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -20268,7 +20257,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -20323,7 +20312,7 @@
         <v>315</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="I1" s="17" t="s">
         <v>977</v>
@@ -20338,37 +20327,37 @@
         <v>972</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="N1" s="17" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="O1" s="17" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="Q1" s="17" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="R1" s="17" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="S1" s="17" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="T1" s="40" t="s">
         <v>974</v>
       </c>
       <c r="U1" s="17" t="s">
+        <v>1135</v>
+      </c>
+      <c r="V1" s="17" t="s">
         <v>1136</v>
       </c>
-      <c r="V1" s="17" t="s">
-        <v>1137</v>
-      </c>
       <c r="W1" s="17" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="X1" s="17" t="s">
         <v>323</v>
@@ -20377,76 +20366,76 @@
         <v>325</v>
       </c>
       <c r="Z1" s="44" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="AA1" s="44" t="s">
+        <v>1232</v>
+      </c>
+      <c r="AB1" s="44" t="s">
         <v>1233</v>
       </c>
-      <c r="AB1" s="44" t="s">
+      <c r="AC1" s="44" t="s">
         <v>1234</v>
       </c>
-      <c r="AC1" s="44" t="s">
+      <c r="AD1" s="44" t="s">
         <v>1235</v>
       </c>
-      <c r="AD1" s="44" t="s">
+      <c r="AE1" s="44" t="s">
         <v>1236</v>
       </c>
-      <c r="AE1" s="44" t="s">
+      <c r="AF1" s="44" t="s">
         <v>1237</v>
       </c>
-      <c r="AF1" s="44" t="s">
+      <c r="AG1" s="44" t="s">
         <v>1238</v>
       </c>
-      <c r="AG1" s="44" t="s">
-        <v>1239</v>
-      </c>
       <c r="AH1" s="44" t="s">
+        <v>1246</v>
+      </c>
+      <c r="AI1" s="17" t="s">
         <v>1247</v>
       </c>
-      <c r="AI1" s="17" t="s">
+      <c r="AJ1" s="17" t="s">
         <v>1248</v>
       </c>
-      <c r="AJ1" s="17" t="s">
+      <c r="AK1" s="17" t="s">
         <v>1249</v>
       </c>
-      <c r="AK1" s="17" t="s">
+      <c r="AL1" s="17" t="s">
         <v>1250</v>
       </c>
-      <c r="AL1" s="17" t="s">
+      <c r="AM1" s="17" t="s">
         <v>1251</v>
       </c>
-      <c r="AM1" s="17" t="s">
-        <v>1252</v>
-      </c>
       <c r="AN1" s="17" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="AO1" s="47" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="AP1" s="47" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="AQ1" s="47" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="AR1" s="47" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="AS1" s="47" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="AT1" s="47" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AU1" s="47" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="AV1" s="48" t="s">
         <v>1027</v>
       </c>
       <c r="AW1" s="54" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="AX1" s="17" t="s">
         <v>326</v>
@@ -20493,7 +20482,7 @@
         <v>295</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>978</v>
@@ -20508,37 +20497,37 @@
         <v>965</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="T2" s="41" t="s">
         <v>1009</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="X2" s="2" t="s">
         <v>296</v>
@@ -20607,7 +20596,7 @@
         <v>1009</v>
       </c>
       <c r="AT2" s="49" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="AU2" s="49" t="s">
         <v>1009</v>
@@ -20616,7 +20605,7 @@
         <v>1029</v>
       </c>
       <c r="AW2" s="55" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="AX2" s="2" t="s">
         <v>295</v>
@@ -20663,7 +20652,7 @@
         <v>1033</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>979</v>
@@ -20678,37 +20667,37 @@
         <v>973</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="T3" s="42" t="s">
         <v>975</v>
       </c>
       <c r="U3" s="6" t="s">
+        <v>1138</v>
+      </c>
+      <c r="V3" s="6" t="s">
         <v>1139</v>
       </c>
-      <c r="V3" s="6" t="s">
-        <v>1140</v>
-      </c>
       <c r="W3" s="6" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="X3" s="6" t="s">
         <v>306</v>
@@ -20717,76 +20706,76 @@
         <v>308</v>
       </c>
       <c r="Z3" s="46" t="s">
+        <v>1230</v>
+      </c>
+      <c r="AA3" s="46" t="s">
         <v>1231</v>
       </c>
-      <c r="AA3" s="46" t="s">
-        <v>1232</v>
-      </c>
       <c r="AB3" s="46" t="s">
+        <v>1239</v>
+      </c>
+      <c r="AC3" s="46" t="s">
         <v>1240</v>
       </c>
-      <c r="AC3" s="46" t="s">
+      <c r="AD3" s="46" t="s">
         <v>1241</v>
       </c>
-      <c r="AD3" s="46" t="s">
+      <c r="AE3" s="46" t="s">
         <v>1242</v>
       </c>
-      <c r="AE3" s="46" t="s">
+      <c r="AF3" s="46" t="s">
         <v>1243</v>
       </c>
-      <c r="AF3" s="46" t="s">
+      <c r="AG3" s="46" t="s">
         <v>1244</v>
       </c>
-      <c r="AG3" s="46" t="s">
+      <c r="AH3" s="46" t="s">
         <v>1245</v>
       </c>
-      <c r="AH3" s="46" t="s">
-        <v>1246</v>
-      </c>
       <c r="AI3" s="6" t="s">
+        <v>1252</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
         <v>1253</v>
       </c>
-      <c r="AJ3" s="6" t="s">
+      <c r="AK3" s="6" t="s">
         <v>1254</v>
       </c>
-      <c r="AK3" s="6" t="s">
+      <c r="AL3" s="6" t="s">
         <v>1255</v>
       </c>
-      <c r="AL3" s="6" t="s">
+      <c r="AM3" s="6" t="s">
         <v>1256</v>
       </c>
-      <c r="AM3" s="6" t="s">
-        <v>1257</v>
-      </c>
       <c r="AN3" s="6" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="AO3" s="51" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="AP3" s="52" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="AQ3" s="52" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="AR3" s="52" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="AS3" s="52" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="AT3" s="52" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="AU3" s="52" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="AV3" s="42" t="s">
         <v>1028</v>
       </c>
       <c r="AW3" s="14" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="AX3" s="6" t="s">
         <v>309</v>
@@ -20946,7 +20935,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW4" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX4" s="4">
         <v>6</v>
@@ -20965,7 +20954,7 @@
         <v>0.104918</v>
       </c>
       <c r="BD4" s="22" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="5" spans="1:56" ht="14.25">
@@ -21044,7 +21033,7 @@
         <v>4</v>
       </c>
       <c r="Y5" s="4" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="Z5" s="21">
         <v>55100001</v>
@@ -21110,7 +21099,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW5" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX5" s="4">
         <v>6</v>
@@ -21144,7 +21133,7 @@
         <v>682</v>
       </c>
       <c r="E6" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" s="4">
         <v>15</v>
@@ -21154,19 +21143,19 @@
       </c>
       <c r="H6" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I6" s="4">
+        <v>2</v>
+      </c>
+      <c r="J6" s="4">
+        <v>-3</v>
+      </c>
+      <c r="K6" s="4">
         <v>3</v>
       </c>
-      <c r="J6" s="4">
-        <v>14</v>
-      </c>
-      <c r="K6" s="4">
-        <v>14</v>
-      </c>
       <c r="L6" s="4">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="M6" s="4">
         <v>0</v>
@@ -21191,7 +21180,7 @@
       </c>
       <c r="T6" s="15">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>-2</v>
       </c>
       <c r="U6" s="4">
         <v>10</v>
@@ -21205,27 +21194,21 @@
       <c r="X6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="Y6" s="4" t="s">
-        <v>1034</v>
-      </c>
-      <c r="Z6" s="43">
-        <v>55000004</v>
-      </c>
-      <c r="AA6" s="21">
-        <v>100</v>
-      </c>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="43"/>
+      <c r="AA6" s="21"/>
       <c r="AB6" s="21"/>
       <c r="AC6" s="21"/>
       <c r="AD6" s="21"/>
       <c r="AE6" s="21"/>
       <c r="AF6" s="21"/>
       <c r="AG6" s="21"/>
-      <c r="AH6" s="21" t="e">
+      <c r="AH6" s="21">
         <f>IF(ISBLANK($Z6),0, LOOKUP($Z6,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AA6/100)+
 IF(ISBLANK($AB6),0, LOOKUP($AB6,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC6/100)+
 IF(ISBLANK($AD6),0, LOOKUP($AD6,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE6/100)+
 IF(ISBLANK($AF6),0, LOOKUP($AF6,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG6/100)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="AI6" s="21">
         <v>0</v>
@@ -21272,7 +21255,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW6" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX6" s="4">
         <v>6</v>
@@ -21290,9 +21273,7 @@
       <c r="BC6" s="30">
         <v>0.52786889999999997</v>
       </c>
-      <c r="BD6" s="22" t="s">
-        <v>1171</v>
-      </c>
+      <c r="BD6" s="22"/>
     </row>
     <row r="7" spans="1:56" ht="14.25">
       <c r="A7">
@@ -21314,23 +21295,23 @@
         <v>3</v>
       </c>
       <c r="G7" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H7" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I7" s="4">
         <v>2</v>
       </c>
       <c r="J7" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K7" s="4">
-        <v>7</v>
+        <v>-10</v>
       </c>
       <c r="L7" s="4">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="M7" s="4">
         <v>0</v>
@@ -21355,7 +21336,7 @@
       </c>
       <c r="T7" s="15">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>-3</v>
       </c>
       <c r="U7" s="4">
         <v>30</v>
@@ -21369,27 +21350,21 @@
       <c r="X7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="Y7" s="4" t="s">
-        <v>1322</v>
-      </c>
-      <c r="Z7" s="43">
-        <v>55000029</v>
-      </c>
-      <c r="AA7" s="21">
-        <v>20</v>
-      </c>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="43"/>
+      <c r="AA7" s="21"/>
       <c r="AB7" s="21"/>
       <c r="AC7" s="21"/>
       <c r="AD7" s="21"/>
       <c r="AE7" s="21"/>
       <c r="AF7" s="21"/>
       <c r="AG7" s="21"/>
-      <c r="AH7" s="21" t="e">
+      <c r="AH7" s="21">
         <f>IF(ISBLANK($Z7),0, LOOKUP($Z7,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AA7/100)+
 IF(ISBLANK($AB7),0, LOOKUP($AB7,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC7/100)+
 IF(ISBLANK($AD7),0, LOOKUP($AD7,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE7/100)+
 IF(ISBLANK($AF7),0, LOOKUP($AF7,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG7/100)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="AI7" s="21">
         <v>0</v>
@@ -21436,7 +21411,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW7" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX7" s="4">
         <v>6</v>
@@ -21454,9 +21429,7 @@
       <c r="BC7" s="30">
         <v>0.33934429999999999</v>
       </c>
-      <c r="BD7" s="22" t="s">
-        <v>1171</v>
-      </c>
+      <c r="BD7" s="22"/>
     </row>
     <row r="8" spans="1:56" ht="14.25">
       <c r="A8">
@@ -21594,7 +21567,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW8" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX8" s="4">
         <v>6</v>
@@ -21613,7 +21586,7 @@
         <v>0.40819670000000002</v>
       </c>
       <c r="BD8" s="22" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="9" spans="1:56" ht="14.25">
@@ -21692,7 +21665,7 @@
         <v>11</v>
       </c>
       <c r="Y9" s="4" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="Z9" s="43">
         <v>55000067</v>
@@ -21758,7 +21731,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW9" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX9" s="4">
         <v>6</v>
@@ -21777,7 +21750,7 @@
         <v>0.3180328</v>
       </c>
       <c r="BD9" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="10" spans="1:56" ht="14.25">
@@ -21856,7 +21829,7 @@
         <v>12</v>
       </c>
       <c r="Y10" s="4" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="Z10" s="43">
         <v>55000035</v>
@@ -21922,7 +21895,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW10" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX10" s="4">
         <v>6</v>
@@ -21941,7 +21914,7 @@
         <v>0.20163929999999999</v>
       </c>
       <c r="BD10" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="11" spans="1:56" ht="14.25">
@@ -21968,16 +21941,16 @@
       </c>
       <c r="H11" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I11" s="4">
         <v>2</v>
       </c>
       <c r="J11" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K11" s="4">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="L11" s="4">
         <v>-3</v>
@@ -21992,7 +21965,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="4">
         <v>0</v>
@@ -22005,7 +21978,7 @@
       </c>
       <c r="T11" s="15">
         <f t="shared" si="1"/>
-        <v>0.32000000000000028</v>
+        <v>-1.68</v>
       </c>
       <c r="U11" s="4">
         <v>35</v>
@@ -22019,27 +21992,21 @@
       <c r="X11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Y11" s="4" t="s">
-        <v>1324</v>
-      </c>
-      <c r="Z11" s="43">
-        <v>55000016</v>
-      </c>
-      <c r="AA11" s="21">
-        <v>100</v>
-      </c>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="43"/>
+      <c r="AA11" s="21"/>
       <c r="AB11" s="21"/>
       <c r="AC11" s="21"/>
       <c r="AD11" s="21"/>
       <c r="AE11" s="21"/>
       <c r="AF11" s="21"/>
       <c r="AG11" s="21"/>
-      <c r="AH11" s="21" t="e">
+      <c r="AH11" s="21">
         <f>IF(ISBLANK($Z11),0, LOOKUP($Z11,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AA11/100)+
 IF(ISBLANK($AB11),0, LOOKUP($AB11,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AC11/100)+
 IF(ISBLANK($AD11),0, LOOKUP($AD11,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AE11/100)+
 IF(ISBLANK($AF11),0, LOOKUP($AF11,[1]Skill!$A:$A,[1]Skill!$V:$V)*$AG11/100)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="AI11" s="21">
         <v>0</v>
@@ -22086,7 +22053,7 @@
         <v>0;0;0;0;0;0;0.3</v>
       </c>
       <c r="AW11" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX11" s="4">
         <v>6</v>
@@ -22104,9 +22071,7 @@
       <c r="BC11" s="30">
         <v>0.2377049</v>
       </c>
-      <c r="BD11" s="22" t="s">
-        <v>1171</v>
-      </c>
+      <c r="BD11" s="22"/>
     </row>
     <row r="12" spans="1:56" ht="14.25">
       <c r="A12">
@@ -22184,7 +22149,7 @@
         <v>16</v>
       </c>
       <c r="Y12" s="4" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="Z12" s="43">
         <v>55000017</v>
@@ -22254,7 +22219,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW12" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX12" s="4">
         <v>6</v>
@@ -22273,7 +22238,7 @@
         <v>0.81147539999999996</v>
       </c>
       <c r="BD12" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="13" spans="1:56" ht="14.25">
@@ -22412,7 +22377,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW13" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX13" s="4">
         <v>6</v>
@@ -22431,7 +22396,7 @@
         <v>0.48688520000000002</v>
       </c>
       <c r="BD13" s="22" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="14" spans="1:56" ht="14.25">
@@ -22510,7 +22475,7 @@
         <v>6</v>
       </c>
       <c r="Y14" s="4" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="Z14" s="43">
         <v>55000002</v>
@@ -22584,7 +22549,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW14" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX14" s="4">
         <v>6</v>
@@ -22603,7 +22568,7 @@
         <v>0.67213109999999998</v>
       </c>
       <c r="BD14" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="15" spans="1:56" ht="14.25">
@@ -22742,7 +22707,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW15" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX15" s="4">
         <v>4</v>
@@ -22761,7 +22726,7 @@
         <v>0.94918029999999998</v>
       </c>
       <c r="BD15" s="22" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="16" spans="1:56" ht="14.25">
@@ -22900,7 +22865,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW16" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX16" s="4">
         <v>6</v>
@@ -22919,7 +22884,7 @@
         <v>0.26557380000000003</v>
       </c>
       <c r="BD16" s="22" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="17" spans="1:56" ht="14.25">
@@ -23058,7 +23023,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW17" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX17" s="4">
         <v>6</v>
@@ -23077,7 +23042,7 @@
         <v>0.65901639999999995</v>
       </c>
       <c r="BD17" s="22" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="18" spans="1:56" ht="14.25">
@@ -23216,7 +23181,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW18" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX18" s="4">
         <v>6</v>
@@ -23235,7 +23200,7 @@
         <v>0.13278690000000001</v>
       </c>
       <c r="BD18" s="22" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="19" spans="1:56" ht="14.25">
@@ -23374,7 +23339,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW19" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX19" s="4">
         <v>6</v>
@@ -23393,7 +23358,7 @@
         <v>0.1213115</v>
       </c>
       <c r="BD19" s="22" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="20" spans="1:56" ht="14.25">
@@ -23532,7 +23497,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW20" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX20" s="4">
         <v>6</v>
@@ -23551,7 +23516,7 @@
         <v>0.2770492</v>
       </c>
       <c r="BD20" s="22" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="21" spans="1:56" ht="14.25">
@@ -23690,7 +23655,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW21" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX21" s="4">
         <v>6</v>
@@ -23709,7 +23674,7 @@
         <v>0.14098359999999999</v>
       </c>
       <c r="BD21" s="22" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="22" spans="1:56" ht="14.25">
@@ -23848,7 +23813,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW22" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX22" s="4">
         <v>6</v>
@@ -23867,7 +23832,7 @@
         <v>0.1131148</v>
       </c>
       <c r="BD22" s="22" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="23" spans="1:56" ht="14.25">
@@ -24006,7 +23971,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW23" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX23" s="4">
         <v>6</v>
@@ -24025,7 +23990,7 @@
         <v>0.26885249999999999</v>
       </c>
       <c r="BD23" s="22" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="24" spans="1:56" ht="14.25">
@@ -24104,7 +24069,7 @@
         <v>0</v>
       </c>
       <c r="Y24" s="4" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Z24" s="43">
         <v>55000006</v>
@@ -24170,7 +24135,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW24" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX24" s="4">
         <v>6</v>
@@ -24189,7 +24154,7 @@
         <v>0.34754099999999999</v>
       </c>
       <c r="BD24" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="25" spans="1:56" ht="14.25">
@@ -24268,7 +24233,7 @@
         <v>31</v>
       </c>
       <c r="Y25" s="4" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="Z25" s="43">
         <v>55000002</v>
@@ -24342,7 +24307,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW25" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX25" s="4">
         <v>6</v>
@@ -24361,7 +24326,7 @@
         <v>0.46885250000000001</v>
       </c>
       <c r="BD25" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="26" spans="1:56" ht="14.25">
@@ -24500,7 +24465,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW26" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX26" s="4">
         <v>6</v>
@@ -24519,7 +24484,7 @@
         <v>0.6426229</v>
       </c>
       <c r="BD26" s="22" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="27" spans="1:56" ht="14.25">
@@ -24598,7 +24563,7 @@
         <v>16</v>
       </c>
       <c r="Y27" s="4" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="Z27" s="43">
         <v>55000050</v>
@@ -24664,7 +24629,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW27" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX27" s="4">
         <v>6</v>
@@ -24683,7 +24648,7 @@
         <v>0.58032790000000001</v>
       </c>
       <c r="BD27" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="28" spans="1:56" ht="14.25">
@@ -24762,7 +24727,7 @@
         <v>6</v>
       </c>
       <c r="Y28" s="4" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="Z28" s="43">
         <v>55000051</v>
@@ -24828,7 +24793,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW28" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX28" s="4">
         <v>6</v>
@@ -24847,7 +24812,7 @@
         <v>0.23278689999999999</v>
       </c>
       <c r="BD28" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="29" spans="1:56" ht="14.25">
@@ -24926,7 +24891,7 @@
         <v>9</v>
       </c>
       <c r="Y29" s="4" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="Z29" s="43">
         <v>55000030</v>
@@ -24992,7 +24957,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW29" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX29" s="4">
         <v>6</v>
@@ -25011,7 +24976,7 @@
         <v>0.38524589999999997</v>
       </c>
       <c r="BD29" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="30" spans="1:56" ht="14.25">
@@ -25150,7 +25115,7 @@
         <v>0;0;0;0;0.3;0;0</v>
       </c>
       <c r="AW30" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX30" s="4">
         <v>6</v>
@@ -25169,7 +25134,7 @@
         <v>0.58196720000000002</v>
       </c>
       <c r="BD30" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="31" spans="1:56" ht="14.25">
@@ -25248,7 +25213,7 @@
         <v>38</v>
       </c>
       <c r="Y31" s="4" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="Z31" s="43">
         <v>55000060</v>
@@ -25318,7 +25283,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW31" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX31" s="4">
         <v>6</v>
@@ -25337,7 +25302,7 @@
         <v>0.50819669999999995</v>
       </c>
       <c r="BD31" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="32" spans="1:56" ht="14.25">
@@ -25416,7 +25381,7 @@
         <v>40</v>
       </c>
       <c r="Y32" s="4" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="Z32" s="43">
         <v>55000060</v>
@@ -25490,7 +25455,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW32" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX32" s="4">
         <v>6</v>
@@ -25509,7 +25474,7 @@
         <v>0.51475409999999999</v>
       </c>
       <c r="BD32" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="33" spans="1:56" ht="14.25">
@@ -25648,7 +25613,7 @@
         <v>0;0.3;0.3;0.3;0;0.3;0</v>
       </c>
       <c r="AW33" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX33" s="4">
         <v>6</v>
@@ -25667,7 +25632,7 @@
         <v>0.43278689999999997</v>
       </c>
       <c r="BD33" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="34" spans="1:56" ht="14.25">
@@ -25746,7 +25711,7 @@
         <v>16</v>
       </c>
       <c r="Y34" s="4" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="Z34" s="43">
         <v>55000063</v>
@@ -25812,7 +25777,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW34" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX34" s="4">
         <v>6</v>
@@ -25831,7 +25796,7 @@
         <v>0.20163929999999999</v>
       </c>
       <c r="BD34" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="35" spans="1:56" ht="14.25">
@@ -25910,7 +25875,7 @@
         <v>9</v>
       </c>
       <c r="Y35" s="4" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="Z35" s="43">
         <v>55300001</v>
@@ -25976,7 +25941,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW35" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX35" s="4">
         <v>6</v>
@@ -25995,7 +25960,7 @@
         <v>5.0819669999999997E-2</v>
       </c>
       <c r="BD35" s="22" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="36" spans="1:56" ht="14.25">
@@ -26071,10 +26036,10 @@
         <v>0</v>
       </c>
       <c r="X36" s="4" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="Y36" s="4" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="Z36" s="43">
         <v>55000030</v>
@@ -26144,7 +26109,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW36" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX36" s="4">
         <v>6</v>
@@ -26163,7 +26128,7 @@
         <v>0.36721310000000001</v>
       </c>
       <c r="BD36" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="37" spans="1:56" ht="14.25">
@@ -26242,7 +26207,7 @@
         <v>38</v>
       </c>
       <c r="Y37" s="4" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="Z37" s="43">
         <v>55000073</v>
@@ -26308,7 +26273,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW37" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX37" s="4">
         <v>6</v>
@@ -26327,7 +26292,7 @@
         <v>0.35245900000000002</v>
       </c>
       <c r="BD37" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="38" spans="1:56" ht="14.25">
@@ -26466,7 +26431,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW38" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX38" s="4">
         <v>6</v>
@@ -26485,7 +26450,7 @@
         <v>0.25901639999999998</v>
       </c>
       <c r="BD38" s="22" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="39" spans="1:56" ht="14.25">
@@ -26624,7 +26589,7 @@
         <v>0;0.3;0;0;0.3;0;0</v>
       </c>
       <c r="AW39" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX39" s="4">
         <v>6</v>
@@ -26643,7 +26608,7 @@
         <v>0.76393440000000001</v>
       </c>
       <c r="BD39" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="40" spans="1:56" ht="14.25">
@@ -26782,7 +26747,7 @@
         <v>0;0.3;0;0.3;0;0;0</v>
       </c>
       <c r="AW40" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX40" s="4">
         <v>6</v>
@@ -26801,7 +26766,7 @@
         <v>0.79836059999999998</v>
       </c>
       <c r="BD40" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="41" spans="1:56" ht="14.25">
@@ -26880,7 +26845,7 @@
         <v>51</v>
       </c>
       <c r="Y41" s="4" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="Z41" s="43">
         <v>55000071</v>
@@ -26946,7 +26911,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW41" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX41" s="4">
         <v>6</v>
@@ -26965,7 +26930,7 @@
         <v>0.2377049</v>
       </c>
       <c r="BD41" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="42" spans="1:56" ht="14.25">
@@ -27044,7 +27009,7 @@
         <v>53</v>
       </c>
       <c r="Y42" s="4" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="Z42" s="43">
         <v>55000034</v>
@@ -27114,7 +27079,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW42" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX42" s="4">
         <v>6</v>
@@ -27133,7 +27098,7 @@
         <v>0.57868850000000005</v>
       </c>
       <c r="BD42" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="43" spans="1:56" ht="14.25">
@@ -27212,7 +27177,7 @@
         <v>4</v>
       </c>
       <c r="Y43" s="4" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="Z43" s="43">
         <v>55000074</v>
@@ -27278,7 +27243,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW43" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX43" s="4">
         <v>6</v>
@@ -27297,7 +27262,7 @@
         <v>0.13606560000000001</v>
       </c>
       <c r="BD43" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="44" spans="1:56" ht="14.25">
@@ -27376,7 +27341,7 @@
         <v>16</v>
       </c>
       <c r="Y44" s="4" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="Z44" s="43">
         <v>55000075</v>
@@ -27446,7 +27411,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW44" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX44" s="4">
         <v>6</v>
@@ -27465,7 +27430,7 @@
         <v>0.7</v>
       </c>
       <c r="BD44" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="45" spans="1:56" ht="14.25">
@@ -27544,7 +27509,7 @@
         <v>4</v>
       </c>
       <c r="Y45" s="4" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="Z45" s="43">
         <v>55000077</v>
@@ -27614,7 +27579,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW45" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX45" s="4">
         <v>6</v>
@@ -27633,7 +27598,7 @@
         <v>0.2</v>
       </c>
       <c r="BD45" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="46" spans="1:56" ht="14.25">
@@ -27712,7 +27677,7 @@
         <v>2</v>
       </c>
       <c r="Y46" s="4" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="Z46" s="43">
         <v>55000075</v>
@@ -27782,7 +27747,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW46" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX46" s="4">
         <v>6</v>
@@ -27801,7 +27766,7 @@
         <v>0.38688529999999999</v>
       </c>
       <c r="BD46" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="47" spans="1:56" ht="14.25">
@@ -27880,7 +27845,7 @@
         <v>16</v>
       </c>
       <c r="Y47" s="4" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="Z47" s="43">
         <v>55000020</v>
@@ -27946,7 +27911,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW47" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX47" s="4">
         <v>6</v>
@@ -27965,7 +27930,7 @@
         <v>0.5557377</v>
       </c>
       <c r="BD47" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="48" spans="1:56" ht="14.25">
@@ -28044,7 +28009,7 @@
         <v>16</v>
       </c>
       <c r="Y48" s="4" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="Z48" s="43">
         <v>55000080</v>
@@ -28110,7 +28075,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW48" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX48" s="4">
         <v>6</v>
@@ -28129,7 +28094,7 @@
         <v>0.46721309999999999</v>
       </c>
       <c r="BD48" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="49" spans="1:56" ht="14.25">
@@ -28208,7 +28173,7 @@
         <v>19</v>
       </c>
       <c r="Y49" s="4" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="Z49" s="43">
         <v>55000081</v>
@@ -28274,7 +28239,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW49" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX49" s="4">
         <v>6</v>
@@ -28293,7 +28258,7 @@
         <v>0.3245902</v>
       </c>
       <c r="BD49" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="50" spans="1:56" ht="14.25">
@@ -28372,7 +28337,7 @@
         <v>2</v>
       </c>
       <c r="Y50" s="4" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="Z50" s="43">
         <v>55000039</v>
@@ -28442,7 +28407,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW50" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX50" s="4">
         <v>4</v>
@@ -28461,7 +28426,7 @@
         <v>0.8573771</v>
       </c>
       <c r="BD50" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="51" spans="1:56" ht="14.25">
@@ -28540,7 +28505,7 @@
         <v>9</v>
       </c>
       <c r="Y51" s="4" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="Z51" s="43">
         <v>55000083</v>
@@ -28610,7 +28575,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW51" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX51" s="4">
         <v>6</v>
@@ -28629,7 +28594,7 @@
         <v>0.33606560000000002</v>
       </c>
       <c r="BD51" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="52" spans="1:56" ht="14.25">
@@ -28708,7 +28673,7 @@
         <v>9</v>
       </c>
       <c r="Y52" s="4" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="Z52" s="43">
         <v>55900001</v>
@@ -28774,7 +28739,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW52" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX52" s="4">
         <v>6</v>
@@ -28870,7 +28835,7 @@
         <v>16</v>
       </c>
       <c r="Y53" s="4" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="Z53" s="43">
         <v>55000085</v>
@@ -28936,7 +28901,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW53" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX53" s="4">
         <v>6</v>
@@ -28955,7 +28920,7 @@
         <v>0.39836070000000001</v>
       </c>
       <c r="BD53" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="54" spans="1:56" ht="14.25">
@@ -29034,7 +28999,7 @@
         <v>64</v>
       </c>
       <c r="Y54" s="4" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="Z54" s="43">
         <v>55000066</v>
@@ -29100,7 +29065,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW54" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX54" s="4">
         <v>6</v>
@@ -29119,7 +29084,7 @@
         <v>0.53442619999999996</v>
       </c>
       <c r="BD54" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="55" spans="1:56" ht="14.25">
@@ -29198,7 +29163,7 @@
         <v>65</v>
       </c>
       <c r="Y55" s="4" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="Z55" s="43">
         <v>55000086</v>
@@ -29264,7 +29229,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW55" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX55" s="4">
         <v>6</v>
@@ -29283,7 +29248,7 @@
         <v>0.33770489999999997</v>
       </c>
       <c r="BD55" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="56" spans="1:56" ht="14.25">
@@ -29362,7 +29327,7 @@
         <v>4</v>
       </c>
       <c r="Y56" s="4" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="Z56" s="43">
         <v>55000087</v>
@@ -29428,7 +29393,7 @@
         <v>0;0;0;0;0;0;0.3</v>
       </c>
       <c r="AW56" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX56" s="4">
         <v>6</v>
@@ -29447,7 +29412,7 @@
         <v>0.5557377</v>
       </c>
       <c r="BD56" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="57" spans="1:56" ht="14.25">
@@ -29526,7 +29491,7 @@
         <v>4</v>
       </c>
       <c r="Y57" s="4" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="Z57" s="43">
         <v>55000088</v>
@@ -29596,7 +29561,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW57" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX57" s="4">
         <v>6</v>
@@ -29615,7 +29580,7 @@
         <v>0.24918029999999999</v>
       </c>
       <c r="BD57" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="58" spans="1:56" ht="14.25">
@@ -29694,7 +29659,7 @@
         <v>4</v>
       </c>
       <c r="Y58" s="4" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="Z58" s="43">
         <v>55000090</v>
@@ -29760,7 +29725,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW58" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX58" s="4">
         <v>6</v>
@@ -29779,7 +29744,7 @@
         <v>0.3967213</v>
       </c>
       <c r="BD58" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="59" spans="1:56" ht="14.25">
@@ -29858,7 +29823,7 @@
         <v>69</v>
       </c>
       <c r="Y59" s="4" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="Z59" s="43">
         <v>55000091</v>
@@ -29924,7 +29889,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW59" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX59" s="4">
         <v>6</v>
@@ -29943,7 +29908,7 @@
         <v>0.70163940000000002</v>
       </c>
       <c r="BD59" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="60" spans="1:56" ht="14.25">
@@ -30022,7 +29987,7 @@
         <v>9</v>
       </c>
       <c r="Y60" s="4" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="Z60" s="43">
         <v>55000092</v>
@@ -30088,7 +30053,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW60" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX60" s="4">
         <v>6</v>
@@ -30107,7 +30072,7 @@
         <v>0.26065569999999999</v>
       </c>
       <c r="BD60" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="61" spans="1:56" ht="14.25">
@@ -30186,7 +30151,7 @@
         <v>24</v>
       </c>
       <c r="Y61" s="4" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="Z61" s="43">
         <v>55000093</v>
@@ -30252,7 +30217,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW61" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX61" s="4">
         <v>6</v>
@@ -30271,7 +30236,7 @@
         <v>0.17213120000000001</v>
       </c>
       <c r="BD61" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="62" spans="1:56" ht="14.25">
@@ -30350,7 +30315,7 @@
         <v>65</v>
       </c>
       <c r="Y62" s="4" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="Z62" s="43">
         <v>55000062</v>
@@ -30416,7 +30381,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW62" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX62" s="4">
         <v>6</v>
@@ -30435,7 +30400,7 @@
         <v>0.13278690000000001</v>
       </c>
       <c r="BD62" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="63" spans="1:56" ht="14.25">
@@ -30514,7 +30479,7 @@
         <v>38</v>
       </c>
       <c r="Y63" s="4" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="Z63" s="43">
         <v>55000094</v>
@@ -30580,7 +30545,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW63" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX63" s="4">
         <v>6</v>
@@ -30599,7 +30564,7 @@
         <v>0.75737699999999997</v>
       </c>
       <c r="BD63" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="64" spans="1:56" ht="14.25">
@@ -30738,7 +30703,7 @@
         <v>0;0.3;0.3;0;0.3;0;0</v>
       </c>
       <c r="AW64" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX64" s="4">
         <v>6</v>
@@ -30757,7 +30722,7 @@
         <v>0.43442619999999998</v>
       </c>
       <c r="BD64" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="65" spans="1:56" ht="14.25">
@@ -30896,7 +30861,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW65" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX65" s="4">
         <v>6</v>
@@ -30915,7 +30880,7 @@
         <v>0.14590159999999999</v>
       </c>
       <c r="BD65" s="22" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="66" spans="1:56" ht="14.25">
@@ -31054,7 +31019,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW66" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX66" s="4">
         <v>6</v>
@@ -31073,7 +31038,7 @@
         <v>0.15245900000000001</v>
       </c>
       <c r="BD66" s="22" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="67" spans="1:56" ht="14.25">
@@ -31152,7 +31117,7 @@
         <v>78</v>
       </c>
       <c r="Y67" s="4" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="Z67" s="43">
         <v>55000095</v>
@@ -31222,7 +31187,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW67" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX67" s="4">
         <v>5</v>
@@ -31241,7 +31206,7 @@
         <v>0.8180328</v>
       </c>
       <c r="BD67" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="68" spans="1:56" ht="14.25">
@@ -31320,7 +31285,7 @@
         <v>78</v>
       </c>
       <c r="Y68" s="4" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="Z68" s="43">
         <v>55000036</v>
@@ -31398,7 +31363,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW68" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX68" s="4">
         <v>5</v>
@@ -31419,7 +31384,7 @@
         <v>0.95081970000000005</v>
       </c>
       <c r="BD68" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="69" spans="1:56" ht="14.25">
@@ -31498,7 +31463,7 @@
         <v>40</v>
       </c>
       <c r="Y69" s="4" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="Z69" s="43">
         <v>55000060</v>
@@ -31572,7 +31537,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW69" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX69" s="4">
         <v>5</v>
@@ -31591,7 +31556,7 @@
         <v>0.84098360000000005</v>
       </c>
       <c r="BD69" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="70" spans="1:56" ht="14.25">
@@ -31670,7 +31635,7 @@
         <v>16</v>
       </c>
       <c r="Y70" s="4" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="Z70" s="43">
         <v>55000041</v>
@@ -31744,7 +31709,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW70" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX70" s="4">
         <v>5</v>
@@ -31763,7 +31728,7 @@
         <v>0.89508200000000004</v>
       </c>
       <c r="BD70" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="71" spans="1:56" ht="14.25">
@@ -31842,7 +31807,7 @@
         <v>2</v>
       </c>
       <c r="Y71" s="4" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="Z71" s="43">
         <v>55000103</v>
@@ -31912,7 +31877,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW71" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX71" s="4">
         <v>6</v>
@@ -31931,7 +31896,7 @@
         <v>0.36065570000000002</v>
       </c>
       <c r="BD71" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="72" spans="1:56" ht="14.25">
@@ -32010,7 +31975,7 @@
         <v>2</v>
       </c>
       <c r="Y72" s="4" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="Z72" s="43">
         <v>55000103</v>
@@ -32080,7 +32045,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW72" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX72" s="4">
         <v>6</v>
@@ -32099,7 +32064,7 @@
         <v>0.72786890000000004</v>
       </c>
       <c r="BD72" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="73" spans="1:56" ht="14.25">
@@ -32175,10 +32140,10 @@
         <v>0</v>
       </c>
       <c r="X73" s="4" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="Y73" s="4" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="Z73" s="43">
         <v>55000060</v>
@@ -32248,7 +32213,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW73" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX73" s="4">
         <v>6</v>
@@ -32267,7 +32232,7 @@
         <v>0.63278690000000004</v>
       </c>
       <c r="BD73" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="74" spans="1:56" ht="14.25">
@@ -32346,7 +32311,7 @@
         <v>6</v>
       </c>
       <c r="Y74" s="4" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="Z74" s="43">
         <v>55000088</v>
@@ -32416,7 +32381,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW74" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX74" s="4">
         <v>6</v>
@@ -32435,7 +32400,7 @@
         <v>0.70491800000000004</v>
       </c>
       <c r="BD74" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="75" spans="1:56" ht="14.25">
@@ -32514,7 +32479,7 @@
         <v>89</v>
       </c>
       <c r="Y75" s="4" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="Z75" s="43">
         <v>55000004</v>
@@ -32584,7 +32549,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW75" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX75" s="4">
         <v>6</v>
@@ -32603,7 +32568,7 @@
         <v>0.31475409999999998</v>
       </c>
       <c r="BD75" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="76" spans="1:56" ht="14.25">
@@ -32682,7 +32647,7 @@
         <v>12</v>
       </c>
       <c r="Y76" s="4" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="Z76" s="43">
         <v>55000101</v>
@@ -32752,7 +32717,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW76" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX76" s="4">
         <v>6</v>
@@ -32771,7 +32736,7 @@
         <v>0.81147539999999996</v>
       </c>
       <c r="BD76" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="77" spans="1:56" ht="14.25">
@@ -32850,7 +32815,7 @@
         <v>92</v>
       </c>
       <c r="Y77" s="4" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="Z77" s="43">
         <v>55000106</v>
@@ -32916,7 +32881,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW77" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX77" s="4">
         <v>6</v>
@@ -32935,7 +32900,7 @@
         <v>0.36721310000000001</v>
       </c>
       <c r="BD77" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="78" spans="1:56" ht="14.25">
@@ -33014,7 +32979,7 @@
         <v>94</v>
       </c>
       <c r="Y78" s="4" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="Z78" s="43">
         <v>55000108</v>
@@ -33084,7 +33049,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW78" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX78" s="4">
         <v>6</v>
@@ -33103,7 +33068,7 @@
         <v>0.68688519999999997</v>
       </c>
       <c r="BD78" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="79" spans="1:56" ht="14.25">
@@ -33242,7 +33207,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW79" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX79" s="4">
         <v>6</v>
@@ -33261,7 +33226,7 @@
         <v>0.1393443</v>
       </c>
       <c r="BD79" s="22" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="80" spans="1:56" ht="14.25">
@@ -33400,7 +33365,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW80" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX80" s="4">
         <v>6</v>
@@ -33419,7 +33384,7 @@
         <v>0.1147541</v>
       </c>
       <c r="BD80" s="22" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="81" spans="1:56" ht="14.25">
@@ -33498,7 +33463,7 @@
         <v>2</v>
       </c>
       <c r="Y81" s="4" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="Z81" s="43">
         <v>55000242</v>
@@ -33568,7 +33533,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW81" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX81" s="4">
         <v>6</v>
@@ -33587,7 +33552,7 @@
         <v>0.48196719999999998</v>
       </c>
       <c r="BD81" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="82" spans="1:56" ht="14.25">
@@ -33666,7 +33631,7 @@
         <v>2</v>
       </c>
       <c r="Y82" s="4" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="Z82" s="43">
         <v>55000110</v>
@@ -33736,7 +33701,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW82" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX82" s="4">
         <v>6</v>
@@ -33755,7 +33720,7 @@
         <v>0.82622949999999995</v>
       </c>
       <c r="BD82" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="83" spans="1:56" ht="14.25">
@@ -33834,7 +33799,7 @@
         <v>38</v>
       </c>
       <c r="Y83" s="4" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="Z83" s="43">
         <v>55000111</v>
@@ -33904,7 +33869,7 @@
         <v>0;0;0;0.3;0;0;0</v>
       </c>
       <c r="AW83" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX83" s="4">
         <v>6</v>
@@ -33923,7 +33888,7 @@
         <v>0.71147539999999998</v>
       </c>
       <c r="BD83" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="84" spans="1:56" ht="14.25">
@@ -34002,7 +33967,7 @@
         <v>100</v>
       </c>
       <c r="Y84" s="4" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="Z84" s="43">
         <v>55000069</v>
@@ -34068,7 +34033,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW84" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX84" s="4">
         <v>6</v>
@@ -34087,7 +34052,7 @@
         <v>0.3016393</v>
       </c>
       <c r="BD84" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="85" spans="1:56" ht="14.25">
@@ -34166,7 +34131,7 @@
         <v>2</v>
       </c>
       <c r="Y85" s="4" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="Z85" s="43">
         <v>55000050</v>
@@ -34240,7 +34205,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW85" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX85" s="4">
         <v>3</v>
@@ -34259,7 +34224,7 @@
         <v>0.8180328</v>
       </c>
       <c r="BD85" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="86" spans="1:56" ht="14.25">
@@ -34338,7 +34303,7 @@
         <v>6</v>
       </c>
       <c r="Y86" s="4" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="Z86" s="43">
         <v>55000030</v>
@@ -34408,7 +34373,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW86" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX86" s="4">
         <v>6</v>
@@ -34427,7 +34392,7 @@
         <v>0.28360659999999999</v>
       </c>
       <c r="BD86" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="87" spans="1:56" ht="14.25">
@@ -34506,7 +34471,7 @@
         <v>86</v>
       </c>
       <c r="Y87" s="4" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="Z87" s="43">
         <v>55000068</v>
@@ -34576,7 +34541,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW87" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX87" s="4">
         <v>6</v>
@@ -34595,7 +34560,7 @@
         <v>0.50819669999999995</v>
       </c>
       <c r="BD87" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="88" spans="1:56" ht="14.25">
@@ -34674,7 +34639,7 @@
         <v>0</v>
       </c>
       <c r="Y88" s="4" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="Z88" s="43">
         <v>55000342</v>
@@ -34744,7 +34709,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW88" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX88" s="4">
         <v>6</v>
@@ -34763,7 +34728,7 @@
         <v>0.33770489999999997</v>
       </c>
       <c r="BD88" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="89" spans="1:56" ht="14.25">
@@ -34842,7 +34807,7 @@
         <v>105</v>
       </c>
       <c r="Y89" s="4" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="Z89" s="21">
         <v>55900002</v>
@@ -34908,7 +34873,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW89" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX89" s="4">
         <v>6</v>
@@ -35004,7 +34969,7 @@
         <v>107</v>
       </c>
       <c r="Y90" s="4" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="Z90" s="43">
         <v>55000002</v>
@@ -35074,7 +35039,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW90" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX90" s="4">
         <v>6</v>
@@ -35093,7 +35058,7 @@
         <v>0.67213109999999998</v>
       </c>
       <c r="BD90" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="91" spans="1:56" ht="14.25">
@@ -35172,7 +35137,7 @@
         <v>105</v>
       </c>
       <c r="Y91" s="4" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="Z91" s="43">
         <v>55000118</v>
@@ -35242,7 +35207,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW91" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX91" s="4">
         <v>6</v>
@@ -35261,7 +35226,7 @@
         <v>0.5</v>
       </c>
       <c r="BD91" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="92" spans="1:56" ht="14.25">
@@ -35340,7 +35305,7 @@
         <v>16</v>
       </c>
       <c r="Y92" s="4" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="Z92" s="43">
         <v>55000005</v>
@@ -35410,7 +35375,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW92" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX92" s="4">
         <v>6</v>
@@ -35429,7 +35394,7 @@
         <v>0.47868850000000002</v>
       </c>
       <c r="BD92" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="93" spans="1:56" ht="14.25">
@@ -35508,7 +35473,7 @@
         <v>111</v>
       </c>
       <c r="Y93" s="4" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="Z93" s="43">
         <v>55000115</v>
@@ -35578,7 +35543,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW93" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX93" s="4">
         <v>6</v>
@@ -35597,7 +35562,7 @@
         <v>0.3327869</v>
       </c>
       <c r="BD93" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="94" spans="1:56" ht="14.25">
@@ -35676,7 +35641,7 @@
         <v>78</v>
       </c>
       <c r="Y94" s="4" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="Z94" s="43">
         <v>55000005</v>
@@ -35746,7 +35711,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW94" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX94" s="4">
         <v>5</v>
@@ -35765,7 +35730,7 @@
         <v>0.84262289999999995</v>
       </c>
       <c r="BD94" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="95" spans="1:56" ht="14.25">
@@ -35844,7 +35809,7 @@
         <v>107</v>
       </c>
       <c r="Y95" s="4" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="Z95" s="43">
         <v>55000114</v>
@@ -35914,7 +35879,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW95" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX95" s="4">
         <v>6</v>
@@ -35933,7 +35898,7 @@
         <v>0.48688520000000002</v>
       </c>
       <c r="BD95" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="96" spans="1:56" ht="14.25">
@@ -36012,7 +35977,7 @@
         <v>2</v>
       </c>
       <c r="Y96" s="4" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="Z96" s="43">
         <v>55000002</v>
@@ -36082,7 +36047,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW96" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX96" s="4">
         <v>6</v>
@@ -36101,7 +36066,7 @@
         <v>0.66557379999999999</v>
       </c>
       <c r="BD96" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="97" spans="1:56" ht="14.25">
@@ -36180,7 +36145,7 @@
         <v>22</v>
       </c>
       <c r="Y97" s="4" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="Z97" s="43">
         <v>55000123</v>
@@ -36254,7 +36219,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW97" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX97" s="4">
         <v>3</v>
@@ -36273,7 +36238,7 @@
         <v>0.93114750000000002</v>
       </c>
       <c r="BD97" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="98" spans="1:56" ht="14.25">
@@ -36352,7 +36317,7 @@
         <v>94</v>
       </c>
       <c r="Y98" s="4" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="Z98" s="43">
         <v>55000245</v>
@@ -36418,7 +36383,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW98" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX98" s="4">
         <v>6</v>
@@ -36437,7 +36402,7 @@
         <v>0.51803279999999996</v>
       </c>
       <c r="BD98" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="99" spans="1:56" ht="14.25">
@@ -36513,10 +36478,10 @@
         <v>0</v>
       </c>
       <c r="X99" s="4" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="Y99" s="4" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="Z99" s="43">
         <v>55000246</v>
@@ -36586,7 +36551,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW99" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX99" s="4">
         <v>6</v>
@@ -36605,7 +36570,7 @@
         <v>0.36393439999999999</v>
       </c>
       <c r="BD99" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="100" spans="1:56" ht="14.25">
@@ -36684,7 +36649,7 @@
         <v>78</v>
       </c>
       <c r="Y100" s="4" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="Z100" s="43">
         <v>55000040</v>
@@ -36762,7 +36727,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW100" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX100" s="4">
         <v>5</v>
@@ -36783,7 +36748,7 @@
         <v>0.94918029999999998</v>
       </c>
       <c r="BD100" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="101" spans="1:56" ht="14.25">
@@ -36862,7 +36827,7 @@
         <v>4</v>
       </c>
       <c r="Y101" s="4" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="Z101" s="43">
         <v>55000126</v>
@@ -36932,7 +36897,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW101" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX101" s="4">
         <v>6</v>
@@ -36951,7 +36916,7 @@
         <v>0.60327869999999995</v>
       </c>
       <c r="BD101" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="102" spans="1:56" ht="14.25">
@@ -37030,7 +36995,7 @@
         <v>16</v>
       </c>
       <c r="Y102" s="4" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="Z102" s="43">
         <v>55900003</v>
@@ -37096,7 +37061,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW102" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX102" s="4">
         <v>4</v>
@@ -37192,7 +37157,7 @@
         <v>9</v>
       </c>
       <c r="Y103" s="4" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="Z103" s="43">
         <v>55000129</v>
@@ -37258,7 +37223,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW103" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX103" s="4">
         <v>6</v>
@@ -37277,7 +37242,7 @@
         <v>0.1032787</v>
       </c>
       <c r="BD103" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="104" spans="1:56" ht="14.25">
@@ -37356,7 +37321,7 @@
         <v>4</v>
       </c>
       <c r="Y104" s="4" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="Z104" s="43">
         <v>55000130</v>
@@ -37426,7 +37391,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW104" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX104" s="4">
         <v>6</v>
@@ -37445,7 +37410,7 @@
         <v>0.42622949999999998</v>
       </c>
       <c r="BD104" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="105" spans="1:56" ht="14.25">
@@ -37524,7 +37489,7 @@
         <v>107</v>
       </c>
       <c r="Y105" s="4" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="Z105" s="43">
         <v>55000132</v>
@@ -37594,7 +37559,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW105" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX105" s="4">
         <v>6</v>
@@ -37613,7 +37578,7 @@
         <v>0.2098361</v>
       </c>
       <c r="BD105" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="106" spans="1:56" ht="14.25">
@@ -37692,7 +37657,7 @@
         <v>9</v>
       </c>
       <c r="Y106" s="4" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="Z106" s="43">
         <v>55000133</v>
@@ -37758,7 +37723,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW106" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX106" s="4">
         <v>6</v>
@@ -37777,7 +37742,7 @@
         <v>4.262295E-2</v>
       </c>
       <c r="BD106" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="107" spans="1:56" ht="14.25">
@@ -37856,7 +37821,7 @@
         <v>9</v>
       </c>
       <c r="Y107" s="4" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="Z107" s="43">
         <v>55300007</v>
@@ -37922,7 +37887,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW107" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX107" s="4">
         <v>6</v>
@@ -37941,7 +37906,7 @@
         <v>5.2459020000000002E-2</v>
       </c>
       <c r="BD107" s="22" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="108" spans="1:56" ht="14.25">
@@ -38020,7 +37985,7 @@
         <v>2</v>
       </c>
       <c r="Y108" s="4" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="Z108" s="43">
         <v>55000017</v>
@@ -38094,7 +38059,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW108" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX108" s="4">
         <v>4</v>
@@ -38113,7 +38078,7 @@
         <v>0.92622950000000004</v>
       </c>
       <c r="BD108" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="109" spans="1:56" ht="14.25">
@@ -38192,7 +38157,7 @@
         <v>128</v>
       </c>
       <c r="Y109" s="4" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="Z109" s="43">
         <v>55000135</v>
@@ -38258,7 +38223,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW109" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX109" s="4">
         <v>6</v>
@@ -38277,7 +38242,7 @@
         <v>6.8852460000000004E-2</v>
       </c>
       <c r="BD109" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="110" spans="1:56" ht="14.25">
@@ -38356,7 +38321,7 @@
         <v>130</v>
       </c>
       <c r="Y110" s="4" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="Z110" s="43">
         <v>55000135</v>
@@ -38426,7 +38391,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW110" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX110" s="4">
         <v>6</v>
@@ -38445,7 +38410,7 @@
         <v>0.24262300000000001</v>
       </c>
       <c r="BD110" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="111" spans="1:56" ht="14.25">
@@ -38524,7 +38489,7 @@
         <v>132</v>
       </c>
       <c r="Y111" s="4" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="Z111" s="43">
         <v>55000038</v>
@@ -38590,7 +38555,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW111" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX111" s="4">
         <v>6</v>
@@ -38609,7 +38574,7 @@
         <v>0.28360659999999999</v>
       </c>
       <c r="BD111" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="112" spans="1:56" ht="14.25">
@@ -38688,7 +38653,7 @@
         <v>118</v>
       </c>
       <c r="Y112" s="4" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="Z112" s="43">
         <v>55010003</v>
@@ -38758,7 +38723,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW112" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX112" s="4">
         <v>6</v>
@@ -38777,7 +38742,7 @@
         <v>0.5</v>
       </c>
       <c r="BD112" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="113" spans="1:56" ht="14.25">
@@ -38856,7 +38821,7 @@
         <v>135</v>
       </c>
       <c r="Y113" s="4" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="Z113" s="43">
         <v>55000018</v>
@@ -38926,7 +38891,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW113" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX113" s="4">
         <v>6</v>
@@ -38945,7 +38910,7 @@
         <v>0.51147540000000002</v>
       </c>
       <c r="BD113" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="114" spans="1:56" ht="14.25">
@@ -39024,7 +38989,7 @@
         <v>89</v>
       </c>
       <c r="Y114" s="4" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="Z114" s="43">
         <v>55000040</v>
@@ -39102,7 +39067,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW114" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX114" s="4">
         <v>3</v>
@@ -39123,7 +39088,7 @@
         <v>0.9442623</v>
       </c>
       <c r="BD114" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="115" spans="1:56" ht="14.25">
@@ -39202,7 +39167,7 @@
         <v>94</v>
       </c>
       <c r="Y115" s="4" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="Z115" s="43">
         <v>55000040</v>
@@ -39280,7 +39245,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW115" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX115" s="4">
         <v>6</v>
@@ -39301,7 +39266,7 @@
         <v>0.94262299999999999</v>
       </c>
       <c r="BD115" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="116" spans="1:56" ht="14.25">
@@ -39380,7 +39345,7 @@
         <v>31</v>
       </c>
       <c r="Y116" s="4" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="Z116" s="43">
         <v>55000040</v>
@@ -39458,7 +39423,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW116" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX116" s="4">
         <v>6</v>
@@ -39479,7 +39444,7 @@
         <v>0.92786880000000005</v>
       </c>
       <c r="BD116" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="117" spans="1:56" ht="14.25">
@@ -39558,7 +39523,7 @@
         <v>4</v>
       </c>
       <c r="Y117" s="7" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="Z117" s="43">
         <v>55000143</v>
@@ -39628,7 +39593,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW117" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX117" s="4">
         <v>6</v>
@@ -39647,7 +39612,7 @@
         <v>0.38196720000000001</v>
       </c>
       <c r="BD117" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="118" spans="1:56" ht="14.25">
@@ -39726,7 +39691,7 @@
         <v>40</v>
       </c>
       <c r="Y118" s="4" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="Z118" s="43">
         <v>55000040</v>
@@ -39804,7 +39769,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW118" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX118" s="4">
         <v>5</v>
@@ -39825,7 +39790,7 @@
         <v>0.9442623</v>
       </c>
       <c r="BD118" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="119" spans="1:56" ht="14.25">
@@ -39904,7 +39869,7 @@
         <v>100</v>
       </c>
       <c r="Y119" s="4" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="Z119" s="43">
         <v>55000040</v>
@@ -39982,7 +39947,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW119" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX119" s="4">
         <v>6</v>
@@ -40003,7 +39968,7 @@
         <v>0.95901639999999999</v>
       </c>
       <c r="BD119" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="120" spans="1:56" ht="14.25">
@@ -40082,7 +40047,7 @@
         <v>51</v>
       </c>
       <c r="Y120" s="4" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="Z120" s="43">
         <v>55000040</v>
@@ -40160,7 +40125,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW120" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX120" s="4">
         <v>5</v>
@@ -40181,7 +40146,7 @@
         <v>0.92786880000000005</v>
       </c>
       <c r="BD120" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="121" spans="1:56" ht="14.25">
@@ -40260,7 +40225,7 @@
         <v>22</v>
       </c>
       <c r="Y121" s="4" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="Z121" s="43">
         <v>55000040</v>
@@ -40338,7 +40303,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW121" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX121" s="4">
         <v>6</v>
@@ -40359,7 +40324,7 @@
         <v>0.95409829999999995</v>
       </c>
       <c r="BD121" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="122" spans="1:56" ht="14.25">
@@ -40438,7 +40403,7 @@
         <v>4</v>
       </c>
       <c r="Y122" s="4" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="Z122" s="43">
         <v>55000150</v>
@@ -40508,7 +40473,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW122" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX122" s="4">
         <v>6</v>
@@ -40527,7 +40492,7 @@
         <v>0.24426229999999999</v>
       </c>
       <c r="BD122" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="123" spans="1:56" ht="14.25">
@@ -40606,7 +40571,7 @@
         <v>4</v>
       </c>
       <c r="Y123" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="Z123" s="43">
         <v>55000227</v>
@@ -40680,7 +40645,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW123" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX123" s="4">
         <v>6</v>
@@ -40699,7 +40664,7 @@
         <v>0.27213110000000001</v>
       </c>
       <c r="BD123" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="124" spans="1:56" ht="14.25">
@@ -40778,7 +40743,7 @@
         <v>2</v>
       </c>
       <c r="Y124" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="Z124" s="43">
         <v>55000093</v>
@@ -40852,7 +40817,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW124" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX124" s="4">
         <v>6</v>
@@ -40871,7 +40836,7 @@
         <v>0.49836069999999999</v>
       </c>
       <c r="BD124" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="125" spans="1:56" ht="14.25">
@@ -40950,7 +40915,7 @@
         <v>2</v>
       </c>
       <c r="Y125" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="Z125" s="43">
         <v>55000008</v>
@@ -41024,7 +40989,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW125" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX125" s="4">
         <v>6</v>
@@ -41043,7 +41008,7 @@
         <v>0.73114749999999995</v>
       </c>
       <c r="BD125" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="126" spans="1:56" ht="14.25">
@@ -41122,7 +41087,7 @@
         <v>24</v>
       </c>
       <c r="Y126" s="4" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="Z126" s="43">
         <v>55000151</v>
@@ -41188,7 +41153,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW126" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX126" s="4">
         <v>6</v>
@@ -41207,7 +41172,7 @@
         <v>9.3442629999999999E-2</v>
       </c>
       <c r="BD126" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="127" spans="1:56" ht="14.25">
@@ -41286,7 +41251,7 @@
         <v>4</v>
       </c>
       <c r="Y127" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="Z127" s="43">
         <v>55000248</v>
@@ -41352,7 +41317,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW127" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX127" s="4">
         <v>6</v>
@@ -41371,7 +41336,7 @@
         <v>0.3</v>
       </c>
       <c r="BD127" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="128" spans="1:56" ht="14.25">
@@ -41450,7 +41415,7 @@
         <v>4</v>
       </c>
       <c r="Y128" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="Z128" s="43">
         <v>55000152</v>
@@ -41520,7 +41485,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW128" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX128" s="4">
         <v>6</v>
@@ -41539,7 +41504,7 @@
         <v>0.62131150000000002</v>
       </c>
       <c r="BD128" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="129" spans="1:56" ht="14.25">
@@ -41618,7 +41583,7 @@
         <v>2</v>
       </c>
       <c r="Y129" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="Z129" s="43">
         <v>55000037</v>
@@ -41688,7 +41653,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW129" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX129" s="4">
         <v>3</v>
@@ -41707,7 +41672,7 @@
         <v>0.85901640000000001</v>
       </c>
       <c r="BD129" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="130" spans="1:56" ht="14.25">
@@ -41786,7 +41751,7 @@
         <v>107</v>
       </c>
       <c r="Y130" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="Z130" s="43">
         <v>55000153</v>
@@ -41852,7 +41817,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW130" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX130" s="4">
         <v>6</v>
@@ -41871,7 +41836,7 @@
         <v>0.1114754</v>
       </c>
       <c r="BD130" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="131" spans="1:56" ht="14.25">
@@ -41950,7 +41915,7 @@
         <v>6</v>
       </c>
       <c r="Y131" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="Z131" s="43">
         <v>55000002</v>
@@ -42016,7 +41981,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW131" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX131" s="4">
         <v>6</v>
@@ -42035,7 +42000,7 @@
         <v>0.31639339999999999</v>
       </c>
       <c r="BD131" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="132" spans="1:56" ht="14.25">
@@ -42114,7 +42079,7 @@
         <v>4</v>
       </c>
       <c r="Y132" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="Z132" s="43">
         <v>55000019</v>
@@ -42184,7 +42149,7 @@
         <v>0;0;0;0.3;0;0;0</v>
       </c>
       <c r="AW132" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX132" s="4">
         <v>6</v>
@@ -42203,7 +42168,7 @@
         <v>0.76393440000000001</v>
       </c>
       <c r="BD132" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="133" spans="1:56" ht="14.25">
@@ -42282,7 +42247,7 @@
         <v>107</v>
       </c>
       <c r="Y133" s="4" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="Z133" s="43">
         <v>55000011</v>
@@ -42352,7 +42317,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW133" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX133" s="4">
         <v>6</v>
@@ -42371,7 +42336,7 @@
         <v>0.67213109999999998</v>
       </c>
       <c r="BD133" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="134" spans="1:56" ht="14.25">
@@ -42450,7 +42415,7 @@
         <v>2</v>
       </c>
       <c r="Y134" s="4" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="Z134" s="43">
         <v>55000035</v>
@@ -42520,7 +42485,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW134" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX134" s="4">
         <v>6</v>
@@ -42539,7 +42504,7 @@
         <v>0.44098359999999998</v>
       </c>
       <c r="BD134" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="135" spans="1:56" ht="14.25">
@@ -42618,7 +42583,7 @@
         <v>78</v>
       </c>
       <c r="Y135" s="7" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="Z135" s="43">
         <v>55000143</v>
@@ -42688,7 +42653,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW135" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX135" s="4">
         <v>6</v>
@@ -42707,7 +42672,7 @@
         <v>0.43442619999999998</v>
       </c>
       <c r="BD135" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="136" spans="1:56" ht="14.25">
@@ -42786,7 +42751,7 @@
         <v>107</v>
       </c>
       <c r="Y136" s="4" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="Z136" s="43">
         <v>55000031</v>
@@ -42856,7 +42821,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW136" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX136" s="4">
         <v>6</v>
@@ -42875,7 +42840,7 @@
         <v>0.50819669999999995</v>
       </c>
       <c r="BD136" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="137" spans="1:56" ht="14.25">
@@ -42954,7 +42919,7 @@
         <v>2</v>
       </c>
       <c r="Y137" s="4" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="Z137" s="43">
         <v>55000012</v>
@@ -43028,7 +42993,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW137" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX137" s="4">
         <v>5</v>
@@ -43047,7 +43012,7 @@
         <v>0.80983609999999995</v>
       </c>
       <c r="BD137" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="138" spans="1:56" ht="14.25">
@@ -43126,7 +43091,7 @@
         <v>6</v>
       </c>
       <c r="Y138" s="4" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="Z138" s="43">
         <v>55000157</v>
@@ -43196,7 +43161,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW138" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX138" s="4">
         <v>6</v>
@@ -43215,7 +43180,7 @@
         <v>0.25245899999999999</v>
       </c>
       <c r="BD138" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="139" spans="1:56" ht="14.25">
@@ -43294,7 +43259,7 @@
         <v>107</v>
       </c>
       <c r="Y139" s="4" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="Z139" s="43">
         <v>55000119</v>
@@ -43364,7 +43329,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW139" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX139" s="4">
         <v>6</v>
@@ -43383,7 +43348,7 @@
         <v>0.61311479999999996</v>
       </c>
       <c r="BD139" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="140" spans="1:56" ht="14.25">
@@ -43522,7 +43487,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW140" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX140" s="4">
         <v>6</v>
@@ -43541,7 +43506,7 @@
         <v>0.36393439999999999</v>
       </c>
       <c r="BD140" s="22" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="141" spans="1:56" ht="14.25">
@@ -43620,7 +43585,7 @@
         <v>12</v>
       </c>
       <c r="Y141" s="4" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="Z141" s="43">
         <v>55000088</v>
@@ -43690,7 +43655,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW141" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX141" s="4">
         <v>6</v>
@@ -43709,7 +43674,7 @@
         <v>0.52295080000000005</v>
       </c>
       <c r="BD141" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="142" spans="1:56" ht="14.25">
@@ -43788,7 +43753,7 @@
         <v>40</v>
       </c>
       <c r="Y142" s="4" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="Z142" s="43">
         <v>55000018</v>
@@ -43858,7 +43823,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW142" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX142" s="4">
         <v>6</v>
@@ -43877,7 +43842,7 @@
         <v>0.3491803</v>
       </c>
       <c r="BD142" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="143" spans="1:56" ht="14.25">
@@ -43956,7 +43921,7 @@
         <v>4</v>
       </c>
       <c r="Y143" s="4" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="Z143" s="43">
         <v>55000001</v>
@@ -44026,7 +43991,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW143" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX143" s="4">
         <v>6</v>
@@ -44045,7 +44010,7 @@
         <v>0.26065569999999999</v>
       </c>
       <c r="BD143" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="144" spans="1:56" ht="14.25">
@@ -44124,7 +44089,7 @@
         <v>16</v>
       </c>
       <c r="Y144" s="4" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="Z144" s="43">
         <v>55000044</v>
@@ -44190,7 +44155,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW144" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX144" s="4">
         <v>6</v>
@@ -44209,7 +44174,7 @@
         <v>0.56393439999999995</v>
       </c>
       <c r="BD144" s="22" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="145" spans="1:56" ht="14.25">
@@ -44348,7 +44313,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW145" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX145" s="4">
         <v>6</v>
@@ -44367,7 +44332,7 @@
         <v>0.13770489999999999</v>
       </c>
       <c r="BD145" s="22" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="146" spans="1:56" ht="14.25">
@@ -44446,7 +44411,7 @@
         <v>107</v>
       </c>
       <c r="Y146" s="4" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="Z146" s="43">
         <v>55000101</v>
@@ -44520,7 +44485,7 @@
         <v>0;0;0;0;0.3;0;0</v>
       </c>
       <c r="AW146" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX146" s="4">
         <v>6</v>
@@ -44539,7 +44504,7 @@
         <v>0.75081969999999998</v>
       </c>
       <c r="BD146" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="147" spans="1:56" ht="14.25">
@@ -44618,7 +44583,7 @@
         <v>19</v>
       </c>
       <c r="Y147" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="Z147" s="43">
         <v>55000010</v>
@@ -44688,7 +44653,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW147" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX147" s="4">
         <v>6</v>
@@ -44707,7 +44672,7 @@
         <v>0.41639340000000002</v>
       </c>
       <c r="BD147" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="148" spans="1:56" ht="14.25">
@@ -44783,10 +44748,10 @@
         <v>0</v>
       </c>
       <c r="X148" s="4" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="Y148" s="4" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="Z148" s="43">
         <v>55000340</v>
@@ -44856,7 +44821,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW148" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX148" s="4">
         <v>6</v>
@@ -44875,7 +44840,7 @@
         <v>0.1983607</v>
       </c>
       <c r="BD148" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="149" spans="1:56" ht="14.25">
@@ -44954,7 +44919,7 @@
         <v>166</v>
       </c>
       <c r="Y149" s="4" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="Z149" s="43">
         <v>55000066</v>
@@ -45028,7 +44993,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW149" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX149" s="4">
         <v>6</v>
@@ -45047,7 +45012,7 @@
         <v>0.52295080000000005</v>
       </c>
       <c r="BD149" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="150" spans="1:56" ht="14.25">
@@ -45126,7 +45091,7 @@
         <v>4</v>
       </c>
       <c r="Y150" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="Z150" s="43">
         <v>55000017</v>
@@ -45200,7 +45165,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW150" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX150" s="4">
         <v>6</v>
@@ -45219,7 +45184,7 @@
         <v>0.68852460000000004</v>
       </c>
       <c r="BD150" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="151" spans="1:56" ht="14.25">
@@ -45298,7 +45263,7 @@
         <v>16</v>
       </c>
       <c r="Y151" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="Z151" s="43">
         <v>55000164</v>
@@ -45364,7 +45329,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW151" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX151" s="4">
         <v>6</v>
@@ -45383,7 +45348,7 @@
         <v>0.47049180000000002</v>
       </c>
       <c r="BD151" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="152" spans="1:56" ht="14.25">
@@ -45522,7 +45487,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW152" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX152" s="4">
         <v>6</v>
@@ -45541,7 +45506,7 @@
         <v>0.35409829999999998</v>
       </c>
       <c r="BD152" s="22" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="153" spans="1:56" ht="14.25">
@@ -45620,7 +45585,7 @@
         <v>2</v>
       </c>
       <c r="Y153" s="4" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="Z153" s="43">
         <v>55000089</v>
@@ -45686,7 +45651,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW153" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX153" s="4">
         <v>6</v>
@@ -45705,7 +45670,7 @@
         <v>0.32295079999999998</v>
       </c>
       <c r="BD153" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="154" spans="1:56" ht="14.25">
@@ -45784,7 +45749,7 @@
         <v>172</v>
       </c>
       <c r="Y154" s="4" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="Z154" s="43">
         <v>55000079</v>
@@ -45850,7 +45815,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW154" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX154" s="4">
         <v>6</v>
@@ -45869,7 +45834,7 @@
         <v>0.40819670000000002</v>
       </c>
       <c r="BD154" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="155" spans="1:56" ht="14.25">
@@ -45945,10 +45910,10 @@
         <v>0</v>
       </c>
       <c r="X155" s="4" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="Y155" s="4" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="Z155" s="43">
         <v>55000165</v>
@@ -46014,7 +45979,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW155" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX155" s="4">
         <v>6</v>
@@ -46033,7 +45998,7 @@
         <v>0.58688530000000005</v>
       </c>
       <c r="BD155" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="156" spans="1:56" ht="14.25">
@@ -46112,7 +46077,7 @@
         <v>4</v>
       </c>
       <c r="Y156" s="4" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="Z156" s="43">
         <v>55000166</v>
@@ -46178,7 +46143,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW156" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX156" s="4">
         <v>6</v>
@@ -46197,7 +46162,7 @@
         <v>0.28196719999999997</v>
       </c>
       <c r="BD156" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="157" spans="1:56" ht="14.25">
@@ -46336,7 +46301,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW157" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX157" s="4">
         <v>6</v>
@@ -46355,7 +46320,7 @@
         <v>0.12950819999999999</v>
       </c>
       <c r="BD157" s="22" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="158" spans="1:56" ht="14.25">
@@ -46434,7 +46399,7 @@
         <v>2</v>
       </c>
       <c r="Y158" s="4" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="Z158" s="43">
         <v>55000049</v>
@@ -46500,7 +46465,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW158" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX158" s="4">
         <v>6</v>
@@ -46519,7 +46484,7 @@
         <v>0.69016390000000005</v>
       </c>
       <c r="BD158" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="159" spans="1:56" ht="14.25">
@@ -46598,7 +46563,7 @@
         <v>2</v>
       </c>
       <c r="Y159" s="4" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="Z159" s="43">
         <v>55000170</v>
@@ -46668,7 +46633,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW159" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX159" s="4">
         <v>6</v>
@@ -46687,7 +46652,7 @@
         <v>0.52950819999999998</v>
       </c>
       <c r="BD159" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="160" spans="1:56" ht="14.25">
@@ -46766,7 +46731,7 @@
         <v>179</v>
       </c>
       <c r="Y160" s="4" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="Z160" s="43">
         <v>55000048</v>
@@ -46836,7 +46801,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW160" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX160" s="4">
         <v>6</v>
@@ -46855,7 +46820,7 @@
         <v>0.94098360000000003</v>
       </c>
       <c r="BD160" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="161" spans="1:56" ht="14.25">
@@ -46994,7 +46959,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW161" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX161" s="4">
         <v>6</v>
@@ -47013,7 +46978,7 @@
         <v>0.3098361</v>
       </c>
       <c r="BD161" s="22" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="162" spans="1:56" ht="14.25">
@@ -47092,7 +47057,7 @@
         <v>107</v>
       </c>
       <c r="Y162" s="4" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="Z162" s="43">
         <v>55000150</v>
@@ -47158,7 +47123,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW162" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX162" s="4">
         <v>6</v>
@@ -47177,7 +47142,7 @@
         <v>0.44754100000000002</v>
       </c>
       <c r="BD162" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="163" spans="1:56" ht="14.25">
@@ -47256,7 +47221,7 @@
         <v>107</v>
       </c>
       <c r="Y163" s="4" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="Z163" s="43">
         <v>55000269</v>
@@ -47322,7 +47287,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW163" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX163" s="4">
         <v>6</v>
@@ -47341,7 +47306,7 @@
         <v>0.45409840000000001</v>
       </c>
       <c r="BD163" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="164" spans="1:56" ht="14.25">
@@ -47420,7 +47385,7 @@
         <v>16</v>
       </c>
       <c r="Y164" s="4" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="Z164" s="43">
         <v>55000167</v>
@@ -47490,7 +47455,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW164" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX164" s="4">
         <v>6</v>
@@ -47509,7 +47474,7 @@
         <v>0.64098359999999999</v>
       </c>
       <c r="BD164" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="165" spans="1:56" ht="14.25">
@@ -47588,7 +47553,7 @@
         <v>38</v>
       </c>
       <c r="Y165" s="4" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="Z165" s="43">
         <v>55000145</v>
@@ -47662,7 +47627,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW165" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX165" s="4">
         <v>6</v>
@@ -47681,7 +47646,7 @@
         <v>0.73114749999999995</v>
       </c>
       <c r="BD165" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="166" spans="1:56" ht="14.25">
@@ -47760,7 +47725,7 @@
         <v>100</v>
       </c>
       <c r="Y166" s="4" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="Z166" s="43">
         <v>55000094</v>
@@ -47830,7 +47795,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW166" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX166" s="4">
         <v>6</v>
@@ -47849,7 +47814,7 @@
         <v>0.59344260000000004</v>
       </c>
       <c r="BD166" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="167" spans="1:56" ht="14.25">
@@ -47928,7 +47893,7 @@
         <v>24</v>
       </c>
       <c r="Y167" s="4" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="Z167" s="43">
         <v>55000174</v>
@@ -47998,7 +47963,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW167" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX167" s="4">
         <v>6</v>
@@ -48017,7 +47982,7 @@
         <v>0.60327869999999995</v>
       </c>
       <c r="BD167" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="168" spans="1:56" ht="14.25">
@@ -48096,7 +48061,7 @@
         <v>16</v>
       </c>
       <c r="Y168" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="Z168" s="43">
         <v>55000030</v>
@@ -48170,7 +48135,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW168" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX168" s="4">
         <v>5</v>
@@ -48189,7 +48154,7 @@
         <v>0.85409840000000004</v>
       </c>
       <c r="BD168" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="169" spans="1:56" ht="14.25">
@@ -48268,7 +48233,7 @@
         <v>9</v>
       </c>
       <c r="Y169" s="4" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="Z169" s="43">
         <v>55300003</v>
@@ -48334,7 +48299,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW169" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX169" s="4">
         <v>6</v>
@@ -48353,7 +48318,7 @@
         <v>5.7377049999999999E-2</v>
       </c>
       <c r="BD169" s="22" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="170" spans="1:56" ht="14.25">
@@ -48432,7 +48397,7 @@
         <v>9</v>
       </c>
       <c r="Y170" s="4" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="Z170" s="43">
         <v>55300002</v>
@@ -48498,7 +48463,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW170" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX170" s="4">
         <v>6</v>
@@ -48517,7 +48482,7 @@
         <v>4.0983609999999997E-2</v>
       </c>
       <c r="BD170" s="22" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="171" spans="1:56" ht="14.25">
@@ -48596,7 +48561,7 @@
         <v>4</v>
       </c>
       <c r="Y171" s="4" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="Z171" s="43">
         <v>55000180</v>
@@ -48674,7 +48639,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW171" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX171" s="4">
         <v>6</v>
@@ -48693,7 +48658,7 @@
         <v>4.590164E-2</v>
       </c>
       <c r="BD171" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="172" spans="1:56" ht="14.25">
@@ -48772,7 +48737,7 @@
         <v>4</v>
       </c>
       <c r="Y172" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="Z172" s="43">
         <v>55000181</v>
@@ -48846,7 +48811,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW172" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX172" s="4">
         <v>6</v>
@@ -48865,7 +48830,7 @@
         <v>0.77540980000000004</v>
       </c>
       <c r="BD172" s="22" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="173" spans="1:56" ht="14.25">
@@ -48941,10 +48906,10 @@
         <v>0</v>
       </c>
       <c r="X173" s="4" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="Y173" s="4" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="Z173" s="43">
         <v>55000015</v>
@@ -49014,7 +48979,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW173" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX173" s="4">
         <v>6</v>
@@ -49033,7 +48998,7 @@
         <v>9.0163930000000003E-2</v>
       </c>
       <c r="BD173" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="174" spans="1:56" ht="14.25">
@@ -49112,7 +49077,7 @@
         <v>69</v>
       </c>
       <c r="Y174" s="4" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="Z174" s="43">
         <v>55000184</v>
@@ -49178,7 +49143,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW174" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX174" s="4">
         <v>6</v>
@@ -49197,7 +49162,7 @@
         <v>0.56721310000000003</v>
       </c>
       <c r="BD174" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="175" spans="1:56" ht="14.25">
@@ -49276,7 +49241,7 @@
         <v>2</v>
       </c>
       <c r="Y175" s="4" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="Z175" s="43">
         <v>55000185</v>
@@ -49342,7 +49307,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW175" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX175" s="4">
         <v>6</v>
@@ -49361,7 +49326,7 @@
         <v>0.104918</v>
       </c>
       <c r="BD175" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="176" spans="1:56" ht="14.25">
@@ -49440,7 +49405,7 @@
         <v>12</v>
       </c>
       <c r="Y176" s="4" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="Z176" s="43">
         <v>55000186</v>
@@ -49506,7 +49471,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW176" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX176" s="4">
         <v>6</v>
@@ -49525,7 +49490,7 @@
         <v>0.57213119999999995</v>
       </c>
       <c r="BD176" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="177" spans="1:56" ht="14.25">
@@ -49604,7 +49569,7 @@
         <v>4</v>
       </c>
       <c r="Y177" s="4" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="Z177" s="43">
         <v>55000188</v>
@@ -49674,7 +49639,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW177" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX177" s="4">
         <v>6</v>
@@ -49693,7 +49658,7 @@
         <v>0.25737710000000003</v>
       </c>
       <c r="BD177" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="178" spans="1:56" ht="14.25">
@@ -49772,7 +49737,7 @@
         <v>4</v>
       </c>
       <c r="Y178" s="4" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="Z178" s="43">
         <v>55000087</v>
@@ -49842,7 +49807,7 @@
         <v>0;0;0;0;0;0.3;0</v>
       </c>
       <c r="AW178" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX178" s="4">
         <v>6</v>
@@ -49861,7 +49826,7 @@
         <v>0.64590159999999996</v>
       </c>
       <c r="BD178" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="179" spans="1:56" ht="14.25">
@@ -49940,7 +49905,7 @@
         <v>2</v>
       </c>
       <c r="Y179" s="4" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="Z179" s="43">
         <v>55000189</v>
@@ -50006,7 +49971,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW179" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX179" s="4">
         <v>6</v>
@@ -50025,7 +49990,7 @@
         <v>0.49508200000000002</v>
       </c>
       <c r="BD179" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="180" spans="1:56" ht="14.25">
@@ -50104,7 +50069,7 @@
         <v>65</v>
       </c>
       <c r="Y180" s="4" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="Z180" s="43">
         <v>55000061</v>
@@ -50182,7 +50147,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW180" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX180" s="4">
         <v>5</v>
@@ -50201,7 +50166,7 @@
         <v>0.80819669999999999</v>
       </c>
       <c r="BD180" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="181" spans="1:56" ht="14.25">
@@ -50280,7 +50245,7 @@
         <v>976</v>
       </c>
       <c r="Y181" s="4" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="Z181" s="43">
         <v>55000044</v>
@@ -50354,7 +50319,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW181" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX181" s="4">
         <v>6</v>
@@ -50373,7 +50338,7 @@
         <v>0.91639349999999997</v>
       </c>
       <c r="BD181" s="22" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="182" spans="1:56" ht="14.25">
@@ -50452,7 +50417,7 @@
         <v>4</v>
       </c>
       <c r="Y182" s="4" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="Z182" s="43">
         <v>55000193</v>
@@ -50522,7 +50487,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW182" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX182" s="4">
         <v>6</v>
@@ -50541,7 +50506,7 @@
         <v>0.27377050000000003</v>
       </c>
       <c r="BD182" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="183" spans="1:56" ht="14.25">
@@ -50620,7 +50585,7 @@
         <v>16</v>
       </c>
       <c r="Y183" s="4" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="Z183" s="43">
         <v>55000297</v>
@@ -50690,7 +50655,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW183" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX183" s="4">
         <v>5</v>
@@ -50709,7 +50674,7 @@
         <v>0.89508200000000004</v>
       </c>
       <c r="BD183" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="184" spans="1:56" ht="14.25">
@@ -50788,7 +50753,7 @@
         <v>78</v>
       </c>
       <c r="Y184" s="4" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="Z184" s="43">
         <v>55000095</v>
@@ -50854,7 +50819,7 @@
         <v>0;0;0.3;0;0;0;0</v>
       </c>
       <c r="AW184" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX184" s="4">
         <v>6</v>
@@ -50873,7 +50838,7 @@
         <v>0.65245900000000001</v>
       </c>
       <c r="BD184" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="185" spans="1:56" ht="14.25">
@@ -50952,7 +50917,7 @@
         <v>12</v>
       </c>
       <c r="Y185" s="4" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="Z185" s="43">
         <v>55000194</v>
@@ -51022,7 +50987,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW185" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX185" s="4">
         <v>3</v>
@@ -51041,7 +51006,7 @@
         <v>0.91639349999999997</v>
       </c>
       <c r="BD185" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="186" spans="1:56" ht="14.25">
@@ -51120,7 +51085,7 @@
         <v>78</v>
       </c>
       <c r="Y186" s="4" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="Z186" s="43">
         <v>55000125</v>
@@ -51190,7 +51155,7 @@
         <v>0;0.3;0;0;0;0;0</v>
       </c>
       <c r="AW186" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX186" s="4">
         <v>6</v>
@@ -51209,7 +51174,7 @@
         <v>0.73114749999999995</v>
       </c>
       <c r="BD186" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="187" spans="1:56" ht="14.25">
@@ -51288,7 +51253,7 @@
         <v>6</v>
       </c>
       <c r="Y187" s="4" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="Z187" s="43">
         <v>55000089</v>
@@ -51354,7 +51319,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW187" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX187" s="4">
         <v>6</v>
@@ -51373,7 +51338,7 @@
         <v>0.37377050000000001</v>
       </c>
       <c r="BD187" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="188" spans="1:56" ht="14.25">
@@ -51452,7 +51417,7 @@
         <v>2</v>
       </c>
       <c r="Y188" s="4" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="Z188" s="43">
         <v>55000196</v>
@@ -51526,7 +51491,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW188" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX188" s="4">
         <v>3</v>
@@ -51545,7 +51510,7 @@
         <v>0.9442623</v>
       </c>
       <c r="BD188" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="189" spans="1:56" ht="14.25">
@@ -51624,7 +51589,7 @@
         <v>4</v>
       </c>
       <c r="Y189" s="4" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="Z189" s="43">
         <v>55000044</v>
@@ -51690,7 +51655,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW189" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX189" s="4">
         <v>6</v>
@@ -51709,7 +51674,7 @@
         <v>0.50655740000000005</v>
       </c>
       <c r="BD189" s="22" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="190" spans="1:56" ht="14.25">
@@ -51848,7 +51813,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW190" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX190" s="4">
         <v>6</v>
@@ -51867,7 +51832,7 @@
         <v>0.1508197</v>
       </c>
       <c r="BD190" s="22" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="191" spans="1:56" ht="14.25">
@@ -51946,7 +51911,7 @@
         <v>24</v>
       </c>
       <c r="Y191" s="4" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="Z191" s="43">
         <v>55000074</v>
@@ -52016,7 +51981,7 @@
         <v>0;0;0;0;0;0.3;0</v>
       </c>
       <c r="AW191" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX191" s="4">
         <v>6</v>
@@ -52035,7 +52000,7 @@
         <v>0.85409840000000004</v>
       </c>
       <c r="BD191" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="192" spans="1:56" ht="14.25">
@@ -52111,10 +52076,10 @@
         <v>0</v>
       </c>
       <c r="X192" s="4" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="Y192" s="4" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="Z192" s="43">
         <v>55000001</v>
@@ -52188,7 +52153,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW192" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX192" s="4">
         <v>6</v>
@@ -52207,7 +52172,7 @@
         <v>0.86229509999999998</v>
       </c>
       <c r="BD192" s="22" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="193" spans="1:56" ht="14.25">
@@ -52286,7 +52251,7 @@
         <v>2</v>
       </c>
       <c r="Y193" s="4" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="Z193" s="43">
         <v>55000036</v>
@@ -52360,7 +52325,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW193" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX193" s="4">
         <v>6</v>
@@ -52379,7 +52344,7 @@
         <v>0.8180328</v>
       </c>
       <c r="BD193" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="194" spans="1:56" ht="14.25">
@@ -52458,7 +52423,7 @@
         <v>16</v>
       </c>
       <c r="Y194" s="4" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="Z194" s="43">
         <v>55000002</v>
@@ -52532,7 +52497,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW194" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX194" s="4">
         <v>4</v>
@@ -52551,7 +52516,7 @@
         <v>0.89672130000000005</v>
       </c>
       <c r="BD194" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="195" spans="1:56" ht="14.25">
@@ -52630,7 +52595,7 @@
         <v>209</v>
       </c>
       <c r="Y195" s="4" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="Z195" s="43">
         <v>55000016</v>
@@ -52708,7 +52673,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW195" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX195" s="4">
         <v>5</v>
@@ -52727,7 +52692,7 @@
         <v>0.74262300000000003</v>
       </c>
       <c r="BD195" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="196" spans="1:56" ht="14.25">
@@ -52806,7 +52771,7 @@
         <v>4</v>
       </c>
       <c r="Y196" s="4" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="Z196" s="43">
         <v>55000037</v>
@@ -52876,7 +52841,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW196" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX196" s="4">
         <v>5</v>
@@ -52895,7 +52860,7 @@
         <v>0.79180329999999999</v>
       </c>
       <c r="BD196" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="197" spans="1:56" ht="14.25">
@@ -52974,7 +52939,7 @@
         <v>4</v>
       </c>
       <c r="Y197" s="4" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="Z197" s="43">
         <v>55000020</v>
@@ -53048,7 +53013,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW197" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX197" s="4">
         <v>5</v>
@@ -53067,7 +53032,7 @@
         <v>0.8327869</v>
       </c>
       <c r="BD197" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="198" spans="1:56" ht="14.25">
@@ -53146,7 +53111,7 @@
         <v>22</v>
       </c>
       <c r="Y198" s="4" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="Z198" s="43">
         <v>55000036</v>
@@ -53220,7 +53185,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW198" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX198" s="4">
         <v>3</v>
@@ -53239,7 +53204,7 @@
         <v>0.81967210000000001</v>
       </c>
       <c r="BD198" s="22" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="199" spans="1:56" ht="14.25">
@@ -53318,7 +53283,7 @@
         <v>2</v>
       </c>
       <c r="Y199" s="4" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="Z199" s="43">
         <v>55000110</v>
@@ -53392,7 +53357,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW199" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX199" s="4">
         <v>6</v>
@@ -53411,7 +53376,7 @@
         <v>0.9606557</v>
       </c>
       <c r="BD199" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="200" spans="1:56" ht="14.25">
@@ -53490,7 +53455,7 @@
         <v>4</v>
       </c>
       <c r="Y200" s="4" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="Z200" s="43">
         <v>55000002</v>
@@ -53564,7 +53529,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW200" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX200" s="4">
         <v>6</v>
@@ -53583,7 +53548,7 @@
         <v>0.82459009999999999</v>
       </c>
       <c r="BD200" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="201" spans="1:56" ht="14.25">
@@ -53662,7 +53627,7 @@
         <v>12</v>
       </c>
       <c r="Y201" s="4" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="Z201" s="43">
         <v>55000036</v>
@@ -53728,7 +53693,7 @@
         <v>0;0;0;0.3;0;0;0</v>
       </c>
       <c r="AW201" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX201" s="4">
         <v>3</v>
@@ -53747,7 +53712,7 @@
         <v>0.70327870000000003</v>
       </c>
       <c r="BD201" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="202" spans="1:56" ht="14.25">
@@ -53823,10 +53788,10 @@
         <v>6</v>
       </c>
       <c r="X202" s="4" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="Y202" s="4" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="Z202" s="43">
         <v>55310001</v>
@@ -53892,7 +53857,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW202" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX202" s="4">
         <v>6</v>
@@ -53988,7 +53953,7 @@
         <v>16</v>
       </c>
       <c r="Y203" s="4" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="Z203" s="43">
         <v>55000192</v>
@@ -54058,7 +54023,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW203" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX203" s="4">
         <v>6</v>
@@ -54077,7 +54042,7 @@
         <v>0.38196720000000001</v>
       </c>
       <c r="BD203" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="204" spans="1:56" ht="14.25">
@@ -54156,7 +54121,7 @@
         <v>2</v>
       </c>
       <c r="Y204" s="4" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="Z204" s="43">
         <v>55000150</v>
@@ -54226,7 +54191,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW204" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX204" s="4">
         <v>6</v>
@@ -54245,7 +54210,7 @@
         <v>0.3885246</v>
       </c>
       <c r="BD204" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="205" spans="1:56" ht="14.25">
@@ -54321,10 +54286,10 @@
         <v>0</v>
       </c>
       <c r="X205" s="4" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="Y205" s="4" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="Z205" s="43">
         <v>55000197</v>
@@ -54390,7 +54355,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW205" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX205" s="4">
         <v>6</v>
@@ -54409,7 +54374,7 @@
         <v>0.3180328</v>
       </c>
       <c r="BD205" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="206" spans="1:56" ht="14.25">
@@ -54488,7 +54453,7 @@
         <v>94</v>
       </c>
       <c r="Y206" s="4" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="Z206" s="43">
         <v>55100001</v>
@@ -54558,7 +54523,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW206" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX206" s="4">
         <v>6</v>
@@ -54577,7 +54542,7 @@
         <v>0.54754100000000006</v>
       </c>
       <c r="BD206" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="207" spans="1:56" ht="14.25">
@@ -54656,7 +54621,7 @@
         <v>172</v>
       </c>
       <c r="Y207" s="4" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="Z207" s="43">
         <v>55000206</v>
@@ -54722,7 +54687,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW207" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX207" s="4">
         <v>6</v>
@@ -54741,7 +54706,7 @@
         <v>0.20491799999999999</v>
       </c>
       <c r="BD207" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="208" spans="1:56" ht="14.25">
@@ -54820,7 +54785,7 @@
         <v>6</v>
       </c>
       <c r="Y208" s="7" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="Z208" s="43">
         <v>55000207</v>
@@ -54890,7 +54855,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW208" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX208" s="4">
         <v>6</v>
@@ -54909,7 +54874,7 @@
         <v>0.53278689999999995</v>
       </c>
       <c r="BD208" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="209" spans="1:56" ht="14.25">
@@ -54988,7 +54953,7 @@
         <v>2</v>
       </c>
       <c r="Y209" s="4" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="Z209" s="43">
         <v>55000120</v>
@@ -55054,7 +55019,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW209" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX209" s="4">
         <v>6</v>
@@ -55073,7 +55038,7 @@
         <v>0.1622951</v>
       </c>
       <c r="BD209" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="210" spans="1:56" ht="14.25">
@@ -55152,7 +55117,7 @@
         <v>172</v>
       </c>
       <c r="Y210" s="4" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="Z210" s="43">
         <v>55000001</v>
@@ -55222,7 +55187,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW210" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX210" s="4">
         <v>6</v>
@@ -55241,7 +55206,7 @@
         <v>0.37704919999999997</v>
       </c>
       <c r="BD210" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="211" spans="1:56" ht="14.25">
@@ -55320,7 +55285,7 @@
         <v>69</v>
       </c>
       <c r="Y211" s="4" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="Z211" s="43">
         <v>55000208</v>
@@ -55394,7 +55359,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW211" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX211" s="4">
         <v>6</v>
@@ -55413,7 +55378,7 @@
         <v>0.6426229</v>
       </c>
       <c r="BD211" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="212" spans="1:56" ht="14.25">
@@ -55492,7 +55457,7 @@
         <v>132</v>
       </c>
       <c r="Y212" s="4" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="Z212" s="43">
         <v>55000103</v>
@@ -55562,7 +55527,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW212" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX212" s="4">
         <v>6</v>
@@ -55581,7 +55546,7 @@
         <v>0.67704920000000002</v>
       </c>
       <c r="BD212" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="213" spans="1:56" ht="14.25">
@@ -55657,10 +55622,10 @@
         <v>0</v>
       </c>
       <c r="X213" s="4" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="Y213" s="4" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="Z213" s="43">
         <v>55000114</v>
@@ -55734,7 +55699,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW213" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX213" s="4">
         <v>6</v>
@@ -55753,7 +55718,7 @@
         <v>0.79016390000000003</v>
       </c>
       <c r="BD213" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="214" spans="1:56" ht="14.25">
@@ -55832,7 +55797,7 @@
         <v>2</v>
       </c>
       <c r="Y214" s="4" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="Z214" s="43">
         <v>55000002</v>
@@ -55906,7 +55871,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW214" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX214" s="4">
         <v>6</v>
@@ -55925,7 +55890,7 @@
         <v>0.3803279</v>
       </c>
       <c r="BD214" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="215" spans="1:56" ht="14.25">
@@ -56004,7 +55969,7 @@
         <v>190</v>
       </c>
       <c r="Y215" s="4" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="Z215" s="43">
         <v>55000102</v>
@@ -56082,7 +56047,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW215" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX215" s="4">
         <v>6</v>
@@ -56101,7 +56066,7 @@
         <v>0.75901640000000004</v>
       </c>
       <c r="BD215" s="22" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="216" spans="1:56" ht="14.25">
@@ -56180,7 +56145,7 @@
         <v>6</v>
       </c>
       <c r="Y216" s="4" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="Z216" s="43">
         <v>55000038</v>
@@ -56246,7 +56211,7 @@
         <v>0;0;0;0;0;0;0.3</v>
       </c>
       <c r="AW216" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX216" s="4">
         <v>6</v>
@@ -56265,7 +56230,7 @@
         <v>0.75737699999999997</v>
       </c>
       <c r="BD216" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="217" spans="1:56" ht="14.25">
@@ -56344,7 +56309,7 @@
         <v>4</v>
       </c>
       <c r="Y217" s="4" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="Z217" s="43">
         <v>55000001</v>
@@ -56414,7 +56379,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW217" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX217" s="4">
         <v>6</v>
@@ -56433,7 +56398,7 @@
         <v>0.37377050000000001</v>
       </c>
       <c r="BD217" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="218" spans="1:56" ht="14.25">
@@ -56512,7 +56477,7 @@
         <v>4</v>
       </c>
       <c r="Y218" s="4" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="Z218" s="43">
         <v>55000340</v>
@@ -56582,7 +56547,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW218" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX218" s="4">
         <v>6</v>
@@ -56601,7 +56566,7 @@
         <v>0.24098359999999999</v>
       </c>
       <c r="BD218" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="219" spans="1:56" ht="14.25">
@@ -56677,10 +56642,10 @@
         <v>0</v>
       </c>
       <c r="X219" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="Y219" s="4" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="Z219" s="43">
         <v>55000070</v>
@@ -56750,7 +56715,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW219" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX219" s="4">
         <v>6</v>
@@ -56769,7 +56734,7 @@
         <v>0.48032789999999997</v>
       </c>
       <c r="BD219" s="22" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="220" spans="1:56" ht="14.25">
@@ -56848,7 +56813,7 @@
         <v>65</v>
       </c>
       <c r="Y220" s="4" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="Z220" s="43">
         <v>55000101</v>
@@ -56914,7 +56879,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW220" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX220" s="4">
         <v>6</v>
@@ -56933,7 +56898,7 @@
         <v>0.404918</v>
       </c>
       <c r="BD220" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="221" spans="1:56" ht="14.25">
@@ -57012,7 +56977,7 @@
         <v>237</v>
       </c>
       <c r="Y221" s="4" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="Z221" s="43">
         <v>55000215</v>
@@ -57082,7 +57047,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW221" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX221" s="4">
         <v>6</v>
@@ -57101,7 +57066,7 @@
         <v>0.69672129999999999</v>
       </c>
       <c r="BD221" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="222" spans="1:56" ht="14.25">
@@ -57180,7 +57145,7 @@
         <v>6</v>
       </c>
       <c r="Y222" s="4" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="Z222" s="43">
         <v>55000217</v>
@@ -57246,7 +57211,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW222" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX222" s="4">
         <v>6</v>
@@ -57265,7 +57230,7 @@
         <v>0.41639340000000002</v>
       </c>
       <c r="BD222" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="223" spans="1:56" ht="14.25">
@@ -57344,7 +57309,7 @@
         <v>9</v>
       </c>
       <c r="Y223" s="4" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="Z223" s="43">
         <v>55000218</v>
@@ -57410,7 +57375,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW223" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX223" s="4">
         <v>6</v>
@@ -57429,7 +57394,7 @@
         <v>0.49508200000000002</v>
       </c>
       <c r="BD223" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="224" spans="1:56" ht="14.25">
@@ -57508,7 +57473,7 @@
         <v>107</v>
       </c>
       <c r="Y224" s="7" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="Z224" s="43">
         <v>55000143</v>
@@ -57578,7 +57543,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW224" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX224" s="4">
         <v>6</v>
@@ -57597,7 +57562,7 @@
         <v>0.83934430000000004</v>
       </c>
       <c r="BD224" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="225" spans="1:56" ht="14.25">
@@ -57676,7 +57641,7 @@
         <v>16</v>
       </c>
       <c r="Y225" s="4" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="Z225" s="43">
         <v>55000009</v>
@@ -57746,7 +57711,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW225" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX225" s="4">
         <v>6</v>
@@ -57765,7 +57730,7 @@
         <v>0.69016390000000005</v>
       </c>
       <c r="BD225" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="226" spans="1:56" ht="14.25">
@@ -57844,7 +57809,7 @@
         <v>9</v>
       </c>
       <c r="Y226" s="4" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="Z226" s="43">
         <v>55400002</v>
@@ -57910,7 +57875,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW226" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX226" s="4">
         <v>6</v>
@@ -58006,7 +57971,7 @@
         <v>172</v>
       </c>
       <c r="Y227" s="4" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="Z227" s="43">
         <v>55000222</v>
@@ -58076,7 +58041,7 @@
         <v>0;0;0;0;0;0.3;0</v>
       </c>
       <c r="AW227" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX227" s="4">
         <v>6</v>
@@ -58095,7 +58060,7 @@
         <v>0.8</v>
       </c>
       <c r="BD227" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="228" spans="1:56" ht="14.25">
@@ -58174,7 +58139,7 @@
         <v>245</v>
       </c>
       <c r="Y228" s="4" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="Z228" s="43">
         <v>55000160</v>
@@ -58244,7 +58209,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW228" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX228" s="4">
         <v>6</v>
@@ -58263,7 +58228,7 @@
         <v>0.52295080000000005</v>
       </c>
       <c r="BD228" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="229" spans="1:56" ht="14.25">
@@ -58342,7 +58307,7 @@
         <v>24</v>
       </c>
       <c r="Y229" s="4" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="Z229" s="43">
         <v>55000093</v>
@@ -58412,7 +58377,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW229" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX229" s="4">
         <v>6</v>
@@ -58431,7 +58396,7 @@
         <v>0.47540979999999999</v>
       </c>
       <c r="BD229" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="230" spans="1:56" ht="14.25">
@@ -58510,7 +58475,7 @@
         <v>9</v>
       </c>
       <c r="Y230" s="4" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="Z230" s="43">
         <v>55300004</v>
@@ -58576,7 +58541,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW230" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX230" s="4">
         <v>6</v>
@@ -58595,7 +58560,7 @@
         <v>5.2459020000000002E-2</v>
       </c>
       <c r="BD230" s="22" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="231" spans="1:56" ht="14.25">
@@ -58674,7 +58639,7 @@
         <v>9</v>
       </c>
       <c r="Y231" s="4" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="Z231" s="43">
         <v>55300005</v>
@@ -58740,7 +58705,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW231" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX231" s="4">
         <v>6</v>
@@ -58759,7 +58724,7 @@
         <v>5.4098359999999998E-2</v>
       </c>
       <c r="BD231" s="22" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="232" spans="1:56" ht="14.25">
@@ -58898,7 +58863,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW232" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX232" s="4">
         <v>6</v>
@@ -58917,7 +58882,7 @@
         <v>3.9344259999999999E-2</v>
       </c>
       <c r="BD232" s="22" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="233" spans="1:56" ht="14.25">
@@ -58996,7 +58961,7 @@
         <v>251</v>
       </c>
       <c r="Y233" s="4" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="Z233" s="43">
         <v>55000120</v>
@@ -59062,7 +59027,7 @@
         <v>0;0;0.3;0;0;0;0</v>
       </c>
       <c r="AW233" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX233" s="4">
         <v>6</v>
@@ -59081,7 +59046,7 @@
         <v>0.54426229999999998</v>
       </c>
       <c r="BD233" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="234" spans="1:56" ht="14.25">
@@ -59160,7 +59125,7 @@
         <v>22</v>
       </c>
       <c r="Y234" s="4" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="Z234" s="43">
         <v>55000002</v>
@@ -59230,7 +59195,7 @@
         <v>0;0;0;0;0;0;0.3</v>
       </c>
       <c r="AW234" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX234" s="4">
         <v>6</v>
@@ -59249,7 +59214,7 @@
         <v>0.8573771</v>
       </c>
       <c r="BD234" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="235" spans="1:56" ht="14.25">
@@ -59328,7 +59293,7 @@
         <v>6</v>
       </c>
       <c r="Y235" s="4" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="Z235" s="43">
         <v>55000087</v>
@@ -59398,7 +59363,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW235" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX235" s="4">
         <v>6</v>
@@ -59417,7 +59382,7 @@
         <v>0.595082</v>
       </c>
       <c r="BD235" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="236" spans="1:56" ht="14.25">
@@ -59496,7 +59461,7 @@
         <v>12</v>
       </c>
       <c r="Y236" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Z236" s="43">
         <v>55000237</v>
@@ -59566,7 +59531,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW236" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX236" s="4">
         <v>6</v>
@@ -59585,7 +59550,7 @@
         <v>0.47704920000000001</v>
       </c>
       <c r="BD236" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="237" spans="1:56" ht="14.25">
@@ -59664,7 +59629,7 @@
         <v>2</v>
       </c>
       <c r="Y237" s="4" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="Z237" s="43">
         <v>55100001</v>
@@ -59742,7 +59707,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW237" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX237" s="4">
         <v>6</v>
@@ -59761,7 +59726,7 @@
         <v>0.70327870000000003</v>
       </c>
       <c r="BD237" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="238" spans="1:56" ht="14.25">
@@ -59840,7 +59805,7 @@
         <v>4</v>
       </c>
       <c r="Y238" s="7" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="Z238" s="43">
         <v>55000033</v>
@@ -59910,7 +59875,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW238" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX238" s="4">
         <v>6</v>
@@ -59929,7 +59894,7 @@
         <v>9.3442629999999999E-2</v>
       </c>
       <c r="BD238" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="239" spans="1:56" ht="14.25">
@@ -60008,7 +59973,7 @@
         <v>4</v>
       </c>
       <c r="Y239" s="4" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="Z239" s="43">
         <v>55000199</v>
@@ -60078,7 +60043,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW239" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX239" s="4">
         <v>6</v>
@@ -60097,7 +60062,7 @@
         <v>0.77377050000000003</v>
       </c>
       <c r="BD239" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="240" spans="1:56" ht="14.25">
@@ -60176,7 +60141,7 @@
         <v>2</v>
       </c>
       <c r="Y240" s="4" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="Z240" s="43">
         <v>55000006</v>
@@ -60246,7 +60211,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW240" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX240" s="4">
         <v>6</v>
@@ -60265,7 +60230,7 @@
         <v>0.63934429999999998</v>
       </c>
       <c r="BD240" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="241" spans="1:56" ht="14.25">
@@ -60344,7 +60309,7 @@
         <v>16</v>
       </c>
       <c r="Y241" s="4" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="Z241" s="43">
         <v>55000216</v>
@@ -60422,7 +60387,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW241" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX241" s="4">
         <v>3</v>
@@ -60441,7 +60406,7 @@
         <v>0.89016399999999996</v>
       </c>
       <c r="BD241" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="242" spans="1:56" ht="14.25">
@@ -60520,7 +60485,7 @@
         <v>4</v>
       </c>
       <c r="Y242" s="4" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="Z242" s="43">
         <v>55000010</v>
@@ -60590,7 +60555,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW242" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX242" s="4">
         <v>6</v>
@@ -60609,7 +60574,7 @@
         <v>0.51311479999999998</v>
       </c>
       <c r="BD242" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="243" spans="1:56" ht="14.25">
@@ -60688,7 +60653,7 @@
         <v>220</v>
       </c>
       <c r="Y243" s="4" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="Z243" s="43">
         <v>55000037</v>
@@ -60762,7 +60727,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW243" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX243" s="4">
         <v>6</v>
@@ -60781,7 +60746,7 @@
         <v>0.54590170000000005</v>
       </c>
       <c r="BD243" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="244" spans="1:56" ht="14.25">
@@ -60860,7 +60825,7 @@
         <v>2</v>
       </c>
       <c r="Y244" s="4" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="Z244" s="43">
         <v>55000131</v>
@@ -60930,7 +60895,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW244" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX244" s="4">
         <v>6</v>
@@ -60949,7 +60914,7 @@
         <v>0.62131150000000002</v>
       </c>
       <c r="BD244" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="245" spans="1:56" ht="14.25">
@@ -61028,7 +60993,7 @@
         <v>69</v>
       </c>
       <c r="Y245" s="4" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="Z245" s="43">
         <v>55000131</v>
@@ -61106,7 +61071,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW245" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX245" s="4">
         <v>4</v>
@@ -61125,7 +61090,7 @@
         <v>0.84590169999999998</v>
       </c>
       <c r="BD245" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="246" spans="1:56" ht="14.25">
@@ -61204,7 +61169,7 @@
         <v>251</v>
       </c>
       <c r="Y246" s="4" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="Z246" s="43">
         <v>55000216</v>
@@ -61270,7 +61235,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW246" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX246" s="4">
         <v>4</v>
@@ -61289,7 +61254,7 @@
         <v>0.85245899999999997</v>
       </c>
       <c r="BD246" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="247" spans="1:56" ht="14.25">
@@ -61368,7 +61333,7 @@
         <v>2</v>
       </c>
       <c r="Y247" s="4" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="Z247" s="43">
         <v>55000258</v>
@@ -61442,7 +61407,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW247" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX247" s="4">
         <v>6</v>
@@ -61461,7 +61426,7 @@
         <v>0.90983610000000004</v>
       </c>
       <c r="BD247" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="248" spans="1:56" ht="14.25">
@@ -61540,7 +61505,7 @@
         <v>19</v>
       </c>
       <c r="Y248" s="4" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="Z248" s="43">
         <v>55000260</v>
@@ -61606,7 +61571,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW248" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX248" s="4">
         <v>6</v>
@@ -61625,7 +61590,7 @@
         <v>5.0819669999999997E-2</v>
       </c>
       <c r="BD248" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="249" spans="1:56" ht="14.25">
@@ -61704,7 +61669,7 @@
         <v>16</v>
       </c>
       <c r="Y249" s="4" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="Z249" s="43">
         <v>55000037</v>
@@ -61774,7 +61739,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW249" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX249" s="4">
         <v>6</v>
@@ -61793,7 +61758,7 @@
         <v>0.59836069999999997</v>
       </c>
       <c r="BD249" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="250" spans="1:56" ht="14.25">
@@ -61872,7 +61837,7 @@
         <v>2</v>
       </c>
       <c r="Y250" s="4" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="Z250" s="43">
         <v>55000209</v>
@@ -61946,7 +61911,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW250" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX250" s="4">
         <v>3</v>
@@ -61965,7 +61930,7 @@
         <v>0.94262299999999999</v>
       </c>
       <c r="BD250" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="251" spans="1:56" ht="14.25">
@@ -62044,7 +62009,7 @@
         <v>4</v>
       </c>
       <c r="Y251" s="4" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="Z251" s="43">
         <v>55000001</v>
@@ -62114,7 +62079,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW251" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX251" s="4">
         <v>6</v>
@@ -62133,7 +62098,7 @@
         <v>0.35573769999999999</v>
       </c>
       <c r="BD251" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="252" spans="1:56" ht="14.25">
@@ -62212,7 +62177,7 @@
         <v>135</v>
       </c>
       <c r="Y252" s="4" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="Z252" s="43">
         <v>55000030</v>
@@ -62286,7 +62251,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW252" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX252" s="4">
         <v>6</v>
@@ -62305,7 +62270,7 @@
         <v>0.90163930000000003</v>
       </c>
       <c r="BD252" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="253" spans="1:56" ht="14.25">
@@ -62384,7 +62349,7 @@
         <v>19</v>
       </c>
       <c r="Y253" s="4" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="Z253" s="43">
         <v>55000265</v>
@@ -62454,7 +62419,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW253" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX253" s="4">
         <v>6</v>
@@ -62473,7 +62438,7 @@
         <v>0.64918039999999999</v>
       </c>
       <c r="BD253" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="254" spans="1:56" ht="14.25">
@@ -62552,7 +62517,7 @@
         <v>209</v>
       </c>
       <c r="Y254" s="4" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="Z254" s="43">
         <v>55000340</v>
@@ -62622,7 +62587,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW254" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX254" s="4">
         <v>6</v>
@@ -62641,7 +62606,7 @@
         <v>0.49836069999999999</v>
       </c>
       <c r="BD254" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="255" spans="1:56" ht="14.25">
@@ -62720,7 +62685,7 @@
         <v>0</v>
       </c>
       <c r="Y255" s="4" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="Z255" s="43">
         <v>55000181</v>
@@ -62790,7 +62755,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW255" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX255" s="4">
         <v>6</v>
@@ -62809,7 +62774,7 @@
         <v>0.82786890000000002</v>
       </c>
       <c r="BD255" s="22" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="256" spans="1:56" ht="14.25">
@@ -62888,7 +62853,7 @@
         <v>4</v>
       </c>
       <c r="Y256" s="4" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="Z256" s="43">
         <v>55000032</v>
@@ -62958,7 +62923,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW256" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX256" s="4">
         <v>6</v>
@@ -62977,7 +62942,7 @@
         <v>0.63278690000000004</v>
       </c>
       <c r="BD256" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="257" spans="1:56" ht="14.25">
@@ -63056,7 +63021,7 @@
         <v>2</v>
       </c>
       <c r="Y257" s="4" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="Z257" s="43">
         <v>55000129</v>
@@ -63126,7 +63091,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW257" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX257" s="4">
         <v>6</v>
@@ -63145,7 +63110,7 @@
         <v>0.49344260000000001</v>
       </c>
       <c r="BD257" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="258" spans="1:56" ht="14.25">
@@ -63224,7 +63189,7 @@
         <v>251</v>
       </c>
       <c r="Y258" s="4" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="Z258" s="43">
         <v>55000088</v>
@@ -63294,7 +63259,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW258" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX258" s="4">
         <v>6</v>
@@ -63313,7 +63278,7 @@
         <v>0.2147541</v>
       </c>
       <c r="BD258" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="259" spans="1:56" ht="14.25">
@@ -63392,7 +63357,7 @@
         <v>4</v>
       </c>
       <c r="Y259" s="7" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="Z259" s="43">
         <v>55000340</v>
@@ -63462,7 +63427,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW259" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX259" s="4">
         <v>6</v>
@@ -63481,7 +63446,7 @@
         <v>0.25245899999999999</v>
       </c>
       <c r="BD259" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="260" spans="1:56" ht="14.25">
@@ -63560,7 +63525,7 @@
         <v>6</v>
       </c>
       <c r="Y260" s="4" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="Z260" s="43">
         <v>55000269</v>
@@ -63630,7 +63595,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW260" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX260" s="4">
         <v>6</v>
@@ -63649,7 +63614,7 @@
         <v>0.28032790000000002</v>
       </c>
       <c r="BD260" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="261" spans="1:56" ht="14.25">
@@ -63728,7 +63693,7 @@
         <v>16</v>
       </c>
       <c r="Y261" s="4" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="Z261" s="43">
         <v>55000079</v>
@@ -63798,7 +63763,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW261" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX261" s="4">
         <v>6</v>
@@ -63817,7 +63782,7 @@
         <v>0.50327869999999997</v>
       </c>
       <c r="BD261" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="262" spans="1:56" ht="14.25">
@@ -63896,7 +63861,7 @@
         <v>4</v>
       </c>
       <c r="Y262" s="4" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="Z262" s="43">
         <v>55000199</v>
@@ -63962,7 +63927,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW262" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX262" s="4">
         <v>6</v>
@@ -63981,7 +63946,7 @@
         <v>0.37704919999999997</v>
       </c>
       <c r="BD262" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="263" spans="1:56" ht="14.25">
@@ -64120,7 +64085,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW263" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX263" s="4">
         <v>6</v>
@@ -64139,7 +64104,7 @@
         <v>0.1065574</v>
       </c>
       <c r="BD263" s="22" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="264" spans="1:56" ht="14.25">
@@ -64218,7 +64183,7 @@
         <v>4</v>
       </c>
       <c r="Y264" s="4" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="Z264" s="43">
         <v>55000271</v>
@@ -64288,7 +64253,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW264" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX264" s="4">
         <v>6</v>
@@ -64307,7 +64272,7 @@
         <v>0.4360656</v>
       </c>
       <c r="BD264" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="265" spans="1:56" ht="14.25">
@@ -64386,7 +64351,7 @@
         <v>2</v>
       </c>
       <c r="Y265" s="4" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="Z265" s="43">
         <v>55000123</v>
@@ -64460,7 +64425,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW265" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX265" s="4">
         <v>6</v>
@@ -64479,7 +64444,7 @@
         <v>0.57704920000000004</v>
       </c>
       <c r="BD265" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="266" spans="1:56" ht="14.25">
@@ -64558,7 +64523,7 @@
         <v>24</v>
       </c>
       <c r="Y266" s="4" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="Z266" s="43">
         <v>55000093</v>
@@ -64632,7 +64597,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW266" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX266" s="4">
         <v>6</v>
@@ -64651,7 +64616,7 @@
         <v>0.64590159999999996</v>
       </c>
       <c r="BD266" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="267" spans="1:56" ht="14.25">
@@ -64730,7 +64695,7 @@
         <v>94</v>
       </c>
       <c r="Y267" s="4" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="Z267" s="43">
         <v>55000001</v>
@@ -64804,7 +64769,7 @@
         <v>0;0;0;0;0;0.3;0</v>
       </c>
       <c r="AW267" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX267" s="4">
         <v>6</v>
@@ -64823,7 +64788,7 @@
         <v>0.8</v>
       </c>
       <c r="BD267" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="268" spans="1:56" ht="14.25">
@@ -64902,7 +64867,7 @@
         <v>16</v>
       </c>
       <c r="Y268" s="4" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="Z268" s="43">
         <v>55000279</v>
@@ -64972,7 +64937,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW268" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX268" s="4">
         <v>6</v>
@@ -64991,7 +64956,7 @@
         <v>0.5557377</v>
       </c>
       <c r="BD268" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="269" spans="1:56" ht="14.25">
@@ -65070,7 +65035,7 @@
         <v>9</v>
       </c>
       <c r="Y269" s="4" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="Z269" s="43">
         <v>55000272</v>
@@ -65136,7 +65101,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW269" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX269" s="4">
         <v>6</v>
@@ -65155,7 +65120,7 @@
         <v>0.4606557</v>
       </c>
       <c r="BD269" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="270" spans="1:56" ht="14.25">
@@ -65234,7 +65199,7 @@
         <v>16</v>
       </c>
       <c r="Y270" s="4" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="Z270" s="43">
         <v>55000030</v>
@@ -65304,7 +65269,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW270" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX270" s="4">
         <v>6</v>
@@ -65323,7 +65288,7 @@
         <v>0.58688530000000005</v>
       </c>
       <c r="BD270" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="271" spans="1:56" ht="14.25">
@@ -65402,7 +65367,7 @@
         <v>40</v>
       </c>
       <c r="Y271" s="4" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="Z271" s="43">
         <v>55000019</v>
@@ -65476,7 +65441,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW271" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX271" s="4">
         <v>5</v>
@@ -65495,7 +65460,7 @@
         <v>0.81147539999999996</v>
       </c>
       <c r="BD271" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="272" spans="1:56" ht="14.25">
@@ -65574,7 +65539,7 @@
         <v>31</v>
       </c>
       <c r="Y272" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="Z272" s="43">
         <v>55000275</v>
@@ -65648,7 +65613,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW272" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX272" s="4">
         <v>6</v>
@@ -65667,7 +65632,7 @@
         <v>0.77213109999999996</v>
       </c>
       <c r="BD272" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="273" spans="1:56" ht="14.25">
@@ -65743,10 +65708,10 @@
         <v>0</v>
       </c>
       <c r="X273" s="4" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="Y273" s="4" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="Z273" s="43">
         <v>55000136</v>
@@ -65820,7 +65785,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW273" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX273" s="4">
         <v>3</v>
@@ -65839,7 +65804,7 @@
         <v>0.83442620000000001</v>
       </c>
       <c r="BD273" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="274" spans="1:56" ht="14.25">
@@ -65918,7 +65883,7 @@
         <v>0</v>
       </c>
       <c r="Y274" s="4" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="Z274" s="43">
         <v>55000342</v>
@@ -65984,7 +65949,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW274" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX274" s="4">
         <v>6</v>
@@ -66003,7 +65968,7 @@
         <v>0.12950819999999999</v>
       </c>
       <c r="BD274" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="275" spans="1:56" ht="14.25">
@@ -66082,7 +66047,7 @@
         <v>277</v>
       </c>
       <c r="Y275" s="4" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="Z275" s="43">
         <v>55000278</v>
@@ -66152,7 +66117,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW275" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX275" s="4">
         <v>6</v>
@@ -66171,7 +66136,7 @@
         <v>0.40655740000000001</v>
       </c>
       <c r="BD275" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="276" spans="1:56" ht="14.25">
@@ -66250,7 +66215,7 @@
         <v>22</v>
       </c>
       <c r="Y276" s="4" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="Z276" s="43">
         <v>55000038</v>
@@ -66318,7 +66283,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW276" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX276" s="4">
         <v>6</v>
@@ -66337,7 +66302,7 @@
         <v>0.67049179999999997</v>
       </c>
       <c r="BD276" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="277" spans="1:56" ht="14.25">
@@ -66416,7 +66381,7 @@
         <v>78</v>
       </c>
       <c r="Y277" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="Z277" s="43">
         <v>55000150</v>
@@ -66486,7 +66451,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW277" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX277" s="4">
         <v>6</v>
@@ -66505,7 +66470,7 @@
         <v>0.48196719999999998</v>
       </c>
       <c r="BD277" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="278" spans="1:56" ht="14.25">
@@ -66584,7 +66549,7 @@
         <v>4</v>
       </c>
       <c r="Y278" s="4" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="Z278" s="43">
         <v>55000136</v>
@@ -66654,7 +66619,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW278" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX278" s="4">
         <v>6</v>
@@ -66673,7 +66638,7 @@
         <v>0.52295080000000005</v>
       </c>
       <c r="BD278" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="279" spans="1:56" ht="14.25">
@@ -66752,7 +66717,7 @@
         <v>4</v>
       </c>
       <c r="Y279" s="7" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="Z279" s="43">
         <v>55000282</v>
@@ -66818,7 +66783,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW279" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX279" s="4">
         <v>6</v>
@@ -66837,7 +66802,7 @@
         <v>0.10983610000000001</v>
       </c>
       <c r="BD279" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="280" spans="1:56" ht="14.25">
@@ -66916,7 +66881,7 @@
         <v>16</v>
       </c>
       <c r="Y280" s="4" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="Z280" s="43">
         <v>55000120</v>
@@ -66986,7 +66951,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW280" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX280" s="4">
         <v>6</v>
@@ -67005,7 +66970,7 @@
         <v>0.50655740000000005</v>
       </c>
       <c r="BD280" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="281" spans="1:56" ht="14.25">
@@ -67084,7 +67049,7 @@
         <v>9</v>
       </c>
       <c r="Y281" s="4" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="Z281" s="43">
         <v>55000285</v>
@@ -67150,7 +67115,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW281" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX281" s="4">
         <v>6</v>
@@ -67169,7 +67134,7 @@
         <v>5.5737700000000001E-2</v>
       </c>
       <c r="BD281" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="282" spans="1:56" ht="14.25">
@@ -67248,7 +67213,7 @@
         <v>6</v>
       </c>
       <c r="Y282" s="4" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="Z282" s="43">
         <v>55000285</v>
@@ -67314,7 +67279,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW282" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX282" s="4">
         <v>6</v>
@@ -67333,7 +67298,7 @@
         <v>0.14590159999999999</v>
       </c>
       <c r="BD282" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="283" spans="1:56" ht="14.25">
@@ -67412,7 +67377,7 @@
         <v>16</v>
       </c>
       <c r="Y283" s="4" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="Z283" s="43">
         <v>55000285</v>
@@ -67478,7 +67443,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW283" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX283" s="4">
         <v>6</v>
@@ -67497,7 +67462,7 @@
         <v>0.1245902</v>
       </c>
       <c r="BD283" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="284" spans="1:56" ht="14.25">
@@ -67576,7 +67541,7 @@
         <v>6</v>
       </c>
       <c r="Y284" s="4" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="Z284" s="43">
         <v>55000287</v>
@@ -67646,7 +67611,7 @@
         <v>0;0;0;0;0;0.3;0</v>
       </c>
       <c r="AW284" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX284" s="4">
         <v>6</v>
@@ -67665,7 +67630,7 @@
         <v>0.90163930000000003</v>
       </c>
       <c r="BD284" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="285" spans="1:56" ht="14.25">
@@ -67744,7 +67709,7 @@
         <v>16</v>
       </c>
       <c r="Y285" s="4" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="Z285" s="43">
         <v>55000289</v>
@@ -67814,7 +67779,7 @@
         <v>0;0;0;0;0;0;0.3</v>
       </c>
       <c r="AW285" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX285" s="4">
         <v>5</v>
@@ -67833,7 +67798,7 @@
         <v>0.91311469999999995</v>
       </c>
       <c r="BD285" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="286" spans="1:56" ht="14.25">
@@ -67972,7 +67937,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW286" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX286" s="4">
         <v>6</v>
@@ -67991,7 +67956,7 @@
         <v>0.2262295</v>
       </c>
       <c r="BD286" s="22" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="287" spans="1:56" ht="14.25">
@@ -68070,7 +68035,7 @@
         <v>16</v>
       </c>
       <c r="Y287" s="4" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="Z287" s="43">
         <v>55000286</v>
@@ -68140,7 +68105,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW287" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX287" s="4">
         <v>6</v>
@@ -68159,7 +68124,7 @@
         <v>0.74754100000000001</v>
       </c>
       <c r="BD287" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="288" spans="1:56" ht="14.25">
@@ -68238,7 +68203,7 @@
         <v>9</v>
       </c>
       <c r="Y288" s="4" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="Z288" s="43">
         <v>55000292</v>
@@ -68308,7 +68273,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW288" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX288" s="4">
         <v>6</v>
@@ -68327,7 +68292,7 @@
         <v>0.33934429999999999</v>
       </c>
       <c r="BD288" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="289" spans="1:56" ht="14.25">
@@ -68406,7 +68371,7 @@
         <v>100</v>
       </c>
       <c r="Y289" s="4" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="Z289" s="43">
         <v>55000293</v>
@@ -68472,7 +68437,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW289" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX289" s="4">
         <v>6</v>
@@ -68491,7 +68456,7 @@
         <v>8.6885240000000002E-2</v>
       </c>
       <c r="BD289" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="290" spans="1:56" ht="14.25">
@@ -68570,7 +68535,7 @@
         <v>16</v>
       </c>
       <c r="Y290" s="4" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="Z290" s="43">
         <v>55000284</v>
@@ -68636,7 +68601,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW290" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX290" s="4">
         <v>6</v>
@@ -68655,7 +68620,7 @@
         <v>0.3327869</v>
       </c>
       <c r="BD290" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="291" spans="1:56" ht="14.25">
@@ -68734,7 +68699,7 @@
         <v>78</v>
       </c>
       <c r="Y291" s="4" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="Z291" s="43">
         <v>55000246</v>
@@ -68804,7 +68769,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW291" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX291" s="4">
         <v>6</v>
@@ -68823,7 +68788,7 @@
         <v>0.72786890000000004</v>
       </c>
       <c r="BD291" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="292" spans="1:56" ht="14.25">
@@ -68902,7 +68867,7 @@
         <v>22</v>
       </c>
       <c r="Y292" s="4" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="Z292" s="43">
         <v>55000037</v>
@@ -68972,7 +68937,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW292" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX292" s="4">
         <v>6</v>
@@ -68991,7 +68956,7 @@
         <v>0.7</v>
       </c>
       <c r="BD292" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="293" spans="1:56" ht="14.25">
@@ -69070,7 +69035,7 @@
         <v>9</v>
       </c>
       <c r="Y293" s="4" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="Z293" s="43">
         <v>55000296</v>
@@ -69136,7 +69101,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW293" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX293" s="4">
         <v>6</v>
@@ -69155,7 +69120,7 @@
         <v>8.1967209999999999E-2</v>
       </c>
       <c r="BD293" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="294" spans="1:56" ht="14.25">
@@ -69234,7 +69199,7 @@
         <v>16</v>
       </c>
       <c r="Y294" s="4" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="Z294" s="43">
         <v>55000015</v>
@@ -69308,7 +69273,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW294" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX294" s="4">
         <v>6</v>
@@ -69327,7 +69292,7 @@
         <v>0.8180328</v>
       </c>
       <c r="BD294" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="295" spans="1:56" ht="14.25">
@@ -69406,7 +69371,7 @@
         <v>1002</v>
       </c>
       <c r="Y295" s="4" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="Z295" s="43">
         <v>55000332</v>
@@ -69472,7 +69437,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW295" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX295" s="4">
         <v>6</v>
@@ -69491,7 +69456,7 @@
         <v>0.34426230000000002</v>
       </c>
       <c r="BD295" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="296" spans="1:56" ht="14.25">
@@ -69570,7 +69535,7 @@
         <v>2</v>
       </c>
       <c r="Y296" s="4" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="Z296" s="43">
         <v>55000333</v>
@@ -69640,7 +69605,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW296" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX296" s="4">
         <v>6</v>
@@ -69659,7 +69624,7 @@
         <v>0.29836059999999998</v>
       </c>
       <c r="BD296" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="297" spans="1:56" ht="14.25">
@@ -69738,7 +69703,7 @@
         <v>45</v>
       </c>
       <c r="Y297" s="4" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="Z297" s="43">
         <v>55000045</v>
@@ -69812,7 +69777,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW297" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX297" s="4">
         <v>6</v>
@@ -69831,7 +69796,7 @@
         <v>0.50983610000000001</v>
       </c>
       <c r="BD297" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="298" spans="1:56" ht="14.25">
@@ -69910,7 +69875,7 @@
         <v>2</v>
       </c>
       <c r="Y298" s="7" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="Z298" s="43">
         <v>55000046</v>
@@ -69980,7 +69945,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW298" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX298" s="4">
         <v>6</v>
@@ -69999,7 +69964,7 @@
         <v>0.2377049</v>
       </c>
       <c r="BD298" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="299" spans="1:56" ht="14.25">
@@ -70078,7 +70043,7 @@
         <v>22</v>
       </c>
       <c r="Y299" s="4" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="Z299" s="43">
         <v>55000047</v>
@@ -70144,7 +70109,7 @@
         <v>0;0;0;0.3;0;0;0</v>
       </c>
       <c r="AW299" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX299" s="4">
         <v>6</v>
@@ -70163,7 +70128,7 @@
         <v>0.80983609999999995</v>
       </c>
       <c r="BD299" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="300" spans="1:56" ht="14.25">
@@ -70242,7 +70207,7 @@
         <v>22</v>
       </c>
       <c r="Y300" s="4" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="Z300" s="43">
         <v>55000107</v>
@@ -70308,7 +70273,7 @@
         <v>0;0.3;0;0;0;0;0</v>
       </c>
       <c r="AW300" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX300" s="4">
         <v>6</v>
@@ -70327,7 +70292,7 @@
         <v>0.81967210000000001</v>
       </c>
       <c r="BD300" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="301" spans="1:56" ht="14.25">
@@ -70406,7 +70371,7 @@
         <v>111</v>
       </c>
       <c r="Y301" s="4" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="Z301" s="43">
         <v>55000013</v>
@@ -70484,7 +70449,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW301" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX301" s="4">
         <v>3</v>
@@ -70503,7 +70468,7 @@
         <v>0.75409839999999995</v>
       </c>
       <c r="BD301" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="302" spans="1:56" ht="14.25">
@@ -70582,7 +70547,7 @@
         <v>209</v>
       </c>
       <c r="Y302" s="4" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="Z302" s="43">
         <v>55000335</v>
@@ -70652,7 +70617,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW302" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX302" s="4">
         <v>6</v>
@@ -70671,7 +70636,7 @@
         <v>0.33442620000000001</v>
       </c>
       <c r="BD302" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="303" spans="1:56" ht="14.25">
@@ -70750,7 +70715,7 @@
         <v>78</v>
       </c>
       <c r="Y303" s="11" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="Z303" s="43">
         <v>55000340</v>
@@ -70820,7 +70785,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW303" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX303" s="11">
         <v>6</v>
@@ -70839,7 +70804,7 @@
         <v>0.1065574</v>
       </c>
       <c r="BD303" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="304" spans="1:56" ht="14.25">
@@ -70918,7 +70883,7 @@
         <v>6</v>
       </c>
       <c r="Y304" s="11" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="Z304" s="43">
         <v>55000341</v>
@@ -70984,7 +70949,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW304" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX304" s="11">
         <v>6</v>
@@ -71003,7 +70968,7 @@
         <v>0.19508200000000001</v>
       </c>
       <c r="BD304" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="305" spans="1:56" ht="14.25">
@@ -71082,7 +71047,7 @@
         <v>6</v>
       </c>
       <c r="Y305" s="11" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="Z305" s="43">
         <v>55000341</v>
@@ -71148,7 +71113,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW305" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX305" s="11">
         <v>6</v>
@@ -71167,7 +71132,7 @@
         <v>0.3885246</v>
       </c>
       <c r="BD305" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="306" spans="1:56" ht="14.25">
@@ -71246,7 +71211,7 @@
         <v>78</v>
       </c>
       <c r="Y306" s="11" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="Z306" s="43">
         <v>55000341</v>
@@ -71316,7 +71281,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW306" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX306" s="11">
         <v>6</v>
@@ -71335,7 +71300,7 @@
         <v>0.51967220000000003</v>
       </c>
       <c r="BD306" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="307" spans="1:56" ht="14.25">
@@ -71414,7 +71379,7 @@
         <v>0</v>
       </c>
       <c r="Y307" s="11" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="Z307" s="43">
         <v>55000343</v>
@@ -71480,7 +71445,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW307" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX307" s="11">
         <v>6</v>
@@ -71499,7 +71464,7 @@
         <v>0.49672129999999998</v>
       </c>
       <c r="BD307" s="22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="308" spans="1:56" ht="14.25">
@@ -71638,7 +71603,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW308" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX308" s="11">
         <v>6</v>
@@ -71657,7 +71622,7 @@
         <v>0.49672129999999998</v>
       </c>
       <c r="BD308" s="22" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="309" spans="1:56" ht="14.25">
@@ -71796,7 +71761,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW309" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX309" s="11">
         <v>6</v>
@@ -71815,7 +71780,7 @@
         <v>0.49672129999999998</v>
       </c>
       <c r="BD309" s="22" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="310" spans="1:56" ht="14.25">
@@ -71954,7 +71919,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW310" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX310" s="11">
         <v>6</v>
@@ -71973,7 +71938,7 @@
         <v>0.49672129999999998</v>
       </c>
       <c r="BD310" s="22" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="311" spans="1:56" ht="14.25">
@@ -72112,7 +72077,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW311" s="56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX311" s="11">
         <v>6</v>
@@ -72131,7 +72096,7 @@
         <v>0.49672129999999998</v>
       </c>
       <c r="BD311" s="22" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="312" spans="1:56" ht="14.25">
@@ -72139,10 +72104,10 @@
         <v>51000309</v>
       </c>
       <c r="B312" s="11" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="D312" s="8" t="s">
         <v>698</v>
@@ -72210,7 +72175,7 @@
         <v>9</v>
       </c>
       <c r="Y312" s="11" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="Z312" s="21">
         <v>55400001</v>
@@ -72276,7 +72241,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW312" s="57" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX312" s="11">
         <v>6</v>
@@ -72295,7 +72260,7 @@
         <v>0.40819670000000002</v>
       </c>
       <c r="BD312" s="11" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="313" spans="1:56" ht="14.25">
@@ -72303,13 +72268,13 @@
         <v>51000310</v>
       </c>
       <c r="B313" s="11" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="C313" s="11" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="D313" s="8" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="E313" s="11">
         <v>6</v>
@@ -72374,7 +72339,7 @@
         <v>1021</v>
       </c>
       <c r="Y313" s="11" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="Z313" s="21">
         <v>55200001</v>
@@ -72440,7 +72405,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW313" s="57" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX313" s="11">
         <v>6</v>
@@ -72459,7 +72424,7 @@
         <v>0.49672129999999998</v>
       </c>
       <c r="BD313" s="11" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="314" spans="1:56" ht="14.25">
@@ -72467,13 +72432,13 @@
         <v>51000311</v>
       </c>
       <c r="B314" s="11" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="C314" s="11" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="D314" s="8" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="E314" s="11">
         <v>4</v>
@@ -72538,7 +72503,7 @@
         <v>228</v>
       </c>
       <c r="Y314" s="11" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="Z314" s="21">
         <v>55300006</v>
@@ -72604,7 +72569,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW314" s="57" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AX314" s="11">
         <v>6</v>
@@ -72623,7 +72588,7 @@
         <v>0.49672129999999998</v>
       </c>
       <c r="BD314" s="11" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
     </row>
   </sheetData>
@@ -72731,7 +72696,7 @@
         <v>315</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="I1" s="17" t="s">
         <v>977</v>
@@ -72746,37 +72711,37 @@
         <v>972</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="N1" s="17" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="O1" s="17" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="Q1" s="17" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="R1" s="17" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="S1" s="17" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="T1" s="40" t="s">
         <v>974</v>
       </c>
       <c r="U1" s="17" t="s">
+        <v>1135</v>
+      </c>
+      <c r="V1" s="17" t="s">
         <v>1136</v>
       </c>
-      <c r="V1" s="17" t="s">
-        <v>1137</v>
-      </c>
       <c r="W1" s="17" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="X1" s="17" t="s">
         <v>323</v>
@@ -72785,76 +72750,76 @@
         <v>325</v>
       </c>
       <c r="Z1" s="44" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="AA1" s="44" t="s">
+        <v>1232</v>
+      </c>
+      <c r="AB1" s="44" t="s">
         <v>1233</v>
       </c>
-      <c r="AB1" s="44" t="s">
+      <c r="AC1" s="44" t="s">
         <v>1234</v>
       </c>
-      <c r="AC1" s="44" t="s">
+      <c r="AD1" s="44" t="s">
         <v>1235</v>
       </c>
-      <c r="AD1" s="44" t="s">
+      <c r="AE1" s="44" t="s">
         <v>1236</v>
       </c>
-      <c r="AE1" s="44" t="s">
+      <c r="AF1" s="44" t="s">
         <v>1237</v>
       </c>
-      <c r="AF1" s="44" t="s">
+      <c r="AG1" s="44" t="s">
         <v>1238</v>
       </c>
-      <c r="AG1" s="44" t="s">
-        <v>1239</v>
-      </c>
       <c r="AH1" s="44" t="s">
+        <v>1246</v>
+      </c>
+      <c r="AI1" s="17" t="s">
         <v>1247</v>
       </c>
-      <c r="AI1" s="17" t="s">
+      <c r="AJ1" s="17" t="s">
         <v>1248</v>
       </c>
-      <c r="AJ1" s="17" t="s">
+      <c r="AK1" s="17" t="s">
         <v>1249</v>
       </c>
-      <c r="AK1" s="17" t="s">
+      <c r="AL1" s="17" t="s">
         <v>1250</v>
       </c>
-      <c r="AL1" s="17" t="s">
+      <c r="AM1" s="17" t="s">
         <v>1251</v>
       </c>
-      <c r="AM1" s="17" t="s">
-        <v>1252</v>
-      </c>
       <c r="AN1" s="17" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="AO1" s="47" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="AP1" s="47" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="AQ1" s="47" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="AR1" s="47" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="AS1" s="47" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="AT1" s="47" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AU1" s="47" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="AV1" s="48" t="s">
         <v>1027</v>
       </c>
       <c r="AW1" s="54" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="AX1" s="17" t="s">
         <v>326</v>
@@ -72901,7 +72866,7 @@
         <v>295</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>295</v>
@@ -72919,7 +72884,7 @@
         <v>295</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>295</v>
@@ -72946,7 +72911,7 @@
         <v>295</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="X2" s="2" t="s">
         <v>296</v>
@@ -73024,7 +72989,7 @@
         <v>1029</v>
       </c>
       <c r="AW2" s="55" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="AX2" s="2" t="s">
         <v>295</v>
@@ -73071,7 +73036,7 @@
         <v>1033</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>979</v>
@@ -73086,37 +73051,37 @@
         <v>973</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="T3" s="42" t="s">
         <v>975</v>
       </c>
       <c r="U3" s="6" t="s">
+        <v>1138</v>
+      </c>
+      <c r="V3" s="6" t="s">
         <v>1139</v>
       </c>
-      <c r="V3" s="6" t="s">
-        <v>1140</v>
-      </c>
       <c r="W3" s="6" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="X3" s="6" t="s">
         <v>306</v>
@@ -73125,76 +73090,76 @@
         <v>308</v>
       </c>
       <c r="Z3" s="46" t="s">
+        <v>1230</v>
+      </c>
+      <c r="AA3" s="46" t="s">
         <v>1231</v>
       </c>
-      <c r="AA3" s="46" t="s">
-        <v>1232</v>
-      </c>
       <c r="AB3" s="46" t="s">
+        <v>1239</v>
+      </c>
+      <c r="AC3" s="46" t="s">
         <v>1240</v>
       </c>
-      <c r="AC3" s="46" t="s">
+      <c r="AD3" s="46" t="s">
         <v>1241</v>
       </c>
-      <c r="AD3" s="46" t="s">
+      <c r="AE3" s="46" t="s">
         <v>1242</v>
       </c>
-      <c r="AE3" s="46" t="s">
+      <c r="AF3" s="46" t="s">
         <v>1243</v>
       </c>
-      <c r="AF3" s="46" t="s">
+      <c r="AG3" s="46" t="s">
         <v>1244</v>
       </c>
-      <c r="AG3" s="46" t="s">
+      <c r="AH3" s="46" t="s">
         <v>1245</v>
       </c>
-      <c r="AH3" s="46" t="s">
-        <v>1246</v>
-      </c>
       <c r="AI3" s="6" t="s">
+        <v>1252</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
         <v>1253</v>
       </c>
-      <c r="AJ3" s="6" t="s">
+      <c r="AK3" s="6" t="s">
         <v>1254</v>
       </c>
-      <c r="AK3" s="6" t="s">
+      <c r="AL3" s="6" t="s">
         <v>1255</v>
       </c>
-      <c r="AL3" s="6" t="s">
+      <c r="AM3" s="6" t="s">
         <v>1256</v>
       </c>
-      <c r="AM3" s="6" t="s">
-        <v>1257</v>
-      </c>
       <c r="AN3" s="6" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="AO3" s="51" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="AP3" s="52" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="AQ3" s="52" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="AR3" s="52" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="AS3" s="52" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="AT3" s="52" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="AU3" s="52" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="AV3" s="42" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="AW3" s="14" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="AX3" s="6" t="s">
         <v>309</v>
@@ -73354,7 +73319,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW4" s="56" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="AX4" s="11">
         <v>6</v>
@@ -73514,7 +73479,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW5" s="56" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="AX5" s="11">
         <v>6</v>
@@ -73670,7 +73635,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW6" s="56" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="AX6" s="4">
         <v>6</v>
@@ -73695,13 +73660,13 @@
         <v>51018001</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C7" s="11" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D7" s="25" t="s">
         <v>1133</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>1134</v>
       </c>
       <c r="E7" s="11">
         <v>1</v>
@@ -73826,7 +73791,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW7" s="56" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="AX7" s="11">
         <v>6</v>
@@ -73848,16 +73813,16 @@
     </row>
     <row r="8" spans="1:56" ht="14.25">
       <c r="A8" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="E8" s="11">
         <v>4</v>
@@ -73919,7 +73884,7 @@
         <v>0</v>
       </c>
       <c r="X8" s="11" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="Y8" s="22"/>
       <c r="Z8" s="53"/>
@@ -73982,7 +73947,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW8" s="56" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="AX8" s="11">
         <v>6</v>
@@ -74004,16 +73969,16 @@
     </row>
     <row r="9" spans="1:56" ht="14.25">
       <c r="A9" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="E9" s="11">
         <v>3</v>
@@ -74075,7 +74040,7 @@
         <v>0</v>
       </c>
       <c r="X9" s="11" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="Y9" s="22"/>
       <c r="Z9" s="53"/>
@@ -74138,7 +74103,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW9" s="56" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="AX9" s="11">
         <v>6</v>
@@ -74298,7 +74263,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW10" s="56" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="AX10" s="36">
         <v>6</v>
@@ -74320,10 +74285,10 @@
     </row>
     <row r="11" spans="1:56" ht="14.25">
       <c r="A11" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>1030</v>
@@ -74458,7 +74423,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW11" s="56" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="AX11" s="11">
         <v>6</v>

--- a/ConfigData/Xlsx/Monster.xlsx
+++ b/ConfigData/Xlsx/Monster.xlsx
@@ -23,7 +23,7 @@
   </externalReferences>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -701,7 +701,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2547" uniqueCount="1432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2547" uniqueCount="1433">
   <si>
     <t>arrow</t>
   </si>
@@ -5362,10 +5362,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>51018003|ArrowTowerId</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>arrow</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -5518,6 +5514,14 @@
   </si>
   <si>
     <t>55300007;100</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spd</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>51018003|ArrowTowerId</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -9818,11 +9822,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1107170496"/>
-        <c:axId val="-1107169952"/>
+        <c:axId val="570515760"/>
+        <c:axId val="570509232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1107170496"/>
+        <c:axId val="570515760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9865,7 +9869,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1107169952"/>
+        <c:crossAx val="570509232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9873,7 +9877,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1107169952"/>
+        <c:axId val="570509232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9924,7 +9928,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1107170496"/>
+        <c:crossAx val="570515760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10728,25 +10732,153 @@
         </row>
         <row r="16">
           <cell r="A16">
-            <v>55900001</v>
+            <v>55500001</v>
           </cell>
           <cell r="V16">
-            <v>35</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17">
-            <v>55900002</v>
+            <v>55500002</v>
           </cell>
           <cell r="V17">
-            <v>30</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18">
+            <v>55500003</v>
+          </cell>
+          <cell r="V18">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>55500004</v>
+          </cell>
+          <cell r="V19">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>55500005</v>
+          </cell>
+          <cell r="V20">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>55500006</v>
+          </cell>
+          <cell r="V21">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>55500007</v>
+          </cell>
+          <cell r="V22">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>55500008</v>
+          </cell>
+          <cell r="V23">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>55500009</v>
+          </cell>
+          <cell r="V24">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>55500010</v>
+          </cell>
+          <cell r="V25">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>55500011</v>
+          </cell>
+          <cell r="V26">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>55500012</v>
+          </cell>
+          <cell r="V27">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>55500013</v>
+          </cell>
+          <cell r="V28">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>55500014</v>
+          </cell>
+          <cell r="V29">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>55500015</v>
+          </cell>
+          <cell r="V30">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>55500016</v>
+          </cell>
+          <cell r="V31">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>55900001</v>
+          </cell>
+          <cell r="V32">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>55900002</v>
+          </cell>
+          <cell r="V33">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
             <v>55900003</v>
           </cell>
-          <cell r="V18">
+          <cell r="V34">
             <v>80</v>
           </cell>
         </row>
@@ -19687,7 +19819,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="27">
     <pivotField dataField="1" showAll="0"/>
@@ -20257,7 +20389,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -20345,7 +20477,7 @@
         <v>1151</v>
       </c>
       <c r="S1" s="17" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="T1" s="40" t="s">
         <v>974</v>
@@ -20357,7 +20489,7 @@
         <v>1136</v>
       </c>
       <c r="W1" s="17" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="X1" s="17" t="s">
         <v>323</v>
@@ -20435,7 +20567,7 @@
         <v>1027</v>
       </c>
       <c r="AW1" s="54" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="AX1" s="17" t="s">
         <v>326</v>
@@ -20527,7 +20659,7 @@
         <v>1137</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="X2" s="2" t="s">
         <v>296</v>
@@ -20605,7 +20737,7 @@
         <v>1029</v>
       </c>
       <c r="AW2" s="55" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="AX2" s="2" t="s">
         <v>295</v>
@@ -20673,7 +20805,7 @@
         <v>1145</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>1148</v>
+        <v>1431</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>1155</v>
@@ -20697,7 +20829,7 @@
         <v>1139</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="X3" s="6" t="s">
         <v>306</v>
@@ -20775,7 +20907,7 @@
         <v>1028</v>
       </c>
       <c r="AW3" s="14" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="AX3" s="6" t="s">
         <v>309</v>
@@ -20935,7 +21067,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW4" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AX4" s="4">
         <v>6</v>
@@ -21033,7 +21165,7 @@
         <v>4</v>
       </c>
       <c r="Y5" s="4" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="Z5" s="21">
         <v>55100001</v>
@@ -21099,7 +21231,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW5" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AX5" s="4">
         <v>6</v>
@@ -21255,7 +21387,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW6" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AX6" s="4">
         <v>6</v>
@@ -21411,7 +21543,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW7" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AX7" s="4">
         <v>6</v>
@@ -21567,7 +21699,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW8" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AX8" s="4">
         <v>6</v>
@@ -21731,7 +21863,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW9" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AX9" s="4">
         <v>6</v>
@@ -21895,7 +22027,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW10" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AX10" s="4">
         <v>6</v>
@@ -22053,7 +22185,7 @@
         <v>0;0;0;0;0;0;0.3</v>
       </c>
       <c r="AW11" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AX11" s="4">
         <v>6</v>
@@ -22219,7 +22351,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW12" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AX12" s="4">
         <v>6</v>
@@ -22377,7 +22509,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW13" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AX13" s="4">
         <v>6</v>
@@ -22549,7 +22681,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW14" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AX14" s="4">
         <v>6</v>
@@ -22707,7 +22839,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW15" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AX15" s="4">
         <v>4</v>
@@ -22865,7 +22997,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW16" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AX16" s="4">
         <v>6</v>
@@ -23023,7 +23155,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW17" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AX17" s="4">
         <v>6</v>
@@ -23181,7 +23313,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW18" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AX18" s="4">
         <v>6</v>
@@ -23339,7 +23471,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW19" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AX19" s="4">
         <v>6</v>
@@ -23497,7 +23629,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW20" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AX20" s="4">
         <v>6</v>
@@ -23655,7 +23787,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW21" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AX21" s="4">
         <v>6</v>
@@ -23813,7 +23945,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW22" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AX22" s="4">
         <v>6</v>
@@ -23971,7 +24103,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW23" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AX23" s="4">
         <v>6</v>
@@ -24135,7 +24267,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW24" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AX24" s="4">
         <v>6</v>
@@ -24307,7 +24439,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW25" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AX25" s="4">
         <v>6</v>
@@ -24465,7 +24597,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW26" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AX26" s="4">
         <v>6</v>
@@ -24629,7 +24761,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW27" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AX27" s="4">
         <v>6</v>
@@ -24793,7 +24925,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW28" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AX28" s="4">
         <v>6</v>
@@ -24957,7 +25089,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW29" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AX29" s="4">
         <v>6</v>
@@ -25115,7 +25247,7 @@
         <v>0;0;0;0;0.3;0;0</v>
       </c>
       <c r="AW30" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AX30" s="4">
         <v>6</v>
@@ -25283,7 +25415,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW31" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AX31" s="4">
         <v>6</v>
@@ -25455,7 +25587,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW32" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AX32" s="4">
         <v>6</v>
@@ -25613,7 +25745,7 @@
         <v>0;0.3;0.3;0.3;0;0.3;0</v>
       </c>
       <c r="AW33" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AX33" s="4">
         <v>6</v>
@@ -25777,7 +25909,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW34" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AX34" s="4">
         <v>6</v>
@@ -25869,13 +26001,13 @@
         <v>0</v>
       </c>
       <c r="W35" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X35" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Y35" s="4" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="Z35" s="43">
         <v>55300001</v>
@@ -25941,7 +26073,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW35" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AX35" s="4">
         <v>6</v>
@@ -25960,7 +26092,7 @@
         <v>5.0819669999999997E-2</v>
       </c>
       <c r="BD35" s="22" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="36" spans="1:56" ht="14.25">
@@ -26109,7 +26241,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW36" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AX36" s="4">
         <v>6</v>
@@ -26273,7 +26405,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW37" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AX37" s="4">
         <v>6</v>
@@ -26431,7 +26563,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW38" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AX38" s="4">
         <v>6</v>
@@ -26589,7 +26721,7 @@
         <v>0;0.3;0;0;0.3;0;0</v>
       </c>
       <c r="AW39" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AX39" s="4">
         <v>6</v>
@@ -26747,7 +26879,7 @@
         <v>0;0.3;0;0.3;0;0;0</v>
       </c>
       <c r="AW40" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AX40" s="4">
         <v>6</v>
@@ -26911,7 +27043,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW41" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AX41" s="4">
         <v>6</v>
@@ -27079,7 +27211,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW42" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AX42" s="4">
         <v>6</v>
@@ -27243,7 +27375,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW43" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AX43" s="4">
         <v>6</v>
@@ -27411,7 +27543,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW44" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AX44" s="4">
         <v>6</v>
@@ -27579,7 +27711,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW45" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AX45" s="4">
         <v>6</v>
@@ -27747,7 +27879,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW46" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AX46" s="4">
         <v>6</v>
@@ -27911,7 +28043,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW47" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AX47" s="4">
         <v>6</v>
@@ -28075,7 +28207,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW48" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AX48" s="4">
         <v>6</v>
@@ -28239,7 +28371,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW49" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AX49" s="4">
         <v>6</v>
@@ -28407,7 +28539,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW50" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AX50" s="4">
         <v>4</v>
@@ -28575,7 +28707,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW51" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AX51" s="4">
         <v>6</v>
@@ -28673,7 +28805,7 @@
         <v>9</v>
       </c>
       <c r="Y52" s="4" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="Z52" s="43">
         <v>55900001</v>
@@ -28739,7 +28871,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW52" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AX52" s="4">
         <v>6</v>
@@ -28901,7 +29033,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW53" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AX53" s="4">
         <v>6</v>
@@ -29065,7 +29197,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW54" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AX54" s="4">
         <v>6</v>
@@ -29229,7 +29361,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW55" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AX55" s="4">
         <v>6</v>
@@ -29393,7 +29525,7 @@
         <v>0;0;0;0;0;0;0.3</v>
       </c>
       <c r="AW56" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AX56" s="4">
         <v>6</v>
@@ -29561,7 +29693,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW57" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AX57" s="4">
         <v>6</v>
@@ -29725,7 +29857,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW58" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AX58" s="4">
         <v>6</v>
@@ -29889,7 +30021,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW59" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AX59" s="4">
         <v>6</v>
@@ -30053,7 +30185,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW60" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AX60" s="4">
         <v>6</v>
@@ -30217,7 +30349,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW61" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AX61" s="4">
         <v>6</v>
@@ -30381,7 +30513,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW62" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AX62" s="4">
         <v>6</v>
@@ -30545,7 +30677,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW63" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AX63" s="4">
         <v>6</v>
@@ -30703,7 +30835,7 @@
         <v>0;0.3;0.3;0;0.3;0;0</v>
       </c>
       <c r="AW64" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AX64" s="4">
         <v>6</v>
@@ -30861,7 +30993,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW65" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AX65" s="4">
         <v>6</v>
@@ -31019,7 +31151,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW66" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AX66" s="4">
         <v>6</v>
@@ -31187,7 +31319,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW67" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AX67" s="4">
         <v>5</v>
@@ -31363,7 +31495,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW68" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AX68" s="4">
         <v>5</v>
@@ -31537,7 +31669,7 @@
         <v>0;0;0;0;0;0;0</v>
       </c>
       <c r="AW69" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c